--- a/Output/AcqTrends/CSIS_DoD_DIB_Trends.xlsx
+++ b/Output/AcqTrends/CSIS_DoD_DIB_Trends.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="DIB count" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DIB dollars" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">LargestContract2018dollars</t>
   </si>
@@ -67,14 +68,79 @@
   </si>
   <si>
     <t xml:space="preserve">[$7.5 M+]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Consistently Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sectorial Small or Larger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[$10 K - $250 K)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consistently Small Vendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sectorial Small or Larger Vendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00,&quot;K&quot;"/>
+  <numFmts count="6">
+    <numFmt numFmtId="169" formatCode="0.00,&quot;K&quot;"/>
+    <numFmt numFmtId="201" formatCode="0.00,&quot;K&quot;"/>
+    <numFmt numFmtId="204" formatCode="0.00,&quot;K&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="205" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -110,9 +176,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,35 +482,35 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="C1" t="str">
+        <f>AB1</f>
+      </c>
+      <c r="D1" t="str">
+        <f>AD1</f>
+      </c>
+      <c r="E1" t="str">
+        <f>AE1</f>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
+      <c r="G1" t="str">
+        <f>AD1&amp;"-"&amp;AE1</f>
+      </c>
+      <c r="H1" t="str">
+        <f>AB1&amp;"-"&amp;AE1</f>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
+      <c r="J1" t="str">
+        <f>"Share "&amp;AE1</f>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -446,331 +518,2253 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>16177</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>16316</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>15597</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>15051</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>14211</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>13611</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>12440</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>11584</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>10261</v>
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>AB2</f>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f>AD2</f>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>AE2</f>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>15195</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>AE2/AD2-1</f>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f>AE2/AB2-1</f>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>12467</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f>AE2/Sum(AE$1:AE$9)</f>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>10312</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>10119</v>
-      </c>
-      <c r="M2" s="1"/>
+        <v>10177</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>26688</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>26534</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>25831</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>24010</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>22644</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>20827</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>17598</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>16870</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>16511</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>15670</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>15195</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>14302</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>13654</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>12467</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>11606</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>10312</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>10177</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>14302</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>13654</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>12467</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>11606</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
+        <v>10312</v>
+      </c>
+      <c r="AK2" s="3" t="n">
+        <v>10177</v>
+      </c>
+      <c r="AL2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>7621</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>7843</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>7456</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>7028</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>6553</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>5840</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>5214</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>4998</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>4599</v>
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f>AB3</f>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f>AD3</f>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f>AE3</f>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>7012</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f>AE3/AD3-1</f>
+      </c>
+      <c r="H3" s="2" t="str">
+        <f>AE3/AB3-1</f>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>5173</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f>AE3/Sum(AE$1:AE$9)</f>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>4562</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>4625</v>
-      </c>
-      <c r="M3" s="1"/>
+        <v>4597</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>12112</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>12529</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>11760</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>10948</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>10241</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>9673</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>8437</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>7731</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>7819</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>7419</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>7012</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>6551</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>5807</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>5173</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>4967</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>4562</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>4597</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>6551</v>
+      </c>
+      <c r="AG3" s="3" t="n">
+        <v>5807</v>
+      </c>
+      <c r="AH3" s="3" t="n">
+        <v>5173</v>
+      </c>
+      <c r="AI3" s="3" t="n">
+        <v>4967</v>
+      </c>
+      <c r="AJ3" s="3" t="n">
+        <v>4562</v>
+      </c>
+      <c r="AK3" s="3" t="n">
+        <v>4597</v>
+      </c>
+      <c r="AL3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f>AB4</f>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f>AD4</f>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f>AE4</f>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>3613</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f>AE4/AD4-1</f>
+      </c>
+      <c r="H4" s="2" t="str">
+        <f>AE4/AB4-1</f>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>3648</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f>AE4/Sum(AE$1:AE$9)</f>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>3163</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>3355</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>3143</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>3315</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>3391</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>3476</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>3390</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>3377</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>3612</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>3531</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>3127</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>3331</v>
-      </c>
-      <c r="M4" s="1"/>
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>3667</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>3766</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>4294</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>4286</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>4387</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>4287</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>3761</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>3801</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>3688</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>3616</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>3613</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>3474</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>3426</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>3648</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>3570</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>3163</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>3355</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>3474</v>
+      </c>
+      <c r="AG4" s="3" t="n">
+        <v>3426</v>
+      </c>
+      <c r="AH4" s="3" t="n">
+        <v>3648</v>
+      </c>
+      <c r="AI4" s="3" t="n">
+        <v>3570</v>
+      </c>
+      <c r="AJ4" s="3" t="n">
+        <v>3163</v>
+      </c>
+      <c r="AK4" s="3" t="n">
+        <v>3355</v>
+      </c>
+      <c r="AL4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f>AB5</f>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f>AD5</f>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f>AE5</f>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2175</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f>AE5/AD5-1</f>
+      </c>
+      <c r="H5" s="2" t="str">
+        <f>AE5/AB5-1</f>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>1977</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f>AE5/Sum(AE$1:AE$9)</f>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>1841</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>1815</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>2047</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>2233</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>2232</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>2212</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>2121</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>1941</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>1985</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>1964</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>1842</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>1818</v>
-      </c>
-      <c r="M5" s="1"/>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>2539</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>2529</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2747</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>2791</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>2739</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>2594</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>2338</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>2177</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2267</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>2237</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>2175</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>2105</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1928</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1977</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1974</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>1841</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>1815</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>2105</v>
+      </c>
+      <c r="AG5" s="3" t="n">
+        <v>1928</v>
+      </c>
+      <c r="AH5" s="3" t="n">
+        <v>1977</v>
+      </c>
+      <c r="AI5" s="3" t="n">
+        <v>1974</v>
+      </c>
+      <c r="AJ5" s="3" t="n">
+        <v>1841</v>
+      </c>
+      <c r="AK5" s="3" t="n">
+        <v>1815</v>
+      </c>
+      <c r="AL5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f>AB6</f>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f>AD6</f>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f>AE6</f>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>6124</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f>AE6/AD6-1</f>
+      </c>
+      <c r="H6" s="2" t="str">
+        <f>AE6/AB6-1</f>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>6319</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f>AE6/Sum(AE$1:AE$9)</f>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>5934</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>5877</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>6273</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>6335</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>6203</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>6067</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>6030</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>5891</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>6265</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>6198</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>5921</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>5866</v>
-      </c>
-      <c r="M6" s="1"/>
+      <c r="N6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>8246</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>8195</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8176</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>8354</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>8139</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>7783</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>6971</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6868</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>6496</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6298</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>6124</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>6156</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5934</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6319</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6228</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>5934</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>5877</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>6156</v>
+      </c>
+      <c r="AG6" s="3" t="n">
+        <v>5934</v>
+      </c>
+      <c r="AH6" s="3" t="n">
+        <v>6319</v>
+      </c>
+      <c r="AI6" s="3" t="n">
+        <v>6228</v>
+      </c>
+      <c r="AJ6" s="3" t="n">
+        <v>5934</v>
+      </c>
+      <c r="AK6" s="3" t="n">
+        <v>5877</v>
+      </c>
+      <c r="AL6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f>AB7</f>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f>AD7</f>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f>AE7</f>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>3718</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f>AE7/AD7-1</f>
+      </c>
+      <c r="H7" s="2" t="str">
+        <f>AE7/AB7-1</f>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>3326</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f>AE7/Sum(AE$1:AE$9)</f>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>3131</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>3137</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>3521</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>3789</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>3759</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>3665</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>3657</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>3464</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>3306</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>3206</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>3104</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>3126</v>
-      </c>
-      <c r="M7" s="1"/>
+      <c r="N7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>4912</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>5018</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>4896</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>4836</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>4686</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>4380</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>3982</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>3783</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>3883</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>3803</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>3718</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>3679</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>3461</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>3326</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>3211</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>3131</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>3137</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>3679</v>
+      </c>
+      <c r="AG7" s="3" t="n">
+        <v>3461</v>
+      </c>
+      <c r="AH7" s="3" t="n">
+        <v>3326</v>
+      </c>
+      <c r="AI7" s="3" t="n">
+        <v>3211</v>
+      </c>
+      <c r="AJ7" s="3" t="n">
+        <v>3131</v>
+      </c>
+      <c r="AK7" s="3" t="n">
+        <v>3137</v>
+      </c>
+      <c r="AL7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f>AB8</f>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f>AD8</f>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f>AE8</f>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>6534</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f>AE8/AD8-1</f>
+      </c>
+      <c r="H8" s="2" t="str">
+        <f>AE8/AB8-1</f>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>5882</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f>AE8/Sum(AE$1:AE$9)</f>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>5987</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>6146</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>5991</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>5792</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>6262</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>6357</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>6586</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>6782</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>5771</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>5869</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>5907</v>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>6094</v>
-      </c>
-      <c r="M8" s="1"/>
+      <c r="N8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>3223</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>3447</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>3443</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>4278</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>4467</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>4761</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>6118</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>6464</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>6153</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>6532</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>6534</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>6717</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>6909</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>5882</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>5950</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>5987</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>6146</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>6717</v>
+      </c>
+      <c r="AG8" s="3" t="n">
+        <v>6909</v>
+      </c>
+      <c r="AH8" s="3" t="n">
+        <v>5882</v>
+      </c>
+      <c r="AI8" s="3" t="n">
+        <v>5950</v>
+      </c>
+      <c r="AJ8" s="3" t="n">
+        <v>5987</v>
+      </c>
+      <c r="AK8" s="3" t="n">
+        <v>6146</v>
+      </c>
+      <c r="AL8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f>AB9</f>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f>AD9</f>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f>AE9</f>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>5851</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f>AE9/AD9-1</f>
+      </c>
+      <c r="H9" s="2" t="str">
+        <f>AE9/AB9-1</f>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>5681</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f>AE9/Sum(AE$1:AE$9)</f>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>5526</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>5391</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>5355</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>5457</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>5562</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>5658</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>5697</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>5523</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>5573</v>
-      </c>
-      <c r="J9" s="1" t="n">
-        <v>5487</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>5469</v>
-      </c>
-      <c r="L9" s="1" t="n">
-        <v>5343</v>
-      </c>
-      <c r="M9" s="1"/>
+      <c r="N9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>4603</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>4853</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>5387</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>5879</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>6165</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>5928</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>5909</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>5803</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>5789</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>5810</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>5851</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>5856</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>5668</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>5681</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>5552</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>5526</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>5391</v>
+      </c>
+      <c r="AF9" s="4" t="n">
+        <v>5856</v>
+      </c>
+      <c r="AG9" s="3" t="n">
+        <v>5668</v>
+      </c>
+      <c r="AH9" s="3" t="n">
+        <v>5681</v>
+      </c>
+      <c r="AI9" s="3" t="n">
+        <v>5552</v>
+      </c>
+      <c r="AJ9" s="3" t="n">
+        <v>5526</v>
+      </c>
+      <c r="AK9" s="3" t="n">
+        <v>5391</v>
+      </c>
+      <c r="AL9" s="3"/>
     </row>
     <row r="10">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f>AB10</f>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f>AD10</f>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f>AE10</f>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="2" t="str">
+        <f>AE10/AD10-1</f>
+      </c>
+      <c r="H10" s="2" t="str">
+        <f>AE10/AB10-1</f>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="str">
+        <f>Sum(J$1:J$9)</f>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="4" t="str">
+        <f>Sum(O2:O9)</f>
+      </c>
+      <c r="P10" s="4" t="str">
+        <f>Sum(P2:P9)</f>
+      </c>
+      <c r="Q10" s="4" t="str">
+        <f>Sum(Q2:Q9)</f>
+      </c>
+      <c r="R10" s="4" t="str">
+        <f>Sum(R2:R9)</f>
+      </c>
+      <c r="S10" s="4" t="str">
+        <f>Sum(S2:S9)</f>
+      </c>
+      <c r="T10" s="4" t="str">
+        <f>Sum(T2:T9)</f>
+      </c>
+      <c r="U10" s="4" t="str">
+        <f>Sum(U2:U9)</f>
+      </c>
+      <c r="V10" s="4" t="str">
+        <f>Sum(V2:V9)</f>
+      </c>
+      <c r="W10" s="4" t="str">
+        <f>Sum(W2:W9)</f>
+      </c>
+      <c r="X10" s="4" t="str">
+        <f>Sum(X2:X9)</f>
+      </c>
+      <c r="Y10" s="4" t="str">
+        <f>Sum(Y2:Y9)</f>
+      </c>
+      <c r="Z10" s="4" t="str">
+        <f>Sum(Z2:Z9)</f>
+      </c>
+      <c r="AA10" s="4" t="str">
+        <f>Sum(AA2:AA9)</f>
+      </c>
+      <c r="AB10" s="4" t="str">
+        <f>Sum(AB2:AB9)</f>
+      </c>
+      <c r="AC10" s="4" t="str">
+        <f>Sum(AC2:AC9)</f>
+      </c>
+      <c r="AD10" s="4" t="str">
+        <f>Sum(AD2:AD9)</f>
+      </c>
+      <c r="AE10" s="4" t="str">
+        <f>Sum(AE2:AE9)</f>
+      </c>
+      <c r="AF10" s="4" t="str">
+        <f>Sum(AF2:AF9)</f>
+      </c>
+      <c r="AG10" s="3" t="str">
+        <f>Sum(AG2:AG9)</f>
+      </c>
+      <c r="AH10" s="3" t="str">
+        <f>Sum(AH2:AH9)</f>
+      </c>
+      <c r="AI10" s="3" t="str">
+        <f>Sum(AI2:AI9)</f>
+      </c>
+      <c r="AJ10" s="3" t="str">
+        <f>Sum(AJ2:AJ9)</f>
+      </c>
+      <c r="AK10" s="3" t="str">
+        <f>Sum(AK2:AK9)</f>
+      </c>
+      <c r="AL10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>1073603566.7955</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>1048450862.5594</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>1088102147.7351</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>1072746922.942</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>1096865763.5188</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <v>1188706092.6348</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>926769387.3954</v>
+      </c>
+      <c r="L2" s="5" t="n">
+        <v>976003450.1165</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="7" t="n">
+        <v>1607832650.0848</v>
+      </c>
+      <c r="P2" s="7" t="n">
+        <v>1751871558.4642</v>
+      </c>
+      <c r="Q2" s="7" t="n">
+        <v>1506361369.1731</v>
+      </c>
+      <c r="R2" s="7" t="n">
+        <v>1396531382.5087</v>
+      </c>
+      <c r="S2" s="7" t="n">
+        <v>1397976506.2712</v>
+      </c>
+      <c r="T2" s="7" t="n">
+        <v>1279752259.8247</v>
+      </c>
+      <c r="U2" s="7" t="n">
+        <v>1049133781.4795</v>
+      </c>
+      <c r="V2" s="7" t="n">
+        <v>1073603566.7955</v>
+      </c>
+      <c r="W2" s="7" t="n">
+        <v>1048450862.5594</v>
+      </c>
+      <c r="X2" s="7" t="n">
+        <v>1088102147.7351</v>
+      </c>
+      <c r="Y2" s="7" t="n">
+        <v>1072746922.942</v>
+      </c>
+      <c r="Z2" s="7" t="n">
+        <v>1096865763.5188</v>
+      </c>
+      <c r="AA2" s="7" t="n">
+        <v>1188706092.6348</v>
+      </c>
+      <c r="AB2" s="7" t="n">
+        <v>926769387.3954</v>
+      </c>
+      <c r="AC2" s="7" t="n">
+        <v>976003450.1165</v>
+      </c>
+      <c r="AD2" s="7" t="n">
+        <v>983305068.5037</v>
+      </c>
+      <c r="AE2" s="7" t="n">
+        <v>926451906.4684</v>
+      </c>
+      <c r="AF2" s="7" t="n">
+        <v>1096865763.5188</v>
+      </c>
+      <c r="AG2" s="6" t="n">
+        <v>1188706092.6348</v>
+      </c>
+      <c r="AH2" s="6" t="n">
+        <v>926769387.3954</v>
+      </c>
+      <c r="AI2" s="6" t="n">
+        <v>976003450.1165</v>
+      </c>
+      <c r="AJ2" s="6" t="n">
+        <v>983305068.5037</v>
+      </c>
+      <c r="AK2" s="6" t="n">
+        <v>926451906.4684</v>
+      </c>
+      <c r="AL2" s="6"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>751928698.974</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>815327907.857</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>844568319.4829</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>787108243.3135</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>820630788.2635</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <v>686536567.6669</v>
+      </c>
+      <c r="K3" s="5" t="n">
+        <v>545764074.6504</v>
+      </c>
+      <c r="L3" s="5" t="n">
+        <v>564021752.7514</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="7" t="n">
+        <v>1184454239.6496</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>1228271132.5837</v>
+      </c>
+      <c r="Q3" s="7" t="n">
+        <v>1140495002.7928</v>
+      </c>
+      <c r="R3" s="7" t="n">
+        <v>1024201877.6785</v>
+      </c>
+      <c r="S3" s="7" t="n">
+        <v>896870805.4232</v>
+      </c>
+      <c r="T3" s="7" t="n">
+        <v>960414796.0546</v>
+      </c>
+      <c r="U3" s="7" t="n">
+        <v>878985475.2202</v>
+      </c>
+      <c r="V3" s="7" t="n">
+        <v>751928698.974</v>
+      </c>
+      <c r="W3" s="7" t="n">
+        <v>815327907.857</v>
+      </c>
+      <c r="X3" s="7" t="n">
+        <v>844568319.4829</v>
+      </c>
+      <c r="Y3" s="7" t="n">
+        <v>787108243.3135</v>
+      </c>
+      <c r="Z3" s="7" t="n">
+        <v>820630788.2635</v>
+      </c>
+      <c r="AA3" s="7" t="n">
+        <v>686536567.6669</v>
+      </c>
+      <c r="AB3" s="7" t="n">
+        <v>545764074.6504</v>
+      </c>
+      <c r="AC3" s="7" t="n">
+        <v>564021752.7514</v>
+      </c>
+      <c r="AD3" s="7" t="n">
+        <v>783509578.311</v>
+      </c>
+      <c r="AE3" s="7" t="n">
+        <v>704578096.1892</v>
+      </c>
+      <c r="AF3" s="7" t="n">
+        <v>820630788.2635</v>
+      </c>
+      <c r="AG3" s="6" t="n">
+        <v>686536567.6669</v>
+      </c>
+      <c r="AH3" s="6" t="n">
+        <v>545764074.6504</v>
+      </c>
+      <c r="AI3" s="6" t="n">
+        <v>564021752.7514</v>
+      </c>
+      <c r="AJ3" s="6" t="n">
+        <v>783509578.311</v>
+      </c>
+      <c r="AK3" s="6" t="n">
+        <v>704578096.1892</v>
+      </c>
+      <c r="AL3" s="6"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4141995592.0904</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3565259691.7783</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>3492208221.3053</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>3649991757.8593</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>3901328619.9928</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>3830751102.3953</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>4021172451.8518</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>3517341896.4453</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="7" t="n">
+        <v>6058548489.082</v>
+      </c>
+      <c r="P4" s="7" t="n">
+        <v>6080450819.0119</v>
+      </c>
+      <c r="Q4" s="7" t="n">
+        <v>6779332127.7524</v>
+      </c>
+      <c r="R4" s="7" t="n">
+        <v>6093289597.1129</v>
+      </c>
+      <c r="S4" s="7" t="n">
+        <v>5262222494.4274</v>
+      </c>
+      <c r="T4" s="7" t="n">
+        <v>5079840604.2751</v>
+      </c>
+      <c r="U4" s="7" t="n">
+        <v>3567145813.244</v>
+      </c>
+      <c r="V4" s="7" t="n">
+        <v>4141995592.0904</v>
+      </c>
+      <c r="W4" s="7" t="n">
+        <v>3565259691.7783</v>
+      </c>
+      <c r="X4" s="7" t="n">
+        <v>3492208221.3053</v>
+      </c>
+      <c r="Y4" s="7" t="n">
+        <v>3649991757.8593</v>
+      </c>
+      <c r="Z4" s="7" t="n">
+        <v>3901328619.9928</v>
+      </c>
+      <c r="AA4" s="7" t="n">
+        <v>3830751102.3953</v>
+      </c>
+      <c r="AB4" s="7" t="n">
+        <v>4021172451.8518</v>
+      </c>
+      <c r="AC4" s="7" t="n">
+        <v>3517341896.4453</v>
+      </c>
+      <c r="AD4" s="7" t="n">
+        <v>3678372019.6405</v>
+      </c>
+      <c r="AE4" s="7" t="n">
+        <v>3920322861.3483</v>
+      </c>
+      <c r="AF4" s="7" t="n">
+        <v>3901328619.9928</v>
+      </c>
+      <c r="AG4" s="6" t="n">
+        <v>3830751102.3953</v>
+      </c>
+      <c r="AH4" s="6" t="n">
+        <v>4021172451.8518</v>
+      </c>
+      <c r="AI4" s="6" t="n">
+        <v>3517341896.4453</v>
+      </c>
+      <c r="AJ4" s="6" t="n">
+        <v>3678372019.6405</v>
+      </c>
+      <c r="AK4" s="6" t="n">
+        <v>3920322861.3483</v>
+      </c>
+      <c r="AL4" s="6"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2692614083.0845</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>3128570143.1366</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>3199159154.8128</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>3037857677.0835</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>3446915761.444</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>3536696065.3334</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>3005062231.913</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>3052114457.93</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="7" t="n">
+        <v>5679433896.1785</v>
+      </c>
+      <c r="P5" s="7" t="n">
+        <v>5624659404.6315</v>
+      </c>
+      <c r="Q5" s="7" t="n">
+        <v>5212638422.3091</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>6288316411.3781</v>
+      </c>
+      <c r="S5" s="7" t="n">
+        <v>5657555259.5043</v>
+      </c>
+      <c r="T5" s="7" t="n">
+        <v>3904127512.8452</v>
+      </c>
+      <c r="U5" s="7" t="n">
+        <v>3157315866.5217</v>
+      </c>
+      <c r="V5" s="7" t="n">
+        <v>2692614083.0845</v>
+      </c>
+      <c r="W5" s="7" t="n">
+        <v>3128570143.1366</v>
+      </c>
+      <c r="X5" s="7" t="n">
+        <v>3199159154.8128</v>
+      </c>
+      <c r="Y5" s="7" t="n">
+        <v>3037857677.0835</v>
+      </c>
+      <c r="Z5" s="7" t="n">
+        <v>3446915761.444</v>
+      </c>
+      <c r="AA5" s="7" t="n">
+        <v>3536696065.3334</v>
+      </c>
+      <c r="AB5" s="7" t="n">
+        <v>3005062231.913</v>
+      </c>
+      <c r="AC5" s="7" t="n">
+        <v>3052114457.93</v>
+      </c>
+      <c r="AD5" s="7" t="n">
+        <v>3359581254.4839</v>
+      </c>
+      <c r="AE5" s="7" t="n">
+        <v>3618751504.3042</v>
+      </c>
+      <c r="AF5" s="7" t="n">
+        <v>3446915761.444</v>
+      </c>
+      <c r="AG5" s="6" t="n">
+        <v>3536696065.3334</v>
+      </c>
+      <c r="AH5" s="6" t="n">
+        <v>3005062231.913</v>
+      </c>
+      <c r="AI5" s="6" t="n">
+        <v>3052114457.93</v>
+      </c>
+      <c r="AJ5" s="6" t="n">
+        <v>3359581254.4839</v>
+      </c>
+      <c r="AK5" s="6" t="n">
+        <v>3618751504.3042</v>
+      </c>
+      <c r="AL5" s="6"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2086527003.9821</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1929095879.8002</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1907797922.1413</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1867693420.1991</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>2192470949.6515</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>2196604584.8566</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>2410132539.3328</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>2143906576.2048</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="7" t="n">
+        <v>3741321610.9336</v>
+      </c>
+      <c r="P6" s="7" t="n">
+        <v>3625952821.6054</v>
+      </c>
+      <c r="Q6" s="7" t="n">
+        <v>3149991887.2102</v>
+      </c>
+      <c r="R6" s="7" t="n">
+        <v>2991291521.2622</v>
+      </c>
+      <c r="S6" s="7" t="n">
+        <v>3048040619.9372</v>
+      </c>
+      <c r="T6" s="7" t="n">
+        <v>2474472259.8299</v>
+      </c>
+      <c r="U6" s="7" t="n">
+        <v>1960743379.2061</v>
+      </c>
+      <c r="V6" s="7" t="n">
+        <v>2086527003.9821</v>
+      </c>
+      <c r="W6" s="7" t="n">
+        <v>1929095879.8002</v>
+      </c>
+      <c r="X6" s="7" t="n">
+        <v>1907797922.1413</v>
+      </c>
+      <c r="Y6" s="7" t="n">
+        <v>1867693420.1991</v>
+      </c>
+      <c r="Z6" s="7" t="n">
+        <v>2192470949.6515</v>
+      </c>
+      <c r="AA6" s="7" t="n">
+        <v>2196604584.8566</v>
+      </c>
+      <c r="AB6" s="7" t="n">
+        <v>2410132539.3328</v>
+      </c>
+      <c r="AC6" s="7" t="n">
+        <v>2143906576.2048</v>
+      </c>
+      <c r="AD6" s="7" t="n">
+        <v>2743455584.5329</v>
+      </c>
+      <c r="AE6" s="7" t="n">
+        <v>2637534724.141</v>
+      </c>
+      <c r="AF6" s="7" t="n">
+        <v>2192470949.6515</v>
+      </c>
+      <c r="AG6" s="6" t="n">
+        <v>2196604584.8566</v>
+      </c>
+      <c r="AH6" s="6" t="n">
+        <v>2410132539.3328</v>
+      </c>
+      <c r="AI6" s="6" t="n">
+        <v>2143906576.2048</v>
+      </c>
+      <c r="AJ6" s="6" t="n">
+        <v>2743455584.5329</v>
+      </c>
+      <c r="AK6" s="6" t="n">
+        <v>2637534724.141</v>
+      </c>
+      <c r="AL6" s="6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1852486611.2265</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2095620001.2314</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>2157406767.1706</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>2086646758.7863</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>2954288727.5505</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>2564514717.4087</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>1728682770.7371</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>1730445562.261</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="7" t="n">
+        <v>3266121388.9118</v>
+      </c>
+      <c r="P7" s="7" t="n">
+        <v>3182798416.4579</v>
+      </c>
+      <c r="Q7" s="7" t="n">
+        <v>3233826970.6075</v>
+      </c>
+      <c r="R7" s="7" t="n">
+        <v>2767730315.3216</v>
+      </c>
+      <c r="S7" s="7" t="n">
+        <v>2660320898.8073</v>
+      </c>
+      <c r="T7" s="7" t="n">
+        <v>2350057703.0912</v>
+      </c>
+      <c r="U7" s="7" t="n">
+        <v>2090466800.5072</v>
+      </c>
+      <c r="V7" s="7" t="n">
+        <v>1852486611.2265</v>
+      </c>
+      <c r="W7" s="7" t="n">
+        <v>2095620001.2314</v>
+      </c>
+      <c r="X7" s="7" t="n">
+        <v>2157406767.1706</v>
+      </c>
+      <c r="Y7" s="7" t="n">
+        <v>2086646758.7863</v>
+      </c>
+      <c r="Z7" s="7" t="n">
+        <v>2954288727.5505</v>
+      </c>
+      <c r="AA7" s="7" t="n">
+        <v>2564514717.4087</v>
+      </c>
+      <c r="AB7" s="7" t="n">
+        <v>1728682770.7371</v>
+      </c>
+      <c r="AC7" s="7" t="n">
+        <v>1730445562.261</v>
+      </c>
+      <c r="AD7" s="7" t="n">
+        <v>2301474992.4097</v>
+      </c>
+      <c r="AE7" s="7" t="n">
+        <v>2008363234.2734</v>
+      </c>
+      <c r="AF7" s="7" t="n">
+        <v>2954288727.5505</v>
+      </c>
+      <c r="AG7" s="6" t="n">
+        <v>2564514717.4087</v>
+      </c>
+      <c r="AH7" s="6" t="n">
+        <v>1728682770.7371</v>
+      </c>
+      <c r="AI7" s="6" t="n">
+        <v>1730445562.261</v>
+      </c>
+      <c r="AJ7" s="6" t="n">
+        <v>2301474992.4097</v>
+      </c>
+      <c r="AK7" s="6" t="n">
+        <v>2008363234.2734</v>
+      </c>
+      <c r="AL7" s="6"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>24912992627.0785</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>22851084792.0819</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>24462657675.0215</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>24530048151.9762</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>30621886485.4193</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>30157803730.9944</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>34096578496.9379</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>40235083984.2429</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="7" t="n">
+        <v>16269882471.9794</v>
+      </c>
+      <c r="P8" s="7" t="n">
+        <v>17994021717.0678</v>
+      </c>
+      <c r="Q8" s="7" t="n">
+        <v>21387199545.8055</v>
+      </c>
+      <c r="R8" s="7" t="n">
+        <v>22576338913.7346</v>
+      </c>
+      <c r="S8" s="7" t="n">
+        <v>22032636135.821</v>
+      </c>
+      <c r="T8" s="7" t="n">
+        <v>24242893687.3319</v>
+      </c>
+      <c r="U8" s="7" t="n">
+        <v>20838549418.202</v>
+      </c>
+      <c r="V8" s="7" t="n">
+        <v>24912992627.0785</v>
+      </c>
+      <c r="W8" s="7" t="n">
+        <v>22851084792.0819</v>
+      </c>
+      <c r="X8" s="7" t="n">
+        <v>24462657675.0215</v>
+      </c>
+      <c r="Y8" s="7" t="n">
+        <v>24530048151.9762</v>
+      </c>
+      <c r="Z8" s="7" t="n">
+        <v>30621886485.4193</v>
+      </c>
+      <c r="AA8" s="7" t="n">
+        <v>30157803730.9944</v>
+      </c>
+      <c r="AB8" s="7" t="n">
+        <v>34096578496.9379</v>
+      </c>
+      <c r="AC8" s="7" t="n">
+        <v>40235083984.2429</v>
+      </c>
+      <c r="AD8" s="7" t="n">
+        <v>37898761518.9342</v>
+      </c>
+      <c r="AE8" s="7" t="n">
+        <v>41482341205.8373</v>
+      </c>
+      <c r="AF8" s="7" t="n">
+        <v>30621886485.4193</v>
+      </c>
+      <c r="AG8" s="6" t="n">
+        <v>30157803730.9944</v>
+      </c>
+      <c r="AH8" s="6" t="n">
+        <v>34096578496.9379</v>
+      </c>
+      <c r="AI8" s="6" t="n">
+        <v>40235083984.2429</v>
+      </c>
+      <c r="AJ8" s="6" t="n">
+        <v>37898761518.9342</v>
+      </c>
+      <c r="AK8" s="6" t="n">
+        <v>41482341205.8373</v>
+      </c>
+      <c r="AL8" s="6"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>246953219804.49</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>238730914399.601</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>261373439540.335</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>284878416992.171</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>313701272526.863</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>339456686334.059</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>375919182099.509</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>335466315747.992</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="7" t="n">
+        <v>295814228873.005</v>
+      </c>
+      <c r="P9" s="7" t="n">
+        <v>344228460150.258</v>
+      </c>
+      <c r="Q9" s="7" t="n">
+        <v>331006115932.454</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>325466947956.52</v>
+      </c>
+      <c r="S9" s="7" t="n">
+        <v>333370444572.19</v>
+      </c>
+      <c r="T9" s="7" t="n">
+        <v>323169035400.023</v>
+      </c>
+      <c r="U9" s="7" t="n">
+        <v>275707824862.844</v>
+      </c>
+      <c r="V9" s="7" t="n">
+        <v>246953219804.49</v>
+      </c>
+      <c r="W9" s="7" t="n">
+        <v>238730914399.601</v>
+      </c>
+      <c r="X9" s="7" t="n">
+        <v>261373439540.335</v>
+      </c>
+      <c r="Y9" s="7" t="n">
+        <v>284878416992.171</v>
+      </c>
+      <c r="Z9" s="7" t="n">
+        <v>313701272526.863</v>
+      </c>
+      <c r="AA9" s="7" t="n">
+        <v>339456686334.059</v>
+      </c>
+      <c r="AB9" s="7" t="n">
+        <v>375919182099.509</v>
+      </c>
+      <c r="AC9" s="7" t="n">
+        <v>335466315747.992</v>
+      </c>
+      <c r="AD9" s="7" t="n">
+        <v>362818335135.692</v>
+      </c>
+      <c r="AE9" s="7" t="n">
+        <v>400986561637.651</v>
+      </c>
+      <c r="AF9" s="7" t="n">
+        <v>313701272526.863</v>
+      </c>
+      <c r="AG9" s="6" t="n">
+        <v>339456686334.059</v>
+      </c>
+      <c r="AH9" s="6" t="n">
+        <v>375919182099.509</v>
+      </c>
+      <c r="AI9" s="6" t="n">
+        <v>335466315747.992</v>
+      </c>
+      <c r="AJ9" s="6" t="n">
+        <v>362818335135.692</v>
+      </c>
+      <c r="AK9" s="6" t="n">
+        <v>400986561637.651</v>
+      </c>
+      <c r="AL9" s="6"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5" t="str">
+        <f>Sum(E2:E9)</f>
+      </c>
+      <c r="F10" s="5" t="str">
+        <f>Sum(F2:F9)</f>
+      </c>
+      <c r="G10" s="5" t="str">
+        <f>Sum(G2:G9)</f>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f>Sum(H2:H9)</f>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f>Sum(I2:I9)</f>
+      </c>
+      <c r="J10" s="5" t="str">
+        <f>Sum(J2:J9)</f>
+      </c>
+      <c r="K10" s="5" t="str">
+        <f>Sum(K2:K9)</f>
+      </c>
+      <c r="L10" s="5" t="str">
+        <f>Sum(L2:L9)</f>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="7" t="str">
+        <f>Sum(O2:O9)</f>
+      </c>
+      <c r="P10" s="7" t="str">
+        <f>Sum(P2:P9)</f>
+      </c>
+      <c r="Q10" s="7" t="str">
+        <f>Sum(Q2:Q9)</f>
+      </c>
+      <c r="R10" s="7" t="str">
+        <f>Sum(R2:R9)</f>
+      </c>
+      <c r="S10" s="7" t="str">
+        <f>Sum(S2:S9)</f>
+      </c>
+      <c r="T10" s="7" t="str">
+        <f>Sum(T2:T9)</f>
+      </c>
+      <c r="U10" s="7" t="str">
+        <f>Sum(U2:U9)</f>
+      </c>
+      <c r="V10" s="7" t="str">
+        <f>Sum(V2:V9)</f>
+      </c>
+      <c r="W10" s="7" t="str">
+        <f>Sum(W2:W9)</f>
+      </c>
+      <c r="X10" s="7" t="str">
+        <f>Sum(X2:X9)</f>
+      </c>
+      <c r="Y10" s="7" t="str">
+        <f>Sum(Y2:Y9)</f>
+      </c>
+      <c r="Z10" s="7" t="str">
+        <f>Sum(Z2:Z9)</f>
+      </c>
+      <c r="AA10" s="7" t="str">
+        <f>Sum(AA2:AA9)</f>
+      </c>
+      <c r="AB10" s="7" t="str">
+        <f>Sum(AB2:AB9)</f>
+      </c>
+      <c r="AC10" s="7" t="str">
+        <f>Sum(AC2:AC9)</f>
+      </c>
+      <c r="AD10" s="7" t="str">
+        <f>Sum(AD2:AD9)</f>
+      </c>
+      <c r="AE10" s="7" t="str">
+        <f>Sum(AE2:AE9)</f>
+      </c>
+      <c r="AF10" s="7" t="str">
+        <f>Sum(AF2:AF9)</f>
+      </c>
+      <c r="AG10" s="6" t="str">
+        <f>Sum(AG2:AG9)</f>
+      </c>
+      <c r="AH10" s="6" t="str">
+        <f>Sum(AH2:AH9)</f>
+      </c>
+      <c r="AI10" s="6" t="str">
+        <f>Sum(AI2:AI9)</f>
+      </c>
+      <c r="AJ10" s="6" t="str">
+        <f>Sum(AJ2:AJ9)</f>
+      </c>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/CSIS_DoD_DIB_Trends.xlsx
+++ b/Output/AcqTrends/CSIS_DoD_DIB_Trends.xlsx
@@ -8,12 +8,15 @@
   <sheets>
     <sheet name="DIB count" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="DIB dollars" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="NTDC dollars" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="8 NTDC" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="8A NTDC" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve">LargestContract2018dollars</t>
   </si>
@@ -129,18 +132,86 @@
   <si>
     <t xml:space="preserve">2013</t>
   </si>
+  <si>
+    <t xml:space="preserve">IsEntityTraditionalLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ntdc_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Traditional
+Defense Contractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consistently Small or
+Largest Contract Under $7.5 M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variably Small or Larger
+and Largest Contract over $7.5 M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traditional
+Defense Contractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consistently Small or
+Largest Contract
+Under $7.5 M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variably Small or Larger
+and Largest Contract
+Over $7.5 M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cas_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variably Small / Larger
+and Largest Contract
+Over $7.5 M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost Accounting Standards (Labeled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidentified Exemption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendor Size or Largest Contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waived</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variably Small or Larger Vendor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="10">
     <numFmt numFmtId="169" formatCode="0.00,&quot;K&quot;"/>
+    <numFmt numFmtId="235" formatCode="0.00,&quot;K&quot;"/>
     <numFmt numFmtId="201" formatCode="0.00,&quot;K&quot;"/>
-    <numFmt numFmtId="204" formatCode="0.00,&quot;K&quot;"/>
+    <numFmt numFmtId="236" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="205" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="206" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="211" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="213" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="237" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -176,15 +247,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="235" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="236" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="211" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="213" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="237" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,31 +676,31 @@
       <c r="B2" t="str">
         <f>N2</f>
       </c>
-      <c r="C2" s="4" t="str">
+      <c r="C2" s="2" t="str">
         <f>AB2</f>
       </c>
-      <c r="D2" s="4" t="str">
+      <c r="D2" s="2" t="str">
         <f>AD2</f>
       </c>
-      <c r="E2" s="4" t="str">
+      <c r="E2" s="2" t="str">
         <f>AE2</f>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="2" t="n">
         <v>15195</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="3" t="str">
         <f>AE2/AD2-1</f>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="3" t="str">
         <f>AE2/AB2-1</f>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <v>12467</v>
       </c>
-      <c r="J2" s="2" t="str">
+      <c r="J2" s="3" t="str">
         <f>AE2/Sum(AE$1:AE$9)</f>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="3" t="n">
         <v>10312</v>
       </c>
       <c r="L2" s="1" t="n">
@@ -637,76 +712,76 @@
       <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="4" t="n">
+      <c r="O2" s="2" t="n">
         <v>26688</v>
       </c>
-      <c r="P2" s="4" t="n">
+      <c r="P2" s="2" t="n">
         <v>26534</v>
       </c>
-      <c r="Q2" s="4" t="n">
+      <c r="Q2" s="2" t="n">
         <v>25831</v>
       </c>
-      <c r="R2" s="4" t="n">
+      <c r="R2" s="2" t="n">
         <v>24010</v>
       </c>
-      <c r="S2" s="4" t="n">
+      <c r="S2" s="2" t="n">
         <v>22644</v>
       </c>
-      <c r="T2" s="4" t="n">
+      <c r="T2" s="2" t="n">
         <v>20827</v>
       </c>
-      <c r="U2" s="4" t="n">
+      <c r="U2" s="2" t="n">
         <v>17598</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="V2" s="2" t="n">
         <v>16870</v>
       </c>
-      <c r="W2" s="4" t="n">
+      <c r="W2" s="2" t="n">
         <v>16511</v>
       </c>
-      <c r="X2" s="4" t="n">
+      <c r="X2" s="2" t="n">
         <v>15670</v>
       </c>
-      <c r="Y2" s="4" t="n">
+      <c r="Y2" s="2" t="n">
         <v>15195</v>
       </c>
-      <c r="Z2" s="4" t="n">
+      <c r="Z2" s="2" t="n">
         <v>14302</v>
       </c>
-      <c r="AA2" s="4" t="n">
+      <c r="AA2" s="2" t="n">
         <v>13654</v>
       </c>
-      <c r="AB2" s="4" t="n">
+      <c r="AB2" s="2" t="n">
         <v>12467</v>
       </c>
-      <c r="AC2" s="4" t="n">
+      <c r="AC2" s="2" t="n">
         <v>11606</v>
       </c>
-      <c r="AD2" s="4" t="n">
+      <c r="AD2" s="2" t="n">
         <v>10312</v>
       </c>
-      <c r="AE2" s="4" t="n">
+      <c r="AE2" s="2" t="n">
         <v>10177</v>
       </c>
-      <c r="AF2" s="4" t="n">
+      <c r="AF2" s="2" t="n">
         <v>14302</v>
       </c>
-      <c r="AG2" s="3" t="n">
+      <c r="AG2" s="4" t="n">
         <v>13654</v>
       </c>
-      <c r="AH2" s="3" t="n">
+      <c r="AH2" s="4" t="n">
         <v>12467</v>
       </c>
-      <c r="AI2" s="3" t="n">
+      <c r="AI2" s="4" t="n">
         <v>11606</v>
       </c>
-      <c r="AJ2" s="3" t="n">
+      <c r="AJ2" s="4" t="n">
         <v>10312</v>
       </c>
-      <c r="AK2" s="3" t="n">
+      <c r="AK2" s="4" t="n">
         <v>10177</v>
       </c>
-      <c r="AL2" s="3"/>
+      <c r="AL2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -715,31 +790,31 @@
       <c r="B3" t="str">
         <f>N3</f>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="2" t="str">
         <f>AB3</f>
       </c>
-      <c r="D3" s="4" t="str">
+      <c r="D3" s="2" t="str">
         <f>AD3</f>
       </c>
-      <c r="E3" s="4" t="str">
+      <c r="E3" s="2" t="str">
         <f>AE3</f>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="2" t="n">
         <v>7012</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="3" t="str">
         <f>AE3/AD3-1</f>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="H3" s="3" t="str">
         <f>AE3/AB3-1</f>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="3" t="n">
         <v>5173</v>
       </c>
-      <c r="J3" s="2" t="str">
+      <c r="J3" s="3" t="str">
         <f>AE3/Sum(AE$1:AE$9)</f>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="3" t="n">
         <v>4562</v>
       </c>
       <c r="L3" s="1" t="n">
@@ -749,78 +824,78 @@
         <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="O3" s="2" t="n">
         <v>12112</v>
       </c>
-      <c r="P3" s="4" t="n">
+      <c r="P3" s="2" t="n">
         <v>12529</v>
       </c>
-      <c r="Q3" s="4" t="n">
+      <c r="Q3" s="2" t="n">
         <v>11760</v>
       </c>
-      <c r="R3" s="4" t="n">
+      <c r="R3" s="2" t="n">
         <v>10948</v>
       </c>
-      <c r="S3" s="4" t="n">
+      <c r="S3" s="2" t="n">
         <v>10241</v>
       </c>
-      <c r="T3" s="4" t="n">
+      <c r="T3" s="2" t="n">
         <v>9673</v>
       </c>
-      <c r="U3" s="4" t="n">
+      <c r="U3" s="2" t="n">
         <v>8437</v>
       </c>
-      <c r="V3" s="4" t="n">
+      <c r="V3" s="2" t="n">
         <v>7731</v>
       </c>
-      <c r="W3" s="4" t="n">
+      <c r="W3" s="2" t="n">
         <v>7819</v>
       </c>
-      <c r="X3" s="4" t="n">
+      <c r="X3" s="2" t="n">
         <v>7419</v>
       </c>
-      <c r="Y3" s="4" t="n">
+      <c r="Y3" s="2" t="n">
         <v>7012</v>
       </c>
-      <c r="Z3" s="4" t="n">
+      <c r="Z3" s="2" t="n">
         <v>6551</v>
       </c>
-      <c r="AA3" s="4" t="n">
+      <c r="AA3" s="2" t="n">
         <v>5807</v>
       </c>
-      <c r="AB3" s="4" t="n">
+      <c r="AB3" s="2" t="n">
         <v>5173</v>
       </c>
-      <c r="AC3" s="4" t="n">
+      <c r="AC3" s="2" t="n">
         <v>4967</v>
       </c>
-      <c r="AD3" s="4" t="n">
+      <c r="AD3" s="2" t="n">
         <v>4562</v>
       </c>
-      <c r="AE3" s="4" t="n">
+      <c r="AE3" s="2" t="n">
         <v>4597</v>
       </c>
-      <c r="AF3" s="4" t="n">
+      <c r="AF3" s="2" t="n">
         <v>6551</v>
       </c>
-      <c r="AG3" s="3" t="n">
+      <c r="AG3" s="4" t="n">
         <v>5807</v>
       </c>
-      <c r="AH3" s="3" t="n">
+      <c r="AH3" s="4" t="n">
         <v>5173</v>
       </c>
-      <c r="AI3" s="3" t="n">
+      <c r="AI3" s="4" t="n">
         <v>4967</v>
       </c>
-      <c r="AJ3" s="3" t="n">
+      <c r="AJ3" s="4" t="n">
         <v>4562</v>
       </c>
-      <c r="AK3" s="3" t="n">
+      <c r="AK3" s="4" t="n">
         <v>4597</v>
       </c>
-      <c r="AL3" s="3"/>
+      <c r="AL3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -829,31 +904,31 @@
       <c r="B4" t="str">
         <f>N4</f>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="2" t="str">
         <f>AB4</f>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="2" t="str">
         <f>AD4</f>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="2" t="str">
         <f>AE4</f>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="2" t="n">
         <v>3613</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="3" t="str">
         <f>AE4/AD4-1</f>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="3" t="str">
         <f>AE4/AB4-1</f>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="3" t="n">
         <v>3648</v>
       </c>
-      <c r="J4" s="2" t="str">
+      <c r="J4" s="3" t="str">
         <f>AE4/Sum(AE$1:AE$9)</f>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="3" t="n">
         <v>3163</v>
       </c>
       <c r="L4" s="1" t="n">
@@ -865,76 +940,76 @@
       <c r="N4" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="4" t="n">
+      <c r="O4" s="2" t="n">
         <v>3667</v>
       </c>
-      <c r="P4" s="4" t="n">
+      <c r="P4" s="2" t="n">
         <v>3766</v>
       </c>
-      <c r="Q4" s="4" t="n">
+      <c r="Q4" s="2" t="n">
         <v>4294</v>
       </c>
-      <c r="R4" s="4" t="n">
+      <c r="R4" s="2" t="n">
         <v>4286</v>
       </c>
-      <c r="S4" s="4" t="n">
+      <c r="S4" s="2" t="n">
         <v>4387</v>
       </c>
-      <c r="T4" s="4" t="n">
+      <c r="T4" s="2" t="n">
         <v>4287</v>
       </c>
-      <c r="U4" s="4" t="n">
+      <c r="U4" s="2" t="n">
         <v>3761</v>
       </c>
-      <c r="V4" s="4" t="n">
+      <c r="V4" s="2" t="n">
         <v>3801</v>
       </c>
-      <c r="W4" s="4" t="n">
+      <c r="W4" s="2" t="n">
         <v>3688</v>
       </c>
-      <c r="X4" s="4" t="n">
+      <c r="X4" s="2" t="n">
         <v>3616</v>
       </c>
-      <c r="Y4" s="4" t="n">
+      <c r="Y4" s="2" t="n">
         <v>3613</v>
       </c>
-      <c r="Z4" s="4" t="n">
+      <c r="Z4" s="2" t="n">
         <v>3474</v>
       </c>
-      <c r="AA4" s="4" t="n">
+      <c r="AA4" s="2" t="n">
         <v>3426</v>
       </c>
-      <c r="AB4" s="4" t="n">
+      <c r="AB4" s="2" t="n">
         <v>3648</v>
       </c>
-      <c r="AC4" s="4" t="n">
+      <c r="AC4" s="2" t="n">
         <v>3570</v>
       </c>
-      <c r="AD4" s="4" t="n">
+      <c r="AD4" s="2" t="n">
         <v>3163</v>
       </c>
-      <c r="AE4" s="4" t="n">
+      <c r="AE4" s="2" t="n">
         <v>3355</v>
       </c>
-      <c r="AF4" s="4" t="n">
+      <c r="AF4" s="2" t="n">
         <v>3474</v>
       </c>
-      <c r="AG4" s="3" t="n">
+      <c r="AG4" s="4" t="n">
         <v>3426</v>
       </c>
-      <c r="AH4" s="3" t="n">
+      <c r="AH4" s="4" t="n">
         <v>3648</v>
       </c>
-      <c r="AI4" s="3" t="n">
+      <c r="AI4" s="4" t="n">
         <v>3570</v>
       </c>
-      <c r="AJ4" s="3" t="n">
+      <c r="AJ4" s="4" t="n">
         <v>3163</v>
       </c>
-      <c r="AK4" s="3" t="n">
+      <c r="AK4" s="4" t="n">
         <v>3355</v>
       </c>
-      <c r="AL4" s="3"/>
+      <c r="AL4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -943,31 +1018,31 @@
       <c r="B5" t="str">
         <f>N5</f>
       </c>
-      <c r="C5" s="4" t="str">
+      <c r="C5" s="2" t="str">
         <f>AB5</f>
       </c>
-      <c r="D5" s="4" t="str">
+      <c r="D5" s="2" t="str">
         <f>AD5</f>
       </c>
-      <c r="E5" s="4" t="str">
+      <c r="E5" s="2" t="str">
         <f>AE5</f>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="2" t="n">
         <v>2175</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="3" t="str">
         <f>AE5/AD5-1</f>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="3" t="str">
         <f>AE5/AB5-1</f>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="3" t="n">
         <v>1977</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="3" t="str">
         <f>AE5/Sum(AE$1:AE$9)</f>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="3" t="n">
         <v>1841</v>
       </c>
       <c r="L5" s="1" t="n">
@@ -977,78 +1052,78 @@
         <v>15</v>
       </c>
       <c r="N5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="O5" s="2" t="n">
         <v>2539</v>
       </c>
-      <c r="P5" s="4" t="n">
+      <c r="P5" s="2" t="n">
         <v>2529</v>
       </c>
-      <c r="Q5" s="4" t="n">
+      <c r="Q5" s="2" t="n">
         <v>2747</v>
       </c>
-      <c r="R5" s="4" t="n">
+      <c r="R5" s="2" t="n">
         <v>2791</v>
       </c>
-      <c r="S5" s="4" t="n">
+      <c r="S5" s="2" t="n">
         <v>2739</v>
       </c>
-      <c r="T5" s="4" t="n">
+      <c r="T5" s="2" t="n">
         <v>2594</v>
       </c>
-      <c r="U5" s="4" t="n">
+      <c r="U5" s="2" t="n">
         <v>2338</v>
       </c>
-      <c r="V5" s="4" t="n">
+      <c r="V5" s="2" t="n">
         <v>2177</v>
       </c>
-      <c r="W5" s="4" t="n">
+      <c r="W5" s="2" t="n">
         <v>2267</v>
       </c>
-      <c r="X5" s="4" t="n">
+      <c r="X5" s="2" t="n">
         <v>2237</v>
       </c>
-      <c r="Y5" s="4" t="n">
+      <c r="Y5" s="2" t="n">
         <v>2175</v>
       </c>
-      <c r="Z5" s="4" t="n">
+      <c r="Z5" s="2" t="n">
         <v>2105</v>
       </c>
-      <c r="AA5" s="4" t="n">
+      <c r="AA5" s="2" t="n">
         <v>1928</v>
       </c>
-      <c r="AB5" s="4" t="n">
+      <c r="AB5" s="2" t="n">
         <v>1977</v>
       </c>
-      <c r="AC5" s="4" t="n">
+      <c r="AC5" s="2" t="n">
         <v>1974</v>
       </c>
-      <c r="AD5" s="4" t="n">
+      <c r="AD5" s="2" t="n">
         <v>1841</v>
       </c>
-      <c r="AE5" s="4" t="n">
+      <c r="AE5" s="2" t="n">
         <v>1815</v>
       </c>
-      <c r="AF5" s="4" t="n">
+      <c r="AF5" s="2" t="n">
         <v>2105</v>
       </c>
-      <c r="AG5" s="3" t="n">
+      <c r="AG5" s="4" t="n">
         <v>1928</v>
       </c>
-      <c r="AH5" s="3" t="n">
+      <c r="AH5" s="4" t="n">
         <v>1977</v>
       </c>
-      <c r="AI5" s="3" t="n">
+      <c r="AI5" s="4" t="n">
         <v>1974</v>
       </c>
-      <c r="AJ5" s="3" t="n">
+      <c r="AJ5" s="4" t="n">
         <v>1841</v>
       </c>
-      <c r="AK5" s="3" t="n">
+      <c r="AK5" s="4" t="n">
         <v>1815</v>
       </c>
-      <c r="AL5" s="3"/>
+      <c r="AL5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -1057,31 +1132,31 @@
       <c r="B6" t="str">
         <f>N6</f>
       </c>
-      <c r="C6" s="4" t="str">
+      <c r="C6" s="2" t="str">
         <f>AB6</f>
       </c>
-      <c r="D6" s="4" t="str">
+      <c r="D6" s="2" t="str">
         <f>AD6</f>
       </c>
-      <c r="E6" s="4" t="str">
+      <c r="E6" s="2" t="str">
         <f>AE6</f>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="2" t="n">
         <v>6124</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="3" t="str">
         <f>AE6/AD6-1</f>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="3" t="str">
         <f>AE6/AB6-1</f>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="3" t="n">
         <v>6319</v>
       </c>
-      <c r="J6" s="2" t="str">
+      <c r="J6" s="3" t="str">
         <f>AE6/Sum(AE$1:AE$9)</f>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="3" t="n">
         <v>5934</v>
       </c>
       <c r="L6" s="1" t="n">
@@ -1093,76 +1168,76 @@
       <c r="N6" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="4" t="n">
+      <c r="O6" s="2" t="n">
         <v>8246</v>
       </c>
-      <c r="P6" s="4" t="n">
+      <c r="P6" s="2" t="n">
         <v>8195</v>
       </c>
-      <c r="Q6" s="4" t="n">
+      <c r="Q6" s="2" t="n">
         <v>8176</v>
       </c>
-      <c r="R6" s="4" t="n">
+      <c r="R6" s="2" t="n">
         <v>8354</v>
       </c>
-      <c r="S6" s="4" t="n">
+      <c r="S6" s="2" t="n">
         <v>8139</v>
       </c>
-      <c r="T6" s="4" t="n">
+      <c r="T6" s="2" t="n">
         <v>7783</v>
       </c>
-      <c r="U6" s="4" t="n">
+      <c r="U6" s="2" t="n">
         <v>6971</v>
       </c>
-      <c r="V6" s="4" t="n">
+      <c r="V6" s="2" t="n">
         <v>6868</v>
       </c>
-      <c r="W6" s="4" t="n">
+      <c r="W6" s="2" t="n">
         <v>6496</v>
       </c>
-      <c r="X6" s="4" t="n">
+      <c r="X6" s="2" t="n">
         <v>6298</v>
       </c>
-      <c r="Y6" s="4" t="n">
+      <c r="Y6" s="2" t="n">
         <v>6124</v>
       </c>
-      <c r="Z6" s="4" t="n">
+      <c r="Z6" s="2" t="n">
         <v>6156</v>
       </c>
-      <c r="AA6" s="4" t="n">
+      <c r="AA6" s="2" t="n">
         <v>5934</v>
       </c>
-      <c r="AB6" s="4" t="n">
+      <c r="AB6" s="2" t="n">
         <v>6319</v>
       </c>
-      <c r="AC6" s="4" t="n">
+      <c r="AC6" s="2" t="n">
         <v>6228</v>
       </c>
-      <c r="AD6" s="4" t="n">
+      <c r="AD6" s="2" t="n">
         <v>5934</v>
       </c>
-      <c r="AE6" s="4" t="n">
+      <c r="AE6" s="2" t="n">
         <v>5877</v>
       </c>
-      <c r="AF6" s="4" t="n">
+      <c r="AF6" s="2" t="n">
         <v>6156</v>
       </c>
-      <c r="AG6" s="3" t="n">
+      <c r="AG6" s="4" t="n">
         <v>5934</v>
       </c>
-      <c r="AH6" s="3" t="n">
+      <c r="AH6" s="4" t="n">
         <v>6319</v>
       </c>
-      <c r="AI6" s="3" t="n">
+      <c r="AI6" s="4" t="n">
         <v>6228</v>
       </c>
-      <c r="AJ6" s="3" t="n">
+      <c r="AJ6" s="4" t="n">
         <v>5934</v>
       </c>
-      <c r="AK6" s="3" t="n">
+      <c r="AK6" s="4" t="n">
         <v>5877</v>
       </c>
-      <c r="AL6" s="3"/>
+      <c r="AL6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -1171,31 +1246,31 @@
       <c r="B7" t="str">
         <f>N7</f>
       </c>
-      <c r="C7" s="4" t="str">
+      <c r="C7" s="2" t="str">
         <f>AB7</f>
       </c>
-      <c r="D7" s="4" t="str">
+      <c r="D7" s="2" t="str">
         <f>AD7</f>
       </c>
-      <c r="E7" s="4" t="str">
+      <c r="E7" s="2" t="str">
         <f>AE7</f>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="2" t="n">
         <v>3718</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="3" t="str">
         <f>AE7/AD7-1</f>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="3" t="str">
         <f>AE7/AB7-1</f>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="3" t="n">
         <v>3326</v>
       </c>
-      <c r="J7" s="2" t="str">
+      <c r="J7" s="3" t="str">
         <f>AE7/Sum(AE$1:AE$9)</f>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="3" t="n">
         <v>3131</v>
       </c>
       <c r="L7" s="1" t="n">
@@ -1205,78 +1280,78 @@
         <v>16</v>
       </c>
       <c r="N7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="O7" s="2" t="n">
         <v>4912</v>
       </c>
-      <c r="P7" s="4" t="n">
+      <c r="P7" s="2" t="n">
         <v>5018</v>
       </c>
-      <c r="Q7" s="4" t="n">
+      <c r="Q7" s="2" t="n">
         <v>4896</v>
       </c>
-      <c r="R7" s="4" t="n">
+      <c r="R7" s="2" t="n">
         <v>4836</v>
       </c>
-      <c r="S7" s="4" t="n">
+      <c r="S7" s="2" t="n">
         <v>4686</v>
       </c>
-      <c r="T7" s="4" t="n">
+      <c r="T7" s="2" t="n">
         <v>4380</v>
       </c>
-      <c r="U7" s="4" t="n">
+      <c r="U7" s="2" t="n">
         <v>3982</v>
       </c>
-      <c r="V7" s="4" t="n">
+      <c r="V7" s="2" t="n">
         <v>3783</v>
       </c>
-      <c r="W7" s="4" t="n">
+      <c r="W7" s="2" t="n">
         <v>3883</v>
       </c>
-      <c r="X7" s="4" t="n">
+      <c r="X7" s="2" t="n">
         <v>3803</v>
       </c>
-      <c r="Y7" s="4" t="n">
+      <c r="Y7" s="2" t="n">
         <v>3718</v>
       </c>
-      <c r="Z7" s="4" t="n">
+      <c r="Z7" s="2" t="n">
         <v>3679</v>
       </c>
-      <c r="AA7" s="4" t="n">
+      <c r="AA7" s="2" t="n">
         <v>3461</v>
       </c>
-      <c r="AB7" s="4" t="n">
+      <c r="AB7" s="2" t="n">
         <v>3326</v>
       </c>
-      <c r="AC7" s="4" t="n">
+      <c r="AC7" s="2" t="n">
         <v>3211</v>
       </c>
-      <c r="AD7" s="4" t="n">
+      <c r="AD7" s="2" t="n">
         <v>3131</v>
       </c>
-      <c r="AE7" s="4" t="n">
+      <c r="AE7" s="2" t="n">
         <v>3137</v>
       </c>
-      <c r="AF7" s="4" t="n">
+      <c r="AF7" s="2" t="n">
         <v>3679</v>
       </c>
-      <c r="AG7" s="3" t="n">
+      <c r="AG7" s="4" t="n">
         <v>3461</v>
       </c>
-      <c r="AH7" s="3" t="n">
+      <c r="AH7" s="4" t="n">
         <v>3326</v>
       </c>
-      <c r="AI7" s="3" t="n">
+      <c r="AI7" s="4" t="n">
         <v>3211</v>
       </c>
-      <c r="AJ7" s="3" t="n">
+      <c r="AJ7" s="4" t="n">
         <v>3131</v>
       </c>
-      <c r="AK7" s="3" t="n">
+      <c r="AK7" s="4" t="n">
         <v>3137</v>
       </c>
-      <c r="AL7" s="3"/>
+      <c r="AL7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -1285,31 +1360,31 @@
       <c r="B8" t="str">
         <f>N8</f>
       </c>
-      <c r="C8" s="4" t="str">
+      <c r="C8" s="2" t="str">
         <f>AB8</f>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="2" t="str">
         <f>AD8</f>
       </c>
-      <c r="E8" s="4" t="str">
+      <c r="E8" s="2" t="str">
         <f>AE8</f>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="2" t="n">
         <v>6534</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="3" t="str">
         <f>AE8/AD8-1</f>
       </c>
-      <c r="H8" s="2" t="str">
+      <c r="H8" s="3" t="str">
         <f>AE8/AB8-1</f>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="3" t="n">
         <v>5882</v>
       </c>
-      <c r="J8" s="2" t="str">
+      <c r="J8" s="3" t="str">
         <f>AE8/Sum(AE$1:AE$9)</f>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="3" t="n">
         <v>5987</v>
       </c>
       <c r="L8" s="1" t="n">
@@ -1321,76 +1396,76 @@
       <c r="N8" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="4" t="n">
+      <c r="O8" s="2" t="n">
         <v>3223</v>
       </c>
-      <c r="P8" s="4" t="n">
+      <c r="P8" s="2" t="n">
         <v>3447</v>
       </c>
-      <c r="Q8" s="4" t="n">
+      <c r="Q8" s="2" t="n">
         <v>3443</v>
       </c>
-      <c r="R8" s="4" t="n">
+      <c r="R8" s="2" t="n">
         <v>4278</v>
       </c>
-      <c r="S8" s="4" t="n">
+      <c r="S8" s="2" t="n">
         <v>4467</v>
       </c>
-      <c r="T8" s="4" t="n">
+      <c r="T8" s="2" t="n">
         <v>4761</v>
       </c>
-      <c r="U8" s="4" t="n">
+      <c r="U8" s="2" t="n">
         <v>6118</v>
       </c>
-      <c r="V8" s="4" t="n">
+      <c r="V8" s="2" t="n">
         <v>6464</v>
       </c>
-      <c r="W8" s="4" t="n">
+      <c r="W8" s="2" t="n">
         <v>6153</v>
       </c>
-      <c r="X8" s="4" t="n">
+      <c r="X8" s="2" t="n">
         <v>6532</v>
       </c>
-      <c r="Y8" s="4" t="n">
+      <c r="Y8" s="2" t="n">
         <v>6534</v>
       </c>
-      <c r="Z8" s="4" t="n">
+      <c r="Z8" s="2" t="n">
         <v>6717</v>
       </c>
-      <c r="AA8" s="4" t="n">
+      <c r="AA8" s="2" t="n">
         <v>6909</v>
       </c>
-      <c r="AB8" s="4" t="n">
+      <c r="AB8" s="2" t="n">
         <v>5882</v>
       </c>
-      <c r="AC8" s="4" t="n">
+      <c r="AC8" s="2" t="n">
         <v>5950</v>
       </c>
-      <c r="AD8" s="4" t="n">
+      <c r="AD8" s="2" t="n">
         <v>5987</v>
       </c>
-      <c r="AE8" s="4" t="n">
+      <c r="AE8" s="2" t="n">
         <v>6146</v>
       </c>
-      <c r="AF8" s="4" t="n">
+      <c r="AF8" s="2" t="n">
         <v>6717</v>
       </c>
-      <c r="AG8" s="3" t="n">
+      <c r="AG8" s="4" t="n">
         <v>6909</v>
       </c>
-      <c r="AH8" s="3" t="n">
+      <c r="AH8" s="4" t="n">
         <v>5882</v>
       </c>
-      <c r="AI8" s="3" t="n">
+      <c r="AI8" s="4" t="n">
         <v>5950</v>
       </c>
-      <c r="AJ8" s="3" t="n">
+      <c r="AJ8" s="4" t="n">
         <v>5987</v>
       </c>
-      <c r="AK8" s="3" t="n">
+      <c r="AK8" s="4" t="n">
         <v>6146</v>
       </c>
-      <c r="AL8" s="3"/>
+      <c r="AL8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -1399,31 +1474,31 @@
       <c r="B9" t="str">
         <f>N9</f>
       </c>
-      <c r="C9" s="4" t="str">
+      <c r="C9" s="2" t="str">
         <f>AB9</f>
       </c>
-      <c r="D9" s="4" t="str">
+      <c r="D9" s="2" t="str">
         <f>AD9</f>
       </c>
-      <c r="E9" s="4" t="str">
+      <c r="E9" s="2" t="str">
         <f>AE9</f>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="2" t="n">
         <v>5851</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="3" t="str">
         <f>AE9/AD9-1</f>
       </c>
-      <c r="H9" s="2" t="str">
+      <c r="H9" s="3" t="str">
         <f>AE9/AB9-1</f>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="3" t="n">
         <v>5681</v>
       </c>
-      <c r="J9" s="2" t="str">
+      <c r="J9" s="3" t="str">
         <f>AE9/Sum(AE$1:AE$9)</f>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" s="3" t="n">
         <v>5526</v>
       </c>
       <c r="L9" s="1" t="n">
@@ -1433,78 +1508,78 @@
         <v>17</v>
       </c>
       <c r="N9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="O9" s="2" t="n">
         <v>4603</v>
       </c>
-      <c r="P9" s="4" t="n">
+      <c r="P9" s="2" t="n">
         <v>4853</v>
       </c>
-      <c r="Q9" s="4" t="n">
+      <c r="Q9" s="2" t="n">
         <v>5387</v>
       </c>
-      <c r="R9" s="4" t="n">
+      <c r="R9" s="2" t="n">
         <v>5879</v>
       </c>
-      <c r="S9" s="4" t="n">
+      <c r="S9" s="2" t="n">
         <v>6165</v>
       </c>
-      <c r="T9" s="4" t="n">
+      <c r="T9" s="2" t="n">
         <v>5928</v>
       </c>
-      <c r="U9" s="4" t="n">
+      <c r="U9" s="2" t="n">
         <v>5909</v>
       </c>
-      <c r="V9" s="4" t="n">
+      <c r="V9" s="2" t="n">
         <v>5803</v>
       </c>
-      <c r="W9" s="4" t="n">
+      <c r="W9" s="2" t="n">
         <v>5789</v>
       </c>
-      <c r="X9" s="4" t="n">
+      <c r="X9" s="2" t="n">
         <v>5810</v>
       </c>
-      <c r="Y9" s="4" t="n">
+      <c r="Y9" s="2" t="n">
         <v>5851</v>
       </c>
-      <c r="Z9" s="4" t="n">
+      <c r="Z9" s="2" t="n">
         <v>5856</v>
       </c>
-      <c r="AA9" s="4" t="n">
+      <c r="AA9" s="2" t="n">
         <v>5668</v>
       </c>
-      <c r="AB9" s="4" t="n">
+      <c r="AB9" s="2" t="n">
         <v>5681</v>
       </c>
-      <c r="AC9" s="4" t="n">
+      <c r="AC9" s="2" t="n">
         <v>5552</v>
       </c>
-      <c r="AD9" s="4" t="n">
+      <c r="AD9" s="2" t="n">
         <v>5526</v>
       </c>
-      <c r="AE9" s="4" t="n">
+      <c r="AE9" s="2" t="n">
         <v>5391</v>
       </c>
-      <c r="AF9" s="4" t="n">
+      <c r="AF9" s="2" t="n">
         <v>5856</v>
       </c>
-      <c r="AG9" s="3" t="n">
+      <c r="AG9" s="4" t="n">
         <v>5668</v>
       </c>
-      <c r="AH9" s="3" t="n">
+      <c r="AH9" s="4" t="n">
         <v>5681</v>
       </c>
-      <c r="AI9" s="3" t="n">
+      <c r="AI9" s="4" t="n">
         <v>5552</v>
       </c>
-      <c r="AJ9" s="3" t="n">
+      <c r="AJ9" s="4" t="n">
         <v>5526</v>
       </c>
-      <c r="AK9" s="3" t="n">
+      <c r="AK9" s="4" t="n">
         <v>5391</v>
       </c>
-      <c r="AL9" s="3"/>
+      <c r="AL9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1513,27 +1588,27 @@
       <c r="B10" t="str">
         <f>N10</f>
       </c>
-      <c r="C10" s="4" t="str">
+      <c r="C10" s="2" t="str">
         <f>AB10</f>
       </c>
-      <c r="D10" s="4" t="str">
+      <c r="D10" s="2" t="str">
         <f>AD10</f>
       </c>
-      <c r="E10" s="4" t="str">
+      <c r="E10" s="2" t="str">
         <f>AE10</f>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="2" t="str">
+      <c r="F10" s="2"/>
+      <c r="G10" s="3" t="str">
         <f>AE10/AD10-1</f>
       </c>
-      <c r="H10" s="2" t="str">
+      <c r="H10" s="3" t="str">
         <f>AE10/AB10-1</f>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="str">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="str">
         <f>Sum(J$1:J$9)</f>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
         <v>18</v>
@@ -1541,76 +1616,76 @@
       <c r="N10" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="4" t="str">
+      <c r="O10" s="2" t="str">
         <f>Sum(O2:O9)</f>
       </c>
-      <c r="P10" s="4" t="str">
+      <c r="P10" s="2" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="4" t="str">
+      <c r="Q10" s="2" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="4" t="str">
+      <c r="R10" s="2" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="4" t="str">
+      <c r="S10" s="2" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="4" t="str">
+      <c r="T10" s="2" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="4" t="str">
+      <c r="U10" s="2" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="4" t="str">
+      <c r="V10" s="2" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="4" t="str">
+      <c r="W10" s="2" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="4" t="str">
+      <c r="X10" s="2" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="4" t="str">
+      <c r="Y10" s="2" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="4" t="str">
+      <c r="Z10" s="2" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="4" t="str">
+      <c r="AA10" s="2" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="4" t="str">
+      <c r="AB10" s="2" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="4" t="str">
+      <c r="AC10" s="2" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="4" t="str">
+      <c r="AD10" s="2" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="4" t="str">
+      <c r="AE10" s="2" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="4" t="str">
+      <c r="AF10" s="2" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="3" t="str">
+      <c r="AG10" s="4" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="3" t="str">
+      <c r="AH10" s="4" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="3" t="str">
+      <c r="AI10" s="4" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="3" t="str">
+      <c r="AJ10" s="4" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="3" t="str">
+      <c r="AK10" s="4" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="3"/>
+      <c r="AL10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1755,106 +1830,106 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="6" t="n">
         <v>1073603566.7955</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="6" t="n">
         <v>1048450862.5594</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="6" t="n">
         <v>1088102147.7351</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="6" t="n">
         <v>1072746922.942</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="6" t="n">
         <v>1096865763.5188</v>
       </c>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="6" t="n">
         <v>1188706092.6348</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="6" t="n">
         <v>926769387.3954</v>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="L2" s="6" t="n">
         <v>976003450.1165</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="7" t="n">
+      <c r="O2" s="11" t="n">
         <v>1607832650.0848</v>
       </c>
-      <c r="P2" s="7" t="n">
+      <c r="P2" s="11" t="n">
         <v>1751871558.4642</v>
       </c>
-      <c r="Q2" s="7" t="n">
+      <c r="Q2" s="11" t="n">
         <v>1506361369.1731</v>
       </c>
-      <c r="R2" s="7" t="n">
+      <c r="R2" s="11" t="n">
         <v>1396531382.5087</v>
       </c>
-      <c r="S2" s="7" t="n">
+      <c r="S2" s="11" t="n">
         <v>1397976506.2712</v>
       </c>
-      <c r="T2" s="7" t="n">
+      <c r="T2" s="11" t="n">
         <v>1279752259.8247</v>
       </c>
-      <c r="U2" s="7" t="n">
+      <c r="U2" s="11" t="n">
         <v>1049133781.4795</v>
       </c>
-      <c r="V2" s="7" t="n">
+      <c r="V2" s="11" t="n">
         <v>1073603566.7955</v>
       </c>
-      <c r="W2" s="7" t="n">
+      <c r="W2" s="11" t="n">
         <v>1048450862.5594</v>
       </c>
-      <c r="X2" s="7" t="n">
+      <c r="X2" s="11" t="n">
         <v>1088102147.7351</v>
       </c>
-      <c r="Y2" s="7" t="n">
+      <c r="Y2" s="11" t="n">
         <v>1072746922.942</v>
       </c>
-      <c r="Z2" s="7" t="n">
+      <c r="Z2" s="11" t="n">
         <v>1096865763.5188</v>
       </c>
-      <c r="AA2" s="7" t="n">
+      <c r="AA2" s="11" t="n">
         <v>1188706092.6348</v>
       </c>
-      <c r="AB2" s="7" t="n">
+      <c r="AB2" s="11" t="n">
         <v>926769387.3954</v>
       </c>
-      <c r="AC2" s="7" t="n">
+      <c r="AC2" s="11" t="n">
         <v>976003450.1165</v>
       </c>
-      <c r="AD2" s="7" t="n">
+      <c r="AD2" s="11" t="n">
         <v>983305068.5037</v>
       </c>
-      <c r="AE2" s="7" t="n">
+      <c r="AE2" s="11" t="n">
         <v>926451906.4684</v>
       </c>
-      <c r="AF2" s="7" t="n">
+      <c r="AF2" s="11" t="n">
         <v>1096865763.5188</v>
       </c>
-      <c r="AG2" s="6" t="n">
+      <c r="AG2" s="7" t="n">
         <v>1188706092.6348</v>
       </c>
-      <c r="AH2" s="6" t="n">
+      <c r="AH2" s="7" t="n">
         <v>926769387.3954</v>
       </c>
-      <c r="AI2" s="6" t="n">
+      <c r="AI2" s="7" t="n">
         <v>976003450.1165</v>
       </c>
-      <c r="AJ2" s="6" t="n">
+      <c r="AJ2" s="7" t="n">
         <v>983305068.5037</v>
       </c>
-      <c r="AK2" s="6" t="n">
+      <c r="AK2" s="7" t="n">
         <v>926451906.4684</v>
       </c>
-      <c r="AL2" s="6"/>
+      <c r="AL2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1869,106 +1944,106 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="6" t="n">
         <v>751928698.974</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="6" t="n">
         <v>815327907.857</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="6" t="n">
         <v>844568319.4829</v>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="6" t="n">
         <v>787108243.3135</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="6" t="n">
         <v>820630788.2635</v>
       </c>
-      <c r="J3" s="5" t="n">
+      <c r="J3" s="6" t="n">
         <v>686536567.6669</v>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="K3" s="6" t="n">
         <v>545764074.6504</v>
       </c>
-      <c r="L3" s="5" t="n">
+      <c r="L3" s="6" t="n">
         <v>564021752.7514</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="7" t="n">
+      <c r="N3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="11" t="n">
         <v>1184454239.6496</v>
       </c>
-      <c r="P3" s="7" t="n">
+      <c r="P3" s="11" t="n">
         <v>1228271132.5837</v>
       </c>
-      <c r="Q3" s="7" t="n">
+      <c r="Q3" s="11" t="n">
         <v>1140495002.7928</v>
       </c>
-      <c r="R3" s="7" t="n">
+      <c r="R3" s="11" t="n">
         <v>1024201877.6785</v>
       </c>
-      <c r="S3" s="7" t="n">
+      <c r="S3" s="11" t="n">
         <v>896870805.4232</v>
       </c>
-      <c r="T3" s="7" t="n">
+      <c r="T3" s="11" t="n">
         <v>960414796.0546</v>
       </c>
-      <c r="U3" s="7" t="n">
+      <c r="U3" s="11" t="n">
         <v>878985475.2202</v>
       </c>
-      <c r="V3" s="7" t="n">
+      <c r="V3" s="11" t="n">
         <v>751928698.974</v>
       </c>
-      <c r="W3" s="7" t="n">
+      <c r="W3" s="11" t="n">
         <v>815327907.857</v>
       </c>
-      <c r="X3" s="7" t="n">
+      <c r="X3" s="11" t="n">
         <v>844568319.4829</v>
       </c>
-      <c r="Y3" s="7" t="n">
+      <c r="Y3" s="11" t="n">
         <v>787108243.3135</v>
       </c>
-      <c r="Z3" s="7" t="n">
+      <c r="Z3" s="11" t="n">
         <v>820630788.2635</v>
       </c>
-      <c r="AA3" s="7" t="n">
+      <c r="AA3" s="11" t="n">
         <v>686536567.6669</v>
       </c>
-      <c r="AB3" s="7" t="n">
+      <c r="AB3" s="11" t="n">
         <v>545764074.6504</v>
       </c>
-      <c r="AC3" s="7" t="n">
+      <c r="AC3" s="11" t="n">
         <v>564021752.7514</v>
       </c>
-      <c r="AD3" s="7" t="n">
+      <c r="AD3" s="11" t="n">
         <v>783509578.311</v>
       </c>
-      <c r="AE3" s="7" t="n">
+      <c r="AE3" s="11" t="n">
         <v>704578096.1892</v>
       </c>
-      <c r="AF3" s="7" t="n">
+      <c r="AF3" s="11" t="n">
         <v>820630788.2635</v>
       </c>
-      <c r="AG3" s="6" t="n">
+      <c r="AG3" s="7" t="n">
         <v>686536567.6669</v>
       </c>
-      <c r="AH3" s="6" t="n">
+      <c r="AH3" s="7" t="n">
         <v>545764074.6504</v>
       </c>
-      <c r="AI3" s="6" t="n">
+      <c r="AI3" s="7" t="n">
         <v>564021752.7514</v>
       </c>
-      <c r="AJ3" s="6" t="n">
+      <c r="AJ3" s="7" t="n">
         <v>783509578.311</v>
       </c>
-      <c r="AK3" s="6" t="n">
+      <c r="AK3" s="7" t="n">
         <v>704578096.1892</v>
       </c>
-      <c r="AL3" s="6"/>
+      <c r="AL3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1983,106 +2058,106 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="6" t="n">
         <v>4141995592.0904</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6" t="n">
         <v>3565259691.7783</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="6" t="n">
         <v>3492208221.3053</v>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="6" t="n">
         <v>3649991757.8593</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="6" t="n">
         <v>3901328619.9928</v>
       </c>
-      <c r="J4" s="5" t="n">
+      <c r="J4" s="6" t="n">
         <v>3830751102.3953</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="6" t="n">
         <v>4021172451.8518</v>
       </c>
-      <c r="L4" s="5" t="n">
+      <c r="L4" s="6" t="n">
         <v>3517341896.4453</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="7" t="n">
+      <c r="O4" s="11" t="n">
         <v>6058548489.082</v>
       </c>
-      <c r="P4" s="7" t="n">
+      <c r="P4" s="11" t="n">
         <v>6080450819.0119</v>
       </c>
-      <c r="Q4" s="7" t="n">
+      <c r="Q4" s="11" t="n">
         <v>6779332127.7524</v>
       </c>
-      <c r="R4" s="7" t="n">
+      <c r="R4" s="11" t="n">
         <v>6093289597.1129</v>
       </c>
-      <c r="S4" s="7" t="n">
+      <c r="S4" s="11" t="n">
         <v>5262222494.4274</v>
       </c>
-      <c r="T4" s="7" t="n">
+      <c r="T4" s="11" t="n">
         <v>5079840604.2751</v>
       </c>
-      <c r="U4" s="7" t="n">
+      <c r="U4" s="11" t="n">
         <v>3567145813.244</v>
       </c>
-      <c r="V4" s="7" t="n">
+      <c r="V4" s="11" t="n">
         <v>4141995592.0904</v>
       </c>
-      <c r="W4" s="7" t="n">
+      <c r="W4" s="11" t="n">
         <v>3565259691.7783</v>
       </c>
-      <c r="X4" s="7" t="n">
+      <c r="X4" s="11" t="n">
         <v>3492208221.3053</v>
       </c>
-      <c r="Y4" s="7" t="n">
+      <c r="Y4" s="11" t="n">
         <v>3649991757.8593</v>
       </c>
-      <c r="Z4" s="7" t="n">
+      <c r="Z4" s="11" t="n">
         <v>3901328619.9928</v>
       </c>
-      <c r="AA4" s="7" t="n">
+      <c r="AA4" s="11" t="n">
         <v>3830751102.3953</v>
       </c>
-      <c r="AB4" s="7" t="n">
+      <c r="AB4" s="11" t="n">
         <v>4021172451.8518</v>
       </c>
-      <c r="AC4" s="7" t="n">
+      <c r="AC4" s="11" t="n">
         <v>3517341896.4453</v>
       </c>
-      <c r="AD4" s="7" t="n">
+      <c r="AD4" s="11" t="n">
         <v>3678372019.6405</v>
       </c>
-      <c r="AE4" s="7" t="n">
+      <c r="AE4" s="11" t="n">
         <v>3920322861.3483</v>
       </c>
-      <c r="AF4" s="7" t="n">
+      <c r="AF4" s="11" t="n">
         <v>3901328619.9928</v>
       </c>
-      <c r="AG4" s="6" t="n">
+      <c r="AG4" s="7" t="n">
         <v>3830751102.3953</v>
       </c>
-      <c r="AH4" s="6" t="n">
+      <c r="AH4" s="7" t="n">
         <v>4021172451.8518</v>
       </c>
-      <c r="AI4" s="6" t="n">
+      <c r="AI4" s="7" t="n">
         <v>3517341896.4453</v>
       </c>
-      <c r="AJ4" s="6" t="n">
+      <c r="AJ4" s="7" t="n">
         <v>3678372019.6405</v>
       </c>
-      <c r="AK4" s="6" t="n">
+      <c r="AK4" s="7" t="n">
         <v>3920322861.3483</v>
       </c>
-      <c r="AL4" s="6"/>
+      <c r="AL4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2097,106 +2172,106 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="6" t="n">
         <v>2692614083.0845</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="6" t="n">
         <v>3128570143.1366</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="6" t="n">
         <v>3199159154.8128</v>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="6" t="n">
         <v>3037857677.0835</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="6" t="n">
         <v>3446915761.444</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="6" t="n">
         <v>3536696065.3334</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="6" t="n">
         <v>3005062231.913</v>
       </c>
-      <c r="L5" s="5" t="n">
+      <c r="L5" s="6" t="n">
         <v>3052114457.93</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="7" t="n">
+      <c r="N5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="11" t="n">
         <v>5679433896.1785</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="P5" s="11" t="n">
         <v>5624659404.6315</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="Q5" s="11" t="n">
         <v>5212638422.3091</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="R5" s="11" t="n">
         <v>6288316411.3781</v>
       </c>
-      <c r="S5" s="7" t="n">
+      <c r="S5" s="11" t="n">
         <v>5657555259.5043</v>
       </c>
-      <c r="T5" s="7" t="n">
+      <c r="T5" s="11" t="n">
         <v>3904127512.8452</v>
       </c>
-      <c r="U5" s="7" t="n">
+      <c r="U5" s="11" t="n">
         <v>3157315866.5217</v>
       </c>
-      <c r="V5" s="7" t="n">
+      <c r="V5" s="11" t="n">
         <v>2692614083.0845</v>
       </c>
-      <c r="W5" s="7" t="n">
+      <c r="W5" s="11" t="n">
         <v>3128570143.1366</v>
       </c>
-      <c r="X5" s="7" t="n">
+      <c r="X5" s="11" t="n">
         <v>3199159154.8128</v>
       </c>
-      <c r="Y5" s="7" t="n">
+      <c r="Y5" s="11" t="n">
         <v>3037857677.0835</v>
       </c>
-      <c r="Z5" s="7" t="n">
+      <c r="Z5" s="11" t="n">
         <v>3446915761.444</v>
       </c>
-      <c r="AA5" s="7" t="n">
+      <c r="AA5" s="11" t="n">
         <v>3536696065.3334</v>
       </c>
-      <c r="AB5" s="7" t="n">
+      <c r="AB5" s="11" t="n">
         <v>3005062231.913</v>
       </c>
-      <c r="AC5" s="7" t="n">
+      <c r="AC5" s="11" t="n">
         <v>3052114457.93</v>
       </c>
-      <c r="AD5" s="7" t="n">
+      <c r="AD5" s="11" t="n">
         <v>3359581254.4839</v>
       </c>
-      <c r="AE5" s="7" t="n">
+      <c r="AE5" s="11" t="n">
         <v>3618751504.3042</v>
       </c>
-      <c r="AF5" s="7" t="n">
+      <c r="AF5" s="11" t="n">
         <v>3446915761.444</v>
       </c>
-      <c r="AG5" s="6" t="n">
+      <c r="AG5" s="7" t="n">
         <v>3536696065.3334</v>
       </c>
-      <c r="AH5" s="6" t="n">
+      <c r="AH5" s="7" t="n">
         <v>3005062231.913</v>
       </c>
-      <c r="AI5" s="6" t="n">
+      <c r="AI5" s="7" t="n">
         <v>3052114457.93</v>
       </c>
-      <c r="AJ5" s="6" t="n">
+      <c r="AJ5" s="7" t="n">
         <v>3359581254.4839</v>
       </c>
-      <c r="AK5" s="6" t="n">
+      <c r="AK5" s="7" t="n">
         <v>3618751504.3042</v>
       </c>
-      <c r="AL5" s="6"/>
+      <c r="AL5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2211,106 +2286,106 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="6" t="n">
         <v>2086527003.9821</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="6" t="n">
         <v>1929095879.8002</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="6" t="n">
         <v>1907797922.1413</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="6" t="n">
         <v>1867693420.1991</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="6" t="n">
         <v>2192470949.6515</v>
       </c>
-      <c r="J6" s="5" t="n">
+      <c r="J6" s="6" t="n">
         <v>2196604584.8566</v>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="K6" s="6" t="n">
         <v>2410132539.3328</v>
       </c>
-      <c r="L6" s="5" t="n">
+      <c r="L6" s="6" t="n">
         <v>2143906576.2048</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="7" t="n">
+      <c r="O6" s="11" t="n">
         <v>3741321610.9336</v>
       </c>
-      <c r="P6" s="7" t="n">
+      <c r="P6" s="11" t="n">
         <v>3625952821.6054</v>
       </c>
-      <c r="Q6" s="7" t="n">
+      <c r="Q6" s="11" t="n">
         <v>3149991887.2102</v>
       </c>
-      <c r="R6" s="7" t="n">
+      <c r="R6" s="11" t="n">
         <v>2991291521.2622</v>
       </c>
-      <c r="S6" s="7" t="n">
+      <c r="S6" s="11" t="n">
         <v>3048040619.9372</v>
       </c>
-      <c r="T6" s="7" t="n">
+      <c r="T6" s="11" t="n">
         <v>2474472259.8299</v>
       </c>
-      <c r="U6" s="7" t="n">
+      <c r="U6" s="11" t="n">
         <v>1960743379.2061</v>
       </c>
-      <c r="V6" s="7" t="n">
+      <c r="V6" s="11" t="n">
         <v>2086527003.9821</v>
       </c>
-      <c r="W6" s="7" t="n">
+      <c r="W6" s="11" t="n">
         <v>1929095879.8002</v>
       </c>
-      <c r="X6" s="7" t="n">
+      <c r="X6" s="11" t="n">
         <v>1907797922.1413</v>
       </c>
-      <c r="Y6" s="7" t="n">
+      <c r="Y6" s="11" t="n">
         <v>1867693420.1991</v>
       </c>
-      <c r="Z6" s="7" t="n">
+      <c r="Z6" s="11" t="n">
         <v>2192470949.6515</v>
       </c>
-      <c r="AA6" s="7" t="n">
+      <c r="AA6" s="11" t="n">
         <v>2196604584.8566</v>
       </c>
-      <c r="AB6" s="7" t="n">
+      <c r="AB6" s="11" t="n">
         <v>2410132539.3328</v>
       </c>
-      <c r="AC6" s="7" t="n">
+      <c r="AC6" s="11" t="n">
         <v>2143906576.2048</v>
       </c>
-      <c r="AD6" s="7" t="n">
+      <c r="AD6" s="11" t="n">
         <v>2743455584.5329</v>
       </c>
-      <c r="AE6" s="7" t="n">
+      <c r="AE6" s="11" t="n">
         <v>2637534724.141</v>
       </c>
-      <c r="AF6" s="7" t="n">
+      <c r="AF6" s="11" t="n">
         <v>2192470949.6515</v>
       </c>
-      <c r="AG6" s="6" t="n">
+      <c r="AG6" s="7" t="n">
         <v>2196604584.8566</v>
       </c>
-      <c r="AH6" s="6" t="n">
+      <c r="AH6" s="7" t="n">
         <v>2410132539.3328</v>
       </c>
-      <c r="AI6" s="6" t="n">
+      <c r="AI6" s="7" t="n">
         <v>2143906576.2048</v>
       </c>
-      <c r="AJ6" s="6" t="n">
+      <c r="AJ6" s="7" t="n">
         <v>2743455584.5329</v>
       </c>
-      <c r="AK6" s="6" t="n">
+      <c r="AK6" s="7" t="n">
         <v>2637534724.141</v>
       </c>
-      <c r="AL6" s="6"/>
+      <c r="AL6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -2325,106 +2400,106 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="6" t="n">
         <v>1852486611.2265</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="6" t="n">
         <v>2095620001.2314</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="6" t="n">
         <v>2157406767.1706</v>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H7" s="6" t="n">
         <v>2086646758.7863</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="6" t="n">
         <v>2954288727.5505</v>
       </c>
-      <c r="J7" s="5" t="n">
+      <c r="J7" s="6" t="n">
         <v>2564514717.4087</v>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="K7" s="6" t="n">
         <v>1728682770.7371</v>
       </c>
-      <c r="L7" s="5" t="n">
+      <c r="L7" s="6" t="n">
         <v>1730445562.261</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="7" t="n">
+      <c r="N7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="11" t="n">
         <v>3266121388.9118</v>
       </c>
-      <c r="P7" s="7" t="n">
+      <c r="P7" s="11" t="n">
         <v>3182798416.4579</v>
       </c>
-      <c r="Q7" s="7" t="n">
+      <c r="Q7" s="11" t="n">
         <v>3233826970.6075</v>
       </c>
-      <c r="R7" s="7" t="n">
+      <c r="R7" s="11" t="n">
         <v>2767730315.3216</v>
       </c>
-      <c r="S7" s="7" t="n">
+      <c r="S7" s="11" t="n">
         <v>2660320898.8073</v>
       </c>
-      <c r="T7" s="7" t="n">
+      <c r="T7" s="11" t="n">
         <v>2350057703.0912</v>
       </c>
-      <c r="U7" s="7" t="n">
+      <c r="U7" s="11" t="n">
         <v>2090466800.5072</v>
       </c>
-      <c r="V7" s="7" t="n">
+      <c r="V7" s="11" t="n">
         <v>1852486611.2265</v>
       </c>
-      <c r="W7" s="7" t="n">
+      <c r="W7" s="11" t="n">
         <v>2095620001.2314</v>
       </c>
-      <c r="X7" s="7" t="n">
+      <c r="X7" s="11" t="n">
         <v>2157406767.1706</v>
       </c>
-      <c r="Y7" s="7" t="n">
+      <c r="Y7" s="11" t="n">
         <v>2086646758.7863</v>
       </c>
-      <c r="Z7" s="7" t="n">
+      <c r="Z7" s="11" t="n">
         <v>2954288727.5505</v>
       </c>
-      <c r="AA7" s="7" t="n">
+      <c r="AA7" s="11" t="n">
         <v>2564514717.4087</v>
       </c>
-      <c r="AB7" s="7" t="n">
+      <c r="AB7" s="11" t="n">
         <v>1728682770.7371</v>
       </c>
-      <c r="AC7" s="7" t="n">
+      <c r="AC7" s="11" t="n">
         <v>1730445562.261</v>
       </c>
-      <c r="AD7" s="7" t="n">
+      <c r="AD7" s="11" t="n">
         <v>2301474992.4097</v>
       </c>
-      <c r="AE7" s="7" t="n">
+      <c r="AE7" s="11" t="n">
         <v>2008363234.2734</v>
       </c>
-      <c r="AF7" s="7" t="n">
+      <c r="AF7" s="11" t="n">
         <v>2954288727.5505</v>
       </c>
-      <c r="AG7" s="6" t="n">
+      <c r="AG7" s="7" t="n">
         <v>2564514717.4087</v>
       </c>
-      <c r="AH7" s="6" t="n">
+      <c r="AH7" s="7" t="n">
         <v>1728682770.7371</v>
       </c>
-      <c r="AI7" s="6" t="n">
+      <c r="AI7" s="7" t="n">
         <v>1730445562.261</v>
       </c>
-      <c r="AJ7" s="6" t="n">
+      <c r="AJ7" s="7" t="n">
         <v>2301474992.4097</v>
       </c>
-      <c r="AK7" s="6" t="n">
+      <c r="AK7" s="7" t="n">
         <v>2008363234.2734</v>
       </c>
-      <c r="AL7" s="6"/>
+      <c r="AL7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -2439,106 +2514,106 @@
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="6" t="n">
         <v>24912992627.0785</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="6" t="n">
         <v>22851084792.0819</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="6" t="n">
         <v>24462657675.0215</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="6" t="n">
         <v>24530048151.9762</v>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="6" t="n">
         <v>30621886485.4193</v>
       </c>
-      <c r="J8" s="5" t="n">
+      <c r="J8" s="6" t="n">
         <v>30157803730.9944</v>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="K8" s="6" t="n">
         <v>34096578496.9379</v>
       </c>
-      <c r="L8" s="5" t="n">
+      <c r="L8" s="6" t="n">
         <v>40235083984.2429</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="7" t="n">
+      <c r="O8" s="11" t="n">
         <v>16269882471.9794</v>
       </c>
-      <c r="P8" s="7" t="n">
+      <c r="P8" s="11" t="n">
         <v>17994021717.0678</v>
       </c>
-      <c r="Q8" s="7" t="n">
+      <c r="Q8" s="11" t="n">
         <v>21387199545.8055</v>
       </c>
-      <c r="R8" s="7" t="n">
+      <c r="R8" s="11" t="n">
         <v>22576338913.7346</v>
       </c>
-      <c r="S8" s="7" t="n">
+      <c r="S8" s="11" t="n">
         <v>22032636135.821</v>
       </c>
-      <c r="T8" s="7" t="n">
+      <c r="T8" s="11" t="n">
         <v>24242893687.3319</v>
       </c>
-      <c r="U8" s="7" t="n">
+      <c r="U8" s="11" t="n">
         <v>20838549418.202</v>
       </c>
-      <c r="V8" s="7" t="n">
+      <c r="V8" s="11" t="n">
         <v>24912992627.0785</v>
       </c>
-      <c r="W8" s="7" t="n">
+      <c r="W8" s="11" t="n">
         <v>22851084792.0819</v>
       </c>
-      <c r="X8" s="7" t="n">
+      <c r="X8" s="11" t="n">
         <v>24462657675.0215</v>
       </c>
-      <c r="Y8" s="7" t="n">
+      <c r="Y8" s="11" t="n">
         <v>24530048151.9762</v>
       </c>
-      <c r="Z8" s="7" t="n">
+      <c r="Z8" s="11" t="n">
         <v>30621886485.4193</v>
       </c>
-      <c r="AA8" s="7" t="n">
+      <c r="AA8" s="11" t="n">
         <v>30157803730.9944</v>
       </c>
-      <c r="AB8" s="7" t="n">
+      <c r="AB8" s="11" t="n">
         <v>34096578496.9379</v>
       </c>
-      <c r="AC8" s="7" t="n">
+      <c r="AC8" s="11" t="n">
         <v>40235083984.2429</v>
       </c>
-      <c r="AD8" s="7" t="n">
+      <c r="AD8" s="11" t="n">
         <v>37898761518.9342</v>
       </c>
-      <c r="AE8" s="7" t="n">
+      <c r="AE8" s="11" t="n">
         <v>41482341205.8373</v>
       </c>
-      <c r="AF8" s="7" t="n">
+      <c r="AF8" s="11" t="n">
         <v>30621886485.4193</v>
       </c>
-      <c r="AG8" s="6" t="n">
+      <c r="AG8" s="7" t="n">
         <v>30157803730.9944</v>
       </c>
-      <c r="AH8" s="6" t="n">
+      <c r="AH8" s="7" t="n">
         <v>34096578496.9379</v>
       </c>
-      <c r="AI8" s="6" t="n">
+      <c r="AI8" s="7" t="n">
         <v>40235083984.2429</v>
       </c>
-      <c r="AJ8" s="6" t="n">
+      <c r="AJ8" s="7" t="n">
         <v>37898761518.9342</v>
       </c>
-      <c r="AK8" s="6" t="n">
+      <c r="AK8" s="7" t="n">
         <v>41482341205.8373</v>
       </c>
-      <c r="AL8" s="6"/>
+      <c r="AL8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -2553,106 +2628,106 @@
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="6" t="n">
         <v>246953219804.49</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="6" t="n">
         <v>238730914399.601</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="6" t="n">
         <v>261373439540.335</v>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H9" s="6" t="n">
         <v>284878416992.171</v>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="I9" s="6" t="n">
         <v>313701272526.863</v>
       </c>
-      <c r="J9" s="5" t="n">
+      <c r="J9" s="6" t="n">
         <v>339456686334.059</v>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="K9" s="6" t="n">
         <v>375919182099.509</v>
       </c>
-      <c r="L9" s="5" t="n">
+      <c r="L9" s="6" t="n">
         <v>335466315747.992</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="7" t="n">
+      <c r="N9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="11" t="n">
         <v>295814228873.005</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="P9" s="11" t="n">
         <v>344228460150.258</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="Q9" s="11" t="n">
         <v>331006115932.454</v>
       </c>
-      <c r="R9" s="7" t="n">
+      <c r="R9" s="11" t="n">
         <v>325466947956.52</v>
       </c>
-      <c r="S9" s="7" t="n">
+      <c r="S9" s="11" t="n">
         <v>333370444572.19</v>
       </c>
-      <c r="T9" s="7" t="n">
+      <c r="T9" s="11" t="n">
         <v>323169035400.023</v>
       </c>
-      <c r="U9" s="7" t="n">
+      <c r="U9" s="11" t="n">
         <v>275707824862.844</v>
       </c>
-      <c r="V9" s="7" t="n">
+      <c r="V9" s="11" t="n">
         <v>246953219804.49</v>
       </c>
-      <c r="W9" s="7" t="n">
+      <c r="W9" s="11" t="n">
         <v>238730914399.601</v>
       </c>
-      <c r="X9" s="7" t="n">
+      <c r="X9" s="11" t="n">
         <v>261373439540.335</v>
       </c>
-      <c r="Y9" s="7" t="n">
+      <c r="Y9" s="11" t="n">
         <v>284878416992.171</v>
       </c>
-      <c r="Z9" s="7" t="n">
+      <c r="Z9" s="11" t="n">
         <v>313701272526.863</v>
       </c>
-      <c r="AA9" s="7" t="n">
+      <c r="AA9" s="11" t="n">
         <v>339456686334.059</v>
       </c>
-      <c r="AB9" s="7" t="n">
+      <c r="AB9" s="11" t="n">
         <v>375919182099.509</v>
       </c>
-      <c r="AC9" s="7" t="n">
+      <c r="AC9" s="11" t="n">
         <v>335466315747.992</v>
       </c>
-      <c r="AD9" s="7" t="n">
+      <c r="AD9" s="11" t="n">
         <v>362818335135.692</v>
       </c>
-      <c r="AE9" s="7" t="n">
+      <c r="AE9" s="11" t="n">
         <v>400986561637.651</v>
       </c>
-      <c r="AF9" s="7" t="n">
+      <c r="AF9" s="11" t="n">
         <v>313701272526.863</v>
       </c>
-      <c r="AG9" s="6" t="n">
+      <c r="AG9" s="7" t="n">
         <v>339456686334.059</v>
       </c>
-      <c r="AH9" s="6" t="n">
+      <c r="AH9" s="7" t="n">
         <v>375919182099.509</v>
       </c>
-      <c r="AI9" s="6" t="n">
+      <c r="AI9" s="7" t="n">
         <v>335466315747.992</v>
       </c>
-      <c r="AJ9" s="6" t="n">
+      <c r="AJ9" s="7" t="n">
         <v>362818335135.692</v>
       </c>
-      <c r="AK9" s="6" t="n">
+      <c r="AK9" s="7" t="n">
         <v>400986561637.651</v>
       </c>
-      <c r="AL9" s="6"/>
+      <c r="AL9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -2667,104 +2742,2917 @@
       <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="5" t="str">
+      <c r="E10" s="6" t="str">
         <f>Sum(E2:E9)</f>
       </c>
-      <c r="F10" s="5" t="str">
+      <c r="F10" s="6" t="str">
         <f>Sum(F2:F9)</f>
       </c>
-      <c r="G10" s="5" t="str">
+      <c r="G10" s="6" t="str">
         <f>Sum(G2:G9)</f>
       </c>
-      <c r="H10" s="5" t="str">
+      <c r="H10" s="6" t="str">
         <f>Sum(H2:H9)</f>
       </c>
-      <c r="I10" s="5" t="str">
+      <c r="I10" s="6" t="str">
         <f>Sum(I2:I9)</f>
       </c>
-      <c r="J10" s="5" t="str">
+      <c r="J10" s="6" t="str">
         <f>Sum(J2:J9)</f>
       </c>
-      <c r="K10" s="5" t="str">
+      <c r="K10" s="6" t="str">
         <f>Sum(K2:K9)</f>
       </c>
-      <c r="L10" s="5" t="str">
+      <c r="L10" s="6" t="str">
         <f>Sum(L2:L9)</f>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="7" t="str">
+      <c r="O10" s="11" t="str">
         <f>Sum(O2:O9)</f>
       </c>
-      <c r="P10" s="7" t="str">
+      <c r="P10" s="11" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="7" t="str">
+      <c r="Q10" s="11" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="7" t="str">
+      <c r="R10" s="11" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="7" t="str">
+      <c r="S10" s="11" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="7" t="str">
+      <c r="T10" s="11" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="7" t="str">
+      <c r="U10" s="11" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="7" t="str">
+      <c r="V10" s="11" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="7" t="str">
+      <c r="W10" s="11" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="7" t="str">
+      <c r="X10" s="11" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="7" t="str">
+      <c r="Y10" s="11" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="7" t="str">
+      <c r="Z10" s="11" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="7" t="str">
+      <c r="AA10" s="11" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="7" t="str">
+      <c r="AB10" s="11" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="7" t="str">
+      <c r="AC10" s="11" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="7" t="str">
+      <c r="AD10" s="11" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="7" t="str">
+      <c r="AE10" s="11" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="7" t="str">
+      <c r="AF10" s="11" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="6" t="str">
+      <c r="AG10" s="7" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="6" t="str">
+      <c r="AH10" s="7" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="6" t="str">
+      <c r="AI10" s="7" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="6" t="str">
+      <c r="AJ10" s="7" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="8" t="n">
+        <v>32062481478.7404</v>
+      </c>
+      <c r="P2" s="8" t="n">
+        <v>33502648539.9927</v>
+      </c>
+      <c r="Q2" s="8" t="n">
+        <v>34512520349.3714</v>
+      </c>
+      <c r="R2" s="8" t="n">
+        <v>32022857314.7994</v>
+      </c>
+      <c r="S2" s="8" t="n">
+        <v>30300787160.0451</v>
+      </c>
+      <c r="T2" s="8" t="n">
+        <v>29428722759.8101</v>
+      </c>
+      <c r="U2" s="8" t="n">
+        <v>23567998960.1735</v>
+      </c>
+      <c r="V2" s="8" t="n">
+        <v>25665670386.3993</v>
+      </c>
+      <c r="W2" s="8" t="n">
+        <v>23532569650.9686</v>
+      </c>
+      <c r="X2" s="8" t="n">
+        <v>25303450099.2467</v>
+      </c>
+      <c r="Y2" s="8" t="n">
+        <v>26328462830.1631</v>
+      </c>
+      <c r="Z2" s="8" t="n">
+        <v>31111718317.1093</v>
+      </c>
+      <c r="AA2" s="8" t="n">
+        <v>31301311116.0465</v>
+      </c>
+      <c r="AB2" s="8" t="n">
+        <v>32049209483.981</v>
+      </c>
+      <c r="AC2" s="8" t="n">
+        <v>32709739587.2145</v>
+      </c>
+      <c r="AD2" s="8" t="n">
+        <v>37104641630.7511</v>
+      </c>
+      <c r="AE2" s="8" t="n">
+        <v>40964495755.7069</v>
+      </c>
+      <c r="AF2" s="8"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="8" t="n">
+        <v>64276778789.785</v>
+      </c>
+      <c r="P3" s="8" t="n">
+        <v>72755575500.1827</v>
+      </c>
+      <c r="Q3" s="8" t="n">
+        <v>64677034371.2067</v>
+      </c>
+      <c r="R3" s="8" t="n">
+        <v>53879307908.9168</v>
+      </c>
+      <c r="S3" s="8" t="n">
+        <v>48096817335.8693</v>
+      </c>
+      <c r="T3" s="8" t="n">
+        <v>54303150309.7976</v>
+      </c>
+      <c r="U3" s="8" t="n">
+        <v>39063293717.5311</v>
+      </c>
+      <c r="V3" s="8" t="n">
+        <v>38119164769.1497</v>
+      </c>
+      <c r="W3" s="8" t="n">
+        <v>33991695353.2542</v>
+      </c>
+      <c r="X3" s="8" t="n">
+        <v>32084583927.436</v>
+      </c>
+      <c r="Y3" s="8" t="n">
+        <v>35694396958.7202</v>
+      </c>
+      <c r="Z3" s="8" t="n">
+        <v>37743226432.3817</v>
+      </c>
+      <c r="AA3" s="8" t="n">
+        <v>42449471496.6964</v>
+      </c>
+      <c r="AB3" s="8" t="n">
+        <v>42839349110.909</v>
+      </c>
+      <c r="AC3" s="8" t="n">
+        <v>59882546801.0766</v>
+      </c>
+      <c r="AD3" s="8" t="n">
+        <v>75235439279.4155</v>
+      </c>
+      <c r="AE3" s="8" t="n">
+        <v>56016118359.9772</v>
+      </c>
+      <c r="AF3" s="8"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="8" t="n">
+        <v>5823883910.4641</v>
+      </c>
+      <c r="P4" s="8" t="n">
+        <v>6062527172.7157</v>
+      </c>
+      <c r="Q4" s="8" t="n">
+        <v>7958542406.8054</v>
+      </c>
+      <c r="R4" s="8" t="n">
+        <v>11173540317.9748</v>
+      </c>
+      <c r="S4" s="8" t="n">
+        <v>10709272137.3971</v>
+      </c>
+      <c r="T4" s="8" t="n">
+        <v>10913255211.2322</v>
+      </c>
+      <c r="U4" s="8" t="n">
+        <v>10012514970.4474</v>
+      </c>
+      <c r="V4" s="8" t="n">
+        <v>11885624399.7085</v>
+      </c>
+      <c r="W4" s="8" t="n">
+        <v>11954899827.2819</v>
+      </c>
+      <c r="X4" s="8" t="n">
+        <v>11905991840.9567</v>
+      </c>
+      <c r="Y4" s="8" t="n">
+        <v>10744235953.1555</v>
+      </c>
+      <c r="Z4" s="8" t="n">
+        <v>13964474476.428</v>
+      </c>
+      <c r="AA4" s="8" t="n">
+        <v>12887221540.14</v>
+      </c>
+      <c r="AB4" s="8" t="n">
+        <v>14696802949.5136</v>
+      </c>
+      <c r="AC4" s="8" t="n">
+        <v>19547069897.6294</v>
+      </c>
+      <c r="AD4" s="8" t="n">
+        <v>14680201640.9544</v>
+      </c>
+      <c r="AE4" s="8" t="n">
+        <v>14367712887.112</v>
+      </c>
+      <c r="AF4" s="8"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="8" t="n">
+        <v>231537450083.22</v>
+      </c>
+      <c r="P5" s="8" t="n">
+        <v>271472884650.076</v>
+      </c>
+      <c r="Q5" s="8" t="n">
+        <v>266329081561.247</v>
+      </c>
+      <c r="R5" s="8" t="n">
+        <v>271587640047.603</v>
+      </c>
+      <c r="S5" s="8" t="n">
+        <v>285273627236.321</v>
+      </c>
+      <c r="T5" s="8" t="n">
+        <v>268865885090.226</v>
+      </c>
+      <c r="U5" s="8" t="n">
+        <v>236644531145.313</v>
+      </c>
+      <c r="V5" s="8" t="n">
+        <v>208834055035.34</v>
+      </c>
+      <c r="W5" s="8" t="n">
+        <v>204739219046.347</v>
+      </c>
+      <c r="X5" s="8" t="n">
+        <v>229288855612.899</v>
+      </c>
+      <c r="Y5" s="8" t="n">
+        <v>249184020033.45</v>
+      </c>
+      <c r="Z5" s="8" t="n">
+        <v>275958046094.482</v>
+      </c>
+      <c r="AA5" s="8" t="n">
+        <v>297007214837.362</v>
+      </c>
+      <c r="AB5" s="8" t="n">
+        <v>333079832988.6</v>
+      </c>
+      <c r="AC5" s="8" t="n">
+        <v>275583768946.915</v>
+      </c>
+      <c r="AD5" s="8" t="n">
+        <v>287582895856.276</v>
+      </c>
+      <c r="AE5" s="8" t="n">
+        <v>344970443277.674</v>
+      </c>
+      <c r="AF5" s="8"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="8" t="str">
+        <f>Sum(O2:O5)</f>
+      </c>
+      <c r="P6" s="8" t="str">
+        <f>Sum(P2:P5)</f>
+      </c>
+      <c r="Q6" s="8" t="str">
+        <f>Sum(Q2:Q5)</f>
+      </c>
+      <c r="R6" s="8" t="str">
+        <f>Sum(R2:R5)</f>
+      </c>
+      <c r="S6" s="8" t="str">
+        <f>Sum(S2:S5)</f>
+      </c>
+      <c r="T6" s="8" t="str">
+        <f>Sum(T2:T5)</f>
+      </c>
+      <c r="U6" s="8" t="str">
+        <f>Sum(U2:U5)</f>
+      </c>
+      <c r="V6" s="8" t="str">
+        <f>Sum(V2:V5)</f>
+      </c>
+      <c r="W6" s="8" t="str">
+        <f>Sum(W2:W5)</f>
+      </c>
+      <c r="X6" s="8" t="str">
+        <f>Sum(X2:X5)</f>
+      </c>
+      <c r="Y6" s="8" t="str">
+        <f>Sum(Y2:Y5)</f>
+      </c>
+      <c r="Z6" s="8" t="str">
+        <f>Sum(Z2:Z5)</f>
+      </c>
+      <c r="AA6" s="8" t="str">
+        <f>Sum(AA2:AA5)</f>
+      </c>
+      <c r="AB6" s="8" t="str">
+        <f>Sum(AB2:AB5)</f>
+      </c>
+      <c r="AC6" s="8" t="str">
+        <f>Sum(AC2:AC5)</f>
+      </c>
+      <c r="AD6" s="8" t="str">
+        <f>Sum(AD2:AD5)</f>
+      </c>
+      <c r="AE6" s="8" t="str">
+        <f>Sum(AE2:AE5)</f>
+      </c>
+      <c r="AF6" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="9" t="n">
+        <v>32062481478.7404</v>
+      </c>
+      <c r="P2" s="9" t="n">
+        <v>33502648539.9927</v>
+      </c>
+      <c r="Q2" s="9" t="n">
+        <v>34512520349.3714</v>
+      </c>
+      <c r="R2" s="9" t="n">
+        <v>32022857314.7994</v>
+      </c>
+      <c r="S2" s="9" t="n">
+        <v>30300787160.0451</v>
+      </c>
+      <c r="T2" s="9" t="n">
+        <v>29428722759.8101</v>
+      </c>
+      <c r="U2" s="9" t="n">
+        <v>23567998960.1735</v>
+      </c>
+      <c r="V2" s="9" t="n">
+        <v>25665670386.3993</v>
+      </c>
+      <c r="W2" s="9" t="n">
+        <v>23532569650.9686</v>
+      </c>
+      <c r="X2" s="9" t="n">
+        <v>25303450099.2467</v>
+      </c>
+      <c r="Y2" s="9" t="n">
+        <v>26328462830.1631</v>
+      </c>
+      <c r="Z2" s="9" t="n">
+        <v>31111718317.1093</v>
+      </c>
+      <c r="AA2" s="9" t="n">
+        <v>31301311116.0465</v>
+      </c>
+      <c r="AB2" s="9" t="n">
+        <v>32049209483.981</v>
+      </c>
+      <c r="AC2" s="9" t="n">
+        <v>32709739587.2145</v>
+      </c>
+      <c r="AD2" s="9" t="n">
+        <v>37104641630.7511</v>
+      </c>
+      <c r="AE2" s="9" t="n">
+        <v>40964495755.7069</v>
+      </c>
+      <c r="AF2" s="9"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="9" t="n">
+        <v>64276778789.785</v>
+      </c>
+      <c r="P3" s="9" t="n">
+        <v>72755575500.1827</v>
+      </c>
+      <c r="Q3" s="9" t="n">
+        <v>64677034371.2067</v>
+      </c>
+      <c r="R3" s="9" t="n">
+        <v>53879307908.9168</v>
+      </c>
+      <c r="S3" s="9" t="n">
+        <v>48096817335.8693</v>
+      </c>
+      <c r="T3" s="9" t="n">
+        <v>54303150309.7976</v>
+      </c>
+      <c r="U3" s="9" t="n">
+        <v>39063293717.5311</v>
+      </c>
+      <c r="V3" s="9" t="n">
+        <v>38119164769.1497</v>
+      </c>
+      <c r="W3" s="9" t="n">
+        <v>33991695353.2542</v>
+      </c>
+      <c r="X3" s="9" t="n">
+        <v>32084583927.436</v>
+      </c>
+      <c r="Y3" s="9" t="n">
+        <v>35694396958.7202</v>
+      </c>
+      <c r="Z3" s="9" t="n">
+        <v>37743226432.3817</v>
+      </c>
+      <c r="AA3" s="9" t="n">
+        <v>42449471496.6964</v>
+      </c>
+      <c r="AB3" s="9" t="n">
+        <v>42839349110.909</v>
+      </c>
+      <c r="AC3" s="9" t="n">
+        <v>59882546801.0766</v>
+      </c>
+      <c r="AD3" s="9" t="n">
+        <v>75235439279.4155</v>
+      </c>
+      <c r="AE3" s="9" t="n">
+        <v>56016118359.9772</v>
+      </c>
+      <c r="AF3" s="9"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="9" t="n">
+        <v>5823883910.4641</v>
+      </c>
+      <c r="P4" s="9" t="n">
+        <v>6062527172.7157</v>
+      </c>
+      <c r="Q4" s="9" t="n">
+        <v>7958542406.8054</v>
+      </c>
+      <c r="R4" s="9" t="n">
+        <v>11173540317.9748</v>
+      </c>
+      <c r="S4" s="9" t="n">
+        <v>10709272137.3971</v>
+      </c>
+      <c r="T4" s="9" t="n">
+        <v>10913255211.2322</v>
+      </c>
+      <c r="U4" s="9" t="n">
+        <v>10012514970.4474</v>
+      </c>
+      <c r="V4" s="9" t="n">
+        <v>11885624399.7085</v>
+      </c>
+      <c r="W4" s="9" t="n">
+        <v>11954899827.2819</v>
+      </c>
+      <c r="X4" s="9" t="n">
+        <v>11905991840.9567</v>
+      </c>
+      <c r="Y4" s="9" t="n">
+        <v>10744235953.1555</v>
+      </c>
+      <c r="Z4" s="9" t="n">
+        <v>13964474476.428</v>
+      </c>
+      <c r="AA4" s="9" t="n">
+        <v>12887221540.14</v>
+      </c>
+      <c r="AB4" s="9" t="n">
+        <v>14696802949.5136</v>
+      </c>
+      <c r="AC4" s="9" t="n">
+        <v>19547069897.6294</v>
+      </c>
+      <c r="AD4" s="9" t="n">
+        <v>14680201640.9544</v>
+      </c>
+      <c r="AE4" s="9" t="n">
+        <v>14367712887.112</v>
+      </c>
+      <c r="AF4" s="9"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="9" t="n">
+        <v>231537450083.22</v>
+      </c>
+      <c r="P5" s="9" t="n">
+        <v>271472884650.076</v>
+      </c>
+      <c r="Q5" s="9" t="n">
+        <v>266329081561.247</v>
+      </c>
+      <c r="R5" s="9" t="n">
+        <v>271587640047.603</v>
+      </c>
+      <c r="S5" s="9" t="n">
+        <v>285273627236.321</v>
+      </c>
+      <c r="T5" s="9" t="n">
+        <v>268865885090.226</v>
+      </c>
+      <c r="U5" s="9" t="n">
+        <v>236644531145.313</v>
+      </c>
+      <c r="V5" s="9" t="n">
+        <v>208834055035.34</v>
+      </c>
+      <c r="W5" s="9" t="n">
+        <v>204739219046.347</v>
+      </c>
+      <c r="X5" s="9" t="n">
+        <v>229288855612.899</v>
+      </c>
+      <c r="Y5" s="9" t="n">
+        <v>249184020033.45</v>
+      </c>
+      <c r="Z5" s="9" t="n">
+        <v>275958046094.482</v>
+      </c>
+      <c r="AA5" s="9" t="n">
+        <v>297007214837.362</v>
+      </c>
+      <c r="AB5" s="9" t="n">
+        <v>333079832988.6</v>
+      </c>
+      <c r="AC5" s="9" t="n">
+        <v>275583768946.915</v>
+      </c>
+      <c r="AD5" s="9" t="n">
+        <v>287582895856.276</v>
+      </c>
+      <c r="AE5" s="9" t="n">
+        <v>344970443277.674</v>
+      </c>
+      <c r="AF5" s="9"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="9" t="str">
+        <f>Sum(O2:O5)</f>
+      </c>
+      <c r="P6" s="9" t="str">
+        <f>Sum(P2:P5)</f>
+      </c>
+      <c r="Q6" s="9" t="str">
+        <f>Sum(Q2:Q5)</f>
+      </c>
+      <c r="R6" s="9" t="str">
+        <f>Sum(R2:R5)</f>
+      </c>
+      <c r="S6" s="9" t="str">
+        <f>Sum(S2:S5)</f>
+      </c>
+      <c r="T6" s="9" t="str">
+        <f>Sum(T2:T5)</f>
+      </c>
+      <c r="U6" s="9" t="str">
+        <f>Sum(U2:U5)</f>
+      </c>
+      <c r="V6" s="9" t="str">
+        <f>Sum(V2:V5)</f>
+      </c>
+      <c r="W6" s="9" t="str">
+        <f>Sum(W2:W5)</f>
+      </c>
+      <c r="X6" s="9" t="str">
+        <f>Sum(X2:X5)</f>
+      </c>
+      <c r="Y6" s="9" t="str">
+        <f>Sum(Y2:Y5)</f>
+      </c>
+      <c r="Z6" s="9" t="str">
+        <f>Sum(Z2:Z5)</f>
+      </c>
+      <c r="AA6" s="9" t="str">
+        <f>Sum(AA2:AA5)</f>
+      </c>
+      <c r="AB6" s="9" t="str">
+        <f>Sum(AB2:AB5)</f>
+      </c>
+      <c r="AC6" s="9" t="str">
+        <f>Sum(AC2:AC5)</f>
+      </c>
+      <c r="AD6" s="9" t="str">
+        <f>Sum(AD2:AD5)</f>
+      </c>
+      <c r="AE6" s="9" t="str">
+        <f>Sum(AE2:AE5)</f>
+      </c>
+      <c r="AF6" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="3" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>O1</f>
+      </c>
+      <c r="C1" t="str">
+        <f>P1</f>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>O2</f>
+      </c>
+      <c r="C2" t="str">
+        <f>P2</f>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="10" t="n">
+        <v>9123386997.3553</v>
+      </c>
+      <c r="R2" s="10" t="n">
+        <v>9925670949.8118</v>
+      </c>
+      <c r="S2" s="10" t="n">
+        <v>6117269800.099</v>
+      </c>
+      <c r="T2" s="10" t="n">
+        <v>6545888309.0689</v>
+      </c>
+      <c r="U2" s="10" t="n">
+        <v>6334243823.8566</v>
+      </c>
+      <c r="V2" s="10" t="n">
+        <v>7155717808.9444</v>
+      </c>
+      <c r="W2" s="10" t="n">
+        <v>8025155767.9185</v>
+      </c>
+      <c r="X2" s="10" t="n">
+        <v>11106688171.6717</v>
+      </c>
+      <c r="Y2" s="10" t="n">
+        <v>10149047079.035</v>
+      </c>
+      <c r="Z2" s="10" t="n">
+        <v>10611169093.8476</v>
+      </c>
+      <c r="AA2" s="10" t="n">
+        <v>11532675608.4857</v>
+      </c>
+      <c r="AB2" s="10" t="n">
+        <v>12422931908.1758</v>
+      </c>
+      <c r="AC2" s="10" t="n">
+        <v>13958432802.5153</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>O3</f>
+      </c>
+      <c r="C3" t="str">
+        <f>P3</f>
+      </c>
+      <c r="N3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="10" t="n">
+        <v>933249010.9802</v>
+      </c>
+      <c r="R3" s="10" t="n">
+        <v>778306964.349</v>
+      </c>
+      <c r="S3" s="10" t="n">
+        <v>850696058.2249</v>
+      </c>
+      <c r="T3" s="10" t="n">
+        <v>907325991.1728</v>
+      </c>
+      <c r="U3" s="10" t="n">
+        <v>1040086140.3378</v>
+      </c>
+      <c r="V3" s="10" t="n">
+        <v>1059933004.3366</v>
+      </c>
+      <c r="W3" s="10" t="n">
+        <v>1154846824.4556</v>
+      </c>
+      <c r="X3" s="10" t="n">
+        <v>1689420804.9984</v>
+      </c>
+      <c r="Y3" s="10" t="n">
+        <v>1660116491.1434</v>
+      </c>
+      <c r="Z3" s="10" t="n">
+        <v>2824128521.3111</v>
+      </c>
+      <c r="AA3" s="10" t="n">
+        <v>8630415202.1981</v>
+      </c>
+      <c r="AB3" s="10" t="n">
+        <v>1865335673.6655</v>
+      </c>
+      <c r="AC3" s="10" t="n">
+        <v>1715881885.1085</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>O4</f>
+      </c>
+      <c r="C4" t="str">
+        <f>P4</f>
+      </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="10" t="n">
+        <v>22150159478.1373</v>
+      </c>
+      <c r="R4" s="10" t="n">
+        <v>27183783456.2204</v>
+      </c>
+      <c r="S4" s="10" t="n">
+        <v>17983227800.5355</v>
+      </c>
+      <c r="T4" s="10" t="n">
+        <v>13413728292.2397</v>
+      </c>
+      <c r="U4" s="10" t="n">
+        <v>11352581206.0263</v>
+      </c>
+      <c r="V4" s="10" t="n">
+        <v>9812944404.2043</v>
+      </c>
+      <c r="W4" s="10" t="n">
+        <v>11596479497.3492</v>
+      </c>
+      <c r="X4" s="10" t="n">
+        <v>16795657213.7177</v>
+      </c>
+      <c r="Y4" s="10" t="n">
+        <v>17789271699.224</v>
+      </c>
+      <c r="Z4" s="10" t="n">
+        <v>19469132838.174</v>
+      </c>
+      <c r="AA4" s="10" t="n">
+        <v>36647470394.1539</v>
+      </c>
+      <c r="AB4" s="10" t="n">
+        <v>33248012994.7973</v>
+      </c>
+      <c r="AC4" s="10" t="n">
+        <v>21091411055.4483</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>O5</f>
+      </c>
+      <c r="C5" t="str">
+        <f>P5</f>
+      </c>
+      <c r="N5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="10" t="n">
+        <v>17461665015.1998</v>
+      </c>
+      <c r="R5" s="10" t="n">
+        <v>15945788665.3316</v>
+      </c>
+      <c r="S5" s="10" t="n">
+        <v>13241134559.107</v>
+      </c>
+      <c r="T5" s="10" t="n">
+        <v>11202599271.8758</v>
+      </c>
+      <c r="U5" s="10" t="n">
+        <v>11438128794.1495</v>
+      </c>
+      <c r="V5" s="10" t="n">
+        <v>11725856793.6957</v>
+      </c>
+      <c r="W5" s="10" t="n">
+        <v>13368544826.8969</v>
+      </c>
+      <c r="X5" s="10" t="n">
+        <v>21646806734.9739</v>
+      </c>
+      <c r="Y5" s="10" t="n">
+        <v>24455179972.3109</v>
+      </c>
+      <c r="Z5" s="10" t="n">
+        <v>27629357927.5978</v>
+      </c>
+      <c r="AA5" s="10" t="n">
+        <v>29668051945.2236</v>
+      </c>
+      <c r="AB5" s="10" t="n">
+        <v>29589823343.5461</v>
+      </c>
+      <c r="AC5" s="10" t="n">
+        <v>29156539634.1995</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>O6</f>
+      </c>
+      <c r="C6" t="str">
+        <f>P6</f>
+      </c>
+      <c r="N6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="10" t="n">
+        <v>10568160289.5904</v>
+      </c>
+      <c r="R6" s="10" t="n">
+        <v>11228646566.8006</v>
+      </c>
+      <c r="S6" s="10" t="n">
+        <v>10286726221.8185</v>
+      </c>
+      <c r="T6" s="10" t="n">
+        <v>11200207991.4699</v>
+      </c>
+      <c r="U6" s="10" t="n">
+        <v>10126136416.4891</v>
+      </c>
+      <c r="V6" s="10" t="n">
+        <v>12639069940.0041</v>
+      </c>
+      <c r="W6" s="10" t="n">
+        <v>10859545758.7419</v>
+      </c>
+      <c r="X6" s="10" t="n">
+        <v>10070355969.8334</v>
+      </c>
+      <c r="Y6" s="10" t="n">
+        <v>10133720212.0457</v>
+      </c>
+      <c r="Z6" s="10" t="n">
+        <v>10716982742.9971</v>
+      </c>
+      <c r="AA6" s="10" t="n">
+        <v>10642044306.0932</v>
+      </c>
+      <c r="AB6" s="10" t="n">
+        <v>13796999680.5367</v>
+      </c>
+      <c r="AC6" s="10" t="n">
+        <v>12520521180.4383</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>O7</f>
+      </c>
+      <c r="C7" t="str">
+        <f>P7</f>
+      </c>
+      <c r="N7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="10" t="n">
+        <v>3941979293.6511</v>
+      </c>
+      <c r="R7" s="10" t="n">
+        <v>4327324620.4421</v>
+      </c>
+      <c r="S7" s="10" t="n">
+        <v>3758765886.7939</v>
+      </c>
+      <c r="T7" s="10" t="n">
+        <v>4553790804.2509</v>
+      </c>
+      <c r="U7" s="10" t="n">
+        <v>3878318549.428</v>
+      </c>
+      <c r="V7" s="10" t="n">
+        <v>3731202743.6779</v>
+      </c>
+      <c r="W7" s="10" t="n">
+        <v>3057726585.956</v>
+      </c>
+      <c r="X7" s="10" t="n">
+        <v>3218540161.8229</v>
+      </c>
+      <c r="Y7" s="10" t="n">
+        <v>2791762831.0078</v>
+      </c>
+      <c r="Z7" s="10" t="n">
+        <v>2947253404.6449</v>
+      </c>
+      <c r="AA7" s="10" t="n">
+        <v>2791928276.1808</v>
+      </c>
+      <c r="AB7" s="10" t="n">
+        <v>3848936771.0966</v>
+      </c>
+      <c r="AC7" s="10" t="n">
+        <v>3746558139.1602</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>O8</f>
+      </c>
+      <c r="C8" t="str">
+        <f>P8</f>
+      </c>
+      <c r="N8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="10" t="n">
+        <v>19445072083.7554</v>
+      </c>
+      <c r="R8" s="10" t="n">
+        <v>17819489881.935</v>
+      </c>
+      <c r="S8" s="10" t="n">
+        <v>14687171117.9708</v>
+      </c>
+      <c r="T8" s="10" t="n">
+        <v>17388049372.6594</v>
+      </c>
+      <c r="U8" s="10" t="n">
+        <v>15330074497.3418</v>
+      </c>
+      <c r="V8" s="10" t="n">
+        <v>13236513828.7155</v>
+      </c>
+      <c r="W8" s="10" t="n">
+        <v>17286573214.4776</v>
+      </c>
+      <c r="X8" s="10" t="n">
+        <v>9994478721.763</v>
+      </c>
+      <c r="Y8" s="10" t="n">
+        <v>14122542258.9591</v>
+      </c>
+      <c r="Z8" s="10" t="n">
+        <v>15249074062.8853</v>
+      </c>
+      <c r="AA8" s="10" t="n">
+        <v>13414526753.4418</v>
+      </c>
+      <c r="AB8" s="10" t="n">
+        <v>26695172483.5517</v>
+      </c>
+      <c r="AC8" s="10" t="n">
+        <v>14854157830.9899</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>O9</f>
+      </c>
+      <c r="C9" t="str">
+        <f>P9</f>
+      </c>
+      <c r="N9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="10" t="n">
+        <v>36871295246.1449</v>
+      </c>
+      <c r="R9" s="10" t="n">
+        <v>34312201099.5091</v>
+      </c>
+      <c r="S9" s="10" t="n">
+        <v>28943685059.9962</v>
+      </c>
+      <c r="T9" s="10" t="n">
+        <v>28105942826.2905</v>
+      </c>
+      <c r="U9" s="10" t="n">
+        <v>26676685379.1285</v>
+      </c>
+      <c r="V9" s="10" t="n">
+        <v>27425891006.0197</v>
+      </c>
+      <c r="W9" s="10" t="n">
+        <v>28310625407.8685</v>
+      </c>
+      <c r="X9" s="10" t="n">
+        <v>24886124677.4899</v>
+      </c>
+      <c r="Y9" s="10" t="n">
+        <v>29400630357.3012</v>
+      </c>
+      <c r="Z9" s="10" t="n">
+        <v>31369137350.3637</v>
+      </c>
+      <c r="AA9" s="10" t="n">
+        <v>26531261075.3067</v>
+      </c>
+      <c r="AB9" s="10" t="n">
+        <v>30331923084.4081</v>
+      </c>
+      <c r="AC9" s="10" t="n">
+        <v>39210590627.8942</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>O10</f>
+      </c>
+      <c r="C10" t="str">
+        <f>P10</f>
+      </c>
+      <c r="N10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="10" t="n">
+        <v>5041787707.8661</v>
+      </c>
+      <c r="R10" s="10" t="n">
+        <v>4697004292.2485</v>
+      </c>
+      <c r="S10" s="10" t="n">
+        <v>4455456188.6549</v>
+      </c>
+      <c r="T10" s="10" t="n">
+        <v>4210616489.2068</v>
+      </c>
+      <c r="U10" s="10" t="n">
+        <v>4226461037.0062</v>
+      </c>
+      <c r="V10" s="10" t="n">
+        <v>4215571791.5129</v>
+      </c>
+      <c r="W10" s="10" t="n">
+        <v>4549335227.2172</v>
+      </c>
+      <c r="X10" s="10" t="n">
+        <v>7950805718.3224</v>
+      </c>
+      <c r="Y10" s="10" t="n">
+        <v>8250131183.4601</v>
+      </c>
+      <c r="Z10" s="10" t="n">
+        <v>7368429907.9627</v>
+      </c>
+      <c r="AA10" s="10" t="n">
+        <v>4811493669.4789</v>
+      </c>
+      <c r="AB10" s="10" t="n">
+        <v>6672263708.5747</v>
+      </c>
+      <c r="AC10" s="10" t="n">
+        <v>7901421336.481</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>N11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>O11</f>
+      </c>
+      <c r="C11" t="str">
+        <f>P11</f>
+      </c>
+      <c r="N11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="10" t="n">
+        <v>2190608657.5898</v>
+      </c>
+      <c r="R11" s="10" t="n">
+        <v>2065874959.0551</v>
+      </c>
+      <c r="S11" s="10" t="n">
+        <v>1803667236.9804</v>
+      </c>
+      <c r="T11" s="10" t="n">
+        <v>2302049850.3275</v>
+      </c>
+      <c r="U11" s="10" t="n">
+        <v>2160498060.2817</v>
+      </c>
+      <c r="V11" s="10" t="n">
+        <v>2381207919.67</v>
+      </c>
+      <c r="W11" s="10" t="n">
+        <v>2124548298.7798</v>
+      </c>
+      <c r="X11" s="10" t="n">
+        <v>2917485196.2089</v>
+      </c>
+      <c r="Y11" s="10" t="n">
+        <v>2618107181.5441</v>
+      </c>
+      <c r="Z11" s="10" t="n">
+        <v>2395066238.0778</v>
+      </c>
+      <c r="AA11" s="10" t="n">
+        <v>2143720235.0702</v>
+      </c>
+      <c r="AB11" s="10" t="n">
+        <v>2562500889.2752</v>
+      </c>
+      <c r="AC11" s="10" t="n">
+        <v>2500808927.9041</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>N12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>O12</f>
+      </c>
+      <c r="C12" t="str">
+        <f>P12</f>
+      </c>
+      <c r="N12" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="10" t="n">
+        <v>1653935248.2204</v>
+      </c>
+      <c r="R12" s="10" t="n">
+        <v>1915376506.534</v>
+      </c>
+      <c r="S12" s="10" t="n">
+        <v>1215038809.2107</v>
+      </c>
+      <c r="T12" s="10" t="n">
+        <v>3046937288.8968</v>
+      </c>
+      <c r="U12" s="10" t="n">
+        <v>3528837937.6841</v>
+      </c>
+      <c r="V12" s="10" t="n">
+        <v>3523922270.6881</v>
+      </c>
+      <c r="W12" s="10" t="n">
+        <v>2618463827.688</v>
+      </c>
+      <c r="X12" s="10" t="n">
+        <v>5117099399.6129</v>
+      </c>
+      <c r="Y12" s="10" t="n">
+        <v>5021541998.4881</v>
+      </c>
+      <c r="Z12" s="10" t="n">
+        <v>5166490465.8781</v>
+      </c>
+      <c r="AA12" s="10" t="n">
+        <v>6734348377.1755</v>
+      </c>
+      <c r="AB12" s="10" t="n">
+        <v>4972868219.2291</v>
+      </c>
+      <c r="AC12" s="10" t="n">
+        <v>4596278268.6617</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>O13</f>
+      </c>
+      <c r="C13" t="str">
+        <f>P13</f>
+      </c>
+      <c r="N13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="10" t="n">
+        <v>12813648190.3944</v>
+      </c>
+      <c r="R13" s="10" t="n">
+        <v>11112724799.3112</v>
+      </c>
+      <c r="S13" s="10" t="n">
+        <v>9292054509.5825</v>
+      </c>
+      <c r="T13" s="10" t="n">
+        <v>8845823973.9629</v>
+      </c>
+      <c r="U13" s="10" t="n">
+        <v>8931421851.684</v>
+      </c>
+      <c r="V13" s="10" t="n">
+        <v>8176942099.9611</v>
+      </c>
+      <c r="W13" s="10" t="n">
+        <v>9127186691.1766</v>
+      </c>
+      <c r="X13" s="10" t="n">
+        <v>11031894225.7426</v>
+      </c>
+      <c r="Y13" s="10" t="n">
+        <v>11281512075.5999</v>
+      </c>
+      <c r="Z13" s="10" t="n">
+        <v>10467610543.6858</v>
+      </c>
+      <c r="AA13" s="10" t="n">
+        <v>8990411948.343</v>
+      </c>
+      <c r="AB13" s="10" t="n">
+        <v>9928734823.3652</v>
+      </c>
+      <c r="AC13" s="10" t="n">
+        <v>10294755673.9276</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>O14</f>
+      </c>
+      <c r="C14" t="str">
+        <f>P14</f>
+      </c>
+      <c r="N14" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="10" t="n">
+        <v>769809599.3241</v>
+      </c>
+      <c r="R14" s="10" t="n">
+        <v>259015160.7266</v>
+      </c>
+      <c r="S14" s="10" t="n">
+        <v>1609949.39</v>
+      </c>
+      <c r="T14" s="10" t="n">
+        <v>-2342245.23</v>
+      </c>
+      <c r="U14" s="10" t="n">
+        <v>6993269.09</v>
+      </c>
+      <c r="V14" s="10" t="n">
+        <v>31769512.4411</v>
+      </c>
+      <c r="W14" s="10" t="n">
+        <v>463060932.6803</v>
+      </c>
+      <c r="X14" s="10" t="n">
+        <v>175461690.1877</v>
+      </c>
+      <c r="Y14" s="10" t="n">
+        <v>791410.0504</v>
+      </c>
+      <c r="Z14" s="10" t="n">
+        <v>23345635.8203</v>
+      </c>
+      <c r="AA14" s="10" t="n">
+        <v>227331886.5991</v>
+      </c>
+      <c r="AB14" s="10" t="n">
+        <v>4528693.97</v>
+      </c>
+      <c r="AC14" s="10" t="n">
+        <v>95316437.1788</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>O15</f>
+      </c>
+      <c r="C15" t="str">
+        <f>P15</f>
+      </c>
+      <c r="N15" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" s="10" t="n">
+        <v>6150566</v>
+      </c>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10" t="n">
+        <v>3414127.9019</v>
+      </c>
+      <c r="Y15" s="10" t="n">
+        <v>26851349.3203</v>
+      </c>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10" t="n">
+        <v>16986078.99</v>
+      </c>
+      <c r="AC15" s="10" t="n">
+        <v>30476526165.353</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>O16</f>
+      </c>
+      <c r="C16" t="str">
+        <f>P16</f>
+      </c>
+      <c r="N16" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="10" t="n">
+        <v>393813673.1753</v>
+      </c>
+      <c r="R16" s="10" t="n">
+        <v>3287660429.3914</v>
+      </c>
+      <c r="S16" s="10" t="n">
+        <v>3107305778.9807</v>
+      </c>
+      <c r="T16" s="10" t="n">
+        <v>3249856573.3819</v>
+      </c>
+      <c r="U16" s="10" t="n">
+        <v>2887365364.8264</v>
+      </c>
+      <c r="V16" s="10" t="n">
+        <v>2676538546.1331</v>
+      </c>
+      <c r="W16" s="10" t="n">
+        <v>1634320409.3105</v>
+      </c>
+      <c r="X16" s="10" t="n">
+        <v>159453871.5408</v>
+      </c>
+      <c r="Y16" s="10" t="n">
+        <v>3098515720.6007</v>
+      </c>
+      <c r="Z16" s="10" t="n">
+        <v>1172079095.9311</v>
+      </c>
+      <c r="AA16" s="10" t="n">
+        <v>90725592.6582</v>
+      </c>
+      <c r="AB16" s="10" t="n">
+        <v>654888436.27</v>
+      </c>
+      <c r="AC16" s="10" t="n">
+        <v>29940845.3944</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <f>N17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>O17</f>
+      </c>
+      <c r="C17" t="str">
+        <f>P17</f>
+      </c>
+      <c r="N17" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" t="s">
+        <v>48</v>
+      </c>
+      <c r="P17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17" s="10" t="n">
+        <v>106783433242.482</v>
+      </c>
+      <c r="R17" s="10" t="n">
+        <v>104003947777.216</v>
+      </c>
+      <c r="S17" s="10" t="n">
+        <v>105833721796.905</v>
+      </c>
+      <c r="T17" s="10" t="n">
+        <v>87711869907.1141</v>
+      </c>
+      <c r="U17" s="10" t="n">
+        <v>87850522066.6528</v>
+      </c>
+      <c r="V17" s="10" t="n">
+        <v>106075748192.6</v>
+      </c>
+      <c r="W17" s="10" t="n">
+        <v>112696424668.678</v>
+      </c>
+      <c r="X17" s="10" t="n">
+        <v>114033215325.259</v>
+      </c>
+      <c r="Y17" s="10" t="n">
+        <v>120745372875.093</v>
+      </c>
+      <c r="Z17" s="10" t="n">
+        <v>145237593476.072</v>
+      </c>
+      <c r="AA17" s="10" t="n">
+        <v>99748550923.8718</v>
+      </c>
+      <c r="AB17" s="10" t="n">
+        <v>109434792671.151</v>
+      </c>
+      <c r="AC17" s="10" t="n">
+        <v>141691953103.395</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>O18</f>
+      </c>
+      <c r="C18" t="str">
+        <f>P18</f>
+      </c>
+      <c r="N18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="10" t="n">
+        <v>192264708.408</v>
+      </c>
+      <c r="R18" s="10" t="n">
+        <v>432461933.6948</v>
+      </c>
+      <c r="S18" s="10" t="n">
+        <v>22668382.75</v>
+      </c>
+      <c r="T18" s="10" t="n">
+        <v>236804941.49</v>
+      </c>
+      <c r="U18" s="10" t="n">
+        <v>542385918.79</v>
+      </c>
+      <c r="V18" s="10" t="n">
+        <v>-1934296.3824</v>
+      </c>
+      <c r="W18" s="10" t="n">
+        <v>292218906.3977</v>
+      </c>
+      <c r="X18" s="10" t="n">
+        <v>131234185.4373</v>
+      </c>
+      <c r="Y18" s="10" t="n">
+        <v>138060396.4841</v>
+      </c>
+      <c r="Z18" s="10" t="n">
+        <v>12037010.1016</v>
+      </c>
+      <c r="AA18" s="10" t="n">
+        <v>20156454.8457</v>
+      </c>
+      <c r="AB18" s="10" t="n">
+        <v>30153228.92</v>
+      </c>
+      <c r="AC18" s="10" t="n">
+        <v>77461924.1406</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <f>N19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>O19</f>
+      </c>
+      <c r="C19" t="str">
+        <f>P19</f>
+      </c>
+      <c r="N19" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P19" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q19" s="10" t="n">
+        <v>6718873.5595</v>
+      </c>
+      <c r="R19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="10" t="n">
+        <v>-958989.58</v>
+      </c>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" s="10" t="n">
+        <v>-32606.1309</v>
+      </c>
+      <c r="W19" s="10" t="n">
+        <v>3144852</v>
+      </c>
+      <c r="X19" s="10" t="n">
+        <v>248186905.5469</v>
+      </c>
+      <c r="Y19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="10" t="n">
+        <v>895606920.8759</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <f>N20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>O20</f>
+      </c>
+      <c r="C20" t="str">
+        <f>P20</f>
+      </c>
+      <c r="N20" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" t="s">
+        <v>48</v>
+      </c>
+      <c r="P20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="10" t="n">
+        <v>3757906313.2917</v>
+      </c>
+      <c r="R20" s="10" t="n">
+        <v>2636339228.5612</v>
+      </c>
+      <c r="S20" s="10" t="n">
+        <v>2406536339.1238</v>
+      </c>
+      <c r="T20" s="10" t="n">
+        <v>1545107607.9249</v>
+      </c>
+      <c r="U20" s="10" t="n">
+        <v>2410360406.7891</v>
+      </c>
+      <c r="V20" s="10" t="n">
+        <v>1883983110.1706</v>
+      </c>
+      <c r="W20" s="10" t="n">
+        <v>1346873110.2192</v>
+      </c>
+      <c r="X20" s="10" t="n">
+        <v>1436016468.073</v>
+      </c>
+      <c r="Y20" s="10" t="n">
+        <v>1654854961.5217</v>
+      </c>
+      <c r="Z20" s="10" t="n">
+        <v>2055156640.7001</v>
+      </c>
+      <c r="AA20" s="10" t="n">
+        <v>1661914171.7771</v>
+      </c>
+      <c r="AB20" s="10" t="n">
+        <v>1925714022.7309</v>
+      </c>
+      <c r="AC20" s="10" t="n">
+        <v>4272278283.2849</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <f>N21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>O21</f>
+      </c>
+      <c r="C21" t="str">
+        <f>P21</f>
+      </c>
+      <c r="N21" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q21" s="10" t="n">
+        <v>51354466322.6604</v>
+      </c>
+      <c r="R21" s="10" t="n">
+        <v>32114335582.8993</v>
+      </c>
+      <c r="S21" s="10" t="n">
+        <v>18464821201.5684</v>
+      </c>
+      <c r="T21" s="10" t="n">
+        <v>15706623765.3846</v>
+      </c>
+      <c r="U21" s="10" t="n">
+        <v>11779005247.0793</v>
+      </c>
+      <c r="V21" s="10" t="n">
+        <v>10369543913.5652</v>
+      </c>
+      <c r="W21" s="10" t="n">
+        <v>12015301289.7076</v>
+      </c>
+      <c r="X21" s="10" t="n">
+        <v>11427344317.9634</v>
+      </c>
+      <c r="Y21" s="10" t="n">
+        <v>10571830253.142</v>
+      </c>
+      <c r="Z21" s="10" t="n">
+        <v>12306212490.5607</v>
+      </c>
+      <c r="AA21" s="10" t="n">
+        <v>12001138243.7793</v>
+      </c>
+      <c r="AB21" s="10" t="n">
+        <v>11350493204.7078</v>
+      </c>
+      <c r="AC21" s="10" t="n">
+        <v>25802452076.2754</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>O22</f>
+      </c>
+      <c r="C22" t="str">
+        <f>P22</f>
+      </c>
+      <c r="N22" t="s">
+        <v>53</v>
+      </c>
+      <c r="O22" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q22" s="10" t="n">
+        <v>4425107227.7587</v>
+      </c>
+      <c r="R22" s="10" t="n">
+        <v>3962831442.5708</v>
+      </c>
+      <c r="S22" s="10" t="n">
+        <v>3202944557.4473</v>
+      </c>
+      <c r="T22" s="10" t="n">
+        <v>3488051907.5564</v>
+      </c>
+      <c r="U22" s="10" t="n">
+        <v>3280926303.2784</v>
+      </c>
+      <c r="V22" s="10" t="n">
+        <v>3958340781.6881</v>
+      </c>
+      <c r="W22" s="10" t="n">
+        <v>4920771484.3378</v>
+      </c>
+      <c r="X22" s="10" t="n">
+        <v>5406722809.252</v>
+      </c>
+      <c r="Y22" s="10" t="n">
+        <v>5927488790.9079</v>
+      </c>
+      <c r="Z22" s="10" t="n">
+        <v>5960984263.7452</v>
+      </c>
+      <c r="AA22" s="10" t="n">
+        <v>6512727881.1656</v>
+      </c>
+      <c r="AB22" s="10" t="n">
+        <v>6059493127.5386</v>
+      </c>
+      <c r="AC22" s="10" t="n">
+        <v>7900249939.7072</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <f>N23</f>
+      </c>
+      <c r="B23" t="str">
+        <f>O23</f>
+      </c>
+      <c r="C23" t="str">
+        <f>P23</f>
+      </c>
+      <c r="N23" t="s">
+        <v>53</v>
+      </c>
+      <c r="O23" t="s">
+        <v>44</v>
+      </c>
+      <c r="P23" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q23" s="10" t="n">
+        <v>3191466177.7319</v>
+      </c>
+      <c r="R23" s="10" t="n">
+        <v>3479345449.3617</v>
+      </c>
+      <c r="S23" s="10" t="n">
+        <v>3406929744.1152</v>
+      </c>
+      <c r="T23" s="10" t="n">
+        <v>3932306764.9022</v>
+      </c>
+      <c r="U23" s="10" t="n">
+        <v>4500876662.2918</v>
+      </c>
+      <c r="V23" s="10" t="n">
+        <v>4555904080.8527</v>
+      </c>
+      <c r="W23" s="10" t="n">
+        <v>4178803349.9699</v>
+      </c>
+      <c r="X23" s="10" t="n">
+        <v>6240951985.7929</v>
+      </c>
+      <c r="Y23" s="10" t="n">
+        <v>5965153762.7743</v>
+      </c>
+      <c r="Z23" s="10" t="n">
+        <v>6110465953.7997</v>
+      </c>
+      <c r="AA23" s="10" t="n">
+        <v>5375707080.6002</v>
+      </c>
+      <c r="AB23" s="10" t="n">
+        <v>5629176070.1037</v>
+      </c>
+      <c r="AC23" s="10" t="n">
+        <v>5929818476.1164</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <f>N24</f>
+      </c>
+      <c r="B24" t="str">
+        <f>O24</f>
+      </c>
+      <c r="C24" t="str">
+        <f>P24</f>
+      </c>
+      <c r="N24" t="s">
+        <v>53</v>
+      </c>
+      <c r="O24" t="s">
+        <v>48</v>
+      </c>
+      <c r="P24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q24" s="10" t="n">
+        <v>794195198.8022</v>
+      </c>
+      <c r="R24" s="10" t="n">
+        <v>1055643084.9143</v>
+      </c>
+      <c r="S24" s="10" t="n">
+        <v>429012850.4623</v>
+      </c>
+      <c r="T24" s="10" t="n">
+        <v>593088220.4382</v>
+      </c>
+      <c r="U24" s="10" t="n">
+        <v>432845436.345</v>
+      </c>
+      <c r="V24" s="10" t="n">
+        <v>645026081.2136</v>
+      </c>
+      <c r="W24" s="10" t="n">
+        <v>612327824.4233</v>
+      </c>
+      <c r="X24" s="10" t="n">
+        <v>1252058160.4283</v>
+      </c>
+      <c r="Y24" s="10" t="n">
+        <v>1116077742.9438</v>
+      </c>
+      <c r="Z24" s="10" t="n">
+        <v>1021776987.1148</v>
+      </c>
+      <c r="AA24" s="10" t="n">
+        <v>639302205.4735</v>
+      </c>
+      <c r="AB24" s="10" t="n">
+        <v>731188429.4337</v>
+      </c>
+      <c r="AC24" s="10" t="n">
+        <v>747129127.7341</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <f>N25</f>
+      </c>
+      <c r="B25" t="str">
+        <f>O25</f>
+      </c>
+      <c r="C25" t="str">
+        <f>P25</f>
+      </c>
+      <c r="N25" t="s">
+        <v>53</v>
+      </c>
+      <c r="O25" t="s">
+        <v>48</v>
+      </c>
+      <c r="P25" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q25" s="10" t="n">
+        <v>13652779190.6653</v>
+      </c>
+      <c r="R25" s="10" t="n">
+        <v>11905943264.1201</v>
+      </c>
+      <c r="S25" s="10" t="n">
+        <v>10379837127.8528</v>
+      </c>
+      <c r="T25" s="10" t="n">
+        <v>9918189455.0846</v>
+      </c>
+      <c r="U25" s="10" t="n">
+        <v>9306143975.6782</v>
+      </c>
+      <c r="V25" s="10" t="n">
+        <v>9726868843.0877</v>
+      </c>
+      <c r="W25" s="10" t="n">
+        <v>10352249865.777</v>
+      </c>
+      <c r="X25" s="10" t="n">
+        <v>11715625015.265</v>
+      </c>
+      <c r="Y25" s="10" t="n">
+        <v>11859365618.0065</v>
+      </c>
+      <c r="Z25" s="10" t="n">
+        <v>11001633806.4655</v>
+      </c>
+      <c r="AA25" s="10" t="n">
+        <v>10393854959.8105</v>
+      </c>
+      <c r="AB25" s="10" t="n">
+        <v>10820367894.7861</v>
+      </c>
+      <c r="AC25" s="10" t="n">
+        <v>11812353223.2147</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <f>N26</f>
+      </c>
+      <c r="B26" t="str">
+        <f>O26</f>
+      </c>
+      <c r="C26" t="str">
+        <f>P26</f>
+      </c>
+      <c r="N26" t="s">
+        <v>54</v>
+      </c>
+      <c r="O26" t="s">
+        <v>44</v>
+      </c>
+      <c r="P26" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q26" s="10" t="n">
+        <v>566142555.4208</v>
+      </c>
+      <c r="R26" s="10" t="n">
+        <v>435766872.5077</v>
+      </c>
+      <c r="S26" s="10" t="n">
+        <v>209284093.4445</v>
+      </c>
+      <c r="T26" s="10" t="n">
+        <v>251278211.2131</v>
+      </c>
+      <c r="U26" s="10" t="n">
+        <v>235751099.2538</v>
+      </c>
+      <c r="V26" s="10" t="n">
+        <v>194402020.6435</v>
+      </c>
+      <c r="W26" s="10" t="n">
+        <v>152884836.0763</v>
+      </c>
+      <c r="X26" s="10" t="n">
+        <v>183624001.902</v>
+      </c>
+      <c r="Y26" s="10" t="n">
+        <v>252852819.0971</v>
+      </c>
+      <c r="Z26" s="10" t="n">
+        <v>143103158.0568</v>
+      </c>
+      <c r="AA26" s="10" t="n">
+        <v>92272452.9757</v>
+      </c>
+      <c r="AB26" s="10" t="n">
+        <v>91164822.42</v>
+      </c>
+      <c r="AC26" s="10" t="n">
+        <v>539862023.8513</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <f>N27</f>
+      </c>
+      <c r="B27" t="str">
+        <f>O27</f>
+      </c>
+      <c r="C27" t="str">
+        <f>P27</f>
+      </c>
+      <c r="N27" t="s">
+        <v>54</v>
+      </c>
+      <c r="O27" t="s">
+        <v>44</v>
+      </c>
+      <c r="P27" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q27" s="10" t="n">
+        <v>155294748.9876</v>
+      </c>
+      <c r="R27" s="10" t="n">
+        <v>128542215.1719</v>
+      </c>
+      <c r="S27" s="10" t="n">
+        <v>63176245.83</v>
+      </c>
+      <c r="T27" s="10" t="n">
+        <v>91340616.04</v>
+      </c>
+      <c r="U27" s="10" t="n">
+        <v>63196411.41</v>
+      </c>
+      <c r="V27" s="10" t="n">
+        <v>70051809.5925</v>
+      </c>
+      <c r="W27" s="10" t="n">
+        <v>44974804.3729</v>
+      </c>
+      <c r="X27" s="10" t="n">
+        <v>78638020.943</v>
+      </c>
+      <c r="Y27" s="10" t="n">
+        <v>61863226.6998</v>
+      </c>
+      <c r="Z27" s="10" t="n">
+        <v>90495702.3871</v>
+      </c>
+      <c r="AA27" s="10" t="n">
+        <v>74385576.5232</v>
+      </c>
+      <c r="AB27" s="10" t="n">
+        <v>72102200.76</v>
+      </c>
+      <c r="AC27" s="10" t="n">
+        <v>129346041.3345</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <f>N28</f>
+      </c>
+      <c r="B28" t="str">
+        <f>O28</f>
+      </c>
+      <c r="C28" t="str">
+        <f>P28</f>
+      </c>
+      <c r="N28" t="s">
+        <v>54</v>
+      </c>
+      <c r="O28" t="s">
+        <v>48</v>
+      </c>
+      <c r="P28" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q28" s="10" t="n">
+        <v>538673324.8454</v>
+      </c>
+      <c r="R28" s="10" t="n">
+        <v>132005371.4878</v>
+      </c>
+      <c r="S28" s="10" t="n">
+        <v>190654254.0663</v>
+      </c>
+      <c r="T28" s="10" t="n">
+        <v>104461074.5923</v>
+      </c>
+      <c r="U28" s="10" t="n">
+        <v>117252511.7294</v>
+      </c>
+      <c r="V28" s="10" t="n">
+        <v>276715200.3364</v>
+      </c>
+      <c r="W28" s="10" t="n">
+        <v>83094992.6849</v>
+      </c>
+      <c r="X28" s="10" t="n">
+        <v>95836781.4981</v>
+      </c>
+      <c r="Y28" s="10" t="n">
+        <v>164604608.9051</v>
+      </c>
+      <c r="Z28" s="10" t="n">
+        <v>140186168.8601</v>
+      </c>
+      <c r="AA28" s="10" t="n">
+        <v>171298440.2363</v>
+      </c>
+      <c r="AB28" s="10" t="n">
+        <v>158093820.7587</v>
+      </c>
+      <c r="AC28" s="10" t="n">
+        <v>1179498841.4085</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <f>N29</f>
+      </c>
+      <c r="B29" t="str">
+        <f>O29</f>
+      </c>
+      <c r="C29" t="str">
+        <f>P29</f>
+      </c>
+      <c r="N29" t="s">
+        <v>54</v>
+      </c>
+      <c r="O29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P29" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q29" s="10" t="n">
+        <v>2077452986.4462</v>
+      </c>
+      <c r="R29" s="10" t="n">
+        <v>1738367445.8457</v>
+      </c>
+      <c r="S29" s="10" t="n">
+        <v>1018069441.8724</v>
+      </c>
+      <c r="T29" s="10" t="n">
+        <v>875599701.7663</v>
+      </c>
+      <c r="U29" s="10" t="n">
+        <v>621238211.4469</v>
+      </c>
+      <c r="V29" s="10" t="n">
+        <v>580884746.3038</v>
+      </c>
+      <c r="W29" s="10" t="n">
+        <v>706072321.3118</v>
+      </c>
+      <c r="X29" s="10" t="n">
+        <v>651249719.9328</v>
+      </c>
+      <c r="Y29" s="10" t="n">
+        <v>833061764.7372</v>
+      </c>
+      <c r="Z29" s="10" t="n">
+        <v>711390378.375</v>
+      </c>
+      <c r="AA29" s="10" t="n">
+        <v>311963667.4951</v>
+      </c>
+      <c r="AB29" s="10" t="n">
+        <v>387556420.6569</v>
+      </c>
+      <c r="AC29" s="10" t="n">
+        <v>1654019811.481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <f>N30</f>
+      </c>
+      <c r="B30" t="str">
+        <f>O30</f>
+      </c>
+      <c r="C30" t="str">
+        <f>P30</f>
+      </c>
+      <c r="N30"/>
+      <c r="O30" t="s">
+        <v>44</v>
+      </c>
+      <c r="P30" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q30" s="10" t="n">
+        <v>354954765.8906</v>
+      </c>
+      <c r="R30" s="10" t="n">
+        <v>51566753.3135</v>
+      </c>
+      <c r="S30" s="10" t="n">
+        <v>71756198.76</v>
+      </c>
+      <c r="T30" s="10" t="n">
+        <v>40675312.02</v>
+      </c>
+      <c r="U30" s="10" t="n">
+        <v>183219728.3</v>
+      </c>
+      <c r="V30" s="10" t="n">
+        <v>735800778.386</v>
+      </c>
+      <c r="W30" s="10" t="n">
+        <v>1645570749.3881</v>
+      </c>
+      <c r="X30" s="10" t="n">
+        <v>253443897.8863</v>
+      </c>
+      <c r="Y30" s="10" t="n">
+        <v>385444545.4482</v>
+      </c>
+      <c r="Z30" s="10" t="n">
+        <v>826644206.2089</v>
+      </c>
+      <c r="AA30" s="10" t="n">
+        <v>304556484.2488</v>
+      </c>
+      <c r="AB30" s="10" t="n">
+        <v>809358463.847</v>
+      </c>
+      <c r="AC30" s="10" t="n">
+        <v>990944.9688</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <f>N31</f>
+      </c>
+      <c r="B31" t="str">
+        <f>O31</f>
+      </c>
+      <c r="C31" t="str">
+        <f>P31</f>
+      </c>
+      <c r="N31"/>
+      <c r="O31" t="s">
+        <v>44</v>
+      </c>
+      <c r="P31" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q31" s="10" t="n">
+        <v>70634523</v>
+      </c>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10" t="n">
+        <v>1575031.71</v>
+      </c>
+      <c r="V31" s="10" t="n">
+        <v>63355803.9375</v>
+      </c>
+      <c r="W31" s="10" t="n">
+        <v>1820820.2345</v>
+      </c>
+      <c r="X31" s="10" t="n">
+        <v>7160491.336</v>
+      </c>
+      <c r="Y31" s="10" t="n">
+        <v>32146325.8999</v>
+      </c>
+      <c r="Z31" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10" t="n">
+        <v>19793650.6724</v>
+      </c>
+      <c r="AC31" s="10" t="n">
+        <v>2254817987.9452</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <f>N32</f>
+      </c>
+      <c r="B32" t="str">
+        <f>O32</f>
+      </c>
+      <c r="C32" t="str">
+        <f>P32</f>
+      </c>
+      <c r="N32"/>
+      <c r="O32" t="s">
+        <v>48</v>
+      </c>
+      <c r="P32" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q32" s="10" t="n">
+        <v>861075490.9504</v>
+      </c>
+      <c r="R32" s="10" t="n">
+        <v>1843989278.6916</v>
+      </c>
+      <c r="S32" s="10" t="n">
+        <v>880853387.2137</v>
+      </c>
+      <c r="T32" s="10" t="n">
+        <v>1048260892.5972</v>
+      </c>
+      <c r="U32" s="10" t="n">
+        <v>905587662.737</v>
+      </c>
+      <c r="V32" s="10" t="n">
+        <v>1069959538.6223</v>
+      </c>
+      <c r="W32" s="10" t="n">
+        <v>2100905134.3915</v>
+      </c>
+      <c r="X32" s="10" t="n">
+        <v>2821348753.4105</v>
+      </c>
+      <c r="Y32" s="10" t="n">
+        <v>3129387877.8469</v>
+      </c>
+      <c r="Z32" s="10" t="n">
+        <v>2739695960.4673</v>
+      </c>
+      <c r="AA32" s="10" t="n">
+        <v>2153808500.9717</v>
+      </c>
+      <c r="AB32" s="10" t="n">
+        <v>3766788651.0708</v>
+      </c>
+      <c r="AC32" s="10" t="n">
+        <v>2075529995.4966</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <f>N33</f>
+      </c>
+      <c r="B33" t="str">
+        <f>O33</f>
+      </c>
+      <c r="C33" t="str">
+        <f>P33</f>
+      </c>
+      <c r="N33"/>
+      <c r="O33" t="s">
+        <v>48</v>
+      </c>
+      <c r="P33" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q33" s="10" t="n">
+        <v>42241319957.0522</v>
+      </c>
+      <c r="R33" s="10" t="n">
+        <v>54795968154.2011</v>
+      </c>
+      <c r="S33" s="10" t="n">
+        <v>46972259182.0756</v>
+      </c>
+      <c r="T33" s="10" t="n">
+        <v>43996224201.6481</v>
+      </c>
+      <c r="U33" s="10" t="n">
+        <v>44073300353.5503</v>
+      </c>
+      <c r="V33" s="10" t="n">
+        <v>50579000634.7469</v>
+      </c>
+      <c r="W33" s="10" t="n">
+        <v>56622480358.1516</v>
+      </c>
+      <c r="X33" s="10" t="n">
+        <v>76063774747.8915</v>
+      </c>
+      <c r="Y33" s="10" t="n">
+        <v>80280901905.5818</v>
+      </c>
+      <c r="Z33" s="10" t="n">
+        <v>86898560500.9122</v>
+      </c>
+      <c r="AA33" s="10" t="n">
+        <v>85405082918.6524</v>
+      </c>
+      <c r="AB33" s="10" t="n">
+        <v>86705034938.3876</v>
+      </c>
+      <c r="AC33" s="10" t="n">
+        <v>57206260748.585</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <f>N34</f>
+      </c>
+      <c r="B34" t="str">
+        <f>O34</f>
+      </c>
+      <c r="C34" t="str">
+        <f>P34</f>
+      </c>
+      <c r="N34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O34" t="s">
+        <v>19</v>
+      </c>
+      <c r="P34" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q34" s="10" t="str">
+        <f>Sum(Q2:Q33)</f>
+      </c>
+      <c r="R34" s="10" t="str">
+        <f>Sum(R2:R33)</f>
+      </c>
+      <c r="S34" s="10" t="str">
+        <f>Sum(S2:S33)</f>
+      </c>
+      <c r="T34" s="10" t="str">
+        <f>Sum(T2:T33)</f>
+      </c>
+      <c r="U34" s="10" t="str">
+        <f>Sum(U2:U33)</f>
+      </c>
+      <c r="V34" s="10" t="str">
+        <f>Sum(V2:V33)</f>
+      </c>
+      <c r="W34" s="10" t="str">
+        <f>Sum(W2:W33)</f>
+      </c>
+      <c r="X34" s="10" t="str">
+        <f>Sum(X2:X33)</f>
+      </c>
+      <c r="Y34" s="10" t="str">
+        <f>Sum(Y2:Y33)</f>
+      </c>
+      <c r="Z34" s="10" t="str">
+        <f>Sum(Z2:Z33)</f>
+      </c>
+      <c r="AA34" s="10" t="str">
+        <f>Sum(AA2:AA33)</f>
+      </c>
+      <c r="AB34" s="10" t="str">
+        <f>Sum(AB2:AB33)</f>
+      </c>
+      <c r="AC34" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/CSIS_DoD_DIB_Trends.xlsx
+++ b/Output/AcqTrends/CSIS_DoD_DIB_Trends.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">LargestContract2018dollars</t>
   </si>
@@ -196,22 +196,30 @@
   <si>
     <t xml:space="preserve">Variably Small or Larger Vendor</t>
   </si>
+  <si>
+    <t xml:space="preserve">Cost Accounting Standards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Exemption</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="12">
     <numFmt numFmtId="169" formatCode="0.00,&quot;K&quot;"/>
     <numFmt numFmtId="235" formatCode="0.00,&quot;K&quot;"/>
     <numFmt numFmtId="201" formatCode="0.00,&quot;K&quot;"/>
-    <numFmt numFmtId="236" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="237" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="206" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="211" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="213" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="237" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="238" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="240" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="241" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -247,19 +255,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="235" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="236" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="237" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="211" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="213" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="237" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="238" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="240" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="241" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1860,58 +1870,58 @@
       <c r="N2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="11" t="n">
+      <c r="O2" s="5" t="n">
         <v>1607832650.0848</v>
       </c>
-      <c r="P2" s="11" t="n">
+      <c r="P2" s="5" t="n">
         <v>1751871558.4642</v>
       </c>
-      <c r="Q2" s="11" t="n">
+      <c r="Q2" s="5" t="n">
         <v>1506361369.1731</v>
       </c>
-      <c r="R2" s="11" t="n">
+      <c r="R2" s="5" t="n">
         <v>1396531382.5087</v>
       </c>
-      <c r="S2" s="11" t="n">
+      <c r="S2" s="5" t="n">
         <v>1397976506.2712</v>
       </c>
-      <c r="T2" s="11" t="n">
+      <c r="T2" s="5" t="n">
         <v>1279752259.8247</v>
       </c>
-      <c r="U2" s="11" t="n">
+      <c r="U2" s="5" t="n">
         <v>1049133781.4795</v>
       </c>
-      <c r="V2" s="11" t="n">
+      <c r="V2" s="5" t="n">
         <v>1073603566.7955</v>
       </c>
-      <c r="W2" s="11" t="n">
+      <c r="W2" s="5" t="n">
         <v>1048450862.5594</v>
       </c>
-      <c r="X2" s="11" t="n">
+      <c r="X2" s="5" t="n">
         <v>1088102147.7351</v>
       </c>
-      <c r="Y2" s="11" t="n">
+      <c r="Y2" s="5" t="n">
         <v>1072746922.942</v>
       </c>
-      <c r="Z2" s="11" t="n">
+      <c r="Z2" s="5" t="n">
         <v>1096865763.5188</v>
       </c>
-      <c r="AA2" s="11" t="n">
+      <c r="AA2" s="5" t="n">
         <v>1188706092.6348</v>
       </c>
-      <c r="AB2" s="11" t="n">
+      <c r="AB2" s="5" t="n">
         <v>926769387.3954</v>
       </c>
-      <c r="AC2" s="11" t="n">
+      <c r="AC2" s="5" t="n">
         <v>976003450.1165</v>
       </c>
-      <c r="AD2" s="11" t="n">
+      <c r="AD2" s="5" t="n">
         <v>983305068.5037</v>
       </c>
-      <c r="AE2" s="11" t="n">
+      <c r="AE2" s="5" t="n">
         <v>926451906.4684</v>
       </c>
-      <c r="AF2" s="11" t="n">
+      <c r="AF2" s="5" t="n">
         <v>1096865763.5188</v>
       </c>
       <c r="AG2" s="7" t="n">
@@ -1974,58 +1984,58 @@
       <c r="N3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="11" t="n">
+      <c r="O3" s="5" t="n">
         <v>1184454239.6496</v>
       </c>
-      <c r="P3" s="11" t="n">
+      <c r="P3" s="5" t="n">
         <v>1228271132.5837</v>
       </c>
-      <c r="Q3" s="11" t="n">
+      <c r="Q3" s="5" t="n">
         <v>1140495002.7928</v>
       </c>
-      <c r="R3" s="11" t="n">
+      <c r="R3" s="5" t="n">
         <v>1024201877.6785</v>
       </c>
-      <c r="S3" s="11" t="n">
+      <c r="S3" s="5" t="n">
         <v>896870805.4232</v>
       </c>
-      <c r="T3" s="11" t="n">
+      <c r="T3" s="5" t="n">
         <v>960414796.0546</v>
       </c>
-      <c r="U3" s="11" t="n">
+      <c r="U3" s="5" t="n">
         <v>878985475.2202</v>
       </c>
-      <c r="V3" s="11" t="n">
+      <c r="V3" s="5" t="n">
         <v>751928698.974</v>
       </c>
-      <c r="W3" s="11" t="n">
+      <c r="W3" s="5" t="n">
         <v>815327907.857</v>
       </c>
-      <c r="X3" s="11" t="n">
+      <c r="X3" s="5" t="n">
         <v>844568319.4829</v>
       </c>
-      <c r="Y3" s="11" t="n">
+      <c r="Y3" s="5" t="n">
         <v>787108243.3135</v>
       </c>
-      <c r="Z3" s="11" t="n">
+      <c r="Z3" s="5" t="n">
         <v>820630788.2635</v>
       </c>
-      <c r="AA3" s="11" t="n">
+      <c r="AA3" s="5" t="n">
         <v>686536567.6669</v>
       </c>
-      <c r="AB3" s="11" t="n">
+      <c r="AB3" s="5" t="n">
         <v>545764074.6504</v>
       </c>
-      <c r="AC3" s="11" t="n">
+      <c r="AC3" s="5" t="n">
         <v>564021752.7514</v>
       </c>
-      <c r="AD3" s="11" t="n">
+      <c r="AD3" s="5" t="n">
         <v>783509578.311</v>
       </c>
-      <c r="AE3" s="11" t="n">
+      <c r="AE3" s="5" t="n">
         <v>704578096.1892</v>
       </c>
-      <c r="AF3" s="11" t="n">
+      <c r="AF3" s="5" t="n">
         <v>820630788.2635</v>
       </c>
       <c r="AG3" s="7" t="n">
@@ -2088,58 +2098,58 @@
       <c r="N4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="11" t="n">
+      <c r="O4" s="5" t="n">
         <v>6058548489.082</v>
       </c>
-      <c r="P4" s="11" t="n">
+      <c r="P4" s="5" t="n">
         <v>6080450819.0119</v>
       </c>
-      <c r="Q4" s="11" t="n">
+      <c r="Q4" s="5" t="n">
         <v>6779332127.7524</v>
       </c>
-      <c r="R4" s="11" t="n">
+      <c r="R4" s="5" t="n">
         <v>6093289597.1129</v>
       </c>
-      <c r="S4" s="11" t="n">
+      <c r="S4" s="5" t="n">
         <v>5262222494.4274</v>
       </c>
-      <c r="T4" s="11" t="n">
+      <c r="T4" s="5" t="n">
         <v>5079840604.2751</v>
       </c>
-      <c r="U4" s="11" t="n">
+      <c r="U4" s="5" t="n">
         <v>3567145813.244</v>
       </c>
-      <c r="V4" s="11" t="n">
+      <c r="V4" s="5" t="n">
         <v>4141995592.0904</v>
       </c>
-      <c r="W4" s="11" t="n">
+      <c r="W4" s="5" t="n">
         <v>3565259691.7783</v>
       </c>
-      <c r="X4" s="11" t="n">
+      <c r="X4" s="5" t="n">
         <v>3492208221.3053</v>
       </c>
-      <c r="Y4" s="11" t="n">
+      <c r="Y4" s="5" t="n">
         <v>3649991757.8593</v>
       </c>
-      <c r="Z4" s="11" t="n">
+      <c r="Z4" s="5" t="n">
         <v>3901328619.9928</v>
       </c>
-      <c r="AA4" s="11" t="n">
+      <c r="AA4" s="5" t="n">
         <v>3830751102.3953</v>
       </c>
-      <c r="AB4" s="11" t="n">
+      <c r="AB4" s="5" t="n">
         <v>4021172451.8518</v>
       </c>
-      <c r="AC4" s="11" t="n">
+      <c r="AC4" s="5" t="n">
         <v>3517341896.4453</v>
       </c>
-      <c r="AD4" s="11" t="n">
+      <c r="AD4" s="5" t="n">
         <v>3678372019.6405</v>
       </c>
-      <c r="AE4" s="11" t="n">
+      <c r="AE4" s="5" t="n">
         <v>3920322861.3483</v>
       </c>
-      <c r="AF4" s="11" t="n">
+      <c r="AF4" s="5" t="n">
         <v>3901328619.9928</v>
       </c>
       <c r="AG4" s="7" t="n">
@@ -2202,58 +2212,58 @@
       <c r="N5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="11" t="n">
+      <c r="O5" s="5" t="n">
         <v>5679433896.1785</v>
       </c>
-      <c r="P5" s="11" t="n">
+      <c r="P5" s="5" t="n">
         <v>5624659404.6315</v>
       </c>
-      <c r="Q5" s="11" t="n">
+      <c r="Q5" s="5" t="n">
         <v>5212638422.3091</v>
       </c>
-      <c r="R5" s="11" t="n">
+      <c r="R5" s="5" t="n">
         <v>6288316411.3781</v>
       </c>
-      <c r="S5" s="11" t="n">
+      <c r="S5" s="5" t="n">
         <v>5657555259.5043</v>
       </c>
-      <c r="T5" s="11" t="n">
+      <c r="T5" s="5" t="n">
         <v>3904127512.8452</v>
       </c>
-      <c r="U5" s="11" t="n">
+      <c r="U5" s="5" t="n">
         <v>3157315866.5217</v>
       </c>
-      <c r="V5" s="11" t="n">
+      <c r="V5" s="5" t="n">
         <v>2692614083.0845</v>
       </c>
-      <c r="W5" s="11" t="n">
+      <c r="W5" s="5" t="n">
         <v>3128570143.1366</v>
       </c>
-      <c r="X5" s="11" t="n">
+      <c r="X5" s="5" t="n">
         <v>3199159154.8128</v>
       </c>
-      <c r="Y5" s="11" t="n">
+      <c r="Y5" s="5" t="n">
         <v>3037857677.0835</v>
       </c>
-      <c r="Z5" s="11" t="n">
+      <c r="Z5" s="5" t="n">
         <v>3446915761.444</v>
       </c>
-      <c r="AA5" s="11" t="n">
+      <c r="AA5" s="5" t="n">
         <v>3536696065.3334</v>
       </c>
-      <c r="AB5" s="11" t="n">
+      <c r="AB5" s="5" t="n">
         <v>3005062231.913</v>
       </c>
-      <c r="AC5" s="11" t="n">
+      <c r="AC5" s="5" t="n">
         <v>3052114457.93</v>
       </c>
-      <c r="AD5" s="11" t="n">
+      <c r="AD5" s="5" t="n">
         <v>3359581254.4839</v>
       </c>
-      <c r="AE5" s="11" t="n">
+      <c r="AE5" s="5" t="n">
         <v>3618751504.3042</v>
       </c>
-      <c r="AF5" s="11" t="n">
+      <c r="AF5" s="5" t="n">
         <v>3446915761.444</v>
       </c>
       <c r="AG5" s="7" t="n">
@@ -2316,58 +2326,58 @@
       <c r="N6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="11" t="n">
+      <c r="O6" s="5" t="n">
         <v>3741321610.9336</v>
       </c>
-      <c r="P6" s="11" t="n">
+      <c r="P6" s="5" t="n">
         <v>3625952821.6054</v>
       </c>
-      <c r="Q6" s="11" t="n">
+      <c r="Q6" s="5" t="n">
         <v>3149991887.2102</v>
       </c>
-      <c r="R6" s="11" t="n">
+      <c r="R6" s="5" t="n">
         <v>2991291521.2622</v>
       </c>
-      <c r="S6" s="11" t="n">
+      <c r="S6" s="5" t="n">
         <v>3048040619.9372</v>
       </c>
-      <c r="T6" s="11" t="n">
+      <c r="T6" s="5" t="n">
         <v>2474472259.8299</v>
       </c>
-      <c r="U6" s="11" t="n">
+      <c r="U6" s="5" t="n">
         <v>1960743379.2061</v>
       </c>
-      <c r="V6" s="11" t="n">
+      <c r="V6" s="5" t="n">
         <v>2086527003.9821</v>
       </c>
-      <c r="W6" s="11" t="n">
+      <c r="W6" s="5" t="n">
         <v>1929095879.8002</v>
       </c>
-      <c r="X6" s="11" t="n">
+      <c r="X6" s="5" t="n">
         <v>1907797922.1413</v>
       </c>
-      <c r="Y6" s="11" t="n">
+      <c r="Y6" s="5" t="n">
         <v>1867693420.1991</v>
       </c>
-      <c r="Z6" s="11" t="n">
+      <c r="Z6" s="5" t="n">
         <v>2192470949.6515</v>
       </c>
-      <c r="AA6" s="11" t="n">
+      <c r="AA6" s="5" t="n">
         <v>2196604584.8566</v>
       </c>
-      <c r="AB6" s="11" t="n">
+      <c r="AB6" s="5" t="n">
         <v>2410132539.3328</v>
       </c>
-      <c r="AC6" s="11" t="n">
+      <c r="AC6" s="5" t="n">
         <v>2143906576.2048</v>
       </c>
-      <c r="AD6" s="11" t="n">
+      <c r="AD6" s="5" t="n">
         <v>2743455584.5329</v>
       </c>
-      <c r="AE6" s="11" t="n">
+      <c r="AE6" s="5" t="n">
         <v>2637534724.141</v>
       </c>
-      <c r="AF6" s="11" t="n">
+      <c r="AF6" s="5" t="n">
         <v>2192470949.6515</v>
       </c>
       <c r="AG6" s="7" t="n">
@@ -2430,58 +2440,58 @@
       <c r="N7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="11" t="n">
+      <c r="O7" s="5" t="n">
         <v>3266121388.9118</v>
       </c>
-      <c r="P7" s="11" t="n">
+      <c r="P7" s="5" t="n">
         <v>3182798416.4579</v>
       </c>
-      <c r="Q7" s="11" t="n">
+      <c r="Q7" s="5" t="n">
         <v>3233826970.6075</v>
       </c>
-      <c r="R7" s="11" t="n">
+      <c r="R7" s="5" t="n">
         <v>2767730315.3216</v>
       </c>
-      <c r="S7" s="11" t="n">
+      <c r="S7" s="5" t="n">
         <v>2660320898.8073</v>
       </c>
-      <c r="T7" s="11" t="n">
+      <c r="T7" s="5" t="n">
         <v>2350057703.0912</v>
       </c>
-      <c r="U7" s="11" t="n">
+      <c r="U7" s="5" t="n">
         <v>2090466800.5072</v>
       </c>
-      <c r="V7" s="11" t="n">
+      <c r="V7" s="5" t="n">
         <v>1852486611.2265</v>
       </c>
-      <c r="W7" s="11" t="n">
+      <c r="W7" s="5" t="n">
         <v>2095620001.2314</v>
       </c>
-      <c r="X7" s="11" t="n">
+      <c r="X7" s="5" t="n">
         <v>2157406767.1706</v>
       </c>
-      <c r="Y7" s="11" t="n">
+      <c r="Y7" s="5" t="n">
         <v>2086646758.7863</v>
       </c>
-      <c r="Z7" s="11" t="n">
+      <c r="Z7" s="5" t="n">
         <v>2954288727.5505</v>
       </c>
-      <c r="AA7" s="11" t="n">
+      <c r="AA7" s="5" t="n">
         <v>2564514717.4087</v>
       </c>
-      <c r="AB7" s="11" t="n">
+      <c r="AB7" s="5" t="n">
         <v>1728682770.7371</v>
       </c>
-      <c r="AC7" s="11" t="n">
+      <c r="AC7" s="5" t="n">
         <v>1730445562.261</v>
       </c>
-      <c r="AD7" s="11" t="n">
+      <c r="AD7" s="5" t="n">
         <v>2301474992.4097</v>
       </c>
-      <c r="AE7" s="11" t="n">
+      <c r="AE7" s="5" t="n">
         <v>2008363234.2734</v>
       </c>
-      <c r="AF7" s="11" t="n">
+      <c r="AF7" s="5" t="n">
         <v>2954288727.5505</v>
       </c>
       <c r="AG7" s="7" t="n">
@@ -2544,58 +2554,58 @@
       <c r="N8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="11" t="n">
+      <c r="O8" s="5" t="n">
         <v>16269882471.9794</v>
       </c>
-      <c r="P8" s="11" t="n">
+      <c r="P8" s="5" t="n">
         <v>17994021717.0678</v>
       </c>
-      <c r="Q8" s="11" t="n">
+      <c r="Q8" s="5" t="n">
         <v>21387199545.8055</v>
       </c>
-      <c r="R8" s="11" t="n">
+      <c r="R8" s="5" t="n">
         <v>22576338913.7346</v>
       </c>
-      <c r="S8" s="11" t="n">
+      <c r="S8" s="5" t="n">
         <v>22032636135.821</v>
       </c>
-      <c r="T8" s="11" t="n">
+      <c r="T8" s="5" t="n">
         <v>24242893687.3319</v>
       </c>
-      <c r="U8" s="11" t="n">
+      <c r="U8" s="5" t="n">
         <v>20838549418.202</v>
       </c>
-      <c r="V8" s="11" t="n">
+      <c r="V8" s="5" t="n">
         <v>24912992627.0785</v>
       </c>
-      <c r="W8" s="11" t="n">
+      <c r="W8" s="5" t="n">
         <v>22851084792.0819</v>
       </c>
-      <c r="X8" s="11" t="n">
+      <c r="X8" s="5" t="n">
         <v>24462657675.0215</v>
       </c>
-      <c r="Y8" s="11" t="n">
+      <c r="Y8" s="5" t="n">
         <v>24530048151.9762</v>
       </c>
-      <c r="Z8" s="11" t="n">
+      <c r="Z8" s="5" t="n">
         <v>30621886485.4193</v>
       </c>
-      <c r="AA8" s="11" t="n">
+      <c r="AA8" s="5" t="n">
         <v>30157803730.9944</v>
       </c>
-      <c r="AB8" s="11" t="n">
+      <c r="AB8" s="5" t="n">
         <v>34096578496.9379</v>
       </c>
-      <c r="AC8" s="11" t="n">
+      <c r="AC8" s="5" t="n">
         <v>40235083984.2429</v>
       </c>
-      <c r="AD8" s="11" t="n">
+      <c r="AD8" s="5" t="n">
         <v>37898761518.9342</v>
       </c>
-      <c r="AE8" s="11" t="n">
+      <c r="AE8" s="5" t="n">
         <v>41482341205.8373</v>
       </c>
-      <c r="AF8" s="11" t="n">
+      <c r="AF8" s="5" t="n">
         <v>30621886485.4193</v>
       </c>
       <c r="AG8" s="7" t="n">
@@ -2658,58 +2668,58 @@
       <c r="N9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O9" s="11" t="n">
+      <c r="O9" s="5" t="n">
         <v>295814228873.005</v>
       </c>
-      <c r="P9" s="11" t="n">
+      <c r="P9" s="5" t="n">
         <v>344228460150.258</v>
       </c>
-      <c r="Q9" s="11" t="n">
+      <c r="Q9" s="5" t="n">
         <v>331006115932.454</v>
       </c>
-      <c r="R9" s="11" t="n">
+      <c r="R9" s="5" t="n">
         <v>325466947956.52</v>
       </c>
-      <c r="S9" s="11" t="n">
+      <c r="S9" s="5" t="n">
         <v>333370444572.19</v>
       </c>
-      <c r="T9" s="11" t="n">
+      <c r="T9" s="5" t="n">
         <v>323169035400.023</v>
       </c>
-      <c r="U9" s="11" t="n">
+      <c r="U9" s="5" t="n">
         <v>275707824862.844</v>
       </c>
-      <c r="V9" s="11" t="n">
+      <c r="V9" s="5" t="n">
         <v>246953219804.49</v>
       </c>
-      <c r="W9" s="11" t="n">
+      <c r="W9" s="5" t="n">
         <v>238730914399.601</v>
       </c>
-      <c r="X9" s="11" t="n">
+      <c r="X9" s="5" t="n">
         <v>261373439540.335</v>
       </c>
-      <c r="Y9" s="11" t="n">
+      <c r="Y9" s="5" t="n">
         <v>284878416992.171</v>
       </c>
-      <c r="Z9" s="11" t="n">
+      <c r="Z9" s="5" t="n">
         <v>313701272526.863</v>
       </c>
-      <c r="AA9" s="11" t="n">
+      <c r="AA9" s="5" t="n">
         <v>339456686334.059</v>
       </c>
-      <c r="AB9" s="11" t="n">
+      <c r="AB9" s="5" t="n">
         <v>375919182099.509</v>
       </c>
-      <c r="AC9" s="11" t="n">
+      <c r="AC9" s="5" t="n">
         <v>335466315747.992</v>
       </c>
-      <c r="AD9" s="11" t="n">
+      <c r="AD9" s="5" t="n">
         <v>362818335135.692</v>
       </c>
-      <c r="AE9" s="11" t="n">
+      <c r="AE9" s="5" t="n">
         <v>400986561637.651</v>
       </c>
-      <c r="AF9" s="11" t="n">
+      <c r="AF9" s="5" t="n">
         <v>313701272526.863</v>
       </c>
       <c r="AG9" s="7" t="n">
@@ -2772,58 +2782,58 @@
       <c r="N10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="11" t="str">
+      <c r="O10" s="5" t="str">
         <f>Sum(O2:O9)</f>
       </c>
-      <c r="P10" s="11" t="str">
+      <c r="P10" s="5" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="11" t="str">
+      <c r="Q10" s="5" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="11" t="str">
+      <c r="R10" s="5" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="11" t="str">
+      <c r="S10" s="5" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="11" t="str">
+      <c r="T10" s="5" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="11" t="str">
+      <c r="U10" s="5" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="11" t="str">
+      <c r="V10" s="5" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="11" t="str">
+      <c r="W10" s="5" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="11" t="str">
+      <c r="X10" s="5" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="11" t="str">
+      <c r="Y10" s="5" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="11" t="str">
+      <c r="Z10" s="5" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="11" t="str">
+      <c r="AA10" s="5" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="11" t="str">
+      <c r="AB10" s="5" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="11" t="str">
+      <c r="AC10" s="5" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="11" t="str">
+      <c r="AD10" s="5" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="11" t="str">
+      <c r="AE10" s="5" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="11" t="str">
+      <c r="AF10" s="5" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
       <c r="AG10" s="7" t="str">
@@ -3692,6 +3702,9 @@
       <c r="C1" t="str">
         <f>P1</f>
       </c>
+      <c r="M1" t="s">
+        <v>46</v>
+      </c>
       <c r="N1" t="s">
         <v>46</v>
       </c>
@@ -3751,53 +3764,56 @@
       <c r="C2" t="str">
         <f>P2</f>
       </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
       <c r="N2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="10" t="n">
-        <v>9123386997.3553</v>
-      </c>
-      <c r="R2" s="10" t="n">
-        <v>9925670949.8118</v>
-      </c>
-      <c r="S2" s="10" t="n">
-        <v>6117269800.099</v>
-      </c>
-      <c r="T2" s="10" t="n">
-        <v>6545888309.0689</v>
-      </c>
-      <c r="U2" s="10" t="n">
-        <v>6334243823.8566</v>
-      </c>
-      <c r="V2" s="10" t="n">
-        <v>7155717808.9444</v>
-      </c>
-      <c r="W2" s="10" t="n">
-        <v>8025155767.9185</v>
-      </c>
-      <c r="X2" s="10" t="n">
-        <v>11106688171.6717</v>
-      </c>
-      <c r="Y2" s="10" t="n">
-        <v>10149047079.035</v>
-      </c>
-      <c r="Z2" s="10" t="n">
+      <c r="Q2" s="13" t="n">
+        <v>9119315654.4466</v>
+      </c>
+      <c r="R2" s="13" t="n">
+        <v>9919785169.6184</v>
+      </c>
+      <c r="S2" s="13" t="n">
+        <v>6116715432.519</v>
+      </c>
+      <c r="T2" s="13" t="n">
+        <v>6545833538.8289</v>
+      </c>
+      <c r="U2" s="13" t="n">
+        <v>6334149950.2566</v>
+      </c>
+      <c r="V2" s="13" t="n">
+        <v>7154281821.0728</v>
+      </c>
+      <c r="W2" s="13" t="n">
+        <v>8022628873.5284</v>
+      </c>
+      <c r="X2" s="13" t="n">
+        <v>11106701467.8719</v>
+      </c>
+      <c r="Y2" s="13" t="n">
+        <v>10149071216.5741</v>
+      </c>
+      <c r="Z2" s="13" t="n">
         <v>10611169093.8476</v>
       </c>
-      <c r="AA2" s="10" t="n">
+      <c r="AA2" s="13" t="n">
         <v>11532675608.4857</v>
       </c>
-      <c r="AB2" s="10" t="n">
-        <v>12422931908.1758</v>
-      </c>
-      <c r="AC2" s="10" t="n">
-        <v>13958432802.5153</v>
+      <c r="AB2" s="13" t="n">
+        <v>12416343380.5858</v>
+      </c>
+      <c r="AC2" s="13" t="n">
+        <v>13957963439.4211</v>
       </c>
     </row>
     <row r="3">
@@ -3810,53 +3826,56 @@
       <c r="C3" t="str">
         <f>P3</f>
       </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
       <c r="N3" t="s">
         <v>47</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="10" t="n">
-        <v>933249010.9802</v>
-      </c>
-      <c r="R3" s="10" t="n">
-        <v>778306964.349</v>
-      </c>
-      <c r="S3" s="10" t="n">
-        <v>850696058.2249</v>
-      </c>
-      <c r="T3" s="10" t="n">
-        <v>907325991.1728</v>
-      </c>
-      <c r="U3" s="10" t="n">
-        <v>1040086140.3378</v>
-      </c>
-      <c r="V3" s="10" t="n">
-        <v>1059933004.3366</v>
-      </c>
-      <c r="W3" s="10" t="n">
-        <v>1154846824.4556</v>
-      </c>
-      <c r="X3" s="10" t="n">
-        <v>1689420804.9984</v>
-      </c>
-      <c r="Y3" s="10" t="n">
-        <v>1660116491.1434</v>
-      </c>
-      <c r="Z3" s="10" t="n">
-        <v>2824128521.3111</v>
-      </c>
-      <c r="AA3" s="10" t="n">
-        <v>8630415202.1981</v>
-      </c>
-      <c r="AB3" s="10" t="n">
-        <v>1865335673.6655</v>
-      </c>
-      <c r="AC3" s="10" t="n">
-        <v>1715881885.1085</v>
+      <c r="Q3" s="13" t="n">
+        <v>900261360.3804</v>
+      </c>
+      <c r="R3" s="13" t="n">
+        <v>732884778.3297</v>
+      </c>
+      <c r="S3" s="13" t="n">
+        <v>797541862.981</v>
+      </c>
+      <c r="T3" s="13" t="n">
+        <v>821609968.3628</v>
+      </c>
+      <c r="U3" s="13" t="n">
+        <v>928804743.5778</v>
+      </c>
+      <c r="V3" s="13" t="n">
+        <v>993594863.4139</v>
+      </c>
+      <c r="W3" s="13" t="n">
+        <v>1056434091.4926</v>
+      </c>
+      <c r="X3" s="13" t="n">
+        <v>1620462324.8865</v>
+      </c>
+      <c r="Y3" s="13" t="n">
+        <v>1581766594.8769</v>
+      </c>
+      <c r="Z3" s="13" t="n">
+        <v>2720401014.9957</v>
+      </c>
+      <c r="AA3" s="13" t="n">
+        <v>8532129064.9914</v>
+      </c>
+      <c r="AB3" s="13" t="n">
+        <v>1801912872.7955</v>
+      </c>
+      <c r="AC3" s="13" t="n">
+        <v>1608944729.0501</v>
       </c>
     </row>
     <row r="4">
@@ -3869,53 +3888,56 @@
       <c r="C4" t="str">
         <f>P4</f>
       </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
       <c r="N4" t="s">
         <v>47</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="10" t="n">
-        <v>22150159478.1373</v>
-      </c>
-      <c r="R4" s="10" t="n">
-        <v>27183783456.2204</v>
-      </c>
-      <c r="S4" s="10" t="n">
-        <v>17983227800.5355</v>
-      </c>
-      <c r="T4" s="10" t="n">
-        <v>13413728292.2397</v>
-      </c>
-      <c r="U4" s="10" t="n">
-        <v>11352581206.0263</v>
-      </c>
-      <c r="V4" s="10" t="n">
-        <v>9812944404.2043</v>
-      </c>
-      <c r="W4" s="10" t="n">
-        <v>11596479497.3492</v>
-      </c>
-      <c r="X4" s="10" t="n">
-        <v>16795657213.7177</v>
-      </c>
-      <c r="Y4" s="10" t="n">
-        <v>17789271699.224</v>
-      </c>
-      <c r="Z4" s="10" t="n">
-        <v>19469132838.174</v>
-      </c>
-      <c r="AA4" s="10" t="n">
-        <v>36647470394.1539</v>
-      </c>
-      <c r="AB4" s="10" t="n">
-        <v>33248012994.7973</v>
-      </c>
-      <c r="AC4" s="10" t="n">
-        <v>21091411055.4483</v>
+      <c r="Q4" s="13" t="n">
+        <v>22135915095.0165</v>
+      </c>
+      <c r="R4" s="13" t="n">
+        <v>27182256199.3429</v>
+      </c>
+      <c r="S4" s="13" t="n">
+        <v>17981782132.3055</v>
+      </c>
+      <c r="T4" s="13" t="n">
+        <v>13409420352.1097</v>
+      </c>
+      <c r="U4" s="13" t="n">
+        <v>11351411505.1663</v>
+      </c>
+      <c r="V4" s="13" t="n">
+        <v>9799211022.0543</v>
+      </c>
+      <c r="W4" s="13" t="n">
+        <v>11595974208.1285</v>
+      </c>
+      <c r="X4" s="13" t="n">
+        <v>16795694307.7177</v>
+      </c>
+      <c r="Y4" s="13" t="n">
+        <v>17788659920.1458</v>
+      </c>
+      <c r="Z4" s="13" t="n">
+        <v>19468275543.2062</v>
+      </c>
+      <c r="AA4" s="13" t="n">
+        <v>36647411500.7335</v>
+      </c>
+      <c r="AB4" s="13" t="n">
+        <v>33248009994.7973</v>
+      </c>
+      <c r="AC4" s="13" t="n">
+        <v>21089909232.4054</v>
       </c>
     </row>
     <row r="5">
@@ -3928,53 +3950,56 @@
       <c r="C5" t="str">
         <f>P5</f>
       </c>
+      <c r="M5" t="s">
+        <v>49</v>
+      </c>
       <c r="N5" t="s">
         <v>47</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q5" s="10" t="n">
-        <v>17461665015.1998</v>
-      </c>
-      <c r="R5" s="10" t="n">
-        <v>15945788665.3316</v>
-      </c>
-      <c r="S5" s="10" t="n">
-        <v>13241134559.107</v>
-      </c>
-      <c r="T5" s="10" t="n">
-        <v>11202599271.8758</v>
-      </c>
-      <c r="U5" s="10" t="n">
-        <v>11438128794.1495</v>
-      </c>
-      <c r="V5" s="10" t="n">
-        <v>11725856793.6957</v>
-      </c>
-      <c r="W5" s="10" t="n">
-        <v>13368544826.8969</v>
-      </c>
-      <c r="X5" s="10" t="n">
-        <v>21646806734.9739</v>
-      </c>
-      <c r="Y5" s="10" t="n">
-        <v>24455179972.3109</v>
-      </c>
-      <c r="Z5" s="10" t="n">
-        <v>27629357927.5978</v>
-      </c>
-      <c r="AA5" s="10" t="n">
-        <v>29668051945.2236</v>
-      </c>
-      <c r="AB5" s="10" t="n">
-        <v>29589823343.5461</v>
-      </c>
-      <c r="AC5" s="10" t="n">
-        <v>29156539634.1995</v>
+      <c r="Q5" s="13" t="n">
+        <v>17086397806.0589</v>
+      </c>
+      <c r="R5" s="13" t="n">
+        <v>15615387767.1382</v>
+      </c>
+      <c r="S5" s="13" t="n">
+        <v>12982206393.7262</v>
+      </c>
+      <c r="T5" s="13" t="n">
+        <v>10957525921.0024</v>
+      </c>
+      <c r="U5" s="13" t="n">
+        <v>11206382130.8579</v>
+      </c>
+      <c r="V5" s="13" t="n">
+        <v>11406325309.7819</v>
+      </c>
+      <c r="W5" s="13" t="n">
+        <v>13096427698.6104</v>
+      </c>
+      <c r="X5" s="13" t="n">
+        <v>21186308521.1384</v>
+      </c>
+      <c r="Y5" s="13" t="n">
+        <v>24098351905.0366</v>
+      </c>
+      <c r="Z5" s="13" t="n">
+        <v>27154763686.4259</v>
+      </c>
+      <c r="AA5" s="13" t="n">
+        <v>28871365861.0836</v>
+      </c>
+      <c r="AB5" s="13" t="n">
+        <v>27338650511.5935</v>
+      </c>
+      <c r="AC5" s="13" t="n">
+        <v>27468196322.9463</v>
       </c>
     </row>
     <row r="6">
@@ -3987,53 +4012,56 @@
       <c r="C6" t="str">
         <f>P6</f>
       </c>
+      <c r="M6" t="s">
+        <v>50</v>
+      </c>
       <c r="N6" t="s">
         <v>49</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="10" t="n">
-        <v>10568160289.5904</v>
-      </c>
-      <c r="R6" s="10" t="n">
-        <v>11228646566.8006</v>
-      </c>
-      <c r="S6" s="10" t="n">
-        <v>10286726221.8185</v>
-      </c>
-      <c r="T6" s="10" t="n">
-        <v>11200207991.4699</v>
-      </c>
-      <c r="U6" s="10" t="n">
-        <v>10126136416.4891</v>
-      </c>
-      <c r="V6" s="10" t="n">
-        <v>12639069940.0041</v>
-      </c>
-      <c r="W6" s="10" t="n">
-        <v>10859545758.7419</v>
-      </c>
-      <c r="X6" s="10" t="n">
-        <v>10070355969.8334</v>
-      </c>
-      <c r="Y6" s="10" t="n">
-        <v>10133720212.0457</v>
-      </c>
-      <c r="Z6" s="10" t="n">
-        <v>10716982742.9971</v>
-      </c>
-      <c r="AA6" s="10" t="n">
-        <v>10642044306.0932</v>
-      </c>
-      <c r="AB6" s="10" t="n">
-        <v>13796999680.5367</v>
-      </c>
-      <c r="AC6" s="10" t="n">
-        <v>12520521180.4383</v>
+      <c r="Q6" s="13" t="n">
+        <v>10531093423.9482</v>
+      </c>
+      <c r="R6" s="13" t="n">
+        <v>11191470779.9083</v>
+      </c>
+      <c r="S6" s="13" t="n">
+        <v>10291037231.3785</v>
+      </c>
+      <c r="T6" s="13" t="n">
+        <v>11196496804.1397</v>
+      </c>
+      <c r="U6" s="13" t="n">
+        <v>10120309839.7428</v>
+      </c>
+      <c r="V6" s="13" t="n">
+        <v>12638934605.1038</v>
+      </c>
+      <c r="W6" s="13" t="n">
+        <v>10705302996.257</v>
+      </c>
+      <c r="X6" s="13" t="n">
+        <v>10054434026.8694</v>
+      </c>
+      <c r="Y6" s="13" t="n">
+        <v>9905416246.7915</v>
+      </c>
+      <c r="Z6" s="13" t="n">
+        <v>10715247646.6963</v>
+      </c>
+      <c r="AA6" s="13" t="n">
+        <v>10563247553.944</v>
+      </c>
+      <c r="AB6" s="13" t="n">
+        <v>13543587221.5167</v>
+      </c>
+      <c r="AC6" s="13" t="n">
+        <v>12347850685.8355</v>
       </c>
     </row>
     <row r="7">
@@ -4046,53 +4074,56 @@
       <c r="C7" t="str">
         <f>P7</f>
       </c>
+      <c r="M7" t="s">
+        <v>50</v>
+      </c>
       <c r="N7" t="s">
         <v>49</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q7" s="10" t="n">
-        <v>3941979293.6511</v>
-      </c>
-      <c r="R7" s="10" t="n">
-        <v>4327324620.4421</v>
-      </c>
-      <c r="S7" s="10" t="n">
-        <v>3758765886.7939</v>
-      </c>
-      <c r="T7" s="10" t="n">
-        <v>4553790804.2509</v>
-      </c>
-      <c r="U7" s="10" t="n">
-        <v>3878318549.428</v>
-      </c>
-      <c r="V7" s="10" t="n">
-        <v>3731202743.6779</v>
-      </c>
-      <c r="W7" s="10" t="n">
-        <v>3057726585.956</v>
-      </c>
-      <c r="X7" s="10" t="n">
-        <v>3218540161.8229</v>
-      </c>
-      <c r="Y7" s="10" t="n">
-        <v>2791762831.0078</v>
-      </c>
-      <c r="Z7" s="10" t="n">
-        <v>2947253404.6449</v>
-      </c>
-      <c r="AA7" s="10" t="n">
-        <v>2791928276.1808</v>
-      </c>
-      <c r="AB7" s="10" t="n">
-        <v>3848936771.0966</v>
-      </c>
-      <c r="AC7" s="10" t="n">
-        <v>3746558139.1602</v>
+      <c r="Q7" s="13" t="n">
+        <v>3419648060.9885</v>
+      </c>
+      <c r="R7" s="13" t="n">
+        <v>3698527201.4696</v>
+      </c>
+      <c r="S7" s="13" t="n">
+        <v>3332397826.3985</v>
+      </c>
+      <c r="T7" s="13" t="n">
+        <v>4175617861.5983</v>
+      </c>
+      <c r="U7" s="13" t="n">
+        <v>3638135106.1042</v>
+      </c>
+      <c r="V7" s="13" t="n">
+        <v>3463130648.7072</v>
+      </c>
+      <c r="W7" s="13" t="n">
+        <v>2704850958.1033</v>
+      </c>
+      <c r="X7" s="13" t="n">
+        <v>2830929764.2634</v>
+      </c>
+      <c r="Y7" s="13" t="n">
+        <v>2527738151.6452</v>
+      </c>
+      <c r="Z7" s="13" t="n">
+        <v>2595488953.7884</v>
+      </c>
+      <c r="AA7" s="13" t="n">
+        <v>2536588212.8848</v>
+      </c>
+      <c r="AB7" s="13" t="n">
+        <v>3251608936.6306</v>
+      </c>
+      <c r="AC7" s="13" t="n">
+        <v>2713655471.2253</v>
       </c>
     </row>
     <row r="8">
@@ -4105,53 +4136,56 @@
       <c r="C8" t="str">
         <f>P8</f>
       </c>
+      <c r="M8" t="s">
+        <v>56</v>
+      </c>
       <c r="N8" t="s">
         <v>49</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q8" s="10" t="n">
-        <v>19445072083.7554</v>
-      </c>
-      <c r="R8" s="10" t="n">
-        <v>17819489881.935</v>
-      </c>
-      <c r="S8" s="10" t="n">
-        <v>14687171117.9708</v>
-      </c>
-      <c r="T8" s="10" t="n">
-        <v>17388049372.6594</v>
-      </c>
-      <c r="U8" s="10" t="n">
-        <v>15330074497.3418</v>
-      </c>
-      <c r="V8" s="10" t="n">
-        <v>13236513828.7155</v>
-      </c>
-      <c r="W8" s="10" t="n">
-        <v>17286573214.4776</v>
-      </c>
-      <c r="X8" s="10" t="n">
-        <v>9994478721.763</v>
-      </c>
-      <c r="Y8" s="10" t="n">
-        <v>14122542258.9591</v>
-      </c>
-      <c r="Z8" s="10" t="n">
-        <v>15249074062.8853</v>
-      </c>
-      <c r="AA8" s="10" t="n">
-        <v>13414526753.4418</v>
-      </c>
-      <c r="AB8" s="10" t="n">
-        <v>26695172483.5517</v>
-      </c>
-      <c r="AC8" s="10" t="n">
-        <v>14854157830.9899</v>
+      <c r="Q8" s="13" t="n">
+        <v>19367702734.5501</v>
+      </c>
+      <c r="R8" s="13" t="n">
+        <v>17794882777.1162</v>
+      </c>
+      <c r="S8" s="13" t="n">
+        <v>14685059258.4308</v>
+      </c>
+      <c r="T8" s="13" t="n">
+        <v>17304917148.4494</v>
+      </c>
+      <c r="U8" s="13" t="n">
+        <v>15326880287.6819</v>
+      </c>
+      <c r="V8" s="13" t="n">
+        <v>13032537936.8157</v>
+      </c>
+      <c r="W8" s="13" t="n">
+        <v>17278175296.8264</v>
+      </c>
+      <c r="X8" s="13" t="n">
+        <v>9991536984.713</v>
+      </c>
+      <c r="Y8" s="13" t="n">
+        <v>14030815392.3379</v>
+      </c>
+      <c r="Z8" s="13" t="n">
+        <v>14935680531.2663</v>
+      </c>
+      <c r="AA8" s="13" t="n">
+        <v>13452905471.4243</v>
+      </c>
+      <c r="AB8" s="13" t="n">
+        <v>26534732732.502</v>
+      </c>
+      <c r="AC8" s="13" t="n">
+        <v>14815754196.2106</v>
       </c>
     </row>
     <row r="9">
@@ -4164,53 +4198,56 @@
       <c r="C9" t="str">
         <f>P9</f>
       </c>
+      <c r="M9" t="s">
+        <v>56</v>
+      </c>
       <c r="N9" t="s">
         <v>49</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="10" t="n">
-        <v>36871295246.1449</v>
-      </c>
-      <c r="R9" s="10" t="n">
-        <v>34312201099.5091</v>
-      </c>
-      <c r="S9" s="10" t="n">
-        <v>28943685059.9962</v>
-      </c>
-      <c r="T9" s="10" t="n">
-        <v>28105942826.2905</v>
-      </c>
-      <c r="U9" s="10" t="n">
-        <v>26676685379.1285</v>
-      </c>
-      <c r="V9" s="10" t="n">
-        <v>27425891006.0197</v>
-      </c>
-      <c r="W9" s="10" t="n">
-        <v>28310625407.8685</v>
-      </c>
-      <c r="X9" s="10" t="n">
-        <v>24886124677.4899</v>
-      </c>
-      <c r="Y9" s="10" t="n">
-        <v>29400630357.3012</v>
-      </c>
-      <c r="Z9" s="10" t="n">
-        <v>31369137350.3637</v>
-      </c>
-      <c r="AA9" s="10" t="n">
-        <v>26531261075.3067</v>
-      </c>
-      <c r="AB9" s="10" t="n">
-        <v>30331923084.4081</v>
-      </c>
-      <c r="AC9" s="10" t="n">
-        <v>39210590627.8942</v>
+      <c r="Q9" s="13" t="n">
+        <v>32678089089.9004</v>
+      </c>
+      <c r="R9" s="13" t="n">
+        <v>31031710504.6719</v>
+      </c>
+      <c r="S9" s="13" t="n">
+        <v>25836842127.3361</v>
+      </c>
+      <c r="T9" s="13" t="n">
+        <v>25658103460.8032</v>
+      </c>
+      <c r="U9" s="13" t="n">
+        <v>23686072343.7808</v>
+      </c>
+      <c r="V9" s="13" t="n">
+        <v>24380661662.5369</v>
+      </c>
+      <c r="W9" s="13" t="n">
+        <v>24736231798.413</v>
+      </c>
+      <c r="X9" s="13" t="n">
+        <v>20960565568.5133</v>
+      </c>
+      <c r="Y9" s="13" t="n">
+        <v>22493427279.9736</v>
+      </c>
+      <c r="Z9" s="13" t="n">
+        <v>25056976197.192</v>
+      </c>
+      <c r="AA9" s="13" t="n">
+        <v>22325154310.1434</v>
+      </c>
+      <c r="AB9" s="13" t="n">
+        <v>26438251443.5411</v>
+      </c>
+      <c r="AC9" s="13" t="n">
+        <v>30588315724.7901</v>
       </c>
     </row>
     <row r="10">
@@ -4223,53 +4260,56 @@
       <c r="C10" t="str">
         <f>P10</f>
       </c>
+      <c r="M10" t="s">
+        <v>57</v>
+      </c>
       <c r="N10" t="s">
         <v>50</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q10" s="10" t="n">
-        <v>5041787707.8661</v>
-      </c>
-      <c r="R10" s="10" t="n">
-        <v>4697004292.2485</v>
-      </c>
-      <c r="S10" s="10" t="n">
-        <v>4455456188.6549</v>
-      </c>
-      <c r="T10" s="10" t="n">
-        <v>4210616489.2068</v>
-      </c>
-      <c r="U10" s="10" t="n">
-        <v>4226461037.0062</v>
-      </c>
-      <c r="V10" s="10" t="n">
-        <v>4215571791.5129</v>
-      </c>
-      <c r="W10" s="10" t="n">
-        <v>4549335227.2172</v>
-      </c>
-      <c r="X10" s="10" t="n">
-        <v>7950805718.3224</v>
-      </c>
-      <c r="Y10" s="10" t="n">
-        <v>8250131183.4601</v>
-      </c>
-      <c r="Z10" s="10" t="n">
-        <v>7368429907.9627</v>
-      </c>
-      <c r="AA10" s="10" t="n">
+      <c r="Q10" s="13" t="n">
+        <v>5030791128.9755</v>
+      </c>
+      <c r="R10" s="13" t="n">
+        <v>4694319799.276</v>
+      </c>
+      <c r="S10" s="13" t="n">
+        <v>4453105480.3049</v>
+      </c>
+      <c r="T10" s="13" t="n">
+        <v>4211307180.2268</v>
+      </c>
+      <c r="U10" s="13" t="n">
+        <v>4223651714.1975</v>
+      </c>
+      <c r="V10" s="13" t="n">
+        <v>4211090447.0784</v>
+      </c>
+      <c r="W10" s="13" t="n">
+        <v>4535169155.555</v>
+      </c>
+      <c r="X10" s="13" t="n">
+        <v>7949301147.9257</v>
+      </c>
+      <c r="Y10" s="13" t="n">
+        <v>8249254447.94</v>
+      </c>
+      <c r="Z10" s="13" t="n">
+        <v>7368071066.2727</v>
+      </c>
+      <c r="AA10" s="13" t="n">
         <v>4811493669.4789</v>
       </c>
-      <c r="AB10" s="10" t="n">
-        <v>6672263708.5747</v>
-      </c>
-      <c r="AC10" s="10" t="n">
-        <v>7901421336.481</v>
+      <c r="AB10" s="13" t="n">
+        <v>6668117532.2948</v>
+      </c>
+      <c r="AC10" s="13" t="n">
+        <v>7894006408.4777</v>
       </c>
     </row>
     <row r="11">
@@ -4282,53 +4322,56 @@
       <c r="C11" t="str">
         <f>P11</f>
       </c>
+      <c r="M11" t="s">
+        <v>57</v>
+      </c>
       <c r="N11" t="s">
         <v>50</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q11" s="10" t="n">
-        <v>2190608657.5898</v>
-      </c>
-      <c r="R11" s="10" t="n">
-        <v>2065874959.0551</v>
-      </c>
-      <c r="S11" s="10" t="n">
-        <v>1803667236.9804</v>
-      </c>
-      <c r="T11" s="10" t="n">
-        <v>2302049850.3275</v>
-      </c>
-      <c r="U11" s="10" t="n">
-        <v>2160498060.2817</v>
-      </c>
-      <c r="V11" s="10" t="n">
-        <v>2381207919.67</v>
-      </c>
-      <c r="W11" s="10" t="n">
-        <v>2124548298.7798</v>
-      </c>
-      <c r="X11" s="10" t="n">
-        <v>2917485196.2089</v>
-      </c>
-      <c r="Y11" s="10" t="n">
-        <v>2618107181.5441</v>
-      </c>
-      <c r="Z11" s="10" t="n">
-        <v>2395066238.0778</v>
-      </c>
-      <c r="AA11" s="10" t="n">
-        <v>2143720235.0702</v>
-      </c>
-      <c r="AB11" s="10" t="n">
-        <v>2562500889.2752</v>
-      </c>
-      <c r="AC11" s="10" t="n">
-        <v>2500808927.9041</v>
+      <c r="Q11" s="13" t="n">
+        <v>1890845323.4521</v>
+      </c>
+      <c r="R11" s="13" t="n">
+        <v>1830692349.8995</v>
+      </c>
+      <c r="S11" s="13" t="n">
+        <v>1596760304.8468</v>
+      </c>
+      <c r="T11" s="13" t="n">
+        <v>2085377466.7234</v>
+      </c>
+      <c r="U11" s="13" t="n">
+        <v>1907312024.9201</v>
+      </c>
+      <c r="V11" s="13" t="n">
+        <v>2000237619.9625</v>
+      </c>
+      <c r="W11" s="13" t="n">
+        <v>2021706286.3238</v>
+      </c>
+      <c r="X11" s="13" t="n">
+        <v>2722457427.1417</v>
+      </c>
+      <c r="Y11" s="13" t="n">
+        <v>2479414621.4026</v>
+      </c>
+      <c r="Z11" s="13" t="n">
+        <v>2280307483.9997</v>
+      </c>
+      <c r="AA11" s="13" t="n">
+        <v>2063527479.1934</v>
+      </c>
+      <c r="AB11" s="13" t="n">
+        <v>2423410056.2773</v>
+      </c>
+      <c r="AC11" s="13" t="n">
+        <v>1833104211.6256</v>
       </c>
     </row>
     <row r="12">
@@ -4341,53 +4384,56 @@
       <c r="C12" t="str">
         <f>P12</f>
       </c>
+      <c r="M12" t="s">
+        <v>52</v>
+      </c>
       <c r="N12" t="s">
         <v>50</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" s="10" t="n">
-        <v>1653935248.2204</v>
-      </c>
-      <c r="R12" s="10" t="n">
-        <v>1915376506.534</v>
-      </c>
-      <c r="S12" s="10" t="n">
-        <v>1215038809.2107</v>
-      </c>
-      <c r="T12" s="10" t="n">
-        <v>3046937288.8968</v>
-      </c>
-      <c r="U12" s="10" t="n">
-        <v>3528837937.6841</v>
-      </c>
-      <c r="V12" s="10" t="n">
-        <v>3523922270.6881</v>
-      </c>
-      <c r="W12" s="10" t="n">
-        <v>2618463827.688</v>
-      </c>
-      <c r="X12" s="10" t="n">
-        <v>5117099399.6129</v>
-      </c>
-      <c r="Y12" s="10" t="n">
-        <v>5021541998.4881</v>
-      </c>
-      <c r="Z12" s="10" t="n">
-        <v>5166490465.8781</v>
-      </c>
-      <c r="AA12" s="10" t="n">
-        <v>6734348377.1755</v>
-      </c>
-      <c r="AB12" s="10" t="n">
-        <v>4972868219.2291</v>
-      </c>
-      <c r="AC12" s="10" t="n">
-        <v>4596278268.6617</v>
+      <c r="Q12" s="13" t="n">
+        <v>1652880945.1172</v>
+      </c>
+      <c r="R12" s="13" t="n">
+        <v>1916067764.9974</v>
+      </c>
+      <c r="S12" s="13" t="n">
+        <v>1215448825.8107</v>
+      </c>
+      <c r="T12" s="13" t="n">
+        <v>3046138201.8668</v>
+      </c>
+      <c r="U12" s="13" t="n">
+        <v>3526829921.3241</v>
+      </c>
+      <c r="V12" s="13" t="n">
+        <v>3522162231.3324</v>
+      </c>
+      <c r="W12" s="13" t="n">
+        <v>2615112330.6724</v>
+      </c>
+      <c r="X12" s="13" t="n">
+        <v>5109515014.7548</v>
+      </c>
+      <c r="Y12" s="13" t="n">
+        <v>5020705016.3628</v>
+      </c>
+      <c r="Z12" s="13" t="n">
+        <v>5165279502.0872</v>
+      </c>
+      <c r="AA12" s="13" t="n">
+        <v>6733938556.3855</v>
+      </c>
+      <c r="AB12" s="13" t="n">
+        <v>4972475726.5488</v>
+      </c>
+      <c r="AC12" s="13" t="n">
+        <v>4590517953.7241</v>
       </c>
     </row>
     <row r="13">
@@ -4400,53 +4446,56 @@
       <c r="C13" t="str">
         <f>P13</f>
       </c>
+      <c r="M13" t="s">
+        <v>52</v>
+      </c>
       <c r="N13" t="s">
         <v>50</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="10" t="n">
-        <v>12813648190.3944</v>
-      </c>
-      <c r="R13" s="10" t="n">
-        <v>11112724799.3112</v>
-      </c>
-      <c r="S13" s="10" t="n">
-        <v>9292054509.5825</v>
-      </c>
-      <c r="T13" s="10" t="n">
-        <v>8845823973.9629</v>
-      </c>
-      <c r="U13" s="10" t="n">
-        <v>8931421851.684</v>
-      </c>
-      <c r="V13" s="10" t="n">
-        <v>8176942099.9611</v>
-      </c>
-      <c r="W13" s="10" t="n">
-        <v>9127186691.1766</v>
-      </c>
-      <c r="X13" s="10" t="n">
-        <v>11031894225.7426</v>
-      </c>
-      <c r="Y13" s="10" t="n">
-        <v>11281512075.5999</v>
-      </c>
-      <c r="Z13" s="10" t="n">
-        <v>10467610543.6858</v>
-      </c>
-      <c r="AA13" s="10" t="n">
-        <v>8990411948.343</v>
-      </c>
-      <c r="AB13" s="10" t="n">
-        <v>9928734823.3652</v>
-      </c>
-      <c r="AC13" s="10" t="n">
-        <v>10294755673.9276</v>
+      <c r="Q13" s="13" t="n">
+        <v>12152242518.4098</v>
+      </c>
+      <c r="R13" s="13" t="n">
+        <v>10874467877.7939</v>
+      </c>
+      <c r="S13" s="13" t="n">
+        <v>8991541948.0103</v>
+      </c>
+      <c r="T13" s="13" t="n">
+        <v>8682498040.3617</v>
+      </c>
+      <c r="U13" s="13" t="n">
+        <v>8673866682.3793</v>
+      </c>
+      <c r="V13" s="13" t="n">
+        <v>7892277941.6298</v>
+      </c>
+      <c r="W13" s="13" t="n">
+        <v>8853294797.6542</v>
+      </c>
+      <c r="X13" s="13" t="n">
+        <v>10761493976.2128</v>
+      </c>
+      <c r="Y13" s="13" t="n">
+        <v>11026115398.8299</v>
+      </c>
+      <c r="Z13" s="13" t="n">
+        <v>10307932274.544</v>
+      </c>
+      <c r="AA13" s="13" t="n">
+        <v>8856999748.0501</v>
+      </c>
+      <c r="AB13" s="13" t="n">
+        <v>9756460100.1788</v>
+      </c>
+      <c r="AC13" s="13" t="n">
+        <v>6924094924.5444</v>
       </c>
     </row>
     <row r="14">
@@ -4459,53 +4508,56 @@
       <c r="C14" t="str">
         <f>P14</f>
       </c>
+      <c r="M14" t="s">
+        <v>53</v>
+      </c>
       <c r="N14" t="s">
-        <v>51</v>
-      </c>
-      <c r="O14" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q14" s="10" t="n">
-        <v>769809599.3241</v>
-      </c>
-      <c r="R14" s="10" t="n">
-        <v>259015160.7266</v>
-      </c>
-      <c r="S14" s="10" t="n">
-        <v>1609949.39</v>
-      </c>
-      <c r="T14" s="10" t="n">
-        <v>-2342245.23</v>
-      </c>
-      <c r="U14" s="10" t="n">
-        <v>6993269.09</v>
-      </c>
-      <c r="V14" s="10" t="n">
-        <v>31769512.4411</v>
-      </c>
-      <c r="W14" s="10" t="n">
-        <v>463060932.6803</v>
-      </c>
-      <c r="X14" s="10" t="n">
-        <v>175461690.1877</v>
-      </c>
-      <c r="Y14" s="10" t="n">
-        <v>791410.0504</v>
-      </c>
-      <c r="Z14" s="10" t="n">
-        <v>23345635.8203</v>
-      </c>
-      <c r="AA14" s="10" t="n">
-        <v>227331886.5991</v>
-      </c>
-      <c r="AB14" s="10" t="n">
-        <v>4528693.97</v>
-      </c>
-      <c r="AC14" s="10" t="n">
-        <v>95316437.1788</v>
+      <c r="Q14" s="13" t="n">
+        <v>1446094369.1734</v>
+      </c>
+      <c r="R14" s="13" t="n">
+        <v>536104754.6996</v>
+      </c>
+      <c r="S14" s="13" t="n">
+        <v>139665854.67</v>
+      </c>
+      <c r="T14" s="13" t="n">
+        <v>93662916.7146</v>
+      </c>
+      <c r="U14" s="13" t="n">
+        <v>257284586.895</v>
+      </c>
+      <c r="V14" s="13" t="n">
+        <v>826279289.2942</v>
+      </c>
+      <c r="W14" s="13" t="n">
+        <v>2340320853.5545</v>
+      </c>
+      <c r="X14" s="13" t="n">
+        <v>493741524.4092</v>
+      </c>
+      <c r="Y14" s="13" t="n">
+        <v>660109534.1924</v>
+      </c>
+      <c r="Z14" s="13" t="n">
+        <v>856292449.1533</v>
+      </c>
+      <c r="AA14" s="13" t="n">
+        <v>619859432.5323</v>
+      </c>
+      <c r="AB14" s="13" t="n">
+        <v>1093354425.2363</v>
+      </c>
+      <c r="AC14" s="13" t="n">
+        <v>282398583.1566</v>
       </c>
     </row>
     <row r="15">
@@ -4518,41 +4570,56 @@
       <c r="C15" t="str">
         <f>P15</f>
       </c>
+      <c r="M15" t="s">
+        <v>53</v>
+      </c>
       <c r="N15" t="s">
-        <v>51</v>
-      </c>
-      <c r="O15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" s="10" t="n">
-        <v>6150566</v>
-      </c>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10" t="n">
-        <v>3414127.9019</v>
-      </c>
-      <c r="Y15" s="10" t="n">
-        <v>26851349.3203</v>
-      </c>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10" t="n">
-        <v>16986078.99</v>
-      </c>
-      <c r="AC15" s="10" t="n">
-        <v>30476526165.353</v>
+      <c r="Q15" s="13" t="n">
+        <v>1780918489.8021</v>
+      </c>
+      <c r="R15" s="13" t="n">
+        <v>1870589244.4372</v>
+      </c>
+      <c r="S15" s="13" t="n">
+        <v>1425517149.6022</v>
+      </c>
+      <c r="T15" s="13" t="n">
+        <v>1547811740.1889</v>
+      </c>
+      <c r="U15" s="13" t="n">
+        <v>1525155809.481</v>
+      </c>
+      <c r="V15" s="13" t="n">
+        <v>1797615730.0362</v>
+      </c>
+      <c r="W15" s="13" t="n">
+        <v>1466981010.2999</v>
+      </c>
+      <c r="X15" s="13" t="n">
+        <v>1663040031.821</v>
+      </c>
+      <c r="Y15" s="13" t="n">
+        <v>1456616925.0708</v>
+      </c>
+      <c r="Z15" s="13" t="n">
+        <v>1406242156.9783</v>
+      </c>
+      <c r="AA15" s="13" t="n">
+        <v>1454001946.4482</v>
+      </c>
+      <c r="AB15" s="13" t="n">
+        <v>1751420090.4863</v>
+      </c>
+      <c r="AC15" s="13" t="n">
+        <v>35988349058.3166</v>
       </c>
     </row>
     <row r="16">
@@ -4565,53 +4632,56 @@
       <c r="C16" t="str">
         <f>P16</f>
       </c>
+      <c r="M16" t="s">
+        <v>54</v>
+      </c>
       <c r="N16" t="s">
-        <v>51</v>
-      </c>
-      <c r="O16" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q16" s="10" t="n">
-        <v>393813673.1753</v>
-      </c>
-      <c r="R16" s="10" t="n">
-        <v>3287660429.3914</v>
-      </c>
-      <c r="S16" s="10" t="n">
-        <v>3107305778.9807</v>
-      </c>
-      <c r="T16" s="10" t="n">
-        <v>3249856573.3819</v>
-      </c>
-      <c r="U16" s="10" t="n">
-        <v>2887365364.8264</v>
-      </c>
-      <c r="V16" s="10" t="n">
-        <v>2676538546.1331</v>
-      </c>
-      <c r="W16" s="10" t="n">
-        <v>1634320409.3105</v>
-      </c>
-      <c r="X16" s="10" t="n">
-        <v>159453871.5408</v>
-      </c>
-      <c r="Y16" s="10" t="n">
-        <v>3098515720.6007</v>
-      </c>
-      <c r="Z16" s="10" t="n">
-        <v>1172079095.9311</v>
-      </c>
-      <c r="AA16" s="10" t="n">
-        <v>90725592.6582</v>
-      </c>
-      <c r="AB16" s="10" t="n">
-        <v>654888436.27</v>
-      </c>
-      <c r="AC16" s="10" t="n">
-        <v>29940845.3944</v>
+      <c r="Q16" s="13" t="n">
+        <v>1359025245.5778</v>
+      </c>
+      <c r="R16" s="13" t="n">
+        <v>5165694053.7589</v>
+      </c>
+      <c r="S16" s="13" t="n">
+        <v>3998953220.7139</v>
+      </c>
+      <c r="T16" s="13" t="n">
+        <v>4392316473.5491</v>
+      </c>
+      <c r="U16" s="13" t="n">
+        <v>3809904735.3333</v>
+      </c>
+      <c r="V16" s="13" t="n">
+        <v>3979520251.7166</v>
+      </c>
+      <c r="W16" s="13" t="n">
+        <v>3749443284.8297</v>
+      </c>
+      <c r="X16" s="13" t="n">
+        <v>2997010069.2525</v>
+      </c>
+      <c r="Y16" s="13" t="n">
+        <v>6337765642.2021</v>
+      </c>
+      <c r="Z16" s="13" t="n">
+        <v>4246095374.8562</v>
+      </c>
+      <c r="AA16" s="13" t="n">
+        <v>2208263159.1312</v>
+      </c>
+      <c r="AB16" s="13" t="n">
+        <v>4583984512.0708</v>
+      </c>
+      <c r="AC16" s="13" t="n">
+        <v>2179255687.4008</v>
       </c>
     </row>
     <row r="17">
@@ -4624,53 +4694,56 @@
       <c r="C17" t="str">
         <f>P17</f>
       </c>
+      <c r="M17" t="s">
+        <v>54</v>
+      </c>
       <c r="N17" t="s">
-        <v>51</v>
-      </c>
-      <c r="O17" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q17" s="10" t="n">
-        <v>106783433242.482</v>
-      </c>
-      <c r="R17" s="10" t="n">
-        <v>104003947777.216</v>
-      </c>
-      <c r="S17" s="10" t="n">
-        <v>105833721796.905</v>
-      </c>
-      <c r="T17" s="10" t="n">
-        <v>87711869907.1141</v>
-      </c>
-      <c r="U17" s="10" t="n">
-        <v>87850522066.6528</v>
-      </c>
-      <c r="V17" s="10" t="n">
-        <v>106075748192.6</v>
-      </c>
-      <c r="W17" s="10" t="n">
-        <v>112696424668.678</v>
-      </c>
-      <c r="X17" s="10" t="n">
-        <v>114033215325.259</v>
-      </c>
-      <c r="Y17" s="10" t="n">
-        <v>120745372875.093</v>
-      </c>
-      <c r="Z17" s="10" t="n">
-        <v>145237593476.072</v>
-      </c>
-      <c r="AA17" s="10" t="n">
-        <v>99748550923.8718</v>
-      </c>
-      <c r="AB17" s="10" t="n">
-        <v>109434792671.151</v>
-      </c>
-      <c r="AC17" s="10" t="n">
-        <v>141691953103.395</v>
+      <c r="Q17" s="13" t="n">
+        <v>156151795670.347</v>
+      </c>
+      <c r="R17" s="13" t="n">
+        <v>163765934363.939</v>
+      </c>
+      <c r="S17" s="13" t="n">
+        <v>157453046384.816</v>
+      </c>
+      <c r="T17" s="13" t="n">
+        <v>135316390994.563</v>
+      </c>
+      <c r="U17" s="13" t="n">
+        <v>136244299447.236</v>
+      </c>
+      <c r="V17" s="13" t="n">
+        <v>161230722686.522</v>
+      </c>
+      <c r="W17" s="13" t="n">
+        <v>174372148987.591</v>
+      </c>
+      <c r="X17" s="13" t="n">
+        <v>195667416512.582</v>
+      </c>
+      <c r="Y17" s="13" t="n">
+        <v>209215164068.52</v>
+      </c>
+      <c r="Z17" s="13" t="n">
+        <v>239662004533.005</v>
+      </c>
+      <c r="AA17" s="13" t="n">
+        <v>190766201046.54</v>
+      </c>
+      <c r="AB17" s="13" t="n">
+        <v>202940788822.312</v>
+      </c>
+      <c r="AC17" s="13" t="n">
+        <v>217761964892.162</v>
       </c>
     </row>
     <row r="18">
@@ -4683,53 +4756,56 @@
       <c r="C18" t="str">
         <f>P18</f>
       </c>
+      <c r="M18" t="s">
+        <v>18</v>
+      </c>
       <c r="N18" t="s">
-        <v>52</v>
-      </c>
-      <c r="O18" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q18" s="10" t="n">
-        <v>192264708.408</v>
-      </c>
-      <c r="R18" s="10" t="n">
-        <v>432461933.6948</v>
-      </c>
-      <c r="S18" s="10" t="n">
-        <v>22668382.75</v>
-      </c>
-      <c r="T18" s="10" t="n">
-        <v>236804941.49</v>
-      </c>
-      <c r="U18" s="10" t="n">
-        <v>542385918.79</v>
-      </c>
-      <c r="V18" s="10" t="n">
-        <v>-1934296.3824</v>
-      </c>
-      <c r="W18" s="10" t="n">
-        <v>292218906.3977</v>
-      </c>
-      <c r="X18" s="10" t="n">
-        <v>131234185.4373</v>
-      </c>
-      <c r="Y18" s="10" t="n">
-        <v>138060396.4841</v>
-      </c>
-      <c r="Z18" s="10" t="n">
-        <v>12037010.1016</v>
-      </c>
-      <c r="AA18" s="10" t="n">
-        <v>20156454.8457</v>
-      </c>
-      <c r="AB18" s="10" t="n">
-        <v>30153228.92</v>
-      </c>
-      <c r="AC18" s="10" t="n">
-        <v>77461924.1406</v>
+      <c r="Q18" s="13" t="n">
+        <v>566868.625</v>
+      </c>
+      <c r="R18" s="13" t="n">
+        <v>2744757.5625</v>
+      </c>
+      <c r="S18" s="13" t="n">
+        <v>740760.72</v>
+      </c>
+      <c r="T18" s="13" t="n">
+        <v>1661330.44</v>
+      </c>
+      <c r="U18" s="13" t="n">
+        <v>688122.1</v>
+      </c>
+      <c r="V18" s="13" t="n">
+        <v>736637.3301</v>
+      </c>
+      <c r="W18" s="13" t="n">
+        <v>762660.375</v>
+      </c>
+      <c r="X18" s="13" t="n">
+        <v>1639797.9844</v>
+      </c>
+      <c r="Y18" s="13" t="n">
+        <v>1848111.375</v>
+      </c>
+      <c r="Z18" s="13" t="n">
+        <v>92826.6719</v>
+      </c>
+      <c r="AA18" s="13" t="n">
+        <v>870345.9199</v>
+      </c>
+      <c r="AB18" s="13" t="n">
+        <v>6404705</v>
+      </c>
+      <c r="AC18" s="13" t="n">
+        <v>2401108</v>
       </c>
     </row>
     <row r="19">
@@ -4743,48 +4819,46 @@
         <f>P19</f>
       </c>
       <c r="N19" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="O19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P19" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q19" s="10" t="n">
-        <v>6718873.5595</v>
-      </c>
-      <c r="R19" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="S19" s="10" t="n">
-        <v>-958989.58</v>
-      </c>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10" t="n">
+      <c r="T19" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="V19" s="10" t="n">
-        <v>-32606.1309</v>
-      </c>
-      <c r="W19" s="10" t="n">
-        <v>3144852</v>
-      </c>
-      <c r="X19" s="10" t="n">
-        <v>248186905.5469</v>
-      </c>
-      <c r="Y19" s="10" t="n">
+      <c r="U19" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="10" t="n">
-        <v>895606920.8759</v>
+      <c r="V19" s="13" t="n">
+        <v>6730011.1796</v>
+      </c>
+      <c r="W19" s="13" t="n">
+        <v>14777288.3492</v>
+      </c>
+      <c r="X19" s="13" t="n">
+        <v>8463297.5</v>
+      </c>
+      <c r="Y19" s="13" t="n">
+        <v>48401939.9766</v>
+      </c>
+      <c r="Z19" s="13" t="n">
+        <v>555936.4889</v>
+      </c>
+      <c r="AA19" s="13" t="n">
+        <v>17967873.6832</v>
+      </c>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13" t="n">
+        <v>608168.3125</v>
       </c>
     </row>
     <row r="20">
@@ -4798,52 +4872,52 @@
         <f>P20</f>
       </c>
       <c r="N20" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="O20" t="s">
         <v>48</v>
       </c>
       <c r="P20" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q20" s="10" t="n">
-        <v>3757906313.2917</v>
-      </c>
-      <c r="R20" s="10" t="n">
-        <v>2636339228.5612</v>
-      </c>
-      <c r="S20" s="10" t="n">
-        <v>2406536339.1238</v>
-      </c>
-      <c r="T20" s="10" t="n">
-        <v>1545107607.9249</v>
-      </c>
-      <c r="U20" s="10" t="n">
-        <v>2410360406.7891</v>
-      </c>
-      <c r="V20" s="10" t="n">
-        <v>1883983110.1706</v>
-      </c>
-      <c r="W20" s="10" t="n">
-        <v>1346873110.2192</v>
-      </c>
-      <c r="X20" s="10" t="n">
-        <v>1436016468.073</v>
-      </c>
-      <c r="Y20" s="10" t="n">
-        <v>1654854961.5217</v>
-      </c>
-      <c r="Z20" s="10" t="n">
-        <v>2055156640.7001</v>
-      </c>
-      <c r="AA20" s="10" t="n">
-        <v>1661914171.7771</v>
-      </c>
-      <c r="AB20" s="10" t="n">
-        <v>1925714022.7309</v>
-      </c>
-      <c r="AC20" s="10" t="n">
-        <v>4272278283.2849</v>
+        <v>43</v>
+      </c>
+      <c r="Q20" s="13" t="n">
+        <v>465110922.9134</v>
+      </c>
+      <c r="R20" s="13" t="n">
+        <v>326628729.6539</v>
+      </c>
+      <c r="S20" s="13" t="n">
+        <v>205092408.93</v>
+      </c>
+      <c r="T20" s="13" t="n">
+        <v>253019515.28</v>
+      </c>
+      <c r="U20" s="13" t="n">
+        <v>124594107.6519</v>
+      </c>
+      <c r="V20" s="13" t="n">
+        <v>187804273.1566</v>
+      </c>
+      <c r="W20" s="13" t="n">
+        <v>125983398.2189</v>
+      </c>
+      <c r="X20" s="13" t="n">
+        <v>141268312.7166</v>
+      </c>
+      <c r="Y20" s="13" t="n">
+        <v>313186482.6124</v>
+      </c>
+      <c r="Z20" s="13" t="n">
+        <v>332401939.5916</v>
+      </c>
+      <c r="AA20" s="13" t="n">
+        <v>298326767.0599</v>
+      </c>
+      <c r="AB20" s="13" t="n">
+        <v>340466689.9108</v>
+      </c>
+      <c r="AC20" s="13" t="n">
+        <v>643485539.1533</v>
       </c>
     </row>
     <row r="21">
@@ -4860,49 +4934,49 @@
         <v>52</v>
       </c>
       <c r="O21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q21" s="10" t="n">
-        <v>51354466322.6604</v>
-      </c>
-      <c r="R21" s="10" t="n">
-        <v>32114335582.8993</v>
-      </c>
-      <c r="S21" s="10" t="n">
-        <v>18464821201.5684</v>
-      </c>
-      <c r="T21" s="10" t="n">
-        <v>15706623765.3846</v>
-      </c>
-      <c r="U21" s="10" t="n">
-        <v>11779005247.0793</v>
-      </c>
-      <c r="V21" s="10" t="n">
-        <v>10369543913.5652</v>
-      </c>
-      <c r="W21" s="10" t="n">
-        <v>12015301289.7076</v>
-      </c>
-      <c r="X21" s="10" t="n">
-        <v>11427344317.9634</v>
-      </c>
-      <c r="Y21" s="10" t="n">
-        <v>10571830253.142</v>
-      </c>
-      <c r="Z21" s="10" t="n">
-        <v>12306212490.5607</v>
-      </c>
-      <c r="AA21" s="10" t="n">
-        <v>12001138243.7793</v>
-      </c>
-      <c r="AB21" s="10" t="n">
-        <v>11350493204.7078</v>
-      </c>
-      <c r="AC21" s="10" t="n">
-        <v>25802452076.2754</v>
+        <v>40</v>
+      </c>
+      <c r="Q21" s="13" t="n">
+        <v>192264708.408</v>
+      </c>
+      <c r="R21" s="13" t="n">
+        <v>432461933.6948</v>
+      </c>
+      <c r="S21" s="13" t="n">
+        <v>22668382.75</v>
+      </c>
+      <c r="T21" s="13" t="n">
+        <v>236804941.49</v>
+      </c>
+      <c r="U21" s="13" t="n">
+        <v>542385918.79</v>
+      </c>
+      <c r="V21" s="13" t="n">
+        <v>-1934296.3824</v>
+      </c>
+      <c r="W21" s="13" t="n">
+        <v>292218906.3977</v>
+      </c>
+      <c r="X21" s="13" t="n">
+        <v>131234185.4373</v>
+      </c>
+      <c r="Y21" s="13" t="n">
+        <v>138060396.4841</v>
+      </c>
+      <c r="Z21" s="13" t="n">
+        <v>12037010.1016</v>
+      </c>
+      <c r="AA21" s="13" t="n">
+        <v>20156454.8457</v>
+      </c>
+      <c r="AB21" s="13" t="n">
+        <v>29953228.92</v>
+      </c>
+      <c r="AC21" s="13" t="n">
+        <v>77461924.1406</v>
       </c>
     </row>
     <row r="22">
@@ -4916,52 +4990,48 @@
         <f>P22</f>
       </c>
       <c r="N22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O22" t="s">
         <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q22" s="10" t="n">
-        <v>4425107227.7587</v>
-      </c>
-      <c r="R22" s="10" t="n">
-        <v>3962831442.5708</v>
-      </c>
-      <c r="S22" s="10" t="n">
-        <v>3202944557.4473</v>
-      </c>
-      <c r="T22" s="10" t="n">
-        <v>3488051907.5564</v>
-      </c>
-      <c r="U22" s="10" t="n">
-        <v>3280926303.2784</v>
-      </c>
-      <c r="V22" s="10" t="n">
-        <v>3958340781.6881</v>
-      </c>
-      <c r="W22" s="10" t="n">
-        <v>4920771484.3378</v>
-      </c>
-      <c r="X22" s="10" t="n">
-        <v>5406722809.252</v>
-      </c>
-      <c r="Y22" s="10" t="n">
-        <v>5927488790.9079</v>
-      </c>
-      <c r="Z22" s="10" t="n">
-        <v>5960984263.7452</v>
-      </c>
-      <c r="AA22" s="10" t="n">
-        <v>6512727881.1656</v>
-      </c>
-      <c r="AB22" s="10" t="n">
-        <v>6059493127.5386</v>
-      </c>
-      <c r="AC22" s="10" t="n">
-        <v>7900249939.7072</v>
+        <v>43</v>
+      </c>
+      <c r="Q22" s="13" t="n">
+        <v>6718873.5595</v>
+      </c>
+      <c r="R22" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" s="13" t="n">
+        <v>-958989.58</v>
+      </c>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" s="13" t="n">
+        <v>-32606.1309</v>
+      </c>
+      <c r="W22" s="13" t="n">
+        <v>3144852</v>
+      </c>
+      <c r="X22" s="13" t="n">
+        <v>248186905.5469</v>
+      </c>
+      <c r="Y22" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="13" t="n">
+        <v>895606920.8759</v>
       </c>
     </row>
     <row r="23">
@@ -4975,52 +5045,52 @@
         <f>P23</f>
       </c>
       <c r="N23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O23" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P23" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q23" s="10" t="n">
-        <v>3191466177.7319</v>
-      </c>
-      <c r="R23" s="10" t="n">
-        <v>3479345449.3617</v>
-      </c>
-      <c r="S23" s="10" t="n">
-        <v>3406929744.1152</v>
-      </c>
-      <c r="T23" s="10" t="n">
-        <v>3932306764.9022</v>
-      </c>
-      <c r="U23" s="10" t="n">
-        <v>4500876662.2918</v>
-      </c>
-      <c r="V23" s="10" t="n">
-        <v>4555904080.8527</v>
-      </c>
-      <c r="W23" s="10" t="n">
-        <v>4178803349.9699</v>
-      </c>
-      <c r="X23" s="10" t="n">
-        <v>6240951985.7929</v>
-      </c>
-      <c r="Y23" s="10" t="n">
-        <v>5965153762.7743</v>
-      </c>
-      <c r="Z23" s="10" t="n">
-        <v>6110465953.7997</v>
-      </c>
-      <c r="AA23" s="10" t="n">
-        <v>5375707080.6002</v>
-      </c>
-      <c r="AB23" s="10" t="n">
-        <v>5629176070.1037</v>
-      </c>
-      <c r="AC23" s="10" t="n">
-        <v>5929818476.1164</v>
+        <v>40</v>
+      </c>
+      <c r="Q23" s="13" t="n">
+        <v>3757906313.2917</v>
+      </c>
+      <c r="R23" s="13" t="n">
+        <v>2636339228.5612</v>
+      </c>
+      <c r="S23" s="13" t="n">
+        <v>2406536339.1238</v>
+      </c>
+      <c r="T23" s="13" t="n">
+        <v>1545107607.9249</v>
+      </c>
+      <c r="U23" s="13" t="n">
+        <v>2410360406.7891</v>
+      </c>
+      <c r="V23" s="13" t="n">
+        <v>1883751673.2956</v>
+      </c>
+      <c r="W23" s="13" t="n">
+        <v>1337804888.0692</v>
+      </c>
+      <c r="X23" s="13" t="n">
+        <v>1427553170.573</v>
+      </c>
+      <c r="Y23" s="13" t="n">
+        <v>1612935761.7717</v>
+      </c>
+      <c r="Z23" s="13" t="n">
+        <v>2055156640.7001</v>
+      </c>
+      <c r="AA23" s="13" t="n">
+        <v>1646914171.7771</v>
+      </c>
+      <c r="AB23" s="13" t="n">
+        <v>1925714022.7309</v>
+      </c>
+      <c r="AC23" s="13" t="n">
+        <v>4271670114.9724</v>
       </c>
     </row>
     <row r="24">
@@ -5034,52 +5104,52 @@
         <f>P24</f>
       </c>
       <c r="N24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O24" t="s">
         <v>48</v>
       </c>
       <c r="P24" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q24" s="10" t="n">
-        <v>794195198.8022</v>
-      </c>
-      <c r="R24" s="10" t="n">
-        <v>1055643084.9143</v>
-      </c>
-      <c r="S24" s="10" t="n">
-        <v>429012850.4623</v>
-      </c>
-      <c r="T24" s="10" t="n">
-        <v>593088220.4382</v>
-      </c>
-      <c r="U24" s="10" t="n">
-        <v>432845436.345</v>
-      </c>
-      <c r="V24" s="10" t="n">
-        <v>645026081.2136</v>
-      </c>
-      <c r="W24" s="10" t="n">
-        <v>612327824.4233</v>
-      </c>
-      <c r="X24" s="10" t="n">
-        <v>1252058160.4283</v>
-      </c>
-      <c r="Y24" s="10" t="n">
-        <v>1116077742.9438</v>
-      </c>
-      <c r="Z24" s="10" t="n">
-        <v>1021776987.1148</v>
-      </c>
-      <c r="AA24" s="10" t="n">
-        <v>639302205.4735</v>
-      </c>
-      <c r="AB24" s="10" t="n">
-        <v>731188429.4337</v>
-      </c>
-      <c r="AC24" s="10" t="n">
-        <v>747129127.7341</v>
+        <v>43</v>
+      </c>
+      <c r="Q24" s="13" t="n">
+        <v>51019100108.8074</v>
+      </c>
+      <c r="R24" s="13" t="n">
+        <v>31871614799.3289</v>
+      </c>
+      <c r="S24" s="13" t="n">
+        <v>18343893566.3884</v>
+      </c>
+      <c r="T24" s="13" t="n">
+        <v>15570162851.9346</v>
+      </c>
+      <c r="U24" s="13" t="n">
+        <v>11724223835.7693</v>
+      </c>
+      <c r="V24" s="13" t="n">
+        <v>10282135886.8852</v>
+      </c>
+      <c r="W24" s="13" t="n">
+        <v>11975527320.6364</v>
+      </c>
+      <c r="X24" s="13" t="n">
+        <v>11391094332.899</v>
+      </c>
+      <c r="Y24" s="13" t="n">
+        <v>10488589097.8683</v>
+      </c>
+      <c r="Z24" s="13" t="n">
+        <v>12205328030.7975</v>
+      </c>
+      <c r="AA24" s="13" t="n">
+        <v>11935398072.6335</v>
+      </c>
+      <c r="AB24" s="13" t="n">
+        <v>11322813008.8678</v>
+      </c>
+      <c r="AC24" s="13" t="n">
+        <v>25240507801.2466</v>
       </c>
     </row>
     <row r="25">
@@ -5096,49 +5166,49 @@
         <v>53</v>
       </c>
       <c r="O25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q25" s="10" t="n">
-        <v>13652779190.6653</v>
-      </c>
-      <c r="R25" s="10" t="n">
-        <v>11905943264.1201</v>
-      </c>
-      <c r="S25" s="10" t="n">
-        <v>10379837127.8528</v>
-      </c>
-      <c r="T25" s="10" t="n">
-        <v>9918189455.0846</v>
-      </c>
-      <c r="U25" s="10" t="n">
-        <v>9306143975.6782</v>
-      </c>
-      <c r="V25" s="10" t="n">
-        <v>9726868843.0877</v>
-      </c>
-      <c r="W25" s="10" t="n">
-        <v>10352249865.777</v>
-      </c>
-      <c r="X25" s="10" t="n">
-        <v>11715625015.265</v>
-      </c>
-      <c r="Y25" s="10" t="n">
-        <v>11859365618.0065</v>
-      </c>
-      <c r="Z25" s="10" t="n">
-        <v>11001633806.4655</v>
-      </c>
-      <c r="AA25" s="10" t="n">
-        <v>10393854959.8105</v>
-      </c>
-      <c r="AB25" s="10" t="n">
-        <v>10820367894.7861</v>
-      </c>
-      <c r="AC25" s="10" t="n">
-        <v>11812353223.2147</v>
+        <v>40</v>
+      </c>
+      <c r="Q25" s="13" t="n">
+        <v>4155345142.6165</v>
+      </c>
+      <c r="R25" s="13" t="n">
+        <v>3780309904.407</v>
+      </c>
+      <c r="S25" s="13" t="n">
+        <v>3134498156.5773</v>
+      </c>
+      <c r="T25" s="13" t="n">
+        <v>3434135993.742</v>
+      </c>
+      <c r="U25" s="13" t="n">
+        <v>3221896364.8284</v>
+      </c>
+      <c r="V25" s="13" t="n">
+        <v>3904947813.0973</v>
+      </c>
+      <c r="W25" s="13" t="n">
+        <v>4859255381.0139</v>
+      </c>
+      <c r="X25" s="13" t="n">
+        <v>5357660292.0929</v>
+      </c>
+      <c r="Y25" s="13" t="n">
+        <v>5880923664.0743</v>
+      </c>
+      <c r="Z25" s="13" t="n">
+        <v>5956682767.94</v>
+      </c>
+      <c r="AA25" s="13" t="n">
+        <v>6502683225.7105</v>
+      </c>
+      <c r="AB25" s="13" t="n">
+        <v>6037968318.0092</v>
+      </c>
+      <c r="AC25" s="13" t="n">
+        <v>7892312416.3985</v>
       </c>
     </row>
     <row r="26">
@@ -5152,52 +5222,52 @@
         <f>P26</f>
       </c>
       <c r="N26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O26" t="s">
         <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q26" s="10" t="n">
-        <v>566142555.4208</v>
-      </c>
-      <c r="R26" s="10" t="n">
-        <v>435766872.5077</v>
-      </c>
-      <c r="S26" s="10" t="n">
-        <v>209284093.4445</v>
-      </c>
-      <c r="T26" s="10" t="n">
-        <v>251278211.2131</v>
-      </c>
-      <c r="U26" s="10" t="n">
-        <v>235751099.2538</v>
-      </c>
-      <c r="V26" s="10" t="n">
-        <v>194402020.6435</v>
-      </c>
-      <c r="W26" s="10" t="n">
-        <v>152884836.0763</v>
-      </c>
-      <c r="X26" s="10" t="n">
-        <v>183624001.902</v>
-      </c>
-      <c r="Y26" s="10" t="n">
-        <v>252852819.0971</v>
-      </c>
-      <c r="Z26" s="10" t="n">
-        <v>143103158.0568</v>
-      </c>
-      <c r="AA26" s="10" t="n">
-        <v>92272452.9757</v>
-      </c>
-      <c r="AB26" s="10" t="n">
-        <v>91164822.42</v>
-      </c>
-      <c r="AC26" s="10" t="n">
-        <v>539862023.8513</v>
+        <v>43</v>
+      </c>
+      <c r="Q26" s="13" t="n">
+        <v>2336264428.3299</v>
+      </c>
+      <c r="R26" s="13" t="n">
+        <v>2518158419.0719</v>
+      </c>
+      <c r="S26" s="13" t="n">
+        <v>2667841782.2859</v>
+      </c>
+      <c r="T26" s="13" t="n">
+        <v>3065056373.78</v>
+      </c>
+      <c r="U26" s="13" t="n">
+        <v>3581946759.9662</v>
+      </c>
+      <c r="V26" s="13" t="n">
+        <v>3543175256.3549</v>
+      </c>
+      <c r="W26" s="13" t="n">
+        <v>3267773533.1762</v>
+      </c>
+      <c r="X26" s="13" t="n">
+        <v>5240083219.9484</v>
+      </c>
+      <c r="Y26" s="13" t="n">
+        <v>5048601648.6943</v>
+      </c>
+      <c r="Z26" s="13" t="n">
+        <v>5274474508.0714</v>
+      </c>
+      <c r="AA26" s="13" t="n">
+        <v>4355524090.5315</v>
+      </c>
+      <c r="AB26" s="13" t="n">
+        <v>4714377177.6137</v>
+      </c>
+      <c r="AC26" s="13" t="n">
+        <v>4480358111.3698</v>
       </c>
     </row>
     <row r="27">
@@ -5211,52 +5281,52 @@
         <f>P27</f>
       </c>
       <c r="N27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P27" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q27" s="10" t="n">
-        <v>155294748.9876</v>
-      </c>
-      <c r="R27" s="10" t="n">
-        <v>128542215.1719</v>
-      </c>
-      <c r="S27" s="10" t="n">
-        <v>63176245.83</v>
-      </c>
-      <c r="T27" s="10" t="n">
-        <v>91340616.04</v>
-      </c>
-      <c r="U27" s="10" t="n">
-        <v>63196411.41</v>
-      </c>
-      <c r="V27" s="10" t="n">
-        <v>70051809.5925</v>
-      </c>
-      <c r="W27" s="10" t="n">
-        <v>44974804.3729</v>
-      </c>
-      <c r="X27" s="10" t="n">
-        <v>78638020.943</v>
-      </c>
-      <c r="Y27" s="10" t="n">
-        <v>61863226.6998</v>
-      </c>
-      <c r="Z27" s="10" t="n">
-        <v>90495702.3871</v>
-      </c>
-      <c r="AA27" s="10" t="n">
-        <v>74385576.5232</v>
-      </c>
-      <c r="AB27" s="10" t="n">
-        <v>72102200.76</v>
-      </c>
-      <c r="AC27" s="10" t="n">
-        <v>129346041.3345</v>
+        <v>40</v>
+      </c>
+      <c r="Q27" s="13" t="n">
+        <v>782727152.7794</v>
+      </c>
+      <c r="R27" s="13" t="n">
+        <v>1047041842.4713</v>
+      </c>
+      <c r="S27" s="13" t="n">
+        <v>421366307.1128</v>
+      </c>
+      <c r="T27" s="13" t="n">
+        <v>587128464.2382</v>
+      </c>
+      <c r="U27" s="13" t="n">
+        <v>422265655.455</v>
+      </c>
+      <c r="V27" s="13" t="n">
+        <v>624974653.3533</v>
+      </c>
+      <c r="W27" s="13" t="n">
+        <v>604655720.9839</v>
+      </c>
+      <c r="X27" s="13" t="n">
+        <v>1246339744.0352</v>
+      </c>
+      <c r="Y27" s="13" t="n">
+        <v>1092908586.7874</v>
+      </c>
+      <c r="Z27" s="13" t="n">
+        <v>1002362522.5458</v>
+      </c>
+      <c r="AA27" s="13" t="n">
+        <v>634695262.5169</v>
+      </c>
+      <c r="AB27" s="13" t="n">
+        <v>729716248.4337</v>
+      </c>
+      <c r="AC27" s="13" t="n">
+        <v>719010053.9841</v>
       </c>
     </row>
     <row r="28">
@@ -5270,52 +5340,52 @@
         <f>P28</f>
       </c>
       <c r="N28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O28" t="s">
         <v>48</v>
       </c>
       <c r="P28" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q28" s="10" t="n">
-        <v>538673324.8454</v>
-      </c>
-      <c r="R28" s="10" t="n">
-        <v>132005371.4878</v>
-      </c>
-      <c r="S28" s="10" t="n">
-        <v>190654254.0663</v>
-      </c>
-      <c r="T28" s="10" t="n">
-        <v>104461074.5923</v>
-      </c>
-      <c r="U28" s="10" t="n">
-        <v>117252511.7294</v>
-      </c>
-      <c r="V28" s="10" t="n">
-        <v>276715200.3364</v>
-      </c>
-      <c r="W28" s="10" t="n">
-        <v>83094992.6849</v>
-      </c>
-      <c r="X28" s="10" t="n">
-        <v>95836781.4981</v>
-      </c>
-      <c r="Y28" s="10" t="n">
-        <v>164604608.9051</v>
-      </c>
-      <c r="Z28" s="10" t="n">
-        <v>140186168.8601</v>
-      </c>
-      <c r="AA28" s="10" t="n">
-        <v>171298440.2363</v>
-      </c>
-      <c r="AB28" s="10" t="n">
-        <v>158093820.7587</v>
-      </c>
-      <c r="AC28" s="10" t="n">
-        <v>1179498841.4085</v>
+        <v>43</v>
+      </c>
+      <c r="Q28" s="13" t="n">
+        <v>11625871048.1622</v>
+      </c>
+      <c r="R28" s="13" t="n">
+        <v>10705165300.0627</v>
+      </c>
+      <c r="S28" s="13" t="n">
+        <v>9314890607.8811</v>
+      </c>
+      <c r="T28" s="13" t="n">
+        <v>9049572617.4155</v>
+      </c>
+      <c r="U28" s="13" t="n">
+        <v>8395769120.2479</v>
+      </c>
+      <c r="V28" s="13" t="n">
+        <v>8699923723.1631</v>
+      </c>
+      <c r="W28" s="13" t="n">
+        <v>9333199107.132</v>
+      </c>
+      <c r="X28" s="13" t="n">
+        <v>10696637820.5231</v>
+      </c>
+      <c r="Y28" s="13" t="n">
+        <v>10959958824.1943</v>
+      </c>
+      <c r="Z28" s="13" t="n">
+        <v>10190699434.101</v>
+      </c>
+      <c r="AA28" s="13" t="n">
+        <v>9684906209.4767</v>
+      </c>
+      <c r="AB28" s="13" t="n">
+        <v>10023739383.9481</v>
+      </c>
+      <c r="AC28" s="13" t="n">
+        <v>6548339882.649</v>
       </c>
     </row>
     <row r="29">
@@ -5332,49 +5402,49 @@
         <v>54</v>
       </c>
       <c r="O29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P29" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q29" s="10" t="n">
-        <v>2077452986.4462</v>
-      </c>
-      <c r="R29" s="10" t="n">
-        <v>1738367445.8457</v>
-      </c>
-      <c r="S29" s="10" t="n">
-        <v>1018069441.8724</v>
-      </c>
-      <c r="T29" s="10" t="n">
-        <v>875599701.7663</v>
-      </c>
-      <c r="U29" s="10" t="n">
-        <v>621238211.4469</v>
-      </c>
-      <c r="V29" s="10" t="n">
-        <v>580884746.3038</v>
-      </c>
-      <c r="W29" s="10" t="n">
-        <v>706072321.3118</v>
-      </c>
-      <c r="X29" s="10" t="n">
-        <v>651249719.9328</v>
-      </c>
-      <c r="Y29" s="10" t="n">
-        <v>833061764.7372</v>
-      </c>
-      <c r="Z29" s="10" t="n">
-        <v>711390378.375</v>
-      </c>
-      <c r="AA29" s="10" t="n">
-        <v>311963667.4951</v>
-      </c>
-      <c r="AB29" s="10" t="n">
-        <v>387556420.6569</v>
-      </c>
-      <c r="AC29" s="10" t="n">
-        <v>1654019811.481</v>
+        <v>40</v>
+      </c>
+      <c r="Q29" s="13" t="n">
+        <v>566142555.4208</v>
+      </c>
+      <c r="R29" s="13" t="n">
+        <v>435766872.5077</v>
+      </c>
+      <c r="S29" s="13" t="n">
+        <v>209284093.4445</v>
+      </c>
+      <c r="T29" s="13" t="n">
+        <v>251278211.2131</v>
+      </c>
+      <c r="U29" s="13" t="n">
+        <v>235751099.2538</v>
+      </c>
+      <c r="V29" s="13" t="n">
+        <v>194402020.6435</v>
+      </c>
+      <c r="W29" s="13" t="n">
+        <v>152884836.0763</v>
+      </c>
+      <c r="X29" s="13" t="n">
+        <v>183624001.902</v>
+      </c>
+      <c r="Y29" s="13" t="n">
+        <v>252852819.0971</v>
+      </c>
+      <c r="Z29" s="13" t="n">
+        <v>143103158.0568</v>
+      </c>
+      <c r="AA29" s="13" t="n">
+        <v>92272452.9757</v>
+      </c>
+      <c r="AB29" s="13" t="n">
+        <v>91164822.42</v>
+      </c>
+      <c r="AC29" s="13" t="n">
+        <v>539862023.8513</v>
       </c>
     </row>
     <row r="30">
@@ -5387,51 +5457,53 @@
       <c r="C30" t="str">
         <f>P30</f>
       </c>
-      <c r="N30"/>
+      <c r="N30" t="s">
+        <v>54</v>
+      </c>
       <c r="O30" t="s">
         <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q30" s="10" t="n">
-        <v>354954765.8906</v>
-      </c>
-      <c r="R30" s="10" t="n">
-        <v>51566753.3135</v>
-      </c>
-      <c r="S30" s="10" t="n">
-        <v>71756198.76</v>
-      </c>
-      <c r="T30" s="10" t="n">
-        <v>40675312.02</v>
-      </c>
-      <c r="U30" s="10" t="n">
-        <v>183219728.3</v>
-      </c>
-      <c r="V30" s="10" t="n">
-        <v>735800778.386</v>
-      </c>
-      <c r="W30" s="10" t="n">
-        <v>1645570749.3881</v>
-      </c>
-      <c r="X30" s="10" t="n">
-        <v>253443897.8863</v>
-      </c>
-      <c r="Y30" s="10" t="n">
-        <v>385444545.4482</v>
-      </c>
-      <c r="Z30" s="10" t="n">
-        <v>826644206.2089</v>
-      </c>
-      <c r="AA30" s="10" t="n">
-        <v>304556484.2488</v>
-      </c>
-      <c r="AB30" s="10" t="n">
-        <v>809358463.847</v>
-      </c>
-      <c r="AC30" s="10" t="n">
-        <v>990944.9688</v>
+        <v>43</v>
+      </c>
+      <c r="Q30" s="13" t="n">
+        <v>155294748.9876</v>
+      </c>
+      <c r="R30" s="13" t="n">
+        <v>128542215.1719</v>
+      </c>
+      <c r="S30" s="13" t="n">
+        <v>63176245.83</v>
+      </c>
+      <c r="T30" s="13" t="n">
+        <v>91340616.04</v>
+      </c>
+      <c r="U30" s="13" t="n">
+        <v>63196411.41</v>
+      </c>
+      <c r="V30" s="13" t="n">
+        <v>70051809.5925</v>
+      </c>
+      <c r="W30" s="13" t="n">
+        <v>44974804.3729</v>
+      </c>
+      <c r="X30" s="13" t="n">
+        <v>78638020.943</v>
+      </c>
+      <c r="Y30" s="13" t="n">
+        <v>61863226.6998</v>
+      </c>
+      <c r="Z30" s="13" t="n">
+        <v>90495702.3871</v>
+      </c>
+      <c r="AA30" s="13" t="n">
+        <v>74385576.5232</v>
+      </c>
+      <c r="AB30" s="13" t="n">
+        <v>72102200.76</v>
+      </c>
+      <c r="AC30" s="13" t="n">
+        <v>129346041.3345</v>
       </c>
     </row>
     <row r="31">
@@ -5444,43 +5516,53 @@
       <c r="C31" t="str">
         <f>P31</f>
       </c>
-      <c r="N31"/>
+      <c r="N31" t="s">
+        <v>54</v>
+      </c>
       <c r="O31" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P31" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q31" s="10" t="n">
-        <v>70634523</v>
-      </c>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10" t="n">
-        <v>1575031.71</v>
-      </c>
-      <c r="V31" s="10" t="n">
-        <v>63355803.9375</v>
-      </c>
-      <c r="W31" s="10" t="n">
-        <v>1820820.2345</v>
-      </c>
-      <c r="X31" s="10" t="n">
-        <v>7160491.336</v>
-      </c>
-      <c r="Y31" s="10" t="n">
-        <v>32146325.8999</v>
-      </c>
-      <c r="Z31" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="10" t="n">
-        <v>19793650.6724</v>
-      </c>
-      <c r="AC31" s="10" t="n">
-        <v>2254817987.9452</v>
+        <v>40</v>
+      </c>
+      <c r="Q31" s="13" t="n">
+        <v>538673324.8454</v>
+      </c>
+      <c r="R31" s="13" t="n">
+        <v>132005371.4878</v>
+      </c>
+      <c r="S31" s="13" t="n">
+        <v>190654254.0663</v>
+      </c>
+      <c r="T31" s="13" t="n">
+        <v>104461074.5923</v>
+      </c>
+      <c r="U31" s="13" t="n">
+        <v>117252511.7294</v>
+      </c>
+      <c r="V31" s="13" t="n">
+        <v>276715200.3364</v>
+      </c>
+      <c r="W31" s="13" t="n">
+        <v>83094992.6849</v>
+      </c>
+      <c r="X31" s="13" t="n">
+        <v>95836781.4981</v>
+      </c>
+      <c r="Y31" s="13" t="n">
+        <v>164604608.9051</v>
+      </c>
+      <c r="Z31" s="13" t="n">
+        <v>140186168.8601</v>
+      </c>
+      <c r="AA31" s="13" t="n">
+        <v>171298440.2363</v>
+      </c>
+      <c r="AB31" s="13" t="n">
+        <v>158093820.7587</v>
+      </c>
+      <c r="AC31" s="13" t="n">
+        <v>1179498841.4085</v>
       </c>
     </row>
     <row r="32">
@@ -5493,51 +5575,53 @@
       <c r="C32" t="str">
         <f>P32</f>
       </c>
-      <c r="N32"/>
+      <c r="N32" t="s">
+        <v>54</v>
+      </c>
       <c r="O32" t="s">
         <v>48</v>
       </c>
       <c r="P32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q32" s="10" t="n">
-        <v>861075490.9504</v>
-      </c>
-      <c r="R32" s="10" t="n">
-        <v>1843989278.6916</v>
-      </c>
-      <c r="S32" s="10" t="n">
-        <v>880853387.2137</v>
-      </c>
-      <c r="T32" s="10" t="n">
-        <v>1048260892.5972</v>
-      </c>
-      <c r="U32" s="10" t="n">
-        <v>905587662.737</v>
-      </c>
-      <c r="V32" s="10" t="n">
-        <v>1069959538.6223</v>
-      </c>
-      <c r="W32" s="10" t="n">
-        <v>2100905134.3915</v>
-      </c>
-      <c r="X32" s="10" t="n">
-        <v>2821348753.4105</v>
-      </c>
-      <c r="Y32" s="10" t="n">
-        <v>3129387877.8469</v>
-      </c>
-      <c r="Z32" s="10" t="n">
-        <v>2739695960.4673</v>
-      </c>
-      <c r="AA32" s="10" t="n">
-        <v>2153808500.9717</v>
-      </c>
-      <c r="AB32" s="10" t="n">
-        <v>3766788651.0708</v>
-      </c>
-      <c r="AC32" s="10" t="n">
-        <v>2075529995.4966</v>
+        <v>43</v>
+      </c>
+      <c r="Q32" s="13" t="n">
+        <v>2077452986.4462</v>
+      </c>
+      <c r="R32" s="13" t="n">
+        <v>1738367445.8457</v>
+      </c>
+      <c r="S32" s="13" t="n">
+        <v>1018069441.8724</v>
+      </c>
+      <c r="T32" s="13" t="n">
+        <v>875599701.7663</v>
+      </c>
+      <c r="U32" s="13" t="n">
+        <v>621238211.4469</v>
+      </c>
+      <c r="V32" s="13" t="n">
+        <v>580884746.3038</v>
+      </c>
+      <c r="W32" s="13" t="n">
+        <v>706072321.3118</v>
+      </c>
+      <c r="X32" s="13" t="n">
+        <v>651249719.9328</v>
+      </c>
+      <c r="Y32" s="13" t="n">
+        <v>833061764.7372</v>
+      </c>
+      <c r="Z32" s="13" t="n">
+        <v>711390378.375</v>
+      </c>
+      <c r="AA32" s="13" t="n">
+        <v>311963667.4951</v>
+      </c>
+      <c r="AB32" s="13" t="n">
+        <v>387556420.6569</v>
+      </c>
+      <c r="AC32" s="13" t="n">
+        <v>1654019811.481</v>
       </c>
     </row>
     <row r="33">
@@ -5550,50 +5634,52 @@
       <c r="C33" t="str">
         <f>P33</f>
       </c>
-      <c r="N33"/>
+      <c r="N33" t="s">
+        <v>18</v>
+      </c>
       <c r="O33" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="P33" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q33" s="10" t="n">
-        <v>42241319957.0522</v>
-      </c>
-      <c r="R33" s="10" t="n">
-        <v>54795968154.2011</v>
-      </c>
-      <c r="S33" s="10" t="n">
-        <v>46972259182.0756</v>
-      </c>
-      <c r="T33" s="10" t="n">
-        <v>43996224201.6481</v>
-      </c>
-      <c r="U33" s="10" t="n">
-        <v>44073300353.5503</v>
-      </c>
-      <c r="V33" s="10" t="n">
-        <v>50579000634.7469</v>
-      </c>
-      <c r="W33" s="10" t="n">
-        <v>56622480358.1516</v>
-      </c>
-      <c r="X33" s="10" t="n">
-        <v>76063774747.8915</v>
-      </c>
-      <c r="Y33" s="10" t="n">
-        <v>80280901905.5818</v>
-      </c>
-      <c r="Z33" s="10" t="n">
-        <v>86898560500.9122</v>
-      </c>
-      <c r="AA33" s="10" t="n">
-        <v>85405082918.6524</v>
-      </c>
-      <c r="AB33" s="10" t="n">
-        <v>86705034938.3876</v>
-      </c>
-      <c r="AC33" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q33" s="13" t="str">
+        <f>Sum(Q2:Q32)</f>
+      </c>
+      <c r="R33" s="13" t="str">
+        <f>Sum(R2:R32)</f>
+      </c>
+      <c r="S33" s="13" t="str">
+        <f>Sum(S2:S32)</f>
+      </c>
+      <c r="T33" s="13" t="str">
+        <f>Sum(T2:T32)</f>
+      </c>
+      <c r="U33" s="13" t="str">
+        <f>Sum(U2:U32)</f>
+      </c>
+      <c r="V33" s="13" t="str">
+        <f>Sum(V2:V32)</f>
+      </c>
+      <c r="W33" s="13" t="str">
+        <f>Sum(W2:W32)</f>
+      </c>
+      <c r="X33" s="13" t="str">
+        <f>Sum(X2:X32)</f>
+      </c>
+      <c r="Y33" s="13" t="str">
+        <f>Sum(Y2:Y32)</f>
+      </c>
+      <c r="Z33" s="13" t="str">
+        <f>Sum(Z2:Z32)</f>
+      </c>
+      <c r="AA33" s="13" t="str">
+        <f>Sum(AA2:AA32)</f>
+      </c>
+      <c r="AB33" s="13" t="str">
+        <f>Sum(AB2:AB32)</f>
+      </c>
+      <c r="AC33" s="13" t="n">
         <v>57206260748.585</v>
       </c>
     </row>

--- a/Output/AcqTrends/CSIS_DoD_DIB_Trends.xlsx
+++ b/Output/AcqTrends/CSIS_DoD_DIB_Trends.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">LargestContract2018dollars</t>
   </si>
@@ -202,12 +202,18 @@
   <si>
     <t xml:space="preserve">Other Exemption</t>
   </si>
+  <si>
+    <t xml:space="preserve">Cost Accounting Standards Imputed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost Accounting Standards Labeled</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="14">
     <numFmt numFmtId="169" formatCode="0.00,&quot;K&quot;"/>
     <numFmt numFmtId="235" formatCode="0.00,&quot;K&quot;"/>
     <numFmt numFmtId="201" formatCode="0.00,&quot;K&quot;"/>
@@ -215,11 +221,13 @@
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="206" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="211" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="249" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="244" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="247" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="213" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="238" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="240" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="241" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="242" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="250" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="251" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -255,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="235" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -265,11 +273,13 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="211" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="249" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="244" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="247" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="213" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="238" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="240" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="241" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="242" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="250" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="251" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3287,11 +3297,14 @@
       <c r="B1" t="str">
         <f>N1</f>
       </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
       <c r="M1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" t="s">
         <v>38</v>
-      </c>
-      <c r="N1" t="s">
-        <v>39</v>
       </c>
       <c r="O1" t="s">
         <v>31</v>
@@ -3352,64 +3365,67 @@
       <c r="B2" t="str">
         <f>N2</f>
       </c>
-      <c r="M2" t="s">
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="9" t="n">
-        <v>32062481478.7404</v>
-      </c>
-      <c r="P2" s="9" t="n">
-        <v>33502648539.9927</v>
-      </c>
-      <c r="Q2" s="9" t="n">
-        <v>34512520349.3714</v>
-      </c>
-      <c r="R2" s="9" t="n">
-        <v>32022857314.7994</v>
-      </c>
-      <c r="S2" s="9" t="n">
-        <v>30300787160.0451</v>
-      </c>
-      <c r="T2" s="9" t="n">
-        <v>29428722759.8101</v>
-      </c>
-      <c r="U2" s="9" t="n">
-        <v>23567998960.1735</v>
-      </c>
-      <c r="V2" s="9" t="n">
-        <v>25665670386.3993</v>
-      </c>
-      <c r="W2" s="9" t="n">
-        <v>23532569650.9686</v>
-      </c>
-      <c r="X2" s="9" t="n">
-        <v>25303450099.2467</v>
-      </c>
-      <c r="Y2" s="9" t="n">
-        <v>26328462830.1631</v>
-      </c>
-      <c r="Z2" s="9" t="n">
-        <v>31111718317.1093</v>
-      </c>
-      <c r="AA2" s="9" t="n">
-        <v>31301311116.0465</v>
-      </c>
-      <c r="AB2" s="9" t="n">
-        <v>32049209483.981</v>
-      </c>
-      <c r="AC2" s="9" t="n">
-        <v>32709739587.2145</v>
-      </c>
-      <c r="AD2" s="9" t="n">
-        <v>37104641630.7511</v>
-      </c>
-      <c r="AE2" s="9" t="n">
-        <v>40964495755.7069</v>
-      </c>
-      <c r="AF2" s="9"/>
+      <c r="O2" s="15" t="n">
+        <v>25125249218.822</v>
+      </c>
+      <c r="P2" s="15" t="n">
+        <v>32432154150.1501</v>
+      </c>
+      <c r="Q2" s="15" t="n">
+        <v>35101354776.0543</v>
+      </c>
+      <c r="R2" s="15" t="n">
+        <v>30976397289.3347</v>
+      </c>
+      <c r="S2" s="15" t="n">
+        <v>31255230749.4631</v>
+      </c>
+      <c r="T2" s="15" t="n">
+        <v>37102041368.9613</v>
+      </c>
+      <c r="U2" s="15" t="n">
+        <v>24098497564.8245</v>
+      </c>
+      <c r="V2" s="15" t="n">
+        <v>19955253890.9386</v>
+      </c>
+      <c r="W2" s="15" t="n">
+        <v>17685561455.4229</v>
+      </c>
+      <c r="X2" s="15" t="n">
+        <v>16953492843.1271</v>
+      </c>
+      <c r="Y2" s="15" t="n">
+        <v>19618603081.6569</v>
+      </c>
+      <c r="Z2" s="15" t="n">
+        <v>27902395775.5896</v>
+      </c>
+      <c r="AA2" s="15" t="n">
+        <v>27937731136.7199</v>
+      </c>
+      <c r="AB2" s="15" t="n">
+        <v>30079444637.0538</v>
+      </c>
+      <c r="AC2" s="15" t="n">
+        <v>48180087109.2192</v>
+      </c>
+      <c r="AD2" s="15" t="n">
+        <v>45664353375.3831</v>
+      </c>
+      <c r="AE2" s="15" t="n">
+        <v>35047872671.8265</v>
+      </c>
+      <c r="AF2" s="15"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3418,64 +3434,67 @@
       <c r="B3" t="str">
         <f>N3</f>
       </c>
-      <c r="M3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="9" t="n">
-        <v>64276778789.785</v>
-      </c>
-      <c r="P3" s="9" t="n">
-        <v>72755575500.1827</v>
-      </c>
-      <c r="Q3" s="9" t="n">
-        <v>64677034371.2067</v>
-      </c>
-      <c r="R3" s="9" t="n">
-        <v>53879307908.9168</v>
-      </c>
-      <c r="S3" s="9" t="n">
-        <v>48096817335.8693</v>
-      </c>
-      <c r="T3" s="9" t="n">
-        <v>54303150309.7976</v>
-      </c>
-      <c r="U3" s="9" t="n">
-        <v>39063293717.5311</v>
-      </c>
-      <c r="V3" s="9" t="n">
-        <v>38119164769.1497</v>
-      </c>
-      <c r="W3" s="9" t="n">
-        <v>33991695353.2542</v>
-      </c>
-      <c r="X3" s="9" t="n">
-        <v>32084583927.436</v>
-      </c>
-      <c r="Y3" s="9" t="n">
-        <v>35694396958.7202</v>
-      </c>
-      <c r="Z3" s="9" t="n">
-        <v>37743226432.3817</v>
-      </c>
-      <c r="AA3" s="9" t="n">
-        <v>42449471496.6964</v>
-      </c>
-      <c r="AB3" s="9" t="n">
-        <v>42839349110.909</v>
-      </c>
-      <c r="AC3" s="9" t="n">
-        <v>59882546801.0766</v>
-      </c>
-      <c r="AD3" s="9" t="n">
-        <v>75235439279.4155</v>
-      </c>
-      <c r="AE3" s="9" t="n">
-        <v>56016118359.9772</v>
-      </c>
-      <c r="AF3" s="9"/>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="15" t="n">
+        <v>21764778991.8306</v>
+      </c>
+      <c r="P3" s="15" t="n">
+        <v>25397309265.3422</v>
+      </c>
+      <c r="Q3" s="15" t="n">
+        <v>21427494919.4928</v>
+      </c>
+      <c r="R3" s="15" t="n">
+        <v>18453893838.1832</v>
+      </c>
+      <c r="S3" s="15" t="n">
+        <v>17986659166.4393</v>
+      </c>
+      <c r="T3" s="15" t="n">
+        <v>16348272545.4679</v>
+      </c>
+      <c r="U3" s="15" t="n">
+        <v>13779748256.7072</v>
+      </c>
+      <c r="V3" s="15" t="n">
+        <v>11779135889.3652</v>
+      </c>
+      <c r="W3" s="15" t="n">
+        <v>12135186874.4357</v>
+      </c>
+      <c r="X3" s="15" t="n">
+        <v>12399920173.1958</v>
+      </c>
+      <c r="Y3" s="15" t="n">
+        <v>14152861790.103</v>
+      </c>
+      <c r="Z3" s="15" t="n">
+        <v>22806770846.0249</v>
+      </c>
+      <c r="AA3" s="15" t="n">
+        <v>25680118499.9135</v>
+      </c>
+      <c r="AB3" s="15" t="n">
+        <v>29875164701.4216</v>
+      </c>
+      <c r="AC3" s="15" t="n">
+        <v>37403494926.075</v>
+      </c>
+      <c r="AD3" s="15" t="n">
+        <v>29140563384.389</v>
+      </c>
+      <c r="AE3" s="15" t="n">
+        <v>29077141051.9964</v>
+      </c>
+      <c r="AF3" s="15"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3484,64 +3503,67 @@
       <c r="B4" t="str">
         <f>N4</f>
       </c>
-      <c r="M4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="9" t="n">
-        <v>5823883910.4641</v>
-      </c>
-      <c r="P4" s="9" t="n">
-        <v>6062527172.7157</v>
-      </c>
-      <c r="Q4" s="9" t="n">
-        <v>7958542406.8054</v>
-      </c>
-      <c r="R4" s="9" t="n">
-        <v>11173540317.9748</v>
-      </c>
-      <c r="S4" s="9" t="n">
-        <v>10709272137.3971</v>
-      </c>
-      <c r="T4" s="9" t="n">
-        <v>10913255211.2322</v>
-      </c>
-      <c r="U4" s="9" t="n">
-        <v>10012514970.4474</v>
-      </c>
-      <c r="V4" s="9" t="n">
-        <v>11885624399.7085</v>
-      </c>
-      <c r="W4" s="9" t="n">
-        <v>11954899827.2819</v>
-      </c>
-      <c r="X4" s="9" t="n">
-        <v>11905991840.9567</v>
-      </c>
-      <c r="Y4" s="9" t="n">
-        <v>10744235953.1555</v>
-      </c>
-      <c r="Z4" s="9" t="n">
-        <v>13964474476.428</v>
-      </c>
-      <c r="AA4" s="9" t="n">
-        <v>12887221540.14</v>
-      </c>
-      <c r="AB4" s="9" t="n">
-        <v>14696802949.5136</v>
-      </c>
-      <c r="AC4" s="9" t="n">
-        <v>19547069897.6294</v>
-      </c>
-      <c r="AD4" s="9" t="n">
-        <v>14680201640.9544</v>
-      </c>
-      <c r="AE4" s="9" t="n">
-        <v>14367712887.112</v>
-      </c>
-      <c r="AF4" s="9"/>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="15" t="n">
+        <v>30133800884.701</v>
+      </c>
+      <c r="P4" s="15" t="n">
+        <v>33783198213.0075</v>
+      </c>
+      <c r="Q4" s="15" t="n">
+        <v>29711948309.4815</v>
+      </c>
+      <c r="R4" s="15" t="n">
+        <v>30392248649.1018</v>
+      </c>
+      <c r="S4" s="15" t="n">
+        <v>29898796158.4983</v>
+      </c>
+      <c r="T4" s="15" t="n">
+        <v>28986353557.0245</v>
+      </c>
+      <c r="U4" s="15" t="n">
+        <v>24976096489.8093</v>
+      </c>
+      <c r="V4" s="15" t="n">
+        <v>28501413952.5891</v>
+      </c>
+      <c r="W4" s="15" t="n">
+        <v>25447190127.4247</v>
+      </c>
+      <c r="X4" s="15" t="n">
+        <v>25671472541.9195</v>
+      </c>
+      <c r="Y4" s="15" t="n">
+        <v>27983478293.0834</v>
+      </c>
+      <c r="Z4" s="15" t="n">
+        <v>20045971011.5824</v>
+      </c>
+      <c r="AA4" s="15" t="n">
+        <v>23936231639.1294</v>
+      </c>
+      <c r="AB4" s="15" t="n">
+        <v>25650928177.9626</v>
+      </c>
+      <c r="AC4" s="15" t="n">
+        <v>24016153025.3683</v>
+      </c>
+      <c r="AD4" s="15" t="n">
+        <v>40078319954.0187</v>
+      </c>
+      <c r="AE4" s="15" t="n">
+        <v>27163604882.0461</v>
+      </c>
+      <c r="AF4" s="15"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3550,64 +3572,67 @@
       <c r="B5" t="str">
         <f>N5</f>
       </c>
-      <c r="M5" t="s">
+      <c r="L5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="9" t="n">
-        <v>231537450083.22</v>
-      </c>
-      <c r="P5" s="9" t="n">
-        <v>271472884650.076</v>
-      </c>
-      <c r="Q5" s="9" t="n">
-        <v>266329081561.247</v>
-      </c>
-      <c r="R5" s="9" t="n">
-        <v>271587640047.603</v>
-      </c>
-      <c r="S5" s="9" t="n">
-        <v>285273627236.321</v>
-      </c>
-      <c r="T5" s="9" t="n">
-        <v>268865885090.226</v>
-      </c>
-      <c r="U5" s="9" t="n">
-        <v>236644531145.313</v>
-      </c>
-      <c r="V5" s="9" t="n">
-        <v>208834055035.34</v>
-      </c>
-      <c r="W5" s="9" t="n">
-        <v>204739219046.347</v>
-      </c>
-      <c r="X5" s="9" t="n">
-        <v>229288855612.899</v>
-      </c>
-      <c r="Y5" s="9" t="n">
-        <v>249184020033.45</v>
-      </c>
-      <c r="Z5" s="9" t="n">
-        <v>275958046094.482</v>
-      </c>
-      <c r="AA5" s="9" t="n">
-        <v>297007214837.362</v>
-      </c>
-      <c r="AB5" s="9" t="n">
-        <v>333079832988.6</v>
-      </c>
-      <c r="AC5" s="9" t="n">
-        <v>275583768946.915</v>
-      </c>
-      <c r="AD5" s="9" t="n">
-        <v>287582895856.276</v>
-      </c>
-      <c r="AE5" s="9" t="n">
-        <v>344970443277.674</v>
-      </c>
-      <c r="AF5" s="9"/>
+      <c r="O5" s="15" t="n">
+        <v>20416382855.5625</v>
+      </c>
+      <c r="P5" s="15" t="n">
+        <v>25609454024.9063</v>
+      </c>
+      <c r="Q5" s="15" t="n">
+        <v>12593611119.7175</v>
+      </c>
+      <c r="R5" s="15" t="n">
+        <v>29718480733.7495</v>
+      </c>
+      <c r="S5" s="15" t="n">
+        <v>36097737150.8889</v>
+      </c>
+      <c r="T5" s="15" t="n">
+        <v>34730237706.1415</v>
+      </c>
+      <c r="U5" s="15" t="n">
+        <v>29169239953.7346</v>
+      </c>
+      <c r="V5" s="15" t="n">
+        <v>29833721322.4015</v>
+      </c>
+      <c r="W5" s="15" t="n">
+        <v>27324207449.885</v>
+      </c>
+      <c r="X5" s="15" t="n">
+        <v>27843792311.2441</v>
+      </c>
+      <c r="Y5" s="15" t="n">
+        <v>27441082756.5163</v>
+      </c>
+      <c r="Z5" s="15" t="n">
+        <v>23791495332.7767</v>
+      </c>
+      <c r="AA5" s="15" t="n">
+        <v>25021165431.6188</v>
+      </c>
+      <c r="AB5" s="15" t="n">
+        <v>27652465150.9804</v>
+      </c>
+      <c r="AC5" s="15" t="n">
+        <v>24861742523.0282</v>
+      </c>
+      <c r="AD5" s="15" t="n">
+        <v>29689860380.1717</v>
+      </c>
+      <c r="AE5" s="15" t="n">
+        <v>33301971196.0154</v>
+      </c>
+      <c r="AF5" s="15"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3616,64 +3641,3270 @@
       <c r="B6" t="str">
         <f>N6</f>
       </c>
-      <c r="M6" t="s">
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="15" t="n">
+        <v>10096271672.9484</v>
+      </c>
+      <c r="P6" s="15" t="n">
+        <v>10776155276.9025</v>
+      </c>
+      <c r="Q6" s="15" t="n">
+        <v>9150118544.2025</v>
+      </c>
+      <c r="R6" s="15" t="n">
+        <v>7690106134.7461</v>
+      </c>
+      <c r="S6" s="15" t="n">
+        <v>6683672074.0927</v>
+      </c>
+      <c r="T6" s="15" t="n">
+        <v>6610387564.2734</v>
+      </c>
+      <c r="U6" s="15" t="n">
+        <v>5668554306.1156</v>
+      </c>
+      <c r="V6" s="15" t="n">
+        <v>7257445382.0936</v>
+      </c>
+      <c r="W6" s="15" t="n">
+        <v>7750481635.5216</v>
+      </c>
+      <c r="X6" s="15" t="n">
+        <v>7733252678.4108</v>
+      </c>
+      <c r="Y6" s="15" t="n">
+        <v>7150281486.2274</v>
+      </c>
+      <c r="Z6" s="15" t="n">
+        <v>13058816162.6805</v>
+      </c>
+      <c r="AA6" s="15" t="n">
+        <v>13269959464.3028</v>
+      </c>
+      <c r="AB6" s="15" t="n">
+        <v>12533350568.3599</v>
+      </c>
+      <c r="AC6" s="15" t="n">
+        <v>11545432225.8644</v>
+      </c>
+      <c r="AD6" s="15" t="n">
+        <v>11640593258.8436</v>
+      </c>
+      <c r="AE6" s="15" t="n">
+        <v>12484524362.2018</v>
+      </c>
+      <c r="AF6" s="15"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="L7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="15" t="n">
+        <v>10791385424.558</v>
+      </c>
+      <c r="P7" s="15" t="n">
+        <v>9992326943.864</v>
+      </c>
+      <c r="Q7" s="15" t="n">
+        <v>10704831009.3607</v>
+      </c>
+      <c r="R7" s="15" t="n">
+        <v>10353345215.9397</v>
+      </c>
+      <c r="S7" s="15" t="n">
+        <v>14043087841.8619</v>
+      </c>
+      <c r="T7" s="15" t="n">
+        <v>12705160227.6934</v>
+      </c>
+      <c r="U7" s="15" t="n">
+        <v>10588302252.8571</v>
+      </c>
+      <c r="V7" s="15" t="n">
+        <v>10767875507.0851</v>
+      </c>
+      <c r="W7" s="15" t="n">
+        <v>10581178707.2994</v>
+      </c>
+      <c r="X7" s="15" t="n">
+        <v>9892515561.5923</v>
+      </c>
+      <c r="Y7" s="15" t="n">
+        <v>10875001083.978</v>
+      </c>
+      <c r="Z7" s="15" t="n">
+        <v>13483951403.3545</v>
+      </c>
+      <c r="AA7" s="15" t="n">
+        <v>13505530020.2325</v>
+      </c>
+      <c r="AB7" s="15" t="n">
+        <v>12588239758.5437</v>
+      </c>
+      <c r="AC7" s="15" t="n">
+        <v>10920527227.2435</v>
+      </c>
+      <c r="AD7" s="15" t="n">
+        <v>12179870156.4561</v>
+      </c>
+      <c r="AE7" s="15" t="n">
+        <v>8757199136.17</v>
+      </c>
+      <c r="AF7" s="15"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="L8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="15" t="n">
+        <v>4872106.125</v>
+      </c>
+      <c r="P8" s="15" t="n">
+        <v>10010929.3706</v>
+      </c>
+      <c r="Q8" s="15" t="n">
+        <v>16826903.2031</v>
+      </c>
+      <c r="R8" s="15" t="n">
+        <v>377038220.8154</v>
+      </c>
+      <c r="S8" s="15" t="n">
+        <v>1216030256.841</v>
+      </c>
+      <c r="T8" s="15" t="n">
+        <v>1895556032.0051</v>
+      </c>
+      <c r="U8" s="15" t="n">
+        <v>952609585.9737</v>
+      </c>
+      <c r="V8" s="15" t="n">
+        <v>1088936204.6172</v>
+      </c>
+      <c r="W8" s="15" t="n">
+        <v>1088807391.037</v>
+      </c>
+      <c r="X8" s="15" t="n">
+        <v>1805760317.0083</v>
+      </c>
+      <c r="Y8" s="15" t="n">
+        <v>3746475883.7796</v>
+      </c>
+      <c r="Z8" s="15" t="n">
+        <v>3074792651.2968</v>
+      </c>
+      <c r="AA8" s="15" t="n">
+        <v>3514832423.2951</v>
+      </c>
+      <c r="AB8" s="15" t="n">
+        <v>3566340166.6762</v>
+      </c>
+      <c r="AC8" s="15" t="n">
+        <v>2458364985.2205</v>
+      </c>
+      <c r="AD8" s="15" t="n">
+        <v>4576147114.9178</v>
+      </c>
+      <c r="AE8" s="15" t="n">
+        <v>2076520940.4654</v>
+      </c>
+      <c r="AF8" s="15"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="L9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="15" t="n">
+        <v>122676909.5722</v>
+      </c>
+      <c r="P9" s="15" t="n">
+        <v>54479568.8939</v>
+      </c>
+      <c r="Q9" s="15" t="n">
+        <v>391296344.5801</v>
+      </c>
+      <c r="R9" s="15" t="n">
+        <v>10450086106.923</v>
+      </c>
+      <c r="S9" s="15" t="n">
+        <v>42256131517.5522</v>
+      </c>
+      <c r="T9" s="15" t="n">
+        <v>54758606786.2011</v>
+      </c>
+      <c r="U9" s="15" t="n">
+        <v>46972259182.0756</v>
+      </c>
+      <c r="V9" s="15" t="n">
+        <v>43922166334.1481</v>
+      </c>
+      <c r="W9" s="15" t="n">
+        <v>44054842375.5884</v>
+      </c>
+      <c r="X9" s="15" t="n">
+        <v>50628266020.741</v>
+      </c>
+      <c r="Y9" s="15" t="n">
+        <v>56597028392.347</v>
+      </c>
+      <c r="Z9" s="15" t="n">
+        <v>76051318984.9463</v>
+      </c>
+      <c r="AA9" s="15" t="n">
+        <v>80155056064.1126</v>
+      </c>
+      <c r="AB9" s="15" t="n">
+        <v>86732963948.1466</v>
+      </c>
+      <c r="AC9" s="15" t="n">
+        <v>85236793261.6524</v>
+      </c>
+      <c r="AD9" s="15" t="n">
+        <v>86480545057.8842</v>
+      </c>
+      <c r="AE9" s="15" t="n">
+        <v>59404120556.1747</v>
+      </c>
+      <c r="AF9" s="15"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="L10" t="s">
         <v>18</v>
       </c>
-      <c r="N6" t="s">
+      <c r="M10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="15" t="n">
+        <v>7826918502.6366</v>
+      </c>
+      <c r="P10" s="15" t="n">
+        <v>8253616344.955</v>
+      </c>
+      <c r="Q10" s="15" t="n">
+        <v>7779611725.3281</v>
+      </c>
+      <c r="R10" s="15" t="n">
+        <v>6978787870.4494</v>
+      </c>
+      <c r="S10" s="15" t="n">
+        <v>1589089357.9102</v>
+      </c>
+      <c r="T10" s="15" t="n">
+        <v>3806242776.4534</v>
+      </c>
+      <c r="U10" s="15" t="n">
+        <v>3186009489.4102</v>
+      </c>
+      <c r="V10" s="15" t="n">
+        <v>3397043185.6465</v>
+      </c>
+      <c r="W10" s="15" t="n">
+        <v>2978381931.1913</v>
+      </c>
+      <c r="X10" s="15" t="n">
+        <v>3000039224.0025</v>
+      </c>
+      <c r="Y10" s="15" t="n">
+        <v>2343288254.6046</v>
+      </c>
+      <c r="Z10" s="15" t="n">
+        <v>415958942.3649</v>
+      </c>
+      <c r="AA10" s="15" t="n">
+        <v>3483042753.0994</v>
+      </c>
+      <c r="AB10" s="15" t="n">
+        <v>1536047657.3333</v>
+      </c>
+      <c r="AC10" s="15" t="n">
+        <v>369757606.443</v>
+      </c>
+      <c r="AD10" s="15" t="n">
+        <v>1101191822.3893</v>
+      </c>
+      <c r="AE10" s="15" t="n">
+        <v>385133330.092</v>
+      </c>
+      <c r="AF10" s="15"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="15" t="n">
+        <v>70636499294.0989</v>
+      </c>
+      <c r="P11" s="15" t="n">
+        <v>80526620958.9503</v>
+      </c>
+      <c r="Q11" s="15" t="n">
+        <v>97471448187.0059</v>
+      </c>
+      <c r="R11" s="15" t="n">
+        <v>123141610571.659</v>
+      </c>
+      <c r="S11" s="15" t="n">
+        <v>115676582642.597</v>
+      </c>
+      <c r="T11" s="15" t="n">
+        <v>110877916822.175</v>
+      </c>
+      <c r="U11" s="15" t="n">
+        <v>111906304352.342</v>
+      </c>
+      <c r="V11" s="15" t="n">
+        <v>92942036400.604</v>
+      </c>
+      <c r="W11" s="15" t="n">
+        <v>93714612881.1281</v>
+      </c>
+      <c r="X11" s="15" t="n">
+        <v>112400072395.818</v>
+      </c>
+      <c r="Y11" s="15" t="n">
+        <v>119242101605.544</v>
+      </c>
+      <c r="Z11" s="15" t="n">
+        <v>121279137559.457</v>
+      </c>
+      <c r="AA11" s="15" t="n">
+        <v>130516724929.479</v>
+      </c>
+      <c r="AB11" s="15" t="n">
+        <v>154335282741.837</v>
+      </c>
+      <c r="AC11" s="15" t="n">
+        <v>106983409731.336</v>
+      </c>
+      <c r="AD11" s="15" t="n">
+        <v>118211663854.914</v>
+      </c>
+      <c r="AE11" s="15" t="n">
+        <v>194346193394.303</v>
+      </c>
+      <c r="AF11" s="15"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
+      <c r="M12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="15" t="n">
+        <v>3480708</v>
+      </c>
+      <c r="P12" s="15" t="n">
+        <v>7322732</v>
+      </c>
+      <c r="Q12" s="15" t="n">
+        <v>4777682.7812</v>
+      </c>
+      <c r="R12" s="15" t="n">
+        <v>-389371.9688</v>
+      </c>
+      <c r="S12" s="15" t="n">
+        <v>566868.625</v>
+      </c>
+      <c r="T12" s="15" t="n">
+        <v>2744757.5625</v>
+      </c>
+      <c r="U12" s="15" t="n">
+        <v>740760.72</v>
+      </c>
+      <c r="V12" s="15" t="n">
+        <v>1661330.44</v>
+      </c>
+      <c r="W12" s="15" t="n">
+        <v>688122.1</v>
+      </c>
+      <c r="X12" s="15" t="n">
+        <v>7466648.5097</v>
+      </c>
+      <c r="Y12" s="15" t="n">
+        <v>15539948.7242</v>
+      </c>
+      <c r="Z12" s="15" t="n">
+        <v>10103095.4844</v>
+      </c>
+      <c r="AA12" s="15" t="n">
+        <v>50250051.3516</v>
+      </c>
+      <c r="AB12" s="15" t="n">
+        <v>648763.1608</v>
+      </c>
+      <c r="AC12" s="15" t="n">
+        <v>18838219.6031</v>
+      </c>
+      <c r="AD12" s="15" t="n">
+        <v>6404705</v>
+      </c>
+      <c r="AE12" s="15" t="n">
+        <v>3009276.3125</v>
+      </c>
+      <c r="AF12" s="15"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="C13" t="str">
+        <f>AB13</f>
+      </c>
+      <c r="D13" t="str">
+        <f>AC13</f>
+      </c>
+      <c r="E13" t="str">
+        <f>AD13</f>
+      </c>
+      <c r="F13" t="str">
+        <f>AB13&amp;"-"&amp;AC13</f>
+      </c>
+      <c r="G13" t="str">
+        <f>Z13&amp;"-"&amp;AC13</f>
+      </c>
+      <c r="H13" t="str">
+        <f>AD13&amp;"/"&amp;AC13</f>
+      </c>
+      <c r="I13" t="str">
+        <f>"Share "&amp;AC13</f>
+      </c>
+      <c r="J13" t="str">
+        <f>"Share "&amp;AD13</f>
+      </c>
+      <c r="L13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="15" t="n">
+        <v>91464160.72</v>
+      </c>
+      <c r="P13" s="15" t="n">
+        <v>271808916.5216</v>
+      </c>
+      <c r="Q13" s="15" t="n">
+        <v>119963396.6512</v>
+      </c>
+      <c r="R13" s="15" t="n">
+        <v>2242431224.5039</v>
+      </c>
+      <c r="S13" s="15" t="n">
+        <v>465110922.9134</v>
+      </c>
+      <c r="T13" s="15" t="n">
+        <v>326628729.6539</v>
+      </c>
+      <c r="U13" s="15" t="n">
+        <v>205092408.93</v>
+      </c>
+      <c r="V13" s="15" t="n">
+        <v>253019515.28</v>
+      </c>
+      <c r="W13" s="15" t="n">
+        <v>124594107.6519</v>
+      </c>
+      <c r="X13" s="15" t="n">
+        <v>187804273.1566</v>
+      </c>
+      <c r="Y13" s="15" t="n">
+        <v>125983398.2189</v>
+      </c>
+      <c r="Z13" s="15" t="n">
+        <v>141268312.7166</v>
+      </c>
+      <c r="AA13" s="15" t="n">
+        <v>313186482.6124</v>
+      </c>
+      <c r="AB13" s="15" t="n">
+        <v>332401939.5916</v>
+      </c>
+      <c r="AC13" s="15" t="n">
+        <v>298326767.0599</v>
+      </c>
+      <c r="AD13" s="15" t="n">
+        <v>340466689.9108</v>
+      </c>
+      <c r="AE13" s="15" t="n">
+        <v>643485539.1533</v>
+      </c>
+      <c r="AF13" s="15"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" s="10" t="str">
+        <f>N14</f>
+      </c>
+      <c r="C14" s="10" t="str">
+        <f>AB14</f>
+      </c>
+      <c r="D14" s="10" t="str">
+        <f>AC14</f>
+      </c>
+      <c r="E14" s="10" t="str">
+        <f>AD14</f>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f>AC14/AB14-1</f>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f>AC14/Z14-1</f>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f>AD14/AC14</f>
+      </c>
+      <c r="I14" s="3" t="str">
+        <f>AC14/Sum(AC$13:AC$21)</f>
+      </c>
+      <c r="J14" s="3" t="str">
+        <f>AD14/Sum(AD13:AD$21)</f>
+      </c>
+      <c r="L14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="15" t="n">
+        <v>14194339455.1302</v>
+      </c>
+      <c r="P14" s="15" t="n">
+        <v>11524936620.8855</v>
+      </c>
+      <c r="Q14" s="15" t="n">
+        <v>8049244145.7588</v>
+      </c>
+      <c r="R14" s="15" t="n">
+        <v>5040819900.3828</v>
+      </c>
+      <c r="S14" s="15" t="n">
+        <v>3950171021.6997</v>
+      </c>
+      <c r="T14" s="15" t="n">
+        <v>3068801162.256</v>
+      </c>
+      <c r="U14" s="15" t="n">
+        <v>2429204721.8738</v>
+      </c>
+      <c r="V14" s="15" t="n">
+        <v>1781912549.4149</v>
+      </c>
+      <c r="W14" s="15" t="n">
+        <v>2952746325.5791</v>
+      </c>
+      <c r="X14" s="15" t="n">
+        <v>1881817376.9132</v>
+      </c>
+      <c r="Y14" s="15" t="n">
+        <v>1630023794.4669</v>
+      </c>
+      <c r="Z14" s="15" t="n">
+        <v>1558787356.0103</v>
+      </c>
+      <c r="AA14" s="15" t="n">
+        <v>1750996158.2558</v>
+      </c>
+      <c r="AB14" s="15" t="n">
+        <v>2067193650.8017</v>
+      </c>
+      <c r="AC14" s="15" t="n">
+        <v>1667070626.6228</v>
+      </c>
+      <c r="AD14" s="15" t="n">
+        <v>1955667251.6509</v>
+      </c>
+      <c r="AE14" s="15" t="n">
+        <v>4349132039.113</v>
+      </c>
+      <c r="AF14" s="15"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" s="10" t="str">
+        <f>N15</f>
+      </c>
+      <c r="C15" s="10" t="str">
+        <f>AB15</f>
+      </c>
+      <c r="D15" s="10" t="str">
+        <f>AC15</f>
+      </c>
+      <c r="E15" s="10" t="str">
+        <f>AD15</f>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f>AC15/AB15-1</f>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f>AC15/Z15-1</f>
+      </c>
+      <c r="H15" s="3" t="str">
+        <f>AD15/AC15</f>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f>AC15/Sum(AC$13:AC$21)</f>
+      </c>
+      <c r="J15" s="3" t="str">
+        <f>AD15/Sum(AD13:AD$21)</f>
+      </c>
+      <c r="L15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O15" s="15" t="n">
+        <v>101341648420.47</v>
+      </c>
+      <c r="P15" s="15" t="n">
+        <v>117004585245.029</v>
+      </c>
+      <c r="Q15" s="15" t="n">
+        <v>110274562226.097</v>
+      </c>
+      <c r="R15" s="15" t="n">
+        <v>72501013332.7602</v>
+      </c>
+      <c r="S15" s="15" t="n">
+        <v>51025818982.3669</v>
+      </c>
+      <c r="T15" s="15" t="n">
+        <v>31871614799.3289</v>
+      </c>
+      <c r="U15" s="15" t="n">
+        <v>18342934576.8084</v>
+      </c>
+      <c r="V15" s="15" t="n">
+        <v>15570162851.9346</v>
+      </c>
+      <c r="W15" s="15" t="n">
+        <v>11724223835.7693</v>
+      </c>
+      <c r="X15" s="15" t="n">
+        <v>10282103280.7543</v>
+      </c>
+      <c r="Y15" s="15" t="n">
+        <v>11978672172.6364</v>
+      </c>
+      <c r="Z15" s="15" t="n">
+        <v>11639281238.4459</v>
+      </c>
+      <c r="AA15" s="15" t="n">
+        <v>10488589097.8683</v>
+      </c>
+      <c r="AB15" s="15" t="n">
+        <v>12205328030.7975</v>
+      </c>
+      <c r="AC15" s="15" t="n">
+        <v>11935398072.6335</v>
+      </c>
+      <c r="AD15" s="15" t="n">
+        <v>11322813008.8678</v>
+      </c>
+      <c r="AE15" s="15" t="n">
+        <v>26136114722.1225</v>
+      </c>
+      <c r="AF15" s="15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" s="10" t="str">
+        <f>N16</f>
+      </c>
+      <c r="C16" s="10" t="str">
+        <f>AB16</f>
+      </c>
+      <c r="D16" s="10" t="str">
+        <f>AC16</f>
+      </c>
+      <c r="E16" s="10" t="str">
+        <f>AD16</f>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f>AC16/AB16-1</f>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f>AC16/Z16-1</f>
+      </c>
+      <c r="H16" s="3" t="str">
+        <f>AD16/AC16</f>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f>AC16/Sum(AC$13:AC$21)</f>
+      </c>
+      <c r="J16" s="3" t="str">
+        <f>AD16/Sum(AD13:AD$21)</f>
+      </c>
+      <c r="L16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" s="15" t="n">
+        <v>8491670881.2818</v>
+      </c>
+      <c r="P16" s="15" t="n">
+        <v>8687705764.4284</v>
+      </c>
+      <c r="Q16" s="15" t="n">
+        <v>8192500498.0507</v>
+      </c>
+      <c r="R16" s="15" t="n">
+        <v>6004149560.1188</v>
+      </c>
+      <c r="S16" s="15" t="n">
+        <v>4938072295.3959</v>
+      </c>
+      <c r="T16" s="15" t="n">
+        <v>4827351746.8783</v>
+      </c>
+      <c r="U16" s="15" t="n">
+        <v>3555864463.6901</v>
+      </c>
+      <c r="V16" s="15" t="n">
+        <v>4021264457.9802</v>
+      </c>
+      <c r="W16" s="15" t="n">
+        <v>3644162020.2834</v>
+      </c>
+      <c r="X16" s="15" t="n">
+        <v>4529922466.4506</v>
+      </c>
+      <c r="Y16" s="15" t="n">
+        <v>5463911101.9978</v>
+      </c>
+      <c r="Z16" s="15" t="n">
+        <v>6604000036.1281</v>
+      </c>
+      <c r="AA16" s="15" t="n">
+        <v>6973832250.8617</v>
+      </c>
+      <c r="AB16" s="15" t="n">
+        <v>6959045290.4858</v>
+      </c>
+      <c r="AC16" s="15" t="n">
+        <v>7137378488.2274</v>
+      </c>
+      <c r="AD16" s="15" t="n">
+        <v>6767684566.4429</v>
+      </c>
+      <c r="AE16" s="15" t="n">
+        <v>8611322470.3826</v>
+      </c>
+      <c r="AF16" s="15"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <f>M17</f>
+      </c>
+      <c r="B17" s="10" t="str">
+        <f>N17</f>
+      </c>
+      <c r="C17" s="10" t="str">
+        <f>AB17</f>
+      </c>
+      <c r="D17" s="10" t="str">
+        <f>AC17</f>
+      </c>
+      <c r="E17" s="10" t="str">
+        <f>AD17</f>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f>AC17/AB17-1</f>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f>AC17/Z17-1</f>
+      </c>
+      <c r="H17" s="3" t="str">
+        <f>AD17/AC17</f>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f>AC17/Sum(AC$13:AC$21)</f>
+      </c>
+      <c r="J17" s="3" t="str">
+        <f>AD17/Sum(AD13:AD$21)</f>
+      </c>
+      <c r="L17" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" s="15" t="n">
+        <v>11798390982.7529</v>
+      </c>
+      <c r="P17" s="15" t="n">
+        <v>11245213240.4152</v>
+      </c>
+      <c r="Q17" s="15" t="n">
+        <v>11771340687.3015</v>
+      </c>
+      <c r="R17" s="15" t="n">
+        <v>9964056833.7781</v>
+      </c>
+      <c r="S17" s="15" t="n">
+        <v>13962135476.4921</v>
+      </c>
+      <c r="T17" s="15" t="n">
+        <v>13223323719.1346</v>
+      </c>
+      <c r="U17" s="15" t="n">
+        <v>11982732390.167</v>
+      </c>
+      <c r="V17" s="15" t="n">
+        <v>12114628991.1955</v>
+      </c>
+      <c r="W17" s="15" t="n">
+        <v>11977715880.2141</v>
+      </c>
+      <c r="X17" s="15" t="n">
+        <v>12243098979.518</v>
+      </c>
+      <c r="Y17" s="15" t="n">
+        <v>12600972640.3082</v>
+      </c>
+      <c r="Z17" s="15" t="n">
+        <v>15936721040.4715</v>
+      </c>
+      <c r="AA17" s="15" t="n">
+        <v>16008560472.8886</v>
+      </c>
+      <c r="AB17" s="15" t="n">
+        <v>15465173942.1724</v>
+      </c>
+      <c r="AC17" s="15" t="n">
+        <v>14040430300.0082</v>
+      </c>
+      <c r="AD17" s="15" t="n">
+        <v>14738116561.5618</v>
+      </c>
+      <c r="AE17" s="15" t="n">
+        <v>11028697994.0188</v>
+      </c>
+      <c r="AF17" s="15"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <f>M18</f>
+      </c>
+      <c r="B18" s="10" t="str">
+        <f>N18</f>
+      </c>
+      <c r="C18" s="10" t="str">
+        <f>AB18</f>
+      </c>
+      <c r="D18" s="10" t="str">
+        <f>AC18</f>
+      </c>
+      <c r="E18" s="10" t="str">
+        <f>AD18</f>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f>AC18/AB18-1</f>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f>AC18/Z18-1</f>
+      </c>
+      <c r="H18" s="3" t="str">
+        <f>AD18/AC18</f>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f>AC18/Sum(AC$13:AC$21)</f>
+      </c>
+      <c r="J18" s="3" t="str">
+        <f>AD18/Sum(AD13:AD$21)</f>
+      </c>
+      <c r="L18" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" s="15" t="n">
+        <v>82129902.9873</v>
+      </c>
+      <c r="P18" s="15" t="n">
+        <v>1979157392.3166</v>
+      </c>
+      <c r="Q18" s="15" t="n">
+        <v>1743462570.6264</v>
+      </c>
+      <c r="R18" s="15" t="n">
+        <v>1347048377.8865</v>
+      </c>
+      <c r="S18" s="15" t="n">
+        <v>1104815880.2662</v>
+      </c>
+      <c r="T18" s="15" t="n">
+        <v>567772243.9955</v>
+      </c>
+      <c r="U18" s="15" t="n">
+        <v>399938347.5108</v>
+      </c>
+      <c r="V18" s="15" t="n">
+        <v>355739285.8054</v>
+      </c>
+      <c r="W18" s="15" t="n">
+        <v>353003610.9832</v>
+      </c>
+      <c r="X18" s="15" t="n">
+        <v>471117220.9799</v>
+      </c>
+      <c r="Y18" s="15" t="n">
+        <v>235979828.7612</v>
+      </c>
+      <c r="Z18" s="15" t="n">
+        <v>279460783.4001</v>
+      </c>
+      <c r="AA18" s="15" t="n">
+        <v>417457428.0022</v>
+      </c>
+      <c r="AB18" s="15" t="n">
+        <v>283289326.9169</v>
+      </c>
+      <c r="AC18" s="15" t="n">
+        <v>263570893.212</v>
+      </c>
+      <c r="AD18" s="15" t="n">
+        <v>249258643.1787</v>
+      </c>
+      <c r="AE18" s="15" t="n">
+        <v>1719360865.2598</v>
+      </c>
+      <c r="AF18" s="15"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <f>M19</f>
+      </c>
+      <c r="B19" s="10" t="str">
+        <f>N19</f>
+      </c>
+      <c r="C19" s="10" t="str">
+        <f>AB19</f>
+      </c>
+      <c r="D19" s="10" t="str">
+        <f>AC19</f>
+      </c>
+      <c r="E19" s="10" t="str">
+        <f>AD19</f>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f>AC19/AB19-1</f>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f>AC19/Z19-1</f>
+      </c>
+      <c r="H19" s="3" t="str">
+        <f>AD19/AC19</f>
+      </c>
+      <c r="I19" s="3" t="str">
+        <f>AC19/Sum(AC$13:AC$21)</f>
+      </c>
+      <c r="J19" s="3" t="str">
+        <f>AD19/Sum(AD13:AD$21)</f>
+      </c>
+      <c r="L19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19" s="15" t="n">
+        <v>802067990.0419</v>
+      </c>
+      <c r="P19" s="15" t="n">
+        <v>6237580275.028</v>
+      </c>
+      <c r="Q19" s="15" t="n">
+        <v>8972785642.9373</v>
+      </c>
+      <c r="R19" s="15" t="n">
+        <v>3034819834.017</v>
+      </c>
+      <c r="S19" s="15" t="n">
+        <v>2232747735.4338</v>
+      </c>
+      <c r="T19" s="15" t="n">
+        <v>1866909661.0176</v>
+      </c>
+      <c r="U19" s="15" t="n">
+        <v>1081245687.7024</v>
+      </c>
+      <c r="V19" s="15" t="n">
+        <v>966940317.8063</v>
+      </c>
+      <c r="W19" s="15" t="n">
+        <v>684434622.8569</v>
+      </c>
+      <c r="X19" s="15" t="n">
+        <v>650936555.8963</v>
+      </c>
+      <c r="Y19" s="15" t="n">
+        <v>751047125.6847</v>
+      </c>
+      <c r="Z19" s="15" t="n">
+        <v>729887740.8758</v>
+      </c>
+      <c r="AA19" s="15" t="n">
+        <v>894924991.437</v>
+      </c>
+      <c r="AB19" s="15" t="n">
+        <v>801886080.7621</v>
+      </c>
+      <c r="AC19" s="15" t="n">
+        <v>386349244.0183</v>
+      </c>
+      <c r="AD19" s="15" t="n">
+        <v>459658621.4169</v>
+      </c>
+      <c r="AE19" s="15" t="n">
+        <v>1783365852.8155</v>
+      </c>
+      <c r="AF19" s="15"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <f>M20</f>
+      </c>
+      <c r="B20" s="10" t="str">
+        <f>N20</f>
+      </c>
+      <c r="C20" s="10" t="str">
+        <f>AB20</f>
+      </c>
+      <c r="D20" s="10" t="str">
+        <f>AC20</f>
+      </c>
+      <c r="E20" s="10" t="str">
+        <f>AD20</f>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f>AC20/AB20-1</f>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f>AC20/Z20-1</f>
+      </c>
+      <c r="H20" s="3" t="str">
+        <f>AD20/AC20</f>
+      </c>
+      <c r="I20" s="3" t="str">
+        <f>AC20/Sum(AC$13:AC$21)</f>
+      </c>
+      <c r="J20" s="3" t="str">
+        <f>AD20/Sum(AD13:AD$21)</f>
+      </c>
+      <c r="L20" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="9" t="str">
-        <f>Sum(O2:O5)</f>
-      </c>
-      <c r="P6" s="9" t="str">
-        <f>Sum(P2:P5)</f>
-      </c>
-      <c r="Q6" s="9" t="str">
-        <f>Sum(Q2:Q5)</f>
-      </c>
-      <c r="R6" s="9" t="str">
-        <f>Sum(R2:R5)</f>
-      </c>
-      <c r="S6" s="9" t="str">
-        <f>Sum(S2:S5)</f>
-      </c>
-      <c r="T6" s="9" t="str">
-        <f>Sum(T2:T5)</f>
-      </c>
-      <c r="U6" s="9" t="str">
-        <f>Sum(U2:U5)</f>
-      </c>
-      <c r="V6" s="9" t="str">
-        <f>Sum(V2:V5)</f>
-      </c>
-      <c r="W6" s="9" t="str">
-        <f>Sum(W2:W5)</f>
-      </c>
-      <c r="X6" s="9" t="str">
-        <f>Sum(X2:X5)</f>
-      </c>
-      <c r="Y6" s="9" t="str">
-        <f>Sum(Y2:Y5)</f>
-      </c>
-      <c r="Z6" s="9" t="str">
-        <f>Sum(Z2:Z5)</f>
-      </c>
-      <c r="AA6" s="9" t="str">
-        <f>Sum(AA2:AA5)</f>
-      </c>
-      <c r="AB6" s="9" t="str">
-        <f>Sum(AB2:AB5)</f>
-      </c>
-      <c r="AC6" s="9" t="str">
-        <f>Sum(AC2:AC5)</f>
-      </c>
-      <c r="AD6" s="9" t="str">
-        <f>Sum(AD2:AD5)</f>
-      </c>
-      <c r="AE6" s="9" t="str">
-        <f>Sum(AE2:AE5)</f>
-      </c>
-      <c r="AF6" s="9"/>
+      <c r="O20" s="15" t="str">
+        <f>Sum(O2:O19)</f>
+      </c>
+      <c r="P20" s="15" t="str">
+        <f>Sum(P2:P19)</f>
+      </c>
+      <c r="Q20" s="15" t="str">
+        <f>Sum(Q2:Q19)</f>
+      </c>
+      <c r="R20" s="15" t="str">
+        <f>Sum(R2:R19)</f>
+      </c>
+      <c r="S20" s="15" t="str">
+        <f>Sum(S2:S19)</f>
+      </c>
+      <c r="T20" s="15" t="str">
+        <f>Sum(T2:T19)</f>
+      </c>
+      <c r="U20" s="15" t="str">
+        <f>Sum(U2:U19)</f>
+      </c>
+      <c r="V20" s="15" t="str">
+        <f>Sum(V2:V19)</f>
+      </c>
+      <c r="W20" s="15" t="str">
+        <f>Sum(W2:W19)</f>
+      </c>
+      <c r="X20" s="15" t="str">
+        <f>Sum(X2:X19)</f>
+      </c>
+      <c r="Y20" s="15" t="str">
+        <f>Sum(Y2:Y19)</f>
+      </c>
+      <c r="Z20" s="15" t="str">
+        <f>Sum(Z2:Z19)</f>
+      </c>
+      <c r="AA20" s="15" t="str">
+        <f>Sum(AA2:AA19)</f>
+      </c>
+      <c r="AB20" s="15" t="str">
+        <f>Sum(AB2:AB19)</f>
+      </c>
+      <c r="AC20" s="15" t="str">
+        <f>Sum(AC2:AC19)</f>
+      </c>
+      <c r="AD20" s="15" t="str">
+        <f>Sum(AD2:AD19)</f>
+      </c>
+      <c r="AE20" s="15" t="str">
+        <f>Sum(AE2:AE19)</f>
+      </c>
+      <c r="AF20" s="15"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <f>M21</f>
+      </c>
+      <c r="B21" s="10" t="str">
+        <f>N21</f>
+      </c>
+      <c r="C21" s="10" t="str">
+        <f>AB21</f>
+      </c>
+      <c r="D21" s="10" t="str">
+        <f>AD21</f>
+      </c>
+      <c r="E21" s="10" t="str">
+        <f>AE21</f>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f>AF21</f>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f>AD21&amp;"-"&amp;AE21</f>
+      </c>
+      <c r="H21" s="3" t="str">
+        <f>AB21&amp;"-"&amp;AE21</f>
+      </c>
+      <c r="I21" s="3" t="str">
+        <f>AF21&amp;"/"&amp;AE21</f>
+      </c>
+      <c r="J21" s="3" t="str">
+        <f>"Share "&amp;AE21</f>
+      </c>
+      <c r="K21" t="str">
+        <f>"Share "&amp;AF21</f>
+      </c>
+      <c r="L21" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="V21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="W21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE21" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>M22</f>
+      </c>
+      <c r="B22" s="10" t="str">
+        <f>N22</f>
+      </c>
+      <c r="C22" s="11" t="str">
+        <f>AB22</f>
+      </c>
+      <c r="D22" s="11" t="str">
+        <f>AD22</f>
+      </c>
+      <c r="E22" s="11" t="str">
+        <f>AE22</f>
+      </c>
+      <c r="F22" s="11" t="str">
+        <f>AF22</f>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f>AE22/AD22-1</f>
+      </c>
+      <c r="H22" s="3" t="str">
+        <f>AE22/AB22-1</f>
+      </c>
+      <c r="I22" s="3" t="str">
+        <f>AF22/AE22</f>
+      </c>
+      <c r="J22" s="3" t="str">
+        <f>AE22/Sum(AE$21:AE$37)</f>
+      </c>
+      <c r="K22" s="3" t="str">
+        <f>AF22/Sum(AF21:AF$37)</f>
+      </c>
+      <c r="L22" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22" s="11" t="n">
+        <v>35572247423.751</v>
+      </c>
+      <c r="P22" s="11" t="n">
+        <v>44983445693.7452</v>
+      </c>
+      <c r="Q22" s="11" t="n">
+        <v>48192805927.9893</v>
+      </c>
+      <c r="R22" s="11" t="n">
+        <v>42164237463.4606</v>
+      </c>
+      <c r="S22" s="11" t="n">
+        <v>41706668343.1184</v>
+      </c>
+      <c r="T22" s="11" t="n">
+        <v>48626220653.2593</v>
+      </c>
+      <c r="U22" s="11" t="n">
+        <v>31020811944.8711</v>
+      </c>
+      <c r="V22" s="11" t="n">
+        <v>25227193895.1278</v>
+      </c>
+      <c r="W22" s="11" t="n">
+        <v>22128705277.0359</v>
+      </c>
+      <c r="X22" s="11" t="n">
+        <v>21044466872.5407</v>
+      </c>
+      <c r="Y22" s="11" t="n">
+        <v>23948428786.3791</v>
+      </c>
+      <c r="Z22" s="11" t="n">
+        <v>33320734212.1306</v>
+      </c>
+      <c r="AA22" s="11" t="n">
+        <v>32757264828.1729</v>
+      </c>
+      <c r="AB22" s="11" t="n">
+        <v>34813670297.7214</v>
+      </c>
+      <c r="AC22" s="11" t="n">
+        <v>53907820654.5716</v>
+      </c>
+      <c r="AD22" s="11" t="n">
+        <v>47753342042.3351</v>
+      </c>
+      <c r="AE22" s="11" t="n">
+        <v>35047872671.8265</v>
+      </c>
+      <c r="AF22" s="11"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <f>M23</f>
+      </c>
+      <c r="B23" t="str">
+        <f>N23</f>
+      </c>
+      <c r="C23" s="11" t="str">
+        <f>AB23</f>
+      </c>
+      <c r="D23" s="11" t="str">
+        <f>AD23</f>
+      </c>
+      <c r="E23" s="11" t="str">
+        <f>AE23</f>
+      </c>
+      <c r="F23" s="11" t="str">
+        <f>AF23</f>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f>AD23&amp;"-"&amp;AE23</f>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f>AB23&amp;"-"&amp;AE23</f>
+      </c>
+      <c r="I23" s="3" t="str">
+        <f>AF23&amp;"/"&amp;AE23</f>
+      </c>
+      <c r="J23" s="3" t="str">
+        <f>"Share "&amp;AE23</f>
+      </c>
+      <c r="K23" s="3" t="str">
+        <f>"Share "&amp;AF23</f>
+      </c>
+      <c r="M23" t="s">
+        <v>46</v>
+      </c>
+      <c r="N23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S23" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="T23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="V23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="W23" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="X23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF23" s="11"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <f>M24</f>
+      </c>
+      <c r="B24" t="str">
+        <f>N24</f>
+      </c>
+      <c r="C24" s="15" t="str">
+        <f>AB24</f>
+      </c>
+      <c r="D24" s="15" t="str">
+        <f>AD24</f>
+      </c>
+      <c r="E24" s="15" t="str">
+        <f>AE24</f>
+      </c>
+      <c r="F24" s="15" t="str">
+        <f>AF24</f>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f>AE24/AD24-1</f>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f>AE24/AB24-1</f>
+      </c>
+      <c r="I24" s="3" t="str">
+        <f>AF24/AE24</f>
+      </c>
+      <c r="J24" s="3" t="str">
+        <f>AE24/Sum(AE$23:AE$41)</f>
+      </c>
+      <c r="K24" s="3" t="str">
+        <f>AF24/Sum(AF23:AF$41)</f>
+      </c>
+      <c r="M24" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" t="s">
+        <v>40</v>
+      </c>
+      <c r="O24" s="15" t="n">
+        <v>35572247423.751</v>
+      </c>
+      <c r="P24" s="15" t="n">
+        <v>44983445693.7452</v>
+      </c>
+      <c r="Q24" s="15" t="n">
+        <v>48192805927.9893</v>
+      </c>
+      <c r="R24" s="15" t="n">
+        <v>42164237463.4606</v>
+      </c>
+      <c r="S24" s="15" t="n">
+        <v>41706668343.1184</v>
+      </c>
+      <c r="T24" s="15" t="n">
+        <v>48626220653.2593</v>
+      </c>
+      <c r="U24" s="15" t="n">
+        <v>31020811944.8711</v>
+      </c>
+      <c r="V24" s="15" t="n">
+        <v>25227193895.1278</v>
+      </c>
+      <c r="W24" s="15" t="n">
+        <v>22128705277.0359</v>
+      </c>
+      <c r="X24" s="15" t="n">
+        <v>21044466872.5407</v>
+      </c>
+      <c r="Y24" s="15" t="n">
+        <v>23948428786.3791</v>
+      </c>
+      <c r="Z24" s="15" t="n">
+        <v>33320734212.1306</v>
+      </c>
+      <c r="AA24" s="15" t="n">
+        <v>32757264828.1729</v>
+      </c>
+      <c r="AB24" s="15" t="n">
+        <v>34813670297.7214</v>
+      </c>
+      <c r="AC24" s="15" t="n">
+        <v>53907820654.5716</v>
+      </c>
+      <c r="AD24" s="15" t="n">
+        <v>47753342042.3351</v>
+      </c>
+      <c r="AE24" s="15" t="n">
+        <v>35047872671.8265</v>
+      </c>
+      <c r="AF24" s="15"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <f>M25</f>
+      </c>
+      <c r="B25" t="str">
+        <f>N25</f>
+      </c>
+      <c r="C25" s="15" t="str">
+        <f>AB25</f>
+      </c>
+      <c r="D25" s="15" t="str">
+        <f>AD25</f>
+      </c>
+      <c r="E25" s="15" t="str">
+        <f>AE25</f>
+      </c>
+      <c r="F25" s="15" t="str">
+        <f>AF25</f>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f>AE25/AD25-1</f>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f>AE25/AB25-1</f>
+      </c>
+      <c r="I25" s="3" t="str">
+        <f>AF25/AE25</f>
+      </c>
+      <c r="J25" s="3" t="str">
+        <f>AE25/Sum(AE$23:AE$41)</f>
+      </c>
+      <c r="K25" s="3" t="str">
+        <f>AF25/Sum(AF23:AF$41)</f>
+      </c>
+      <c r="M25" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" t="s">
+        <v>43</v>
+      </c>
+      <c r="O25" s="15" t="n">
+        <v>30814504432.484</v>
+      </c>
+      <c r="P25" s="15" t="n">
+        <v>35226105451.262</v>
+      </c>
+      <c r="Q25" s="15" t="n">
+        <v>29419123870.4711</v>
+      </c>
+      <c r="R25" s="15" t="n">
+        <v>25118943131.1481</v>
+      </c>
+      <c r="S25" s="15" t="n">
+        <v>24001218690.9956</v>
+      </c>
+      <c r="T25" s="15" t="n">
+        <v>21426171681.2322</v>
+      </c>
+      <c r="U25" s="15" t="n">
+        <v>17737992925.4561</v>
+      </c>
+      <c r="V25" s="15" t="n">
+        <v>14891043061.7477</v>
+      </c>
+      <c r="W25" s="15" t="n">
+        <v>15183910021.9123</v>
+      </c>
+      <c r="X25" s="15" t="n">
+        <v>15392091277.0938</v>
+      </c>
+      <c r="Y25" s="15" t="n">
+        <v>17276398390.4975</v>
+      </c>
+      <c r="Z25" s="15" t="n">
+        <v>27235594954.2583</v>
+      </c>
+      <c r="AA25" s="15" t="n">
+        <v>30110191783.4296</v>
+      </c>
+      <c r="AB25" s="15" t="n">
+        <v>34577238594.4984</v>
+      </c>
+      <c r="AC25" s="15" t="n">
+        <v>41850088227.4911</v>
+      </c>
+      <c r="AD25" s="15" t="n">
+        <v>30473644927.4072</v>
+      </c>
+      <c r="AE25" s="15" t="n">
+        <v>29077141051.9964</v>
+      </c>
+      <c r="AF25" s="15"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <f>M26</f>
+      </c>
+      <c r="B26" t="str">
+        <f>N26</f>
+      </c>
+      <c r="C26" s="15" t="str">
+        <f>AB26</f>
+      </c>
+      <c r="D26" s="15" t="str">
+        <f>AD26</f>
+      </c>
+      <c r="E26" s="15" t="str">
+        <f>AE26</f>
+      </c>
+      <c r="F26" s="15" t="str">
+        <f>AF26</f>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f>AE26/AD26-1</f>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f>AE26/AB26-1</f>
+      </c>
+      <c r="I26" s="3" t="str">
+        <f>AF26/AE26</f>
+      </c>
+      <c r="J26" s="3" t="str">
+        <f>AE26/Sum(AE$23:AE$41)</f>
+      </c>
+      <c r="K26" s="3" t="str">
+        <f>AF26/Sum(AF23:AF$41)</f>
+      </c>
+      <c r="M26" t="s">
+        <v>49</v>
+      </c>
+      <c r="N26" t="s">
+        <v>40</v>
+      </c>
+      <c r="O26" s="15" t="n">
+        <v>42663338841.058</v>
+      </c>
+      <c r="P26" s="15" t="n">
+        <v>46857345803.8037</v>
+      </c>
+      <c r="Q26" s="15" t="n">
+        <v>40793358767.9674</v>
+      </c>
+      <c r="R26" s="15" t="n">
+        <v>41369110071.7669</v>
+      </c>
+      <c r="S26" s="15" t="n">
+        <v>39896655546.6051</v>
+      </c>
+      <c r="T26" s="15" t="n">
+        <v>37989737814.7073</v>
+      </c>
+      <c r="U26" s="15" t="n">
+        <v>32150501924.163</v>
+      </c>
+      <c r="V26" s="15" t="n">
+        <v>36031147486.1144</v>
+      </c>
+      <c r="W26" s="15" t="n">
+        <v>31840288015.6125</v>
+      </c>
+      <c r="X26" s="15" t="n">
+        <v>31866144544.7672</v>
+      </c>
+      <c r="Y26" s="15" t="n">
+        <v>34159431958.9289</v>
+      </c>
+      <c r="Z26" s="15" t="n">
+        <v>23938678150.5467</v>
+      </c>
+      <c r="AA26" s="15" t="n">
+        <v>28065467269.1331</v>
+      </c>
+      <c r="AB26" s="15" t="n">
+        <v>29688146413.3836</v>
+      </c>
+      <c r="AC26" s="15" t="n">
+        <v>26871235561.8919</v>
+      </c>
+      <c r="AD26" s="15" t="n">
+        <v>41911766613.9588</v>
+      </c>
+      <c r="AE26" s="15" t="n">
+        <v>27163604882.0461</v>
+      </c>
+      <c r="AF26" s="15"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <f>M27</f>
+      </c>
+      <c r="B27" t="str">
+        <f>N27</f>
+      </c>
+      <c r="C27" s="15" t="str">
+        <f>AB27</f>
+      </c>
+      <c r="D27" s="15" t="str">
+        <f>AD27</f>
+      </c>
+      <c r="E27" s="15" t="str">
+        <f>AE27</f>
+      </c>
+      <c r="F27" s="15" t="str">
+        <f>AF27</f>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f>AE27/AD27-1</f>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f>AE27/AB27-1</f>
+      </c>
+      <c r="I27" s="3" t="str">
+        <f>AF27/AE27</f>
+      </c>
+      <c r="J27" s="3" t="str">
+        <f>AE27/Sum(AE$23:AE$41)</f>
+      </c>
+      <c r="K27" s="3" t="str">
+        <f>AF27/Sum(AF23:AF$41)</f>
+      </c>
+      <c r="M27" t="s">
+        <v>49</v>
+      </c>
+      <c r="N27" t="s">
+        <v>43</v>
+      </c>
+      <c r="O27" s="15" t="n">
+        <v>28905449498.6676</v>
+      </c>
+      <c r="P27" s="15" t="n">
+        <v>35520350546.0184</v>
+      </c>
+      <c r="Q27" s="15" t="n">
+        <v>17290542216.8818</v>
+      </c>
+      <c r="R27" s="15" t="n">
+        <v>40451995337.1894</v>
+      </c>
+      <c r="S27" s="15" t="n">
+        <v>48168460612.4704</v>
+      </c>
+      <c r="T27" s="15" t="n">
+        <v>45517716538.6861</v>
+      </c>
+      <c r="U27" s="15" t="n">
+        <v>37548129494.197</v>
+      </c>
+      <c r="V27" s="15" t="n">
+        <v>37715434568.0957</v>
+      </c>
+      <c r="W27" s="15" t="n">
+        <v>34188868423.043</v>
+      </c>
+      <c r="X27" s="15" t="n">
+        <v>34562657401.7416</v>
+      </c>
+      <c r="Y27" s="15" t="n">
+        <v>33497329727.3143</v>
+      </c>
+      <c r="Z27" s="15" t="n">
+        <v>28411542108.0127</v>
+      </c>
+      <c r="AA27" s="15" t="n">
+        <v>29337562822.909</v>
+      </c>
+      <c r="AB27" s="15" t="n">
+        <v>32004706745.8009</v>
+      </c>
+      <c r="AC27" s="15" t="n">
+        <v>27817350227.1458</v>
+      </c>
+      <c r="AD27" s="15" t="n">
+        <v>31048070390.2362</v>
+      </c>
+      <c r="AE27" s="15" t="n">
+        <v>33301971196.0154</v>
+      </c>
+      <c r="AF27" s="15"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <f>M28</f>
+      </c>
+      <c r="B28" t="str">
+        <f>N28</f>
+      </c>
+      <c r="C28" s="15" t="str">
+        <f>AB28</f>
+      </c>
+      <c r="D28" s="15" t="str">
+        <f>AD28</f>
+      </c>
+      <c r="E28" s="15" t="str">
+        <f>AE28</f>
+      </c>
+      <c r="F28" s="15" t="str">
+        <f>AF28</f>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f>AE28/AD28-1</f>
+      </c>
+      <c r="H28" s="3" t="str">
+        <f>AE28/AB28-1</f>
+      </c>
+      <c r="I28" s="3" t="str">
+        <f>AF28/AE28</f>
+      </c>
+      <c r="J28" s="3" t="str">
+        <f>AE28/Sum(AE$23:AE$41)</f>
+      </c>
+      <c r="K28" s="3" t="str">
+        <f>AF28/Sum(AF23:AF$41)</f>
+      </c>
+      <c r="M28" t="s">
+        <v>50</v>
+      </c>
+      <c r="N28" t="s">
+        <v>40</v>
+      </c>
+      <c r="O28" s="15" t="n">
+        <v>14294269118.6714</v>
+      </c>
+      <c r="P28" s="15" t="n">
+        <v>14946543280.526</v>
+      </c>
+      <c r="Q28" s="15" t="n">
+        <v>12562759757.6282</v>
+      </c>
+      <c r="R28" s="15" t="n">
+        <v>10467565293.5369</v>
+      </c>
+      <c r="S28" s="15" t="n">
+        <v>8918625389.22816</v>
+      </c>
+      <c r="T28" s="15" t="n">
+        <v>8663624761.43503</v>
+      </c>
+      <c r="U28" s="15" t="n">
+        <v>7296851459.56864</v>
+      </c>
+      <c r="V28" s="15" t="n">
+        <v>9174775867.94883</v>
+      </c>
+      <c r="W28" s="15" t="n">
+        <v>9697635231.98454</v>
+      </c>
+      <c r="X28" s="15" t="n">
+        <v>9599330433.77419</v>
+      </c>
+      <c r="Y28" s="15" t="n">
+        <v>8728348611.9145</v>
+      </c>
+      <c r="Z28" s="15" t="n">
+        <v>15594694662.8298</v>
+      </c>
+      <c r="AA28" s="15" t="n">
+        <v>15559158125.7633</v>
+      </c>
+      <c r="AB28" s="15" t="n">
+        <v>14505983726.6789</v>
+      </c>
+      <c r="AC28" s="15" t="n">
+        <v>12917973527.1237</v>
+      </c>
+      <c r="AD28" s="15" t="n">
+        <v>12173110760.9404</v>
+      </c>
+      <c r="AE28" s="15" t="n">
+        <v>12484524362.2018</v>
+      </c>
+      <c r="AF28" s="15"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <f>M29</f>
+      </c>
+      <c r="B29" t="str">
+        <f>N29</f>
+      </c>
+      <c r="C29" s="15" t="str">
+        <f>AB29</f>
+      </c>
+      <c r="D29" s="15" t="str">
+        <f>AD29</f>
+      </c>
+      <c r="E29" s="15" t="str">
+        <f>AE29</f>
+      </c>
+      <c r="F29" s="15" t="str">
+        <f>AF29</f>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f>AE29/AD29-1</f>
+      </c>
+      <c r="H29" s="3" t="str">
+        <f>AE29/AB29-1</f>
+      </c>
+      <c r="I29" s="3" t="str">
+        <f>AF29/AE29</f>
+      </c>
+      <c r="J29" s="3" t="str">
+        <f>AE29/Sum(AE$23:AE$41)</f>
+      </c>
+      <c r="K29" s="3" t="str">
+        <f>AF29/Sum(AF23:AF$41)</f>
+      </c>
+      <c r="M29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N29" t="s">
+        <v>43</v>
+      </c>
+      <c r="O29" s="15" t="n">
+        <v>15278408943.2979</v>
+      </c>
+      <c r="P29" s="15" t="n">
+        <v>13859372225.2449</v>
+      </c>
+      <c r="Q29" s="15" t="n">
+        <v>14697319992.8448</v>
+      </c>
+      <c r="R29" s="15" t="n">
+        <v>14092694581.2504</v>
+      </c>
+      <c r="S29" s="15" t="n">
+        <v>18738956427.1213</v>
+      </c>
+      <c r="T29" s="15" t="n">
+        <v>16651480669.8392</v>
+      </c>
+      <c r="U29" s="15" t="n">
+        <v>13629801281.9177</v>
+      </c>
+      <c r="V29" s="15" t="n">
+        <v>13612619751.1916</v>
+      </c>
+      <c r="W29" s="15" t="n">
+        <v>13239488363.8642</v>
+      </c>
+      <c r="X29" s="15" t="n">
+        <v>12279635703.885</v>
+      </c>
+      <c r="Y29" s="15" t="n">
+        <v>13275113825.7621</v>
+      </c>
+      <c r="Z29" s="15" t="n">
+        <v>16102386492.3286</v>
+      </c>
+      <c r="AA29" s="15" t="n">
+        <v>15835366921.9804</v>
+      </c>
+      <c r="AB29" s="15" t="n">
+        <v>14569511966.4128</v>
+      </c>
+      <c r="AC29" s="15" t="n">
+        <v>12218778722.5267</v>
+      </c>
+      <c r="AD29" s="15" t="n">
+        <v>12737057740.2291</v>
+      </c>
+      <c r="AE29" s="15" t="n">
+        <v>8757199136.17</v>
+      </c>
+      <c r="AF29" s="15"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <f>M30</f>
+      </c>
+      <c r="B30" t="str">
+        <f>N30</f>
+      </c>
+      <c r="C30" s="15" t="str">
+        <f>AB30</f>
+      </c>
+      <c r="D30" s="15" t="str">
+        <f>AD30</f>
+      </c>
+      <c r="E30" s="15" t="str">
+        <f>AE30</f>
+      </c>
+      <c r="F30" s="15" t="str">
+        <f>AF30</f>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f>AE30/AD30-1</f>
+      </c>
+      <c r="H30" s="3" t="str">
+        <f>AE30/AB30-1</f>
+      </c>
+      <c r="I30" s="3" t="str">
+        <f>AF30/AE30</f>
+      </c>
+      <c r="J30" s="3" t="str">
+        <f>AE30/Sum(AE$23:AE$41)</f>
+      </c>
+      <c r="K30" s="3" t="str">
+        <f>AF30/Sum(AF23:AF$41)</f>
+      </c>
+      <c r="M30" t="s">
+        <v>58</v>
+      </c>
+      <c r="N30" t="s">
+        <v>40</v>
+      </c>
+      <c r="O30" s="15" t="n">
+        <v>6897912.25726192</v>
+      </c>
+      <c r="P30" s="15" t="n">
+        <v>13885173.8185951</v>
+      </c>
+      <c r="Q30" s="15" t="n">
+        <v>23102688.930664</v>
+      </c>
+      <c r="R30" s="15" t="n">
+        <v>513214268.488699</v>
+      </c>
+      <c r="S30" s="15" t="n">
+        <v>1622658652.68443</v>
+      </c>
+      <c r="T30" s="15" t="n">
+        <v>2484330308.30501</v>
+      </c>
+      <c r="U30" s="15" t="n">
+        <v>1226247517.87454</v>
+      </c>
+      <c r="V30" s="15" t="n">
+        <v>1376620158.45245</v>
+      </c>
+      <c r="W30" s="15" t="n">
+        <v>1362348485.25707</v>
+      </c>
+      <c r="X30" s="15" t="n">
+        <v>2241500528.69108</v>
+      </c>
+      <c r="Y30" s="15" t="n">
+        <v>4573323112.20829</v>
+      </c>
+      <c r="Z30" s="15" t="n">
+        <v>3671883572.8402</v>
+      </c>
+      <c r="AA30" s="15" t="n">
+        <v>4121175622.78338</v>
+      </c>
+      <c r="AB30" s="15" t="n">
+        <v>4127649038.41478</v>
+      </c>
+      <c r="AC30" s="15" t="n">
+        <v>2750619741.02132</v>
+      </c>
+      <c r="AD30" s="15" t="n">
+        <v>4785490262.35678</v>
+      </c>
+      <c r="AE30" s="15" t="n">
+        <v>2076520940.4654</v>
+      </c>
+      <c r="AF30" s="15"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <f>M31</f>
+      </c>
+      <c r="B31" t="str">
+        <f>N31</f>
+      </c>
+      <c r="C31" s="15" t="str">
+        <f>AB31</f>
+      </c>
+      <c r="D31" s="15" t="str">
+        <f>AD31</f>
+      </c>
+      <c r="E31" s="15" t="str">
+        <f>AE31</f>
+      </c>
+      <c r="F31" s="15" t="str">
+        <f>AF31</f>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f>AE31/AD31-1</f>
+      </c>
+      <c r="H31" s="3" t="str">
+        <f>AE31/AB31-1</f>
+      </c>
+      <c r="I31" s="3" t="str">
+        <f>AF31/AE31</f>
+      </c>
+      <c r="J31" s="3" t="str">
+        <f>AE31/Sum(AE$23:AE$41)</f>
+      </c>
+      <c r="K31" s="3" t="str">
+        <f>AF31/Sum(AF23:AF$41)</f>
+      </c>
+      <c r="M31" t="s">
+        <v>58</v>
+      </c>
+      <c r="N31" t="s">
+        <v>43</v>
+      </c>
+      <c r="O31" s="15" t="n">
+        <v>173685575.911196</v>
+      </c>
+      <c r="P31" s="15" t="n">
+        <v>75563242.4972936</v>
+      </c>
+      <c r="Q31" s="15" t="n">
+        <v>537234785.238114</v>
+      </c>
+      <c r="R31" s="15" t="n">
+        <v>14224375675.7865</v>
+      </c>
+      <c r="S31" s="15" t="n">
+        <v>56386160665.1557</v>
+      </c>
+      <c r="T31" s="15" t="n">
+        <v>71767051030.2011</v>
+      </c>
+      <c r="U31" s="15" t="n">
+        <v>60465081476.2742</v>
+      </c>
+      <c r="V31" s="15" t="n">
+        <v>55525878671.4186</v>
+      </c>
+      <c r="W31" s="15" t="n">
+        <v>55122740966.5721</v>
+      </c>
+      <c r="X31" s="15" t="n">
+        <v>62845153912.9054</v>
+      </c>
+      <c r="Y31" s="15" t="n">
+        <v>69087992571.8098</v>
+      </c>
+      <c r="Z31" s="15" t="n">
+        <v>90819648848.8026</v>
+      </c>
+      <c r="AA31" s="15" t="n">
+        <v>93982592428.8516</v>
+      </c>
+      <c r="AB31" s="15" t="n">
+        <v>100383928203.093</v>
+      </c>
+      <c r="AC31" s="15" t="n">
+        <v>95369893248.7136</v>
+      </c>
+      <c r="AD31" s="15" t="n">
+        <v>90436735503.6936</v>
+      </c>
+      <c r="AE31" s="15" t="n">
+        <v>59404120556.1747</v>
+      </c>
+      <c r="AF31" s="15"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <f>M32</f>
+      </c>
+      <c r="B32" t="str">
+        <f>N32</f>
+      </c>
+      <c r="C32" s="15" t="str">
+        <f>AB32</f>
+      </c>
+      <c r="D32" s="15" t="str">
+        <f>AD32</f>
+      </c>
+      <c r="E32" s="15" t="str">
+        <f>AE32</f>
+      </c>
+      <c r="F32" s="15" t="str">
+        <f>AF32</f>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f>AE32/AD32-1</f>
+      </c>
+      <c r="H32" s="3" t="str">
+        <f>AE32/AB32-1</f>
+      </c>
+      <c r="I32" s="3" t="str">
+        <f>AF32/AE32</f>
+      </c>
+      <c r="J32" s="3" t="str">
+        <f>AE32/Sum(AE$23:AE$41)</f>
+      </c>
+      <c r="K32" s="3" t="str">
+        <f>AF32/Sum(AF23:AF$41)</f>
+      </c>
+      <c r="M32" t="s">
+        <v>59</v>
+      </c>
+      <c r="N32" t="s">
+        <v>40</v>
+      </c>
+      <c r="O32" s="15" t="n">
+        <v>11081326163.8317</v>
+      </c>
+      <c r="P32" s="15" t="n">
+        <v>11447778057.2763</v>
+      </c>
+      <c r="Q32" s="15" t="n">
+        <v>10681106768.2668</v>
+      </c>
+      <c r="R32" s="15" t="n">
+        <v>9499338035.61011</v>
+      </c>
+      <c r="S32" s="15" t="n">
+        <v>2120464998.29722</v>
+      </c>
+      <c r="T32" s="15" t="n">
+        <v>4988491044.66079</v>
+      </c>
+      <c r="U32" s="15" t="n">
+        <v>4101193485.59845</v>
+      </c>
+      <c r="V32" s="15" t="n">
+        <v>4294501467.2723</v>
+      </c>
+      <c r="W32" s="15" t="n">
+        <v>3726640860.33707</v>
+      </c>
+      <c r="X32" s="15" t="n">
+        <v>3723965713.14435</v>
+      </c>
+      <c r="Y32" s="15" t="n">
+        <v>2860451972.94533</v>
+      </c>
+      <c r="Z32" s="15" t="n">
+        <v>496733594.963386</v>
+      </c>
+      <c r="AA32" s="15" t="n">
+        <v>4083901921.48299</v>
+      </c>
+      <c r="AB32" s="15" t="n">
+        <v>1777807314.90349</v>
+      </c>
+      <c r="AC32" s="15" t="n">
+        <v>413715041.415498</v>
+      </c>
+      <c r="AD32" s="15" t="n">
+        <v>1151567598.39561</v>
+      </c>
+      <c r="AE32" s="15" t="n">
+        <v>385133330.092</v>
+      </c>
+      <c r="AF32" s="15"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <f>M33</f>
+      </c>
+      <c r="B33" t="str">
+        <f>N33</f>
+      </c>
+      <c r="C33" s="15" t="str">
+        <f>AB33</f>
+      </c>
+      <c r="D33" s="15" t="str">
+        <f>AD33</f>
+      </c>
+      <c r="E33" s="15" t="str">
+        <f>AE33</f>
+      </c>
+      <c r="F33" s="15" t="str">
+        <f>AF33</f>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f>AE33/AD33-1</f>
+      </c>
+      <c r="H33" s="3" t="str">
+        <f>AE33/AB33-1</f>
+      </c>
+      <c r="I33" s="3" t="str">
+        <f>AF33/AE33</f>
+      </c>
+      <c r="J33" s="3" t="str">
+        <f>AE33/Sum(AE$23:AE$41)</f>
+      </c>
+      <c r="K33" s="3" t="str">
+        <f>AF33/Sum(AF23:AF$41)</f>
+      </c>
+      <c r="M33" t="s">
+        <v>59</v>
+      </c>
+      <c r="N33" t="s">
+        <v>43</v>
+      </c>
+      <c r="O33" s="15" t="n">
+        <v>100006929609.079</v>
+      </c>
+      <c r="P33" s="15" t="n">
+        <v>111690542171.124</v>
+      </c>
+      <c r="Q33" s="15" t="n">
+        <v>133824537997.632</v>
+      </c>
+      <c r="R33" s="15" t="n">
+        <v>167617042785.157</v>
+      </c>
+      <c r="S33" s="15" t="n">
+        <v>154357678751.836</v>
+      </c>
+      <c r="T33" s="15" t="n">
+        <v>145317450200.443</v>
+      </c>
+      <c r="U33" s="15" t="n">
+        <v>144051487584.297</v>
+      </c>
+      <c r="V33" s="15" t="n">
+        <v>117496213583.669</v>
+      </c>
+      <c r="W33" s="15" t="n">
+        <v>117258536226.008</v>
+      </c>
+      <c r="X33" s="15" t="n">
+        <v>139522847704.147</v>
+      </c>
+      <c r="Y33" s="15" t="n">
+        <v>145558833457.85</v>
+      </c>
+      <c r="Z33" s="15" t="n">
+        <v>144830212451.88</v>
+      </c>
+      <c r="AA33" s="15" t="n">
+        <v>153032145026.315</v>
+      </c>
+      <c r="AB33" s="15" t="n">
+        <v>178626225101.947</v>
+      </c>
+      <c r="AC33" s="15" t="n">
+        <v>119701785755.133</v>
+      </c>
+      <c r="AD33" s="15" t="n">
+        <v>123619444932.3</v>
+      </c>
+      <c r="AE33" s="15" t="n">
+        <v>194346193394.303</v>
+      </c>
+      <c r="AF33" s="15"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <f>M34</f>
+      </c>
+      <c r="B34" t="str">
+        <f>N34</f>
+      </c>
+      <c r="C34" s="15" t="str">
+        <f>AB34</f>
+      </c>
+      <c r="D34" s="15" t="str">
+        <f>AD34</f>
+      </c>
+      <c r="E34" s="15" t="str">
+        <f>AE34</f>
+      </c>
+      <c r="F34" s="15" t="str">
+        <f>AF34</f>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f>AE34/AD34-1</f>
+      </c>
+      <c r="H34" s="3" t="str">
+        <f>AE34/AB34-1</f>
+      </c>
+      <c r="I34" s="3" t="str">
+        <f>AF34/AE34</f>
+      </c>
+      <c r="J34" s="3" t="str">
+        <f>AE34/Sum(AE$23:AE$41)</f>
+      </c>
+      <c r="K34" s="3" t="str">
+        <f>AF34/Sum(AF23:AF$41)</f>
+      </c>
+      <c r="M34" t="s">
+        <v>57</v>
+      </c>
+      <c r="N34" t="s">
+        <v>40</v>
+      </c>
+      <c r="O34" s="15" t="n">
+        <v>4927975.24543857</v>
+      </c>
+      <c r="P34" s="15" t="n">
+        <v>10156640.0963325</v>
+      </c>
+      <c r="Q34" s="15" t="n">
+        <v>6559574.13976913</v>
+      </c>
+      <c r="R34" s="15" t="n">
+        <v>-530002.633965152</v>
+      </c>
+      <c r="S34" s="15" t="n">
+        <v>756423.842348394</v>
+      </c>
+      <c r="T34" s="15" t="n">
+        <v>3597300.3627095</v>
+      </c>
+      <c r="U34" s="15" t="n">
+        <v>953544.880939329</v>
+      </c>
+      <c r="V34" s="15" t="n">
+        <v>2100234.12194165</v>
+      </c>
+      <c r="W34" s="15" t="n">
+        <v>860999.023632689</v>
+      </c>
+      <c r="X34" s="15" t="n">
+        <v>9268393.16624881</v>
+      </c>
+      <c r="Y34" s="15" t="n">
+        <v>18969615.411275</v>
+      </c>
+      <c r="Z34" s="15" t="n">
+        <v>12065005.5308147</v>
+      </c>
+      <c r="AA34" s="15" t="n">
+        <v>58918679.9636052</v>
+      </c>
+      <c r="AB34" s="15" t="n">
+        <v>750872.466361167</v>
+      </c>
+      <c r="AC34" s="15" t="n">
+        <v>21077740.3019894</v>
+      </c>
+      <c r="AD34" s="15" t="n">
+        <v>6697698.44392739</v>
+      </c>
+      <c r="AE34" s="15" t="n">
+        <v>3009276.3125</v>
+      </c>
+      <c r="AF34" s="15"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <f>M35</f>
+      </c>
+      <c r="B35" t="str">
+        <f>N35</f>
+      </c>
+      <c r="C35" s="15" t="str">
+        <f>AB35</f>
+      </c>
+      <c r="D35" s="15" t="str">
+        <f>AD35</f>
+      </c>
+      <c r="E35" s="15" t="str">
+        <f>AE35</f>
+      </c>
+      <c r="F35" s="15" t="str">
+        <f>AF35</f>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f>AE35/AD35-1</f>
+      </c>
+      <c r="H35" s="3" t="str">
+        <f>AE35/AB35-1</f>
+      </c>
+      <c r="I35" s="3" t="str">
+        <f>AF35/AE35</f>
+      </c>
+      <c r="J35" s="3" t="str">
+        <f>AE35/Sum(AE$23:AE$41)</f>
+      </c>
+      <c r="K35" s="3" t="str">
+        <f>AF35/Sum(AF23:AF$41)</f>
+      </c>
+      <c r="M35" t="s">
+        <v>57</v>
+      </c>
+      <c r="N35" t="s">
+        <v>43</v>
+      </c>
+      <c r="O35" s="15" t="n">
+        <v>129494665.991222</v>
+      </c>
+      <c r="P35" s="15" t="n">
+        <v>376999368.553153</v>
+      </c>
+      <c r="Q35" s="15" t="n">
+        <v>164705115.519292</v>
+      </c>
+      <c r="R35" s="15" t="n">
+        <v>3052336970.05866</v>
+      </c>
+      <c r="S35" s="15" t="n">
+        <v>620639379.059586</v>
+      </c>
+      <c r="T35" s="15" t="n">
+        <v>428082124.158577</v>
+      </c>
+      <c r="U35" s="15" t="n">
+        <v>264005381.730712</v>
+      </c>
+      <c r="V35" s="15" t="n">
+        <v>319864252.59757</v>
+      </c>
+      <c r="W35" s="15" t="n">
+        <v>155895886.847221</v>
+      </c>
+      <c r="X35" s="15" t="n">
+        <v>233122510.00642</v>
+      </c>
+      <c r="Y35" s="15" t="n">
+        <v>153787934.235354</v>
+      </c>
+      <c r="Z35" s="15" t="n">
+        <v>168701065.6176</v>
+      </c>
+      <c r="AA35" s="15" t="n">
+        <v>367214234.446343</v>
+      </c>
+      <c r="AB35" s="15" t="n">
+        <v>384718922.536547</v>
+      </c>
+      <c r="AC35" s="15" t="n">
+        <v>333792378.138851</v>
+      </c>
+      <c r="AD35" s="15" t="n">
+        <v>356041881.589343</v>
+      </c>
+      <c r="AE35" s="15" t="n">
+        <v>643485539.1533</v>
+      </c>
+      <c r="AF35" s="15"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <f>M36</f>
+      </c>
+      <c r="B36" t="str">
+        <f>N36</f>
+      </c>
+      <c r="C36" s="15" t="str">
+        <f>AB36</f>
+      </c>
+      <c r="D36" s="15" t="str">
+        <f>AD36</f>
+      </c>
+      <c r="E36" s="15" t="str">
+        <f>AE36</f>
+      </c>
+      <c r="F36" s="15" t="str">
+        <f>AF36</f>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f>AE36/AD36-1</f>
+      </c>
+      <c r="H36" s="3" t="str">
+        <f>AE36/AB36-1</f>
+      </c>
+      <c r="I36" s="3" t="str">
+        <f>AF36/AE36</f>
+      </c>
+      <c r="J36" s="3" t="str">
+        <f>AE36/Sum(AE$23:AE$41)</f>
+      </c>
+      <c r="K36" s="3" t="str">
+        <f>AF36/Sum(AF23:AF$41)</f>
+      </c>
+      <c r="M36" t="s">
+        <v>52</v>
+      </c>
+      <c r="N36" t="s">
+        <v>40</v>
+      </c>
+      <c r="O36" s="15" t="n">
+        <v>20096300367.6935</v>
+      </c>
+      <c r="P36" s="15" t="n">
+        <v>15985104110.2386</v>
+      </c>
+      <c r="Q36" s="15" t="n">
+        <v>11051301679.3354</v>
+      </c>
+      <c r="R36" s="15" t="n">
+        <v>6861428245.02892</v>
+      </c>
+      <c r="S36" s="15" t="n">
+        <v>5271068833.92491</v>
+      </c>
+      <c r="T36" s="15" t="n">
+        <v>4021994395.74978</v>
+      </c>
+      <c r="U36" s="15" t="n">
+        <v>3126995890.51699</v>
+      </c>
+      <c r="V36" s="15" t="n">
+        <v>2252672586.07337</v>
+      </c>
+      <c r="W36" s="15" t="n">
+        <v>3694564821.21213</v>
+      </c>
+      <c r="X36" s="15" t="n">
+        <v>2335910588.75374</v>
+      </c>
+      <c r="Y36" s="15" t="n">
+        <v>1989770046.28798</v>
+      </c>
+      <c r="Z36" s="15" t="n">
+        <v>1861486719.65612</v>
+      </c>
+      <c r="AA36" s="15" t="n">
+        <v>2053060235.57906</v>
+      </c>
+      <c r="AB36" s="15" t="n">
+        <v>2392550762.45325</v>
+      </c>
+      <c r="AC36" s="15" t="n">
+        <v>1865254916.5128</v>
+      </c>
+      <c r="AD36" s="15" t="n">
+        <v>2045132368.81667</v>
+      </c>
+      <c r="AE36" s="15" t="n">
+        <v>4349132039.113</v>
+      </c>
+      <c r="AF36" s="15"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <f>M37</f>
+      </c>
+      <c r="B37" t="str">
+        <f>N37</f>
+      </c>
+      <c r="C37" s="15" t="str">
+        <f>AB37</f>
+      </c>
+      <c r="D37" s="15" t="str">
+        <f>AD37</f>
+      </c>
+      <c r="E37" s="15" t="str">
+        <f>AE37</f>
+      </c>
+      <c r="F37" s="15" t="str">
+        <f>AF37</f>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f>AE37/AD37-1</f>
+      </c>
+      <c r="H37" s="3" t="str">
+        <f>AE37/AB37-1</f>
+      </c>
+      <c r="I37" s="3" t="str">
+        <f>AF37/AE37</f>
+      </c>
+      <c r="J37" s="3" t="str">
+        <f>AE37/Sum(AE$23:AE$41)</f>
+      </c>
+      <c r="K37" s="3" t="str">
+        <f>AF37/Sum(AF23:AF$41)</f>
+      </c>
+      <c r="M37" t="s">
+        <v>52</v>
+      </c>
+      <c r="N37" t="s">
+        <v>43</v>
+      </c>
+      <c r="O37" s="15" t="n">
+        <v>143479181461.936</v>
+      </c>
+      <c r="P37" s="15" t="n">
+        <v>162285532497.217</v>
+      </c>
+      <c r="Q37" s="15" t="n">
+        <v>151402719640.374</v>
+      </c>
+      <c r="R37" s="15" t="n">
+        <v>98686426118.2673</v>
+      </c>
+      <c r="S37" s="15" t="n">
+        <v>68088344197.2389</v>
+      </c>
+      <c r="T37" s="15" t="n">
+        <v>41771183380.3403</v>
+      </c>
+      <c r="U37" s="15" t="n">
+        <v>23611958483.8687</v>
+      </c>
+      <c r="V37" s="15" t="n">
+        <v>19683614119.4291</v>
+      </c>
+      <c r="W37" s="15" t="n">
+        <v>14669700733.9954</v>
+      </c>
+      <c r="X37" s="15" t="n">
+        <v>12763233150.483</v>
+      </c>
+      <c r="Y37" s="15" t="n">
+        <v>14622365123.9462</v>
+      </c>
+      <c r="Z37" s="15" t="n">
+        <v>13899501665.9389</v>
+      </c>
+      <c r="AA37" s="15" t="n">
+        <v>12297973986.1974</v>
+      </c>
+      <c r="AB37" s="15" t="n">
+        <v>14126333483.4409</v>
+      </c>
+      <c r="AC37" s="15" t="n">
+        <v>13354299200.0388</v>
+      </c>
+      <c r="AD37" s="15" t="n">
+        <v>11840793146.6593</v>
+      </c>
+      <c r="AE37" s="15" t="n">
+        <v>26136114722.1225</v>
+      </c>
+      <c r="AF37" s="15"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <f>M38</f>
+      </c>
+      <c r="B38" t="str">
+        <f>N38</f>
+      </c>
+      <c r="C38" s="15" t="str">
+        <f>AB38</f>
+      </c>
+      <c r="D38" s="15" t="str">
+        <f>AD38</f>
+      </c>
+      <c r="E38" s="15" t="str">
+        <f>AE38</f>
+      </c>
+      <c r="F38" s="15" t="str">
+        <f>AF38</f>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f>AE38/AD38-1</f>
+      </c>
+      <c r="H38" s="3" t="str">
+        <f>AE38/AB38-1</f>
+      </c>
+      <c r="I38" s="3" t="str">
+        <f>AF38/AE38</f>
+      </c>
+      <c r="J38" s="3" t="str">
+        <f>AE38/Sum(AE$23:AE$41)</f>
+      </c>
+      <c r="K38" s="3" t="str">
+        <f>AF38/Sum(AF23:AF$41)</f>
+      </c>
+      <c r="M38" t="s">
+        <v>53</v>
+      </c>
+      <c r="N38" t="s">
+        <v>40</v>
+      </c>
+      <c r="O38" s="15" t="n">
+        <v>12022480453.7951</v>
+      </c>
+      <c r="P38" s="15" t="n">
+        <v>12049860723.0378</v>
+      </c>
+      <c r="Q38" s="15" t="n">
+        <v>11247987124.3276</v>
+      </c>
+      <c r="R38" s="15" t="n">
+        <v>8172686625.05649</v>
+      </c>
+      <c r="S38" s="15" t="n">
+        <v>6589314445.61342</v>
+      </c>
+      <c r="T38" s="15" t="n">
+        <v>6326764311.43694</v>
+      </c>
+      <c r="U38" s="15" t="n">
+        <v>4577289622.84308</v>
+      </c>
+      <c r="V38" s="15" t="n">
+        <v>5083634552.55849</v>
+      </c>
+      <c r="W38" s="15" t="n">
+        <v>4559684889.38713</v>
+      </c>
+      <c r="X38" s="15" t="n">
+        <v>5623018463.65801</v>
+      </c>
+      <c r="Y38" s="15" t="n">
+        <v>6669796283.48998</v>
+      </c>
+      <c r="Z38" s="15" t="n">
+        <v>7886424223.58715</v>
+      </c>
+      <c r="AA38" s="15" t="n">
+        <v>8176886977.35642</v>
+      </c>
+      <c r="AB38" s="15" t="n">
+        <v>8054334488.32494</v>
+      </c>
+      <c r="AC38" s="15" t="n">
+        <v>7985882603.63557</v>
+      </c>
+      <c r="AD38" s="15" t="n">
+        <v>7077283089.4875</v>
+      </c>
+      <c r="AE38" s="15" t="n">
+        <v>8611322470.3826</v>
+      </c>
+      <c r="AF38" s="15"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <f>M39</f>
+      </c>
+      <c r="B39" t="str">
+        <f>N39</f>
+      </c>
+      <c r="C39" s="15" t="str">
+        <f>AB39</f>
+      </c>
+      <c r="D39" s="15" t="str">
+        <f>AD39</f>
+      </c>
+      <c r="E39" s="15" t="str">
+        <f>AE39</f>
+      </c>
+      <c r="F39" s="15" t="str">
+        <f>AF39</f>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f>AE39/AD39-1</f>
+      </c>
+      <c r="H39" s="3" t="str">
+        <f>AE39/AB39-1</f>
+      </c>
+      <c r="I39" s="3" t="str">
+        <f>AF39/AE39</f>
+      </c>
+      <c r="J39" s="3" t="str">
+        <f>AE39/Sum(AE$23:AE$41)</f>
+      </c>
+      <c r="K39" s="3" t="str">
+        <f>AF39/Sum(AF23:AF$41)</f>
+      </c>
+      <c r="M39" t="s">
+        <v>53</v>
+      </c>
+      <c r="N39" t="s">
+        <v>43</v>
+      </c>
+      <c r="O39" s="15" t="n">
+        <v>16704124189.3925</v>
+      </c>
+      <c r="P39" s="15" t="n">
+        <v>15597127368.5026</v>
+      </c>
+      <c r="Q39" s="15" t="n">
+        <v>16161596635.648</v>
+      </c>
+      <c r="R39" s="15" t="n">
+        <v>13562805723.1655</v>
+      </c>
+      <c r="S39" s="15" t="n">
+        <v>18630934397.7486</v>
+      </c>
+      <c r="T39" s="15" t="n">
+        <v>17330589725.2876</v>
+      </c>
+      <c r="U39" s="15" t="n">
+        <v>15424782688.6793</v>
+      </c>
+      <c r="V39" s="15" t="n">
+        <v>15315169438.5208</v>
+      </c>
+      <c r="W39" s="15" t="n">
+        <v>14986877587.8788</v>
+      </c>
+      <c r="X39" s="15" t="n">
+        <v>15197428239.4648</v>
+      </c>
+      <c r="Y39" s="15" t="n">
+        <v>15382007304.9791</v>
+      </c>
+      <c r="Z39" s="15" t="n">
+        <v>19031457021.5862</v>
+      </c>
+      <c r="AA39" s="15" t="n">
+        <v>18770194772.1515</v>
+      </c>
+      <c r="AB39" s="15" t="n">
+        <v>17899248912.8761</v>
+      </c>
+      <c r="AC39" s="15" t="n">
+        <v>15709581363.1484</v>
+      </c>
+      <c r="AD39" s="15" t="n">
+        <v>15412335206.8195</v>
+      </c>
+      <c r="AE39" s="15" t="n">
+        <v>11028697994.0188</v>
+      </c>
+      <c r="AF39" s="15"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <f>M40</f>
+      </c>
+      <c r="B40" t="str">
+        <f>N40</f>
+      </c>
+      <c r="C40" s="15" t="str">
+        <f>AB40</f>
+      </c>
+      <c r="D40" s="15" t="str">
+        <f>AD40</f>
+      </c>
+      <c r="E40" s="15" t="str">
+        <f>AE40</f>
+      </c>
+      <c r="F40" s="15" t="str">
+        <f>AF40</f>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f>AE40/AD40-1</f>
+      </c>
+      <c r="H40" s="3" t="str">
+        <f>AE40/AB40-1</f>
+      </c>
+      <c r="I40" s="3" t="str">
+        <f>AF40/AE40</f>
+      </c>
+      <c r="J40" s="3" t="str">
+        <f>AE40/Sum(AE$23:AE$41)</f>
+      </c>
+      <c r="K40" s="3" t="str">
+        <f>AF40/Sum(AF23:AF$41)</f>
+      </c>
+      <c r="M40" t="s">
+        <v>54</v>
+      </c>
+      <c r="N40" t="s">
+        <v>40</v>
+      </c>
+      <c r="O40" s="15" t="n">
+        <v>116279253.77012</v>
+      </c>
+      <c r="P40" s="15" t="n">
+        <v>2745094225.45514</v>
+      </c>
+      <c r="Q40" s="15" t="n">
+        <v>2393706848.21061</v>
+      </c>
+      <c r="R40" s="15" t="n">
+        <v>1833565961.51133</v>
+      </c>
+      <c r="S40" s="15" t="n">
+        <v>1474255297.22779</v>
+      </c>
+      <c r="T40" s="15" t="n">
+        <v>744126667.930949</v>
+      </c>
+      <c r="U40" s="15" t="n">
+        <v>514820985.594724</v>
+      </c>
+      <c r="V40" s="15" t="n">
+        <v>449721361.009705</v>
+      </c>
+      <c r="W40" s="15" t="n">
+        <v>441688712.505163</v>
+      </c>
+      <c r="X40" s="15" t="n">
+        <v>584800479.861838</v>
+      </c>
+      <c r="Y40" s="15" t="n">
+        <v>288060577.024133</v>
+      </c>
+      <c r="Z40" s="15" t="n">
+        <v>333728994.50215</v>
+      </c>
+      <c r="AA40" s="15" t="n">
+        <v>489472944.550697</v>
+      </c>
+      <c r="AB40" s="15" t="n">
+        <v>327876440.045681</v>
+      </c>
+      <c r="AC40" s="15" t="n">
+        <v>294904664.842728</v>
+      </c>
+      <c r="AD40" s="15" t="n">
+        <v>260661377.308312</v>
+      </c>
+      <c r="AE40" s="15" t="n">
+        <v>1719360865.2598</v>
+      </c>
+      <c r="AF40" s="15"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <f>M41</f>
+      </c>
+      <c r="B41" t="str">
+        <f>N41</f>
+      </c>
+      <c r="C41" s="15" t="str">
+        <f>AB41</f>
+      </c>
+      <c r="D41" s="15" t="str">
+        <f>AD41</f>
+      </c>
+      <c r="E41" s="15" t="str">
+        <f>AE41</f>
+      </c>
+      <c r="F41" s="15" t="str">
+        <f>AF41</f>
+      </c>
+      <c r="G41" s="3" t="str">
+        <f>AE41/AD41-1</f>
+      </c>
+      <c r="H41" s="3" t="str">
+        <f>AE41/AB41-1</f>
+      </c>
+      <c r="I41" s="3" t="str">
+        <f>AF41/AE41</f>
+      </c>
+      <c r="J41" s="3" t="str">
+        <f>AE41/Sum(AE$23:AE$41)</f>
+      </c>
+      <c r="K41" s="3" t="str">
+        <f>AF41/Sum(AF23:AF$41)</f>
+      </c>
+      <c r="M41" t="s">
+        <v>54</v>
+      </c>
+      <c r="N41" t="s">
+        <v>43</v>
+      </c>
+      <c r="O41" s="15" t="n">
+        <v>1135565293.06255</v>
+      </c>
+      <c r="P41" s="15" t="n">
+        <v>8651533051.52256</v>
+      </c>
+      <c r="Q41" s="15" t="n">
+        <v>12319288525.5392</v>
+      </c>
+      <c r="R41" s="15" t="n">
+        <v>4130914997.79964</v>
+      </c>
+      <c r="S41" s="15" t="n">
+        <v>2979356320.93152</v>
+      </c>
+      <c r="T41" s="15" t="n">
+        <v>2446786154.25965</v>
+      </c>
+      <c r="U41" s="15" t="n">
+        <v>1391834451.67874</v>
+      </c>
+      <c r="V41" s="15" t="n">
+        <v>1222394413.80361</v>
+      </c>
+      <c r="W41" s="15" t="n">
+        <v>856385141.561649</v>
+      </c>
+      <c r="X41" s="15" t="n">
+        <v>808011240.718388</v>
+      </c>
+      <c r="Y41" s="15" t="n">
+        <v>916803226.499431</v>
+      </c>
+      <c r="Z41" s="15" t="n">
+        <v>871623914.090263</v>
+      </c>
+      <c r="AA41" s="15" t="n">
+        <v>1049308363.74618</v>
+      </c>
+      <c r="AB41" s="15" t="n">
+        <v>928095514.024027</v>
+      </c>
+      <c r="AC41" s="15" t="n">
+        <v>432279122.064571</v>
+      </c>
+      <c r="AD41" s="15" t="n">
+        <v>480686438.079784</v>
+      </c>
+      <c r="AE41" s="15" t="n">
+        <v>1783365852.8155</v>
+      </c>
+      <c r="AF41" s="15"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <f>M42</f>
+      </c>
+      <c r="B42" t="str">
+        <f>N42</f>
+      </c>
+      <c r="C42" s="15" t="str">
+        <f>AB42</f>
+      </c>
+      <c r="D42" s="15" t="str">
+        <f>AD42</f>
+      </c>
+      <c r="E42" s="15" t="str">
+        <f>AE42</f>
+      </c>
+      <c r="F42" s="15" t="str">
+        <f>AF42</f>
+      </c>
+      <c r="G42" s="3" t="str">
+        <f>AE42/AD42-1</f>
+      </c>
+      <c r="H42" s="3" t="str">
+        <f>AE42/AB42-1</f>
+      </c>
+      <c r="I42" s="3" t="str">
+        <f>AF42/AE42</f>
+      </c>
+      <c r="J42" s="3" t="str">
+        <f>Sum(J$23:J$41)</f>
+      </c>
+      <c r="K42" s="3" t="str">
+        <f>Sum(K$23:K$41)</f>
+      </c>
+      <c r="M42" t="s">
+        <v>18</v>
+      </c>
+      <c r="N42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O42" s="15" t="str">
+        <f>Sum(O24:O41)</f>
+      </c>
+      <c r="P42" s="15" t="str">
+        <f>Sum(P24:P41)</f>
+      </c>
+      <c r="Q42" s="15" t="str">
+        <f>Sum(Q24:Q41)</f>
+      </c>
+      <c r="R42" s="15" t="str">
+        <f>Sum(R24:R41)</f>
+      </c>
+      <c r="S42" s="15" t="str">
+        <f>Sum(S24:S41)</f>
+      </c>
+      <c r="T42" s="15" t="str">
+        <f>Sum(T24:T41)</f>
+      </c>
+      <c r="U42" s="15" t="str">
+        <f>Sum(U24:U41)</f>
+      </c>
+      <c r="V42" s="15" t="str">
+        <f>Sum(V24:V41)</f>
+      </c>
+      <c r="W42" s="15" t="str">
+        <f>Sum(W24:W41)</f>
+      </c>
+      <c r="X42" s="15" t="str">
+        <f>Sum(X24:X41)</f>
+      </c>
+      <c r="Y42" s="15" t="str">
+        <f>Sum(Y24:Y41)</f>
+      </c>
+      <c r="Z42" s="15" t="str">
+        <f>Sum(Z24:Z41)</f>
+      </c>
+      <c r="AA42" s="15" t="str">
+        <f>Sum(AA24:AA41)</f>
+      </c>
+      <c r="AB42" s="15" t="str">
+        <f>Sum(AB24:AB41)</f>
+      </c>
+      <c r="AC42" s="15" t="str">
+        <f>Sum(AC24:AC41)</f>
+      </c>
+      <c r="AD42" s="15" t="str">
+        <f>Sum(AD24:AD41)</f>
+      </c>
+      <c r="AE42" s="15" t="str">
+        <f>Sum(AE24:AE41)</f>
+      </c>
+      <c r="AF42" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3694,10 +6925,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
         <f>N1</f>
-      </c>
-      <c r="B1" t="str">
-        <f>O1</f>
       </c>
       <c r="C1" t="str">
         <f>P1</f>
@@ -3706,46 +6937,46 @@
         <v>46</v>
       </c>
       <c r="N1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="O1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R1" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="S1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="T1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Z1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB1" t="s">
         <v>10</v>
@@ -3756,10 +6987,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
         <f>N2</f>
-      </c>
-      <c r="B2" t="str">
-        <f>O2</f>
       </c>
       <c r="C2" t="str">
         <f>P2</f>
@@ -3768,48 +6999,48 @@
         <v>47</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="13" t="n">
-        <v>9119315654.4466</v>
-      </c>
-      <c r="R2" s="13" t="n">
-        <v>9919785169.6184</v>
-      </c>
-      <c r="S2" s="13" t="n">
-        <v>6116715432.519</v>
-      </c>
-      <c r="T2" s="13" t="n">
-        <v>6545833538.8289</v>
-      </c>
-      <c r="U2" s="13" t="n">
-        <v>6334149950.2566</v>
-      </c>
-      <c r="V2" s="13" t="n">
-        <v>7154281821.0728</v>
-      </c>
-      <c r="W2" s="13" t="n">
-        <v>8022628873.5284</v>
-      </c>
-      <c r="X2" s="13" t="n">
-        <v>11106701467.8719</v>
-      </c>
-      <c r="Y2" s="13" t="n">
-        <v>10149071216.5741</v>
-      </c>
-      <c r="Z2" s="13" t="n">
-        <v>10611169093.8476</v>
-      </c>
-      <c r="AA2" s="13" t="n">
-        <v>11532675608.4857</v>
-      </c>
-      <c r="AB2" s="13" t="n">
+      <c r="O2" s="14" t="n">
+        <v>31255230749.4631</v>
+      </c>
+      <c r="P2" s="14" t="n">
+        <v>37102041368.9613</v>
+      </c>
+      <c r="Q2" s="14" t="n">
+        <v>24098497564.8245</v>
+      </c>
+      <c r="R2" s="14" t="n">
+        <v>19955253890.9386</v>
+      </c>
+      <c r="S2" s="14" t="n">
+        <v>17685561455.4229</v>
+      </c>
+      <c r="T2" s="14" t="n">
+        <v>16953492843.1271</v>
+      </c>
+      <c r="U2" s="14" t="n">
+        <v>19618603081.6569</v>
+      </c>
+      <c r="V2" s="14" t="n">
+        <v>27902395775.5896</v>
+      </c>
+      <c r="W2" s="14" t="n">
+        <v>27937731136.7199</v>
+      </c>
+      <c r="X2" s="14" t="n">
+        <v>30079444637.0538</v>
+      </c>
+      <c r="Y2" s="14" t="n">
+        <v>48180087109.2192</v>
+      </c>
+      <c r="Z2" s="14" t="n">
+        <v>45664353375.3831</v>
+      </c>
+      <c r="AA2" s="14" t="n">
+        <v>35047872671.8265</v>
+      </c>
+      <c r="AB2" s="14" t="n">
         <v>12416343380.5858</v>
       </c>
       <c r="AC2" s="13" t="n">
@@ -3818,10 +7049,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
         <f>N3</f>
-      </c>
-      <c r="B3" t="str">
-        <f>O3</f>
       </c>
       <c r="C3" t="str">
         <f>P3</f>
@@ -3830,48 +7061,48 @@
         <v>47</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="13" t="n">
-        <v>900261360.3804</v>
-      </c>
-      <c r="R3" s="13" t="n">
-        <v>732884778.3297</v>
-      </c>
-      <c r="S3" s="13" t="n">
-        <v>797541862.981</v>
-      </c>
-      <c r="T3" s="13" t="n">
-        <v>821609968.3628</v>
-      </c>
-      <c r="U3" s="13" t="n">
-        <v>928804743.5778</v>
-      </c>
-      <c r="V3" s="13" t="n">
-        <v>993594863.4139</v>
-      </c>
-      <c r="W3" s="13" t="n">
-        <v>1056434091.4926</v>
-      </c>
-      <c r="X3" s="13" t="n">
-        <v>1620462324.8865</v>
-      </c>
-      <c r="Y3" s="13" t="n">
-        <v>1581766594.8769</v>
-      </c>
-      <c r="Z3" s="13" t="n">
-        <v>2720401014.9957</v>
-      </c>
-      <c r="AA3" s="13" t="n">
-        <v>8532129064.9914</v>
-      </c>
-      <c r="AB3" s="13" t="n">
+      <c r="O3" s="14" t="n">
+        <v>17986659166.4393</v>
+      </c>
+      <c r="P3" s="14" t="n">
+        <v>16348272545.4679</v>
+      </c>
+      <c r="Q3" s="14" t="n">
+        <v>13779748256.7072</v>
+      </c>
+      <c r="R3" s="14" t="n">
+        <v>11779135889.3652</v>
+      </c>
+      <c r="S3" s="14" t="n">
+        <v>12135186874.4357</v>
+      </c>
+      <c r="T3" s="14" t="n">
+        <v>12399920173.1958</v>
+      </c>
+      <c r="U3" s="14" t="n">
+        <v>14152861790.103</v>
+      </c>
+      <c r="V3" s="14" t="n">
+        <v>22806770846.0249</v>
+      </c>
+      <c r="W3" s="14" t="n">
+        <v>25680118499.9135</v>
+      </c>
+      <c r="X3" s="14" t="n">
+        <v>29875164701.4216</v>
+      </c>
+      <c r="Y3" s="14" t="n">
+        <v>37403494926.075</v>
+      </c>
+      <c r="Z3" s="14" t="n">
+        <v>29140563384.389</v>
+      </c>
+      <c r="AA3" s="14" t="n">
+        <v>29077141051.9964</v>
+      </c>
+      <c r="AB3" s="14" t="n">
         <v>1801912872.7955</v>
       </c>
       <c r="AC3" s="13" t="n">
@@ -3880,10 +7111,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
         <f>N4</f>
-      </c>
-      <c r="B4" t="str">
-        <f>O4</f>
       </c>
       <c r="C4" t="str">
         <f>P4</f>
@@ -3892,48 +7123,48 @@
         <v>49</v>
       </c>
       <c r="N4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="13" t="n">
-        <v>22135915095.0165</v>
-      </c>
-      <c r="R4" s="13" t="n">
-        <v>27182256199.3429</v>
-      </c>
-      <c r="S4" s="13" t="n">
-        <v>17981782132.3055</v>
-      </c>
-      <c r="T4" s="13" t="n">
-        <v>13409420352.1097</v>
-      </c>
-      <c r="U4" s="13" t="n">
-        <v>11351411505.1663</v>
-      </c>
-      <c r="V4" s="13" t="n">
-        <v>9799211022.0543</v>
-      </c>
-      <c r="W4" s="13" t="n">
-        <v>11595974208.1285</v>
-      </c>
-      <c r="X4" s="13" t="n">
-        <v>16795694307.7177</v>
-      </c>
-      <c r="Y4" s="13" t="n">
-        <v>17788659920.1458</v>
-      </c>
-      <c r="Z4" s="13" t="n">
-        <v>19468275543.2062</v>
-      </c>
-      <c r="AA4" s="13" t="n">
-        <v>36647411500.7335</v>
-      </c>
-      <c r="AB4" s="13" t="n">
+      <c r="O4" s="14" t="n">
+        <v>29898796158.4983</v>
+      </c>
+      <c r="P4" s="14" t="n">
+        <v>28986353557.0245</v>
+      </c>
+      <c r="Q4" s="14" t="n">
+        <v>24976096489.8093</v>
+      </c>
+      <c r="R4" s="14" t="n">
+        <v>28501413952.5891</v>
+      </c>
+      <c r="S4" s="14" t="n">
+        <v>25447190127.4247</v>
+      </c>
+      <c r="T4" s="14" t="n">
+        <v>25671472541.9195</v>
+      </c>
+      <c r="U4" s="14" t="n">
+        <v>27983478293.0834</v>
+      </c>
+      <c r="V4" s="14" t="n">
+        <v>20045971011.5824</v>
+      </c>
+      <c r="W4" s="14" t="n">
+        <v>23936231639.1294</v>
+      </c>
+      <c r="X4" s="14" t="n">
+        <v>25650928177.9626</v>
+      </c>
+      <c r="Y4" s="14" t="n">
+        <v>24016153025.3683</v>
+      </c>
+      <c r="Z4" s="14" t="n">
+        <v>40078319954.0187</v>
+      </c>
+      <c r="AA4" s="14" t="n">
+        <v>27163604882.0461</v>
+      </c>
+      <c r="AB4" s="14" t="n">
         <v>33248009994.7973</v>
       </c>
       <c r="AC4" s="13" t="n">
@@ -3942,10 +7173,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
         <f>N5</f>
-      </c>
-      <c r="B5" t="str">
-        <f>O5</f>
       </c>
       <c r="C5" t="str">
         <f>P5</f>
@@ -3954,48 +7185,48 @@
         <v>49</v>
       </c>
       <c r="N5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q5" s="13" t="n">
-        <v>17086397806.0589</v>
-      </c>
-      <c r="R5" s="13" t="n">
-        <v>15615387767.1382</v>
-      </c>
-      <c r="S5" s="13" t="n">
-        <v>12982206393.7262</v>
-      </c>
-      <c r="T5" s="13" t="n">
-        <v>10957525921.0024</v>
-      </c>
-      <c r="U5" s="13" t="n">
-        <v>11206382130.8579</v>
-      </c>
-      <c r="V5" s="13" t="n">
-        <v>11406325309.7819</v>
-      </c>
-      <c r="W5" s="13" t="n">
-        <v>13096427698.6104</v>
-      </c>
-      <c r="X5" s="13" t="n">
-        <v>21186308521.1384</v>
-      </c>
-      <c r="Y5" s="13" t="n">
-        <v>24098351905.0366</v>
-      </c>
-      <c r="Z5" s="13" t="n">
-        <v>27154763686.4259</v>
-      </c>
-      <c r="AA5" s="13" t="n">
-        <v>28871365861.0836</v>
-      </c>
-      <c r="AB5" s="13" t="n">
+      <c r="O5" s="14" t="n">
+        <v>36097737150.8889</v>
+      </c>
+      <c r="P5" s="14" t="n">
+        <v>34730237706.1415</v>
+      </c>
+      <c r="Q5" s="14" t="n">
+        <v>29169239953.7346</v>
+      </c>
+      <c r="R5" s="14" t="n">
+        <v>29833721322.4015</v>
+      </c>
+      <c r="S5" s="14" t="n">
+        <v>27324207449.885</v>
+      </c>
+      <c r="T5" s="14" t="n">
+        <v>27843792311.2441</v>
+      </c>
+      <c r="U5" s="14" t="n">
+        <v>27441082756.5163</v>
+      </c>
+      <c r="V5" s="14" t="n">
+        <v>23791495332.7767</v>
+      </c>
+      <c r="W5" s="14" t="n">
+        <v>25021165431.6188</v>
+      </c>
+      <c r="X5" s="14" t="n">
+        <v>27652465150.9804</v>
+      </c>
+      <c r="Y5" s="14" t="n">
+        <v>24861742523.0282</v>
+      </c>
+      <c r="Z5" s="14" t="n">
+        <v>29689860380.1717</v>
+      </c>
+      <c r="AA5" s="14" t="n">
+        <v>33301971196.0154</v>
+      </c>
+      <c r="AB5" s="14" t="n">
         <v>27338650511.5935</v>
       </c>
       <c r="AC5" s="13" t="n">
@@ -4004,10 +7235,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
         <f>N6</f>
-      </c>
-      <c r="B6" t="str">
-        <f>O6</f>
       </c>
       <c r="C6" t="str">
         <f>P6</f>
@@ -4016,48 +7247,48 @@
         <v>50</v>
       </c>
       <c r="N6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="P6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="13" t="n">
-        <v>10531093423.9482</v>
-      </c>
-      <c r="R6" s="13" t="n">
-        <v>11191470779.9083</v>
-      </c>
-      <c r="S6" s="13" t="n">
-        <v>10291037231.3785</v>
-      </c>
-      <c r="T6" s="13" t="n">
-        <v>11196496804.1397</v>
-      </c>
-      <c r="U6" s="13" t="n">
-        <v>10120309839.7428</v>
-      </c>
-      <c r="V6" s="13" t="n">
-        <v>12638934605.1038</v>
-      </c>
-      <c r="W6" s="13" t="n">
-        <v>10705302996.257</v>
-      </c>
-      <c r="X6" s="13" t="n">
-        <v>10054434026.8694</v>
-      </c>
-      <c r="Y6" s="13" t="n">
-        <v>9905416246.7915</v>
-      </c>
-      <c r="Z6" s="13" t="n">
-        <v>10715247646.6963</v>
-      </c>
-      <c r="AA6" s="13" t="n">
-        <v>10563247553.944</v>
-      </c>
-      <c r="AB6" s="13" t="n">
+      <c r="O6" s="14" t="n">
+        <v>6683672074.0927</v>
+      </c>
+      <c r="P6" s="14" t="n">
+        <v>6610387564.2734</v>
+      </c>
+      <c r="Q6" s="14" t="n">
+        <v>5668554306.1156</v>
+      </c>
+      <c r="R6" s="14" t="n">
+        <v>7257445382.0936</v>
+      </c>
+      <c r="S6" s="14" t="n">
+        <v>7750481635.5216</v>
+      </c>
+      <c r="T6" s="14" t="n">
+        <v>7733252678.4108</v>
+      </c>
+      <c r="U6" s="14" t="n">
+        <v>7150281486.2274</v>
+      </c>
+      <c r="V6" s="14" t="n">
+        <v>13058816162.6805</v>
+      </c>
+      <c r="W6" s="14" t="n">
+        <v>13269959464.3028</v>
+      </c>
+      <c r="X6" s="14" t="n">
+        <v>12533350568.3599</v>
+      </c>
+      <c r="Y6" s="14" t="n">
+        <v>11545432225.8644</v>
+      </c>
+      <c r="Z6" s="14" t="n">
+        <v>11640593258.8436</v>
+      </c>
+      <c r="AA6" s="14" t="n">
+        <v>12484524362.2018</v>
+      </c>
+      <c r="AB6" s="14" t="n">
         <v>13543587221.5167</v>
       </c>
       <c r="AC6" s="13" t="n">
@@ -4066,10 +7297,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
         <f>N7</f>
-      </c>
-      <c r="B7" t="str">
-        <f>O7</f>
       </c>
       <c r="C7" t="str">
         <f>P7</f>
@@ -4078,48 +7309,48 @@
         <v>50</v>
       </c>
       <c r="N7" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q7" s="13" t="n">
-        <v>3419648060.9885</v>
-      </c>
-      <c r="R7" s="13" t="n">
-        <v>3698527201.4696</v>
-      </c>
-      <c r="S7" s="13" t="n">
-        <v>3332397826.3985</v>
-      </c>
-      <c r="T7" s="13" t="n">
-        <v>4175617861.5983</v>
-      </c>
-      <c r="U7" s="13" t="n">
-        <v>3638135106.1042</v>
-      </c>
-      <c r="V7" s="13" t="n">
-        <v>3463130648.7072</v>
-      </c>
-      <c r="W7" s="13" t="n">
-        <v>2704850958.1033</v>
-      </c>
-      <c r="X7" s="13" t="n">
-        <v>2830929764.2634</v>
-      </c>
-      <c r="Y7" s="13" t="n">
-        <v>2527738151.6452</v>
-      </c>
-      <c r="Z7" s="13" t="n">
-        <v>2595488953.7884</v>
-      </c>
-      <c r="AA7" s="13" t="n">
-        <v>2536588212.8848</v>
-      </c>
-      <c r="AB7" s="13" t="n">
+      <c r="O7" s="14" t="n">
+        <v>14043087841.8619</v>
+      </c>
+      <c r="P7" s="14" t="n">
+        <v>12705160227.6934</v>
+      </c>
+      <c r="Q7" s="14" t="n">
+        <v>10588302252.8571</v>
+      </c>
+      <c r="R7" s="14" t="n">
+        <v>10767875507.0851</v>
+      </c>
+      <c r="S7" s="14" t="n">
+        <v>10581178707.2994</v>
+      </c>
+      <c r="T7" s="14" t="n">
+        <v>9892515561.5923</v>
+      </c>
+      <c r="U7" s="14" t="n">
+        <v>10875001083.978</v>
+      </c>
+      <c r="V7" s="14" t="n">
+        <v>13483951403.3545</v>
+      </c>
+      <c r="W7" s="14" t="n">
+        <v>13505530020.2325</v>
+      </c>
+      <c r="X7" s="14" t="n">
+        <v>12588239758.5437</v>
+      </c>
+      <c r="Y7" s="14" t="n">
+        <v>10920527227.2435</v>
+      </c>
+      <c r="Z7" s="14" t="n">
+        <v>12179870156.4561</v>
+      </c>
+      <c r="AA7" s="14" t="n">
+        <v>8757199136.17</v>
+      </c>
+      <c r="AB7" s="14" t="n">
         <v>3251608936.6306</v>
       </c>
       <c r="AC7" s="13" t="n">
@@ -4128,60 +7359,60 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" t="str">
         <f>N8</f>
-      </c>
-      <c r="B8" t="str">
-        <f>O8</f>
       </c>
       <c r="C8" t="str">
         <f>P8</f>
       </c>
       <c r="M8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N8" t="s">
-        <v>49</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q8" s="13" t="n">
-        <v>19367702734.5501</v>
-      </c>
-      <c r="R8" s="13" t="n">
-        <v>17794882777.1162</v>
-      </c>
-      <c r="S8" s="13" t="n">
-        <v>14685059258.4308</v>
-      </c>
-      <c r="T8" s="13" t="n">
-        <v>17304917148.4494</v>
-      </c>
-      <c r="U8" s="13" t="n">
-        <v>15326880287.6819</v>
-      </c>
-      <c r="V8" s="13" t="n">
-        <v>13032537936.8157</v>
-      </c>
-      <c r="W8" s="13" t="n">
-        <v>17278175296.8264</v>
-      </c>
-      <c r="X8" s="13" t="n">
-        <v>9991536984.713</v>
-      </c>
-      <c r="Y8" s="13" t="n">
-        <v>14030815392.3379</v>
-      </c>
-      <c r="Z8" s="13" t="n">
-        <v>14935680531.2663</v>
-      </c>
-      <c r="AA8" s="13" t="n">
-        <v>13452905471.4243</v>
-      </c>
-      <c r="AB8" s="13" t="n">
+      <c r="O8" s="14" t="n">
+        <v>1216030256.841</v>
+      </c>
+      <c r="P8" s="14" t="n">
+        <v>1895556032.0051</v>
+      </c>
+      <c r="Q8" s="14" t="n">
+        <v>952609585.9737</v>
+      </c>
+      <c r="R8" s="14" t="n">
+        <v>1088936204.6172</v>
+      </c>
+      <c r="S8" s="14" t="n">
+        <v>1088807391.037</v>
+      </c>
+      <c r="T8" s="14" t="n">
+        <v>1805760317.0083</v>
+      </c>
+      <c r="U8" s="14" t="n">
+        <v>3746475883.7796</v>
+      </c>
+      <c r="V8" s="14" t="n">
+        <v>3074792651.2968</v>
+      </c>
+      <c r="W8" s="14" t="n">
+        <v>3514832423.2951</v>
+      </c>
+      <c r="X8" s="14" t="n">
+        <v>3566340166.6762</v>
+      </c>
+      <c r="Y8" s="14" t="n">
+        <v>2458364985.2205</v>
+      </c>
+      <c r="Z8" s="14" t="n">
+        <v>4576147114.9178</v>
+      </c>
+      <c r="AA8" s="14" t="n">
+        <v>2076520940.4654</v>
+      </c>
+      <c r="AB8" s="14" t="n">
         <v>26534732732.502</v>
       </c>
       <c r="AC8" s="13" t="n">
@@ -4190,60 +7421,60 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
         <f>N9</f>
-      </c>
-      <c r="B9" t="str">
-        <f>O9</f>
       </c>
       <c r="C9" t="str">
         <f>P9</f>
       </c>
       <c r="M9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N9" t="s">
-        <v>49</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="13" t="n">
-        <v>32678089089.9004</v>
-      </c>
-      <c r="R9" s="13" t="n">
-        <v>31031710504.6719</v>
-      </c>
-      <c r="S9" s="13" t="n">
-        <v>25836842127.3361</v>
-      </c>
-      <c r="T9" s="13" t="n">
-        <v>25658103460.8032</v>
-      </c>
-      <c r="U9" s="13" t="n">
-        <v>23686072343.7808</v>
-      </c>
-      <c r="V9" s="13" t="n">
-        <v>24380661662.5369</v>
-      </c>
-      <c r="W9" s="13" t="n">
-        <v>24736231798.413</v>
-      </c>
-      <c r="X9" s="13" t="n">
-        <v>20960565568.5133</v>
-      </c>
-      <c r="Y9" s="13" t="n">
-        <v>22493427279.9736</v>
-      </c>
-      <c r="Z9" s="13" t="n">
-        <v>25056976197.192</v>
-      </c>
-      <c r="AA9" s="13" t="n">
-        <v>22325154310.1434</v>
-      </c>
-      <c r="AB9" s="13" t="n">
+      <c r="O9" s="14" t="n">
+        <v>42256131517.5522</v>
+      </c>
+      <c r="P9" s="14" t="n">
+        <v>54758606786.2011</v>
+      </c>
+      <c r="Q9" s="14" t="n">
+        <v>46972259182.0756</v>
+      </c>
+      <c r="R9" s="14" t="n">
+        <v>43922166334.1481</v>
+      </c>
+      <c r="S9" s="14" t="n">
+        <v>44054842375.5884</v>
+      </c>
+      <c r="T9" s="14" t="n">
+        <v>50628266020.741</v>
+      </c>
+      <c r="U9" s="14" t="n">
+        <v>56597028392.347</v>
+      </c>
+      <c r="V9" s="14" t="n">
+        <v>76051318984.9463</v>
+      </c>
+      <c r="W9" s="14" t="n">
+        <v>80155056064.1126</v>
+      </c>
+      <c r="X9" s="14" t="n">
+        <v>86732963948.1466</v>
+      </c>
+      <c r="Y9" s="14" t="n">
+        <v>85236793261.6524</v>
+      </c>
+      <c r="Z9" s="14" t="n">
+        <v>86480545057.8842</v>
+      </c>
+      <c r="AA9" s="14" t="n">
+        <v>59404120556.1747</v>
+      </c>
+      <c r="AB9" s="14" t="n">
         <v>26438251443.5411</v>
       </c>
       <c r="AC9" s="13" t="n">
@@ -4252,60 +7483,60 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
         <f>N10</f>
-      </c>
-      <c r="B10" t="str">
-        <f>O10</f>
       </c>
       <c r="C10" t="str">
         <f>P10</f>
       </c>
       <c r="M10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N10" t="s">
-        <v>50</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q10" s="13" t="n">
-        <v>5030791128.9755</v>
-      </c>
-      <c r="R10" s="13" t="n">
-        <v>4694319799.276</v>
-      </c>
-      <c r="S10" s="13" t="n">
-        <v>4453105480.3049</v>
-      </c>
-      <c r="T10" s="13" t="n">
-        <v>4211307180.2268</v>
-      </c>
-      <c r="U10" s="13" t="n">
-        <v>4223651714.1975</v>
-      </c>
-      <c r="V10" s="13" t="n">
-        <v>4211090447.0784</v>
-      </c>
-      <c r="W10" s="13" t="n">
-        <v>4535169155.555</v>
-      </c>
-      <c r="X10" s="13" t="n">
-        <v>7949301147.9257</v>
-      </c>
-      <c r="Y10" s="13" t="n">
-        <v>8249254447.94</v>
-      </c>
-      <c r="Z10" s="13" t="n">
-        <v>7368071066.2727</v>
-      </c>
-      <c r="AA10" s="13" t="n">
-        <v>4811493669.4789</v>
-      </c>
-      <c r="AB10" s="13" t="n">
+      <c r="O10" s="14" t="n">
+        <v>1589089357.9102</v>
+      </c>
+      <c r="P10" s="14" t="n">
+        <v>3806242776.4534</v>
+      </c>
+      <c r="Q10" s="14" t="n">
+        <v>3186009489.4102</v>
+      </c>
+      <c r="R10" s="14" t="n">
+        <v>3397043185.6465</v>
+      </c>
+      <c r="S10" s="14" t="n">
+        <v>2978381931.1913</v>
+      </c>
+      <c r="T10" s="14" t="n">
+        <v>3000039224.0025</v>
+      </c>
+      <c r="U10" s="14" t="n">
+        <v>2343288254.6046</v>
+      </c>
+      <c r="V10" s="14" t="n">
+        <v>415958942.3649</v>
+      </c>
+      <c r="W10" s="14" t="n">
+        <v>3483042753.0994</v>
+      </c>
+      <c r="X10" s="14" t="n">
+        <v>1536047657.3333</v>
+      </c>
+      <c r="Y10" s="14" t="n">
+        <v>369757606.443</v>
+      </c>
+      <c r="Z10" s="14" t="n">
+        <v>1101191822.3893</v>
+      </c>
+      <c r="AA10" s="14" t="n">
+        <v>385133330.092</v>
+      </c>
+      <c r="AB10" s="14" t="n">
         <v>6668117532.2948</v>
       </c>
       <c r="AC10" s="13" t="n">
@@ -4314,60 +7545,60 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
         <f>N11</f>
-      </c>
-      <c r="B11" t="str">
-        <f>O11</f>
       </c>
       <c r="C11" t="str">
         <f>P11</f>
       </c>
       <c r="M11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="P11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q11" s="13" t="n">
-        <v>1890845323.4521</v>
-      </c>
-      <c r="R11" s="13" t="n">
-        <v>1830692349.8995</v>
-      </c>
-      <c r="S11" s="13" t="n">
-        <v>1596760304.8468</v>
-      </c>
-      <c r="T11" s="13" t="n">
-        <v>2085377466.7234</v>
-      </c>
-      <c r="U11" s="13" t="n">
-        <v>1907312024.9201</v>
-      </c>
-      <c r="V11" s="13" t="n">
-        <v>2000237619.9625</v>
-      </c>
-      <c r="W11" s="13" t="n">
-        <v>2021706286.3238</v>
-      </c>
-      <c r="X11" s="13" t="n">
-        <v>2722457427.1417</v>
-      </c>
-      <c r="Y11" s="13" t="n">
-        <v>2479414621.4026</v>
-      </c>
-      <c r="Z11" s="13" t="n">
-        <v>2280307483.9997</v>
-      </c>
-      <c r="AA11" s="13" t="n">
-        <v>2063527479.1934</v>
-      </c>
-      <c r="AB11" s="13" t="n">
+      <c r="O11" s="14" t="n">
+        <v>115676582642.597</v>
+      </c>
+      <c r="P11" s="14" t="n">
+        <v>110877916822.175</v>
+      </c>
+      <c r="Q11" s="14" t="n">
+        <v>111906304352.342</v>
+      </c>
+      <c r="R11" s="14" t="n">
+        <v>92942036400.604</v>
+      </c>
+      <c r="S11" s="14" t="n">
+        <v>93714612881.1281</v>
+      </c>
+      <c r="T11" s="14" t="n">
+        <v>112400072395.818</v>
+      </c>
+      <c r="U11" s="14" t="n">
+        <v>119242101605.544</v>
+      </c>
+      <c r="V11" s="14" t="n">
+        <v>121279137559.457</v>
+      </c>
+      <c r="W11" s="14" t="n">
+        <v>130516724929.479</v>
+      </c>
+      <c r="X11" s="14" t="n">
+        <v>154335282741.837</v>
+      </c>
+      <c r="Y11" s="14" t="n">
+        <v>106983409731.336</v>
+      </c>
+      <c r="Z11" s="14" t="n">
+        <v>118211663854.914</v>
+      </c>
+      <c r="AA11" s="14" t="n">
+        <v>194346193394.303</v>
+      </c>
+      <c r="AB11" s="14" t="n">
         <v>2423410056.2773</v>
       </c>
       <c r="AC11" s="13" t="n">
@@ -4376,60 +7607,60 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
         <f>N12</f>
-      </c>
-      <c r="B12" t="str">
-        <f>O12</f>
       </c>
       <c r="C12" t="str">
         <f>P12</f>
       </c>
       <c r="M12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" s="13" t="n">
-        <v>1652880945.1172</v>
-      </c>
-      <c r="R12" s="13" t="n">
-        <v>1916067764.9974</v>
-      </c>
-      <c r="S12" s="13" t="n">
-        <v>1215448825.8107</v>
-      </c>
-      <c r="T12" s="13" t="n">
-        <v>3046138201.8668</v>
-      </c>
-      <c r="U12" s="13" t="n">
-        <v>3526829921.3241</v>
-      </c>
-      <c r="V12" s="13" t="n">
-        <v>3522162231.3324</v>
-      </c>
-      <c r="W12" s="13" t="n">
-        <v>2615112330.6724</v>
-      </c>
-      <c r="X12" s="13" t="n">
-        <v>5109515014.7548</v>
-      </c>
-      <c r="Y12" s="13" t="n">
-        <v>5020705016.3628</v>
-      </c>
-      <c r="Z12" s="13" t="n">
-        <v>5165279502.0872</v>
-      </c>
-      <c r="AA12" s="13" t="n">
-        <v>6733938556.3855</v>
-      </c>
-      <c r="AB12" s="13" t="n">
+      <c r="O12" s="14" t="n">
+        <v>566868.625</v>
+      </c>
+      <c r="P12" s="14" t="n">
+        <v>2744757.5625</v>
+      </c>
+      <c r="Q12" s="14" t="n">
+        <v>740760.72</v>
+      </c>
+      <c r="R12" s="14" t="n">
+        <v>1661330.44</v>
+      </c>
+      <c r="S12" s="14" t="n">
+        <v>688122.1</v>
+      </c>
+      <c r="T12" s="14" t="n">
+        <v>7466648.5097</v>
+      </c>
+      <c r="U12" s="14" t="n">
+        <v>15539948.7242</v>
+      </c>
+      <c r="V12" s="14" t="n">
+        <v>10103095.4844</v>
+      </c>
+      <c r="W12" s="14" t="n">
+        <v>50250051.3516</v>
+      </c>
+      <c r="X12" s="14" t="n">
+        <v>648763.1608</v>
+      </c>
+      <c r="Y12" s="14" t="n">
+        <v>18838219.6031</v>
+      </c>
+      <c r="Z12" s="14" t="n">
+        <v>6404705</v>
+      </c>
+      <c r="AA12" s="14" t="n">
+        <v>3009276.3125</v>
+      </c>
+      <c r="AB12" s="14" t="n">
         <v>4972475726.5488</v>
       </c>
       <c r="AC12" s="13" t="n">
@@ -4438,60 +7669,60 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
         <f>N13</f>
-      </c>
-      <c r="B13" t="str">
-        <f>O13</f>
       </c>
       <c r="C13" t="str">
         <f>P13</f>
       </c>
       <c r="M13" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N13" t="s">
-        <v>50</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="13" t="n">
-        <v>12152242518.4098</v>
-      </c>
-      <c r="R13" s="13" t="n">
-        <v>10874467877.7939</v>
-      </c>
-      <c r="S13" s="13" t="n">
-        <v>8991541948.0103</v>
-      </c>
-      <c r="T13" s="13" t="n">
-        <v>8682498040.3617</v>
-      </c>
-      <c r="U13" s="13" t="n">
-        <v>8673866682.3793</v>
-      </c>
-      <c r="V13" s="13" t="n">
-        <v>7892277941.6298</v>
-      </c>
-      <c r="W13" s="13" t="n">
-        <v>8853294797.6542</v>
-      </c>
-      <c r="X13" s="13" t="n">
-        <v>10761493976.2128</v>
-      </c>
-      <c r="Y13" s="13" t="n">
-        <v>11026115398.8299</v>
-      </c>
-      <c r="Z13" s="13" t="n">
-        <v>10307932274.544</v>
-      </c>
-      <c r="AA13" s="13" t="n">
-        <v>8856999748.0501</v>
-      </c>
-      <c r="AB13" s="13" t="n">
+      <c r="O13" s="14" t="n">
+        <v>465110922.9134</v>
+      </c>
+      <c r="P13" s="14" t="n">
+        <v>326628729.6539</v>
+      </c>
+      <c r="Q13" s="14" t="n">
+        <v>205092408.93</v>
+      </c>
+      <c r="R13" s="14" t="n">
+        <v>253019515.28</v>
+      </c>
+      <c r="S13" s="14" t="n">
+        <v>124594107.6519</v>
+      </c>
+      <c r="T13" s="14" t="n">
+        <v>187804273.1566</v>
+      </c>
+      <c r="U13" s="14" t="n">
+        <v>125983398.2189</v>
+      </c>
+      <c r="V13" s="14" t="n">
+        <v>141268312.7166</v>
+      </c>
+      <c r="W13" s="14" t="n">
+        <v>313186482.6124</v>
+      </c>
+      <c r="X13" s="14" t="n">
+        <v>332401939.5916</v>
+      </c>
+      <c r="Y13" s="14" t="n">
+        <v>298326767.0599</v>
+      </c>
+      <c r="Z13" s="14" t="n">
+        <v>340466689.9108</v>
+      </c>
+      <c r="AA13" s="14" t="n">
+        <v>643485539.1533</v>
+      </c>
+      <c r="AB13" s="14" t="n">
         <v>9756460100.1788</v>
       </c>
       <c r="AC13" s="13" t="n">
@@ -4500,60 +7731,60 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
         <f>N14</f>
-      </c>
-      <c r="B14" t="str">
-        <f>O14</f>
       </c>
       <c r="C14" t="str">
         <f>P14</f>
       </c>
       <c r="M14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N14" t="s">
-        <v>56</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="P14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q14" s="13" t="n">
-        <v>1446094369.1734</v>
-      </c>
-      <c r="R14" s="13" t="n">
-        <v>536104754.6996</v>
-      </c>
-      <c r="S14" s="13" t="n">
-        <v>139665854.67</v>
-      </c>
-      <c r="T14" s="13" t="n">
-        <v>93662916.7146</v>
-      </c>
-      <c r="U14" s="13" t="n">
-        <v>257284586.895</v>
-      </c>
-      <c r="V14" s="13" t="n">
-        <v>826279289.2942</v>
-      </c>
-      <c r="W14" s="13" t="n">
-        <v>2340320853.5545</v>
-      </c>
-      <c r="X14" s="13" t="n">
-        <v>493741524.4092</v>
-      </c>
-      <c r="Y14" s="13" t="n">
-        <v>660109534.1924</v>
-      </c>
-      <c r="Z14" s="13" t="n">
-        <v>856292449.1533</v>
-      </c>
-      <c r="AA14" s="13" t="n">
-        <v>619859432.5323</v>
-      </c>
-      <c r="AB14" s="13" t="n">
+      <c r="O14" s="14" t="n">
+        <v>3950171021.6997</v>
+      </c>
+      <c r="P14" s="14" t="n">
+        <v>3068801162.256</v>
+      </c>
+      <c r="Q14" s="14" t="n">
+        <v>2429204721.8738</v>
+      </c>
+      <c r="R14" s="14" t="n">
+        <v>1781912549.4149</v>
+      </c>
+      <c r="S14" s="14" t="n">
+        <v>2952746325.5791</v>
+      </c>
+      <c r="T14" s="14" t="n">
+        <v>1881817376.9132</v>
+      </c>
+      <c r="U14" s="14" t="n">
+        <v>1630023794.4669</v>
+      </c>
+      <c r="V14" s="14" t="n">
+        <v>1558787356.0103</v>
+      </c>
+      <c r="W14" s="14" t="n">
+        <v>1750996158.2558</v>
+      </c>
+      <c r="X14" s="14" t="n">
+        <v>2067193650.8017</v>
+      </c>
+      <c r="Y14" s="14" t="n">
+        <v>1667070626.6228</v>
+      </c>
+      <c r="Z14" s="14" t="n">
+        <v>1955667251.6509</v>
+      </c>
+      <c r="AA14" s="14" t="n">
+        <v>4349132039.113</v>
+      </c>
+      <c r="AB14" s="14" t="n">
         <v>1093354425.2363</v>
       </c>
       <c r="AC14" s="13" t="n">
@@ -4562,60 +7793,60 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
         <f>N15</f>
-      </c>
-      <c r="B15" t="str">
-        <f>O15</f>
       </c>
       <c r="C15" t="str">
         <f>P15</f>
       </c>
       <c r="M15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N15" t="s">
-        <v>56</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="P15" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q15" s="13" t="n">
-        <v>1780918489.8021</v>
-      </c>
-      <c r="R15" s="13" t="n">
-        <v>1870589244.4372</v>
-      </c>
-      <c r="S15" s="13" t="n">
-        <v>1425517149.6022</v>
-      </c>
-      <c r="T15" s="13" t="n">
-        <v>1547811740.1889</v>
-      </c>
-      <c r="U15" s="13" t="n">
-        <v>1525155809.481</v>
-      </c>
-      <c r="V15" s="13" t="n">
-        <v>1797615730.0362</v>
-      </c>
-      <c r="W15" s="13" t="n">
-        <v>1466981010.2999</v>
-      </c>
-      <c r="X15" s="13" t="n">
-        <v>1663040031.821</v>
-      </c>
-      <c r="Y15" s="13" t="n">
-        <v>1456616925.0708</v>
-      </c>
-      <c r="Z15" s="13" t="n">
-        <v>1406242156.9783</v>
-      </c>
-      <c r="AA15" s="13" t="n">
-        <v>1454001946.4482</v>
-      </c>
-      <c r="AB15" s="13" t="n">
+      <c r="O15" s="14" t="n">
+        <v>51025818982.3669</v>
+      </c>
+      <c r="P15" s="14" t="n">
+        <v>31871614799.3289</v>
+      </c>
+      <c r="Q15" s="14" t="n">
+        <v>18342934576.8084</v>
+      </c>
+      <c r="R15" s="14" t="n">
+        <v>15570162851.9346</v>
+      </c>
+      <c r="S15" s="14" t="n">
+        <v>11724223835.7693</v>
+      </c>
+      <c r="T15" s="14" t="n">
+        <v>10282103280.7543</v>
+      </c>
+      <c r="U15" s="14" t="n">
+        <v>11978672172.6364</v>
+      </c>
+      <c r="V15" s="14" t="n">
+        <v>11639281238.4459</v>
+      </c>
+      <c r="W15" s="14" t="n">
+        <v>10488589097.8683</v>
+      </c>
+      <c r="X15" s="14" t="n">
+        <v>12205328030.7975</v>
+      </c>
+      <c r="Y15" s="14" t="n">
+        <v>11935398072.6335</v>
+      </c>
+      <c r="Z15" s="14" t="n">
+        <v>11322813008.8678</v>
+      </c>
+      <c r="AA15" s="14" t="n">
+        <v>26136114722.1225</v>
+      </c>
+      <c r="AB15" s="14" t="n">
         <v>1751420090.4863</v>
       </c>
       <c r="AC15" s="13" t="n">
@@ -4624,60 +7855,60 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
         <f>N16</f>
-      </c>
-      <c r="B16" t="str">
-        <f>O16</f>
       </c>
       <c r="C16" t="str">
         <f>P16</f>
       </c>
       <c r="M16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N16" t="s">
-        <v>56</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q16" s="13" t="n">
-        <v>1359025245.5778</v>
-      </c>
-      <c r="R16" s="13" t="n">
-        <v>5165694053.7589</v>
-      </c>
-      <c r="S16" s="13" t="n">
-        <v>3998953220.7139</v>
-      </c>
-      <c r="T16" s="13" t="n">
-        <v>4392316473.5491</v>
-      </c>
-      <c r="U16" s="13" t="n">
-        <v>3809904735.3333</v>
-      </c>
-      <c r="V16" s="13" t="n">
-        <v>3979520251.7166</v>
-      </c>
-      <c r="W16" s="13" t="n">
-        <v>3749443284.8297</v>
-      </c>
-      <c r="X16" s="13" t="n">
-        <v>2997010069.2525</v>
-      </c>
-      <c r="Y16" s="13" t="n">
-        <v>6337765642.2021</v>
-      </c>
-      <c r="Z16" s="13" t="n">
-        <v>4246095374.8562</v>
-      </c>
-      <c r="AA16" s="13" t="n">
-        <v>2208263159.1312</v>
-      </c>
-      <c r="AB16" s="13" t="n">
+      <c r="O16" s="14" t="n">
+        <v>4938072295.3959</v>
+      </c>
+      <c r="P16" s="14" t="n">
+        <v>4827351746.8783</v>
+      </c>
+      <c r="Q16" s="14" t="n">
+        <v>3555864463.6901</v>
+      </c>
+      <c r="R16" s="14" t="n">
+        <v>4021264457.9802</v>
+      </c>
+      <c r="S16" s="14" t="n">
+        <v>3644162020.2834</v>
+      </c>
+      <c r="T16" s="14" t="n">
+        <v>4529922466.4506</v>
+      </c>
+      <c r="U16" s="14" t="n">
+        <v>5463911101.9978</v>
+      </c>
+      <c r="V16" s="14" t="n">
+        <v>6604000036.1281</v>
+      </c>
+      <c r="W16" s="14" t="n">
+        <v>6973832250.8617</v>
+      </c>
+      <c r="X16" s="14" t="n">
+        <v>6959045290.4858</v>
+      </c>
+      <c r="Y16" s="14" t="n">
+        <v>7137378488.2274</v>
+      </c>
+      <c r="Z16" s="14" t="n">
+        <v>6767684566.4429</v>
+      </c>
+      <c r="AA16" s="14" t="n">
+        <v>8611322470.3826</v>
+      </c>
+      <c r="AB16" s="14" t="n">
         <v>4583984512.0708</v>
       </c>
       <c r="AC16" s="13" t="n">
@@ -4686,60 +7917,60 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
+        <f>M17</f>
+      </c>
+      <c r="B17" t="str">
         <f>N17</f>
-      </c>
-      <c r="B17" t="str">
-        <f>O17</f>
       </c>
       <c r="C17" t="str">
         <f>P17</f>
       </c>
       <c r="M17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N17" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q17" s="13" t="n">
-        <v>156151795670.347</v>
-      </c>
-      <c r="R17" s="13" t="n">
-        <v>163765934363.939</v>
-      </c>
-      <c r="S17" s="13" t="n">
-        <v>157453046384.816</v>
-      </c>
-      <c r="T17" s="13" t="n">
-        <v>135316390994.563</v>
-      </c>
-      <c r="U17" s="13" t="n">
-        <v>136244299447.236</v>
-      </c>
-      <c r="V17" s="13" t="n">
-        <v>161230722686.522</v>
-      </c>
-      <c r="W17" s="13" t="n">
-        <v>174372148987.591</v>
-      </c>
-      <c r="X17" s="13" t="n">
-        <v>195667416512.582</v>
-      </c>
-      <c r="Y17" s="13" t="n">
-        <v>209215164068.52</v>
-      </c>
-      <c r="Z17" s="13" t="n">
-        <v>239662004533.005</v>
-      </c>
-      <c r="AA17" s="13" t="n">
-        <v>190766201046.54</v>
-      </c>
-      <c r="AB17" s="13" t="n">
+      <c r="O17" s="14" t="n">
+        <v>13962135476.4921</v>
+      </c>
+      <c r="P17" s="14" t="n">
+        <v>13223323719.1346</v>
+      </c>
+      <c r="Q17" s="14" t="n">
+        <v>11982732390.167</v>
+      </c>
+      <c r="R17" s="14" t="n">
+        <v>12114628991.1955</v>
+      </c>
+      <c r="S17" s="14" t="n">
+        <v>11977715880.2141</v>
+      </c>
+      <c r="T17" s="14" t="n">
+        <v>12243098979.518</v>
+      </c>
+      <c r="U17" s="14" t="n">
+        <v>12600972640.3082</v>
+      </c>
+      <c r="V17" s="14" t="n">
+        <v>15936721040.4715</v>
+      </c>
+      <c r="W17" s="14" t="n">
+        <v>16008560472.8886</v>
+      </c>
+      <c r="X17" s="14" t="n">
+        <v>15465173942.1724</v>
+      </c>
+      <c r="Y17" s="14" t="n">
+        <v>14040430300.0082</v>
+      </c>
+      <c r="Z17" s="14" t="n">
+        <v>14738116561.5618</v>
+      </c>
+      <c r="AA17" s="14" t="n">
+        <v>11028697994.0188</v>
+      </c>
+      <c r="AB17" s="14" t="n">
         <v>202940788822.312</v>
       </c>
       <c r="AC17" s="13" t="n">
@@ -4748,60 +7979,60 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
+        <f>M18</f>
+      </c>
+      <c r="B18" t="str">
         <f>N18</f>
-      </c>
-      <c r="B18" t="str">
-        <f>O18</f>
       </c>
       <c r="C18" t="str">
         <f>P18</f>
       </c>
       <c r="M18" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>57</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="P18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q18" s="13" t="n">
-        <v>566868.625</v>
-      </c>
-      <c r="R18" s="13" t="n">
-        <v>2744757.5625</v>
-      </c>
-      <c r="S18" s="13" t="n">
-        <v>740760.72</v>
-      </c>
-      <c r="T18" s="13" t="n">
-        <v>1661330.44</v>
-      </c>
-      <c r="U18" s="13" t="n">
-        <v>688122.1</v>
-      </c>
-      <c r="V18" s="13" t="n">
-        <v>736637.3301</v>
-      </c>
-      <c r="W18" s="13" t="n">
-        <v>762660.375</v>
-      </c>
-      <c r="X18" s="13" t="n">
-        <v>1639797.9844</v>
-      </c>
-      <c r="Y18" s="13" t="n">
-        <v>1848111.375</v>
-      </c>
-      <c r="Z18" s="13" t="n">
-        <v>92826.6719</v>
-      </c>
-      <c r="AA18" s="13" t="n">
-        <v>870345.9199</v>
-      </c>
-      <c r="AB18" s="13" t="n">
+      <c r="O18" s="14" t="n">
+        <v>1104815880.2662</v>
+      </c>
+      <c r="P18" s="14" t="n">
+        <v>567772243.9955</v>
+      </c>
+      <c r="Q18" s="14" t="n">
+        <v>399938347.5108</v>
+      </c>
+      <c r="R18" s="14" t="n">
+        <v>355739285.8054</v>
+      </c>
+      <c r="S18" s="14" t="n">
+        <v>353003610.9832</v>
+      </c>
+      <c r="T18" s="14" t="n">
+        <v>471117220.9799</v>
+      </c>
+      <c r="U18" s="14" t="n">
+        <v>235979828.7612</v>
+      </c>
+      <c r="V18" s="14" t="n">
+        <v>279460783.4001</v>
+      </c>
+      <c r="W18" s="14" t="n">
+        <v>417457428.0022</v>
+      </c>
+      <c r="X18" s="14" t="n">
+        <v>283289326.9169</v>
+      </c>
+      <c r="Y18" s="14" t="n">
+        <v>263570893.212</v>
+      </c>
+      <c r="Z18" s="14" t="n">
+        <v>249258643.1787</v>
+      </c>
+      <c r="AA18" s="14" t="n">
+        <v>1719360865.2598</v>
+      </c>
+      <c r="AB18" s="14" t="n">
         <v>6404705</v>
       </c>
       <c r="AC18" s="13" t="n">
@@ -4810,110 +8041,120 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
+        <f>M19</f>
+      </c>
+      <c r="B19" t="str">
         <f>N19</f>
-      </c>
-      <c r="B19" t="str">
-        <f>O19</f>
       </c>
       <c r="C19" t="str">
         <f>P19</f>
       </c>
+      <c r="M19" t="s">
+        <v>54</v>
+      </c>
       <c r="N19" t="s">
-        <v>57</v>
-      </c>
-      <c r="O19" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" s="13" t="n">
-        <v>6730011.1796</v>
-      </c>
-      <c r="W19" s="13" t="n">
-        <v>14777288.3492</v>
-      </c>
-      <c r="X19" s="13" t="n">
-        <v>8463297.5</v>
-      </c>
-      <c r="Y19" s="13" t="n">
-        <v>48401939.9766</v>
-      </c>
-      <c r="Z19" s="13" t="n">
-        <v>555936.4889</v>
-      </c>
-      <c r="AA19" s="13" t="n">
-        <v>17967873.6832</v>
-      </c>
-      <c r="AB19" s="13"/>
+        <v>43</v>
+      </c>
+      <c r="O19" s="14" t="n">
+        <v>2232747735.4338</v>
+      </c>
+      <c r="P19" s="14" t="n">
+        <v>1866909661.0176</v>
+      </c>
+      <c r="Q19" s="14" t="n">
+        <v>1081245687.7024</v>
+      </c>
+      <c r="R19" s="14" t="n">
+        <v>966940317.8063</v>
+      </c>
+      <c r="S19" s="14" t="n">
+        <v>684434622.8569</v>
+      </c>
+      <c r="T19" s="14" t="n">
+        <v>650936555.8963</v>
+      </c>
+      <c r="U19" s="14" t="n">
+        <v>751047125.6847</v>
+      </c>
+      <c r="V19" s="14" t="n">
+        <v>729887740.8758</v>
+      </c>
+      <c r="W19" s="14" t="n">
+        <v>894924991.437</v>
+      </c>
+      <c r="X19" s="14" t="n">
+        <v>801886080.7621</v>
+      </c>
+      <c r="Y19" s="14" t="n">
+        <v>386349244.0183</v>
+      </c>
+      <c r="Z19" s="14" t="n">
+        <v>459658621.4169</v>
+      </c>
+      <c r="AA19" s="14" t="n">
+        <v>1783365852.8155</v>
+      </c>
+      <c r="AB19" s="14"/>
       <c r="AC19" s="13" t="n">
         <v>608168.3125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
+        <f>M20</f>
+      </c>
+      <c r="B20" t="str">
         <f>N20</f>
-      </c>
-      <c r="B20" t="str">
-        <f>O20</f>
       </c>
       <c r="C20" t="str">
         <f>P20</f>
       </c>
+      <c r="M20" t="s">
+        <v>18</v>
+      </c>
       <c r="N20" t="s">
-        <v>57</v>
-      </c>
-      <c r="O20" t="s">
-        <v>48</v>
-      </c>
-      <c r="P20" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q20" s="13" t="n">
-        <v>465110922.9134</v>
-      </c>
-      <c r="R20" s="13" t="n">
-        <v>326628729.6539</v>
-      </c>
-      <c r="S20" s="13" t="n">
-        <v>205092408.93</v>
-      </c>
-      <c r="T20" s="13" t="n">
-        <v>253019515.28</v>
-      </c>
-      <c r="U20" s="13" t="n">
-        <v>124594107.6519</v>
-      </c>
-      <c r="V20" s="13" t="n">
-        <v>187804273.1566</v>
-      </c>
-      <c r="W20" s="13" t="n">
-        <v>125983398.2189</v>
-      </c>
-      <c r="X20" s="13" t="n">
-        <v>141268312.7166</v>
-      </c>
-      <c r="Y20" s="13" t="n">
-        <v>313186482.6124</v>
-      </c>
-      <c r="Z20" s="13" t="n">
-        <v>332401939.5916</v>
-      </c>
-      <c r="AA20" s="13" t="n">
-        <v>298326767.0599</v>
-      </c>
-      <c r="AB20" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="O20" s="14" t="str">
+        <f>Sum(O2:O19)</f>
+      </c>
+      <c r="P20" s="14" t="str">
+        <f>Sum(P2:P19)</f>
+      </c>
+      <c r="Q20" s="14" t="str">
+        <f>Sum(Q2:Q19)</f>
+      </c>
+      <c r="R20" s="14" t="str">
+        <f>Sum(R2:R19)</f>
+      </c>
+      <c r="S20" s="14" t="str">
+        <f>Sum(S2:S19)</f>
+      </c>
+      <c r="T20" s="14" t="str">
+        <f>Sum(T2:T19)</f>
+      </c>
+      <c r="U20" s="14" t="str">
+        <f>Sum(U2:U19)</f>
+      </c>
+      <c r="V20" s="14" t="str">
+        <f>Sum(V2:V19)</f>
+      </c>
+      <c r="W20" s="14" t="str">
+        <f>Sum(W2:W19)</f>
+      </c>
+      <c r="X20" s="14" t="str">
+        <f>Sum(X2:X19)</f>
+      </c>
+      <c r="Y20" s="14" t="str">
+        <f>Sum(Y2:Y19)</f>
+      </c>
+      <c r="Z20" s="14" t="str">
+        <f>Sum(Z2:Z19)</f>
+      </c>
+      <c r="AA20" s="14" t="str">
+        <f>Sum(AA2:AA19)</f>
+      </c>
+      <c r="AB20" s="14" t="n">
         <v>340466689.9108</v>
       </c>
       <c r="AC20" s="13" t="n">
@@ -5702,43 +8943,43 @@
       <c r="P34" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="10" t="str">
+      <c r="Q34" s="12" t="str">
         <f>Sum(Q2:Q33)</f>
       </c>
-      <c r="R34" s="10" t="str">
+      <c r="R34" s="12" t="str">
         <f>Sum(R2:R33)</f>
       </c>
-      <c r="S34" s="10" t="str">
+      <c r="S34" s="12" t="str">
         <f>Sum(S2:S33)</f>
       </c>
-      <c r="T34" s="10" t="str">
+      <c r="T34" s="12" t="str">
         <f>Sum(T2:T33)</f>
       </c>
-      <c r="U34" s="10" t="str">
+      <c r="U34" s="12" t="str">
         <f>Sum(U2:U33)</f>
       </c>
-      <c r="V34" s="10" t="str">
+      <c r="V34" s="12" t="str">
         <f>Sum(V2:V33)</f>
       </c>
-      <c r="W34" s="10" t="str">
+      <c r="W34" s="12" t="str">
         <f>Sum(W2:W33)</f>
       </c>
-      <c r="X34" s="10" t="str">
+      <c r="X34" s="12" t="str">
         <f>Sum(X2:X33)</f>
       </c>
-      <c r="Y34" s="10" t="str">
+      <c r="Y34" s="12" t="str">
         <f>Sum(Y2:Y33)</f>
       </c>
-      <c r="Z34" s="10" t="str">
+      <c r="Z34" s="12" t="str">
         <f>Sum(Z2:Z33)</f>
       </c>
-      <c r="AA34" s="10" t="str">
+      <c r="AA34" s="12" t="str">
         <f>Sum(AA2:AA33)</f>
       </c>
-      <c r="AB34" s="10" t="str">
+      <c r="AB34" s="12" t="str">
         <f>Sum(AB2:AB33)</f>
       </c>
-      <c r="AC34" s="10"/>
+      <c r="AC34" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/CSIS_DoD_DIB_Trends.xlsx
+++ b/Output/AcqTrends/CSIS_DoD_DIB_Trends.xlsx
@@ -215,19 +215,19 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="14">
     <numFmt numFmtId="169" formatCode="0.00,&quot;K&quot;"/>
-    <numFmt numFmtId="235" formatCode="0.00,&quot;K&quot;"/>
+    <numFmt numFmtId="253" formatCode="0.00,&quot;K&quot;"/>
     <numFmt numFmtId="201" formatCode="0.00,&quot;K&quot;"/>
     <numFmt numFmtId="237" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="206" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="249" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="252" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="244" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="247" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="213" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="242" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="250" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="251" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="254" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -266,20 +266,20 @@
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="235" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="253" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="237" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="249" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="252" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="244" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="247" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="213" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="242" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="250" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="251" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="254" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1880,58 +1880,58 @@
       <c r="N2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="5" t="n">
+      <c r="O2" s="15" t="n">
         <v>1607832650.0848</v>
       </c>
-      <c r="P2" s="5" t="n">
+      <c r="P2" s="15" t="n">
         <v>1751871558.4642</v>
       </c>
-      <c r="Q2" s="5" t="n">
+      <c r="Q2" s="15" t="n">
         <v>1506361369.1731</v>
       </c>
-      <c r="R2" s="5" t="n">
+      <c r="R2" s="15" t="n">
         <v>1396531382.5087</v>
       </c>
-      <c r="S2" s="5" t="n">
+      <c r="S2" s="15" t="n">
         <v>1397976506.2712</v>
       </c>
-      <c r="T2" s="5" t="n">
+      <c r="T2" s="15" t="n">
         <v>1279752259.8247</v>
       </c>
-      <c r="U2" s="5" t="n">
+      <c r="U2" s="15" t="n">
         <v>1049133781.4795</v>
       </c>
-      <c r="V2" s="5" t="n">
+      <c r="V2" s="15" t="n">
         <v>1073603566.7955</v>
       </c>
-      <c r="W2" s="5" t="n">
+      <c r="W2" s="15" t="n">
         <v>1048450862.5594</v>
       </c>
-      <c r="X2" s="5" t="n">
+      <c r="X2" s="15" t="n">
         <v>1088102147.7351</v>
       </c>
-      <c r="Y2" s="5" t="n">
+      <c r="Y2" s="15" t="n">
         <v>1072746922.942</v>
       </c>
-      <c r="Z2" s="5" t="n">
+      <c r="Z2" s="15" t="n">
         <v>1096865763.5188</v>
       </c>
-      <c r="AA2" s="5" t="n">
+      <c r="AA2" s="15" t="n">
         <v>1188706092.6348</v>
       </c>
-      <c r="AB2" s="5" t="n">
+      <c r="AB2" s="15" t="n">
         <v>926769387.3954</v>
       </c>
-      <c r="AC2" s="5" t="n">
+      <c r="AC2" s="15" t="n">
         <v>976003450.1165</v>
       </c>
-      <c r="AD2" s="5" t="n">
+      <c r="AD2" s="15" t="n">
         <v>983305068.5037</v>
       </c>
-      <c r="AE2" s="5" t="n">
+      <c r="AE2" s="15" t="n">
         <v>926451906.4684</v>
       </c>
-      <c r="AF2" s="5" t="n">
+      <c r="AF2" s="15" t="n">
         <v>1096865763.5188</v>
       </c>
       <c r="AG2" s="7" t="n">
@@ -1994,58 +1994,58 @@
       <c r="N3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="5" t="n">
+      <c r="O3" s="15" t="n">
         <v>1184454239.6496</v>
       </c>
-      <c r="P3" s="5" t="n">
+      <c r="P3" s="15" t="n">
         <v>1228271132.5837</v>
       </c>
-      <c r="Q3" s="5" t="n">
+      <c r="Q3" s="15" t="n">
         <v>1140495002.7928</v>
       </c>
-      <c r="R3" s="5" t="n">
+      <c r="R3" s="15" t="n">
         <v>1024201877.6785</v>
       </c>
-      <c r="S3" s="5" t="n">
+      <c r="S3" s="15" t="n">
         <v>896870805.4232</v>
       </c>
-      <c r="T3" s="5" t="n">
+      <c r="T3" s="15" t="n">
         <v>960414796.0546</v>
       </c>
-      <c r="U3" s="5" t="n">
+      <c r="U3" s="15" t="n">
         <v>878985475.2202</v>
       </c>
-      <c r="V3" s="5" t="n">
+      <c r="V3" s="15" t="n">
         <v>751928698.974</v>
       </c>
-      <c r="W3" s="5" t="n">
+      <c r="W3" s="15" t="n">
         <v>815327907.857</v>
       </c>
-      <c r="X3" s="5" t="n">
+      <c r="X3" s="15" t="n">
         <v>844568319.4829</v>
       </c>
-      <c r="Y3" s="5" t="n">
+      <c r="Y3" s="15" t="n">
         <v>787108243.3135</v>
       </c>
-      <c r="Z3" s="5" t="n">
+      <c r="Z3" s="15" t="n">
         <v>820630788.2635</v>
       </c>
-      <c r="AA3" s="5" t="n">
+      <c r="AA3" s="15" t="n">
         <v>686536567.6669</v>
       </c>
-      <c r="AB3" s="5" t="n">
+      <c r="AB3" s="15" t="n">
         <v>545764074.6504</v>
       </c>
-      <c r="AC3" s="5" t="n">
+      <c r="AC3" s="15" t="n">
         <v>564021752.7514</v>
       </c>
-      <c r="AD3" s="5" t="n">
+      <c r="AD3" s="15" t="n">
         <v>783509578.311</v>
       </c>
-      <c r="AE3" s="5" t="n">
+      <c r="AE3" s="15" t="n">
         <v>704578096.1892</v>
       </c>
-      <c r="AF3" s="5" t="n">
+      <c r="AF3" s="15" t="n">
         <v>820630788.2635</v>
       </c>
       <c r="AG3" s="7" t="n">
@@ -2108,58 +2108,58 @@
       <c r="N4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="5" t="n">
+      <c r="O4" s="15" t="n">
         <v>6058548489.082</v>
       </c>
-      <c r="P4" s="5" t="n">
+      <c r="P4" s="15" t="n">
         <v>6080450819.0119</v>
       </c>
-      <c r="Q4" s="5" t="n">
+      <c r="Q4" s="15" t="n">
         <v>6779332127.7524</v>
       </c>
-      <c r="R4" s="5" t="n">
+      <c r="R4" s="15" t="n">
         <v>6093289597.1129</v>
       </c>
-      <c r="S4" s="5" t="n">
+      <c r="S4" s="15" t="n">
         <v>5262222494.4274</v>
       </c>
-      <c r="T4" s="5" t="n">
+      <c r="T4" s="15" t="n">
         <v>5079840604.2751</v>
       </c>
-      <c r="U4" s="5" t="n">
+      <c r="U4" s="15" t="n">
         <v>3567145813.244</v>
       </c>
-      <c r="V4" s="5" t="n">
+      <c r="V4" s="15" t="n">
         <v>4141995592.0904</v>
       </c>
-      <c r="W4" s="5" t="n">
+      <c r="W4" s="15" t="n">
         <v>3565259691.7783</v>
       </c>
-      <c r="X4" s="5" t="n">
+      <c r="X4" s="15" t="n">
         <v>3492208221.3053</v>
       </c>
-      <c r="Y4" s="5" t="n">
+      <c r="Y4" s="15" t="n">
         <v>3649991757.8593</v>
       </c>
-      <c r="Z4" s="5" t="n">
+      <c r="Z4" s="15" t="n">
         <v>3901328619.9928</v>
       </c>
-      <c r="AA4" s="5" t="n">
+      <c r="AA4" s="15" t="n">
         <v>3830751102.3953</v>
       </c>
-      <c r="AB4" s="5" t="n">
+      <c r="AB4" s="15" t="n">
         <v>4021172451.8518</v>
       </c>
-      <c r="AC4" s="5" t="n">
+      <c r="AC4" s="15" t="n">
         <v>3517341896.4453</v>
       </c>
-      <c r="AD4" s="5" t="n">
+      <c r="AD4" s="15" t="n">
         <v>3678372019.6405</v>
       </c>
-      <c r="AE4" s="5" t="n">
+      <c r="AE4" s="15" t="n">
         <v>3920322861.3483</v>
       </c>
-      <c r="AF4" s="5" t="n">
+      <c r="AF4" s="15" t="n">
         <v>3901328619.9928</v>
       </c>
       <c r="AG4" s="7" t="n">
@@ -2222,58 +2222,58 @@
       <c r="N5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="5" t="n">
+      <c r="O5" s="15" t="n">
         <v>5679433896.1785</v>
       </c>
-      <c r="P5" s="5" t="n">
+      <c r="P5" s="15" t="n">
         <v>5624659404.6315</v>
       </c>
-      <c r="Q5" s="5" t="n">
+      <c r="Q5" s="15" t="n">
         <v>5212638422.3091</v>
       </c>
-      <c r="R5" s="5" t="n">
+      <c r="R5" s="15" t="n">
         <v>6288316411.3781</v>
       </c>
-      <c r="S5" s="5" t="n">
+      <c r="S5" s="15" t="n">
         <v>5657555259.5043</v>
       </c>
-      <c r="T5" s="5" t="n">
+      <c r="T5" s="15" t="n">
         <v>3904127512.8452</v>
       </c>
-      <c r="U5" s="5" t="n">
+      <c r="U5" s="15" t="n">
         <v>3157315866.5217</v>
       </c>
-      <c r="V5" s="5" t="n">
+      <c r="V5" s="15" t="n">
         <v>2692614083.0845</v>
       </c>
-      <c r="W5" s="5" t="n">
+      <c r="W5" s="15" t="n">
         <v>3128570143.1366</v>
       </c>
-      <c r="X5" s="5" t="n">
+      <c r="X5" s="15" t="n">
         <v>3199159154.8128</v>
       </c>
-      <c r="Y5" s="5" t="n">
+      <c r="Y5" s="15" t="n">
         <v>3037857677.0835</v>
       </c>
-      <c r="Z5" s="5" t="n">
+      <c r="Z5" s="15" t="n">
         <v>3446915761.444</v>
       </c>
-      <c r="AA5" s="5" t="n">
+      <c r="AA5" s="15" t="n">
         <v>3536696065.3334</v>
       </c>
-      <c r="AB5" s="5" t="n">
+      <c r="AB5" s="15" t="n">
         <v>3005062231.913</v>
       </c>
-      <c r="AC5" s="5" t="n">
+      <c r="AC5" s="15" t="n">
         <v>3052114457.93</v>
       </c>
-      <c r="AD5" s="5" t="n">
+      <c r="AD5" s="15" t="n">
         <v>3359581254.4839</v>
       </c>
-      <c r="AE5" s="5" t="n">
+      <c r="AE5" s="15" t="n">
         <v>3618751504.3042</v>
       </c>
-      <c r="AF5" s="5" t="n">
+      <c r="AF5" s="15" t="n">
         <v>3446915761.444</v>
       </c>
       <c r="AG5" s="7" t="n">
@@ -2336,58 +2336,58 @@
       <c r="N6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="5" t="n">
+      <c r="O6" s="15" t="n">
         <v>3741321610.9336</v>
       </c>
-      <c r="P6" s="5" t="n">
+      <c r="P6" s="15" t="n">
         <v>3625952821.6054</v>
       </c>
-      <c r="Q6" s="5" t="n">
+      <c r="Q6" s="15" t="n">
         <v>3149991887.2102</v>
       </c>
-      <c r="R6" s="5" t="n">
+      <c r="R6" s="15" t="n">
         <v>2991291521.2622</v>
       </c>
-      <c r="S6" s="5" t="n">
+      <c r="S6" s="15" t="n">
         <v>3048040619.9372</v>
       </c>
-      <c r="T6" s="5" t="n">
+      <c r="T6" s="15" t="n">
         <v>2474472259.8299</v>
       </c>
-      <c r="U6" s="5" t="n">
+      <c r="U6" s="15" t="n">
         <v>1960743379.2061</v>
       </c>
-      <c r="V6" s="5" t="n">
+      <c r="V6" s="15" t="n">
         <v>2086527003.9821</v>
       </c>
-      <c r="W6" s="5" t="n">
+      <c r="W6" s="15" t="n">
         <v>1929095879.8002</v>
       </c>
-      <c r="X6" s="5" t="n">
+      <c r="X6" s="15" t="n">
         <v>1907797922.1413</v>
       </c>
-      <c r="Y6" s="5" t="n">
+      <c r="Y6" s="15" t="n">
         <v>1867693420.1991</v>
       </c>
-      <c r="Z6" s="5" t="n">
+      <c r="Z6" s="15" t="n">
         <v>2192470949.6515</v>
       </c>
-      <c r="AA6" s="5" t="n">
+      <c r="AA6" s="15" t="n">
         <v>2196604584.8566</v>
       </c>
-      <c r="AB6" s="5" t="n">
+      <c r="AB6" s="15" t="n">
         <v>2410132539.3328</v>
       </c>
-      <c r="AC6" s="5" t="n">
+      <c r="AC6" s="15" t="n">
         <v>2143906576.2048</v>
       </c>
-      <c r="AD6" s="5" t="n">
+      <c r="AD6" s="15" t="n">
         <v>2743455584.5329</v>
       </c>
-      <c r="AE6" s="5" t="n">
+      <c r="AE6" s="15" t="n">
         <v>2637534724.141</v>
       </c>
-      <c r="AF6" s="5" t="n">
+      <c r="AF6" s="15" t="n">
         <v>2192470949.6515</v>
       </c>
       <c r="AG6" s="7" t="n">
@@ -2450,58 +2450,58 @@
       <c r="N7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="5" t="n">
+      <c r="O7" s="15" t="n">
         <v>3266121388.9118</v>
       </c>
-      <c r="P7" s="5" t="n">
+      <c r="P7" s="15" t="n">
         <v>3182798416.4579</v>
       </c>
-      <c r="Q7" s="5" t="n">
+      <c r="Q7" s="15" t="n">
         <v>3233826970.6075</v>
       </c>
-      <c r="R7" s="5" t="n">
+      <c r="R7" s="15" t="n">
         <v>2767730315.3216</v>
       </c>
-      <c r="S7" s="5" t="n">
+      <c r="S7" s="15" t="n">
         <v>2660320898.8073</v>
       </c>
-      <c r="T7" s="5" t="n">
+      <c r="T7" s="15" t="n">
         <v>2350057703.0912</v>
       </c>
-      <c r="U7" s="5" t="n">
+      <c r="U7" s="15" t="n">
         <v>2090466800.5072</v>
       </c>
-      <c r="V7" s="5" t="n">
+      <c r="V7" s="15" t="n">
         <v>1852486611.2265</v>
       </c>
-      <c r="W7" s="5" t="n">
+      <c r="W7" s="15" t="n">
         <v>2095620001.2314</v>
       </c>
-      <c r="X7" s="5" t="n">
+      <c r="X7" s="15" t="n">
         <v>2157406767.1706</v>
       </c>
-      <c r="Y7" s="5" t="n">
+      <c r="Y7" s="15" t="n">
         <v>2086646758.7863</v>
       </c>
-      <c r="Z7" s="5" t="n">
+      <c r="Z7" s="15" t="n">
         <v>2954288727.5505</v>
       </c>
-      <c r="AA7" s="5" t="n">
+      <c r="AA7" s="15" t="n">
         <v>2564514717.4087</v>
       </c>
-      <c r="AB7" s="5" t="n">
+      <c r="AB7" s="15" t="n">
         <v>1728682770.7371</v>
       </c>
-      <c r="AC7" s="5" t="n">
+      <c r="AC7" s="15" t="n">
         <v>1730445562.261</v>
       </c>
-      <c r="AD7" s="5" t="n">
+      <c r="AD7" s="15" t="n">
         <v>2301474992.4097</v>
       </c>
-      <c r="AE7" s="5" t="n">
+      <c r="AE7" s="15" t="n">
         <v>2008363234.2734</v>
       </c>
-      <c r="AF7" s="5" t="n">
+      <c r="AF7" s="15" t="n">
         <v>2954288727.5505</v>
       </c>
       <c r="AG7" s="7" t="n">
@@ -2564,58 +2564,58 @@
       <c r="N8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="5" t="n">
+      <c r="O8" s="15" t="n">
         <v>16269882471.9794</v>
       </c>
-      <c r="P8" s="5" t="n">
+      <c r="P8" s="15" t="n">
         <v>17994021717.0678</v>
       </c>
-      <c r="Q8" s="5" t="n">
+      <c r="Q8" s="15" t="n">
         <v>21387199545.8055</v>
       </c>
-      <c r="R8" s="5" t="n">
+      <c r="R8" s="15" t="n">
         <v>22576338913.7346</v>
       </c>
-      <c r="S8" s="5" t="n">
+      <c r="S8" s="15" t="n">
         <v>22032636135.821</v>
       </c>
-      <c r="T8" s="5" t="n">
+      <c r="T8" s="15" t="n">
         <v>24242893687.3319</v>
       </c>
-      <c r="U8" s="5" t="n">
+      <c r="U8" s="15" t="n">
         <v>20838549418.202</v>
       </c>
-      <c r="V8" s="5" t="n">
+      <c r="V8" s="15" t="n">
         <v>24912992627.0785</v>
       </c>
-      <c r="W8" s="5" t="n">
+      <c r="W8" s="15" t="n">
         <v>22851084792.0819</v>
       </c>
-      <c r="X8" s="5" t="n">
+      <c r="X8" s="15" t="n">
         <v>24462657675.0215</v>
       </c>
-      <c r="Y8" s="5" t="n">
+      <c r="Y8" s="15" t="n">
         <v>24530048151.9762</v>
       </c>
-      <c r="Z8" s="5" t="n">
+      <c r="Z8" s="15" t="n">
         <v>30621886485.4193</v>
       </c>
-      <c r="AA8" s="5" t="n">
+      <c r="AA8" s="15" t="n">
         <v>30157803730.9944</v>
       </c>
-      <c r="AB8" s="5" t="n">
+      <c r="AB8" s="15" t="n">
         <v>34096578496.9379</v>
       </c>
-      <c r="AC8" s="5" t="n">
+      <c r="AC8" s="15" t="n">
         <v>40235083984.2429</v>
       </c>
-      <c r="AD8" s="5" t="n">
+      <c r="AD8" s="15" t="n">
         <v>37898761518.9342</v>
       </c>
-      <c r="AE8" s="5" t="n">
+      <c r="AE8" s="15" t="n">
         <v>41482341205.8373</v>
       </c>
-      <c r="AF8" s="5" t="n">
+      <c r="AF8" s="15" t="n">
         <v>30621886485.4193</v>
       </c>
       <c r="AG8" s="7" t="n">
@@ -2678,58 +2678,58 @@
       <c r="N9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O9" s="5" t="n">
+      <c r="O9" s="15" t="n">
         <v>295814228873.005</v>
       </c>
-      <c r="P9" s="5" t="n">
+      <c r="P9" s="15" t="n">
         <v>344228460150.258</v>
       </c>
-      <c r="Q9" s="5" t="n">
+      <c r="Q9" s="15" t="n">
         <v>331006115932.454</v>
       </c>
-      <c r="R9" s="5" t="n">
+      <c r="R9" s="15" t="n">
         <v>325466947956.52</v>
       </c>
-      <c r="S9" s="5" t="n">
+      <c r="S9" s="15" t="n">
         <v>333370444572.19</v>
       </c>
-      <c r="T9" s="5" t="n">
+      <c r="T9" s="15" t="n">
         <v>323169035400.023</v>
       </c>
-      <c r="U9" s="5" t="n">
+      <c r="U9" s="15" t="n">
         <v>275707824862.844</v>
       </c>
-      <c r="V9" s="5" t="n">
+      <c r="V9" s="15" t="n">
         <v>246953219804.49</v>
       </c>
-      <c r="W9" s="5" t="n">
+      <c r="W9" s="15" t="n">
         <v>238730914399.601</v>
       </c>
-      <c r="X9" s="5" t="n">
+      <c r="X9" s="15" t="n">
         <v>261373439540.335</v>
       </c>
-      <c r="Y9" s="5" t="n">
+      <c r="Y9" s="15" t="n">
         <v>284878416992.171</v>
       </c>
-      <c r="Z9" s="5" t="n">
+      <c r="Z9" s="15" t="n">
         <v>313701272526.863</v>
       </c>
-      <c r="AA9" s="5" t="n">
+      <c r="AA9" s="15" t="n">
         <v>339456686334.059</v>
       </c>
-      <c r="AB9" s="5" t="n">
+      <c r="AB9" s="15" t="n">
         <v>375919182099.509</v>
       </c>
-      <c r="AC9" s="5" t="n">
+      <c r="AC9" s="15" t="n">
         <v>335466315747.992</v>
       </c>
-      <c r="AD9" s="5" t="n">
+      <c r="AD9" s="15" t="n">
         <v>362818335135.692</v>
       </c>
-      <c r="AE9" s="5" t="n">
+      <c r="AE9" s="15" t="n">
         <v>400986561637.651</v>
       </c>
-      <c r="AF9" s="5" t="n">
+      <c r="AF9" s="15" t="n">
         <v>313701272526.863</v>
       </c>
       <c r="AG9" s="7" t="n">
@@ -2792,58 +2792,58 @@
       <c r="N10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="5" t="str">
+      <c r="O10" s="15" t="str">
         <f>Sum(O2:O9)</f>
       </c>
-      <c r="P10" s="5" t="str">
+      <c r="P10" s="15" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="5" t="str">
+      <c r="Q10" s="15" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="5" t="str">
+      <c r="R10" s="15" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="5" t="str">
+      <c r="S10" s="15" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="5" t="str">
+      <c r="T10" s="15" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="5" t="str">
+      <c r="U10" s="15" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="5" t="str">
+      <c r="V10" s="15" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="5" t="str">
+      <c r="W10" s="15" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="5" t="str">
+      <c r="X10" s="15" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="5" t="str">
+      <c r="Y10" s="15" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="5" t="str">
+      <c r="Z10" s="15" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="5" t="str">
+      <c r="AA10" s="15" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="5" t="str">
+      <c r="AB10" s="15" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="5" t="str">
+      <c r="AC10" s="15" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="5" t="str">
+      <c r="AD10" s="15" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="5" t="str">
+      <c r="AE10" s="15" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="5" t="str">
+      <c r="AF10" s="15" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
       <c r="AG10" s="7" t="str">
@@ -3374,58 +3374,58 @@
       <c r="N2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="15" t="n">
+      <c r="O2" s="9" t="n">
         <v>25125249218.822</v>
       </c>
-      <c r="P2" s="15" t="n">
+      <c r="P2" s="9" t="n">
         <v>32432154150.1501</v>
       </c>
-      <c r="Q2" s="15" t="n">
+      <c r="Q2" s="9" t="n">
         <v>35101354776.0543</v>
       </c>
-      <c r="R2" s="15" t="n">
+      <c r="R2" s="9" t="n">
         <v>30976397289.3347</v>
       </c>
-      <c r="S2" s="15" t="n">
+      <c r="S2" s="9" t="n">
         <v>31255230749.4631</v>
       </c>
-      <c r="T2" s="15" t="n">
+      <c r="T2" s="9" t="n">
         <v>37102041368.9613</v>
       </c>
-      <c r="U2" s="15" t="n">
+      <c r="U2" s="9" t="n">
         <v>24098497564.8245</v>
       </c>
-      <c r="V2" s="15" t="n">
+      <c r="V2" s="9" t="n">
         <v>19955253890.9386</v>
       </c>
-      <c r="W2" s="15" t="n">
+      <c r="W2" s="9" t="n">
         <v>17685561455.4229</v>
       </c>
-      <c r="X2" s="15" t="n">
+      <c r="X2" s="9" t="n">
         <v>16953492843.1271</v>
       </c>
-      <c r="Y2" s="15" t="n">
+      <c r="Y2" s="9" t="n">
         <v>19618603081.6569</v>
       </c>
-      <c r="Z2" s="15" t="n">
+      <c r="Z2" s="9" t="n">
         <v>27902395775.5896</v>
       </c>
-      <c r="AA2" s="15" t="n">
+      <c r="AA2" s="9" t="n">
         <v>27937731136.7199</v>
       </c>
-      <c r="AB2" s="15" t="n">
+      <c r="AB2" s="9" t="n">
         <v>30079444637.0538</v>
       </c>
-      <c r="AC2" s="15" t="n">
+      <c r="AC2" s="9" t="n">
         <v>48180087109.2192</v>
       </c>
-      <c r="AD2" s="15" t="n">
+      <c r="AD2" s="9" t="n">
         <v>45664353375.3831</v>
       </c>
-      <c r="AE2" s="15" t="n">
+      <c r="AE2" s="9" t="n">
         <v>35047872671.8265</v>
       </c>
-      <c r="AF2" s="15"/>
+      <c r="AF2" s="9"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3443,58 +3443,58 @@
       <c r="N3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="15" t="n">
+      <c r="O3" s="9" t="n">
         <v>21764778991.8306</v>
       </c>
-      <c r="P3" s="15" t="n">
+      <c r="P3" s="9" t="n">
         <v>25397309265.3422</v>
       </c>
-      <c r="Q3" s="15" t="n">
+      <c r="Q3" s="9" t="n">
         <v>21427494919.4928</v>
       </c>
-      <c r="R3" s="15" t="n">
+      <c r="R3" s="9" t="n">
         <v>18453893838.1832</v>
       </c>
-      <c r="S3" s="15" t="n">
+      <c r="S3" s="9" t="n">
         <v>17986659166.4393</v>
       </c>
-      <c r="T3" s="15" t="n">
+      <c r="T3" s="9" t="n">
         <v>16348272545.4679</v>
       </c>
-      <c r="U3" s="15" t="n">
+      <c r="U3" s="9" t="n">
         <v>13779748256.7072</v>
       </c>
-      <c r="V3" s="15" t="n">
+      <c r="V3" s="9" t="n">
         <v>11779135889.3652</v>
       </c>
-      <c r="W3" s="15" t="n">
+      <c r="W3" s="9" t="n">
         <v>12135186874.4357</v>
       </c>
-      <c r="X3" s="15" t="n">
+      <c r="X3" s="9" t="n">
         <v>12399920173.1958</v>
       </c>
-      <c r="Y3" s="15" t="n">
+      <c r="Y3" s="9" t="n">
         <v>14152861790.103</v>
       </c>
-      <c r="Z3" s="15" t="n">
+      <c r="Z3" s="9" t="n">
         <v>22806770846.0249</v>
       </c>
-      <c r="AA3" s="15" t="n">
+      <c r="AA3" s="9" t="n">
         <v>25680118499.9135</v>
       </c>
-      <c r="AB3" s="15" t="n">
+      <c r="AB3" s="9" t="n">
         <v>29875164701.4216</v>
       </c>
-      <c r="AC3" s="15" t="n">
+      <c r="AC3" s="9" t="n">
         <v>37403494926.075</v>
       </c>
-      <c r="AD3" s="15" t="n">
+      <c r="AD3" s="9" t="n">
         <v>29140563384.389</v>
       </c>
-      <c r="AE3" s="15" t="n">
+      <c r="AE3" s="9" t="n">
         <v>29077141051.9964</v>
       </c>
-      <c r="AF3" s="15"/>
+      <c r="AF3" s="9"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3512,58 +3512,58 @@
       <c r="N4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="15" t="n">
+      <c r="O4" s="9" t="n">
         <v>30133800884.701</v>
       </c>
-      <c r="P4" s="15" t="n">
+      <c r="P4" s="9" t="n">
         <v>33783198213.0075</v>
       </c>
-      <c r="Q4" s="15" t="n">
+      <c r="Q4" s="9" t="n">
         <v>29711948309.4815</v>
       </c>
-      <c r="R4" s="15" t="n">
+      <c r="R4" s="9" t="n">
         <v>30392248649.1018</v>
       </c>
-      <c r="S4" s="15" t="n">
+      <c r="S4" s="9" t="n">
         <v>29898796158.4983</v>
       </c>
-      <c r="T4" s="15" t="n">
+      <c r="T4" s="9" t="n">
         <v>28986353557.0245</v>
       </c>
-      <c r="U4" s="15" t="n">
+      <c r="U4" s="9" t="n">
         <v>24976096489.8093</v>
       </c>
-      <c r="V4" s="15" t="n">
+      <c r="V4" s="9" t="n">
         <v>28501413952.5891</v>
       </c>
-      <c r="W4" s="15" t="n">
+      <c r="W4" s="9" t="n">
         <v>25447190127.4247</v>
       </c>
-      <c r="X4" s="15" t="n">
+      <c r="X4" s="9" t="n">
         <v>25671472541.9195</v>
       </c>
-      <c r="Y4" s="15" t="n">
+      <c r="Y4" s="9" t="n">
         <v>27983478293.0834</v>
       </c>
-      <c r="Z4" s="15" t="n">
+      <c r="Z4" s="9" t="n">
         <v>20045971011.5824</v>
       </c>
-      <c r="AA4" s="15" t="n">
+      <c r="AA4" s="9" t="n">
         <v>23936231639.1294</v>
       </c>
-      <c r="AB4" s="15" t="n">
+      <c r="AB4" s="9" t="n">
         <v>25650928177.9626</v>
       </c>
-      <c r="AC4" s="15" t="n">
+      <c r="AC4" s="9" t="n">
         <v>24016153025.3683</v>
       </c>
-      <c r="AD4" s="15" t="n">
+      <c r="AD4" s="9" t="n">
         <v>40078319954.0187</v>
       </c>
-      <c r="AE4" s="15" t="n">
+      <c r="AE4" s="9" t="n">
         <v>27163604882.0461</v>
       </c>
-      <c r="AF4" s="15"/>
+      <c r="AF4" s="9"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3581,58 +3581,58 @@
       <c r="N5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="15" t="n">
+      <c r="O5" s="9" t="n">
         <v>20416382855.5625</v>
       </c>
-      <c r="P5" s="15" t="n">
+      <c r="P5" s="9" t="n">
         <v>25609454024.9063</v>
       </c>
-      <c r="Q5" s="15" t="n">
+      <c r="Q5" s="9" t="n">
         <v>12593611119.7175</v>
       </c>
-      <c r="R5" s="15" t="n">
+      <c r="R5" s="9" t="n">
         <v>29718480733.7495</v>
       </c>
-      <c r="S5" s="15" t="n">
+      <c r="S5" s="9" t="n">
         <v>36097737150.8889</v>
       </c>
-      <c r="T5" s="15" t="n">
+      <c r="T5" s="9" t="n">
         <v>34730237706.1415</v>
       </c>
-      <c r="U5" s="15" t="n">
+      <c r="U5" s="9" t="n">
         <v>29169239953.7346</v>
       </c>
-      <c r="V5" s="15" t="n">
+      <c r="V5" s="9" t="n">
         <v>29833721322.4015</v>
       </c>
-      <c r="W5" s="15" t="n">
+      <c r="W5" s="9" t="n">
         <v>27324207449.885</v>
       </c>
-      <c r="X5" s="15" t="n">
+      <c r="X5" s="9" t="n">
         <v>27843792311.2441</v>
       </c>
-      <c r="Y5" s="15" t="n">
+      <c r="Y5" s="9" t="n">
         <v>27441082756.5163</v>
       </c>
-      <c r="Z5" s="15" t="n">
+      <c r="Z5" s="9" t="n">
         <v>23791495332.7767</v>
       </c>
-      <c r="AA5" s="15" t="n">
+      <c r="AA5" s="9" t="n">
         <v>25021165431.6188</v>
       </c>
-      <c r="AB5" s="15" t="n">
+      <c r="AB5" s="9" t="n">
         <v>27652465150.9804</v>
       </c>
-      <c r="AC5" s="15" t="n">
+      <c r="AC5" s="9" t="n">
         <v>24861742523.0282</v>
       </c>
-      <c r="AD5" s="15" t="n">
+      <c r="AD5" s="9" t="n">
         <v>29689860380.1717</v>
       </c>
-      <c r="AE5" s="15" t="n">
+      <c r="AE5" s="9" t="n">
         <v>33301971196.0154</v>
       </c>
-      <c r="AF5" s="15"/>
+      <c r="AF5" s="9"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3650,58 +3650,58 @@
       <c r="N6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="15" t="n">
+      <c r="O6" s="9" t="n">
         <v>10096271672.9484</v>
       </c>
-      <c r="P6" s="15" t="n">
+      <c r="P6" s="9" t="n">
         <v>10776155276.9025</v>
       </c>
-      <c r="Q6" s="15" t="n">
+      <c r="Q6" s="9" t="n">
         <v>9150118544.2025</v>
       </c>
-      <c r="R6" s="15" t="n">
+      <c r="R6" s="9" t="n">
         <v>7690106134.7461</v>
       </c>
-      <c r="S6" s="15" t="n">
+      <c r="S6" s="9" t="n">
         <v>6683672074.0927</v>
       </c>
-      <c r="T6" s="15" t="n">
+      <c r="T6" s="9" t="n">
         <v>6610387564.2734</v>
       </c>
-      <c r="U6" s="15" t="n">
+      <c r="U6" s="9" t="n">
         <v>5668554306.1156</v>
       </c>
-      <c r="V6" s="15" t="n">
+      <c r="V6" s="9" t="n">
         <v>7257445382.0936</v>
       </c>
-      <c r="W6" s="15" t="n">
+      <c r="W6" s="9" t="n">
         <v>7750481635.5216</v>
       </c>
-      <c r="X6" s="15" t="n">
+      <c r="X6" s="9" t="n">
         <v>7733252678.4108</v>
       </c>
-      <c r="Y6" s="15" t="n">
+      <c r="Y6" s="9" t="n">
         <v>7150281486.2274</v>
       </c>
-      <c r="Z6" s="15" t="n">
+      <c r="Z6" s="9" t="n">
         <v>13058816162.6805</v>
       </c>
-      <c r="AA6" s="15" t="n">
+      <c r="AA6" s="9" t="n">
         <v>13269959464.3028</v>
       </c>
-      <c r="AB6" s="15" t="n">
+      <c r="AB6" s="9" t="n">
         <v>12533350568.3599</v>
       </c>
-      <c r="AC6" s="15" t="n">
+      <c r="AC6" s="9" t="n">
         <v>11545432225.8644</v>
       </c>
-      <c r="AD6" s="15" t="n">
+      <c r="AD6" s="9" t="n">
         <v>11640593258.8436</v>
       </c>
-      <c r="AE6" s="15" t="n">
+      <c r="AE6" s="9" t="n">
         <v>12484524362.2018</v>
       </c>
-      <c r="AF6" s="15"/>
+      <c r="AF6" s="9"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -3719,58 +3719,58 @@
       <c r="N7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="15" t="n">
+      <c r="O7" s="9" t="n">
         <v>10791385424.558</v>
       </c>
-      <c r="P7" s="15" t="n">
+      <c r="P7" s="9" t="n">
         <v>9992326943.864</v>
       </c>
-      <c r="Q7" s="15" t="n">
+      <c r="Q7" s="9" t="n">
         <v>10704831009.3607</v>
       </c>
-      <c r="R7" s="15" t="n">
+      <c r="R7" s="9" t="n">
         <v>10353345215.9397</v>
       </c>
-      <c r="S7" s="15" t="n">
+      <c r="S7" s="9" t="n">
         <v>14043087841.8619</v>
       </c>
-      <c r="T7" s="15" t="n">
+      <c r="T7" s="9" t="n">
         <v>12705160227.6934</v>
       </c>
-      <c r="U7" s="15" t="n">
+      <c r="U7" s="9" t="n">
         <v>10588302252.8571</v>
       </c>
-      <c r="V7" s="15" t="n">
+      <c r="V7" s="9" t="n">
         <v>10767875507.0851</v>
       </c>
-      <c r="W7" s="15" t="n">
+      <c r="W7" s="9" t="n">
         <v>10581178707.2994</v>
       </c>
-      <c r="X7" s="15" t="n">
+      <c r="X7" s="9" t="n">
         <v>9892515561.5923</v>
       </c>
-      <c r="Y7" s="15" t="n">
+      <c r="Y7" s="9" t="n">
         <v>10875001083.978</v>
       </c>
-      <c r="Z7" s="15" t="n">
+      <c r="Z7" s="9" t="n">
         <v>13483951403.3545</v>
       </c>
-      <c r="AA7" s="15" t="n">
+      <c r="AA7" s="9" t="n">
         <v>13505530020.2325</v>
       </c>
-      <c r="AB7" s="15" t="n">
+      <c r="AB7" s="9" t="n">
         <v>12588239758.5437</v>
       </c>
-      <c r="AC7" s="15" t="n">
+      <c r="AC7" s="9" t="n">
         <v>10920527227.2435</v>
       </c>
-      <c r="AD7" s="15" t="n">
+      <c r="AD7" s="9" t="n">
         <v>12179870156.4561</v>
       </c>
-      <c r="AE7" s="15" t="n">
+      <c r="AE7" s="9" t="n">
         <v>8757199136.17</v>
       </c>
-      <c r="AF7" s="15"/>
+      <c r="AF7" s="9"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -3788,58 +3788,58 @@
       <c r="N8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="15" t="n">
+      <c r="O8" s="9" t="n">
         <v>4872106.125</v>
       </c>
-      <c r="P8" s="15" t="n">
+      <c r="P8" s="9" t="n">
         <v>10010929.3706</v>
       </c>
-      <c r="Q8" s="15" t="n">
+      <c r="Q8" s="9" t="n">
         <v>16826903.2031</v>
       </c>
-      <c r="R8" s="15" t="n">
+      <c r="R8" s="9" t="n">
         <v>377038220.8154</v>
       </c>
-      <c r="S8" s="15" t="n">
+      <c r="S8" s="9" t="n">
         <v>1216030256.841</v>
       </c>
-      <c r="T8" s="15" t="n">
+      <c r="T8" s="9" t="n">
         <v>1895556032.0051</v>
       </c>
-      <c r="U8" s="15" t="n">
+      <c r="U8" s="9" t="n">
         <v>952609585.9737</v>
       </c>
-      <c r="V8" s="15" t="n">
+      <c r="V8" s="9" t="n">
         <v>1088936204.6172</v>
       </c>
-      <c r="W8" s="15" t="n">
+      <c r="W8" s="9" t="n">
         <v>1088807391.037</v>
       </c>
-      <c r="X8" s="15" t="n">
+      <c r="X8" s="9" t="n">
         <v>1805760317.0083</v>
       </c>
-      <c r="Y8" s="15" t="n">
+      <c r="Y8" s="9" t="n">
         <v>3746475883.7796</v>
       </c>
-      <c r="Z8" s="15" t="n">
+      <c r="Z8" s="9" t="n">
         <v>3074792651.2968</v>
       </c>
-      <c r="AA8" s="15" t="n">
+      <c r="AA8" s="9" t="n">
         <v>3514832423.2951</v>
       </c>
-      <c r="AB8" s="15" t="n">
+      <c r="AB8" s="9" t="n">
         <v>3566340166.6762</v>
       </c>
-      <c r="AC8" s="15" t="n">
+      <c r="AC8" s="9" t="n">
         <v>2458364985.2205</v>
       </c>
-      <c r="AD8" s="15" t="n">
+      <c r="AD8" s="9" t="n">
         <v>4576147114.9178</v>
       </c>
-      <c r="AE8" s="15" t="n">
+      <c r="AE8" s="9" t="n">
         <v>2076520940.4654</v>
       </c>
-      <c r="AF8" s="15"/>
+      <c r="AF8" s="9"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -3857,58 +3857,58 @@
       <c r="N9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="15" t="n">
+      <c r="O9" s="9" t="n">
         <v>122676909.5722</v>
       </c>
-      <c r="P9" s="15" t="n">
+      <c r="P9" s="9" t="n">
         <v>54479568.8939</v>
       </c>
-      <c r="Q9" s="15" t="n">
+      <c r="Q9" s="9" t="n">
         <v>391296344.5801</v>
       </c>
-      <c r="R9" s="15" t="n">
+      <c r="R9" s="9" t="n">
         <v>10450086106.923</v>
       </c>
-      <c r="S9" s="15" t="n">
+      <c r="S9" s="9" t="n">
         <v>42256131517.5522</v>
       </c>
-      <c r="T9" s="15" t="n">
+      <c r="T9" s="9" t="n">
         <v>54758606786.2011</v>
       </c>
-      <c r="U9" s="15" t="n">
+      <c r="U9" s="9" t="n">
         <v>46972259182.0756</v>
       </c>
-      <c r="V9" s="15" t="n">
+      <c r="V9" s="9" t="n">
         <v>43922166334.1481</v>
       </c>
-      <c r="W9" s="15" t="n">
+      <c r="W9" s="9" t="n">
         <v>44054842375.5884</v>
       </c>
-      <c r="X9" s="15" t="n">
+      <c r="X9" s="9" t="n">
         <v>50628266020.741</v>
       </c>
-      <c r="Y9" s="15" t="n">
+      <c r="Y9" s="9" t="n">
         <v>56597028392.347</v>
       </c>
-      <c r="Z9" s="15" t="n">
+      <c r="Z9" s="9" t="n">
         <v>76051318984.9463</v>
       </c>
-      <c r="AA9" s="15" t="n">
+      <c r="AA9" s="9" t="n">
         <v>80155056064.1126</v>
       </c>
-      <c r="AB9" s="15" t="n">
+      <c r="AB9" s="9" t="n">
         <v>86732963948.1466</v>
       </c>
-      <c r="AC9" s="15" t="n">
+      <c r="AC9" s="9" t="n">
         <v>85236793261.6524</v>
       </c>
-      <c r="AD9" s="15" t="n">
+      <c r="AD9" s="9" t="n">
         <v>86480545057.8842</v>
       </c>
-      <c r="AE9" s="15" t="n">
+      <c r="AE9" s="9" t="n">
         <v>59404120556.1747</v>
       </c>
-      <c r="AF9" s="15"/>
+      <c r="AF9" s="9"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -3926,58 +3926,58 @@
       <c r="N10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="O10" s="15" t="n">
+      <c r="O10" s="9" t="n">
         <v>7826918502.6366</v>
       </c>
-      <c r="P10" s="15" t="n">
+      <c r="P10" s="9" t="n">
         <v>8253616344.955</v>
       </c>
-      <c r="Q10" s="15" t="n">
+      <c r="Q10" s="9" t="n">
         <v>7779611725.3281</v>
       </c>
-      <c r="R10" s="15" t="n">
+      <c r="R10" s="9" t="n">
         <v>6978787870.4494</v>
       </c>
-      <c r="S10" s="15" t="n">
+      <c r="S10" s="9" t="n">
         <v>1589089357.9102</v>
       </c>
-      <c r="T10" s="15" t="n">
+      <c r="T10" s="9" t="n">
         <v>3806242776.4534</v>
       </c>
-      <c r="U10" s="15" t="n">
+      <c r="U10" s="9" t="n">
         <v>3186009489.4102</v>
       </c>
-      <c r="V10" s="15" t="n">
+      <c r="V10" s="9" t="n">
         <v>3397043185.6465</v>
       </c>
-      <c r="W10" s="15" t="n">
+      <c r="W10" s="9" t="n">
         <v>2978381931.1913</v>
       </c>
-      <c r="X10" s="15" t="n">
+      <c r="X10" s="9" t="n">
         <v>3000039224.0025</v>
       </c>
-      <c r="Y10" s="15" t="n">
+      <c r="Y10" s="9" t="n">
         <v>2343288254.6046</v>
       </c>
-      <c r="Z10" s="15" t="n">
+      <c r="Z10" s="9" t="n">
         <v>415958942.3649</v>
       </c>
-      <c r="AA10" s="15" t="n">
+      <c r="AA10" s="9" t="n">
         <v>3483042753.0994</v>
       </c>
-      <c r="AB10" s="15" t="n">
+      <c r="AB10" s="9" t="n">
         <v>1536047657.3333</v>
       </c>
-      <c r="AC10" s="15" t="n">
+      <c r="AC10" s="9" t="n">
         <v>369757606.443</v>
       </c>
-      <c r="AD10" s="15" t="n">
+      <c r="AD10" s="9" t="n">
         <v>1101191822.3893</v>
       </c>
-      <c r="AE10" s="15" t="n">
+      <c r="AE10" s="9" t="n">
         <v>385133330.092</v>
       </c>
-      <c r="AF10" s="15"/>
+      <c r="AF10" s="9"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -3992,58 +3992,58 @@
       <c r="N11" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="15" t="n">
+      <c r="O11" s="9" t="n">
         <v>70636499294.0989</v>
       </c>
-      <c r="P11" s="15" t="n">
+      <c r="P11" s="9" t="n">
         <v>80526620958.9503</v>
       </c>
-      <c r="Q11" s="15" t="n">
+      <c r="Q11" s="9" t="n">
         <v>97471448187.0059</v>
       </c>
-      <c r="R11" s="15" t="n">
+      <c r="R11" s="9" t="n">
         <v>123141610571.659</v>
       </c>
-      <c r="S11" s="15" t="n">
+      <c r="S11" s="9" t="n">
         <v>115676582642.597</v>
       </c>
-      <c r="T11" s="15" t="n">
+      <c r="T11" s="9" t="n">
         <v>110877916822.175</v>
       </c>
-      <c r="U11" s="15" t="n">
+      <c r="U11" s="9" t="n">
         <v>111906304352.342</v>
       </c>
-      <c r="V11" s="15" t="n">
+      <c r="V11" s="9" t="n">
         <v>92942036400.604</v>
       </c>
-      <c r="W11" s="15" t="n">
+      <c r="W11" s="9" t="n">
         <v>93714612881.1281</v>
       </c>
-      <c r="X11" s="15" t="n">
+      <c r="X11" s="9" t="n">
         <v>112400072395.818</v>
       </c>
-      <c r="Y11" s="15" t="n">
+      <c r="Y11" s="9" t="n">
         <v>119242101605.544</v>
       </c>
-      <c r="Z11" s="15" t="n">
+      <c r="Z11" s="9" t="n">
         <v>121279137559.457</v>
       </c>
-      <c r="AA11" s="15" t="n">
+      <c r="AA11" s="9" t="n">
         <v>130516724929.479</v>
       </c>
-      <c r="AB11" s="15" t="n">
+      <c r="AB11" s="9" t="n">
         <v>154335282741.837</v>
       </c>
-      <c r="AC11" s="15" t="n">
+      <c r="AC11" s="9" t="n">
         <v>106983409731.336</v>
       </c>
-      <c r="AD11" s="15" t="n">
+      <c r="AD11" s="9" t="n">
         <v>118211663854.914</v>
       </c>
-      <c r="AE11" s="15" t="n">
+      <c r="AE11" s="9" t="n">
         <v>194346193394.303</v>
       </c>
-      <c r="AF11" s="15"/>
+      <c r="AF11" s="9"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -4058,58 +4058,58 @@
       <c r="N12" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="15" t="n">
+      <c r="O12" s="9" t="n">
         <v>3480708</v>
       </c>
-      <c r="P12" s="15" t="n">
+      <c r="P12" s="9" t="n">
         <v>7322732</v>
       </c>
-      <c r="Q12" s="15" t="n">
+      <c r="Q12" s="9" t="n">
         <v>4777682.7812</v>
       </c>
-      <c r="R12" s="15" t="n">
+      <c r="R12" s="9" t="n">
         <v>-389371.9688</v>
       </c>
-      <c r="S12" s="15" t="n">
+      <c r="S12" s="9" t="n">
         <v>566868.625</v>
       </c>
-      <c r="T12" s="15" t="n">
+      <c r="T12" s="9" t="n">
         <v>2744757.5625</v>
       </c>
-      <c r="U12" s="15" t="n">
+      <c r="U12" s="9" t="n">
         <v>740760.72</v>
       </c>
-      <c r="V12" s="15" t="n">
+      <c r="V12" s="9" t="n">
         <v>1661330.44</v>
       </c>
-      <c r="W12" s="15" t="n">
+      <c r="W12" s="9" t="n">
         <v>688122.1</v>
       </c>
-      <c r="X12" s="15" t="n">
+      <c r="X12" s="9" t="n">
         <v>7466648.5097</v>
       </c>
-      <c r="Y12" s="15" t="n">
+      <c r="Y12" s="9" t="n">
         <v>15539948.7242</v>
       </c>
-      <c r="Z12" s="15" t="n">
+      <c r="Z12" s="9" t="n">
         <v>10103095.4844</v>
       </c>
-      <c r="AA12" s="15" t="n">
+      <c r="AA12" s="9" t="n">
         <v>50250051.3516</v>
       </c>
-      <c r="AB12" s="15" t="n">
+      <c r="AB12" s="9" t="n">
         <v>648763.1608</v>
       </c>
-      <c r="AC12" s="15" t="n">
+      <c r="AC12" s="9" t="n">
         <v>18838219.6031</v>
       </c>
-      <c r="AD12" s="15" t="n">
+      <c r="AD12" s="9" t="n">
         <v>6404705</v>
       </c>
-      <c r="AE12" s="15" t="n">
+      <c r="AE12" s="9" t="n">
         <v>3009276.3125</v>
       </c>
-      <c r="AF12" s="15"/>
+      <c r="AF12" s="9"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4151,58 +4151,58 @@
       <c r="N13" t="s">
         <v>43</v>
       </c>
-      <c r="O13" s="15" t="n">
+      <c r="O13" s="9" t="n">
         <v>91464160.72</v>
       </c>
-      <c r="P13" s="15" t="n">
+      <c r="P13" s="9" t="n">
         <v>271808916.5216</v>
       </c>
-      <c r="Q13" s="15" t="n">
+      <c r="Q13" s="9" t="n">
         <v>119963396.6512</v>
       </c>
-      <c r="R13" s="15" t="n">
+      <c r="R13" s="9" t="n">
         <v>2242431224.5039</v>
       </c>
-      <c r="S13" s="15" t="n">
+      <c r="S13" s="9" t="n">
         <v>465110922.9134</v>
       </c>
-      <c r="T13" s="15" t="n">
+      <c r="T13" s="9" t="n">
         <v>326628729.6539</v>
       </c>
-      <c r="U13" s="15" t="n">
+      <c r="U13" s="9" t="n">
         <v>205092408.93</v>
       </c>
-      <c r="V13" s="15" t="n">
+      <c r="V13" s="9" t="n">
         <v>253019515.28</v>
       </c>
-      <c r="W13" s="15" t="n">
+      <c r="W13" s="9" t="n">
         <v>124594107.6519</v>
       </c>
-      <c r="X13" s="15" t="n">
+      <c r="X13" s="9" t="n">
         <v>187804273.1566</v>
       </c>
-      <c r="Y13" s="15" t="n">
+      <c r="Y13" s="9" t="n">
         <v>125983398.2189</v>
       </c>
-      <c r="Z13" s="15" t="n">
+      <c r="Z13" s="9" t="n">
         <v>141268312.7166</v>
       </c>
-      <c r="AA13" s="15" t="n">
+      <c r="AA13" s="9" t="n">
         <v>313186482.6124</v>
       </c>
-      <c r="AB13" s="15" t="n">
+      <c r="AB13" s="9" t="n">
         <v>332401939.5916</v>
       </c>
-      <c r="AC13" s="15" t="n">
+      <c r="AC13" s="9" t="n">
         <v>298326767.0599</v>
       </c>
-      <c r="AD13" s="15" t="n">
+      <c r="AD13" s="9" t="n">
         <v>340466689.9108</v>
       </c>
-      <c r="AE13" s="15" t="n">
+      <c r="AE13" s="9" t="n">
         <v>643485539.1533</v>
       </c>
-      <c r="AF13" s="15"/>
+      <c r="AF13" s="9"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -4244,58 +4244,58 @@
       <c r="N14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="15" t="n">
+      <c r="O14" s="9" t="n">
         <v>14194339455.1302</v>
       </c>
-      <c r="P14" s="15" t="n">
+      <c r="P14" s="9" t="n">
         <v>11524936620.8855</v>
       </c>
-      <c r="Q14" s="15" t="n">
+      <c r="Q14" s="9" t="n">
         <v>8049244145.7588</v>
       </c>
-      <c r="R14" s="15" t="n">
+      <c r="R14" s="9" t="n">
         <v>5040819900.3828</v>
       </c>
-      <c r="S14" s="15" t="n">
+      <c r="S14" s="9" t="n">
         <v>3950171021.6997</v>
       </c>
-      <c r="T14" s="15" t="n">
+      <c r="T14" s="9" t="n">
         <v>3068801162.256</v>
       </c>
-      <c r="U14" s="15" t="n">
+      <c r="U14" s="9" t="n">
         <v>2429204721.8738</v>
       </c>
-      <c r="V14" s="15" t="n">
+      <c r="V14" s="9" t="n">
         <v>1781912549.4149</v>
       </c>
-      <c r="W14" s="15" t="n">
+      <c r="W14" s="9" t="n">
         <v>2952746325.5791</v>
       </c>
-      <c r="X14" s="15" t="n">
+      <c r="X14" s="9" t="n">
         <v>1881817376.9132</v>
       </c>
-      <c r="Y14" s="15" t="n">
+      <c r="Y14" s="9" t="n">
         <v>1630023794.4669</v>
       </c>
-      <c r="Z14" s="15" t="n">
+      <c r="Z14" s="9" t="n">
         <v>1558787356.0103</v>
       </c>
-      <c r="AA14" s="15" t="n">
+      <c r="AA14" s="9" t="n">
         <v>1750996158.2558</v>
       </c>
-      <c r="AB14" s="15" t="n">
+      <c r="AB14" s="9" t="n">
         <v>2067193650.8017</v>
       </c>
-      <c r="AC14" s="15" t="n">
+      <c r="AC14" s="9" t="n">
         <v>1667070626.6228</v>
       </c>
-      <c r="AD14" s="15" t="n">
+      <c r="AD14" s="9" t="n">
         <v>1955667251.6509</v>
       </c>
-      <c r="AE14" s="15" t="n">
+      <c r="AE14" s="9" t="n">
         <v>4349132039.113</v>
       </c>
-      <c r="AF14" s="15"/>
+      <c r="AF14" s="9"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -4337,58 +4337,58 @@
       <c r="N15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O15" s="15" t="n">
+      <c r="O15" s="9" t="n">
         <v>101341648420.47</v>
       </c>
-      <c r="P15" s="15" t="n">
+      <c r="P15" s="9" t="n">
         <v>117004585245.029</v>
       </c>
-      <c r="Q15" s="15" t="n">
+      <c r="Q15" s="9" t="n">
         <v>110274562226.097</v>
       </c>
-      <c r="R15" s="15" t="n">
+      <c r="R15" s="9" t="n">
         <v>72501013332.7602</v>
       </c>
-      <c r="S15" s="15" t="n">
+      <c r="S15" s="9" t="n">
         <v>51025818982.3669</v>
       </c>
-      <c r="T15" s="15" t="n">
+      <c r="T15" s="9" t="n">
         <v>31871614799.3289</v>
       </c>
-      <c r="U15" s="15" t="n">
+      <c r="U15" s="9" t="n">
         <v>18342934576.8084</v>
       </c>
-      <c r="V15" s="15" t="n">
+      <c r="V15" s="9" t="n">
         <v>15570162851.9346</v>
       </c>
-      <c r="W15" s="15" t="n">
+      <c r="W15" s="9" t="n">
         <v>11724223835.7693</v>
       </c>
-      <c r="X15" s="15" t="n">
+      <c r="X15" s="9" t="n">
         <v>10282103280.7543</v>
       </c>
-      <c r="Y15" s="15" t="n">
+      <c r="Y15" s="9" t="n">
         <v>11978672172.6364</v>
       </c>
-      <c r="Z15" s="15" t="n">
+      <c r="Z15" s="9" t="n">
         <v>11639281238.4459</v>
       </c>
-      <c r="AA15" s="15" t="n">
+      <c r="AA15" s="9" t="n">
         <v>10488589097.8683</v>
       </c>
-      <c r="AB15" s="15" t="n">
+      <c r="AB15" s="9" t="n">
         <v>12205328030.7975</v>
       </c>
-      <c r="AC15" s="15" t="n">
+      <c r="AC15" s="9" t="n">
         <v>11935398072.6335</v>
       </c>
-      <c r="AD15" s="15" t="n">
+      <c r="AD15" s="9" t="n">
         <v>11322813008.8678</v>
       </c>
-      <c r="AE15" s="15" t="n">
+      <c r="AE15" s="9" t="n">
         <v>26136114722.1225</v>
       </c>
-      <c r="AF15" s="15"/>
+      <c r="AF15" s="9"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -4430,58 +4430,58 @@
       <c r="N16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="O16" s="15" t="n">
+      <c r="O16" s="9" t="n">
         <v>8491670881.2818</v>
       </c>
-      <c r="P16" s="15" t="n">
+      <c r="P16" s="9" t="n">
         <v>8687705764.4284</v>
       </c>
-      <c r="Q16" s="15" t="n">
+      <c r="Q16" s="9" t="n">
         <v>8192500498.0507</v>
       </c>
-      <c r="R16" s="15" t="n">
+      <c r="R16" s="9" t="n">
         <v>6004149560.1188</v>
       </c>
-      <c r="S16" s="15" t="n">
+      <c r="S16" s="9" t="n">
         <v>4938072295.3959</v>
       </c>
-      <c r="T16" s="15" t="n">
+      <c r="T16" s="9" t="n">
         <v>4827351746.8783</v>
       </c>
-      <c r="U16" s="15" t="n">
+      <c r="U16" s="9" t="n">
         <v>3555864463.6901</v>
       </c>
-      <c r="V16" s="15" t="n">
+      <c r="V16" s="9" t="n">
         <v>4021264457.9802</v>
       </c>
-      <c r="W16" s="15" t="n">
+      <c r="W16" s="9" t="n">
         <v>3644162020.2834</v>
       </c>
-      <c r="X16" s="15" t="n">
+      <c r="X16" s="9" t="n">
         <v>4529922466.4506</v>
       </c>
-      <c r="Y16" s="15" t="n">
+      <c r="Y16" s="9" t="n">
         <v>5463911101.9978</v>
       </c>
-      <c r="Z16" s="15" t="n">
+      <c r="Z16" s="9" t="n">
         <v>6604000036.1281</v>
       </c>
-      <c r="AA16" s="15" t="n">
+      <c r="AA16" s="9" t="n">
         <v>6973832250.8617</v>
       </c>
-      <c r="AB16" s="15" t="n">
+      <c r="AB16" s="9" t="n">
         <v>6959045290.4858</v>
       </c>
-      <c r="AC16" s="15" t="n">
+      <c r="AC16" s="9" t="n">
         <v>7137378488.2274</v>
       </c>
-      <c r="AD16" s="15" t="n">
+      <c r="AD16" s="9" t="n">
         <v>6767684566.4429</v>
       </c>
-      <c r="AE16" s="15" t="n">
+      <c r="AE16" s="9" t="n">
         <v>8611322470.3826</v>
       </c>
-      <c r="AF16" s="15"/>
+      <c r="AF16" s="9"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -4523,58 +4523,58 @@
       <c r="N17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O17" s="15" t="n">
+      <c r="O17" s="9" t="n">
         <v>11798390982.7529</v>
       </c>
-      <c r="P17" s="15" t="n">
+      <c r="P17" s="9" t="n">
         <v>11245213240.4152</v>
       </c>
-      <c r="Q17" s="15" t="n">
+      <c r="Q17" s="9" t="n">
         <v>11771340687.3015</v>
       </c>
-      <c r="R17" s="15" t="n">
+      <c r="R17" s="9" t="n">
         <v>9964056833.7781</v>
       </c>
-      <c r="S17" s="15" t="n">
+      <c r="S17" s="9" t="n">
         <v>13962135476.4921</v>
       </c>
-      <c r="T17" s="15" t="n">
+      <c r="T17" s="9" t="n">
         <v>13223323719.1346</v>
       </c>
-      <c r="U17" s="15" t="n">
+      <c r="U17" s="9" t="n">
         <v>11982732390.167</v>
       </c>
-      <c r="V17" s="15" t="n">
+      <c r="V17" s="9" t="n">
         <v>12114628991.1955</v>
       </c>
-      <c r="W17" s="15" t="n">
+      <c r="W17" s="9" t="n">
         <v>11977715880.2141</v>
       </c>
-      <c r="X17" s="15" t="n">
+      <c r="X17" s="9" t="n">
         <v>12243098979.518</v>
       </c>
-      <c r="Y17" s="15" t="n">
+      <c r="Y17" s="9" t="n">
         <v>12600972640.3082</v>
       </c>
-      <c r="Z17" s="15" t="n">
+      <c r="Z17" s="9" t="n">
         <v>15936721040.4715</v>
       </c>
-      <c r="AA17" s="15" t="n">
+      <c r="AA17" s="9" t="n">
         <v>16008560472.8886</v>
       </c>
-      <c r="AB17" s="15" t="n">
+      <c r="AB17" s="9" t="n">
         <v>15465173942.1724</v>
       </c>
-      <c r="AC17" s="15" t="n">
+      <c r="AC17" s="9" t="n">
         <v>14040430300.0082</v>
       </c>
-      <c r="AD17" s="15" t="n">
+      <c r="AD17" s="9" t="n">
         <v>14738116561.5618</v>
       </c>
-      <c r="AE17" s="15" t="n">
+      <c r="AE17" s="9" t="n">
         <v>11028697994.0188</v>
       </c>
-      <c r="AF17" s="15"/>
+      <c r="AF17" s="9"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -4616,58 +4616,58 @@
       <c r="N18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="O18" s="15" t="n">
+      <c r="O18" s="9" t="n">
         <v>82129902.9873</v>
       </c>
-      <c r="P18" s="15" t="n">
+      <c r="P18" s="9" t="n">
         <v>1979157392.3166</v>
       </c>
-      <c r="Q18" s="15" t="n">
+      <c r="Q18" s="9" t="n">
         <v>1743462570.6264</v>
       </c>
-      <c r="R18" s="15" t="n">
+      <c r="R18" s="9" t="n">
         <v>1347048377.8865</v>
       </c>
-      <c r="S18" s="15" t="n">
+      <c r="S18" s="9" t="n">
         <v>1104815880.2662</v>
       </c>
-      <c r="T18" s="15" t="n">
+      <c r="T18" s="9" t="n">
         <v>567772243.9955</v>
       </c>
-      <c r="U18" s="15" t="n">
+      <c r="U18" s="9" t="n">
         <v>399938347.5108</v>
       </c>
-      <c r="V18" s="15" t="n">
+      <c r="V18" s="9" t="n">
         <v>355739285.8054</v>
       </c>
-      <c r="W18" s="15" t="n">
+      <c r="W18" s="9" t="n">
         <v>353003610.9832</v>
       </c>
-      <c r="X18" s="15" t="n">
+      <c r="X18" s="9" t="n">
         <v>471117220.9799</v>
       </c>
-      <c r="Y18" s="15" t="n">
+      <c r="Y18" s="9" t="n">
         <v>235979828.7612</v>
       </c>
-      <c r="Z18" s="15" t="n">
+      <c r="Z18" s="9" t="n">
         <v>279460783.4001</v>
       </c>
-      <c r="AA18" s="15" t="n">
+      <c r="AA18" s="9" t="n">
         <v>417457428.0022</v>
       </c>
-      <c r="AB18" s="15" t="n">
+      <c r="AB18" s="9" t="n">
         <v>283289326.9169</v>
       </c>
-      <c r="AC18" s="15" t="n">
+      <c r="AC18" s="9" t="n">
         <v>263570893.212</v>
       </c>
-      <c r="AD18" s="15" t="n">
+      <c r="AD18" s="9" t="n">
         <v>249258643.1787</v>
       </c>
-      <c r="AE18" s="15" t="n">
+      <c r="AE18" s="9" t="n">
         <v>1719360865.2598</v>
       </c>
-      <c r="AF18" s="15"/>
+      <c r="AF18" s="9"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -4709,58 +4709,58 @@
       <c r="N19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O19" s="15" t="n">
+      <c r="O19" s="9" t="n">
         <v>802067990.0419</v>
       </c>
-      <c r="P19" s="15" t="n">
+      <c r="P19" s="9" t="n">
         <v>6237580275.028</v>
       </c>
-      <c r="Q19" s="15" t="n">
+      <c r="Q19" s="9" t="n">
         <v>8972785642.9373</v>
       </c>
-      <c r="R19" s="15" t="n">
+      <c r="R19" s="9" t="n">
         <v>3034819834.017</v>
       </c>
-      <c r="S19" s="15" t="n">
+      <c r="S19" s="9" t="n">
         <v>2232747735.4338</v>
       </c>
-      <c r="T19" s="15" t="n">
+      <c r="T19" s="9" t="n">
         <v>1866909661.0176</v>
       </c>
-      <c r="U19" s="15" t="n">
+      <c r="U19" s="9" t="n">
         <v>1081245687.7024</v>
       </c>
-      <c r="V19" s="15" t="n">
+      <c r="V19" s="9" t="n">
         <v>966940317.8063</v>
       </c>
-      <c r="W19" s="15" t="n">
+      <c r="W19" s="9" t="n">
         <v>684434622.8569</v>
       </c>
-      <c r="X19" s="15" t="n">
+      <c r="X19" s="9" t="n">
         <v>650936555.8963</v>
       </c>
-      <c r="Y19" s="15" t="n">
+      <c r="Y19" s="9" t="n">
         <v>751047125.6847</v>
       </c>
-      <c r="Z19" s="15" t="n">
+      <c r="Z19" s="9" t="n">
         <v>729887740.8758</v>
       </c>
-      <c r="AA19" s="15" t="n">
+      <c r="AA19" s="9" t="n">
         <v>894924991.437</v>
       </c>
-      <c r="AB19" s="15" t="n">
+      <c r="AB19" s="9" t="n">
         <v>801886080.7621</v>
       </c>
-      <c r="AC19" s="15" t="n">
+      <c r="AC19" s="9" t="n">
         <v>386349244.0183</v>
       </c>
-      <c r="AD19" s="15" t="n">
+      <c r="AD19" s="9" t="n">
         <v>459658621.4169</v>
       </c>
-      <c r="AE19" s="15" t="n">
+      <c r="AE19" s="9" t="n">
         <v>1783365852.8155</v>
       </c>
-      <c r="AF19" s="15"/>
+      <c r="AF19" s="9"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -4802,58 +4802,58 @@
       <c r="N20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="15" t="str">
+      <c r="O20" s="9" t="str">
         <f>Sum(O2:O19)</f>
       </c>
-      <c r="P20" s="15" t="str">
+      <c r="P20" s="9" t="str">
         <f>Sum(P2:P19)</f>
       </c>
-      <c r="Q20" s="15" t="str">
+      <c r="Q20" s="9" t="str">
         <f>Sum(Q2:Q19)</f>
       </c>
-      <c r="R20" s="15" t="str">
+      <c r="R20" s="9" t="str">
         <f>Sum(R2:R19)</f>
       </c>
-      <c r="S20" s="15" t="str">
+      <c r="S20" s="9" t="str">
         <f>Sum(S2:S19)</f>
       </c>
-      <c r="T20" s="15" t="str">
+      <c r="T20" s="9" t="str">
         <f>Sum(T2:T19)</f>
       </c>
-      <c r="U20" s="15" t="str">
+      <c r="U20" s="9" t="str">
         <f>Sum(U2:U19)</f>
       </c>
-      <c r="V20" s="15" t="str">
+      <c r="V20" s="9" t="str">
         <f>Sum(V2:V19)</f>
       </c>
-      <c r="W20" s="15" t="str">
+      <c r="W20" s="9" t="str">
         <f>Sum(W2:W19)</f>
       </c>
-      <c r="X20" s="15" t="str">
+      <c r="X20" s="9" t="str">
         <f>Sum(X2:X19)</f>
       </c>
-      <c r="Y20" s="15" t="str">
+      <c r="Y20" s="9" t="str">
         <f>Sum(Y2:Y19)</f>
       </c>
-      <c r="Z20" s="15" t="str">
+      <c r="Z20" s="9" t="str">
         <f>Sum(Z2:Z19)</f>
       </c>
-      <c r="AA20" s="15" t="str">
+      <c r="AA20" s="9" t="str">
         <f>Sum(AA2:AA19)</f>
       </c>
-      <c r="AB20" s="15" t="str">
+      <c r="AB20" s="9" t="str">
         <f>Sum(AB2:AB19)</f>
       </c>
-      <c r="AC20" s="15" t="str">
+      <c r="AC20" s="9" t="str">
         <f>Sum(AC2:AC19)</f>
       </c>
-      <c r="AD20" s="15" t="str">
+      <c r="AD20" s="9" t="str">
         <f>Sum(AD2:AD19)</f>
       </c>
-      <c r="AE20" s="15" t="str">
+      <c r="AE20" s="9" t="str">
         <f>Sum(AE2:AE19)</f>
       </c>
-      <c r="AF20" s="15"/>
+      <c r="AF20" s="9"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -5146,16 +5146,16 @@
       <c r="B24" t="str">
         <f>N24</f>
       </c>
-      <c r="C24" s="15" t="str">
+      <c r="C24" s="9" t="str">
         <f>AB24</f>
       </c>
-      <c r="D24" s="15" t="str">
+      <c r="D24" s="9" t="str">
         <f>AD24</f>
       </c>
-      <c r="E24" s="15" t="str">
+      <c r="E24" s="9" t="str">
         <f>AE24</f>
       </c>
-      <c r="F24" s="15" t="str">
+      <c r="F24" s="9" t="str">
         <f>AF24</f>
       </c>
       <c r="G24" s="3" t="str">
@@ -5179,58 +5179,58 @@
       <c r="N24" t="s">
         <v>40</v>
       </c>
-      <c r="O24" s="15" t="n">
+      <c r="O24" s="9" t="n">
         <v>35572247423.751</v>
       </c>
-      <c r="P24" s="15" t="n">
+      <c r="P24" s="9" t="n">
         <v>44983445693.7452</v>
       </c>
-      <c r="Q24" s="15" t="n">
+      <c r="Q24" s="9" t="n">
         <v>48192805927.9893</v>
       </c>
-      <c r="R24" s="15" t="n">
+      <c r="R24" s="9" t="n">
         <v>42164237463.4606</v>
       </c>
-      <c r="S24" s="15" t="n">
+      <c r="S24" s="9" t="n">
         <v>41706668343.1184</v>
       </c>
-      <c r="T24" s="15" t="n">
+      <c r="T24" s="9" t="n">
         <v>48626220653.2593</v>
       </c>
-      <c r="U24" s="15" t="n">
+      <c r="U24" s="9" t="n">
         <v>31020811944.8711</v>
       </c>
-      <c r="V24" s="15" t="n">
+      <c r="V24" s="9" t="n">
         <v>25227193895.1278</v>
       </c>
-      <c r="W24" s="15" t="n">
+      <c r="W24" s="9" t="n">
         <v>22128705277.0359</v>
       </c>
-      <c r="X24" s="15" t="n">
+      <c r="X24" s="9" t="n">
         <v>21044466872.5407</v>
       </c>
-      <c r="Y24" s="15" t="n">
+      <c r="Y24" s="9" t="n">
         <v>23948428786.3791</v>
       </c>
-      <c r="Z24" s="15" t="n">
+      <c r="Z24" s="9" t="n">
         <v>33320734212.1306</v>
       </c>
-      <c r="AA24" s="15" t="n">
+      <c r="AA24" s="9" t="n">
         <v>32757264828.1729</v>
       </c>
-      <c r="AB24" s="15" t="n">
+      <c r="AB24" s="9" t="n">
         <v>34813670297.7214</v>
       </c>
-      <c r="AC24" s="15" t="n">
+      <c r="AC24" s="9" t="n">
         <v>53907820654.5716</v>
       </c>
-      <c r="AD24" s="15" t="n">
+      <c r="AD24" s="9" t="n">
         <v>47753342042.3351</v>
       </c>
-      <c r="AE24" s="15" t="n">
+      <c r="AE24" s="9" t="n">
         <v>35047872671.8265</v>
       </c>
-      <c r="AF24" s="15"/>
+      <c r="AF24" s="9"/>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -5239,16 +5239,16 @@
       <c r="B25" t="str">
         <f>N25</f>
       </c>
-      <c r="C25" s="15" t="str">
+      <c r="C25" s="9" t="str">
         <f>AB25</f>
       </c>
-      <c r="D25" s="15" t="str">
+      <c r="D25" s="9" t="str">
         <f>AD25</f>
       </c>
-      <c r="E25" s="15" t="str">
+      <c r="E25" s="9" t="str">
         <f>AE25</f>
       </c>
-      <c r="F25" s="15" t="str">
+      <c r="F25" s="9" t="str">
         <f>AF25</f>
       </c>
       <c r="G25" s="3" t="str">
@@ -5272,58 +5272,58 @@
       <c r="N25" t="s">
         <v>43</v>
       </c>
-      <c r="O25" s="15" t="n">
+      <c r="O25" s="9" t="n">
         <v>30814504432.484</v>
       </c>
-      <c r="P25" s="15" t="n">
+      <c r="P25" s="9" t="n">
         <v>35226105451.262</v>
       </c>
-      <c r="Q25" s="15" t="n">
+      <c r="Q25" s="9" t="n">
         <v>29419123870.4711</v>
       </c>
-      <c r="R25" s="15" t="n">
+      <c r="R25" s="9" t="n">
         <v>25118943131.1481</v>
       </c>
-      <c r="S25" s="15" t="n">
+      <c r="S25" s="9" t="n">
         <v>24001218690.9956</v>
       </c>
-      <c r="T25" s="15" t="n">
+      <c r="T25" s="9" t="n">
         <v>21426171681.2322</v>
       </c>
-      <c r="U25" s="15" t="n">
+      <c r="U25" s="9" t="n">
         <v>17737992925.4561</v>
       </c>
-      <c r="V25" s="15" t="n">
+      <c r="V25" s="9" t="n">
         <v>14891043061.7477</v>
       </c>
-      <c r="W25" s="15" t="n">
+      <c r="W25" s="9" t="n">
         <v>15183910021.9123</v>
       </c>
-      <c r="X25" s="15" t="n">
+      <c r="X25" s="9" t="n">
         <v>15392091277.0938</v>
       </c>
-      <c r="Y25" s="15" t="n">
+      <c r="Y25" s="9" t="n">
         <v>17276398390.4975</v>
       </c>
-      <c r="Z25" s="15" t="n">
+      <c r="Z25" s="9" t="n">
         <v>27235594954.2583</v>
       </c>
-      <c r="AA25" s="15" t="n">
+      <c r="AA25" s="9" t="n">
         <v>30110191783.4296</v>
       </c>
-      <c r="AB25" s="15" t="n">
+      <c r="AB25" s="9" t="n">
         <v>34577238594.4984</v>
       </c>
-      <c r="AC25" s="15" t="n">
+      <c r="AC25" s="9" t="n">
         <v>41850088227.4911</v>
       </c>
-      <c r="AD25" s="15" t="n">
+      <c r="AD25" s="9" t="n">
         <v>30473644927.4072</v>
       </c>
-      <c r="AE25" s="15" t="n">
+      <c r="AE25" s="9" t="n">
         <v>29077141051.9964</v>
       </c>
-      <c r="AF25" s="15"/>
+      <c r="AF25" s="9"/>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -5332,16 +5332,16 @@
       <c r="B26" t="str">
         <f>N26</f>
       </c>
-      <c r="C26" s="15" t="str">
+      <c r="C26" s="9" t="str">
         <f>AB26</f>
       </c>
-      <c r="D26" s="15" t="str">
+      <c r="D26" s="9" t="str">
         <f>AD26</f>
       </c>
-      <c r="E26" s="15" t="str">
+      <c r="E26" s="9" t="str">
         <f>AE26</f>
       </c>
-      <c r="F26" s="15" t="str">
+      <c r="F26" s="9" t="str">
         <f>AF26</f>
       </c>
       <c r="G26" s="3" t="str">
@@ -5365,58 +5365,58 @@
       <c r="N26" t="s">
         <v>40</v>
       </c>
-      <c r="O26" s="15" t="n">
+      <c r="O26" s="9" t="n">
         <v>42663338841.058</v>
       </c>
-      <c r="P26" s="15" t="n">
+      <c r="P26" s="9" t="n">
         <v>46857345803.8037</v>
       </c>
-      <c r="Q26" s="15" t="n">
+      <c r="Q26" s="9" t="n">
         <v>40793358767.9674</v>
       </c>
-      <c r="R26" s="15" t="n">
+      <c r="R26" s="9" t="n">
         <v>41369110071.7669</v>
       </c>
-      <c r="S26" s="15" t="n">
+      <c r="S26" s="9" t="n">
         <v>39896655546.6051</v>
       </c>
-      <c r="T26" s="15" t="n">
+      <c r="T26" s="9" t="n">
         <v>37989737814.7073</v>
       </c>
-      <c r="U26" s="15" t="n">
+      <c r="U26" s="9" t="n">
         <v>32150501924.163</v>
       </c>
-      <c r="V26" s="15" t="n">
+      <c r="V26" s="9" t="n">
         <v>36031147486.1144</v>
       </c>
-      <c r="W26" s="15" t="n">
+      <c r="W26" s="9" t="n">
         <v>31840288015.6125</v>
       </c>
-      <c r="X26" s="15" t="n">
+      <c r="X26" s="9" t="n">
         <v>31866144544.7672</v>
       </c>
-      <c r="Y26" s="15" t="n">
+      <c r="Y26" s="9" t="n">
         <v>34159431958.9289</v>
       </c>
-      <c r="Z26" s="15" t="n">
+      <c r="Z26" s="9" t="n">
         <v>23938678150.5467</v>
       </c>
-      <c r="AA26" s="15" t="n">
+      <c r="AA26" s="9" t="n">
         <v>28065467269.1331</v>
       </c>
-      <c r="AB26" s="15" t="n">
+      <c r="AB26" s="9" t="n">
         <v>29688146413.3836</v>
       </c>
-      <c r="AC26" s="15" t="n">
+      <c r="AC26" s="9" t="n">
         <v>26871235561.8919</v>
       </c>
-      <c r="AD26" s="15" t="n">
+      <c r="AD26" s="9" t="n">
         <v>41911766613.9588</v>
       </c>
-      <c r="AE26" s="15" t="n">
+      <c r="AE26" s="9" t="n">
         <v>27163604882.0461</v>
       </c>
-      <c r="AF26" s="15"/>
+      <c r="AF26" s="9"/>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -5425,16 +5425,16 @@
       <c r="B27" t="str">
         <f>N27</f>
       </c>
-      <c r="C27" s="15" t="str">
+      <c r="C27" s="9" t="str">
         <f>AB27</f>
       </c>
-      <c r="D27" s="15" t="str">
+      <c r="D27" s="9" t="str">
         <f>AD27</f>
       </c>
-      <c r="E27" s="15" t="str">
+      <c r="E27" s="9" t="str">
         <f>AE27</f>
       </c>
-      <c r="F27" s="15" t="str">
+      <c r="F27" s="9" t="str">
         <f>AF27</f>
       </c>
       <c r="G27" s="3" t="str">
@@ -5458,58 +5458,58 @@
       <c r="N27" t="s">
         <v>43</v>
       </c>
-      <c r="O27" s="15" t="n">
+      <c r="O27" s="9" t="n">
         <v>28905449498.6676</v>
       </c>
-      <c r="P27" s="15" t="n">
+      <c r="P27" s="9" t="n">
         <v>35520350546.0184</v>
       </c>
-      <c r="Q27" s="15" t="n">
+      <c r="Q27" s="9" t="n">
         <v>17290542216.8818</v>
       </c>
-      <c r="R27" s="15" t="n">
+      <c r="R27" s="9" t="n">
         <v>40451995337.1894</v>
       </c>
-      <c r="S27" s="15" t="n">
+      <c r="S27" s="9" t="n">
         <v>48168460612.4704</v>
       </c>
-      <c r="T27" s="15" t="n">
+      <c r="T27" s="9" t="n">
         <v>45517716538.6861</v>
       </c>
-      <c r="U27" s="15" t="n">
+      <c r="U27" s="9" t="n">
         <v>37548129494.197</v>
       </c>
-      <c r="V27" s="15" t="n">
+      <c r="V27" s="9" t="n">
         <v>37715434568.0957</v>
       </c>
-      <c r="W27" s="15" t="n">
+      <c r="W27" s="9" t="n">
         <v>34188868423.043</v>
       </c>
-      <c r="X27" s="15" t="n">
+      <c r="X27" s="9" t="n">
         <v>34562657401.7416</v>
       </c>
-      <c r="Y27" s="15" t="n">
+      <c r="Y27" s="9" t="n">
         <v>33497329727.3143</v>
       </c>
-      <c r="Z27" s="15" t="n">
+      <c r="Z27" s="9" t="n">
         <v>28411542108.0127</v>
       </c>
-      <c r="AA27" s="15" t="n">
+      <c r="AA27" s="9" t="n">
         <v>29337562822.909</v>
       </c>
-      <c r="AB27" s="15" t="n">
+      <c r="AB27" s="9" t="n">
         <v>32004706745.8009</v>
       </c>
-      <c r="AC27" s="15" t="n">
+      <c r="AC27" s="9" t="n">
         <v>27817350227.1458</v>
       </c>
-      <c r="AD27" s="15" t="n">
+      <c r="AD27" s="9" t="n">
         <v>31048070390.2362</v>
       </c>
-      <c r="AE27" s="15" t="n">
+      <c r="AE27" s="9" t="n">
         <v>33301971196.0154</v>
       </c>
-      <c r="AF27" s="15"/>
+      <c r="AF27" s="9"/>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -5518,16 +5518,16 @@
       <c r="B28" t="str">
         <f>N28</f>
       </c>
-      <c r="C28" s="15" t="str">
+      <c r="C28" s="9" t="str">
         <f>AB28</f>
       </c>
-      <c r="D28" s="15" t="str">
+      <c r="D28" s="9" t="str">
         <f>AD28</f>
       </c>
-      <c r="E28" s="15" t="str">
+      <c r="E28" s="9" t="str">
         <f>AE28</f>
       </c>
-      <c r="F28" s="15" t="str">
+      <c r="F28" s="9" t="str">
         <f>AF28</f>
       </c>
       <c r="G28" s="3" t="str">
@@ -5551,58 +5551,58 @@
       <c r="N28" t="s">
         <v>40</v>
       </c>
-      <c r="O28" s="15" t="n">
+      <c r="O28" s="9" t="n">
         <v>14294269118.6714</v>
       </c>
-      <c r="P28" s="15" t="n">
+      <c r="P28" s="9" t="n">
         <v>14946543280.526</v>
       </c>
-      <c r="Q28" s="15" t="n">
+      <c r="Q28" s="9" t="n">
         <v>12562759757.6282</v>
       </c>
-      <c r="R28" s="15" t="n">
+      <c r="R28" s="9" t="n">
         <v>10467565293.5369</v>
       </c>
-      <c r="S28" s="15" t="n">
+      <c r="S28" s="9" t="n">
         <v>8918625389.22816</v>
       </c>
-      <c r="T28" s="15" t="n">
+      <c r="T28" s="9" t="n">
         <v>8663624761.43503</v>
       </c>
-      <c r="U28" s="15" t="n">
+      <c r="U28" s="9" t="n">
         <v>7296851459.56864</v>
       </c>
-      <c r="V28" s="15" t="n">
+      <c r="V28" s="9" t="n">
         <v>9174775867.94883</v>
       </c>
-      <c r="W28" s="15" t="n">
+      <c r="W28" s="9" t="n">
         <v>9697635231.98454</v>
       </c>
-      <c r="X28" s="15" t="n">
+      <c r="X28" s="9" t="n">
         <v>9599330433.77419</v>
       </c>
-      <c r="Y28" s="15" t="n">
+      <c r="Y28" s="9" t="n">
         <v>8728348611.9145</v>
       </c>
-      <c r="Z28" s="15" t="n">
+      <c r="Z28" s="9" t="n">
         <v>15594694662.8298</v>
       </c>
-      <c r="AA28" s="15" t="n">
+      <c r="AA28" s="9" t="n">
         <v>15559158125.7633</v>
       </c>
-      <c r="AB28" s="15" t="n">
+      <c r="AB28" s="9" t="n">
         <v>14505983726.6789</v>
       </c>
-      <c r="AC28" s="15" t="n">
+      <c r="AC28" s="9" t="n">
         <v>12917973527.1237</v>
       </c>
-      <c r="AD28" s="15" t="n">
+      <c r="AD28" s="9" t="n">
         <v>12173110760.9404</v>
       </c>
-      <c r="AE28" s="15" t="n">
+      <c r="AE28" s="9" t="n">
         <v>12484524362.2018</v>
       </c>
-      <c r="AF28" s="15"/>
+      <c r="AF28" s="9"/>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -5611,16 +5611,16 @@
       <c r="B29" t="str">
         <f>N29</f>
       </c>
-      <c r="C29" s="15" t="str">
+      <c r="C29" s="9" t="str">
         <f>AB29</f>
       </c>
-      <c r="D29" s="15" t="str">
+      <c r="D29" s="9" t="str">
         <f>AD29</f>
       </c>
-      <c r="E29" s="15" t="str">
+      <c r="E29" s="9" t="str">
         <f>AE29</f>
       </c>
-      <c r="F29" s="15" t="str">
+      <c r="F29" s="9" t="str">
         <f>AF29</f>
       </c>
       <c r="G29" s="3" t="str">
@@ -5644,58 +5644,58 @@
       <c r="N29" t="s">
         <v>43</v>
       </c>
-      <c r="O29" s="15" t="n">
+      <c r="O29" s="9" t="n">
         <v>15278408943.2979</v>
       </c>
-      <c r="P29" s="15" t="n">
+      <c r="P29" s="9" t="n">
         <v>13859372225.2449</v>
       </c>
-      <c r="Q29" s="15" t="n">
+      <c r="Q29" s="9" t="n">
         <v>14697319992.8448</v>
       </c>
-      <c r="R29" s="15" t="n">
+      <c r="R29" s="9" t="n">
         <v>14092694581.2504</v>
       </c>
-      <c r="S29" s="15" t="n">
+      <c r="S29" s="9" t="n">
         <v>18738956427.1213</v>
       </c>
-      <c r="T29" s="15" t="n">
+      <c r="T29" s="9" t="n">
         <v>16651480669.8392</v>
       </c>
-      <c r="U29" s="15" t="n">
+      <c r="U29" s="9" t="n">
         <v>13629801281.9177</v>
       </c>
-      <c r="V29" s="15" t="n">
+      <c r="V29" s="9" t="n">
         <v>13612619751.1916</v>
       </c>
-      <c r="W29" s="15" t="n">
+      <c r="W29" s="9" t="n">
         <v>13239488363.8642</v>
       </c>
-      <c r="X29" s="15" t="n">
+      <c r="X29" s="9" t="n">
         <v>12279635703.885</v>
       </c>
-      <c r="Y29" s="15" t="n">
+      <c r="Y29" s="9" t="n">
         <v>13275113825.7621</v>
       </c>
-      <c r="Z29" s="15" t="n">
+      <c r="Z29" s="9" t="n">
         <v>16102386492.3286</v>
       </c>
-      <c r="AA29" s="15" t="n">
+      <c r="AA29" s="9" t="n">
         <v>15835366921.9804</v>
       </c>
-      <c r="AB29" s="15" t="n">
+      <c r="AB29" s="9" t="n">
         <v>14569511966.4128</v>
       </c>
-      <c r="AC29" s="15" t="n">
+      <c r="AC29" s="9" t="n">
         <v>12218778722.5267</v>
       </c>
-      <c r="AD29" s="15" t="n">
+      <c r="AD29" s="9" t="n">
         <v>12737057740.2291</v>
       </c>
-      <c r="AE29" s="15" t="n">
+      <c r="AE29" s="9" t="n">
         <v>8757199136.17</v>
       </c>
-      <c r="AF29" s="15"/>
+      <c r="AF29" s="9"/>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -5704,16 +5704,16 @@
       <c r="B30" t="str">
         <f>N30</f>
       </c>
-      <c r="C30" s="15" t="str">
+      <c r="C30" s="9" t="str">
         <f>AB30</f>
       </c>
-      <c r="D30" s="15" t="str">
+      <c r="D30" s="9" t="str">
         <f>AD30</f>
       </c>
-      <c r="E30" s="15" t="str">
+      <c r="E30" s="9" t="str">
         <f>AE30</f>
       </c>
-      <c r="F30" s="15" t="str">
+      <c r="F30" s="9" t="str">
         <f>AF30</f>
       </c>
       <c r="G30" s="3" t="str">
@@ -5737,58 +5737,58 @@
       <c r="N30" t="s">
         <v>40</v>
       </c>
-      <c r="O30" s="15" t="n">
+      <c r="O30" s="9" t="n">
         <v>6897912.25726192</v>
       </c>
-      <c r="P30" s="15" t="n">
+      <c r="P30" s="9" t="n">
         <v>13885173.8185951</v>
       </c>
-      <c r="Q30" s="15" t="n">
+      <c r="Q30" s="9" t="n">
         <v>23102688.930664</v>
       </c>
-      <c r="R30" s="15" t="n">
+      <c r="R30" s="9" t="n">
         <v>513214268.488699</v>
       </c>
-      <c r="S30" s="15" t="n">
+      <c r="S30" s="9" t="n">
         <v>1622658652.68443</v>
       </c>
-      <c r="T30" s="15" t="n">
+      <c r="T30" s="9" t="n">
         <v>2484330308.30501</v>
       </c>
-      <c r="U30" s="15" t="n">
+      <c r="U30" s="9" t="n">
         <v>1226247517.87454</v>
       </c>
-      <c r="V30" s="15" t="n">
+      <c r="V30" s="9" t="n">
         <v>1376620158.45245</v>
       </c>
-      <c r="W30" s="15" t="n">
+      <c r="W30" s="9" t="n">
         <v>1362348485.25707</v>
       </c>
-      <c r="X30" s="15" t="n">
+      <c r="X30" s="9" t="n">
         <v>2241500528.69108</v>
       </c>
-      <c r="Y30" s="15" t="n">
+      <c r="Y30" s="9" t="n">
         <v>4573323112.20829</v>
       </c>
-      <c r="Z30" s="15" t="n">
+      <c r="Z30" s="9" t="n">
         <v>3671883572.8402</v>
       </c>
-      <c r="AA30" s="15" t="n">
+      <c r="AA30" s="9" t="n">
         <v>4121175622.78338</v>
       </c>
-      <c r="AB30" s="15" t="n">
+      <c r="AB30" s="9" t="n">
         <v>4127649038.41478</v>
       </c>
-      <c r="AC30" s="15" t="n">
+      <c r="AC30" s="9" t="n">
         <v>2750619741.02132</v>
       </c>
-      <c r="AD30" s="15" t="n">
+      <c r="AD30" s="9" t="n">
         <v>4785490262.35678</v>
       </c>
-      <c r="AE30" s="15" t="n">
+      <c r="AE30" s="9" t="n">
         <v>2076520940.4654</v>
       </c>
-      <c r="AF30" s="15"/>
+      <c r="AF30" s="9"/>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -5797,16 +5797,16 @@
       <c r="B31" t="str">
         <f>N31</f>
       </c>
-      <c r="C31" s="15" t="str">
+      <c r="C31" s="9" t="str">
         <f>AB31</f>
       </c>
-      <c r="D31" s="15" t="str">
+      <c r="D31" s="9" t="str">
         <f>AD31</f>
       </c>
-      <c r="E31" s="15" t="str">
+      <c r="E31" s="9" t="str">
         <f>AE31</f>
       </c>
-      <c r="F31" s="15" t="str">
+      <c r="F31" s="9" t="str">
         <f>AF31</f>
       </c>
       <c r="G31" s="3" t="str">
@@ -5830,58 +5830,58 @@
       <c r="N31" t="s">
         <v>43</v>
       </c>
-      <c r="O31" s="15" t="n">
+      <c r="O31" s="9" t="n">
         <v>173685575.911196</v>
       </c>
-      <c r="P31" s="15" t="n">
+      <c r="P31" s="9" t="n">
         <v>75563242.4972936</v>
       </c>
-      <c r="Q31" s="15" t="n">
+      <c r="Q31" s="9" t="n">
         <v>537234785.238114</v>
       </c>
-      <c r="R31" s="15" t="n">
+      <c r="R31" s="9" t="n">
         <v>14224375675.7865</v>
       </c>
-      <c r="S31" s="15" t="n">
+      <c r="S31" s="9" t="n">
         <v>56386160665.1557</v>
       </c>
-      <c r="T31" s="15" t="n">
+      <c r="T31" s="9" t="n">
         <v>71767051030.2011</v>
       </c>
-      <c r="U31" s="15" t="n">
+      <c r="U31" s="9" t="n">
         <v>60465081476.2742</v>
       </c>
-      <c r="V31" s="15" t="n">
+      <c r="V31" s="9" t="n">
         <v>55525878671.4186</v>
       </c>
-      <c r="W31" s="15" t="n">
+      <c r="W31" s="9" t="n">
         <v>55122740966.5721</v>
       </c>
-      <c r="X31" s="15" t="n">
+      <c r="X31" s="9" t="n">
         <v>62845153912.9054</v>
       </c>
-      <c r="Y31" s="15" t="n">
+      <c r="Y31" s="9" t="n">
         <v>69087992571.8098</v>
       </c>
-      <c r="Z31" s="15" t="n">
+      <c r="Z31" s="9" t="n">
         <v>90819648848.8026</v>
       </c>
-      <c r="AA31" s="15" t="n">
+      <c r="AA31" s="9" t="n">
         <v>93982592428.8516</v>
       </c>
-      <c r="AB31" s="15" t="n">
+      <c r="AB31" s="9" t="n">
         <v>100383928203.093</v>
       </c>
-      <c r="AC31" s="15" t="n">
+      <c r="AC31" s="9" t="n">
         <v>95369893248.7136</v>
       </c>
-      <c r="AD31" s="15" t="n">
+      <c r="AD31" s="9" t="n">
         <v>90436735503.6936</v>
       </c>
-      <c r="AE31" s="15" t="n">
+      <c r="AE31" s="9" t="n">
         <v>59404120556.1747</v>
       </c>
-      <c r="AF31" s="15"/>
+      <c r="AF31" s="9"/>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -5890,16 +5890,16 @@
       <c r="B32" t="str">
         <f>N32</f>
       </c>
-      <c r="C32" s="15" t="str">
+      <c r="C32" s="9" t="str">
         <f>AB32</f>
       </c>
-      <c r="D32" s="15" t="str">
+      <c r="D32" s="9" t="str">
         <f>AD32</f>
       </c>
-      <c r="E32" s="15" t="str">
+      <c r="E32" s="9" t="str">
         <f>AE32</f>
       </c>
-      <c r="F32" s="15" t="str">
+      <c r="F32" s="9" t="str">
         <f>AF32</f>
       </c>
       <c r="G32" s="3" t="str">
@@ -5923,58 +5923,58 @@
       <c r="N32" t="s">
         <v>40</v>
       </c>
-      <c r="O32" s="15" t="n">
+      <c r="O32" s="9" t="n">
         <v>11081326163.8317</v>
       </c>
-      <c r="P32" s="15" t="n">
+      <c r="P32" s="9" t="n">
         <v>11447778057.2763</v>
       </c>
-      <c r="Q32" s="15" t="n">
+      <c r="Q32" s="9" t="n">
         <v>10681106768.2668</v>
       </c>
-      <c r="R32" s="15" t="n">
+      <c r="R32" s="9" t="n">
         <v>9499338035.61011</v>
       </c>
-      <c r="S32" s="15" t="n">
+      <c r="S32" s="9" t="n">
         <v>2120464998.29722</v>
       </c>
-      <c r="T32" s="15" t="n">
+      <c r="T32" s="9" t="n">
         <v>4988491044.66079</v>
       </c>
-      <c r="U32" s="15" t="n">
+      <c r="U32" s="9" t="n">
         <v>4101193485.59845</v>
       </c>
-      <c r="V32" s="15" t="n">
+      <c r="V32" s="9" t="n">
         <v>4294501467.2723</v>
       </c>
-      <c r="W32" s="15" t="n">
+      <c r="W32" s="9" t="n">
         <v>3726640860.33707</v>
       </c>
-      <c r="X32" s="15" t="n">
+      <c r="X32" s="9" t="n">
         <v>3723965713.14435</v>
       </c>
-      <c r="Y32" s="15" t="n">
+      <c r="Y32" s="9" t="n">
         <v>2860451972.94533</v>
       </c>
-      <c r="Z32" s="15" t="n">
+      <c r="Z32" s="9" t="n">
         <v>496733594.963386</v>
       </c>
-      <c r="AA32" s="15" t="n">
+      <c r="AA32" s="9" t="n">
         <v>4083901921.48299</v>
       </c>
-      <c r="AB32" s="15" t="n">
+      <c r="AB32" s="9" t="n">
         <v>1777807314.90349</v>
       </c>
-      <c r="AC32" s="15" t="n">
+      <c r="AC32" s="9" t="n">
         <v>413715041.415498</v>
       </c>
-      <c r="AD32" s="15" t="n">
+      <c r="AD32" s="9" t="n">
         <v>1151567598.39561</v>
       </c>
-      <c r="AE32" s="15" t="n">
+      <c r="AE32" s="9" t="n">
         <v>385133330.092</v>
       </c>
-      <c r="AF32" s="15"/>
+      <c r="AF32" s="9"/>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -5983,16 +5983,16 @@
       <c r="B33" t="str">
         <f>N33</f>
       </c>
-      <c r="C33" s="15" t="str">
+      <c r="C33" s="9" t="str">
         <f>AB33</f>
       </c>
-      <c r="D33" s="15" t="str">
+      <c r="D33" s="9" t="str">
         <f>AD33</f>
       </c>
-      <c r="E33" s="15" t="str">
+      <c r="E33" s="9" t="str">
         <f>AE33</f>
       </c>
-      <c r="F33" s="15" t="str">
+      <c r="F33" s="9" t="str">
         <f>AF33</f>
       </c>
       <c r="G33" s="3" t="str">
@@ -6016,58 +6016,58 @@
       <c r="N33" t="s">
         <v>43</v>
       </c>
-      <c r="O33" s="15" t="n">
+      <c r="O33" s="9" t="n">
         <v>100006929609.079</v>
       </c>
-      <c r="P33" s="15" t="n">
+      <c r="P33" s="9" t="n">
         <v>111690542171.124</v>
       </c>
-      <c r="Q33" s="15" t="n">
+      <c r="Q33" s="9" t="n">
         <v>133824537997.632</v>
       </c>
-      <c r="R33" s="15" t="n">
+      <c r="R33" s="9" t="n">
         <v>167617042785.157</v>
       </c>
-      <c r="S33" s="15" t="n">
+      <c r="S33" s="9" t="n">
         <v>154357678751.836</v>
       </c>
-      <c r="T33" s="15" t="n">
+      <c r="T33" s="9" t="n">
         <v>145317450200.443</v>
       </c>
-      <c r="U33" s="15" t="n">
+      <c r="U33" s="9" t="n">
         <v>144051487584.297</v>
       </c>
-      <c r="V33" s="15" t="n">
+      <c r="V33" s="9" t="n">
         <v>117496213583.669</v>
       </c>
-      <c r="W33" s="15" t="n">
+      <c r="W33" s="9" t="n">
         <v>117258536226.008</v>
       </c>
-      <c r="X33" s="15" t="n">
+      <c r="X33" s="9" t="n">
         <v>139522847704.147</v>
       </c>
-      <c r="Y33" s="15" t="n">
+      <c r="Y33" s="9" t="n">
         <v>145558833457.85</v>
       </c>
-      <c r="Z33" s="15" t="n">
+      <c r="Z33" s="9" t="n">
         <v>144830212451.88</v>
       </c>
-      <c r="AA33" s="15" t="n">
+      <c r="AA33" s="9" t="n">
         <v>153032145026.315</v>
       </c>
-      <c r="AB33" s="15" t="n">
+      <c r="AB33" s="9" t="n">
         <v>178626225101.947</v>
       </c>
-      <c r="AC33" s="15" t="n">
+      <c r="AC33" s="9" t="n">
         <v>119701785755.133</v>
       </c>
-      <c r="AD33" s="15" t="n">
+      <c r="AD33" s="9" t="n">
         <v>123619444932.3</v>
       </c>
-      <c r="AE33" s="15" t="n">
+      <c r="AE33" s="9" t="n">
         <v>194346193394.303</v>
       </c>
-      <c r="AF33" s="15"/>
+      <c r="AF33" s="9"/>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -6076,16 +6076,16 @@
       <c r="B34" t="str">
         <f>N34</f>
       </c>
-      <c r="C34" s="15" t="str">
+      <c r="C34" s="9" t="str">
         <f>AB34</f>
       </c>
-      <c r="D34" s="15" t="str">
+      <c r="D34" s="9" t="str">
         <f>AD34</f>
       </c>
-      <c r="E34" s="15" t="str">
+      <c r="E34" s="9" t="str">
         <f>AE34</f>
       </c>
-      <c r="F34" s="15" t="str">
+      <c r="F34" s="9" t="str">
         <f>AF34</f>
       </c>
       <c r="G34" s="3" t="str">
@@ -6109,58 +6109,58 @@
       <c r="N34" t="s">
         <v>40</v>
       </c>
-      <c r="O34" s="15" t="n">
+      <c r="O34" s="9" t="n">
         <v>4927975.24543857</v>
       </c>
-      <c r="P34" s="15" t="n">
+      <c r="P34" s="9" t="n">
         <v>10156640.0963325</v>
       </c>
-      <c r="Q34" s="15" t="n">
+      <c r="Q34" s="9" t="n">
         <v>6559574.13976913</v>
       </c>
-      <c r="R34" s="15" t="n">
+      <c r="R34" s="9" t="n">
         <v>-530002.633965152</v>
       </c>
-      <c r="S34" s="15" t="n">
+      <c r="S34" s="9" t="n">
         <v>756423.842348394</v>
       </c>
-      <c r="T34" s="15" t="n">
+      <c r="T34" s="9" t="n">
         <v>3597300.3627095</v>
       </c>
-      <c r="U34" s="15" t="n">
+      <c r="U34" s="9" t="n">
         <v>953544.880939329</v>
       </c>
-      <c r="V34" s="15" t="n">
+      <c r="V34" s="9" t="n">
         <v>2100234.12194165</v>
       </c>
-      <c r="W34" s="15" t="n">
+      <c r="W34" s="9" t="n">
         <v>860999.023632689</v>
       </c>
-      <c r="X34" s="15" t="n">
+      <c r="X34" s="9" t="n">
         <v>9268393.16624881</v>
       </c>
-      <c r="Y34" s="15" t="n">
+      <c r="Y34" s="9" t="n">
         <v>18969615.411275</v>
       </c>
-      <c r="Z34" s="15" t="n">
+      <c r="Z34" s="9" t="n">
         <v>12065005.5308147</v>
       </c>
-      <c r="AA34" s="15" t="n">
+      <c r="AA34" s="9" t="n">
         <v>58918679.9636052</v>
       </c>
-      <c r="AB34" s="15" t="n">
+      <c r="AB34" s="9" t="n">
         <v>750872.466361167</v>
       </c>
-      <c r="AC34" s="15" t="n">
+      <c r="AC34" s="9" t="n">
         <v>21077740.3019894</v>
       </c>
-      <c r="AD34" s="15" t="n">
+      <c r="AD34" s="9" t="n">
         <v>6697698.44392739</v>
       </c>
-      <c r="AE34" s="15" t="n">
+      <c r="AE34" s="9" t="n">
         <v>3009276.3125</v>
       </c>
-      <c r="AF34" s="15"/>
+      <c r="AF34" s="9"/>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -6169,16 +6169,16 @@
       <c r="B35" t="str">
         <f>N35</f>
       </c>
-      <c r="C35" s="15" t="str">
+      <c r="C35" s="9" t="str">
         <f>AB35</f>
       </c>
-      <c r="D35" s="15" t="str">
+      <c r="D35" s="9" t="str">
         <f>AD35</f>
       </c>
-      <c r="E35" s="15" t="str">
+      <c r="E35" s="9" t="str">
         <f>AE35</f>
       </c>
-      <c r="F35" s="15" t="str">
+      <c r="F35" s="9" t="str">
         <f>AF35</f>
       </c>
       <c r="G35" s="3" t="str">
@@ -6202,58 +6202,58 @@
       <c r="N35" t="s">
         <v>43</v>
       </c>
-      <c r="O35" s="15" t="n">
+      <c r="O35" s="9" t="n">
         <v>129494665.991222</v>
       </c>
-      <c r="P35" s="15" t="n">
+      <c r="P35" s="9" t="n">
         <v>376999368.553153</v>
       </c>
-      <c r="Q35" s="15" t="n">
+      <c r="Q35" s="9" t="n">
         <v>164705115.519292</v>
       </c>
-      <c r="R35" s="15" t="n">
+      <c r="R35" s="9" t="n">
         <v>3052336970.05866</v>
       </c>
-      <c r="S35" s="15" t="n">
+      <c r="S35" s="9" t="n">
         <v>620639379.059586</v>
       </c>
-      <c r="T35" s="15" t="n">
+      <c r="T35" s="9" t="n">
         <v>428082124.158577</v>
       </c>
-      <c r="U35" s="15" t="n">
+      <c r="U35" s="9" t="n">
         <v>264005381.730712</v>
       </c>
-      <c r="V35" s="15" t="n">
+      <c r="V35" s="9" t="n">
         <v>319864252.59757</v>
       </c>
-      <c r="W35" s="15" t="n">
+      <c r="W35" s="9" t="n">
         <v>155895886.847221</v>
       </c>
-      <c r="X35" s="15" t="n">
+      <c r="X35" s="9" t="n">
         <v>233122510.00642</v>
       </c>
-      <c r="Y35" s="15" t="n">
+      <c r="Y35" s="9" t="n">
         <v>153787934.235354</v>
       </c>
-      <c r="Z35" s="15" t="n">
+      <c r="Z35" s="9" t="n">
         <v>168701065.6176</v>
       </c>
-      <c r="AA35" s="15" t="n">
+      <c r="AA35" s="9" t="n">
         <v>367214234.446343</v>
       </c>
-      <c r="AB35" s="15" t="n">
+      <c r="AB35" s="9" t="n">
         <v>384718922.536547</v>
       </c>
-      <c r="AC35" s="15" t="n">
+      <c r="AC35" s="9" t="n">
         <v>333792378.138851</v>
       </c>
-      <c r="AD35" s="15" t="n">
+      <c r="AD35" s="9" t="n">
         <v>356041881.589343</v>
       </c>
-      <c r="AE35" s="15" t="n">
+      <c r="AE35" s="9" t="n">
         <v>643485539.1533</v>
       </c>
-      <c r="AF35" s="15"/>
+      <c r="AF35" s="9"/>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -6262,16 +6262,16 @@
       <c r="B36" t="str">
         <f>N36</f>
       </c>
-      <c r="C36" s="15" t="str">
+      <c r="C36" s="9" t="str">
         <f>AB36</f>
       </c>
-      <c r="D36" s="15" t="str">
+      <c r="D36" s="9" t="str">
         <f>AD36</f>
       </c>
-      <c r="E36" s="15" t="str">
+      <c r="E36" s="9" t="str">
         <f>AE36</f>
       </c>
-      <c r="F36" s="15" t="str">
+      <c r="F36" s="9" t="str">
         <f>AF36</f>
       </c>
       <c r="G36" s="3" t="str">
@@ -6295,58 +6295,58 @@
       <c r="N36" t="s">
         <v>40</v>
       </c>
-      <c r="O36" s="15" t="n">
+      <c r="O36" s="9" t="n">
         <v>20096300367.6935</v>
       </c>
-      <c r="P36" s="15" t="n">
+      <c r="P36" s="9" t="n">
         <v>15985104110.2386</v>
       </c>
-      <c r="Q36" s="15" t="n">
+      <c r="Q36" s="9" t="n">
         <v>11051301679.3354</v>
       </c>
-      <c r="R36" s="15" t="n">
+      <c r="R36" s="9" t="n">
         <v>6861428245.02892</v>
       </c>
-      <c r="S36" s="15" t="n">
+      <c r="S36" s="9" t="n">
         <v>5271068833.92491</v>
       </c>
-      <c r="T36" s="15" t="n">
+      <c r="T36" s="9" t="n">
         <v>4021994395.74978</v>
       </c>
-      <c r="U36" s="15" t="n">
+      <c r="U36" s="9" t="n">
         <v>3126995890.51699</v>
       </c>
-      <c r="V36" s="15" t="n">
+      <c r="V36" s="9" t="n">
         <v>2252672586.07337</v>
       </c>
-      <c r="W36" s="15" t="n">
+      <c r="W36" s="9" t="n">
         <v>3694564821.21213</v>
       </c>
-      <c r="X36" s="15" t="n">
+      <c r="X36" s="9" t="n">
         <v>2335910588.75374</v>
       </c>
-      <c r="Y36" s="15" t="n">
+      <c r="Y36" s="9" t="n">
         <v>1989770046.28798</v>
       </c>
-      <c r="Z36" s="15" t="n">
+      <c r="Z36" s="9" t="n">
         <v>1861486719.65612</v>
       </c>
-      <c r="AA36" s="15" t="n">
+      <c r="AA36" s="9" t="n">
         <v>2053060235.57906</v>
       </c>
-      <c r="AB36" s="15" t="n">
+      <c r="AB36" s="9" t="n">
         <v>2392550762.45325</v>
       </c>
-      <c r="AC36" s="15" t="n">
+      <c r="AC36" s="9" t="n">
         <v>1865254916.5128</v>
       </c>
-      <c r="AD36" s="15" t="n">
+      <c r="AD36" s="9" t="n">
         <v>2045132368.81667</v>
       </c>
-      <c r="AE36" s="15" t="n">
+      <c r="AE36" s="9" t="n">
         <v>4349132039.113</v>
       </c>
-      <c r="AF36" s="15"/>
+      <c r="AF36" s="9"/>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -6355,16 +6355,16 @@
       <c r="B37" t="str">
         <f>N37</f>
       </c>
-      <c r="C37" s="15" t="str">
+      <c r="C37" s="9" t="str">
         <f>AB37</f>
       </c>
-      <c r="D37" s="15" t="str">
+      <c r="D37" s="9" t="str">
         <f>AD37</f>
       </c>
-      <c r="E37" s="15" t="str">
+      <c r="E37" s="9" t="str">
         <f>AE37</f>
       </c>
-      <c r="F37" s="15" t="str">
+      <c r="F37" s="9" t="str">
         <f>AF37</f>
       </c>
       <c r="G37" s="3" t="str">
@@ -6388,58 +6388,58 @@
       <c r="N37" t="s">
         <v>43</v>
       </c>
-      <c r="O37" s="15" t="n">
+      <c r="O37" s="9" t="n">
         <v>143479181461.936</v>
       </c>
-      <c r="P37" s="15" t="n">
+      <c r="P37" s="9" t="n">
         <v>162285532497.217</v>
       </c>
-      <c r="Q37" s="15" t="n">
+      <c r="Q37" s="9" t="n">
         <v>151402719640.374</v>
       </c>
-      <c r="R37" s="15" t="n">
+      <c r="R37" s="9" t="n">
         <v>98686426118.2673</v>
       </c>
-      <c r="S37" s="15" t="n">
+      <c r="S37" s="9" t="n">
         <v>68088344197.2389</v>
       </c>
-      <c r="T37" s="15" t="n">
+      <c r="T37" s="9" t="n">
         <v>41771183380.3403</v>
       </c>
-      <c r="U37" s="15" t="n">
+      <c r="U37" s="9" t="n">
         <v>23611958483.8687</v>
       </c>
-      <c r="V37" s="15" t="n">
+      <c r="V37" s="9" t="n">
         <v>19683614119.4291</v>
       </c>
-      <c r="W37" s="15" t="n">
+      <c r="W37" s="9" t="n">
         <v>14669700733.9954</v>
       </c>
-      <c r="X37" s="15" t="n">
+      <c r="X37" s="9" t="n">
         <v>12763233150.483</v>
       </c>
-      <c r="Y37" s="15" t="n">
+      <c r="Y37" s="9" t="n">
         <v>14622365123.9462</v>
       </c>
-      <c r="Z37" s="15" t="n">
+      <c r="Z37" s="9" t="n">
         <v>13899501665.9389</v>
       </c>
-      <c r="AA37" s="15" t="n">
+      <c r="AA37" s="9" t="n">
         <v>12297973986.1974</v>
       </c>
-      <c r="AB37" s="15" t="n">
+      <c r="AB37" s="9" t="n">
         <v>14126333483.4409</v>
       </c>
-      <c r="AC37" s="15" t="n">
+      <c r="AC37" s="9" t="n">
         <v>13354299200.0388</v>
       </c>
-      <c r="AD37" s="15" t="n">
+      <c r="AD37" s="9" t="n">
         <v>11840793146.6593</v>
       </c>
-      <c r="AE37" s="15" t="n">
+      <c r="AE37" s="9" t="n">
         <v>26136114722.1225</v>
       </c>
-      <c r="AF37" s="15"/>
+      <c r="AF37" s="9"/>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -6448,16 +6448,16 @@
       <c r="B38" t="str">
         <f>N38</f>
       </c>
-      <c r="C38" s="15" t="str">
+      <c r="C38" s="9" t="str">
         <f>AB38</f>
       </c>
-      <c r="D38" s="15" t="str">
+      <c r="D38" s="9" t="str">
         <f>AD38</f>
       </c>
-      <c r="E38" s="15" t="str">
+      <c r="E38" s="9" t="str">
         <f>AE38</f>
       </c>
-      <c r="F38" s="15" t="str">
+      <c r="F38" s="9" t="str">
         <f>AF38</f>
       </c>
       <c r="G38" s="3" t="str">
@@ -6481,58 +6481,58 @@
       <c r="N38" t="s">
         <v>40</v>
       </c>
-      <c r="O38" s="15" t="n">
+      <c r="O38" s="9" t="n">
         <v>12022480453.7951</v>
       </c>
-      <c r="P38" s="15" t="n">
+      <c r="P38" s="9" t="n">
         <v>12049860723.0378</v>
       </c>
-      <c r="Q38" s="15" t="n">
+      <c r="Q38" s="9" t="n">
         <v>11247987124.3276</v>
       </c>
-      <c r="R38" s="15" t="n">
+      <c r="R38" s="9" t="n">
         <v>8172686625.05649</v>
       </c>
-      <c r="S38" s="15" t="n">
+      <c r="S38" s="9" t="n">
         <v>6589314445.61342</v>
       </c>
-      <c r="T38" s="15" t="n">
+      <c r="T38" s="9" t="n">
         <v>6326764311.43694</v>
       </c>
-      <c r="U38" s="15" t="n">
+      <c r="U38" s="9" t="n">
         <v>4577289622.84308</v>
       </c>
-      <c r="V38" s="15" t="n">
+      <c r="V38" s="9" t="n">
         <v>5083634552.55849</v>
       </c>
-      <c r="W38" s="15" t="n">
+      <c r="W38" s="9" t="n">
         <v>4559684889.38713</v>
       </c>
-      <c r="X38" s="15" t="n">
+      <c r="X38" s="9" t="n">
         <v>5623018463.65801</v>
       </c>
-      <c r="Y38" s="15" t="n">
+      <c r="Y38" s="9" t="n">
         <v>6669796283.48998</v>
       </c>
-      <c r="Z38" s="15" t="n">
+      <c r="Z38" s="9" t="n">
         <v>7886424223.58715</v>
       </c>
-      <c r="AA38" s="15" t="n">
+      <c r="AA38" s="9" t="n">
         <v>8176886977.35642</v>
       </c>
-      <c r="AB38" s="15" t="n">
+      <c r="AB38" s="9" t="n">
         <v>8054334488.32494</v>
       </c>
-      <c r="AC38" s="15" t="n">
+      <c r="AC38" s="9" t="n">
         <v>7985882603.63557</v>
       </c>
-      <c r="AD38" s="15" t="n">
+      <c r="AD38" s="9" t="n">
         <v>7077283089.4875</v>
       </c>
-      <c r="AE38" s="15" t="n">
+      <c r="AE38" s="9" t="n">
         <v>8611322470.3826</v>
       </c>
-      <c r="AF38" s="15"/>
+      <c r="AF38" s="9"/>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -6541,16 +6541,16 @@
       <c r="B39" t="str">
         <f>N39</f>
       </c>
-      <c r="C39" s="15" t="str">
+      <c r="C39" s="9" t="str">
         <f>AB39</f>
       </c>
-      <c r="D39" s="15" t="str">
+      <c r="D39" s="9" t="str">
         <f>AD39</f>
       </c>
-      <c r="E39" s="15" t="str">
+      <c r="E39" s="9" t="str">
         <f>AE39</f>
       </c>
-      <c r="F39" s="15" t="str">
+      <c r="F39" s="9" t="str">
         <f>AF39</f>
       </c>
       <c r="G39" s="3" t="str">
@@ -6574,58 +6574,58 @@
       <c r="N39" t="s">
         <v>43</v>
       </c>
-      <c r="O39" s="15" t="n">
+      <c r="O39" s="9" t="n">
         <v>16704124189.3925</v>
       </c>
-      <c r="P39" s="15" t="n">
+      <c r="P39" s="9" t="n">
         <v>15597127368.5026</v>
       </c>
-      <c r="Q39" s="15" t="n">
+      <c r="Q39" s="9" t="n">
         <v>16161596635.648</v>
       </c>
-      <c r="R39" s="15" t="n">
+      <c r="R39" s="9" t="n">
         <v>13562805723.1655</v>
       </c>
-      <c r="S39" s="15" t="n">
+      <c r="S39" s="9" t="n">
         <v>18630934397.7486</v>
       </c>
-      <c r="T39" s="15" t="n">
+      <c r="T39" s="9" t="n">
         <v>17330589725.2876</v>
       </c>
-      <c r="U39" s="15" t="n">
+      <c r="U39" s="9" t="n">
         <v>15424782688.6793</v>
       </c>
-      <c r="V39" s="15" t="n">
+      <c r="V39" s="9" t="n">
         <v>15315169438.5208</v>
       </c>
-      <c r="W39" s="15" t="n">
+      <c r="W39" s="9" t="n">
         <v>14986877587.8788</v>
       </c>
-      <c r="X39" s="15" t="n">
+      <c r="X39" s="9" t="n">
         <v>15197428239.4648</v>
       </c>
-      <c r="Y39" s="15" t="n">
+      <c r="Y39" s="9" t="n">
         <v>15382007304.9791</v>
       </c>
-      <c r="Z39" s="15" t="n">
+      <c r="Z39" s="9" t="n">
         <v>19031457021.5862</v>
       </c>
-      <c r="AA39" s="15" t="n">
+      <c r="AA39" s="9" t="n">
         <v>18770194772.1515</v>
       </c>
-      <c r="AB39" s="15" t="n">
+      <c r="AB39" s="9" t="n">
         <v>17899248912.8761</v>
       </c>
-      <c r="AC39" s="15" t="n">
+      <c r="AC39" s="9" t="n">
         <v>15709581363.1484</v>
       </c>
-      <c r="AD39" s="15" t="n">
+      <c r="AD39" s="9" t="n">
         <v>15412335206.8195</v>
       </c>
-      <c r="AE39" s="15" t="n">
+      <c r="AE39" s="9" t="n">
         <v>11028697994.0188</v>
       </c>
-      <c r="AF39" s="15"/>
+      <c r="AF39" s="9"/>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -6634,16 +6634,16 @@
       <c r="B40" t="str">
         <f>N40</f>
       </c>
-      <c r="C40" s="15" t="str">
+      <c r="C40" s="9" t="str">
         <f>AB40</f>
       </c>
-      <c r="D40" s="15" t="str">
+      <c r="D40" s="9" t="str">
         <f>AD40</f>
       </c>
-      <c r="E40" s="15" t="str">
+      <c r="E40" s="9" t="str">
         <f>AE40</f>
       </c>
-      <c r="F40" s="15" t="str">
+      <c r="F40" s="9" t="str">
         <f>AF40</f>
       </c>
       <c r="G40" s="3" t="str">
@@ -6667,58 +6667,58 @@
       <c r="N40" t="s">
         <v>40</v>
       </c>
-      <c r="O40" s="15" t="n">
+      <c r="O40" s="9" t="n">
         <v>116279253.77012</v>
       </c>
-      <c r="P40" s="15" t="n">
+      <c r="P40" s="9" t="n">
         <v>2745094225.45514</v>
       </c>
-      <c r="Q40" s="15" t="n">
+      <c r="Q40" s="9" t="n">
         <v>2393706848.21061</v>
       </c>
-      <c r="R40" s="15" t="n">
+      <c r="R40" s="9" t="n">
         <v>1833565961.51133</v>
       </c>
-      <c r="S40" s="15" t="n">
+      <c r="S40" s="9" t="n">
         <v>1474255297.22779</v>
       </c>
-      <c r="T40" s="15" t="n">
+      <c r="T40" s="9" t="n">
         <v>744126667.930949</v>
       </c>
-      <c r="U40" s="15" t="n">
+      <c r="U40" s="9" t="n">
         <v>514820985.594724</v>
       </c>
-      <c r="V40" s="15" t="n">
+      <c r="V40" s="9" t="n">
         <v>449721361.009705</v>
       </c>
-      <c r="W40" s="15" t="n">
+      <c r="W40" s="9" t="n">
         <v>441688712.505163</v>
       </c>
-      <c r="X40" s="15" t="n">
+      <c r="X40" s="9" t="n">
         <v>584800479.861838</v>
       </c>
-      <c r="Y40" s="15" t="n">
+      <c r="Y40" s="9" t="n">
         <v>288060577.024133</v>
       </c>
-      <c r="Z40" s="15" t="n">
+      <c r="Z40" s="9" t="n">
         <v>333728994.50215</v>
       </c>
-      <c r="AA40" s="15" t="n">
+      <c r="AA40" s="9" t="n">
         <v>489472944.550697</v>
       </c>
-      <c r="AB40" s="15" t="n">
+      <c r="AB40" s="9" t="n">
         <v>327876440.045681</v>
       </c>
-      <c r="AC40" s="15" t="n">
+      <c r="AC40" s="9" t="n">
         <v>294904664.842728</v>
       </c>
-      <c r="AD40" s="15" t="n">
+      <c r="AD40" s="9" t="n">
         <v>260661377.308312</v>
       </c>
-      <c r="AE40" s="15" t="n">
+      <c r="AE40" s="9" t="n">
         <v>1719360865.2598</v>
       </c>
-      <c r="AF40" s="15"/>
+      <c r="AF40" s="9"/>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -6727,16 +6727,16 @@
       <c r="B41" t="str">
         <f>N41</f>
       </c>
-      <c r="C41" s="15" t="str">
+      <c r="C41" s="9" t="str">
         <f>AB41</f>
       </c>
-      <c r="D41" s="15" t="str">
+      <c r="D41" s="9" t="str">
         <f>AD41</f>
       </c>
-      <c r="E41" s="15" t="str">
+      <c r="E41" s="9" t="str">
         <f>AE41</f>
       </c>
-      <c r="F41" s="15" t="str">
+      <c r="F41" s="9" t="str">
         <f>AF41</f>
       </c>
       <c r="G41" s="3" t="str">
@@ -6760,58 +6760,58 @@
       <c r="N41" t="s">
         <v>43</v>
       </c>
-      <c r="O41" s="15" t="n">
+      <c r="O41" s="9" t="n">
         <v>1135565293.06255</v>
       </c>
-      <c r="P41" s="15" t="n">
+      <c r="P41" s="9" t="n">
         <v>8651533051.52256</v>
       </c>
-      <c r="Q41" s="15" t="n">
+      <c r="Q41" s="9" t="n">
         <v>12319288525.5392</v>
       </c>
-      <c r="R41" s="15" t="n">
+      <c r="R41" s="9" t="n">
         <v>4130914997.79964</v>
       </c>
-      <c r="S41" s="15" t="n">
+      <c r="S41" s="9" t="n">
         <v>2979356320.93152</v>
       </c>
-      <c r="T41" s="15" t="n">
+      <c r="T41" s="9" t="n">
         <v>2446786154.25965</v>
       </c>
-      <c r="U41" s="15" t="n">
+      <c r="U41" s="9" t="n">
         <v>1391834451.67874</v>
       </c>
-      <c r="V41" s="15" t="n">
+      <c r="V41" s="9" t="n">
         <v>1222394413.80361</v>
       </c>
-      <c r="W41" s="15" t="n">
+      <c r="W41" s="9" t="n">
         <v>856385141.561649</v>
       </c>
-      <c r="X41" s="15" t="n">
+      <c r="X41" s="9" t="n">
         <v>808011240.718388</v>
       </c>
-      <c r="Y41" s="15" t="n">
+      <c r="Y41" s="9" t="n">
         <v>916803226.499431</v>
       </c>
-      <c r="Z41" s="15" t="n">
+      <c r="Z41" s="9" t="n">
         <v>871623914.090263</v>
       </c>
-      <c r="AA41" s="15" t="n">
+      <c r="AA41" s="9" t="n">
         <v>1049308363.74618</v>
       </c>
-      <c r="AB41" s="15" t="n">
+      <c r="AB41" s="9" t="n">
         <v>928095514.024027</v>
       </c>
-      <c r="AC41" s="15" t="n">
+      <c r="AC41" s="9" t="n">
         <v>432279122.064571</v>
       </c>
-      <c r="AD41" s="15" t="n">
+      <c r="AD41" s="9" t="n">
         <v>480686438.079784</v>
       </c>
-      <c r="AE41" s="15" t="n">
+      <c r="AE41" s="9" t="n">
         <v>1783365852.8155</v>
       </c>
-      <c r="AF41" s="15"/>
+      <c r="AF41" s="9"/>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -6820,16 +6820,16 @@
       <c r="B42" t="str">
         <f>N42</f>
       </c>
-      <c r="C42" s="15" t="str">
+      <c r="C42" s="9" t="str">
         <f>AB42</f>
       </c>
-      <c r="D42" s="15" t="str">
+      <c r="D42" s="9" t="str">
         <f>AD42</f>
       </c>
-      <c r="E42" s="15" t="str">
+      <c r="E42" s="9" t="str">
         <f>AE42</f>
       </c>
-      <c r="F42" s="15" t="str">
+      <c r="F42" s="9" t="str">
         <f>AF42</f>
       </c>
       <c r="G42" s="3" t="str">
@@ -6853,58 +6853,58 @@
       <c r="N42" t="s">
         <v>19</v>
       </c>
-      <c r="O42" s="15" t="str">
+      <c r="O42" s="9" t="str">
         <f>Sum(O24:O41)</f>
       </c>
-      <c r="P42" s="15" t="str">
+      <c r="P42" s="9" t="str">
         <f>Sum(P24:P41)</f>
       </c>
-      <c r="Q42" s="15" t="str">
+      <c r="Q42" s="9" t="str">
         <f>Sum(Q24:Q41)</f>
       </c>
-      <c r="R42" s="15" t="str">
+      <c r="R42" s="9" t="str">
         <f>Sum(R24:R41)</f>
       </c>
-      <c r="S42" s="15" t="str">
+      <c r="S42" s="9" t="str">
         <f>Sum(S24:S41)</f>
       </c>
-      <c r="T42" s="15" t="str">
+      <c r="T42" s="9" t="str">
         <f>Sum(T24:T41)</f>
       </c>
-      <c r="U42" s="15" t="str">
+      <c r="U42" s="9" t="str">
         <f>Sum(U24:U41)</f>
       </c>
-      <c r="V42" s="15" t="str">
+      <c r="V42" s="9" t="str">
         <f>Sum(V24:V41)</f>
       </c>
-      <c r="W42" s="15" t="str">
+      <c r="W42" s="9" t="str">
         <f>Sum(W24:W41)</f>
       </c>
-      <c r="X42" s="15" t="str">
+      <c r="X42" s="9" t="str">
         <f>Sum(X24:X41)</f>
       </c>
-      <c r="Y42" s="15" t="str">
+      <c r="Y42" s="9" t="str">
         <f>Sum(Y24:Y41)</f>
       </c>
-      <c r="Z42" s="15" t="str">
+      <c r="Z42" s="9" t="str">
         <f>Sum(Z24:Z41)</f>
       </c>
-      <c r="AA42" s="15" t="str">
+      <c r="AA42" s="9" t="str">
         <f>Sum(AA24:AA41)</f>
       </c>
-      <c r="AB42" s="15" t="str">
+      <c r="AB42" s="9" t="str">
         <f>Sum(AB24:AB41)</f>
       </c>
-      <c r="AC42" s="15" t="str">
+      <c r="AC42" s="9" t="str">
         <f>Sum(AC24:AC41)</f>
       </c>
-      <c r="AD42" s="15" t="str">
+      <c r="AD42" s="9" t="str">
         <f>Sum(AD24:AD41)</f>
       </c>
-      <c r="AE42" s="15" t="str">
+      <c r="AE42" s="9" t="str">
         <f>Sum(AE24:AE41)</f>
       </c>
-      <c r="AF42" s="15"/>
+      <c r="AF42" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/CSIS_DoD_DIB_Trends.xlsx
+++ b/Output/AcqTrends/CSIS_DoD_DIB_Trends.xlsx
@@ -213,21 +213,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="14">
+  <numFmts count="17">
     <numFmt numFmtId="169" formatCode="0.00,&quot;K&quot;"/>
-    <numFmt numFmtId="253" formatCode="0.00,&quot;K&quot;"/>
+    <numFmt numFmtId="279" formatCode="0.00,&quot;K&quot;"/>
     <numFmt numFmtId="201" formatCode="0.00,&quot;K&quot;"/>
-    <numFmt numFmtId="237" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="266" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="206" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="252" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="247" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="277" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="274" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="244" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="247" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="276" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="213" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="242" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="250" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="254" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="273" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="275" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="280" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -263,23 +266,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="253" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="279" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="237" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="266" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="252" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="247" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="277" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="274" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="244" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="247" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="276" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="213" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="242" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="250" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="254" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="273" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="275" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="280" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,55 +739,55 @@
         <v>23</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>26688</v>
+        <v>26684</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>26534</v>
+        <v>26507</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>25831</v>
+        <v>25830</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>24010</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>22644</v>
+        <v>22617</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>20827</v>
+        <v>20811</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>17598</v>
+        <v>17577</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>16870</v>
+        <v>16857</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>16511</v>
+        <v>16492</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>15670</v>
+        <v>15657</v>
       </c>
       <c r="Y2" s="2" t="n">
-        <v>15195</v>
+        <v>15179</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>14302</v>
+        <v>14285</v>
       </c>
       <c r="AA2" s="2" t="n">
-        <v>13654</v>
+        <v>13648</v>
       </c>
       <c r="AB2" s="2" t="n">
-        <v>12467</v>
+        <v>12461</v>
       </c>
       <c r="AC2" s="2" t="n">
-        <v>11606</v>
+        <v>11598</v>
       </c>
       <c r="AD2" s="2" t="n">
-        <v>10312</v>
+        <v>10303</v>
       </c>
       <c r="AE2" s="2" t="n">
-        <v>10177</v>
+        <v>10166</v>
       </c>
       <c r="AF2" s="2" t="n">
         <v>14302</v>
@@ -847,55 +853,55 @@
         <v>55</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>12112</v>
+        <v>12093</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>12529</v>
+        <v>12364</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>11760</v>
+        <v>11733</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>10948</v>
+        <v>10902</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10241</v>
+        <v>10106</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>9673</v>
+        <v>9547</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>8437</v>
+        <v>8339</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>7731</v>
+        <v>7634</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>7819</v>
+        <v>7677</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>7419</v>
+        <v>7304</v>
       </c>
       <c r="Y3" s="2" t="n">
-        <v>7012</v>
+        <v>6900</v>
       </c>
       <c r="Z3" s="2" t="n">
-        <v>6551</v>
+        <v>6430</v>
       </c>
       <c r="AA3" s="2" t="n">
-        <v>5807</v>
+        <v>5690</v>
       </c>
       <c r="AB3" s="2" t="n">
-        <v>5173</v>
+        <v>5118</v>
       </c>
       <c r="AC3" s="2" t="n">
-        <v>4967</v>
+        <v>4884</v>
       </c>
       <c r="AD3" s="2" t="n">
-        <v>4562</v>
+        <v>4455</v>
       </c>
       <c r="AE3" s="2" t="n">
-        <v>4597</v>
+        <v>4532</v>
       </c>
       <c r="AF3" s="2" t="n">
         <v>6551</v>
@@ -961,52 +967,52 @@
         <v>23</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>3667</v>
+        <v>3664</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3766</v>
+        <v>3760</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>4294</v>
+        <v>4291</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>4286</v>
+        <v>4285</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>4387</v>
+        <v>4373</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>4287</v>
+        <v>4277</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>3761</v>
+        <v>3754</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3801</v>
+        <v>3792</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>3688</v>
+        <v>3675</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>3616</v>
+        <v>3606</v>
       </c>
       <c r="Y4" s="2" t="n">
-        <v>3613</v>
+        <v>3610</v>
       </c>
       <c r="Z4" s="2" t="n">
-        <v>3474</v>
+        <v>3465</v>
       </c>
       <c r="AA4" s="2" t="n">
-        <v>3426</v>
+        <v>3420</v>
       </c>
       <c r="AB4" s="2" t="n">
-        <v>3648</v>
+        <v>3642</v>
       </c>
       <c r="AC4" s="2" t="n">
-        <v>3570</v>
+        <v>3566</v>
       </c>
       <c r="AD4" s="2" t="n">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="AE4" s="2" t="n">
         <v>3355</v>
@@ -1075,55 +1081,55 @@
         <v>55</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>2539</v>
+        <v>2518</v>
       </c>
       <c r="P5" s="2" t="n">
+        <v>2469</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>2725</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>2738</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>2646</v>
+      </c>
+      <c r="T5" s="2" t="n">
         <v>2529</v>
       </c>
-      <c r="Q5" s="2" t="n">
-        <v>2747</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>2791</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>2739</v>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>2594</v>
-      </c>
       <c r="U5" s="2" t="n">
-        <v>2338</v>
+        <v>2271</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2177</v>
+        <v>2094</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>2267</v>
+        <v>2179</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>2237</v>
+        <v>2147</v>
       </c>
       <c r="Y5" s="2" t="n">
-        <v>2175</v>
+        <v>2104</v>
       </c>
       <c r="Z5" s="2" t="n">
-        <v>2105</v>
+        <v>2015</v>
       </c>
       <c r="AA5" s="2" t="n">
-        <v>1928</v>
+        <v>1854</v>
       </c>
       <c r="AB5" s="2" t="n">
-        <v>1977</v>
+        <v>1927</v>
       </c>
       <c r="AC5" s="2" t="n">
-        <v>1974</v>
+        <v>1900</v>
       </c>
       <c r="AD5" s="2" t="n">
-        <v>1841</v>
+        <v>1767</v>
       </c>
       <c r="AE5" s="2" t="n">
-        <v>1815</v>
+        <v>1778</v>
       </c>
       <c r="AF5" s="2" t="n">
         <v>2105</v>
@@ -1189,55 +1195,55 @@
         <v>23</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>8246</v>
+        <v>8251</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>8195</v>
+        <v>8197</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>8176</v>
+        <v>8185</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>8354</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8139</v>
+        <v>8130</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>7783</v>
+        <v>7775</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>6971</v>
+        <v>6964</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>6868</v>
+        <v>6862</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>6496</v>
+        <v>6484</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>6298</v>
+        <v>6287</v>
       </c>
       <c r="Y6" s="2" t="n">
-        <v>6124</v>
+        <v>6116</v>
       </c>
       <c r="Z6" s="2" t="n">
-        <v>6156</v>
+        <v>6148</v>
       </c>
       <c r="AA6" s="2" t="n">
-        <v>5934</v>
+        <v>5924</v>
       </c>
       <c r="AB6" s="2" t="n">
-        <v>6319</v>
+        <v>6313</v>
       </c>
       <c r="AC6" s="2" t="n">
-        <v>6228</v>
+        <v>6220</v>
       </c>
       <c r="AD6" s="2" t="n">
-        <v>5934</v>
+        <v>5925</v>
       </c>
       <c r="AE6" s="2" t="n">
-        <v>5877</v>
+        <v>5871</v>
       </c>
       <c r="AF6" s="2" t="n">
         <v>6156</v>
@@ -1303,55 +1309,55 @@
         <v>55</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>4912</v>
+        <v>4891</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5018</v>
+        <v>4927</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>4896</v>
+        <v>4867</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>4836</v>
+        <v>4776</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>4686</v>
+        <v>4557</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>4380</v>
+        <v>4292</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>3982</v>
+        <v>3881</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3783</v>
+        <v>3698</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>3883</v>
+        <v>3763</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>3803</v>
+        <v>3702</v>
       </c>
       <c r="Y7" s="2" t="n">
-        <v>3718</v>
+        <v>3596</v>
       </c>
       <c r="Z7" s="2" t="n">
-        <v>3679</v>
+        <v>3537</v>
       </c>
       <c r="AA7" s="2" t="n">
-        <v>3461</v>
+        <v>3333</v>
       </c>
       <c r="AB7" s="2" t="n">
-        <v>3326</v>
+        <v>3277</v>
       </c>
       <c r="AC7" s="2" t="n">
-        <v>3211</v>
+        <v>3129</v>
       </c>
       <c r="AD7" s="2" t="n">
-        <v>3131</v>
+        <v>3023</v>
       </c>
       <c r="AE7" s="2" t="n">
-        <v>3137</v>
+        <v>3076</v>
       </c>
       <c r="AF7" s="2" t="n">
         <v>3679</v>
@@ -1417,55 +1423,55 @@
         <v>23</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3447</v>
+        <v>3445</v>
       </c>
       <c r="Q8" s="2" t="n">
         <v>3443</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>4278</v>
+        <v>4274</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>4467</v>
+        <v>4450</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>4761</v>
+        <v>4748</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>6118</v>
+        <v>6093</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>6464</v>
+        <v>6450</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>6153</v>
+        <v>6130</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>6532</v>
+        <v>6505</v>
       </c>
       <c r="Y8" s="2" t="n">
-        <v>6534</v>
+        <v>6512</v>
       </c>
       <c r="Z8" s="2" t="n">
-        <v>6717</v>
+        <v>6688</v>
       </c>
       <c r="AA8" s="2" t="n">
-        <v>6909</v>
+        <v>6879</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>5882</v>
+        <v>5858</v>
       </c>
       <c r="AC8" s="2" t="n">
+        <v>5914</v>
+      </c>
+      <c r="AD8" s="2" t="n">
         <v>5950</v>
       </c>
-      <c r="AD8" s="2" t="n">
-        <v>5987</v>
-      </c>
       <c r="AE8" s="2" t="n">
-        <v>6146</v>
+        <v>6126</v>
       </c>
       <c r="AF8" s="2" t="n">
         <v>6717</v>
@@ -1531,55 +1537,55 @@
         <v>55</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>4603</v>
+        <v>4540</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4853</v>
+        <v>4749</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>5387</v>
+        <v>5295</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>5879</v>
+        <v>5741</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>6165</v>
+        <v>5888</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>5928</v>
+        <v>5745</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>5909</v>
+        <v>5645</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>5803</v>
+        <v>5573</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>5789</v>
+        <v>5518</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>5810</v>
+        <v>5586</v>
       </c>
       <c r="Y9" s="2" t="n">
-        <v>5851</v>
+        <v>5590</v>
       </c>
       <c r="Z9" s="2" t="n">
-        <v>5856</v>
+        <v>5592</v>
       </c>
       <c r="AA9" s="2" t="n">
-        <v>5668</v>
+        <v>5399</v>
       </c>
       <c r="AB9" s="2" t="n">
-        <v>5681</v>
+        <v>5480</v>
       </c>
       <c r="AC9" s="2" t="n">
-        <v>5552</v>
+        <v>5273</v>
       </c>
       <c r="AD9" s="2" t="n">
-        <v>5526</v>
+        <v>5277</v>
       </c>
       <c r="AE9" s="2" t="n">
-        <v>5391</v>
+        <v>5234</v>
       </c>
       <c r="AF9" s="2" t="n">
         <v>5856</v>
@@ -1880,58 +1886,58 @@
       <c r="N2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="15" t="n">
-        <v>1607832650.0848</v>
-      </c>
-      <c r="P2" s="15" t="n">
-        <v>1751871558.4642</v>
-      </c>
-      <c r="Q2" s="15" t="n">
-        <v>1506361369.1731</v>
-      </c>
-      <c r="R2" s="15" t="n">
-        <v>1396531382.5087</v>
-      </c>
-      <c r="S2" s="15" t="n">
-        <v>1397976506.2712</v>
-      </c>
-      <c r="T2" s="15" t="n">
-        <v>1279752259.8247</v>
-      </c>
-      <c r="U2" s="15" t="n">
-        <v>1049133781.4795</v>
-      </c>
-      <c r="V2" s="15" t="n">
-        <v>1073603566.7955</v>
-      </c>
-      <c r="W2" s="15" t="n">
-        <v>1048450862.5594</v>
-      </c>
-      <c r="X2" s="15" t="n">
-        <v>1088102147.7351</v>
-      </c>
-      <c r="Y2" s="15" t="n">
-        <v>1072746922.942</v>
-      </c>
-      <c r="Z2" s="15" t="n">
-        <v>1096865763.5188</v>
-      </c>
-      <c r="AA2" s="15" t="n">
-        <v>1188706092.6348</v>
-      </c>
-      <c r="AB2" s="15" t="n">
-        <v>926769387.3954</v>
-      </c>
-      <c r="AC2" s="15" t="n">
-        <v>976003450.1165</v>
-      </c>
-      <c r="AD2" s="15" t="n">
-        <v>983305068.5037</v>
-      </c>
-      <c r="AE2" s="15" t="n">
-        <v>926451906.4684</v>
-      </c>
-      <c r="AF2" s="15" t="n">
+      <c r="O2" s="18" t="n">
+        <v>1606999011.4684</v>
+      </c>
+      <c r="P2" s="18" t="n">
+        <v>1749563743.6022</v>
+      </c>
+      <c r="Q2" s="18" t="n">
+        <v>1506678493.28</v>
+      </c>
+      <c r="R2" s="18" t="n">
+        <v>1396525998.1383</v>
+      </c>
+      <c r="S2" s="18" t="n">
+        <v>1395033685.2127</v>
+      </c>
+      <c r="T2" s="18" t="n">
+        <v>1278108791.4847</v>
+      </c>
+      <c r="U2" s="18" t="n">
+        <v>1045675708.7394</v>
+      </c>
+      <c r="V2" s="18" t="n">
+        <v>1073170724.9555</v>
+      </c>
+      <c r="W2" s="18" t="n">
+        <v>1046138763.7492</v>
+      </c>
+      <c r="X2" s="18" t="n">
+        <v>1087591201.6851</v>
+      </c>
+      <c r="Y2" s="18" t="n">
+        <v>1071647549.5105</v>
+      </c>
+      <c r="Z2" s="18" t="n">
+        <v>1096403839.4295</v>
+      </c>
+      <c r="AA2" s="18" t="n">
+        <v>1188366930.4747</v>
+      </c>
+      <c r="AB2" s="18" t="n">
+        <v>923178410.2966</v>
+      </c>
+      <c r="AC2" s="18" t="n">
+        <v>974979273.3563</v>
+      </c>
+      <c r="AD2" s="18" t="n">
+        <v>981569971.77</v>
+      </c>
+      <c r="AE2" s="18" t="n">
+        <v>921560067.2682</v>
+      </c>
+      <c r="AF2" s="18" t="n">
         <v>1096865763.5188</v>
       </c>
       <c r="AG2" s="7" t="n">
@@ -1994,58 +2000,58 @@
       <c r="N3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="15" t="n">
-        <v>1184454239.6496</v>
-      </c>
-      <c r="P3" s="15" t="n">
-        <v>1228271132.5837</v>
-      </c>
-      <c r="Q3" s="15" t="n">
-        <v>1140495002.7928</v>
-      </c>
-      <c r="R3" s="15" t="n">
-        <v>1024201877.6785</v>
-      </c>
-      <c r="S3" s="15" t="n">
-        <v>896870805.4232</v>
-      </c>
-      <c r="T3" s="15" t="n">
-        <v>960414796.0546</v>
-      </c>
-      <c r="U3" s="15" t="n">
-        <v>878985475.2202</v>
-      </c>
-      <c r="V3" s="15" t="n">
-        <v>751928698.974</v>
-      </c>
-      <c r="W3" s="15" t="n">
-        <v>815327907.857</v>
-      </c>
-      <c r="X3" s="15" t="n">
-        <v>844568319.4829</v>
-      </c>
-      <c r="Y3" s="15" t="n">
-        <v>787108243.3135</v>
-      </c>
-      <c r="Z3" s="15" t="n">
-        <v>820630788.2635</v>
-      </c>
-      <c r="AA3" s="15" t="n">
-        <v>686536567.6669</v>
-      </c>
-      <c r="AB3" s="15" t="n">
-        <v>545764074.6504</v>
-      </c>
-      <c r="AC3" s="15" t="n">
-        <v>564021752.7514</v>
-      </c>
-      <c r="AD3" s="15" t="n">
-        <v>783509578.311</v>
-      </c>
-      <c r="AE3" s="15" t="n">
-        <v>704578096.1892</v>
-      </c>
-      <c r="AF3" s="15" t="n">
+      <c r="O3" s="18" t="n">
+        <v>1180032109.8978</v>
+      </c>
+      <c r="P3" s="18" t="n">
+        <v>1200300207.2744</v>
+      </c>
+      <c r="Q3" s="18" t="n">
+        <v>1137300771.12</v>
+      </c>
+      <c r="R3" s="18" t="n">
+        <v>1017293172.5488</v>
+      </c>
+      <c r="S3" s="18" t="n">
+        <v>871092120.5143</v>
+      </c>
+      <c r="T3" s="18" t="n">
+        <v>945790789.0135</v>
+      </c>
+      <c r="U3" s="18" t="n">
+        <v>867767355.9902</v>
+      </c>
+      <c r="V3" s="18" t="n">
+        <v>737853409.4731</v>
+      </c>
+      <c r="W3" s="18" t="n">
+        <v>803169465.5023</v>
+      </c>
+      <c r="X3" s="18" t="n">
+        <v>827231755.278</v>
+      </c>
+      <c r="Y3" s="18" t="n">
+        <v>761292441.2189</v>
+      </c>
+      <c r="Z3" s="18" t="n">
+        <v>802828716.5615</v>
+      </c>
+      <c r="AA3" s="18" t="n">
+        <v>661170222.7363</v>
+      </c>
+      <c r="AB3" s="18" t="n">
+        <v>537586909.9105</v>
+      </c>
+      <c r="AC3" s="18" t="n">
+        <v>549566656.8368</v>
+      </c>
+      <c r="AD3" s="18" t="n">
+        <v>721184811.9114</v>
+      </c>
+      <c r="AE3" s="18" t="n">
+        <v>642045191.7792</v>
+      </c>
+      <c r="AF3" s="18" t="n">
         <v>820630788.2635</v>
       </c>
       <c r="AG3" s="7" t="n">
@@ -2108,58 +2114,58 @@
       <c r="N4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="15" t="n">
-        <v>6058548489.082</v>
-      </c>
-      <c r="P4" s="15" t="n">
-        <v>6080450819.0119</v>
-      </c>
-      <c r="Q4" s="15" t="n">
-        <v>6779332127.7524</v>
-      </c>
-      <c r="R4" s="15" t="n">
-        <v>6093289597.1129</v>
-      </c>
-      <c r="S4" s="15" t="n">
-        <v>5262222494.4274</v>
-      </c>
-      <c r="T4" s="15" t="n">
-        <v>5079840604.2751</v>
-      </c>
-      <c r="U4" s="15" t="n">
-        <v>3567145813.244</v>
-      </c>
-      <c r="V4" s="15" t="n">
-        <v>4141995592.0904</v>
-      </c>
-      <c r="W4" s="15" t="n">
-        <v>3565259691.7783</v>
-      </c>
-      <c r="X4" s="15" t="n">
-        <v>3492208221.3053</v>
-      </c>
-      <c r="Y4" s="15" t="n">
-        <v>3649991757.8593</v>
-      </c>
-      <c r="Z4" s="15" t="n">
-        <v>3901328619.9928</v>
-      </c>
-      <c r="AA4" s="15" t="n">
-        <v>3830751102.3953</v>
-      </c>
-      <c r="AB4" s="15" t="n">
-        <v>4021172451.8518</v>
-      </c>
-      <c r="AC4" s="15" t="n">
-        <v>3517341896.4453</v>
-      </c>
-      <c r="AD4" s="15" t="n">
-        <v>3678372019.6405</v>
-      </c>
-      <c r="AE4" s="15" t="n">
+      <c r="O4" s="18" t="n">
+        <v>6050023649.082</v>
+      </c>
+      <c r="P4" s="18" t="n">
+        <v>6070175903.4709</v>
+      </c>
+      <c r="Q4" s="18" t="n">
+        <v>6770894674.5474</v>
+      </c>
+      <c r="R4" s="18" t="n">
+        <v>6092366415.7604</v>
+      </c>
+      <c r="S4" s="18" t="n">
+        <v>5252582243.8437</v>
+      </c>
+      <c r="T4" s="18" t="n">
+        <v>5038443268.6773</v>
+      </c>
+      <c r="U4" s="18" t="n">
+        <v>3547997827.294</v>
+      </c>
+      <c r="V4" s="18" t="n">
+        <v>4125630746.9504</v>
+      </c>
+      <c r="W4" s="18" t="n">
+        <v>3545302422.732</v>
+      </c>
+      <c r="X4" s="18" t="n">
+        <v>3473913127.1993</v>
+      </c>
+      <c r="Y4" s="18" t="n">
+        <v>3648187251.7777</v>
+      </c>
+      <c r="Z4" s="18" t="n">
+        <v>3889482569.1032</v>
+      </c>
+      <c r="AA4" s="18" t="n">
+        <v>3821057978.1805</v>
+      </c>
+      <c r="AB4" s="18" t="n">
+        <v>4006400842.8603</v>
+      </c>
+      <c r="AC4" s="18" t="n">
+        <v>3504419663.599</v>
+      </c>
+      <c r="AD4" s="18" t="n">
+        <v>3673370759.7506</v>
+      </c>
+      <c r="AE4" s="18" t="n">
         <v>3920322861.3483</v>
       </c>
-      <c r="AF4" s="15" t="n">
+      <c r="AF4" s="18" t="n">
         <v>3901328619.9928</v>
       </c>
       <c r="AG4" s="7" t="n">
@@ -2222,58 +2228,58 @@
       <c r="N5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="15" t="n">
-        <v>5679433896.1785</v>
-      </c>
-      <c r="P5" s="15" t="n">
-        <v>5624659404.6315</v>
-      </c>
-      <c r="Q5" s="15" t="n">
-        <v>5212638422.3091</v>
-      </c>
-      <c r="R5" s="15" t="n">
-        <v>6288316411.3781</v>
-      </c>
-      <c r="S5" s="15" t="n">
-        <v>5657555259.5043</v>
-      </c>
-      <c r="T5" s="15" t="n">
-        <v>3904127512.8452</v>
-      </c>
-      <c r="U5" s="15" t="n">
-        <v>3157315866.5217</v>
-      </c>
-      <c r="V5" s="15" t="n">
-        <v>2692614083.0845</v>
-      </c>
-      <c r="W5" s="15" t="n">
-        <v>3128570143.1366</v>
-      </c>
-      <c r="X5" s="15" t="n">
-        <v>3199159154.8128</v>
-      </c>
-      <c r="Y5" s="15" t="n">
-        <v>3037857677.0835</v>
-      </c>
-      <c r="Z5" s="15" t="n">
-        <v>3446915761.444</v>
-      </c>
-      <c r="AA5" s="15" t="n">
-        <v>3536696065.3334</v>
-      </c>
-      <c r="AB5" s="15" t="n">
-        <v>3005062231.913</v>
-      </c>
-      <c r="AC5" s="15" t="n">
-        <v>3052114457.93</v>
-      </c>
-      <c r="AD5" s="15" t="n">
-        <v>3359581254.4839</v>
-      </c>
-      <c r="AE5" s="15" t="n">
-        <v>3618751504.3042</v>
-      </c>
-      <c r="AF5" s="15" t="n">
+      <c r="O5" s="18" t="n">
+        <v>5595441997.0237</v>
+      </c>
+      <c r="P5" s="18" t="n">
+        <v>5518184831.8184</v>
+      </c>
+      <c r="Q5" s="18" t="n">
+        <v>5159957917.8546</v>
+      </c>
+      <c r="R5" s="18" t="n">
+        <v>4849080063.0633</v>
+      </c>
+      <c r="S5" s="18" t="n">
+        <v>4158086087.5422</v>
+      </c>
+      <c r="T5" s="18" t="n">
+        <v>3804942400.1719</v>
+      </c>
+      <c r="U5" s="18" t="n">
+        <v>3049336153.0105</v>
+      </c>
+      <c r="V5" s="18" t="n">
+        <v>2556317287.9163</v>
+      </c>
+      <c r="W5" s="18" t="n">
+        <v>3013397844.471</v>
+      </c>
+      <c r="X5" s="18" t="n">
+        <v>3005441246.348</v>
+      </c>
+      <c r="Y5" s="18" t="n">
+        <v>2936729606.1192</v>
+      </c>
+      <c r="Z5" s="18" t="n">
+        <v>3277427006.0098</v>
+      </c>
+      <c r="AA5" s="18" t="n">
+        <v>3233033152.6388</v>
+      </c>
+      <c r="AB5" s="18" t="n">
+        <v>2853860434.8449</v>
+      </c>
+      <c r="AC5" s="18" t="n">
+        <v>2954651964.3766</v>
+      </c>
+      <c r="AD5" s="18" t="n">
+        <v>3186380786.6511</v>
+      </c>
+      <c r="AE5" s="18" t="n">
+        <v>3572419683.0045</v>
+      </c>
+      <c r="AF5" s="18" t="n">
         <v>3446915761.444</v>
       </c>
       <c r="AG5" s="7" t="n">
@@ -2336,58 +2342,58 @@
       <c r="N6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="15" t="n">
-        <v>3741321610.9336</v>
-      </c>
-      <c r="P6" s="15" t="n">
-        <v>3625952821.6054</v>
-      </c>
-      <c r="Q6" s="15" t="n">
-        <v>3149991887.2102</v>
-      </c>
-      <c r="R6" s="15" t="n">
-        <v>2991291521.2622</v>
-      </c>
-      <c r="S6" s="15" t="n">
-        <v>3048040619.9372</v>
-      </c>
-      <c r="T6" s="15" t="n">
-        <v>2474472259.8299</v>
-      </c>
-      <c r="U6" s="15" t="n">
-        <v>1960743379.2061</v>
-      </c>
-      <c r="V6" s="15" t="n">
-        <v>2086527003.9821</v>
-      </c>
-      <c r="W6" s="15" t="n">
-        <v>1929095879.8002</v>
-      </c>
-      <c r="X6" s="15" t="n">
-        <v>1907797922.1413</v>
-      </c>
-      <c r="Y6" s="15" t="n">
-        <v>1867693420.1991</v>
-      </c>
-      <c r="Z6" s="15" t="n">
-        <v>2192470949.6515</v>
-      </c>
-      <c r="AA6" s="15" t="n">
-        <v>2196604584.8566</v>
-      </c>
-      <c r="AB6" s="15" t="n">
-        <v>2410132539.3328</v>
-      </c>
-      <c r="AC6" s="15" t="n">
-        <v>2143906576.2048</v>
-      </c>
-      <c r="AD6" s="15" t="n">
-        <v>2743455584.5329</v>
-      </c>
-      <c r="AE6" s="15" t="n">
-        <v>2637534724.141</v>
-      </c>
-      <c r="AF6" s="15" t="n">
+      <c r="O6" s="18" t="n">
+        <v>3741269922.5523</v>
+      </c>
+      <c r="P6" s="18" t="n">
+        <v>3622128787.5613</v>
+      </c>
+      <c r="Q6" s="18" t="n">
+        <v>3149211141.6402</v>
+      </c>
+      <c r="R6" s="18" t="n">
+        <v>2984843202.6572</v>
+      </c>
+      <c r="S6" s="18" t="n">
+        <v>3031312104.232</v>
+      </c>
+      <c r="T6" s="18" t="n">
+        <v>2470390926.3246</v>
+      </c>
+      <c r="U6" s="18" t="n">
+        <v>1955986275.0361</v>
+      </c>
+      <c r="V6" s="18" t="n">
+        <v>2085455537.1937</v>
+      </c>
+      <c r="W6" s="18" t="n">
+        <v>1923228474.9702</v>
+      </c>
+      <c r="X6" s="18" t="n">
+        <v>1899525257.0915</v>
+      </c>
+      <c r="Y6" s="18" t="n">
+        <v>1866848093.3988</v>
+      </c>
+      <c r="Z6" s="18" t="n">
+        <v>2189000492.7013</v>
+      </c>
+      <c r="AA6" s="18" t="n">
+        <v>2192690450.214</v>
+      </c>
+      <c r="AB6" s="18" t="n">
+        <v>2405039205.3145</v>
+      </c>
+      <c r="AC6" s="18" t="n">
+        <v>2141867112.9322</v>
+      </c>
+      <c r="AD6" s="18" t="n">
+        <v>2734458797.2757</v>
+      </c>
+      <c r="AE6" s="18" t="n">
+        <v>2634220642.9637</v>
+      </c>
+      <c r="AF6" s="18" t="n">
         <v>2192470949.6515</v>
       </c>
       <c r="AG6" s="7" t="n">
@@ -2450,58 +2456,58 @@
       <c r="N7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="15" t="n">
-        <v>3266121388.9118</v>
-      </c>
-      <c r="P7" s="15" t="n">
-        <v>3182798416.4579</v>
-      </c>
-      <c r="Q7" s="15" t="n">
-        <v>3233826970.6075</v>
-      </c>
-      <c r="R7" s="15" t="n">
-        <v>2767730315.3216</v>
-      </c>
-      <c r="S7" s="15" t="n">
-        <v>2660320898.8073</v>
-      </c>
-      <c r="T7" s="15" t="n">
-        <v>2350057703.0912</v>
-      </c>
-      <c r="U7" s="15" t="n">
-        <v>2090466800.5072</v>
-      </c>
-      <c r="V7" s="15" t="n">
-        <v>1852486611.2265</v>
-      </c>
-      <c r="W7" s="15" t="n">
-        <v>2095620001.2314</v>
-      </c>
-      <c r="X7" s="15" t="n">
-        <v>2157406767.1706</v>
-      </c>
-      <c r="Y7" s="15" t="n">
-        <v>2086646758.7863</v>
-      </c>
-      <c r="Z7" s="15" t="n">
-        <v>2954288727.5505</v>
-      </c>
-      <c r="AA7" s="15" t="n">
-        <v>2564514717.4087</v>
-      </c>
-      <c r="AB7" s="15" t="n">
-        <v>1728682770.7371</v>
-      </c>
-      <c r="AC7" s="15" t="n">
-        <v>1730445562.261</v>
-      </c>
-      <c r="AD7" s="15" t="n">
-        <v>2301474992.4097</v>
-      </c>
-      <c r="AE7" s="15" t="n">
-        <v>2008363234.2734</v>
-      </c>
-      <c r="AF7" s="15" t="n">
+      <c r="O7" s="18" t="n">
+        <v>3249380740.783</v>
+      </c>
+      <c r="P7" s="18" t="n">
+        <v>3084981384.3341</v>
+      </c>
+      <c r="Q7" s="18" t="n">
+        <v>3190261160.6787</v>
+      </c>
+      <c r="R7" s="18" t="n">
+        <v>2690328606.9026</v>
+      </c>
+      <c r="S7" s="18" t="n">
+        <v>2508857713.3762</v>
+      </c>
+      <c r="T7" s="18" t="n">
+        <v>2270361764.2159</v>
+      </c>
+      <c r="U7" s="18" t="n">
+        <v>2021688585.0463</v>
+      </c>
+      <c r="V7" s="18" t="n">
+        <v>1789436075.7185</v>
+      </c>
+      <c r="W7" s="18" t="n">
+        <v>2011031787.7327</v>
+      </c>
+      <c r="X7" s="18" t="n">
+        <v>2072289588.9674</v>
+      </c>
+      <c r="Y7" s="18" t="n">
+        <v>1967740104.8238</v>
+      </c>
+      <c r="Z7" s="18" t="n">
+        <v>2817798585.5702</v>
+      </c>
+      <c r="AA7" s="18" t="n">
+        <v>2439154123.3418</v>
+      </c>
+      <c r="AB7" s="18" t="n">
+        <v>1703457370.3381</v>
+      </c>
+      <c r="AC7" s="18" t="n">
+        <v>1664387612.4869</v>
+      </c>
+      <c r="AD7" s="18" t="n">
+        <v>2176682401.2673</v>
+      </c>
+      <c r="AE7" s="18" t="n">
+        <v>2034572957.7023</v>
+      </c>
+      <c r="AF7" s="18" t="n">
         <v>2954288727.5505</v>
       </c>
       <c r="AG7" s="7" t="n">
@@ -2564,58 +2570,58 @@
       <c r="N8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="15" t="n">
-        <v>16269882471.9794</v>
-      </c>
-      <c r="P8" s="15" t="n">
-        <v>17994021717.0678</v>
-      </c>
-      <c r="Q8" s="15" t="n">
-        <v>21387199545.8055</v>
-      </c>
-      <c r="R8" s="15" t="n">
-        <v>22576338913.7346</v>
-      </c>
-      <c r="S8" s="15" t="n">
-        <v>22032636135.821</v>
-      </c>
-      <c r="T8" s="15" t="n">
-        <v>24242893687.3319</v>
-      </c>
-      <c r="U8" s="15" t="n">
-        <v>20838549418.202</v>
-      </c>
-      <c r="V8" s="15" t="n">
-        <v>24912992627.0785</v>
-      </c>
-      <c r="W8" s="15" t="n">
-        <v>22851084792.0819</v>
-      </c>
-      <c r="X8" s="15" t="n">
-        <v>24462657675.0215</v>
-      </c>
-      <c r="Y8" s="15" t="n">
-        <v>24530048151.9762</v>
-      </c>
-      <c r="Z8" s="15" t="n">
-        <v>30621886485.4193</v>
-      </c>
-      <c r="AA8" s="15" t="n">
-        <v>30157803730.9944</v>
-      </c>
-      <c r="AB8" s="15" t="n">
-        <v>34096578496.9379</v>
-      </c>
-      <c r="AC8" s="15" t="n">
-        <v>40235083984.2429</v>
-      </c>
-      <c r="AD8" s="15" t="n">
-        <v>37898761518.9342</v>
-      </c>
-      <c r="AE8" s="15" t="n">
-        <v>41482341205.8373</v>
-      </c>
-      <c r="AF8" s="15" t="n">
+      <c r="O8" s="18" t="n">
+        <v>16159661649.8167</v>
+      </c>
+      <c r="P8" s="18" t="n">
+        <v>17979199742.6965</v>
+      </c>
+      <c r="Q8" s="18" t="n">
+        <v>21331751662.4911</v>
+      </c>
+      <c r="R8" s="18" t="n">
+        <v>22477802418.1141</v>
+      </c>
+      <c r="S8" s="18" t="n">
+        <v>21549064390.6851</v>
+      </c>
+      <c r="T8" s="18" t="n">
+        <v>24194367047.0875</v>
+      </c>
+      <c r="U8" s="18" t="n">
+        <v>20708999747.7082</v>
+      </c>
+      <c r="V8" s="18" t="n">
+        <v>24871816515.7085</v>
+      </c>
+      <c r="W8" s="18" t="n">
+        <v>22632994047.0494</v>
+      </c>
+      <c r="X8" s="18" t="n">
+        <v>24151966974.125</v>
+      </c>
+      <c r="Y8" s="18" t="n">
+        <v>24436734929.7391</v>
+      </c>
+      <c r="Z8" s="18" t="n">
+        <v>30351232461.5596</v>
+      </c>
+      <c r="AA8" s="18" t="n">
+        <v>29846329468.9436</v>
+      </c>
+      <c r="AB8" s="18" t="n">
+        <v>33862196323.9016</v>
+      </c>
+      <c r="AC8" s="18" t="n">
+        <v>39677992119.0782</v>
+      </c>
+      <c r="AD8" s="18" t="n">
+        <v>37414227367.7028</v>
+      </c>
+      <c r="AE8" s="18" t="n">
+        <v>41147938991.3702</v>
+      </c>
+      <c r="AF8" s="18" t="n">
         <v>30621886485.4193</v>
       </c>
       <c r="AG8" s="7" t="n">
@@ -2678,58 +2684,58 @@
       <c r="N9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O9" s="15" t="n">
-        <v>295814228873.005</v>
-      </c>
-      <c r="P9" s="15" t="n">
-        <v>344228460150.258</v>
-      </c>
-      <c r="Q9" s="15" t="n">
-        <v>331006115932.454</v>
-      </c>
-      <c r="R9" s="15" t="n">
-        <v>325466947956.52</v>
-      </c>
-      <c r="S9" s="15" t="n">
-        <v>333370444572.19</v>
-      </c>
-      <c r="T9" s="15" t="n">
-        <v>323169035400.023</v>
-      </c>
-      <c r="U9" s="15" t="n">
-        <v>275707824862.844</v>
-      </c>
-      <c r="V9" s="15" t="n">
-        <v>246953219804.49</v>
-      </c>
-      <c r="W9" s="15" t="n">
-        <v>238730914399.601</v>
-      </c>
-      <c r="X9" s="15" t="n">
-        <v>261373439540.335</v>
-      </c>
-      <c r="Y9" s="15" t="n">
-        <v>284878416992.171</v>
-      </c>
-      <c r="Z9" s="15" t="n">
-        <v>313701272526.863</v>
-      </c>
-      <c r="AA9" s="15" t="n">
-        <v>339456686334.059</v>
-      </c>
-      <c r="AB9" s="15" t="n">
-        <v>375919182099.509</v>
-      </c>
-      <c r="AC9" s="15" t="n">
-        <v>335466315747.992</v>
-      </c>
-      <c r="AD9" s="15" t="n">
-        <v>362818335135.692</v>
-      </c>
-      <c r="AE9" s="15" t="n">
-        <v>400986561637.651</v>
-      </c>
-      <c r="AF9" s="15" t="n">
+      <c r="O9" s="18" t="n">
+        <v>296038131510.98</v>
+      </c>
+      <c r="P9" s="18" t="n">
+        <v>344491104060.101</v>
+      </c>
+      <c r="Q9" s="18" t="n">
+        <v>331169572366.182</v>
+      </c>
+      <c r="R9" s="18" t="n">
+        <v>327094365533.991</v>
+      </c>
+      <c r="S9" s="18" t="n">
+        <v>335559047341.415</v>
+      </c>
+      <c r="T9" s="18" t="n">
+        <v>323458021200.643</v>
+      </c>
+      <c r="U9" s="18" t="n">
+        <v>276052625028.75</v>
+      </c>
+      <c r="V9" s="18" t="n">
+        <v>247225514886.716</v>
+      </c>
+      <c r="W9" s="18" t="n">
+        <v>239189394528.319</v>
+      </c>
+      <c r="X9" s="18" t="n">
+        <v>262007767146.56</v>
+      </c>
+      <c r="Y9" s="18" t="n">
+        <v>285221378606.772</v>
+      </c>
+      <c r="Z9" s="18" t="n">
+        <v>314311328838.948</v>
+      </c>
+      <c r="AA9" s="18" t="n">
+        <v>340236626450.119</v>
+      </c>
+      <c r="AB9" s="18" t="n">
+        <v>376361648182.621</v>
+      </c>
+      <c r="AC9" s="18" t="n">
+        <v>336217401813.088</v>
+      </c>
+      <c r="AD9" s="18" t="n">
+        <v>363680327268.169</v>
+      </c>
+      <c r="AE9" s="18" t="n">
+        <v>401411877551.436</v>
+      </c>
+      <c r="AF9" s="18" t="n">
         <v>313701272526.863</v>
       </c>
       <c r="AG9" s="7" t="n">
@@ -2792,58 +2798,58 @@
       <c r="N10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="15" t="str">
+      <c r="O10" s="18" t="str">
         <f>Sum(O2:O9)</f>
       </c>
-      <c r="P10" s="15" t="str">
+      <c r="P10" s="18" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="15" t="str">
+      <c r="Q10" s="18" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="15" t="str">
+      <c r="R10" s="18" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="15" t="str">
+      <c r="S10" s="18" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="15" t="str">
+      <c r="T10" s="18" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="15" t="str">
+      <c r="U10" s="18" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="15" t="str">
+      <c r="V10" s="18" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="15" t="str">
+      <c r="W10" s="18" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="15" t="str">
+      <c r="X10" s="18" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="15" t="str">
+      <c r="Y10" s="18" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="15" t="str">
+      <c r="Z10" s="18" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="15" t="str">
+      <c r="AA10" s="18" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="15" t="str">
+      <c r="AB10" s="18" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="15" t="str">
+      <c r="AC10" s="18" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="15" t="str">
+      <c r="AD10" s="18" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="15" t="str">
+      <c r="AE10" s="18" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="15" t="str">
+      <c r="AF10" s="18" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
       <c r="AG10" s="7" t="str">
@@ -3301,10 +3307,10 @@
         <v>46</v>
       </c>
       <c r="M1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O1" t="s">
         <v>31</v>
@@ -3368,64 +3374,64 @@
       <c r="L2" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="10" t="s">
+      <c r="M2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="9" t="n">
-        <v>25125249218.822</v>
-      </c>
-      <c r="P2" s="9" t="n">
-        <v>32432154150.1501</v>
-      </c>
-      <c r="Q2" s="9" t="n">
-        <v>35101354776.0543</v>
-      </c>
-      <c r="R2" s="9" t="n">
-        <v>30976397289.3347</v>
-      </c>
-      <c r="S2" s="9" t="n">
-        <v>31255230749.4631</v>
-      </c>
-      <c r="T2" s="9" t="n">
-        <v>37102041368.9613</v>
-      </c>
-      <c r="U2" s="9" t="n">
-        <v>24098497564.8245</v>
-      </c>
-      <c r="V2" s="9" t="n">
-        <v>19955253890.9386</v>
-      </c>
-      <c r="W2" s="9" t="n">
-        <v>17685561455.4229</v>
-      </c>
-      <c r="X2" s="9" t="n">
-        <v>16953492843.1271</v>
-      </c>
-      <c r="Y2" s="9" t="n">
-        <v>19618603081.6569</v>
-      </c>
-      <c r="Z2" s="9" t="n">
-        <v>27902395775.5896</v>
-      </c>
-      <c r="AA2" s="9" t="n">
-        <v>27937731136.7199</v>
-      </c>
-      <c r="AB2" s="9" t="n">
-        <v>30079444637.0538</v>
-      </c>
-      <c r="AC2" s="9" t="n">
-        <v>48180087109.2192</v>
-      </c>
-      <c r="AD2" s="9" t="n">
-        <v>45664353375.3831</v>
-      </c>
-      <c r="AE2" s="9" t="n">
-        <v>35047872671.8265</v>
-      </c>
-      <c r="AF2" s="9"/>
+      <c r="N2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="10" t="n">
+        <v>32062481478.7404</v>
+      </c>
+      <c r="P2" s="10" t="n">
+        <v>33502648539.9927</v>
+      </c>
+      <c r="Q2" s="10" t="n">
+        <v>34512520349.3714</v>
+      </c>
+      <c r="R2" s="10" t="n">
+        <v>32022857314.7994</v>
+      </c>
+      <c r="S2" s="10" t="n">
+        <v>30300787160.0451</v>
+      </c>
+      <c r="T2" s="10" t="n">
+        <v>29428722759.8101</v>
+      </c>
+      <c r="U2" s="10" t="n">
+        <v>23567998960.1735</v>
+      </c>
+      <c r="V2" s="10" t="n">
+        <v>25665670386.3993</v>
+      </c>
+      <c r="W2" s="10" t="n">
+        <v>23532569650.9686</v>
+      </c>
+      <c r="X2" s="10" t="n">
+        <v>25303450099.2467</v>
+      </c>
+      <c r="Y2" s="10" t="n">
+        <v>26328462830.1631</v>
+      </c>
+      <c r="Z2" s="10" t="n">
+        <v>31111718317.1093</v>
+      </c>
+      <c r="AA2" s="10" t="n">
+        <v>31301311116.0465</v>
+      </c>
+      <c r="AB2" s="10" t="n">
+        <v>32049209483.981</v>
+      </c>
+      <c r="AC2" s="10" t="n">
+        <v>32709739587.2145</v>
+      </c>
+      <c r="AD2" s="10" t="n">
+        <v>37104641630.7511</v>
+      </c>
+      <c r="AE2" s="10" t="n">
+        <v>40964495755.7069</v>
+      </c>
+      <c r="AF2" s="10"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3437,64 +3443,64 @@
       <c r="L3" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="9" t="n">
-        <v>21764778991.8306</v>
-      </c>
-      <c r="P3" s="9" t="n">
-        <v>25397309265.3422</v>
-      </c>
-      <c r="Q3" s="9" t="n">
-        <v>21427494919.4928</v>
-      </c>
-      <c r="R3" s="9" t="n">
-        <v>18453893838.1832</v>
-      </c>
-      <c r="S3" s="9" t="n">
-        <v>17986659166.4393</v>
-      </c>
-      <c r="T3" s="9" t="n">
-        <v>16348272545.4679</v>
-      </c>
-      <c r="U3" s="9" t="n">
-        <v>13779748256.7072</v>
-      </c>
-      <c r="V3" s="9" t="n">
-        <v>11779135889.3652</v>
-      </c>
-      <c r="W3" s="9" t="n">
-        <v>12135186874.4357</v>
-      </c>
-      <c r="X3" s="9" t="n">
-        <v>12399920173.1958</v>
-      </c>
-      <c r="Y3" s="9" t="n">
-        <v>14152861790.103</v>
-      </c>
-      <c r="Z3" s="9" t="n">
-        <v>22806770846.0249</v>
-      </c>
-      <c r="AA3" s="9" t="n">
-        <v>25680118499.9135</v>
-      </c>
-      <c r="AB3" s="9" t="n">
-        <v>29875164701.4216</v>
-      </c>
-      <c r="AC3" s="9" t="n">
-        <v>37403494926.075</v>
-      </c>
-      <c r="AD3" s="9" t="n">
-        <v>29140563384.389</v>
-      </c>
-      <c r="AE3" s="9" t="n">
-        <v>29077141051.9964</v>
-      </c>
-      <c r="AF3" s="9"/>
+      <c r="M3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="10" t="n">
+        <v>64276778789.785</v>
+      </c>
+      <c r="P3" s="10" t="n">
+        <v>72755575500.1827</v>
+      </c>
+      <c r="Q3" s="10" t="n">
+        <v>64677034371.2067</v>
+      </c>
+      <c r="R3" s="10" t="n">
+        <v>53879307908.9168</v>
+      </c>
+      <c r="S3" s="10" t="n">
+        <v>48096817335.8693</v>
+      </c>
+      <c r="T3" s="10" t="n">
+        <v>54303150309.7976</v>
+      </c>
+      <c r="U3" s="10" t="n">
+        <v>39063293717.5311</v>
+      </c>
+      <c r="V3" s="10" t="n">
+        <v>38119164769.1497</v>
+      </c>
+      <c r="W3" s="10" t="n">
+        <v>33991695353.2542</v>
+      </c>
+      <c r="X3" s="10" t="n">
+        <v>32084583927.436</v>
+      </c>
+      <c r="Y3" s="10" t="n">
+        <v>35694396958.7202</v>
+      </c>
+      <c r="Z3" s="10" t="n">
+        <v>37743226432.3817</v>
+      </c>
+      <c r="AA3" s="10" t="n">
+        <v>42449471496.6964</v>
+      </c>
+      <c r="AB3" s="10" t="n">
+        <v>42839349110.909</v>
+      </c>
+      <c r="AC3" s="10" t="n">
+        <v>59882546801.0766</v>
+      </c>
+      <c r="AD3" s="10" t="n">
+        <v>75235439279.4155</v>
+      </c>
+      <c r="AE3" s="10" t="n">
+        <v>56016118359.9772</v>
+      </c>
+      <c r="AF3" s="10"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3506,64 +3512,64 @@
       <c r="L4" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="9" t="n">
-        <v>30133800884.701</v>
-      </c>
-      <c r="P4" s="9" t="n">
-        <v>33783198213.0075</v>
-      </c>
-      <c r="Q4" s="9" t="n">
-        <v>29711948309.4815</v>
-      </c>
-      <c r="R4" s="9" t="n">
-        <v>30392248649.1018</v>
-      </c>
-      <c r="S4" s="9" t="n">
-        <v>29898796158.4983</v>
-      </c>
-      <c r="T4" s="9" t="n">
-        <v>28986353557.0245</v>
-      </c>
-      <c r="U4" s="9" t="n">
-        <v>24976096489.8093</v>
-      </c>
-      <c r="V4" s="9" t="n">
-        <v>28501413952.5891</v>
-      </c>
-      <c r="W4" s="9" t="n">
-        <v>25447190127.4247</v>
-      </c>
-      <c r="X4" s="9" t="n">
-        <v>25671472541.9195</v>
-      </c>
-      <c r="Y4" s="9" t="n">
-        <v>27983478293.0834</v>
-      </c>
-      <c r="Z4" s="9" t="n">
-        <v>20045971011.5824</v>
-      </c>
-      <c r="AA4" s="9" t="n">
-        <v>23936231639.1294</v>
-      </c>
-      <c r="AB4" s="9" t="n">
-        <v>25650928177.9626</v>
-      </c>
-      <c r="AC4" s="9" t="n">
-        <v>24016153025.3683</v>
-      </c>
-      <c r="AD4" s="9" t="n">
-        <v>40078319954.0187</v>
-      </c>
-      <c r="AE4" s="9" t="n">
-        <v>27163604882.0461</v>
-      </c>
-      <c r="AF4" s="9"/>
+      <c r="M4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="10" t="n">
+        <v>5823883910.4641</v>
+      </c>
+      <c r="P4" s="10" t="n">
+        <v>6062527172.7157</v>
+      </c>
+      <c r="Q4" s="10" t="n">
+        <v>7958542406.8054</v>
+      </c>
+      <c r="R4" s="10" t="n">
+        <v>11173540317.9748</v>
+      </c>
+      <c r="S4" s="10" t="n">
+        <v>10709272137.3971</v>
+      </c>
+      <c r="T4" s="10" t="n">
+        <v>10913255211.2322</v>
+      </c>
+      <c r="U4" s="10" t="n">
+        <v>10012514970.4474</v>
+      </c>
+      <c r="V4" s="10" t="n">
+        <v>11885624399.7085</v>
+      </c>
+      <c r="W4" s="10" t="n">
+        <v>11954899827.2819</v>
+      </c>
+      <c r="X4" s="10" t="n">
+        <v>11905991840.9567</v>
+      </c>
+      <c r="Y4" s="10" t="n">
+        <v>10744235953.1555</v>
+      </c>
+      <c r="Z4" s="10" t="n">
+        <v>13964474476.428</v>
+      </c>
+      <c r="AA4" s="10" t="n">
+        <v>12887221540.14</v>
+      </c>
+      <c r="AB4" s="10" t="n">
+        <v>14696802949.5136</v>
+      </c>
+      <c r="AC4" s="10" t="n">
+        <v>19547069897.6294</v>
+      </c>
+      <c r="AD4" s="10" t="n">
+        <v>14680201640.9544</v>
+      </c>
+      <c r="AE4" s="10" t="n">
+        <v>14367712887.112</v>
+      </c>
+      <c r="AF4" s="10"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3575,64 +3581,64 @@
       <c r="L5" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="10" t="s">
+      <c r="M5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="9" t="n">
-        <v>20416382855.5625</v>
-      </c>
-      <c r="P5" s="9" t="n">
-        <v>25609454024.9063</v>
-      </c>
-      <c r="Q5" s="9" t="n">
-        <v>12593611119.7175</v>
-      </c>
-      <c r="R5" s="9" t="n">
-        <v>29718480733.7495</v>
-      </c>
-      <c r="S5" s="9" t="n">
-        <v>36097737150.8889</v>
-      </c>
-      <c r="T5" s="9" t="n">
-        <v>34730237706.1415</v>
-      </c>
-      <c r="U5" s="9" t="n">
-        <v>29169239953.7346</v>
-      </c>
-      <c r="V5" s="9" t="n">
-        <v>29833721322.4015</v>
-      </c>
-      <c r="W5" s="9" t="n">
-        <v>27324207449.885</v>
-      </c>
-      <c r="X5" s="9" t="n">
-        <v>27843792311.2441</v>
-      </c>
-      <c r="Y5" s="9" t="n">
-        <v>27441082756.5163</v>
-      </c>
-      <c r="Z5" s="9" t="n">
-        <v>23791495332.7767</v>
-      </c>
-      <c r="AA5" s="9" t="n">
-        <v>25021165431.6188</v>
-      </c>
-      <c r="AB5" s="9" t="n">
-        <v>27652465150.9804</v>
-      </c>
-      <c r="AC5" s="9" t="n">
-        <v>24861742523.0282</v>
-      </c>
-      <c r="AD5" s="9" t="n">
-        <v>29689860380.1717</v>
-      </c>
-      <c r="AE5" s="9" t="n">
-        <v>33301971196.0154</v>
-      </c>
-      <c r="AF5" s="9"/>
+      <c r="N5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="10" t="n">
+        <v>231537450083.22</v>
+      </c>
+      <c r="P5" s="10" t="n">
+        <v>271472884650.076</v>
+      </c>
+      <c r="Q5" s="10" t="n">
+        <v>266329081561.247</v>
+      </c>
+      <c r="R5" s="10" t="n">
+        <v>271587640047.603</v>
+      </c>
+      <c r="S5" s="10" t="n">
+        <v>285273627236.321</v>
+      </c>
+      <c r="T5" s="10" t="n">
+        <v>268865885090.226</v>
+      </c>
+      <c r="U5" s="10" t="n">
+        <v>236644531145.313</v>
+      </c>
+      <c r="V5" s="10" t="n">
+        <v>208834055035.34</v>
+      </c>
+      <c r="W5" s="10" t="n">
+        <v>204739219046.347</v>
+      </c>
+      <c r="X5" s="10" t="n">
+        <v>229288855612.899</v>
+      </c>
+      <c r="Y5" s="10" t="n">
+        <v>249184020033.45</v>
+      </c>
+      <c r="Z5" s="10" t="n">
+        <v>275958046094.482</v>
+      </c>
+      <c r="AA5" s="10" t="n">
+        <v>297007214837.362</v>
+      </c>
+      <c r="AB5" s="10" t="n">
+        <v>333079832988.6</v>
+      </c>
+      <c r="AC5" s="10" t="n">
+        <v>275583768946.915</v>
+      </c>
+      <c r="AD5" s="10" t="n">
+        <v>287582895856.276</v>
+      </c>
+      <c r="AE5" s="10" t="n">
+        <v>344970443277.674</v>
+      </c>
+      <c r="AF5" s="10"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3644,64 +3650,64 @@
       <c r="L6" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="9" t="n">
-        <v>10096271672.9484</v>
-      </c>
-      <c r="P6" s="9" t="n">
-        <v>10776155276.9025</v>
-      </c>
-      <c r="Q6" s="9" t="n">
-        <v>9150118544.2025</v>
-      </c>
-      <c r="R6" s="9" t="n">
-        <v>7690106134.7461</v>
-      </c>
-      <c r="S6" s="9" t="n">
-        <v>6683672074.0927</v>
-      </c>
-      <c r="T6" s="9" t="n">
-        <v>6610387564.2734</v>
-      </c>
-      <c r="U6" s="9" t="n">
-        <v>5668554306.1156</v>
-      </c>
-      <c r="V6" s="9" t="n">
-        <v>7257445382.0936</v>
-      </c>
-      <c r="W6" s="9" t="n">
-        <v>7750481635.5216</v>
-      </c>
-      <c r="X6" s="9" t="n">
-        <v>7733252678.4108</v>
-      </c>
-      <c r="Y6" s="9" t="n">
-        <v>7150281486.2274</v>
-      </c>
-      <c r="Z6" s="9" t="n">
-        <v>13058816162.6805</v>
-      </c>
-      <c r="AA6" s="9" t="n">
-        <v>13269959464.3028</v>
-      </c>
-      <c r="AB6" s="9" t="n">
-        <v>12533350568.3599</v>
-      </c>
-      <c r="AC6" s="9" t="n">
-        <v>11545432225.8644</v>
-      </c>
-      <c r="AD6" s="9" t="n">
-        <v>11640593258.8436</v>
-      </c>
-      <c r="AE6" s="9" t="n">
-        <v>12484524362.2018</v>
-      </c>
-      <c r="AF6" s="9"/>
+      <c r="M6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="10" t="str">
+        <f>Sum(O2:O5)</f>
+      </c>
+      <c r="P6" s="10" t="str">
+        <f>Sum(P2:P5)</f>
+      </c>
+      <c r="Q6" s="10" t="str">
+        <f>Sum(Q2:Q5)</f>
+      </c>
+      <c r="R6" s="10" t="str">
+        <f>Sum(R2:R5)</f>
+      </c>
+      <c r="S6" s="10" t="str">
+        <f>Sum(S2:S5)</f>
+      </c>
+      <c r="T6" s="10" t="str">
+        <f>Sum(T2:T5)</f>
+      </c>
+      <c r="U6" s="10" t="str">
+        <f>Sum(U2:U5)</f>
+      </c>
+      <c r="V6" s="10" t="str">
+        <f>Sum(V2:V5)</f>
+      </c>
+      <c r="W6" s="10" t="str">
+        <f>Sum(W2:W5)</f>
+      </c>
+      <c r="X6" s="10" t="str">
+        <f>Sum(X2:X5)</f>
+      </c>
+      <c r="Y6" s="10" t="str">
+        <f>Sum(Y2:Y5)</f>
+      </c>
+      <c r="Z6" s="10" t="str">
+        <f>Sum(Z2:Z5)</f>
+      </c>
+      <c r="AA6" s="10" t="str">
+        <f>Sum(AA2:AA5)</f>
+      </c>
+      <c r="AB6" s="10" t="str">
+        <f>Sum(AB2:AB5)</f>
+      </c>
+      <c r="AC6" s="10" t="str">
+        <f>Sum(AC2:AC5)</f>
+      </c>
+      <c r="AD6" s="10" t="str">
+        <f>Sum(AD2:AD5)</f>
+      </c>
+      <c r="AE6" s="10" t="str">
+        <f>Sum(AE2:AE5)</f>
+      </c>
+      <c r="AF6" s="10"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -3713,64 +3719,64 @@
       <c r="L7" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="9" t="n">
-        <v>10791385424.558</v>
-      </c>
-      <c r="P7" s="9" t="n">
-        <v>9992326943.864</v>
-      </c>
-      <c r="Q7" s="9" t="n">
-        <v>10704831009.3607</v>
-      </c>
-      <c r="R7" s="9" t="n">
-        <v>10353345215.9397</v>
-      </c>
-      <c r="S7" s="9" t="n">
-        <v>14043087841.8619</v>
-      </c>
-      <c r="T7" s="9" t="n">
-        <v>12705160227.6934</v>
-      </c>
-      <c r="U7" s="9" t="n">
-        <v>10588302252.8571</v>
-      </c>
-      <c r="V7" s="9" t="n">
-        <v>10767875507.0851</v>
-      </c>
-      <c r="W7" s="9" t="n">
-        <v>10581178707.2994</v>
-      </c>
-      <c r="X7" s="9" t="n">
-        <v>9892515561.5923</v>
-      </c>
-      <c r="Y7" s="9" t="n">
-        <v>10875001083.978</v>
-      </c>
-      <c r="Z7" s="9" t="n">
-        <v>13483951403.3545</v>
-      </c>
-      <c r="AA7" s="9" t="n">
-        <v>13505530020.2325</v>
-      </c>
-      <c r="AB7" s="9" t="n">
-        <v>12588239758.5437</v>
-      </c>
-      <c r="AC7" s="9" t="n">
-        <v>10920527227.2435</v>
-      </c>
-      <c r="AD7" s="9" t="n">
-        <v>12179870156.4561</v>
-      </c>
-      <c r="AE7" s="9" t="n">
-        <v>8757199136.17</v>
-      </c>
-      <c r="AF7" s="9"/>
+      <c r="O7" s="13" t="n">
+        <v>11739616747.5457</v>
+      </c>
+      <c r="P7" s="13" t="n">
+        <v>11254176927.7347</v>
+      </c>
+      <c r="Q7" s="13" t="n">
+        <v>11538670944.4646</v>
+      </c>
+      <c r="R7" s="13" t="n">
+        <v>10859267828.0744</v>
+      </c>
+      <c r="S7" s="13" t="n">
+        <v>14373844897.8047</v>
+      </c>
+      <c r="T7" s="13" t="n">
+        <v>13206561065.8076</v>
+      </c>
+      <c r="U7" s="13" t="n">
+        <v>10802080997.6787</v>
+      </c>
+      <c r="V7" s="13" t="n">
+        <v>11076872960.9722</v>
+      </c>
+      <c r="W7" s="13" t="n">
+        <v>10900773054.4309</v>
+      </c>
+      <c r="X7" s="13" t="n">
+        <v>10123617101.8184</v>
+      </c>
+      <c r="Y7" s="13" t="n">
+        <v>11241962025.9267</v>
+      </c>
+      <c r="Z7" s="13" t="n">
+        <v>13823686787.1314</v>
+      </c>
+      <c r="AA7" s="13" t="n">
+        <v>13826616163.1342</v>
+      </c>
+      <c r="AB7" s="13" t="n">
+        <v>13209947102.2783</v>
+      </c>
+      <c r="AC7" s="13" t="n">
+        <v>11141661764.5212</v>
+      </c>
+      <c r="AD7" s="13" t="n">
+        <v>11793409233.3338</v>
+      </c>
+      <c r="AE7" s="13" t="n">
+        <v>8499159403.4485</v>
+      </c>
+      <c r="AF7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -3782,64 +3788,64 @@
       <c r="L8" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="9" t="n">
-        <v>4872106.125</v>
-      </c>
-      <c r="P8" s="9" t="n">
+      <c r="O8" s="13" t="n">
+        <v>374232.125</v>
+      </c>
+      <c r="P8" s="13" t="n">
         <v>10010929.3706</v>
       </c>
-      <c r="Q8" s="9" t="n">
-        <v>16826903.2031</v>
-      </c>
-      <c r="R8" s="9" t="n">
-        <v>377038220.8154</v>
-      </c>
-      <c r="S8" s="9" t="n">
-        <v>1216030256.841</v>
-      </c>
-      <c r="T8" s="9" t="n">
-        <v>1895556032.0051</v>
-      </c>
-      <c r="U8" s="9" t="n">
-        <v>952609585.9737</v>
-      </c>
-      <c r="V8" s="9" t="n">
-        <v>1088936204.6172</v>
-      </c>
-      <c r="W8" s="9" t="n">
-        <v>1088807391.037</v>
-      </c>
-      <c r="X8" s="9" t="n">
-        <v>1805760317.0083</v>
-      </c>
-      <c r="Y8" s="9" t="n">
-        <v>3746475883.7796</v>
-      </c>
-      <c r="Z8" s="9" t="n">
-        <v>3074792651.2968</v>
-      </c>
-      <c r="AA8" s="9" t="n">
-        <v>3514832423.2951</v>
-      </c>
-      <c r="AB8" s="9" t="n">
-        <v>3566340166.6762</v>
-      </c>
-      <c r="AC8" s="9" t="n">
-        <v>2458364985.2205</v>
-      </c>
-      <c r="AD8" s="9" t="n">
-        <v>4576147114.9178</v>
-      </c>
-      <c r="AE8" s="9" t="n">
-        <v>2076520940.4654</v>
-      </c>
-      <c r="AF8" s="9"/>
+      <c r="Q8" s="13" t="n">
+        <v>16756903.2031</v>
+      </c>
+      <c r="R8" s="13" t="n">
+        <v>347910181.3778</v>
+      </c>
+      <c r="S8" s="13" t="n">
+        <v>631989460.7783</v>
+      </c>
+      <c r="T8" s="13" t="n">
+        <v>730784460.4217</v>
+      </c>
+      <c r="U8" s="13" t="n">
+        <v>583582108.4095</v>
+      </c>
+      <c r="V8" s="13" t="n">
+        <v>431813065.252</v>
+      </c>
+      <c r="W8" s="13" t="n">
+        <v>479057229.6744</v>
+      </c>
+      <c r="X8" s="13" t="n">
+        <v>754133470.2281</v>
+      </c>
+      <c r="Y8" s="13" t="n">
+        <v>1212870362.8558</v>
+      </c>
+      <c r="Z8" s="13" t="n">
+        <v>2174381343.2315</v>
+      </c>
+      <c r="AA8" s="13" t="n">
+        <v>1789233579.0072</v>
+      </c>
+      <c r="AB8" s="13" t="n">
+        <v>1655131561.9466</v>
+      </c>
+      <c r="AC8" s="13" t="n">
+        <v>1788618124.0356</v>
+      </c>
+      <c r="AD8" s="13" t="n">
+        <v>3460701067.8914</v>
+      </c>
+      <c r="AE8" s="13" t="n">
+        <v>1942123630.1997</v>
+      </c>
+      <c r="AF8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -3851,64 +3857,64 @@
       <c r="L9" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="9" t="n">
-        <v>122676909.5722</v>
-      </c>
-      <c r="P9" s="9" t="n">
+      <c r="O9" s="13" t="n">
+        <v>127174783.5722</v>
+      </c>
+      <c r="P9" s="13" t="n">
         <v>54479568.8939</v>
       </c>
-      <c r="Q9" s="9" t="n">
-        <v>391296344.5801</v>
-      </c>
-      <c r="R9" s="9" t="n">
-        <v>10450086106.923</v>
-      </c>
-      <c r="S9" s="9" t="n">
-        <v>42256131517.5522</v>
-      </c>
-      <c r="T9" s="9" t="n">
-        <v>54758606786.2011</v>
-      </c>
-      <c r="U9" s="9" t="n">
-        <v>46972259182.0756</v>
-      </c>
-      <c r="V9" s="9" t="n">
-        <v>43922166334.1481</v>
-      </c>
-      <c r="W9" s="9" t="n">
-        <v>44054842375.5884</v>
-      </c>
-      <c r="X9" s="9" t="n">
-        <v>50628266020.741</v>
-      </c>
-      <c r="Y9" s="9" t="n">
-        <v>56597028392.347</v>
-      </c>
-      <c r="Z9" s="9" t="n">
-        <v>76051318984.9463</v>
-      </c>
-      <c r="AA9" s="9" t="n">
-        <v>80155056064.1126</v>
-      </c>
-      <c r="AB9" s="9" t="n">
-        <v>86732963948.1466</v>
-      </c>
-      <c r="AC9" s="9" t="n">
-        <v>85236793261.6524</v>
-      </c>
-      <c r="AD9" s="9" t="n">
-        <v>86480545057.8842</v>
-      </c>
-      <c r="AE9" s="9" t="n">
-        <v>59404120556.1747</v>
-      </c>
-      <c r="AF9" s="9"/>
+      <c r="Q9" s="13" t="n">
+        <v>391366344.5801</v>
+      </c>
+      <c r="R9" s="13" t="n">
+        <v>10479214146.3606</v>
+      </c>
+      <c r="S9" s="13" t="n">
+        <v>42891078006.4274</v>
+      </c>
+      <c r="T9" s="13" t="n">
+        <v>55916245614.7845</v>
+      </c>
+      <c r="U9" s="13" t="n">
+        <v>47353316662.8298</v>
+      </c>
+      <c r="V9" s="13" t="n">
+        <v>44606935375.0183</v>
+      </c>
+      <c r="W9" s="13" t="n">
+        <v>44673219755.351</v>
+      </c>
+      <c r="X9" s="13" t="n">
+        <v>51673073465.2889</v>
+      </c>
+      <c r="Y9" s="13" t="n">
+        <v>59166462252.3838</v>
+      </c>
+      <c r="Z9" s="13" t="n">
+        <v>77026872601.0672</v>
+      </c>
+      <c r="AA9" s="13" t="n">
+        <v>81941621433.2727</v>
+      </c>
+      <c r="AB9" s="13" t="n">
+        <v>88618976870.7865</v>
+      </c>
+      <c r="AC9" s="13" t="n">
+        <v>85796546316.5326</v>
+      </c>
+      <c r="AD9" s="13" t="n">
+        <v>87347814520.8399</v>
+      </c>
+      <c r="AE9" s="13" t="n">
+        <v>59389185605.2414</v>
+      </c>
+      <c r="AF9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -3920,64 +3926,64 @@
       <c r="L10" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="O10" s="9" t="n">
-        <v>7826918502.6366</v>
-      </c>
-      <c r="P10" s="9" t="n">
-        <v>8253616344.955</v>
-      </c>
-      <c r="Q10" s="9" t="n">
-        <v>7779611725.3281</v>
-      </c>
-      <c r="R10" s="9" t="n">
-        <v>6978787870.4494</v>
-      </c>
-      <c r="S10" s="9" t="n">
-        <v>1589089357.9102</v>
-      </c>
-      <c r="T10" s="9" t="n">
-        <v>3806242776.4534</v>
-      </c>
-      <c r="U10" s="9" t="n">
-        <v>3186009489.4102</v>
-      </c>
-      <c r="V10" s="9" t="n">
-        <v>3397043185.6465</v>
-      </c>
-      <c r="W10" s="9" t="n">
-        <v>2978381931.1913</v>
-      </c>
-      <c r="X10" s="9" t="n">
-        <v>3000039224.0025</v>
-      </c>
-      <c r="Y10" s="9" t="n">
-        <v>2343288254.6046</v>
-      </c>
-      <c r="Z10" s="9" t="n">
-        <v>415958942.3649</v>
-      </c>
-      <c r="AA10" s="9" t="n">
-        <v>3483042753.0994</v>
-      </c>
-      <c r="AB10" s="9" t="n">
-        <v>1536047657.3333</v>
-      </c>
-      <c r="AC10" s="9" t="n">
-        <v>369757606.443</v>
-      </c>
-      <c r="AD10" s="9" t="n">
-        <v>1101191822.3893</v>
-      </c>
-      <c r="AE10" s="9" t="n">
-        <v>385133330.092</v>
-      </c>
-      <c r="AF10" s="9"/>
+      <c r="N10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="13" t="n">
+        <v>78463417796.7355</v>
+      </c>
+      <c r="P10" s="13" t="n">
+        <v>88780237303.9053</v>
+      </c>
+      <c r="Q10" s="13" t="n">
+        <v>105251059912.334</v>
+      </c>
+      <c r="R10" s="13" t="n">
+        <v>130120398442.109</v>
+      </c>
+      <c r="S10" s="13" t="n">
+        <v>117265672000.507</v>
+      </c>
+      <c r="T10" s="13" t="n">
+        <v>114684159598.629</v>
+      </c>
+      <c r="U10" s="13" t="n">
+        <v>115092313841.753</v>
+      </c>
+      <c r="V10" s="13" t="n">
+        <v>96339079586.2505</v>
+      </c>
+      <c r="W10" s="13" t="n">
+        <v>96692994812.3194</v>
+      </c>
+      <c r="X10" s="13" t="n">
+        <v>115400111619.82</v>
+      </c>
+      <c r="Y10" s="13" t="n">
+        <v>121585389860.149</v>
+      </c>
+      <c r="Z10" s="13" t="n">
+        <v>121695096501.822</v>
+      </c>
+      <c r="AA10" s="13" t="n">
+        <v>133999767682.578</v>
+      </c>
+      <c r="AB10" s="13" t="n">
+        <v>155871330399.17</v>
+      </c>
+      <c r="AC10" s="13" t="n">
+        <v>107353167337.779</v>
+      </c>
+      <c r="AD10" s="13" t="n">
+        <v>119312855677.303</v>
+      </c>
+      <c r="AE10" s="13" t="n">
+        <v>194731326724.396</v>
+      </c>
+      <c r="AF10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -3987,63 +3993,63 @@
         <f>N11</f>
       </c>
       <c r="M11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N11" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" s="9" t="n">
-        <v>70636499294.0989</v>
-      </c>
-      <c r="P11" s="9" t="n">
-        <v>80526620958.9503</v>
-      </c>
-      <c r="Q11" s="9" t="n">
-        <v>97471448187.0059</v>
-      </c>
-      <c r="R11" s="9" t="n">
-        <v>123141610571.659</v>
-      </c>
-      <c r="S11" s="9" t="n">
-        <v>115676582642.597</v>
-      </c>
-      <c r="T11" s="9" t="n">
-        <v>110877916822.175</v>
-      </c>
-      <c r="U11" s="9" t="n">
-        <v>111906304352.342</v>
-      </c>
-      <c r="V11" s="9" t="n">
-        <v>92942036400.604</v>
-      </c>
-      <c r="W11" s="9" t="n">
-        <v>93714612881.1281</v>
-      </c>
-      <c r="X11" s="9" t="n">
-        <v>112400072395.818</v>
-      </c>
-      <c r="Y11" s="9" t="n">
-        <v>119242101605.544</v>
-      </c>
-      <c r="Z11" s="9" t="n">
-        <v>121279137559.457</v>
-      </c>
-      <c r="AA11" s="9" t="n">
-        <v>130516724929.479</v>
-      </c>
-      <c r="AB11" s="9" t="n">
-        <v>154335282741.837</v>
-      </c>
-      <c r="AC11" s="9" t="n">
-        <v>106983409731.336</v>
-      </c>
-      <c r="AD11" s="9" t="n">
-        <v>118211663854.914</v>
-      </c>
-      <c r="AE11" s="9" t="n">
-        <v>194346193394.303</v>
-      </c>
-      <c r="AF11" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="O11" s="13" t="n">
+        <v>3480708</v>
+      </c>
+      <c r="P11" s="13" t="n">
+        <v>7309532</v>
+      </c>
+      <c r="Q11" s="13" t="n">
+        <v>4777682.7812</v>
+      </c>
+      <c r="R11" s="13" t="n">
+        <v>-389371.9688</v>
+      </c>
+      <c r="S11" s="13" t="n">
+        <v>566868.625</v>
+      </c>
+      <c r="T11" s="13" t="n">
+        <v>2744757.5625</v>
+      </c>
+      <c r="U11" s="13" t="n">
+        <v>740760.72</v>
+      </c>
+      <c r="V11" s="13" t="n">
+        <v>1661330.44</v>
+      </c>
+      <c r="W11" s="13" t="n">
+        <v>688122.1</v>
+      </c>
+      <c r="X11" s="13" t="n">
+        <v>7466648.5097</v>
+      </c>
+      <c r="Y11" s="13" t="n">
+        <v>15539948.7242</v>
+      </c>
+      <c r="Z11" s="13" t="n">
+        <v>10103095.4844</v>
+      </c>
+      <c r="AA11" s="13" t="n">
+        <v>50250051.3516</v>
+      </c>
+      <c r="AB11" s="13" t="n">
+        <v>4606692.4265</v>
+      </c>
+      <c r="AC11" s="13" t="n">
+        <v>18838219.6031</v>
+      </c>
+      <c r="AD11" s="13" t="n">
+        <v>6404705</v>
+      </c>
+      <c r="AE11" s="13" t="n">
+        <v>3009276.3125</v>
+      </c>
+      <c r="AF11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -4056,60 +4062,60 @@
         <v>57</v>
       </c>
       <c r="N12" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" s="9" t="n">
-        <v>3480708</v>
-      </c>
-      <c r="P12" s="9" t="n">
-        <v>7322732</v>
-      </c>
-      <c r="Q12" s="9" t="n">
-        <v>4777682.7812</v>
-      </c>
-      <c r="R12" s="9" t="n">
-        <v>-389371.9688</v>
-      </c>
-      <c r="S12" s="9" t="n">
-        <v>566868.625</v>
-      </c>
-      <c r="T12" s="9" t="n">
-        <v>2744757.5625</v>
-      </c>
-      <c r="U12" s="9" t="n">
-        <v>740760.72</v>
-      </c>
-      <c r="V12" s="9" t="n">
-        <v>1661330.44</v>
-      </c>
-      <c r="W12" s="9" t="n">
-        <v>688122.1</v>
-      </c>
-      <c r="X12" s="9" t="n">
-        <v>7466648.5097</v>
-      </c>
-      <c r="Y12" s="9" t="n">
-        <v>15539948.7242</v>
-      </c>
-      <c r="Z12" s="9" t="n">
-        <v>10103095.4844</v>
-      </c>
-      <c r="AA12" s="9" t="n">
-        <v>50250051.3516</v>
-      </c>
-      <c r="AB12" s="9" t="n">
-        <v>648763.1608</v>
-      </c>
-      <c r="AC12" s="9" t="n">
-        <v>18838219.6031</v>
-      </c>
-      <c r="AD12" s="9" t="n">
-        <v>6404705</v>
-      </c>
-      <c r="AE12" s="9" t="n">
-        <v>3009276.3125</v>
-      </c>
-      <c r="AF12" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="O12" s="13" t="n">
+        <v>91464160.72</v>
+      </c>
+      <c r="P12" s="13" t="n">
+        <v>271822116.5216</v>
+      </c>
+      <c r="Q12" s="13" t="n">
+        <v>119963396.6512</v>
+      </c>
+      <c r="R12" s="13" t="n">
+        <v>2242431224.5039</v>
+      </c>
+      <c r="S12" s="13" t="n">
+        <v>465110922.9134</v>
+      </c>
+      <c r="T12" s="13" t="n">
+        <v>326628729.6539</v>
+      </c>
+      <c r="U12" s="13" t="n">
+        <v>205092408.93</v>
+      </c>
+      <c r="V12" s="13" t="n">
+        <v>253019515.28</v>
+      </c>
+      <c r="W12" s="13" t="n">
+        <v>124594107.6519</v>
+      </c>
+      <c r="X12" s="13" t="n">
+        <v>187804273.1566</v>
+      </c>
+      <c r="Y12" s="13" t="n">
+        <v>125983398.2189</v>
+      </c>
+      <c r="Z12" s="13" t="n">
+        <v>141268312.7166</v>
+      </c>
+      <c r="AA12" s="13" t="n">
+        <v>313186482.6124</v>
+      </c>
+      <c r="AB12" s="13" t="n">
+        <v>328444010.3259</v>
+      </c>
+      <c r="AC12" s="13" t="n">
+        <v>298326767.0599</v>
+      </c>
+      <c r="AD12" s="13" t="n">
+        <v>340466689.9108</v>
+      </c>
+      <c r="AE12" s="13" t="n">
+        <v>643485539.1533</v>
+      </c>
+      <c r="AF12" s="13"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4146,78 +4152,78 @@
         <v>46</v>
       </c>
       <c r="M13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O13" s="9" t="n">
-        <v>91464160.72</v>
-      </c>
-      <c r="P13" s="9" t="n">
-        <v>271808916.5216</v>
-      </c>
-      <c r="Q13" s="9" t="n">
-        <v>119963396.6512</v>
-      </c>
-      <c r="R13" s="9" t="n">
-        <v>2242431224.5039</v>
-      </c>
-      <c r="S13" s="9" t="n">
-        <v>465110922.9134</v>
-      </c>
-      <c r="T13" s="9" t="n">
-        <v>326628729.6539</v>
-      </c>
-      <c r="U13" s="9" t="n">
-        <v>205092408.93</v>
-      </c>
-      <c r="V13" s="9" t="n">
-        <v>253019515.28</v>
-      </c>
-      <c r="W13" s="9" t="n">
-        <v>124594107.6519</v>
-      </c>
-      <c r="X13" s="9" t="n">
-        <v>187804273.1566</v>
-      </c>
-      <c r="Y13" s="9" t="n">
-        <v>125983398.2189</v>
-      </c>
-      <c r="Z13" s="9" t="n">
-        <v>141268312.7166</v>
-      </c>
-      <c r="AA13" s="9" t="n">
-        <v>313186482.6124</v>
-      </c>
-      <c r="AB13" s="9" t="n">
-        <v>332401939.5916</v>
-      </c>
-      <c r="AC13" s="9" t="n">
-        <v>298326767.0599</v>
-      </c>
-      <c r="AD13" s="9" t="n">
-        <v>340466689.9108</v>
-      </c>
-      <c r="AE13" s="9" t="n">
-        <v>643485539.1533</v>
-      </c>
-      <c r="AF13" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="O13" s="13" t="n">
+        <v>11612991054.1444</v>
+      </c>
+      <c r="P13" s="13" t="n">
+        <v>10001892953.1492</v>
+      </c>
+      <c r="Q13" s="13" t="n">
+        <v>6838390454.4904</v>
+      </c>
+      <c r="R13" s="13" t="n">
+        <v>4740528625.6843</v>
+      </c>
+      <c r="S13" s="13" t="n">
+        <v>3129237146.0253</v>
+      </c>
+      <c r="T13" s="13" t="n">
+        <v>2341188503.9723</v>
+      </c>
+      <c r="U13" s="13" t="n">
+        <v>2173872599.4936</v>
+      </c>
+      <c r="V13" s="13" t="n">
+        <v>1301505898.753</v>
+      </c>
+      <c r="W13" s="13" t="n">
+        <v>1906728681.9117</v>
+      </c>
+      <c r="X13" s="13" t="n">
+        <v>1097699723.7379</v>
+      </c>
+      <c r="Y13" s="13" t="n">
+        <v>1222055072.9644</v>
+      </c>
+      <c r="Z13" s="13" t="n">
+        <v>1459271935.9586</v>
+      </c>
+      <c r="AA13" s="13" t="n">
+        <v>1679311982.6552</v>
+      </c>
+      <c r="AB13" s="13" t="n">
+        <v>1669119486.985</v>
+      </c>
+      <c r="AC13" s="13" t="n">
+        <v>1590213362.9423</v>
+      </c>
+      <c r="AD13" s="13" t="n">
+        <v>2027550576.5423</v>
+      </c>
+      <c r="AE13" s="13" t="n">
+        <v>4477169390.5106</v>
+      </c>
+      <c r="AF13" s="13"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
         <f>M14</f>
       </c>
-      <c r="B14" s="10" t="str">
+      <c r="B14" s="12" t="str">
         <f>N14</f>
       </c>
-      <c r="C14" s="10" t="str">
+      <c r="C14" s="12" t="str">
         <f>AB14</f>
       </c>
-      <c r="D14" s="10" t="str">
+      <c r="D14" s="12" t="str">
         <f>AC14</f>
       </c>
-      <c r="E14" s="10" t="str">
+      <c r="E14" s="12" t="str">
         <f>AD14</f>
       </c>
       <c r="F14" s="3" t="str">
@@ -4238,79 +4244,79 @@
       <c r="L14" t="s">
         <v>47</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="N14" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="O14" s="9" t="n">
-        <v>14194339455.1302</v>
-      </c>
-      <c r="P14" s="9" t="n">
-        <v>11524936620.8855</v>
-      </c>
-      <c r="Q14" s="9" t="n">
-        <v>8049244145.7588</v>
-      </c>
-      <c r="R14" s="9" t="n">
-        <v>5040819900.3828</v>
-      </c>
-      <c r="S14" s="9" t="n">
-        <v>3950171021.6997</v>
-      </c>
-      <c r="T14" s="9" t="n">
-        <v>3068801162.256</v>
-      </c>
-      <c r="U14" s="9" t="n">
-        <v>2429204721.8738</v>
-      </c>
-      <c r="V14" s="9" t="n">
-        <v>1781912549.4149</v>
-      </c>
-      <c r="W14" s="9" t="n">
-        <v>2952746325.5791</v>
-      </c>
-      <c r="X14" s="9" t="n">
-        <v>1881817376.9132</v>
-      </c>
-      <c r="Y14" s="9" t="n">
-        <v>1630023794.4669</v>
-      </c>
-      <c r="Z14" s="9" t="n">
-        <v>1558787356.0103</v>
-      </c>
-      <c r="AA14" s="9" t="n">
-        <v>1750996158.2558</v>
-      </c>
-      <c r="AB14" s="9" t="n">
-        <v>2067193650.8017</v>
-      </c>
-      <c r="AC14" s="9" t="n">
-        <v>1667070626.6228</v>
-      </c>
-      <c r="AD14" s="9" t="n">
-        <v>1955667251.6509</v>
-      </c>
-      <c r="AE14" s="9" t="n">
-        <v>4349132039.113</v>
-      </c>
-      <c r="AF14" s="9"/>
+      <c r="N14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="13" t="n">
+        <v>103936958078.786</v>
+      </c>
+      <c r="P14" s="13" t="n">
+        <v>118543644893.155</v>
+      </c>
+      <c r="Q14" s="13" t="n">
+        <v>111507540379.235</v>
+      </c>
+      <c r="R14" s="13" t="n">
+        <v>72829799688.0759</v>
+      </c>
+      <c r="S14" s="13" t="n">
+        <v>51888821575.225</v>
+      </c>
+      <c r="T14" s="13" t="n">
+        <v>32603689771.8533</v>
+      </c>
+      <c r="U14" s="13" t="n">
+        <v>18624525552.7286</v>
+      </c>
+      <c r="V14" s="13" t="n">
+        <v>16068995341.1965</v>
+      </c>
+      <c r="W14" s="13" t="n">
+        <v>12779545694.5867</v>
+      </c>
+      <c r="X14" s="13" t="n">
+        <v>11073302129.1996</v>
+      </c>
+      <c r="Y14" s="13" t="n">
+        <v>12383549493.0202</v>
+      </c>
+      <c r="Z14" s="13" t="n">
+        <v>11717587215.061</v>
+      </c>
+      <c r="AA14" s="13" t="n">
+        <v>10577083876.2989</v>
+      </c>
+      <c r="AB14" s="13" t="n">
+        <v>12603360450.2236</v>
+      </c>
+      <c r="AC14" s="13" t="n">
+        <v>12024794470.6126</v>
+      </c>
+      <c r="AD14" s="13" t="n">
+        <v>11159041230.4726</v>
+      </c>
+      <c r="AE14" s="13" t="n">
+        <v>25833604840.0789</v>
+      </c>
+      <c r="AF14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
         <f>M15</f>
       </c>
-      <c r="B15" s="10" t="str">
+      <c r="B15" s="12" t="str">
         <f>N15</f>
       </c>
-      <c r="C15" s="10" t="str">
+      <c r="C15" s="12" t="str">
         <f>AB15</f>
       </c>
-      <c r="D15" s="10" t="str">
+      <c r="D15" s="12" t="str">
         <f>AC15</f>
       </c>
-      <c r="E15" s="10" t="str">
+      <c r="E15" s="12" t="str">
         <f>AD15</f>
       </c>
       <c r="F15" s="3" t="str">
@@ -4331,79 +4337,79 @@
       <c r="L15" t="s">
         <v>49</v>
       </c>
-      <c r="M15" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="O15" s="9" t="n">
-        <v>101341648420.47</v>
-      </c>
-      <c r="P15" s="9" t="n">
-        <v>117004585245.029</v>
-      </c>
-      <c r="Q15" s="9" t="n">
-        <v>110274562226.097</v>
-      </c>
-      <c r="R15" s="9" t="n">
-        <v>72501013332.7602</v>
-      </c>
-      <c r="S15" s="9" t="n">
-        <v>51025818982.3669</v>
-      </c>
-      <c r="T15" s="9" t="n">
-        <v>31871614799.3289</v>
-      </c>
-      <c r="U15" s="9" t="n">
-        <v>18342934576.8084</v>
-      </c>
-      <c r="V15" s="9" t="n">
-        <v>15570162851.9346</v>
-      </c>
-      <c r="W15" s="9" t="n">
-        <v>11724223835.7693</v>
-      </c>
-      <c r="X15" s="9" t="n">
-        <v>10282103280.7543</v>
-      </c>
-      <c r="Y15" s="9" t="n">
-        <v>11978672172.6364</v>
-      </c>
-      <c r="Z15" s="9" t="n">
-        <v>11639281238.4459</v>
-      </c>
-      <c r="AA15" s="9" t="n">
-        <v>10488589097.8683</v>
-      </c>
-      <c r="AB15" s="9" t="n">
-        <v>12205328030.7975</v>
-      </c>
-      <c r="AC15" s="9" t="n">
-        <v>11935398072.6335</v>
-      </c>
-      <c r="AD15" s="9" t="n">
-        <v>11322813008.8678</v>
-      </c>
-      <c r="AE15" s="9" t="n">
-        <v>26136114722.1225</v>
-      </c>
-      <c r="AF15" s="9"/>
+      <c r="M15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="13" t="n">
+        <v>7126968730.2023</v>
+      </c>
+      <c r="P15" s="13" t="n">
+        <v>6851707004.3725</v>
+      </c>
+      <c r="Q15" s="13" t="n">
+        <v>6002947849.4749</v>
+      </c>
+      <c r="R15" s="13" t="n">
+        <v>4904616141.9226</v>
+      </c>
+      <c r="S15" s="13" t="n">
+        <v>3896127951.6105</v>
+      </c>
+      <c r="T15" s="13" t="n">
+        <v>3937348672.9191</v>
+      </c>
+      <c r="U15" s="13" t="n">
+        <v>3210731356.1299</v>
+      </c>
+      <c r="V15" s="13" t="n">
+        <v>3590686087.5641</v>
+      </c>
+      <c r="W15" s="13" t="n">
+        <v>3249832070.0508</v>
+      </c>
+      <c r="X15" s="13" t="n">
+        <v>4204304430.8653</v>
+      </c>
+      <c r="Y15" s="13" t="n">
+        <v>4997935832.7874</v>
+      </c>
+      <c r="Z15" s="13" t="n">
+        <v>6189402426.5831</v>
+      </c>
+      <c r="AA15" s="13" t="n">
+        <v>6493069677.0296</v>
+      </c>
+      <c r="AB15" s="13" t="n">
+        <v>6496067863.2198</v>
+      </c>
+      <c r="AC15" s="13" t="n">
+        <v>6982552971.4019</v>
+      </c>
+      <c r="AD15" s="13" t="n">
+        <v>6862482873.9066</v>
+      </c>
+      <c r="AE15" s="13" t="n">
+        <v>8814402353.8</v>
+      </c>
+      <c r="AF15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>M16</f>
       </c>
-      <c r="B16" s="10" t="str">
+      <c r="B16" s="12" t="str">
         <f>N16</f>
       </c>
-      <c r="C16" s="10" t="str">
+      <c r="C16" s="12" t="str">
         <f>AB16</f>
       </c>
-      <c r="D16" s="10" t="str">
+      <c r="D16" s="12" t="str">
         <f>AC16</f>
       </c>
-      <c r="E16" s="10" t="str">
+      <c r="E16" s="12" t="str">
         <f>AD16</f>
       </c>
       <c r="F16" s="3" t="str">
@@ -4424,79 +4430,79 @@
       <c r="L16" t="s">
         <v>50</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="N16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="O16" s="9" t="n">
-        <v>8491670881.2818</v>
-      </c>
-      <c r="P16" s="9" t="n">
-        <v>8687705764.4284</v>
-      </c>
-      <c r="Q16" s="9" t="n">
-        <v>8192500498.0507</v>
-      </c>
-      <c r="R16" s="9" t="n">
-        <v>6004149560.1188</v>
-      </c>
-      <c r="S16" s="9" t="n">
-        <v>4938072295.3959</v>
-      </c>
-      <c r="T16" s="9" t="n">
-        <v>4827351746.8783</v>
-      </c>
-      <c r="U16" s="9" t="n">
-        <v>3555864463.6901</v>
-      </c>
-      <c r="V16" s="9" t="n">
-        <v>4021264457.9802</v>
-      </c>
-      <c r="W16" s="9" t="n">
-        <v>3644162020.2834</v>
-      </c>
-      <c r="X16" s="9" t="n">
-        <v>4529922466.4506</v>
-      </c>
-      <c r="Y16" s="9" t="n">
-        <v>5463911101.9978</v>
-      </c>
-      <c r="Z16" s="9" t="n">
-        <v>6604000036.1281</v>
-      </c>
-      <c r="AA16" s="9" t="n">
-        <v>6973832250.8617</v>
-      </c>
-      <c r="AB16" s="9" t="n">
-        <v>6959045290.4858</v>
-      </c>
-      <c r="AC16" s="9" t="n">
-        <v>7137378488.2274</v>
-      </c>
-      <c r="AD16" s="9" t="n">
-        <v>6767684566.4429</v>
-      </c>
-      <c r="AE16" s="9" t="n">
-        <v>8611322470.3826</v>
-      </c>
-      <c r="AF16" s="9"/>
+      <c r="N16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16" s="13" t="n">
+        <v>13182232488.2912</v>
+      </c>
+      <c r="P16" s="13" t="n">
+        <v>13074641557.822</v>
+      </c>
+      <c r="Q16" s="13" t="n">
+        <v>13956177530.8165</v>
+      </c>
+      <c r="R16" s="13" t="n">
+        <v>11048267730.6147</v>
+      </c>
+      <c r="S16" s="13" t="n">
+        <v>14924806667.1775</v>
+      </c>
+      <c r="T16" s="13" t="n">
+        <v>14121433442.5084</v>
+      </c>
+      <c r="U16" s="13" t="n">
+        <v>12296900084.3472</v>
+      </c>
+      <c r="V16" s="13" t="n">
+        <v>12506026375.4866</v>
+      </c>
+      <c r="W16" s="13" t="n">
+        <v>12358426373.7167</v>
+      </c>
+      <c r="X16" s="13" t="n">
+        <v>12568867321.0656</v>
+      </c>
+      <c r="Y16" s="13" t="n">
+        <v>13033903711.0301</v>
+      </c>
+      <c r="Z16" s="13" t="n">
+        <v>16297241164.2412</v>
+      </c>
+      <c r="AA16" s="13" t="n">
+        <v>16411545919.0185</v>
+      </c>
+      <c r="AB16" s="13" t="n">
+        <v>15953388795.9187</v>
+      </c>
+      <c r="AC16" s="13" t="n">
+        <v>14292710488.8398</v>
+      </c>
+      <c r="AD16" s="13" t="n">
+        <v>14983349579.5726</v>
+      </c>
+      <c r="AE16" s="13" t="n">
+        <v>11139398950.3839</v>
+      </c>
+      <c r="AF16" s="13"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
         <f>M17</f>
       </c>
-      <c r="B17" s="10" t="str">
+      <c r="B17" s="12" t="str">
         <f>N17</f>
       </c>
-      <c r="C17" s="10" t="str">
+      <c r="C17" s="12" t="str">
         <f>AB17</f>
       </c>
-      <c r="D17" s="10" t="str">
+      <c r="D17" s="12" t="str">
         <f>AC17</f>
       </c>
-      <c r="E17" s="10" t="str">
+      <c r="E17" s="12" t="str">
         <f>AD17</f>
       </c>
       <c r="F17" s="3" t="str">
@@ -4517,79 +4523,79 @@
       <c r="L17" t="s">
         <v>56</v>
       </c>
-      <c r="M17" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="O17" s="9" t="n">
-        <v>11798390982.7529</v>
-      </c>
-      <c r="P17" s="9" t="n">
-        <v>11245213240.4152</v>
-      </c>
-      <c r="Q17" s="9" t="n">
-        <v>11771340687.3015</v>
-      </c>
-      <c r="R17" s="9" t="n">
-        <v>9964056833.7781</v>
-      </c>
-      <c r="S17" s="9" t="n">
-        <v>13962135476.4921</v>
-      </c>
-      <c r="T17" s="9" t="n">
-        <v>13223323719.1346</v>
-      </c>
-      <c r="U17" s="9" t="n">
-        <v>11982732390.167</v>
-      </c>
-      <c r="V17" s="9" t="n">
-        <v>12114628991.1955</v>
-      </c>
-      <c r="W17" s="9" t="n">
-        <v>11977715880.2141</v>
-      </c>
-      <c r="X17" s="9" t="n">
-        <v>12243098979.518</v>
-      </c>
-      <c r="Y17" s="9" t="n">
-        <v>12600972640.3082</v>
-      </c>
-      <c r="Z17" s="9" t="n">
-        <v>15936721040.4715</v>
-      </c>
-      <c r="AA17" s="9" t="n">
-        <v>16008560472.8886</v>
-      </c>
-      <c r="AB17" s="9" t="n">
-        <v>15465173942.1724</v>
-      </c>
-      <c r="AC17" s="9" t="n">
-        <v>14040430300.0082</v>
-      </c>
-      <c r="AD17" s="9" t="n">
-        <v>14738116561.5618</v>
-      </c>
-      <c r="AE17" s="9" t="n">
-        <v>11028697994.0188</v>
-      </c>
-      <c r="AF17" s="9"/>
+      <c r="M17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" s="13" t="n">
+        <v>80590302.4495</v>
+      </c>
+      <c r="P17" s="13" t="n">
+        <v>1612701038.6749</v>
+      </c>
+      <c r="Q17" s="13" t="n">
+        <v>1501943419.0369</v>
+      </c>
+      <c r="R17" s="13" t="n">
+        <v>1302640884.6994</v>
+      </c>
+      <c r="S17" s="13" t="n">
+        <v>922465548.9992</v>
+      </c>
+      <c r="T17" s="13" t="n">
+        <v>549700703.6313</v>
+      </c>
+      <c r="U17" s="13" t="n">
+        <v>364659592.3708</v>
+      </c>
+      <c r="V17" s="13" t="n">
+        <v>352289458.2254</v>
+      </c>
+      <c r="W17" s="13" t="n">
+        <v>348608488.1532</v>
+      </c>
+      <c r="X17" s="13" t="n">
+        <v>443966250.4258</v>
+      </c>
+      <c r="Y17" s="13" t="n">
+        <v>233627398.4194</v>
+      </c>
+      <c r="Z17" s="13" t="n">
+        <v>285689730.8393</v>
+      </c>
+      <c r="AA17" s="13" t="n">
+        <v>424132939.4359</v>
+      </c>
+      <c r="AB17" s="13" t="n">
+        <v>274457825.1727</v>
+      </c>
+      <c r="AC17" s="13" t="n">
+        <v>233738346.652</v>
+      </c>
+      <c r="AD17" s="13" t="n">
+        <v>254689686.9587</v>
+      </c>
+      <c r="AE17" s="13" t="n">
+        <v>1589998587.9479</v>
+      </c>
+      <c r="AF17" s="13"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
         <f>M18</f>
       </c>
-      <c r="B18" s="10" t="str">
+      <c r="B18" s="12" t="str">
         <f>N18</f>
       </c>
-      <c r="C18" s="10" t="str">
+      <c r="C18" s="12" t="str">
         <f>AB18</f>
       </c>
-      <c r="D18" s="10" t="str">
+      <c r="D18" s="12" t="str">
         <f>AC18</f>
       </c>
-      <c r="E18" s="10" t="str">
+      <c r="E18" s="12" t="str">
         <f>AD18</f>
       </c>
       <c r="F18" s="3" t="str">
@@ -4610,79 +4616,79 @@
       <c r="L18" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="N18" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="O18" s="9" t="n">
-        <v>82129902.9873</v>
-      </c>
-      <c r="P18" s="9" t="n">
-        <v>1979157392.3166</v>
-      </c>
-      <c r="Q18" s="9" t="n">
-        <v>1743462570.6264</v>
-      </c>
-      <c r="R18" s="9" t="n">
-        <v>1347048377.8865</v>
-      </c>
-      <c r="S18" s="9" t="n">
-        <v>1104815880.2662</v>
-      </c>
-      <c r="T18" s="9" t="n">
-        <v>567772243.9955</v>
-      </c>
-      <c r="U18" s="9" t="n">
-        <v>399938347.5108</v>
-      </c>
-      <c r="V18" s="9" t="n">
-        <v>355739285.8054</v>
-      </c>
-      <c r="W18" s="9" t="n">
-        <v>353003610.9832</v>
-      </c>
-      <c r="X18" s="9" t="n">
-        <v>471117220.9799</v>
-      </c>
-      <c r="Y18" s="9" t="n">
-        <v>235979828.7612</v>
-      </c>
-      <c r="Z18" s="9" t="n">
-        <v>279460783.4001</v>
-      </c>
-      <c r="AA18" s="9" t="n">
-        <v>417457428.0022</v>
-      </c>
-      <c r="AB18" s="9" t="n">
-        <v>283289326.9169</v>
-      </c>
-      <c r="AC18" s="9" t="n">
-        <v>263570893.212</v>
-      </c>
-      <c r="AD18" s="9" t="n">
-        <v>249258643.1787</v>
-      </c>
-      <c r="AE18" s="9" t="n">
-        <v>1719360865.2598</v>
-      </c>
-      <c r="AF18" s="9"/>
+      <c r="N18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O18" s="13" t="n">
+        <v>803607590.5797</v>
+      </c>
+      <c r="P18" s="13" t="n">
+        <v>6604036628.6697</v>
+      </c>
+      <c r="Q18" s="13" t="n">
+        <v>9214304794.5268</v>
+      </c>
+      <c r="R18" s="13" t="n">
+        <v>3079227327.2041</v>
+      </c>
+      <c r="S18" s="13" t="n">
+        <v>2415098066.7008</v>
+      </c>
+      <c r="T18" s="13" t="n">
+        <v>1884981201.3818</v>
+      </c>
+      <c r="U18" s="13" t="n">
+        <v>1116524442.8424</v>
+      </c>
+      <c r="V18" s="13" t="n">
+        <v>970390145.3863</v>
+      </c>
+      <c r="W18" s="13" t="n">
+        <v>688829745.6869</v>
+      </c>
+      <c r="X18" s="13" t="n">
+        <v>678087526.4504</v>
+      </c>
+      <c r="Y18" s="13" t="n">
+        <v>753399556.0265</v>
+      </c>
+      <c r="Z18" s="13" t="n">
+        <v>723658793.4366</v>
+      </c>
+      <c r="AA18" s="13" t="n">
+        <v>888249480.0033</v>
+      </c>
+      <c r="AB18" s="13" t="n">
+        <v>810717582.5063</v>
+      </c>
+      <c r="AC18" s="13" t="n">
+        <v>416181790.5783</v>
+      </c>
+      <c r="AD18" s="13" t="n">
+        <v>454227577.6369</v>
+      </c>
+      <c r="AE18" s="13" t="n">
+        <v>1912728130.1274</v>
+      </c>
+      <c r="AF18" s="13"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
         <f>M19</f>
       </c>
-      <c r="B19" s="10" t="str">
+      <c r="B19" s="12" t="str">
         <f>N19</f>
       </c>
-      <c r="C19" s="10" t="str">
+      <c r="C19" s="12" t="str">
         <f>AB19</f>
       </c>
-      <c r="D19" s="10" t="str">
+      <c r="D19" s="12" t="str">
         <f>AC19</f>
       </c>
-      <c r="E19" s="10" t="str">
+      <c r="E19" s="12" t="str">
         <f>AD19</f>
       </c>
       <c r="F19" s="3" t="str">
@@ -4703,79 +4709,79 @@
       <c r="L19" t="s">
         <v>52</v>
       </c>
-      <c r="M19" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="O19" s="9" t="n">
-        <v>802067990.0419</v>
-      </c>
-      <c r="P19" s="9" t="n">
-        <v>6237580275.028</v>
-      </c>
-      <c r="Q19" s="9" t="n">
-        <v>8972785642.9373</v>
-      </c>
-      <c r="R19" s="9" t="n">
-        <v>3034819834.017</v>
-      </c>
-      <c r="S19" s="9" t="n">
-        <v>2232747735.4338</v>
-      </c>
-      <c r="T19" s="9" t="n">
-        <v>1866909661.0176</v>
-      </c>
-      <c r="U19" s="9" t="n">
-        <v>1081245687.7024</v>
-      </c>
-      <c r="V19" s="9" t="n">
-        <v>966940317.8063</v>
-      </c>
-      <c r="W19" s="9" t="n">
-        <v>684434622.8569</v>
-      </c>
-      <c r="X19" s="9" t="n">
-        <v>650936555.8963</v>
-      </c>
-      <c r="Y19" s="9" t="n">
-        <v>751047125.6847</v>
-      </c>
-      <c r="Z19" s="9" t="n">
-        <v>729887740.8758</v>
-      </c>
-      <c r="AA19" s="9" t="n">
-        <v>894924991.437</v>
-      </c>
-      <c r="AB19" s="9" t="n">
-        <v>801886080.7621</v>
-      </c>
-      <c r="AC19" s="9" t="n">
-        <v>386349244.0183</v>
-      </c>
-      <c r="AD19" s="9" t="n">
-        <v>459658621.4169</v>
-      </c>
-      <c r="AE19" s="9" t="n">
-        <v>1783365852.8155</v>
-      </c>
-      <c r="AF19" s="9"/>
+      <c r="M19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="13" t="str">
+        <f>Sum(O2:O18)</f>
+      </c>
+      <c r="P19" s="13" t="str">
+        <f>Sum(P2:P18)</f>
+      </c>
+      <c r="Q19" s="13" t="str">
+        <f>Sum(Q2:Q18)</f>
+      </c>
+      <c r="R19" s="13" t="str">
+        <f>Sum(R2:R18)</f>
+      </c>
+      <c r="S19" s="13" t="str">
+        <f>Sum(S2:S18)</f>
+      </c>
+      <c r="T19" s="13" t="str">
+        <f>Sum(T2:T18)</f>
+      </c>
+      <c r="U19" s="13" t="str">
+        <f>Sum(U2:U18)</f>
+      </c>
+      <c r="V19" s="13" t="str">
+        <f>Sum(V2:V18)</f>
+      </c>
+      <c r="W19" s="13" t="str">
+        <f>Sum(W2:W18)</f>
+      </c>
+      <c r="X19" s="13" t="str">
+        <f>Sum(X2:X18)</f>
+      </c>
+      <c r="Y19" s="13" t="str">
+        <f>Sum(Y2:Y18)</f>
+      </c>
+      <c r="Z19" s="13" t="str">
+        <f>Sum(Z2:Z18)</f>
+      </c>
+      <c r="AA19" s="13" t="str">
+        <f>Sum(AA2:AA18)</f>
+      </c>
+      <c r="AB19" s="13" t="str">
+        <f>Sum(AB2:AB18)</f>
+      </c>
+      <c r="AC19" s="13" t="str">
+        <f>Sum(AC2:AC18)</f>
+      </c>
+      <c r="AD19" s="13" t="str">
+        <f>Sum(AD2:AD18)</f>
+      </c>
+      <c r="AE19" s="13" t="str">
+        <f>Sum(AE2:AE18)</f>
+      </c>
+      <c r="AF19" s="13"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
         <f>M20</f>
       </c>
-      <c r="B20" s="10" t="str">
+      <c r="B20" s="12" t="str">
         <f>N20</f>
       </c>
-      <c r="C20" s="10" t="str">
+      <c r="C20" s="12" t="str">
         <f>AB20</f>
       </c>
-      <c r="D20" s="10" t="str">
+      <c r="D20" s="12" t="str">
         <f>AC20</f>
       </c>
-      <c r="E20" s="10" t="str">
+      <c r="E20" s="12" t="str">
         <f>AD20</f>
       </c>
       <c r="F20" s="3" t="str">
@@ -4796,79 +4802,79 @@
       <c r="L20" t="s">
         <v>53</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="N20" s="10" t="s">
+      <c r="N20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="9" t="str">
+      <c r="O20" s="11" t="str">
         <f>Sum(O2:O19)</f>
       </c>
-      <c r="P20" s="9" t="str">
+      <c r="P20" s="11" t="str">
         <f>Sum(P2:P19)</f>
       </c>
-      <c r="Q20" s="9" t="str">
+      <c r="Q20" s="11" t="str">
         <f>Sum(Q2:Q19)</f>
       </c>
-      <c r="R20" s="9" t="str">
+      <c r="R20" s="11" t="str">
         <f>Sum(R2:R19)</f>
       </c>
-      <c r="S20" s="9" t="str">
+      <c r="S20" s="11" t="str">
         <f>Sum(S2:S19)</f>
       </c>
-      <c r="T20" s="9" t="str">
+      <c r="T20" s="11" t="str">
         <f>Sum(T2:T19)</f>
       </c>
-      <c r="U20" s="9" t="str">
+      <c r="U20" s="11" t="str">
         <f>Sum(U2:U19)</f>
       </c>
-      <c r="V20" s="9" t="str">
+      <c r="V20" s="11" t="str">
         <f>Sum(V2:V19)</f>
       </c>
-      <c r="W20" s="9" t="str">
+      <c r="W20" s="11" t="str">
         <f>Sum(W2:W19)</f>
       </c>
-      <c r="X20" s="9" t="str">
+      <c r="X20" s="11" t="str">
         <f>Sum(X2:X19)</f>
       </c>
-      <c r="Y20" s="9" t="str">
+      <c r="Y20" s="11" t="str">
         <f>Sum(Y2:Y19)</f>
       </c>
-      <c r="Z20" s="9" t="str">
+      <c r="Z20" s="11" t="str">
         <f>Sum(Z2:Z19)</f>
       </c>
-      <c r="AA20" s="9" t="str">
+      <c r="AA20" s="11" t="str">
         <f>Sum(AA2:AA19)</f>
       </c>
-      <c r="AB20" s="9" t="str">
+      <c r="AB20" s="11" t="str">
         <f>Sum(AB2:AB19)</f>
       </c>
-      <c r="AC20" s="9" t="str">
+      <c r="AC20" s="11" t="str">
         <f>Sum(AC2:AC19)</f>
       </c>
-      <c r="AD20" s="9" t="str">
+      <c r="AD20" s="11" t="str">
         <f>Sum(AD2:AD19)</f>
       </c>
-      <c r="AE20" s="9" t="str">
+      <c r="AE20" s="11" t="str">
         <f>Sum(AE2:AE19)</f>
       </c>
-      <c r="AF20" s="9"/>
+      <c r="AF20" s="11"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
         <f>M21</f>
       </c>
-      <c r="B21" s="10" t="str">
+      <c r="B21" s="12" t="str">
         <f>N21</f>
       </c>
-      <c r="C21" s="10" t="str">
+      <c r="C21" s="12" t="str">
         <f>AB21</f>
       </c>
-      <c r="D21" s="10" t="str">
+      <c r="D21" s="12" t="str">
         <f>AD21</f>
       </c>
-      <c r="E21" s="10" t="str">
+      <c r="E21" s="12" t="str">
         <f>AE21</f>
       </c>
       <c r="F21" s="3" t="str">
@@ -4892,61 +4898,61 @@
       <c r="L21" t="s">
         <v>54</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="N21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="O21" s="10" t="s">
+      <c r="O21" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="P21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q21" s="10" t="s">
+      <c r="Q21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="R21" s="10" t="s">
+      <c r="R21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="S21" s="10" t="s">
+      <c r="S21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="T21" s="10" t="s">
+      <c r="T21" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="U21" s="10" t="s">
+      <c r="U21" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="V21" s="10" t="s">
+      <c r="V21" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="W21" s="10" t="s">
+      <c r="W21" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="X21" s="10" t="s">
+      <c r="X21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Y21" s="10" t="s">
+      <c r="Y21" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Z21" s="10" t="s">
+      <c r="Z21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AA21" s="10" t="s">
+      <c r="AA21" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AB21" s="10" t="s">
+      <c r="AB21" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AC21" s="10" t="s">
+      <c r="AC21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AD21" s="10" t="s">
+      <c r="AD21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AE21" s="10" t="s">
+      <c r="AE21" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4954,97 +4960,97 @@
       <c r="A22" t="str">
         <f>M22</f>
       </c>
-      <c r="B22" s="10" t="str">
+      <c r="B22" s="12" t="str">
         <f>N22</f>
       </c>
-      <c r="C22" s="11" t="str">
+      <c r="C22" s="9" t="str">
         <f>AB22</f>
       </c>
-      <c r="D22" s="11" t="str">
+      <c r="D22" s="9" t="str">
         <f>AD22</f>
       </c>
-      <c r="E22" s="11" t="str">
+      <c r="E22" s="9" t="str">
         <f>AE22</f>
       </c>
-      <c r="F22" s="11" t="str">
+      <c r="F22" s="9" t="str">
         <f>AF22</f>
       </c>
       <c r="G22" s="3" t="str">
-        <f>AE22/AD22-1</f>
+        <f>AD22&amp;"-"&amp;AE22</f>
       </c>
       <c r="H22" s="3" t="str">
-        <f>AE22/AB22-1</f>
+        <f>AB22&amp;"-"&amp;AE22</f>
       </c>
       <c r="I22" s="3" t="str">
-        <f>AF22/AE22</f>
+        <f>AF22&amp;"/"&amp;AE22</f>
       </c>
       <c r="J22" s="3" t="str">
-        <f>AE22/Sum(AE$21:AE$37)</f>
+        <f>"Share "&amp;AE22</f>
       </c>
       <c r="K22" s="3" t="str">
-        <f>AF22/Sum(AF21:AF$37)</f>
+        <f>"Share "&amp;AF22</f>
       </c>
       <c r="L22" t="s">
         <v>18</v>
       </c>
-      <c r="M22" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="O22" s="11" t="n">
-        <v>35572247423.751</v>
-      </c>
-      <c r="P22" s="11" t="n">
-        <v>44983445693.7452</v>
-      </c>
-      <c r="Q22" s="11" t="n">
-        <v>48192805927.9893</v>
-      </c>
-      <c r="R22" s="11" t="n">
-        <v>42164237463.4606</v>
-      </c>
-      <c r="S22" s="11" t="n">
-        <v>41706668343.1184</v>
-      </c>
-      <c r="T22" s="11" t="n">
-        <v>48626220653.2593</v>
-      </c>
-      <c r="U22" s="11" t="n">
-        <v>31020811944.8711</v>
-      </c>
-      <c r="V22" s="11" t="n">
-        <v>25227193895.1278</v>
-      </c>
-      <c r="W22" s="11" t="n">
-        <v>22128705277.0359</v>
-      </c>
-      <c r="X22" s="11" t="n">
-        <v>21044466872.5407</v>
-      </c>
-      <c r="Y22" s="11" t="n">
-        <v>23948428786.3791</v>
-      </c>
-      <c r="Z22" s="11" t="n">
-        <v>33320734212.1306</v>
-      </c>
-      <c r="AA22" s="11" t="n">
-        <v>32757264828.1729</v>
-      </c>
-      <c r="AB22" s="11" t="n">
-        <v>34813670297.7214</v>
-      </c>
-      <c r="AC22" s="11" t="n">
-        <v>53907820654.5716</v>
-      </c>
-      <c r="AD22" s="11" t="n">
-        <v>47753342042.3351</v>
-      </c>
-      <c r="AE22" s="11" t="n">
-        <v>35047872671.8265</v>
-      </c>
-      <c r="AF22" s="11"/>
+      <c r="M22" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="T22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="V22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="W22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF22" s="9"/>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -5053,91 +5059,91 @@
       <c r="B23" t="str">
         <f>N23</f>
       </c>
-      <c r="C23" s="11" t="str">
+      <c r="C23" s="13" t="str">
         <f>AB23</f>
       </c>
-      <c r="D23" s="11" t="str">
+      <c r="D23" s="13" t="str">
         <f>AD23</f>
       </c>
-      <c r="E23" s="11" t="str">
+      <c r="E23" s="13" t="str">
         <f>AE23</f>
       </c>
-      <c r="F23" s="11" t="str">
+      <c r="F23" s="13" t="str">
         <f>AF23</f>
       </c>
       <c r="G23" s="3" t="str">
-        <f>AD23&amp;"-"&amp;AE23</f>
+        <f>AE23/AD23-1</f>
       </c>
       <c r="H23" s="3" t="str">
-        <f>AB23&amp;"-"&amp;AE23</f>
+        <f>AE23/AB23-1</f>
       </c>
       <c r="I23" s="3" t="str">
-        <f>AF23&amp;"/"&amp;AE23</f>
+        <f>AF23/AE23</f>
       </c>
       <c r="J23" s="3" t="str">
-        <f>"Share "&amp;AE23</f>
+        <f>AE23/Sum(AE$22:AE$39)</f>
       </c>
       <c r="K23" s="3" t="str">
-        <f>"Share "&amp;AF23</f>
+        <f>AF23/Sum(AF22:AF$39)</f>
       </c>
       <c r="M23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N23" t="s">
-        <v>38</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="P23" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q23" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="R23" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="S23" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="T23" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="U23" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="V23" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="W23" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="X23" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y23" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC23" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD23" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF23" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="O23" s="13" t="n">
+        <v>54433198289.7936</v>
+      </c>
+      <c r="P23" s="13" t="n">
+        <v>63206462422.4098</v>
+      </c>
+      <c r="Q23" s="13" t="n">
+        <v>63384087395.8274</v>
+      </c>
+      <c r="R23" s="13" t="n">
+        <v>56539727512.8033</v>
+      </c>
+      <c r="S23" s="13" t="n">
+        <v>58631226450.0673</v>
+      </c>
+      <c r="T23" s="13" t="n">
+        <v>65669474203.5038</v>
+      </c>
+      <c r="U23" s="13" t="n">
+        <v>45566006836.0098</v>
+      </c>
+      <c r="V23" s="13" t="n">
+        <v>43108517936.8348</v>
+      </c>
+      <c r="W23" s="13" t="n">
+        <v>36080692775.8811</v>
+      </c>
+      <c r="X23" s="13" t="n">
+        <v>33445434706.098</v>
+      </c>
+      <c r="Y23" s="13" t="n">
+        <v>35891480629.9563</v>
+      </c>
+      <c r="Z23" s="13" t="n">
+        <v>41613539560.8972</v>
+      </c>
+      <c r="AA23" s="13" t="n">
+        <v>41312399823.8862</v>
+      </c>
+      <c r="AB23" s="13" t="n">
+        <v>41521680696.2626</v>
+      </c>
+      <c r="AC23" s="13" t="n">
+        <v>62403976804.3759</v>
+      </c>
+      <c r="AD23" s="13" t="n">
+        <v>56116718208.8265</v>
+      </c>
+      <c r="AE23" s="13" t="n">
+        <v>45884808636.1964</v>
+      </c>
+      <c r="AF23" s="13"/>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -5146,16 +5152,16 @@
       <c r="B24" t="str">
         <f>N24</f>
       </c>
-      <c r="C24" s="9" t="str">
+      <c r="C24" s="13" t="str">
         <f>AB24</f>
       </c>
-      <c r="D24" s="9" t="str">
+      <c r="D24" s="13" t="str">
         <f>AD24</f>
       </c>
-      <c r="E24" s="9" t="str">
+      <c r="E24" s="13" t="str">
         <f>AE24</f>
       </c>
-      <c r="F24" s="9" t="str">
+      <c r="F24" s="13" t="str">
         <f>AF24</f>
       </c>
       <c r="G24" s="3" t="str">
@@ -5168,69 +5174,69 @@
         <f>AF24/AE24</f>
       </c>
       <c r="J24" s="3" t="str">
-        <f>AE24/Sum(AE$23:AE$41)</f>
+        <f>AE24/Sum(AE$22:AE$39)</f>
       </c>
       <c r="K24" s="3" t="str">
-        <f>AF24/Sum(AF23:AF$41)</f>
+        <f>AF24/Sum(AF22:AF$39)</f>
       </c>
       <c r="M24" t="s">
         <v>47</v>
       </c>
       <c r="N24" t="s">
-        <v>40</v>
-      </c>
-      <c r="O24" s="9" t="n">
-        <v>35572247423.751</v>
-      </c>
-      <c r="P24" s="9" t="n">
-        <v>44983445693.7452</v>
-      </c>
-      <c r="Q24" s="9" t="n">
-        <v>48192805927.9893</v>
-      </c>
-      <c r="R24" s="9" t="n">
-        <v>42164237463.4606</v>
-      </c>
-      <c r="S24" s="9" t="n">
-        <v>41706668343.1184</v>
-      </c>
-      <c r="T24" s="9" t="n">
-        <v>48626220653.2593</v>
-      </c>
-      <c r="U24" s="9" t="n">
-        <v>31020811944.8711</v>
-      </c>
-      <c r="V24" s="9" t="n">
-        <v>25227193895.1278</v>
-      </c>
-      <c r="W24" s="9" t="n">
-        <v>22128705277.0359</v>
-      </c>
-      <c r="X24" s="9" t="n">
-        <v>21044466872.5407</v>
-      </c>
-      <c r="Y24" s="9" t="n">
-        <v>23948428786.3791</v>
-      </c>
-      <c r="Z24" s="9" t="n">
-        <v>33320734212.1306</v>
-      </c>
-      <c r="AA24" s="9" t="n">
-        <v>32757264828.1729</v>
-      </c>
-      <c r="AB24" s="9" t="n">
-        <v>34813670297.7214</v>
-      </c>
-      <c r="AC24" s="9" t="n">
-        <v>53907820654.5716</v>
-      </c>
-      <c r="AD24" s="9" t="n">
-        <v>47753342042.3351</v>
-      </c>
-      <c r="AE24" s="9" t="n">
-        <v>35047872671.8265</v>
-      </c>
-      <c r="AF24" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="O24" s="13" t="n">
+        <v>38080315538.7227</v>
+      </c>
+      <c r="P24" s="13" t="n">
+        <v>43727065605.568</v>
+      </c>
+      <c r="Q24" s="13" t="n">
+        <v>36679340336.2192</v>
+      </c>
+      <c r="R24" s="13" t="n">
+        <v>36801832575.8184</v>
+      </c>
+      <c r="S24" s="13" t="n">
+        <v>34546481154.1104</v>
+      </c>
+      <c r="T24" s="13" t="n">
+        <v>29145337046.3448</v>
+      </c>
+      <c r="U24" s="13" t="n">
+        <v>25366971773.2031</v>
+      </c>
+      <c r="V24" s="13" t="n">
+        <v>22865198426.1537</v>
+      </c>
+      <c r="W24" s="13" t="n">
+        <v>25132367037.1745</v>
+      </c>
+      <c r="X24" s="13" t="n">
+        <v>24870706247.0736</v>
+      </c>
+      <c r="Y24" s="13" t="n">
+        <v>27850211435.9087</v>
+      </c>
+      <c r="Z24" s="13" t="n">
+        <v>31829965619.0525</v>
+      </c>
+      <c r="AA24" s="13" t="n">
+        <v>34740283044.7393</v>
+      </c>
+      <c r="AB24" s="13" t="n">
+        <v>41230411824.8802</v>
+      </c>
+      <c r="AC24" s="13" t="n">
+        <v>49443568893.6507</v>
+      </c>
+      <c r="AD24" s="13" t="n">
+        <v>55054622714.8063</v>
+      </c>
+      <c r="AE24" s="13" t="n">
+        <v>38084619243.8335</v>
+      </c>
+      <c r="AF24" s="13"/>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -5239,16 +5245,16 @@
       <c r="B25" t="str">
         <f>N25</f>
       </c>
-      <c r="C25" s="9" t="str">
+      <c r="C25" s="13" t="str">
         <f>AB25</f>
       </c>
-      <c r="D25" s="9" t="str">
+      <c r="D25" s="13" t="str">
         <f>AD25</f>
       </c>
-      <c r="E25" s="9" t="str">
+      <c r="E25" s="13" t="str">
         <f>AE25</f>
       </c>
-      <c r="F25" s="9" t="str">
+      <c r="F25" s="13" t="str">
         <f>AF25</f>
       </c>
       <c r="G25" s="3" t="str">
@@ -5261,69 +5267,69 @@
         <f>AF25/AE25</f>
       </c>
       <c r="J25" s="3" t="str">
-        <f>AE25/Sum(AE$23:AE$41)</f>
+        <f>AE25/Sum(AE$22:AE$39)</f>
       </c>
       <c r="K25" s="3" t="str">
-        <f>AF25/Sum(AF23:AF$41)</f>
+        <f>AF25/Sum(AF22:AF$39)</f>
       </c>
       <c r="M25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N25" t="s">
-        <v>43</v>
-      </c>
-      <c r="O25" s="9" t="n">
-        <v>30814504432.484</v>
-      </c>
-      <c r="P25" s="9" t="n">
-        <v>35226105451.262</v>
-      </c>
-      <c r="Q25" s="9" t="n">
-        <v>29419123870.4711</v>
-      </c>
-      <c r="R25" s="9" t="n">
-        <v>25118943131.1481</v>
-      </c>
-      <c r="S25" s="9" t="n">
-        <v>24001218690.9956</v>
-      </c>
-      <c r="T25" s="9" t="n">
-        <v>21426171681.2322</v>
-      </c>
-      <c r="U25" s="9" t="n">
-        <v>17737992925.4561</v>
-      </c>
-      <c r="V25" s="9" t="n">
-        <v>14891043061.7477</v>
-      </c>
-      <c r="W25" s="9" t="n">
-        <v>15183910021.9123</v>
-      </c>
-      <c r="X25" s="9" t="n">
-        <v>15392091277.0938</v>
-      </c>
-      <c r="Y25" s="9" t="n">
-        <v>17276398390.4975</v>
-      </c>
-      <c r="Z25" s="9" t="n">
-        <v>27235594954.2583</v>
-      </c>
-      <c r="AA25" s="9" t="n">
-        <v>30110191783.4296</v>
-      </c>
-      <c r="AB25" s="9" t="n">
-        <v>34577238594.4984</v>
-      </c>
-      <c r="AC25" s="9" t="n">
-        <v>41850088227.4911</v>
-      </c>
-      <c r="AD25" s="9" t="n">
-        <v>30473644927.4072</v>
-      </c>
-      <c r="AE25" s="9" t="n">
-        <v>29077141051.9964</v>
-      </c>
-      <c r="AF25" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="O25" s="13" t="n">
+        <v>23076937832.0004</v>
+      </c>
+      <c r="P25" s="13" t="n">
+        <v>25706141275.4959</v>
+      </c>
+      <c r="Q25" s="13" t="n">
+        <v>23919672635.14</v>
+      </c>
+      <c r="R25" s="13" t="n">
+        <v>24136792283.2457</v>
+      </c>
+      <c r="S25" s="13" t="n">
+        <v>20757263554.6947</v>
+      </c>
+      <c r="T25" s="13" t="n">
+        <v>20524381249.9992</v>
+      </c>
+      <c r="U25" s="13" t="n">
+        <v>16814746087.9398</v>
+      </c>
+      <c r="V25" s="13" t="n">
+        <v>18409277821.6143</v>
+      </c>
+      <c r="W25" s="13" t="n">
+        <v>16961263473.4901</v>
+      </c>
+      <c r="X25" s="13" t="n">
+        <v>19036342153.6144</v>
+      </c>
+      <c r="Y25" s="13" t="n">
+        <v>21261335725.7641</v>
+      </c>
+      <c r="Z25" s="13" t="n">
+        <v>15546420509.9782</v>
+      </c>
+      <c r="AA25" s="13" t="n">
+        <v>18828756579.1899</v>
+      </c>
+      <c r="AB25" s="13" t="n">
+        <v>19656907388.4898</v>
+      </c>
+      <c r="AC25" s="13" t="n">
+        <v>17222629063.7971</v>
+      </c>
+      <c r="AD25" s="13" t="n">
+        <v>18151566559.4917</v>
+      </c>
+      <c r="AE25" s="13" t="n">
+        <v>19305043010.3455</v>
+      </c>
+      <c r="AF25" s="13"/>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -5332,16 +5338,16 @@
       <c r="B26" t="str">
         <f>N26</f>
       </c>
-      <c r="C26" s="9" t="str">
+      <c r="C26" s="13" t="str">
         <f>AB26</f>
       </c>
-      <c r="D26" s="9" t="str">
+      <c r="D26" s="13" t="str">
         <f>AD26</f>
       </c>
-      <c r="E26" s="9" t="str">
+      <c r="E26" s="13" t="str">
         <f>AE26</f>
       </c>
-      <c r="F26" s="9" t="str">
+      <c r="F26" s="13" t="str">
         <f>AF26</f>
       </c>
       <c r="G26" s="3" t="str">
@@ -5354,69 +5360,69 @@
         <f>AF26/AE26</f>
       </c>
       <c r="J26" s="3" t="str">
-        <f>AE26/Sum(AE$23:AE$41)</f>
+        <f>AE26/Sum(AE$22:AE$39)</f>
       </c>
       <c r="K26" s="3" t="str">
-        <f>AF26/Sum(AF23:AF$41)</f>
+        <f>AF26/Sum(AF22:AF$39)</f>
       </c>
       <c r="M26" t="s">
         <v>49</v>
       </c>
       <c r="N26" t="s">
-        <v>40</v>
-      </c>
-      <c r="O26" s="9" t="n">
-        <v>42663338841.058</v>
-      </c>
-      <c r="P26" s="9" t="n">
-        <v>46857345803.8037</v>
-      </c>
-      <c r="Q26" s="9" t="n">
-        <v>40793358767.9674</v>
-      </c>
-      <c r="R26" s="9" t="n">
-        <v>41369110071.7669</v>
-      </c>
-      <c r="S26" s="9" t="n">
-        <v>39896655546.6051</v>
-      </c>
-      <c r="T26" s="9" t="n">
-        <v>37989737814.7073</v>
-      </c>
-      <c r="U26" s="9" t="n">
-        <v>32150501924.163</v>
-      </c>
-      <c r="V26" s="9" t="n">
-        <v>36031147486.1144</v>
-      </c>
-      <c r="W26" s="9" t="n">
-        <v>31840288015.6125</v>
-      </c>
-      <c r="X26" s="9" t="n">
-        <v>31866144544.7672</v>
-      </c>
-      <c r="Y26" s="9" t="n">
-        <v>34159431958.9289</v>
-      </c>
-      <c r="Z26" s="9" t="n">
-        <v>23938678150.5467</v>
-      </c>
-      <c r="AA26" s="9" t="n">
-        <v>28065467269.1331</v>
-      </c>
-      <c r="AB26" s="9" t="n">
-        <v>29688146413.3836</v>
-      </c>
-      <c r="AC26" s="9" t="n">
-        <v>26871235561.8919</v>
-      </c>
-      <c r="AD26" s="9" t="n">
-        <v>41911766613.9588</v>
-      </c>
-      <c r="AE26" s="9" t="n">
-        <v>27163604882.0461</v>
-      </c>
-      <c r="AF26" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="O26" s="13" t="n">
+        <v>22335569820.3483</v>
+      </c>
+      <c r="P26" s="13" t="n">
+        <v>29923037990.1248</v>
+      </c>
+      <c r="Q26" s="13" t="n">
+        <v>11691491864.6459</v>
+      </c>
+      <c r="R26" s="13" t="n">
+        <v>31604718227.9688</v>
+      </c>
+      <c r="S26" s="13" t="n">
+        <v>39818606664.7779</v>
+      </c>
+      <c r="T26" s="13" t="n">
+        <v>38210460938.5481</v>
+      </c>
+      <c r="U26" s="13" t="n">
+        <v>30699546230.451</v>
+      </c>
+      <c r="V26" s="13" t="n">
+        <v>29471853898.7883</v>
+      </c>
+      <c r="W26" s="13" t="n">
+        <v>25162408132.2103</v>
+      </c>
+      <c r="X26" s="13" t="n">
+        <v>25512876989.3574</v>
+      </c>
+      <c r="Y26" s="13" t="n">
+        <v>23878561071.4906</v>
+      </c>
+      <c r="Z26" s="13" t="n">
+        <v>23916623735.0204</v>
+      </c>
+      <c r="AA26" s="13" t="n">
+        <v>25389047255.8293</v>
+      </c>
+      <c r="AB26" s="13" t="n">
+        <v>28674762141.7718</v>
+      </c>
+      <c r="AC26" s="13" t="n">
+        <v>21376319909.2767</v>
+      </c>
+      <c r="AD26" s="13" t="n">
+        <v>21863916490.813</v>
+      </c>
+      <c r="AE26" s="13" t="n">
+        <v>21344984676.5069</v>
+      </c>
+      <c r="AF26" s="13"/>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -5425,16 +5431,16 @@
       <c r="B27" t="str">
         <f>N27</f>
       </c>
-      <c r="C27" s="9" t="str">
+      <c r="C27" s="13" t="str">
         <f>AB27</f>
       </c>
-      <c r="D27" s="9" t="str">
+      <c r="D27" s="13" t="str">
         <f>AD27</f>
       </c>
-      <c r="E27" s="9" t="str">
+      <c r="E27" s="13" t="str">
         <f>AE27</f>
       </c>
-      <c r="F27" s="9" t="str">
+      <c r="F27" s="13" t="str">
         <f>AF27</f>
       </c>
       <c r="G27" s="3" t="str">
@@ -5447,69 +5453,69 @@
         <f>AF27/AE27</f>
       </c>
       <c r="J27" s="3" t="str">
-        <f>AE27/Sum(AE$23:AE$41)</f>
+        <f>AE27/Sum(AE$22:AE$39)</f>
       </c>
       <c r="K27" s="3" t="str">
-        <f>AF27/Sum(AF23:AF$41)</f>
+        <f>AF27/Sum(AF22:AF$39)</f>
       </c>
       <c r="M27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N27" t="s">
-        <v>43</v>
-      </c>
-      <c r="O27" s="9" t="n">
-        <v>28905449498.6676</v>
-      </c>
-      <c r="P27" s="9" t="n">
-        <v>35520350546.0184</v>
-      </c>
-      <c r="Q27" s="9" t="n">
-        <v>17290542216.8818</v>
-      </c>
-      <c r="R27" s="9" t="n">
-        <v>40451995337.1894</v>
-      </c>
-      <c r="S27" s="9" t="n">
-        <v>48168460612.4704</v>
-      </c>
-      <c r="T27" s="9" t="n">
-        <v>45517716538.6861</v>
-      </c>
-      <c r="U27" s="9" t="n">
-        <v>37548129494.197</v>
-      </c>
-      <c r="V27" s="9" t="n">
-        <v>37715434568.0957</v>
-      </c>
-      <c r="W27" s="9" t="n">
-        <v>34188868423.043</v>
-      </c>
-      <c r="X27" s="9" t="n">
-        <v>34562657401.7416</v>
-      </c>
-      <c r="Y27" s="9" t="n">
-        <v>33497329727.3143</v>
-      </c>
-      <c r="Z27" s="9" t="n">
-        <v>28411542108.0127</v>
-      </c>
-      <c r="AA27" s="9" t="n">
-        <v>29337562822.909</v>
-      </c>
-      <c r="AB27" s="9" t="n">
-        <v>32004706745.8009</v>
-      </c>
-      <c r="AC27" s="9" t="n">
-        <v>27817350227.1458</v>
-      </c>
-      <c r="AD27" s="9" t="n">
-        <v>31048070390.2362</v>
-      </c>
-      <c r="AE27" s="9" t="n">
-        <v>33301971196.0154</v>
-      </c>
-      <c r="AF27" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="O27" s="13" t="n">
+        <v>12934421221.5324</v>
+      </c>
+      <c r="P27" s="13" t="n">
+        <v>13207794716.1582</v>
+      </c>
+      <c r="Q27" s="13" t="n">
+        <v>11415266832.834</v>
+      </c>
+      <c r="R27" s="13" t="n">
+        <v>9782202334.76978</v>
+      </c>
+      <c r="S27" s="13" t="n">
+        <v>8478409019.86079</v>
+      </c>
+      <c r="T27" s="13" t="n">
+        <v>8009553465.21114</v>
+      </c>
+      <c r="U27" s="13" t="n">
+        <v>7022402836.67149</v>
+      </c>
+      <c r="V27" s="13" t="n">
+        <v>8785404691.92467</v>
+      </c>
+      <c r="W27" s="13" t="n">
+        <v>9297394237.13699</v>
+      </c>
+      <c r="X27" s="13" t="n">
+        <v>9311951239.62718</v>
+      </c>
+      <c r="Y27" s="13" t="n">
+        <v>8280774462.87702</v>
+      </c>
+      <c r="Z27" s="13" t="n">
+        <v>15189159108.3498</v>
+      </c>
+      <c r="AA27" s="13" t="n">
+        <v>15182681461.849</v>
+      </c>
+      <c r="AB27" s="13" t="n">
+        <v>13786425412.1019</v>
+      </c>
+      <c r="AC27" s="13" t="n">
+        <v>12670550126.8905</v>
+      </c>
+      <c r="AD27" s="13" t="n">
+        <v>12577286209.6011</v>
+      </c>
+      <c r="AE27" s="13" t="n">
+        <v>12723722281.9879</v>
+      </c>
+      <c r="AF27" s="13"/>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -5518,16 +5524,16 @@
       <c r="B28" t="str">
         <f>N28</f>
       </c>
-      <c r="C28" s="9" t="str">
+      <c r="C28" s="13" t="str">
         <f>AB28</f>
       </c>
-      <c r="D28" s="9" t="str">
+      <c r="D28" s="13" t="str">
         <f>AD28</f>
       </c>
-      <c r="E28" s="9" t="str">
+      <c r="E28" s="13" t="str">
         <f>AE28</f>
       </c>
-      <c r="F28" s="9" t="str">
+      <c r="F28" s="13" t="str">
         <f>AF28</f>
       </c>
       <c r="G28" s="3" t="str">
@@ -5540,69 +5546,69 @@
         <f>AF28/AE28</f>
       </c>
       <c r="J28" s="3" t="str">
-        <f>AE28/Sum(AE$23:AE$41)</f>
+        <f>AE28/Sum(AE$22:AE$39)</f>
       </c>
       <c r="K28" s="3" t="str">
-        <f>AF28/Sum(AF23:AF$41)</f>
+        <f>AF28/Sum(AF22:AF$39)</f>
       </c>
       <c r="M28" t="s">
         <v>50</v>
       </c>
       <c r="N28" t="s">
-        <v>40</v>
-      </c>
-      <c r="O28" s="9" t="n">
-        <v>14294269118.6714</v>
-      </c>
-      <c r="P28" s="9" t="n">
-        <v>14946543280.526</v>
-      </c>
-      <c r="Q28" s="9" t="n">
-        <v>12562759757.6282</v>
-      </c>
-      <c r="R28" s="9" t="n">
-        <v>10467565293.5369</v>
-      </c>
-      <c r="S28" s="9" t="n">
-        <v>8918625389.22816</v>
-      </c>
-      <c r="T28" s="9" t="n">
-        <v>8663624761.43503</v>
-      </c>
-      <c r="U28" s="9" t="n">
-        <v>7296851459.56864</v>
-      </c>
-      <c r="V28" s="9" t="n">
-        <v>9174775867.94883</v>
-      </c>
-      <c r="W28" s="9" t="n">
-        <v>9697635231.98454</v>
-      </c>
-      <c r="X28" s="9" t="n">
-        <v>9599330433.77419</v>
-      </c>
-      <c r="Y28" s="9" t="n">
-        <v>8728348611.9145</v>
-      </c>
-      <c r="Z28" s="9" t="n">
-        <v>15594694662.8298</v>
-      </c>
-      <c r="AA28" s="9" t="n">
-        <v>15559158125.7633</v>
-      </c>
-      <c r="AB28" s="9" t="n">
-        <v>14505983726.6789</v>
-      </c>
-      <c r="AC28" s="9" t="n">
-        <v>12917973527.1237</v>
-      </c>
-      <c r="AD28" s="9" t="n">
-        <v>12173110760.9404</v>
-      </c>
-      <c r="AE28" s="9" t="n">
-        <v>12484524362.2018</v>
-      </c>
-      <c r="AF28" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="O28" s="13" t="n">
+        <v>16620911815.3092</v>
+      </c>
+      <c r="P28" s="13" t="n">
+        <v>15609560016.05</v>
+      </c>
+      <c r="Q28" s="13" t="n">
+        <v>15842150054.9279</v>
+      </c>
+      <c r="R28" s="13" t="n">
+        <v>14781342810.9632</v>
+      </c>
+      <c r="S28" s="13" t="n">
+        <v>19180315345.407</v>
+      </c>
+      <c r="T28" s="13" t="n">
+        <v>17308620462.9684</v>
+      </c>
+      <c r="U28" s="13" t="n">
+        <v>13904988157.0779</v>
+      </c>
+      <c r="V28" s="13" t="n">
+        <v>14003250645.9381</v>
+      </c>
+      <c r="W28" s="13" t="n">
+        <v>13639374402.7499</v>
+      </c>
+      <c r="X28" s="13" t="n">
+        <v>12566503357.2048</v>
+      </c>
+      <c r="Y28" s="13" t="n">
+        <v>13723063047.6849</v>
+      </c>
+      <c r="Z28" s="13" t="n">
+        <v>16508094751.8032</v>
+      </c>
+      <c r="AA28" s="13" t="n">
+        <v>16211843585.8947</v>
+      </c>
+      <c r="AB28" s="13" t="n">
+        <v>15289070280.9898</v>
+      </c>
+      <c r="AC28" s="13" t="n">
+        <v>12466202122.7599</v>
+      </c>
+      <c r="AD28" s="13" t="n">
+        <v>12332917545.8821</v>
+      </c>
+      <c r="AE28" s="13" t="n">
+        <v>8499159403.4485</v>
+      </c>
+      <c r="AF28" s="13"/>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -5611,16 +5617,16 @@
       <c r="B29" t="str">
         <f>N29</f>
       </c>
-      <c r="C29" s="9" t="str">
+      <c r="C29" s="13" t="str">
         <f>AB29</f>
       </c>
-      <c r="D29" s="9" t="str">
+      <c r="D29" s="13" t="str">
         <f>AD29</f>
       </c>
-      <c r="E29" s="9" t="str">
+      <c r="E29" s="13" t="str">
         <f>AE29</f>
       </c>
-      <c r="F29" s="9" t="str">
+      <c r="F29" s="13" t="str">
         <f>AF29</f>
       </c>
       <c r="G29" s="3" t="str">
@@ -5633,69 +5639,69 @@
         <f>AF29/AE29</f>
       </c>
       <c r="J29" s="3" t="str">
-        <f>AE29/Sum(AE$23:AE$41)</f>
+        <f>AE29/Sum(AE$22:AE$39)</f>
       </c>
       <c r="K29" s="3" t="str">
-        <f>AF29/Sum(AF23:AF$41)</f>
+        <f>AF29/Sum(AF22:AF$39)</f>
       </c>
       <c r="M29" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N29" t="s">
-        <v>43</v>
-      </c>
-      <c r="O29" s="9" t="n">
-        <v>15278408943.2979</v>
-      </c>
-      <c r="P29" s="9" t="n">
-        <v>13859372225.2449</v>
-      </c>
-      <c r="Q29" s="9" t="n">
-        <v>14697319992.8448</v>
-      </c>
-      <c r="R29" s="9" t="n">
-        <v>14092694581.2504</v>
-      </c>
-      <c r="S29" s="9" t="n">
-        <v>18738956427.1213</v>
-      </c>
-      <c r="T29" s="9" t="n">
-        <v>16651480669.8392</v>
-      </c>
-      <c r="U29" s="9" t="n">
-        <v>13629801281.9177</v>
-      </c>
-      <c r="V29" s="9" t="n">
-        <v>13612619751.1916</v>
-      </c>
-      <c r="W29" s="9" t="n">
-        <v>13239488363.8642</v>
-      </c>
-      <c r="X29" s="9" t="n">
-        <v>12279635703.885</v>
-      </c>
-      <c r="Y29" s="9" t="n">
-        <v>13275113825.7621</v>
-      </c>
-      <c r="Z29" s="9" t="n">
-        <v>16102386492.3286</v>
-      </c>
-      <c r="AA29" s="9" t="n">
-        <v>15835366921.9804</v>
-      </c>
-      <c r="AB29" s="9" t="n">
-        <v>14569511966.4128</v>
-      </c>
-      <c r="AC29" s="9" t="n">
-        <v>12218778722.5267</v>
-      </c>
-      <c r="AD29" s="9" t="n">
-        <v>12737057740.2291</v>
-      </c>
-      <c r="AE29" s="9" t="n">
-        <v>8757199136.17</v>
-      </c>
-      <c r="AF29" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="O29" s="13" t="n">
+        <v>529836.644742355</v>
+      </c>
+      <c r="P29" s="13" t="n">
+        <v>13885173.8185951</v>
+      </c>
+      <c r="Q29" s="13" t="n">
+        <v>23006581.6312027</v>
+      </c>
+      <c r="R29" s="13" t="n">
+        <v>473565965.936908</v>
+      </c>
+      <c r="S29" s="13" t="n">
+        <v>843320436.451411</v>
+      </c>
+      <c r="T29" s="13" t="n">
+        <v>957771731.993341</v>
+      </c>
+      <c r="U29" s="13" t="n">
+        <v>751216576.496738</v>
+      </c>
+      <c r="V29" s="13" t="n">
+        <v>545892925.396868</v>
+      </c>
+      <c r="W29" s="13" t="n">
+        <v>599410783.368009</v>
+      </c>
+      <c r="X29" s="13" t="n">
+        <v>936110156.092302</v>
+      </c>
+      <c r="Y29" s="13" t="n">
+        <v>1480550852.22249</v>
+      </c>
+      <c r="Z29" s="13" t="n">
+        <v>2596622289.94031</v>
+      </c>
+      <c r="AA29" s="13" t="n">
+        <v>2097893987.88952</v>
+      </c>
+      <c r="AB29" s="13" t="n">
+        <v>1915633921.84376</v>
+      </c>
+      <c r="AC29" s="13" t="n">
+        <v>2001252194.32361</v>
+      </c>
+      <c r="AD29" s="13" t="n">
+        <v>3619016357.08656</v>
+      </c>
+      <c r="AE29" s="13" t="n">
+        <v>1942123630.1997</v>
+      </c>
+      <c r="AF29" s="13"/>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -5704,16 +5710,16 @@
       <c r="B30" t="str">
         <f>N30</f>
       </c>
-      <c r="C30" s="9" t="str">
+      <c r="C30" s="13" t="str">
         <f>AB30</f>
       </c>
-      <c r="D30" s="9" t="str">
+      <c r="D30" s="13" t="str">
         <f>AD30</f>
       </c>
-      <c r="E30" s="9" t="str">
+      <c r="E30" s="13" t="str">
         <f>AE30</f>
       </c>
-      <c r="F30" s="9" t="str">
+      <c r="F30" s="13" t="str">
         <f>AF30</f>
       </c>
       <c r="G30" s="3" t="str">
@@ -5726,69 +5732,69 @@
         <f>AF30/AE30</f>
       </c>
       <c r="J30" s="3" t="str">
-        <f>AE30/Sum(AE$23:AE$41)</f>
+        <f>AE30/Sum(AE$22:AE$39)</f>
       </c>
       <c r="K30" s="3" t="str">
-        <f>AF30/Sum(AF23:AF$41)</f>
+        <f>AF30/Sum(AF22:AF$39)</f>
       </c>
       <c r="M30" t="s">
         <v>58</v>
       </c>
       <c r="N30" t="s">
-        <v>40</v>
-      </c>
-      <c r="O30" s="9" t="n">
-        <v>6897912.25726192</v>
-      </c>
-      <c r="P30" s="9" t="n">
-        <v>13885173.8185951</v>
-      </c>
-      <c r="Q30" s="9" t="n">
-        <v>23102688.930664</v>
-      </c>
-      <c r="R30" s="9" t="n">
-        <v>513214268.488699</v>
-      </c>
-      <c r="S30" s="9" t="n">
-        <v>1622658652.68443</v>
-      </c>
-      <c r="T30" s="9" t="n">
-        <v>2484330308.30501</v>
-      </c>
-      <c r="U30" s="9" t="n">
-        <v>1226247517.87454</v>
-      </c>
-      <c r="V30" s="9" t="n">
-        <v>1376620158.45245</v>
-      </c>
-      <c r="W30" s="9" t="n">
-        <v>1362348485.25707</v>
-      </c>
-      <c r="X30" s="9" t="n">
-        <v>2241500528.69108</v>
-      </c>
-      <c r="Y30" s="9" t="n">
-        <v>4573323112.20829</v>
-      </c>
-      <c r="Z30" s="9" t="n">
-        <v>3671883572.8402</v>
-      </c>
-      <c r="AA30" s="9" t="n">
-        <v>4121175622.78338</v>
-      </c>
-      <c r="AB30" s="9" t="n">
-        <v>4127649038.41478</v>
-      </c>
-      <c r="AC30" s="9" t="n">
-        <v>2750619741.02132</v>
-      </c>
-      <c r="AD30" s="9" t="n">
-        <v>4785490262.35678</v>
-      </c>
-      <c r="AE30" s="9" t="n">
-        <v>2076520940.4654</v>
-      </c>
-      <c r="AF30" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="O30" s="13" t="n">
+        <v>180053651.523716</v>
+      </c>
+      <c r="P30" s="13" t="n">
+        <v>75563242.4972936</v>
+      </c>
+      <c r="Q30" s="13" t="n">
+        <v>537330892.537575</v>
+      </c>
+      <c r="R30" s="13" t="n">
+        <v>14264023978.3383</v>
+      </c>
+      <c r="S30" s="13" t="n">
+        <v>57233426930.4224</v>
+      </c>
+      <c r="T30" s="13" t="n">
+        <v>73284261378.7015</v>
+      </c>
+      <c r="U30" s="13" t="n">
+        <v>60955598049.7189</v>
+      </c>
+      <c r="V30" s="13" t="n">
+        <v>56391555523.3307</v>
+      </c>
+      <c r="W30" s="13" t="n">
+        <v>55896473303.0458</v>
+      </c>
+      <c r="X30" s="13" t="n">
+        <v>64142079322.815</v>
+      </c>
+      <c r="Y30" s="13" t="n">
+        <v>72224500485.3592</v>
+      </c>
+      <c r="Z30" s="13" t="n">
+        <v>91984644249.6953</v>
+      </c>
+      <c r="AA30" s="13" t="n">
+        <v>96077357914.4246</v>
+      </c>
+      <c r="AB30" s="13" t="n">
+        <v>102566782070.852</v>
+      </c>
+      <c r="AC30" s="13" t="n">
+        <v>95996190731.8403</v>
+      </c>
+      <c r="AD30" s="13" t="n">
+        <v>91343679591.283</v>
+      </c>
+      <c r="AE30" s="13" t="n">
+        <v>59389185605.2414</v>
+      </c>
+      <c r="AF30" s="13"/>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -5797,16 +5803,16 @@
       <c r="B31" t="str">
         <f>N31</f>
       </c>
-      <c r="C31" s="9" t="str">
+      <c r="C31" s="13" t="str">
         <f>AB31</f>
       </c>
-      <c r="D31" s="9" t="str">
+      <c r="D31" s="13" t="str">
         <f>AD31</f>
       </c>
-      <c r="E31" s="9" t="str">
+      <c r="E31" s="13" t="str">
         <f>AE31</f>
       </c>
-      <c r="F31" s="9" t="str">
+      <c r="F31" s="13" t="str">
         <f>AF31</f>
       </c>
       <c r="G31" s="3" t="str">
@@ -5819,69 +5825,69 @@
         <f>AF31/AE31</f>
       </c>
       <c r="J31" s="3" t="str">
-        <f>AE31/Sum(AE$23:AE$41)</f>
+        <f>AE31/Sum(AE$22:AE$39)</f>
       </c>
       <c r="K31" s="3" t="str">
-        <f>AF31/Sum(AF23:AF$41)</f>
+        <f>AF31/Sum(AF22:AF$39)</f>
       </c>
       <c r="M31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N31" t="s">
         <v>43</v>
       </c>
-      <c r="O31" s="9" t="n">
-        <v>173685575.911196</v>
-      </c>
-      <c r="P31" s="9" t="n">
-        <v>75563242.4972936</v>
-      </c>
-      <c r="Q31" s="9" t="n">
-        <v>537234785.238114</v>
-      </c>
-      <c r="R31" s="9" t="n">
-        <v>14224375675.7865</v>
-      </c>
-      <c r="S31" s="9" t="n">
-        <v>56386160665.1557</v>
-      </c>
-      <c r="T31" s="9" t="n">
-        <v>71767051030.2011</v>
-      </c>
-      <c r="U31" s="9" t="n">
-        <v>60465081476.2742</v>
-      </c>
-      <c r="V31" s="9" t="n">
-        <v>55525878671.4186</v>
-      </c>
-      <c r="W31" s="9" t="n">
-        <v>55122740966.5721</v>
-      </c>
-      <c r="X31" s="9" t="n">
-        <v>62845153912.9054</v>
-      </c>
-      <c r="Y31" s="9" t="n">
-        <v>69087992571.8098</v>
-      </c>
-      <c r="Z31" s="9" t="n">
-        <v>90819648848.8026</v>
-      </c>
-      <c r="AA31" s="9" t="n">
-        <v>93982592428.8516</v>
-      </c>
-      <c r="AB31" s="9" t="n">
-        <v>100383928203.093</v>
-      </c>
-      <c r="AC31" s="9" t="n">
-        <v>95369893248.7136</v>
-      </c>
-      <c r="AD31" s="9" t="n">
-        <v>90436735503.6936</v>
-      </c>
-      <c r="AE31" s="9" t="n">
-        <v>59404120556.1747</v>
-      </c>
-      <c r="AF31" s="9"/>
+      <c r="O31" s="13" t="n">
+        <v>111088255772.911</v>
+      </c>
+      <c r="P31" s="13" t="n">
+        <v>123138320228.401</v>
+      </c>
+      <c r="Q31" s="13" t="n">
+        <v>144505644765.899</v>
+      </c>
+      <c r="R31" s="13" t="n">
+        <v>177116380820.767</v>
+      </c>
+      <c r="S31" s="13" t="n">
+        <v>156478143750.133</v>
+      </c>
+      <c r="T31" s="13" t="n">
+        <v>150305941245.104</v>
+      </c>
+      <c r="U31" s="13" t="n">
+        <v>148152681069.895</v>
+      </c>
+      <c r="V31" s="13" t="n">
+        <v>121790715050.942</v>
+      </c>
+      <c r="W31" s="13" t="n">
+        <v>120985177086.345</v>
+      </c>
+      <c r="X31" s="13" t="n">
+        <v>143246813417.291</v>
+      </c>
+      <c r="Y31" s="13" t="n">
+        <v>148419285430.795</v>
+      </c>
+      <c r="Z31" s="13" t="n">
+        <v>145326946046.844</v>
+      </c>
+      <c r="AA31" s="13" t="n">
+        <v>157116046947.798</v>
+      </c>
+      <c r="AB31" s="13" t="n">
+        <v>180404032416.85</v>
+      </c>
+      <c r="AC31" s="13" t="n">
+        <v>120115500796.549</v>
+      </c>
+      <c r="AD31" s="13" t="n">
+        <v>124771012530.695</v>
+      </c>
+      <c r="AE31" s="13" t="n">
+        <v>194731326724.396</v>
+      </c>
+      <c r="AF31" s="13"/>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -5890,16 +5896,16 @@
       <c r="B32" t="str">
         <f>N32</f>
       </c>
-      <c r="C32" s="9" t="str">
+      <c r="C32" s="13" t="str">
         <f>AB32</f>
       </c>
-      <c r="D32" s="9" t="str">
+      <c r="D32" s="13" t="str">
         <f>AD32</f>
       </c>
-      <c r="E32" s="9" t="str">
+      <c r="E32" s="13" t="str">
         <f>AE32</f>
       </c>
-      <c r="F32" s="9" t="str">
+      <c r="F32" s="13" t="str">
         <f>AF32</f>
       </c>
       <c r="G32" s="3" t="str">
@@ -5912,69 +5918,69 @@
         <f>AF32/AE32</f>
       </c>
       <c r="J32" s="3" t="str">
-        <f>AE32/Sum(AE$23:AE$41)</f>
+        <f>AE32/Sum(AE$22:AE$39)</f>
       </c>
       <c r="K32" s="3" t="str">
-        <f>AF32/Sum(AF23:AF$41)</f>
+        <f>AF32/Sum(AF22:AF$39)</f>
       </c>
       <c r="M32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N32" t="s">
         <v>40</v>
       </c>
-      <c r="O32" s="9" t="n">
-        <v>11081326163.8317</v>
-      </c>
-      <c r="P32" s="9" t="n">
-        <v>11447778057.2763</v>
-      </c>
-      <c r="Q32" s="9" t="n">
-        <v>10681106768.2668</v>
-      </c>
-      <c r="R32" s="9" t="n">
-        <v>9499338035.61011</v>
-      </c>
-      <c r="S32" s="9" t="n">
-        <v>2120464998.29722</v>
-      </c>
-      <c r="T32" s="9" t="n">
-        <v>4988491044.66079</v>
-      </c>
-      <c r="U32" s="9" t="n">
-        <v>4101193485.59845</v>
-      </c>
-      <c r="V32" s="9" t="n">
-        <v>4294501467.2723</v>
-      </c>
-      <c r="W32" s="9" t="n">
-        <v>3726640860.33707</v>
-      </c>
-      <c r="X32" s="9" t="n">
-        <v>3723965713.14435</v>
-      </c>
-      <c r="Y32" s="9" t="n">
-        <v>2860451972.94533</v>
-      </c>
-      <c r="Z32" s="9" t="n">
-        <v>496733594.963386</v>
-      </c>
-      <c r="AA32" s="9" t="n">
-        <v>4083901921.48299</v>
-      </c>
-      <c r="AB32" s="9" t="n">
-        <v>1777807314.90349</v>
-      </c>
-      <c r="AC32" s="9" t="n">
-        <v>413715041.415498</v>
-      </c>
-      <c r="AD32" s="9" t="n">
-        <v>1151567598.39561</v>
-      </c>
-      <c r="AE32" s="9" t="n">
-        <v>385133330.092</v>
-      </c>
-      <c r="AF32" s="9"/>
+      <c r="O32" s="13" t="n">
+        <v>4927975.24543857</v>
+      </c>
+      <c r="P32" s="13" t="n">
+        <v>10138331.6768421</v>
+      </c>
+      <c r="Q32" s="13" t="n">
+        <v>6559574.13976913</v>
+      </c>
+      <c r="R32" s="13" t="n">
+        <v>-530002.633965152</v>
+      </c>
+      <c r="S32" s="13" t="n">
+        <v>756423.842348394</v>
+      </c>
+      <c r="T32" s="13" t="n">
+        <v>3597300.3627095</v>
+      </c>
+      <c r="U32" s="13" t="n">
+        <v>953544.880939329</v>
+      </c>
+      <c r="V32" s="13" t="n">
+        <v>2100234.12194165</v>
+      </c>
+      <c r="W32" s="13" t="n">
+        <v>860999.023632689</v>
+      </c>
+      <c r="X32" s="13" t="n">
+        <v>9268393.16624881</v>
+      </c>
+      <c r="Y32" s="13" t="n">
+        <v>18969615.411275</v>
+      </c>
+      <c r="Z32" s="13" t="n">
+        <v>12065005.5308147</v>
+      </c>
+      <c r="AA32" s="13" t="n">
+        <v>58918679.9636052</v>
+      </c>
+      <c r="AB32" s="13" t="n">
+        <v>5331743.09679972</v>
+      </c>
+      <c r="AC32" s="13" t="n">
+        <v>21077740.3019894</v>
+      </c>
+      <c r="AD32" s="13" t="n">
+        <v>6697698.44392739</v>
+      </c>
+      <c r="AE32" s="13" t="n">
+        <v>3009276.3125</v>
+      </c>
+      <c r="AF32" s="13"/>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -5983,16 +5989,16 @@
       <c r="B33" t="str">
         <f>N33</f>
       </c>
-      <c r="C33" s="9" t="str">
+      <c r="C33" s="13" t="str">
         <f>AB33</f>
       </c>
-      <c r="D33" s="9" t="str">
+      <c r="D33" s="13" t="str">
         <f>AD33</f>
       </c>
-      <c r="E33" s="9" t="str">
+      <c r="E33" s="13" t="str">
         <f>AE33</f>
       </c>
-      <c r="F33" s="9" t="str">
+      <c r="F33" s="13" t="str">
         <f>AF33</f>
       </c>
       <c r="G33" s="3" t="str">
@@ -6005,69 +6011,69 @@
         <f>AF33/AE33</f>
       </c>
       <c r="J33" s="3" t="str">
-        <f>AE33/Sum(AE$23:AE$41)</f>
+        <f>AE33/Sum(AE$22:AE$39)</f>
       </c>
       <c r="K33" s="3" t="str">
-        <f>AF33/Sum(AF23:AF$41)</f>
+        <f>AF33/Sum(AF22:AF$39)</f>
       </c>
       <c r="M33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N33" t="s">
         <v>43</v>
       </c>
-      <c r="O33" s="9" t="n">
-        <v>100006929609.079</v>
-      </c>
-      <c r="P33" s="9" t="n">
-        <v>111690542171.124</v>
-      </c>
-      <c r="Q33" s="9" t="n">
-        <v>133824537997.632</v>
-      </c>
-      <c r="R33" s="9" t="n">
-        <v>167617042785.157</v>
-      </c>
-      <c r="S33" s="9" t="n">
-        <v>154357678751.836</v>
-      </c>
-      <c r="T33" s="9" t="n">
-        <v>145317450200.443</v>
-      </c>
-      <c r="U33" s="9" t="n">
-        <v>144051487584.297</v>
-      </c>
-      <c r="V33" s="9" t="n">
-        <v>117496213583.669</v>
-      </c>
-      <c r="W33" s="9" t="n">
-        <v>117258536226.008</v>
-      </c>
-      <c r="X33" s="9" t="n">
-        <v>139522847704.147</v>
-      </c>
-      <c r="Y33" s="9" t="n">
-        <v>145558833457.85</v>
-      </c>
-      <c r="Z33" s="9" t="n">
-        <v>144830212451.88</v>
-      </c>
-      <c r="AA33" s="9" t="n">
-        <v>153032145026.315</v>
-      </c>
-      <c r="AB33" s="9" t="n">
-        <v>178626225101.947</v>
-      </c>
-      <c r="AC33" s="9" t="n">
-        <v>119701785755.133</v>
-      </c>
-      <c r="AD33" s="9" t="n">
-        <v>123619444932.3</v>
-      </c>
-      <c r="AE33" s="9" t="n">
-        <v>194346193394.303</v>
-      </c>
-      <c r="AF33" s="9"/>
+      <c r="O33" s="13" t="n">
+        <v>129494665.991222</v>
+      </c>
+      <c r="P33" s="13" t="n">
+        <v>377017676.972643</v>
+      </c>
+      <c r="Q33" s="13" t="n">
+        <v>164705115.519292</v>
+      </c>
+      <c r="R33" s="13" t="n">
+        <v>3052336970.05866</v>
+      </c>
+      <c r="S33" s="13" t="n">
+        <v>620639379.059586</v>
+      </c>
+      <c r="T33" s="13" t="n">
+        <v>428082124.158577</v>
+      </c>
+      <c r="U33" s="13" t="n">
+        <v>264005381.730712</v>
+      </c>
+      <c r="V33" s="13" t="n">
+        <v>319864252.59757</v>
+      </c>
+      <c r="W33" s="13" t="n">
+        <v>155895886.847221</v>
+      </c>
+      <c r="X33" s="13" t="n">
+        <v>233122510.00642</v>
+      </c>
+      <c r="Y33" s="13" t="n">
+        <v>153787934.235354</v>
+      </c>
+      <c r="Z33" s="13" t="n">
+        <v>168701065.6176</v>
+      </c>
+      <c r="AA33" s="13" t="n">
+        <v>367214234.446343</v>
+      </c>
+      <c r="AB33" s="13" t="n">
+        <v>380138051.906108</v>
+      </c>
+      <c r="AC33" s="13" t="n">
+        <v>333792378.138851</v>
+      </c>
+      <c r="AD33" s="13" t="n">
+        <v>356041881.589343</v>
+      </c>
+      <c r="AE33" s="13" t="n">
+        <v>643485539.1533</v>
+      </c>
+      <c r="AF33" s="13"/>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -6076,16 +6082,16 @@
       <c r="B34" t="str">
         <f>N34</f>
       </c>
-      <c r="C34" s="9" t="str">
+      <c r="C34" s="13" t="str">
         <f>AB34</f>
       </c>
-      <c r="D34" s="9" t="str">
+      <c r="D34" s="13" t="str">
         <f>AD34</f>
       </c>
-      <c r="E34" s="9" t="str">
+      <c r="E34" s="13" t="str">
         <f>AE34</f>
       </c>
-      <c r="F34" s="9" t="str">
+      <c r="F34" s="13" t="str">
         <f>AF34</f>
       </c>
       <c r="G34" s="3" t="str">
@@ -6098,69 +6104,69 @@
         <f>AF34/AE34</f>
       </c>
       <c r="J34" s="3" t="str">
-        <f>AE34/Sum(AE$23:AE$41)</f>
+        <f>AE34/Sum(AE$22:AE$39)</f>
       </c>
       <c r="K34" s="3" t="str">
-        <f>AF34/Sum(AF23:AF$41)</f>
+        <f>AF34/Sum(AF22:AF$39)</f>
       </c>
       <c r="M34" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N34" t="s">
         <v>40</v>
       </c>
-      <c r="O34" s="9" t="n">
-        <v>4927975.24543857</v>
-      </c>
-      <c r="P34" s="9" t="n">
-        <v>10156640.0963325</v>
-      </c>
-      <c r="Q34" s="9" t="n">
-        <v>6559574.13976913</v>
-      </c>
-      <c r="R34" s="9" t="n">
-        <v>-530002.633965152</v>
-      </c>
-      <c r="S34" s="9" t="n">
-        <v>756423.842348394</v>
-      </c>
-      <c r="T34" s="9" t="n">
-        <v>3597300.3627095</v>
-      </c>
-      <c r="U34" s="9" t="n">
-        <v>953544.880939329</v>
-      </c>
-      <c r="V34" s="9" t="n">
-        <v>2100234.12194165</v>
-      </c>
-      <c r="W34" s="9" t="n">
-        <v>860999.023632689</v>
-      </c>
-      <c r="X34" s="9" t="n">
-        <v>9268393.16624881</v>
-      </c>
-      <c r="Y34" s="9" t="n">
-        <v>18969615.411275</v>
-      </c>
-      <c r="Z34" s="9" t="n">
-        <v>12065005.5308147</v>
-      </c>
-      <c r="AA34" s="9" t="n">
-        <v>58918679.9636052</v>
-      </c>
-      <c r="AB34" s="9" t="n">
-        <v>750872.466361167</v>
-      </c>
-      <c r="AC34" s="9" t="n">
-        <v>21077740.3019894</v>
-      </c>
-      <c r="AD34" s="9" t="n">
-        <v>6697698.44392739</v>
-      </c>
-      <c r="AE34" s="9" t="n">
-        <v>3009276.3125</v>
-      </c>
-      <c r="AF34" s="9"/>
+      <c r="O34" s="13" t="n">
+        <v>16441635563.8919</v>
+      </c>
+      <c r="P34" s="13" t="n">
+        <v>13872640294.2481</v>
+      </c>
+      <c r="Q34" s="13" t="n">
+        <v>9388846274.89913</v>
+      </c>
+      <c r="R34" s="13" t="n">
+        <v>6452679851.97572</v>
+      </c>
+      <c r="S34" s="13" t="n">
+        <v>4175622853.73578</v>
+      </c>
+      <c r="T34" s="13" t="n">
+        <v>3068379652.02286</v>
+      </c>
+      <c r="U34" s="13" t="n">
+        <v>2798319393.96219</v>
+      </c>
+      <c r="V34" s="13" t="n">
+        <v>1645348229.74133</v>
+      </c>
+      <c r="W34" s="13" t="n">
+        <v>2385756152.08176</v>
+      </c>
+      <c r="X34" s="13" t="n">
+        <v>1362580896.21716</v>
+      </c>
+      <c r="Y34" s="13" t="n">
+        <v>1491762627.85421</v>
+      </c>
+      <c r="Z34" s="13" t="n">
+        <v>1742646499.33167</v>
+      </c>
+      <c r="AA34" s="13" t="n">
+        <v>1969009833.89659</v>
+      </c>
+      <c r="AB34" s="13" t="n">
+        <v>1931823416.57386</v>
+      </c>
+      <c r="AC34" s="13" t="n">
+        <v>1779260726.06858</v>
+      </c>
+      <c r="AD34" s="13" t="n">
+        <v>2120304111.03891</v>
+      </c>
+      <c r="AE34" s="13" t="n">
+        <v>4477169390.5106</v>
+      </c>
+      <c r="AF34" s="13"/>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -6169,16 +6175,16 @@
       <c r="B35" t="str">
         <f>N35</f>
       </c>
-      <c r="C35" s="9" t="str">
+      <c r="C35" s="13" t="str">
         <f>AB35</f>
       </c>
-      <c r="D35" s="9" t="str">
+      <c r="D35" s="13" t="str">
         <f>AD35</f>
       </c>
-      <c r="E35" s="9" t="str">
+      <c r="E35" s="13" t="str">
         <f>AE35</f>
       </c>
-      <c r="F35" s="9" t="str">
+      <c r="F35" s="13" t="str">
         <f>AF35</f>
       </c>
       <c r="G35" s="3" t="str">
@@ -6191,69 +6197,69 @@
         <f>AF35/AE35</f>
       </c>
       <c r="J35" s="3" t="str">
-        <f>AE35/Sum(AE$23:AE$41)</f>
+        <f>AE35/Sum(AE$22:AE$39)</f>
       </c>
       <c r="K35" s="3" t="str">
-        <f>AF35/Sum(AF23:AF$41)</f>
+        <f>AF35/Sum(AF22:AF$39)</f>
       </c>
       <c r="M35" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N35" t="s">
         <v>43</v>
       </c>
-      <c r="O35" s="9" t="n">
-        <v>129494665.991222</v>
-      </c>
-      <c r="P35" s="9" t="n">
-        <v>376999368.553153</v>
-      </c>
-      <c r="Q35" s="9" t="n">
-        <v>164705115.519292</v>
-      </c>
-      <c r="R35" s="9" t="n">
-        <v>3052336970.05866</v>
-      </c>
-      <c r="S35" s="9" t="n">
-        <v>620639379.059586</v>
-      </c>
-      <c r="T35" s="9" t="n">
-        <v>428082124.158577</v>
-      </c>
-      <c r="U35" s="9" t="n">
-        <v>264005381.730712</v>
-      </c>
-      <c r="V35" s="9" t="n">
-        <v>319864252.59757</v>
-      </c>
-      <c r="W35" s="9" t="n">
-        <v>155895886.847221</v>
-      </c>
-      <c r="X35" s="9" t="n">
-        <v>233122510.00642</v>
-      </c>
-      <c r="Y35" s="9" t="n">
-        <v>153787934.235354</v>
-      </c>
-      <c r="Z35" s="9" t="n">
-        <v>168701065.6176</v>
-      </c>
-      <c r="AA35" s="9" t="n">
-        <v>367214234.446343</v>
-      </c>
-      <c r="AB35" s="9" t="n">
-        <v>384718922.536547</v>
-      </c>
-      <c r="AC35" s="9" t="n">
-        <v>333792378.138851</v>
-      </c>
-      <c r="AD35" s="9" t="n">
-        <v>356041881.589343</v>
-      </c>
-      <c r="AE35" s="9" t="n">
-        <v>643485539.1533</v>
-      </c>
-      <c r="AF35" s="9"/>
+      <c r="O35" s="13" t="n">
+        <v>147153612569.179</v>
+      </c>
+      <c r="P35" s="13" t="n">
+        <v>164420210501.657</v>
+      </c>
+      <c r="Q35" s="13" t="n">
+        <v>153095551077.416</v>
+      </c>
+      <c r="R35" s="13" t="n">
+        <v>99133961247.3784</v>
+      </c>
+      <c r="S35" s="13" t="n">
+        <v>69239926254.2744</v>
+      </c>
+      <c r="T35" s="13" t="n">
+        <v>42730646467.4167</v>
+      </c>
+      <c r="U35" s="13" t="n">
+        <v>23974436712.4759</v>
+      </c>
+      <c r="V35" s="13" t="n">
+        <v>20314232201.0919</v>
+      </c>
+      <c r="W35" s="13" t="n">
+        <v>15990151116.3622</v>
+      </c>
+      <c r="X35" s="13" t="n">
+        <v>13745352770.8921</v>
+      </c>
+      <c r="Y35" s="13" t="n">
+        <v>15116598869.0337</v>
+      </c>
+      <c r="Z35" s="13" t="n">
+        <v>13993013802.1368</v>
+      </c>
+      <c r="AA35" s="13" t="n">
+        <v>12401734985.2125</v>
+      </c>
+      <c r="AB35" s="13" t="n">
+        <v>14587012514.7497</v>
+      </c>
+      <c r="AC35" s="13" t="n">
+        <v>13454323199.1341</v>
+      </c>
+      <c r="AD35" s="13" t="n">
+        <v>11669529367.0915</v>
+      </c>
+      <c r="AE35" s="13" t="n">
+        <v>25833604840.0789</v>
+      </c>
+      <c r="AF35" s="13"/>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -6262,16 +6268,16 @@
       <c r="B36" t="str">
         <f>N36</f>
       </c>
-      <c r="C36" s="9" t="str">
+      <c r="C36" s="13" t="str">
         <f>AB36</f>
       </c>
-      <c r="D36" s="9" t="str">
+      <c r="D36" s="13" t="str">
         <f>AD36</f>
       </c>
-      <c r="E36" s="9" t="str">
+      <c r="E36" s="13" t="str">
         <f>AE36</f>
       </c>
-      <c r="F36" s="9" t="str">
+      <c r="F36" s="13" t="str">
         <f>AF36</f>
       </c>
       <c r="G36" s="3" t="str">
@@ -6284,69 +6290,69 @@
         <f>AF36/AE36</f>
       </c>
       <c r="J36" s="3" t="str">
-        <f>AE36/Sum(AE$23:AE$41)</f>
+        <f>AE36/Sum(AE$22:AE$39)</f>
       </c>
       <c r="K36" s="3" t="str">
-        <f>AF36/Sum(AF23:AF$41)</f>
+        <f>AF36/Sum(AF22:AF$39)</f>
       </c>
       <c r="M36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N36" t="s">
         <v>40</v>
       </c>
-      <c r="O36" s="9" t="n">
-        <v>20096300367.6935</v>
-      </c>
-      <c r="P36" s="9" t="n">
-        <v>15985104110.2386</v>
-      </c>
-      <c r="Q36" s="9" t="n">
-        <v>11051301679.3354</v>
-      </c>
-      <c r="R36" s="9" t="n">
-        <v>6861428245.02892</v>
-      </c>
-      <c r="S36" s="9" t="n">
-        <v>5271068833.92491</v>
-      </c>
-      <c r="T36" s="9" t="n">
-        <v>4021994395.74978</v>
-      </c>
-      <c r="U36" s="9" t="n">
-        <v>3126995890.51699</v>
-      </c>
-      <c r="V36" s="9" t="n">
-        <v>2252672586.07337</v>
-      </c>
-      <c r="W36" s="9" t="n">
-        <v>3694564821.21213</v>
-      </c>
-      <c r="X36" s="9" t="n">
-        <v>2335910588.75374</v>
-      </c>
-      <c r="Y36" s="9" t="n">
-        <v>1989770046.28798</v>
-      </c>
-      <c r="Z36" s="9" t="n">
-        <v>1861486719.65612</v>
-      </c>
-      <c r="AA36" s="9" t="n">
-        <v>2053060235.57906</v>
-      </c>
-      <c r="AB36" s="9" t="n">
-        <v>2392550762.45325</v>
-      </c>
-      <c r="AC36" s="9" t="n">
-        <v>1865254916.5128</v>
-      </c>
-      <c r="AD36" s="9" t="n">
-        <v>2045132368.81667</v>
-      </c>
-      <c r="AE36" s="9" t="n">
-        <v>4349132039.113</v>
-      </c>
-      <c r="AF36" s="9"/>
+      <c r="O36" s="13" t="n">
+        <v>10090339516.4006</v>
+      </c>
+      <c r="P36" s="13" t="n">
+        <v>9503327731.90822</v>
+      </c>
+      <c r="Q36" s="13" t="n">
+        <v>8241815808.85705</v>
+      </c>
+      <c r="R36" s="13" t="n">
+        <v>6676031358.44169</v>
+      </c>
+      <c r="S36" s="13" t="n">
+        <v>5198954299.9283</v>
+      </c>
+      <c r="T36" s="13" t="n">
+        <v>5160319440.4918</v>
+      </c>
+      <c r="U36" s="13" t="n">
+        <v>4133016730.02998</v>
+      </c>
+      <c r="V36" s="13" t="n">
+        <v>4539302513.64279</v>
+      </c>
+      <c r="W36" s="13" t="n">
+        <v>4066287420.91547</v>
+      </c>
+      <c r="X36" s="13" t="n">
+        <v>5218826948.29399</v>
+      </c>
+      <c r="Y36" s="13" t="n">
+        <v>6100980272.25558</v>
+      </c>
+      <c r="Z36" s="13" t="n">
+        <v>7391316317.30767</v>
+      </c>
+      <c r="AA36" s="13" t="n">
+        <v>7613188126.02797</v>
+      </c>
+      <c r="AB36" s="13" t="n">
+        <v>7518488707.1741</v>
+      </c>
+      <c r="AC36" s="13" t="n">
+        <v>7812651156.89991</v>
+      </c>
+      <c r="AD36" s="13" t="n">
+        <v>7176418096.70276</v>
+      </c>
+      <c r="AE36" s="13" t="n">
+        <v>8814402353.8</v>
+      </c>
+      <c r="AF36" s="13"/>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -6355,16 +6361,16 @@
       <c r="B37" t="str">
         <f>N37</f>
       </c>
-      <c r="C37" s="9" t="str">
+      <c r="C37" s="13" t="str">
         <f>AB37</f>
       </c>
-      <c r="D37" s="9" t="str">
+      <c r="D37" s="13" t="str">
         <f>AD37</f>
       </c>
-      <c r="E37" s="9" t="str">
+      <c r="E37" s="13" t="str">
         <f>AE37</f>
       </c>
-      <c r="F37" s="9" t="str">
+      <c r="F37" s="13" t="str">
         <f>AF37</f>
       </c>
       <c r="G37" s="3" t="str">
@@ -6377,69 +6383,69 @@
         <f>AF37/AE37</f>
       </c>
       <c r="J37" s="3" t="str">
-        <f>AE37/Sum(AE$23:AE$41)</f>
+        <f>AE37/Sum(AE$22:AE$39)</f>
       </c>
       <c r="K37" s="3" t="str">
-        <f>AF37/Sum(AF23:AF$41)</f>
+        <f>AF37/Sum(AF22:AF$39)</f>
       </c>
       <c r="M37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N37" t="s">
         <v>43</v>
       </c>
-      <c r="O37" s="9" t="n">
-        <v>143479181461.936</v>
-      </c>
-      <c r="P37" s="9" t="n">
-        <v>162285532497.217</v>
-      </c>
-      <c r="Q37" s="9" t="n">
-        <v>151402719640.374</v>
-      </c>
-      <c r="R37" s="9" t="n">
-        <v>98686426118.2673</v>
-      </c>
-      <c r="S37" s="9" t="n">
-        <v>68088344197.2389</v>
-      </c>
-      <c r="T37" s="9" t="n">
-        <v>41771183380.3403</v>
-      </c>
-      <c r="U37" s="9" t="n">
-        <v>23611958483.8687</v>
-      </c>
-      <c r="V37" s="9" t="n">
-        <v>19683614119.4291</v>
-      </c>
-      <c r="W37" s="9" t="n">
-        <v>14669700733.9954</v>
-      </c>
-      <c r="X37" s="9" t="n">
-        <v>12763233150.483</v>
-      </c>
-      <c r="Y37" s="9" t="n">
-        <v>14622365123.9462</v>
-      </c>
-      <c r="Z37" s="9" t="n">
-        <v>13899501665.9389</v>
-      </c>
-      <c r="AA37" s="9" t="n">
-        <v>12297973986.1974</v>
-      </c>
-      <c r="AB37" s="9" t="n">
-        <v>14126333483.4409</v>
-      </c>
-      <c r="AC37" s="9" t="n">
-        <v>13354299200.0388</v>
-      </c>
-      <c r="AD37" s="9" t="n">
-        <v>11840793146.6593</v>
-      </c>
-      <c r="AE37" s="9" t="n">
-        <v>26136114722.1225</v>
-      </c>
-      <c r="AF37" s="9"/>
+      <c r="O37" s="13" t="n">
+        <v>18663362563.569</v>
+      </c>
+      <c r="P37" s="13" t="n">
+        <v>18134547145.9764</v>
+      </c>
+      <c r="Q37" s="13" t="n">
+        <v>19161293332.7016</v>
+      </c>
+      <c r="R37" s="13" t="n">
+        <v>15038604386.5055</v>
+      </c>
+      <c r="S37" s="13" t="n">
+        <v>19915513238.1746</v>
+      </c>
+      <c r="T37" s="13" t="n">
+        <v>18507659233.2783</v>
+      </c>
+      <c r="U37" s="13" t="n">
+        <v>15829195326.1934</v>
+      </c>
+      <c r="V37" s="13" t="n">
+        <v>15809969342.2214</v>
+      </c>
+      <c r="W37" s="13" t="n">
+        <v>15463233983.3389</v>
+      </c>
+      <c r="X37" s="13" t="n">
+        <v>15601806330.4727</v>
+      </c>
+      <c r="Y37" s="13" t="n">
+        <v>15910486263.1108</v>
+      </c>
+      <c r="Z37" s="13" t="n">
+        <v>19461986189.005</v>
+      </c>
+      <c r="AA37" s="13" t="n">
+        <v>19242699175.4681</v>
+      </c>
+      <c r="AB37" s="13" t="n">
+        <v>18464304257.4098</v>
+      </c>
+      <c r="AC37" s="13" t="n">
+        <v>15991853064.804</v>
+      </c>
+      <c r="AD37" s="13" t="n">
+        <v>15668786800.3169</v>
+      </c>
+      <c r="AE37" s="13" t="n">
+        <v>11139398950.3839</v>
+      </c>
+      <c r="AF37" s="13"/>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -6448,16 +6454,16 @@
       <c r="B38" t="str">
         <f>N38</f>
       </c>
-      <c r="C38" s="9" t="str">
+      <c r="C38" s="13" t="str">
         <f>AB38</f>
       </c>
-      <c r="D38" s="9" t="str">
+      <c r="D38" s="13" t="str">
         <f>AD38</f>
       </c>
-      <c r="E38" s="9" t="str">
+      <c r="E38" s="13" t="str">
         <f>AE38</f>
       </c>
-      <c r="F38" s="9" t="str">
+      <c r="F38" s="13" t="str">
         <f>AF38</f>
       </c>
       <c r="G38" s="3" t="str">
@@ -6470,69 +6476,69 @@
         <f>AF38/AE38</f>
       </c>
       <c r="J38" s="3" t="str">
-        <f>AE38/Sum(AE$23:AE$41)</f>
+        <f>AE38/Sum(AE$22:AE$39)</f>
       </c>
       <c r="K38" s="3" t="str">
-        <f>AF38/Sum(AF23:AF$41)</f>
+        <f>AF38/Sum(AF22:AF$39)</f>
       </c>
       <c r="M38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N38" t="s">
         <v>40</v>
       </c>
-      <c r="O38" s="9" t="n">
-        <v>12022480453.7951</v>
-      </c>
-      <c r="P38" s="9" t="n">
-        <v>12049860723.0378</v>
-      </c>
-      <c r="Q38" s="9" t="n">
-        <v>11247987124.3276</v>
-      </c>
-      <c r="R38" s="9" t="n">
-        <v>8172686625.05649</v>
-      </c>
-      <c r="S38" s="9" t="n">
-        <v>6589314445.61342</v>
-      </c>
-      <c r="T38" s="9" t="n">
-        <v>6326764311.43694</v>
-      </c>
-      <c r="U38" s="9" t="n">
-        <v>4577289622.84308</v>
-      </c>
-      <c r="V38" s="9" t="n">
-        <v>5083634552.55849</v>
-      </c>
-      <c r="W38" s="9" t="n">
-        <v>4559684889.38713</v>
-      </c>
-      <c r="X38" s="9" t="n">
-        <v>5623018463.65801</v>
-      </c>
-      <c r="Y38" s="9" t="n">
-        <v>6669796283.48998</v>
-      </c>
-      <c r="Z38" s="9" t="n">
-        <v>7886424223.58715</v>
-      </c>
-      <c r="AA38" s="9" t="n">
-        <v>8176886977.35642</v>
-      </c>
-      <c r="AB38" s="9" t="n">
-        <v>8054334488.32494</v>
-      </c>
-      <c r="AC38" s="9" t="n">
-        <v>7985882603.63557</v>
-      </c>
-      <c r="AD38" s="9" t="n">
-        <v>7077283089.4875</v>
-      </c>
-      <c r="AE38" s="9" t="n">
-        <v>8611322470.3826</v>
-      </c>
-      <c r="AF38" s="9"/>
+      <c r="O38" s="13" t="n">
+        <v>114099492.256617</v>
+      </c>
+      <c r="P38" s="13" t="n">
+        <v>2236818721.86535</v>
+      </c>
+      <c r="Q38" s="13" t="n">
+        <v>2062110370.67563</v>
+      </c>
+      <c r="R38" s="13" t="n">
+        <v>1773119678.15537</v>
+      </c>
+      <c r="S38" s="13" t="n">
+        <v>1230928832.95137</v>
+      </c>
+      <c r="T38" s="13" t="n">
+        <v>720441968.198254</v>
+      </c>
+      <c r="U38" s="13" t="n">
+        <v>469408377.364554</v>
+      </c>
+      <c r="V38" s="13" t="n">
+        <v>445360130.14083</v>
+      </c>
+      <c r="W38" s="13" t="n">
+        <v>436189402.912613</v>
+      </c>
+      <c r="X38" s="13" t="n">
+        <v>551097826.03881</v>
+      </c>
+      <c r="Y38" s="13" t="n">
+        <v>285188965.305346</v>
+      </c>
+      <c r="Z38" s="13" t="n">
+        <v>341167535.038676</v>
+      </c>
+      <c r="AA38" s="13" t="n">
+        <v>497300047.432713</v>
+      </c>
+      <c r="AB38" s="13" t="n">
+        <v>317654941.821024</v>
+      </c>
+      <c r="AC38" s="13" t="n">
+        <v>261525572.646818</v>
+      </c>
+      <c r="AD38" s="13" t="n">
+        <v>266340872.847015</v>
+      </c>
+      <c r="AE38" s="13" t="n">
+        <v>1589998587.9479</v>
+      </c>
+      <c r="AF38" s="13"/>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -6541,16 +6547,16 @@
       <c r="B39" t="str">
         <f>N39</f>
       </c>
-      <c r="C39" s="9" t="str">
+      <c r="C39" s="13" t="str">
         <f>AB39</f>
       </c>
-      <c r="D39" s="9" t="str">
+      <c r="D39" s="13" t="str">
         <f>AD39</f>
       </c>
-      <c r="E39" s="9" t="str">
+      <c r="E39" s="13" t="str">
         <f>AE39</f>
       </c>
-      <c r="F39" s="9" t="str">
+      <c r="F39" s="13" t="str">
         <f>AF39</f>
       </c>
       <c r="G39" s="3" t="str">
@@ -6563,69 +6569,69 @@
         <f>AF39/AE39</f>
       </c>
       <c r="J39" s="3" t="str">
-        <f>AE39/Sum(AE$23:AE$41)</f>
+        <f>AE39/Sum(AE$22:AE$39)</f>
       </c>
       <c r="K39" s="3" t="str">
-        <f>AF39/Sum(AF23:AF$41)</f>
+        <f>AF39/Sum(AF22:AF$39)</f>
       </c>
       <c r="M39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N39" t="s">
         <v>43</v>
       </c>
-      <c r="O39" s="9" t="n">
-        <v>16704124189.3925</v>
-      </c>
-      <c r="P39" s="9" t="n">
-        <v>15597127368.5026</v>
-      </c>
-      <c r="Q39" s="9" t="n">
-        <v>16161596635.648</v>
-      </c>
-      <c r="R39" s="9" t="n">
-        <v>13562805723.1655</v>
-      </c>
-      <c r="S39" s="9" t="n">
-        <v>18630934397.7486</v>
-      </c>
-      <c r="T39" s="9" t="n">
-        <v>17330589725.2876</v>
-      </c>
-      <c r="U39" s="9" t="n">
-        <v>15424782688.6793</v>
-      </c>
-      <c r="V39" s="9" t="n">
-        <v>15315169438.5208</v>
-      </c>
-      <c r="W39" s="9" t="n">
-        <v>14986877587.8788</v>
-      </c>
-      <c r="X39" s="9" t="n">
-        <v>15197428239.4648</v>
-      </c>
-      <c r="Y39" s="9" t="n">
-        <v>15382007304.9791</v>
-      </c>
-      <c r="Z39" s="9" t="n">
-        <v>19031457021.5862</v>
-      </c>
-      <c r="AA39" s="9" t="n">
-        <v>18770194772.1515</v>
-      </c>
-      <c r="AB39" s="9" t="n">
-        <v>17899248912.8761</v>
-      </c>
-      <c r="AC39" s="9" t="n">
-        <v>15709581363.1484</v>
-      </c>
-      <c r="AD39" s="9" t="n">
-        <v>15412335206.8195</v>
-      </c>
-      <c r="AE39" s="9" t="n">
-        <v>11028697994.0188</v>
-      </c>
-      <c r="AF39" s="9"/>
+      <c r="O39" s="13" t="n">
+        <v>1137745054.57605</v>
+      </c>
+      <c r="P39" s="13" t="n">
+        <v>9159808555.11235</v>
+      </c>
+      <c r="Q39" s="13" t="n">
+        <v>12650885003.0742</v>
+      </c>
+      <c r="R39" s="13" t="n">
+        <v>4191361281.1556</v>
+      </c>
+      <c r="S39" s="13" t="n">
+        <v>3222682785.20794</v>
+      </c>
+      <c r="T39" s="13" t="n">
+        <v>2470470853.99235</v>
+      </c>
+      <c r="U39" s="13" t="n">
+        <v>1437247059.90891</v>
+      </c>
+      <c r="V39" s="13" t="n">
+        <v>1226755644.67248</v>
+      </c>
+      <c r="W39" s="13" t="n">
+        <v>861884451.154199</v>
+      </c>
+      <c r="X39" s="13" t="n">
+        <v>841713894.541416</v>
+      </c>
+      <c r="Y39" s="13" t="n">
+        <v>919674838.218218</v>
+      </c>
+      <c r="Z39" s="13" t="n">
+        <v>864185373.553737</v>
+      </c>
+      <c r="AA39" s="13" t="n">
+        <v>1041481260.86416</v>
+      </c>
+      <c r="AB39" s="13" t="n">
+        <v>938317012.248685</v>
+      </c>
+      <c r="AC39" s="13" t="n">
+        <v>465658214.260482</v>
+      </c>
+      <c r="AD39" s="13" t="n">
+        <v>475006942.541081</v>
+      </c>
+      <c r="AE39" s="13" t="n">
+        <v>1912728130.1274</v>
+      </c>
+      <c r="AF39" s="13"/>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -6634,16 +6640,16 @@
       <c r="B40" t="str">
         <f>N40</f>
       </c>
-      <c r="C40" s="9" t="str">
+      <c r="C40" s="13" t="str">
         <f>AB40</f>
       </c>
-      <c r="D40" s="9" t="str">
+      <c r="D40" s="13" t="str">
         <f>AD40</f>
       </c>
-      <c r="E40" s="9" t="str">
+      <c r="E40" s="13" t="str">
         <f>AE40</f>
       </c>
-      <c r="F40" s="9" t="str">
+      <c r="F40" s="13" t="str">
         <f>AF40</f>
       </c>
       <c r="G40" s="3" t="str">
@@ -6656,69 +6662,69 @@
         <f>AF40/AE40</f>
       </c>
       <c r="J40" s="3" t="str">
-        <f>AE40/Sum(AE$23:AE$41)</f>
+        <f>Sum(J$22:J$39)</f>
       </c>
       <c r="K40" s="3" t="str">
-        <f>AF40/Sum(AF23:AF$41)</f>
+        <f>Sum(K$22:K$39)</f>
       </c>
       <c r="M40" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="N40" t="s">
-        <v>40</v>
-      </c>
-      <c r="O40" s="9" t="n">
-        <v>116279253.77012</v>
-      </c>
-      <c r="P40" s="9" t="n">
-        <v>2745094225.45514</v>
-      </c>
-      <c r="Q40" s="9" t="n">
-        <v>2393706848.21061</v>
-      </c>
-      <c r="R40" s="9" t="n">
-        <v>1833565961.51133</v>
-      </c>
-      <c r="S40" s="9" t="n">
-        <v>1474255297.22779</v>
-      </c>
-      <c r="T40" s="9" t="n">
-        <v>744126667.930949</v>
-      </c>
-      <c r="U40" s="9" t="n">
-        <v>514820985.594724</v>
-      </c>
-      <c r="V40" s="9" t="n">
-        <v>449721361.009705</v>
-      </c>
-      <c r="W40" s="9" t="n">
-        <v>441688712.505163</v>
-      </c>
-      <c r="X40" s="9" t="n">
-        <v>584800479.861838</v>
-      </c>
-      <c r="Y40" s="9" t="n">
-        <v>288060577.024133</v>
-      </c>
-      <c r="Z40" s="9" t="n">
-        <v>333728994.50215</v>
-      </c>
-      <c r="AA40" s="9" t="n">
-        <v>489472944.550697</v>
-      </c>
-      <c r="AB40" s="9" t="n">
-        <v>327876440.045681</v>
-      </c>
-      <c r="AC40" s="9" t="n">
-        <v>294904664.842728</v>
-      </c>
-      <c r="AD40" s="9" t="n">
-        <v>260661377.308312</v>
-      </c>
-      <c r="AE40" s="9" t="n">
-        <v>1719360865.2598</v>
-      </c>
-      <c r="AF40" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="O40" s="13" t="str">
+        <f>Sum(O23:O39)</f>
+      </c>
+      <c r="P40" s="13" t="str">
+        <f>Sum(P23:P39)</f>
+      </c>
+      <c r="Q40" s="13" t="str">
+        <f>Sum(Q23:Q39)</f>
+      </c>
+      <c r="R40" s="13" t="str">
+        <f>Sum(R23:R39)</f>
+      </c>
+      <c r="S40" s="13" t="str">
+        <f>Sum(S23:S39)</f>
+      </c>
+      <c r="T40" s="13" t="str">
+        <f>Sum(T23:T39)</f>
+      </c>
+      <c r="U40" s="13" t="str">
+        <f>Sum(U23:U39)</f>
+      </c>
+      <c r="V40" s="13" t="str">
+        <f>Sum(V23:V39)</f>
+      </c>
+      <c r="W40" s="13" t="str">
+        <f>Sum(W23:W39)</f>
+      </c>
+      <c r="X40" s="13" t="str">
+        <f>Sum(X23:X39)</f>
+      </c>
+      <c r="Y40" s="13" t="str">
+        <f>Sum(Y23:Y39)</f>
+      </c>
+      <c r="Z40" s="13" t="str">
+        <f>Sum(Z23:Z39)</f>
+      </c>
+      <c r="AA40" s="13" t="str">
+        <f>Sum(AA23:AA39)</f>
+      </c>
+      <c r="AB40" s="13" t="str">
+        <f>Sum(AB23:AB39)</f>
+      </c>
+      <c r="AC40" s="13" t="str">
+        <f>Sum(AC23:AC39)</f>
+      </c>
+      <c r="AD40" s="13" t="str">
+        <f>Sum(AD23:AD39)</f>
+      </c>
+      <c r="AE40" s="13" t="str">
+        <f>Sum(AE23:AE39)</f>
+      </c>
+      <c r="AF40" s="13"/>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -6727,16 +6733,16 @@
       <c r="B41" t="str">
         <f>N41</f>
       </c>
-      <c r="C41" s="9" t="str">
+      <c r="C41" s="11" t="str">
         <f>AB41</f>
       </c>
-      <c r="D41" s="9" t="str">
+      <c r="D41" s="11" t="str">
         <f>AD41</f>
       </c>
-      <c r="E41" s="9" t="str">
+      <c r="E41" s="11" t="str">
         <f>AE41</f>
       </c>
-      <c r="F41" s="9" t="str">
+      <c r="F41" s="11" t="str">
         <f>AF41</f>
       </c>
       <c r="G41" s="3" t="str">
@@ -6760,58 +6766,58 @@
       <c r="N41" t="s">
         <v>43</v>
       </c>
-      <c r="O41" s="9" t="n">
-        <v>1135565293.06255</v>
-      </c>
-      <c r="P41" s="9" t="n">
-        <v>8651533051.52256</v>
-      </c>
-      <c r="Q41" s="9" t="n">
-        <v>12319288525.5392</v>
-      </c>
-      <c r="R41" s="9" t="n">
-        <v>4130914997.79964</v>
-      </c>
-      <c r="S41" s="9" t="n">
-        <v>2979356320.93152</v>
-      </c>
-      <c r="T41" s="9" t="n">
-        <v>2446786154.25965</v>
-      </c>
-      <c r="U41" s="9" t="n">
-        <v>1391834451.67874</v>
-      </c>
-      <c r="V41" s="9" t="n">
-        <v>1222394413.80361</v>
-      </c>
-      <c r="W41" s="9" t="n">
-        <v>856385141.561649</v>
-      </c>
-      <c r="X41" s="9" t="n">
-        <v>808011240.718388</v>
-      </c>
-      <c r="Y41" s="9" t="n">
-        <v>916803226.499431</v>
-      </c>
-      <c r="Z41" s="9" t="n">
-        <v>871623914.090263</v>
-      </c>
-      <c r="AA41" s="9" t="n">
-        <v>1049308363.74618</v>
-      </c>
-      <c r="AB41" s="9" t="n">
-        <v>928095514.024027</v>
-      </c>
-      <c r="AC41" s="9" t="n">
-        <v>432279122.064571</v>
-      </c>
-      <c r="AD41" s="9" t="n">
-        <v>480686438.079784</v>
-      </c>
-      <c r="AE41" s="9" t="n">
+      <c r="O41" s="11" t="n">
+        <v>1137737421.78898</v>
+      </c>
+      <c r="P41" s="11" t="n">
+        <v>9133322337.84977</v>
+      </c>
+      <c r="Q41" s="11" t="n">
+        <v>12624670004.5885</v>
+      </c>
+      <c r="R41" s="11" t="n">
+        <v>4187545994.40614</v>
+      </c>
+      <c r="S41" s="11" t="n">
+        <v>2991209357.47081</v>
+      </c>
+      <c r="T41" s="11" t="n">
+        <v>2457808530.50219</v>
+      </c>
+      <c r="U41" s="11" t="n">
+        <v>1414061387.99815</v>
+      </c>
+      <c r="V41" s="11" t="n">
+        <v>1226807041.1866</v>
+      </c>
+      <c r="W41" s="11" t="n">
+        <v>856977420.934944</v>
+      </c>
+      <c r="X41" s="11" t="n">
+        <v>818967808.174386</v>
+      </c>
+      <c r="Y41" s="11" t="n">
+        <v>925465127.296421</v>
+      </c>
+      <c r="Z41" s="11" t="n">
+        <v>874497880.297441</v>
+      </c>
+      <c r="AA41" s="11" t="n">
+        <v>1055531664.94218</v>
+      </c>
+      <c r="AB41" s="11" t="n">
+        <v>935277594.319671</v>
+      </c>
+      <c r="AC41" s="11" t="n">
+        <v>435012565.845856</v>
+      </c>
+      <c r="AD41" s="11" t="n">
+        <v>483317854.419061</v>
+      </c>
+      <c r="AE41" s="11" t="n">
         <v>1783365852.8155</v>
       </c>
-      <c r="AF41" s="9"/>
+      <c r="AF41" s="11"/>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -6820,16 +6826,16 @@
       <c r="B42" t="str">
         <f>N42</f>
       </c>
-      <c r="C42" s="9" t="str">
+      <c r="C42" s="11" t="str">
         <f>AB42</f>
       </c>
-      <c r="D42" s="9" t="str">
+      <c r="D42" s="11" t="str">
         <f>AD42</f>
       </c>
-      <c r="E42" s="9" t="str">
+      <c r="E42" s="11" t="str">
         <f>AE42</f>
       </c>
-      <c r="F42" s="9" t="str">
+      <c r="F42" s="11" t="str">
         <f>AF42</f>
       </c>
       <c r="G42" s="3" t="str">
@@ -6853,58 +6859,58 @@
       <c r="N42" t="s">
         <v>19</v>
       </c>
-      <c r="O42" s="9" t="str">
+      <c r="O42" s="11" t="str">
         <f>Sum(O24:O41)</f>
       </c>
-      <c r="P42" s="9" t="str">
+      <c r="P42" s="11" t="str">
         <f>Sum(P24:P41)</f>
       </c>
-      <c r="Q42" s="9" t="str">
+      <c r="Q42" s="11" t="str">
         <f>Sum(Q24:Q41)</f>
       </c>
-      <c r="R42" s="9" t="str">
+      <c r="R42" s="11" t="str">
         <f>Sum(R24:R41)</f>
       </c>
-      <c r="S42" s="9" t="str">
+      <c r="S42" s="11" t="str">
         <f>Sum(S24:S41)</f>
       </c>
-      <c r="T42" s="9" t="str">
+      <c r="T42" s="11" t="str">
         <f>Sum(T24:T41)</f>
       </c>
-      <c r="U42" s="9" t="str">
+      <c r="U42" s="11" t="str">
         <f>Sum(U24:U41)</f>
       </c>
-      <c r="V42" s="9" t="str">
+      <c r="V42" s="11" t="str">
         <f>Sum(V24:V41)</f>
       </c>
-      <c r="W42" s="9" t="str">
+      <c r="W42" s="11" t="str">
         <f>Sum(W24:W41)</f>
       </c>
-      <c r="X42" s="9" t="str">
+      <c r="X42" s="11" t="str">
         <f>Sum(X24:X41)</f>
       </c>
-      <c r="Y42" s="9" t="str">
+      <c r="Y42" s="11" t="str">
         <f>Sum(Y24:Y41)</f>
       </c>
-      <c r="Z42" s="9" t="str">
+      <c r="Z42" s="11" t="str">
         <f>Sum(Z24:Z41)</f>
       </c>
-      <c r="AA42" s="9" t="str">
+      <c r="AA42" s="11" t="str">
         <f>Sum(AA24:AA41)</f>
       </c>
-      <c r="AB42" s="9" t="str">
+      <c r="AB42" s="11" t="str">
         <f>Sum(AB24:AB41)</f>
       </c>
-      <c r="AC42" s="9" t="str">
+      <c r="AC42" s="11" t="str">
         <f>Sum(AC24:AC41)</f>
       </c>
-      <c r="AD42" s="9" t="str">
+      <c r="AD42" s="11" t="str">
         <f>Sum(AD24:AD41)</f>
       </c>
-      <c r="AE42" s="9" t="str">
+      <c r="AE42" s="11" t="str">
         <f>Sum(AE24:AE41)</f>
       </c>
-      <c r="AF42" s="9"/>
+      <c r="AF42" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7001,49 +7007,49 @@
       <c r="N2" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="14" t="n">
-        <v>31255230749.4631</v>
-      </c>
-      <c r="P2" s="14" t="n">
-        <v>37102041368.9613</v>
-      </c>
-      <c r="Q2" s="14" t="n">
-        <v>24098497564.8245</v>
-      </c>
-      <c r="R2" s="14" t="n">
-        <v>19955253890.9386</v>
-      </c>
-      <c r="S2" s="14" t="n">
-        <v>17685561455.4229</v>
-      </c>
-      <c r="T2" s="14" t="n">
-        <v>16953492843.1271</v>
-      </c>
-      <c r="U2" s="14" t="n">
-        <v>19618603081.6569</v>
-      </c>
-      <c r="V2" s="14" t="n">
-        <v>27902395775.5896</v>
-      </c>
-      <c r="W2" s="14" t="n">
-        <v>27937731136.7199</v>
-      </c>
-      <c r="X2" s="14" t="n">
-        <v>30079444637.0538</v>
-      </c>
-      <c r="Y2" s="14" t="n">
-        <v>48180087109.2192</v>
-      </c>
-      <c r="Z2" s="14" t="n">
-        <v>45664353375.3831</v>
-      </c>
-      <c r="AA2" s="14" t="n">
-        <v>35047872671.8265</v>
-      </c>
-      <c r="AB2" s="14" t="n">
+      <c r="O2" s="17" t="n">
+        <v>43938597462.2748</v>
+      </c>
+      <c r="P2" s="17" t="n">
+        <v>50106126197.8422</v>
+      </c>
+      <c r="Q2" s="17" t="n">
+        <v>35397922747.0838</v>
+      </c>
+      <c r="R2" s="17" t="n">
+        <v>34099766461.0553</v>
+      </c>
+      <c r="S2" s="17" t="n">
+        <v>28836179137.1624</v>
+      </c>
+      <c r="T2" s="17" t="n">
+        <v>26943753973.8753</v>
+      </c>
+      <c r="U2" s="17" t="n">
+        <v>29402376196.4951</v>
+      </c>
+      <c r="V2" s="17" t="n">
+        <v>34846694645.4198</v>
+      </c>
+      <c r="W2" s="17" t="n">
+        <v>35234160267.8548</v>
+      </c>
+      <c r="X2" s="17" t="n">
+        <v>35875249149.5389</v>
+      </c>
+      <c r="Y2" s="17" t="n">
+        <v>55773522318.0748</v>
+      </c>
+      <c r="Z2" s="17" t="n">
+        <v>53661870373.0278</v>
+      </c>
+      <c r="AA2" s="17" t="n">
+        <v>45884808636.1964</v>
+      </c>
+      <c r="AB2" s="17" t="n">
         <v>12416343380.5858</v>
       </c>
-      <c r="AC2" s="13" t="n">
+      <c r="AC2" s="15" t="n">
         <v>13957963439.4211</v>
       </c>
     </row>
@@ -7063,49 +7069,49 @@
       <c r="N3" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="14" t="n">
-        <v>17986659166.4393</v>
-      </c>
-      <c r="P3" s="14" t="n">
-        <v>16348272545.4679</v>
-      </c>
-      <c r="Q3" s="14" t="n">
-        <v>13779748256.7072</v>
-      </c>
-      <c r="R3" s="14" t="n">
-        <v>11779135889.3652</v>
-      </c>
-      <c r="S3" s="14" t="n">
-        <v>12135186874.4357</v>
-      </c>
-      <c r="T3" s="14" t="n">
-        <v>12399920173.1958</v>
-      </c>
-      <c r="U3" s="14" t="n">
-        <v>14152861790.103</v>
-      </c>
-      <c r="V3" s="14" t="n">
-        <v>22806770846.0249</v>
-      </c>
-      <c r="W3" s="14" t="n">
-        <v>25680118499.9135</v>
-      </c>
-      <c r="X3" s="14" t="n">
-        <v>29875164701.4216</v>
-      </c>
-      <c r="Y3" s="14" t="n">
-        <v>37403494926.075</v>
-      </c>
-      <c r="Z3" s="14" t="n">
-        <v>29140563384.389</v>
-      </c>
-      <c r="AA3" s="14" t="n">
-        <v>29077141051.9964</v>
-      </c>
-      <c r="AB3" s="14" t="n">
+      <c r="O3" s="17" t="n">
+        <v>25889342950.4028</v>
+      </c>
+      <c r="P3" s="17" t="n">
+        <v>22238033025.775</v>
+      </c>
+      <c r="Q3" s="17" t="n">
+        <v>19706315508.1142</v>
+      </c>
+      <c r="R3" s="17" t="n">
+        <v>18086864585.7877</v>
+      </c>
+      <c r="S3" s="17" t="n">
+        <v>20086128681.8011</v>
+      </c>
+      <c r="T3" s="17" t="n">
+        <v>20035924070.5428</v>
+      </c>
+      <c r="U3" s="17" t="n">
+        <v>22814951610.1898</v>
+      </c>
+      <c r="V3" s="17" t="n">
+        <v>26654043472.5139</v>
+      </c>
+      <c r="W3" s="17" t="n">
+        <v>29628990466.9556</v>
+      </c>
+      <c r="X3" s="17" t="n">
+        <v>35623589217.7845</v>
+      </c>
+      <c r="Y3" s="17" t="n">
+        <v>44190164383.593</v>
+      </c>
+      <c r="Z3" s="17" t="n">
+        <v>52646236662.735</v>
+      </c>
+      <c r="AA3" s="17" t="n">
+        <v>38084619243.8335</v>
+      </c>
+      <c r="AB3" s="17" t="n">
         <v>1801912872.7955</v>
       </c>
-      <c r="AC3" s="13" t="n">
+      <c r="AC3" s="15" t="n">
         <v>1608944729.0501</v>
       </c>
     </row>
@@ -7125,49 +7131,49 @@
       <c r="N4" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="14" t="n">
-        <v>29898796158.4983</v>
-      </c>
-      <c r="P4" s="14" t="n">
-        <v>28986353557.0245</v>
-      </c>
-      <c r="Q4" s="14" t="n">
-        <v>24976096489.8093</v>
-      </c>
-      <c r="R4" s="14" t="n">
-        <v>28501413952.5891</v>
-      </c>
-      <c r="S4" s="14" t="n">
-        <v>25447190127.4247</v>
-      </c>
-      <c r="T4" s="14" t="n">
-        <v>25671472541.9195</v>
-      </c>
-      <c r="U4" s="14" t="n">
-        <v>27983478293.0834</v>
-      </c>
-      <c r="V4" s="14" t="n">
-        <v>20045971011.5824</v>
-      </c>
-      <c r="W4" s="14" t="n">
-        <v>23936231639.1294</v>
-      </c>
-      <c r="X4" s="14" t="n">
-        <v>25650928177.9626</v>
-      </c>
-      <c r="Y4" s="14" t="n">
-        <v>24016153025.3683</v>
-      </c>
-      <c r="Z4" s="14" t="n">
-        <v>40078319954.0187</v>
-      </c>
-      <c r="AA4" s="14" t="n">
-        <v>27163604882.0461</v>
-      </c>
-      <c r="AB4" s="14" t="n">
+      <c r="O4" s="17" t="n">
+        <v>15555619470.5361</v>
+      </c>
+      <c r="P4" s="17" t="n">
+        <v>15660202088.084</v>
+      </c>
+      <c r="Q4" s="17" t="n">
+        <v>13062524552.0163</v>
+      </c>
+      <c r="R4" s="17" t="n">
+        <v>14562135384.7876</v>
+      </c>
+      <c r="S4" s="17" t="n">
+        <v>13555671864.5136</v>
+      </c>
+      <c r="T4" s="17" t="n">
+        <v>15335740858.4072</v>
+      </c>
+      <c r="U4" s="17" t="n">
+        <v>17417330811.567</v>
+      </c>
+      <c r="V4" s="17" t="n">
+        <v>13018391947.8351</v>
+      </c>
+      <c r="W4" s="17" t="n">
+        <v>16058506157.5635</v>
+      </c>
+      <c r="X4" s="17" t="n">
+        <v>16983812751.466</v>
+      </c>
+      <c r="Y4" s="17" t="n">
+        <v>15392715907.7826</v>
+      </c>
+      <c r="Z4" s="17" t="n">
+        <v>17357519164.9326</v>
+      </c>
+      <c r="AA4" s="17" t="n">
+        <v>19305043010.3455</v>
+      </c>
+      <c r="AB4" s="17" t="n">
         <v>33248009994.7973</v>
       </c>
-      <c r="AC4" s="13" t="n">
+      <c r="AC4" s="15" t="n">
         <v>21089909232.4054</v>
       </c>
     </row>
@@ -7187,49 +7193,49 @@
       <c r="N5" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="14" t="n">
-        <v>36097737150.8889</v>
-      </c>
-      <c r="P5" s="14" t="n">
-        <v>34730237706.1415</v>
-      </c>
-      <c r="Q5" s="14" t="n">
-        <v>29169239953.7346</v>
-      </c>
-      <c r="R5" s="14" t="n">
-        <v>29833721322.4015</v>
-      </c>
-      <c r="S5" s="14" t="n">
-        <v>27324207449.885</v>
-      </c>
-      <c r="T5" s="14" t="n">
-        <v>27843792311.2441</v>
-      </c>
-      <c r="U5" s="14" t="n">
-        <v>27441082756.5163</v>
-      </c>
-      <c r="V5" s="14" t="n">
-        <v>23791495332.7767</v>
-      </c>
-      <c r="W5" s="14" t="n">
-        <v>25021165431.6188</v>
-      </c>
-      <c r="X5" s="14" t="n">
-        <v>27652465150.9804</v>
-      </c>
-      <c r="Y5" s="14" t="n">
-        <v>24861742523.0282</v>
-      </c>
-      <c r="Z5" s="14" t="n">
-        <v>29689860380.1717</v>
-      </c>
-      <c r="AA5" s="14" t="n">
-        <v>33301971196.0154</v>
-      </c>
-      <c r="AB5" s="14" t="n">
+      <c r="O5" s="17" t="n">
+        <v>29840305852.0759</v>
+      </c>
+      <c r="P5" s="17" t="n">
+        <v>29154766367.2699</v>
+      </c>
+      <c r="Q5" s="17" t="n">
+        <v>23848922503.7213</v>
+      </c>
+      <c r="R5" s="17" t="n">
+        <v>23312871405.0338</v>
+      </c>
+      <c r="S5" s="17" t="n">
+        <v>20110137932.4912</v>
+      </c>
+      <c r="T5" s="17" t="n">
+        <v>20553258966.6612</v>
+      </c>
+      <c r="U5" s="17" t="n">
+        <v>19561367303.1077</v>
+      </c>
+      <c r="V5" s="17" t="n">
+        <v>20027502900.2048</v>
+      </c>
+      <c r="W5" s="17" t="n">
+        <v>21653589815.0077</v>
+      </c>
+      <c r="X5" s="17" t="n">
+        <v>24775351548.629</v>
+      </c>
+      <c r="Y5" s="17" t="n">
+        <v>19105074974.2403</v>
+      </c>
+      <c r="Z5" s="17" t="n">
+        <v>20907470893.2671</v>
+      </c>
+      <c r="AA5" s="17" t="n">
+        <v>21344984676.5069</v>
+      </c>
+      <c r="AB5" s="17" t="n">
         <v>27338650511.5935</v>
       </c>
-      <c r="AC5" s="13" t="n">
+      <c r="AC5" s="15" t="n">
         <v>27468196322.9463</v>
       </c>
     </row>
@@ -7249,49 +7255,49 @@
       <c r="N6" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="14" t="n">
-        <v>6683672074.0927</v>
-      </c>
-      <c r="P6" s="14" t="n">
-        <v>6610387564.2734</v>
-      </c>
-      <c r="Q6" s="14" t="n">
-        <v>5668554306.1156</v>
-      </c>
-      <c r="R6" s="14" t="n">
-        <v>7257445382.0936</v>
-      </c>
-      <c r="S6" s="14" t="n">
-        <v>7750481635.5216</v>
-      </c>
-      <c r="T6" s="14" t="n">
-        <v>7733252678.4108</v>
-      </c>
-      <c r="U6" s="14" t="n">
-        <v>7150281486.2274</v>
-      </c>
-      <c r="V6" s="14" t="n">
-        <v>13058816162.6805</v>
-      </c>
-      <c r="W6" s="14" t="n">
-        <v>13269959464.3028</v>
-      </c>
-      <c r="X6" s="14" t="n">
-        <v>12533350568.3599</v>
-      </c>
-      <c r="Y6" s="14" t="n">
-        <v>11545432225.8644</v>
-      </c>
-      <c r="Z6" s="14" t="n">
-        <v>11640593258.8436</v>
-      </c>
-      <c r="AA6" s="14" t="n">
-        <v>12484524362.2018</v>
-      </c>
-      <c r="AB6" s="14" t="n">
+      <c r="O6" s="17" t="n">
+        <v>6353771251.2537</v>
+      </c>
+      <c r="P6" s="17" t="n">
+        <v>6111328004.128</v>
+      </c>
+      <c r="Q6" s="17" t="n">
+        <v>5455349072.084</v>
+      </c>
+      <c r="R6" s="17" t="n">
+        <v>6949444392.8565</v>
+      </c>
+      <c r="S6" s="17" t="n">
+        <v>7430603602.7701</v>
+      </c>
+      <c r="T6" s="17" t="n">
+        <v>7501739039.1847</v>
+      </c>
+      <c r="U6" s="17" t="n">
+        <v>6783627804.7729</v>
+      </c>
+      <c r="V6" s="17" t="n">
+        <v>12719225400.0599</v>
+      </c>
+      <c r="W6" s="17" t="n">
+        <v>12948873321.4011</v>
+      </c>
+      <c r="X6" s="17" t="n">
+        <v>11911643224.6253</v>
+      </c>
+      <c r="Y6" s="17" t="n">
+        <v>11324297688.5867</v>
+      </c>
+      <c r="Z6" s="17" t="n">
+        <v>12027087894.0659</v>
+      </c>
+      <c r="AA6" s="17" t="n">
+        <v>12723722281.9879</v>
+      </c>
+      <c r="AB6" s="17" t="n">
         <v>13543587221.5167</v>
       </c>
-      <c r="AC6" s="13" t="n">
+      <c r="AC6" s="15" t="n">
         <v>12347850685.8355</v>
       </c>
     </row>
@@ -7311,49 +7317,49 @@
       <c r="N7" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="14" t="n">
-        <v>14043087841.8619</v>
-      </c>
-      <c r="P7" s="14" t="n">
-        <v>12705160227.6934</v>
-      </c>
-      <c r="Q7" s="14" t="n">
-        <v>10588302252.8571</v>
-      </c>
-      <c r="R7" s="14" t="n">
-        <v>10767875507.0851</v>
-      </c>
-      <c r="S7" s="14" t="n">
-        <v>10581178707.2994</v>
-      </c>
-      <c r="T7" s="14" t="n">
-        <v>9892515561.5923</v>
-      </c>
-      <c r="U7" s="14" t="n">
-        <v>10875001083.978</v>
-      </c>
-      <c r="V7" s="14" t="n">
-        <v>13483951403.3545</v>
-      </c>
-      <c r="W7" s="14" t="n">
-        <v>13505530020.2325</v>
-      </c>
-      <c r="X7" s="14" t="n">
-        <v>12588239758.5437</v>
-      </c>
-      <c r="Y7" s="14" t="n">
-        <v>10920527227.2435</v>
-      </c>
-      <c r="Z7" s="14" t="n">
-        <v>12179870156.4561</v>
-      </c>
-      <c r="AA7" s="14" t="n">
-        <v>8757199136.17</v>
-      </c>
-      <c r="AB7" s="14" t="n">
+      <c r="O7" s="17" t="n">
+        <v>14373844897.8047</v>
+      </c>
+      <c r="P7" s="17" t="n">
+        <v>13206561065.8076</v>
+      </c>
+      <c r="Q7" s="17" t="n">
+        <v>10802080997.6787</v>
+      </c>
+      <c r="R7" s="17" t="n">
+        <v>11076872960.9722</v>
+      </c>
+      <c r="S7" s="17" t="n">
+        <v>10900773054.4309</v>
+      </c>
+      <c r="T7" s="17" t="n">
+        <v>10123617101.8184</v>
+      </c>
+      <c r="U7" s="17" t="n">
+        <v>11241962025.9267</v>
+      </c>
+      <c r="V7" s="17" t="n">
+        <v>13823686787.1314</v>
+      </c>
+      <c r="W7" s="17" t="n">
+        <v>13826616163.1342</v>
+      </c>
+      <c r="X7" s="17" t="n">
+        <v>13209947102.2783</v>
+      </c>
+      <c r="Y7" s="17" t="n">
+        <v>11141661764.5212</v>
+      </c>
+      <c r="Z7" s="17" t="n">
+        <v>11793409233.3338</v>
+      </c>
+      <c r="AA7" s="17" t="n">
+        <v>8499159403.4485</v>
+      </c>
+      <c r="AB7" s="17" t="n">
         <v>3251608936.6306</v>
       </c>
-      <c r="AC7" s="13" t="n">
+      <c r="AC7" s="15" t="n">
         <v>2713655471.2253</v>
       </c>
     </row>
@@ -7373,49 +7379,49 @@
       <c r="N8" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="14" t="n">
-        <v>1216030256.841</v>
-      </c>
-      <c r="P8" s="14" t="n">
-        <v>1895556032.0051</v>
-      </c>
-      <c r="Q8" s="14" t="n">
-        <v>952609585.9737</v>
-      </c>
-      <c r="R8" s="14" t="n">
-        <v>1088936204.6172</v>
-      </c>
-      <c r="S8" s="14" t="n">
-        <v>1088807391.037</v>
-      </c>
-      <c r="T8" s="14" t="n">
-        <v>1805760317.0083</v>
-      </c>
-      <c r="U8" s="14" t="n">
-        <v>3746475883.7796</v>
-      </c>
-      <c r="V8" s="14" t="n">
-        <v>3074792651.2968</v>
-      </c>
-      <c r="W8" s="14" t="n">
-        <v>3514832423.2951</v>
-      </c>
-      <c r="X8" s="14" t="n">
-        <v>3566340166.6762</v>
-      </c>
-      <c r="Y8" s="14" t="n">
-        <v>2458364985.2205</v>
-      </c>
-      <c r="Z8" s="14" t="n">
-        <v>4576147114.9178</v>
-      </c>
-      <c r="AA8" s="14" t="n">
-        <v>2076520940.4654</v>
-      </c>
-      <c r="AB8" s="14" t="n">
+      <c r="O8" s="17" t="n">
+        <v>631989460.7783</v>
+      </c>
+      <c r="P8" s="17" t="n">
+        <v>730784460.4217</v>
+      </c>
+      <c r="Q8" s="17" t="n">
+        <v>583582108.4095</v>
+      </c>
+      <c r="R8" s="17" t="n">
+        <v>431813065.252</v>
+      </c>
+      <c r="S8" s="17" t="n">
+        <v>479057229.6744</v>
+      </c>
+      <c r="T8" s="17" t="n">
+        <v>754133470.2281</v>
+      </c>
+      <c r="U8" s="17" t="n">
+        <v>1212870362.8558</v>
+      </c>
+      <c r="V8" s="17" t="n">
+        <v>2174381343.2315</v>
+      </c>
+      <c r="W8" s="17" t="n">
+        <v>1789233579.0072</v>
+      </c>
+      <c r="X8" s="17" t="n">
+        <v>1655131561.9466</v>
+      </c>
+      <c r="Y8" s="17" t="n">
+        <v>1788618124.0356</v>
+      </c>
+      <c r="Z8" s="17" t="n">
+        <v>3460701067.8914</v>
+      </c>
+      <c r="AA8" s="17" t="n">
+        <v>1942123630.1997</v>
+      </c>
+      <c r="AB8" s="17" t="n">
         <v>26534732732.502</v>
       </c>
-      <c r="AC8" s="13" t="n">
+      <c r="AC8" s="15" t="n">
         <v>14815754196.2106</v>
       </c>
     </row>
@@ -7435,49 +7441,49 @@
       <c r="N9" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="14" t="n">
-        <v>42256131517.5522</v>
-      </c>
-      <c r="P9" s="14" t="n">
-        <v>54758606786.2011</v>
-      </c>
-      <c r="Q9" s="14" t="n">
-        <v>46972259182.0756</v>
-      </c>
-      <c r="R9" s="14" t="n">
-        <v>43922166334.1481</v>
-      </c>
-      <c r="S9" s="14" t="n">
-        <v>44054842375.5884</v>
-      </c>
-      <c r="T9" s="14" t="n">
-        <v>50628266020.741</v>
-      </c>
-      <c r="U9" s="14" t="n">
-        <v>56597028392.347</v>
-      </c>
-      <c r="V9" s="14" t="n">
-        <v>76051318984.9463</v>
-      </c>
-      <c r="W9" s="14" t="n">
-        <v>80155056064.1126</v>
-      </c>
-      <c r="X9" s="14" t="n">
-        <v>86732963948.1466</v>
-      </c>
-      <c r="Y9" s="14" t="n">
-        <v>85236793261.6524</v>
-      </c>
-      <c r="Z9" s="14" t="n">
-        <v>86480545057.8842</v>
-      </c>
-      <c r="AA9" s="14" t="n">
-        <v>59404120556.1747</v>
-      </c>
-      <c r="AB9" s="14" t="n">
+      <c r="O9" s="17" t="n">
+        <v>42891078006.4274</v>
+      </c>
+      <c r="P9" s="17" t="n">
+        <v>55916245614.7845</v>
+      </c>
+      <c r="Q9" s="17" t="n">
+        <v>47353316662.8298</v>
+      </c>
+      <c r="R9" s="17" t="n">
+        <v>44606935375.0183</v>
+      </c>
+      <c r="S9" s="17" t="n">
+        <v>44673219755.351</v>
+      </c>
+      <c r="T9" s="17" t="n">
+        <v>51673073465.2889</v>
+      </c>
+      <c r="U9" s="17" t="n">
+        <v>59166462252.3838</v>
+      </c>
+      <c r="V9" s="17" t="n">
+        <v>77026872601.0672</v>
+      </c>
+      <c r="W9" s="17" t="n">
+        <v>81941621433.2727</v>
+      </c>
+      <c r="X9" s="17" t="n">
+        <v>88618976870.7865</v>
+      </c>
+      <c r="Y9" s="17" t="n">
+        <v>85796546316.5326</v>
+      </c>
+      <c r="Z9" s="17" t="n">
+        <v>87347814520.8399</v>
+      </c>
+      <c r="AA9" s="17" t="n">
+        <v>59389185605.2414</v>
+      </c>
+      <c r="AB9" s="17" t="n">
         <v>26438251443.5411</v>
       </c>
-      <c r="AC9" s="13" t="n">
+      <c r="AC9" s="15" t="n">
         <v>30588315724.7901</v>
       </c>
     </row>
@@ -7495,51 +7501,51 @@
         <v>59</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
-      </c>
-      <c r="O10" s="14" t="n">
-        <v>1589089357.9102</v>
-      </c>
-      <c r="P10" s="14" t="n">
-        <v>3806242776.4534</v>
-      </c>
-      <c r="Q10" s="14" t="n">
-        <v>3186009489.4102</v>
-      </c>
-      <c r="R10" s="14" t="n">
-        <v>3397043185.6465</v>
-      </c>
-      <c r="S10" s="14" t="n">
-        <v>2978381931.1913</v>
-      </c>
-      <c r="T10" s="14" t="n">
-        <v>3000039224.0025</v>
-      </c>
-      <c r="U10" s="14" t="n">
-        <v>2343288254.6046</v>
-      </c>
-      <c r="V10" s="14" t="n">
-        <v>415958942.3649</v>
-      </c>
-      <c r="W10" s="14" t="n">
-        <v>3483042753.0994</v>
-      </c>
-      <c r="X10" s="14" t="n">
-        <v>1536047657.3333</v>
-      </c>
-      <c r="Y10" s="14" t="n">
-        <v>369757606.443</v>
-      </c>
-      <c r="Z10" s="14" t="n">
-        <v>1101191822.3893</v>
-      </c>
-      <c r="AA10" s="14" t="n">
-        <v>385133330.092</v>
-      </c>
-      <c r="AB10" s="14" t="n">
+        <v>43</v>
+      </c>
+      <c r="O10" s="17" t="n">
+        <v>117265672000.507</v>
+      </c>
+      <c r="P10" s="17" t="n">
+        <v>114684159598.629</v>
+      </c>
+      <c r="Q10" s="17" t="n">
+        <v>115092313841.753</v>
+      </c>
+      <c r="R10" s="17" t="n">
+        <v>96339079586.2505</v>
+      </c>
+      <c r="S10" s="17" t="n">
+        <v>96692994812.3194</v>
+      </c>
+      <c r="T10" s="17" t="n">
+        <v>115400111619.82</v>
+      </c>
+      <c r="U10" s="17" t="n">
+        <v>121585389860.149</v>
+      </c>
+      <c r="V10" s="17" t="n">
+        <v>121695096501.822</v>
+      </c>
+      <c r="W10" s="17" t="n">
+        <v>133999767682.578</v>
+      </c>
+      <c r="X10" s="17" t="n">
+        <v>155871330399.17</v>
+      </c>
+      <c r="Y10" s="17" t="n">
+        <v>107353167337.779</v>
+      </c>
+      <c r="Z10" s="17" t="n">
+        <v>119312855677.303</v>
+      </c>
+      <c r="AA10" s="17" t="n">
+        <v>194731326724.396</v>
+      </c>
+      <c r="AB10" s="17" t="n">
         <v>6668117532.2948</v>
       </c>
-      <c r="AC10" s="13" t="n">
+      <c r="AC10" s="15" t="n">
         <v>7894006408.4777</v>
       </c>
     </row>
@@ -7554,54 +7560,54 @@
         <f>P11</f>
       </c>
       <c r="M11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N11" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" s="14" t="n">
-        <v>115676582642.597</v>
-      </c>
-      <c r="P11" s="14" t="n">
-        <v>110877916822.175</v>
-      </c>
-      <c r="Q11" s="14" t="n">
-        <v>111906304352.342</v>
-      </c>
-      <c r="R11" s="14" t="n">
-        <v>92942036400.604</v>
-      </c>
-      <c r="S11" s="14" t="n">
-        <v>93714612881.1281</v>
-      </c>
-      <c r="T11" s="14" t="n">
-        <v>112400072395.818</v>
-      </c>
-      <c r="U11" s="14" t="n">
-        <v>119242101605.544</v>
-      </c>
-      <c r="V11" s="14" t="n">
-        <v>121279137559.457</v>
-      </c>
-      <c r="W11" s="14" t="n">
-        <v>130516724929.479</v>
-      </c>
-      <c r="X11" s="14" t="n">
-        <v>154335282741.837</v>
-      </c>
-      <c r="Y11" s="14" t="n">
-        <v>106983409731.336</v>
-      </c>
-      <c r="Z11" s="14" t="n">
-        <v>118211663854.914</v>
-      </c>
-      <c r="AA11" s="14" t="n">
-        <v>194346193394.303</v>
-      </c>
-      <c r="AB11" s="14" t="n">
+        <v>40</v>
+      </c>
+      <c r="O11" s="17" t="n">
+        <v>566868.625</v>
+      </c>
+      <c r="P11" s="17" t="n">
+        <v>2744757.5625</v>
+      </c>
+      <c r="Q11" s="17" t="n">
+        <v>740760.72</v>
+      </c>
+      <c r="R11" s="17" t="n">
+        <v>1661330.44</v>
+      </c>
+      <c r="S11" s="17" t="n">
+        <v>688122.1</v>
+      </c>
+      <c r="T11" s="17" t="n">
+        <v>7466648.5097</v>
+      </c>
+      <c r="U11" s="17" t="n">
+        <v>15539948.7242</v>
+      </c>
+      <c r="V11" s="17" t="n">
+        <v>10103095.4844</v>
+      </c>
+      <c r="W11" s="17" t="n">
+        <v>50250051.3516</v>
+      </c>
+      <c r="X11" s="17" t="n">
+        <v>4606692.4265</v>
+      </c>
+      <c r="Y11" s="17" t="n">
+        <v>18838219.6031</v>
+      </c>
+      <c r="Z11" s="17" t="n">
+        <v>6404705</v>
+      </c>
+      <c r="AA11" s="17" t="n">
+        <v>3009276.3125</v>
+      </c>
+      <c r="AB11" s="17" t="n">
         <v>2423410056.2773</v>
       </c>
-      <c r="AC11" s="13" t="n">
+      <c r="AC11" s="15" t="n">
         <v>1833104211.6256</v>
       </c>
     </row>
@@ -7619,51 +7625,51 @@
         <v>57</v>
       </c>
       <c r="N12" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" s="14" t="n">
-        <v>566868.625</v>
-      </c>
-      <c r="P12" s="14" t="n">
-        <v>2744757.5625</v>
-      </c>
-      <c r="Q12" s="14" t="n">
-        <v>740760.72</v>
-      </c>
-      <c r="R12" s="14" t="n">
-        <v>1661330.44</v>
-      </c>
-      <c r="S12" s="14" t="n">
-        <v>688122.1</v>
-      </c>
-      <c r="T12" s="14" t="n">
-        <v>7466648.5097</v>
-      </c>
-      <c r="U12" s="14" t="n">
-        <v>15539948.7242</v>
-      </c>
-      <c r="V12" s="14" t="n">
-        <v>10103095.4844</v>
-      </c>
-      <c r="W12" s="14" t="n">
-        <v>50250051.3516</v>
-      </c>
-      <c r="X12" s="14" t="n">
-        <v>648763.1608</v>
-      </c>
-      <c r="Y12" s="14" t="n">
-        <v>18838219.6031</v>
-      </c>
-      <c r="Z12" s="14" t="n">
-        <v>6404705</v>
-      </c>
-      <c r="AA12" s="14" t="n">
-        <v>3009276.3125</v>
-      </c>
-      <c r="AB12" s="14" t="n">
+        <v>43</v>
+      </c>
+      <c r="O12" s="17" t="n">
+        <v>465110922.9134</v>
+      </c>
+      <c r="P12" s="17" t="n">
+        <v>326628729.6539</v>
+      </c>
+      <c r="Q12" s="17" t="n">
+        <v>205092408.93</v>
+      </c>
+      <c r="R12" s="17" t="n">
+        <v>253019515.28</v>
+      </c>
+      <c r="S12" s="17" t="n">
+        <v>124594107.6519</v>
+      </c>
+      <c r="T12" s="17" t="n">
+        <v>187804273.1566</v>
+      </c>
+      <c r="U12" s="17" t="n">
+        <v>125983398.2189</v>
+      </c>
+      <c r="V12" s="17" t="n">
+        <v>141268312.7166</v>
+      </c>
+      <c r="W12" s="17" t="n">
+        <v>313186482.6124</v>
+      </c>
+      <c r="X12" s="17" t="n">
+        <v>328444010.3259</v>
+      </c>
+      <c r="Y12" s="17" t="n">
+        <v>298326767.0599</v>
+      </c>
+      <c r="Z12" s="17" t="n">
+        <v>340466689.9108</v>
+      </c>
+      <c r="AA12" s="17" t="n">
+        <v>643485539.1533</v>
+      </c>
+      <c r="AB12" s="17" t="n">
         <v>4972475726.5488</v>
       </c>
-      <c r="AC12" s="13" t="n">
+      <c r="AC12" s="15" t="n">
         <v>4590517953.7241</v>
       </c>
     </row>
@@ -7678,54 +7684,54 @@
         <f>P13</f>
       </c>
       <c r="M13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O13" s="14" t="n">
-        <v>465110922.9134</v>
-      </c>
-      <c r="P13" s="14" t="n">
-        <v>326628729.6539</v>
-      </c>
-      <c r="Q13" s="14" t="n">
-        <v>205092408.93</v>
-      </c>
-      <c r="R13" s="14" t="n">
-        <v>253019515.28</v>
-      </c>
-      <c r="S13" s="14" t="n">
-        <v>124594107.6519</v>
-      </c>
-      <c r="T13" s="14" t="n">
-        <v>187804273.1566</v>
-      </c>
-      <c r="U13" s="14" t="n">
-        <v>125983398.2189</v>
-      </c>
-      <c r="V13" s="14" t="n">
-        <v>141268312.7166</v>
-      </c>
-      <c r="W13" s="14" t="n">
-        <v>313186482.6124</v>
-      </c>
-      <c r="X13" s="14" t="n">
-        <v>332401939.5916</v>
-      </c>
-      <c r="Y13" s="14" t="n">
-        <v>298326767.0599</v>
-      </c>
-      <c r="Z13" s="14" t="n">
-        <v>340466689.9108</v>
-      </c>
-      <c r="AA13" s="14" t="n">
-        <v>643485539.1533</v>
-      </c>
-      <c r="AB13" s="14" t="n">
+        <v>40</v>
+      </c>
+      <c r="O13" s="17" t="n">
+        <v>3129237146.0253</v>
+      </c>
+      <c r="P13" s="17" t="n">
+        <v>2341188503.9723</v>
+      </c>
+      <c r="Q13" s="17" t="n">
+        <v>2173872599.4936</v>
+      </c>
+      <c r="R13" s="17" t="n">
+        <v>1301505898.753</v>
+      </c>
+      <c r="S13" s="17" t="n">
+        <v>1906728681.9117</v>
+      </c>
+      <c r="T13" s="17" t="n">
+        <v>1097699723.7379</v>
+      </c>
+      <c r="U13" s="17" t="n">
+        <v>1222055072.9644</v>
+      </c>
+      <c r="V13" s="17" t="n">
+        <v>1459271935.9586</v>
+      </c>
+      <c r="W13" s="17" t="n">
+        <v>1679311982.6552</v>
+      </c>
+      <c r="X13" s="17" t="n">
+        <v>1669119486.985</v>
+      </c>
+      <c r="Y13" s="17" t="n">
+        <v>1590213362.9423</v>
+      </c>
+      <c r="Z13" s="17" t="n">
+        <v>2027550576.5423</v>
+      </c>
+      <c r="AA13" s="17" t="n">
+        <v>4477169390.5106</v>
+      </c>
+      <c r="AB13" s="17" t="n">
         <v>9756460100.1788</v>
       </c>
-      <c r="AC13" s="13" t="n">
+      <c r="AC13" s="15" t="n">
         <v>6924094924.5444</v>
       </c>
     </row>
@@ -7743,51 +7749,51 @@
         <v>52</v>
       </c>
       <c r="N14" t="s">
-        <v>40</v>
-      </c>
-      <c r="O14" s="14" t="n">
-        <v>3950171021.6997</v>
-      </c>
-      <c r="P14" s="14" t="n">
-        <v>3068801162.256</v>
-      </c>
-      <c r="Q14" s="14" t="n">
-        <v>2429204721.8738</v>
-      </c>
-      <c r="R14" s="14" t="n">
-        <v>1781912549.4149</v>
-      </c>
-      <c r="S14" s="14" t="n">
-        <v>2952746325.5791</v>
-      </c>
-      <c r="T14" s="14" t="n">
-        <v>1881817376.9132</v>
-      </c>
-      <c r="U14" s="14" t="n">
-        <v>1630023794.4669</v>
-      </c>
-      <c r="V14" s="14" t="n">
-        <v>1558787356.0103</v>
-      </c>
-      <c r="W14" s="14" t="n">
-        <v>1750996158.2558</v>
-      </c>
-      <c r="X14" s="14" t="n">
-        <v>2067193650.8017</v>
-      </c>
-      <c r="Y14" s="14" t="n">
-        <v>1667070626.6228</v>
-      </c>
-      <c r="Z14" s="14" t="n">
-        <v>1955667251.6509</v>
-      </c>
-      <c r="AA14" s="14" t="n">
-        <v>4349132039.113</v>
-      </c>
-      <c r="AB14" s="14" t="n">
+        <v>43</v>
+      </c>
+      <c r="O14" s="17" t="n">
+        <v>51888821575.225</v>
+      </c>
+      <c r="P14" s="17" t="n">
+        <v>32603689771.8533</v>
+      </c>
+      <c r="Q14" s="17" t="n">
+        <v>18624525552.7286</v>
+      </c>
+      <c r="R14" s="17" t="n">
+        <v>16068995341.1965</v>
+      </c>
+      <c r="S14" s="17" t="n">
+        <v>12779545694.5867</v>
+      </c>
+      <c r="T14" s="17" t="n">
+        <v>11073302129.1996</v>
+      </c>
+      <c r="U14" s="17" t="n">
+        <v>12383549493.0202</v>
+      </c>
+      <c r="V14" s="17" t="n">
+        <v>11717587215.061</v>
+      </c>
+      <c r="W14" s="17" t="n">
+        <v>10577083876.2989</v>
+      </c>
+      <c r="X14" s="17" t="n">
+        <v>12603360450.2236</v>
+      </c>
+      <c r="Y14" s="17" t="n">
+        <v>12024794470.6126</v>
+      </c>
+      <c r="Z14" s="17" t="n">
+        <v>11159041230.4726</v>
+      </c>
+      <c r="AA14" s="17" t="n">
+        <v>25833604840.0789</v>
+      </c>
+      <c r="AB14" s="17" t="n">
         <v>1093354425.2363</v>
       </c>
-      <c r="AC14" s="13" t="n">
+      <c r="AC14" s="15" t="n">
         <v>282398583.1566</v>
       </c>
     </row>
@@ -7802,54 +7808,54 @@
         <f>P15</f>
       </c>
       <c r="M15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N15" t="s">
-        <v>43</v>
-      </c>
-      <c r="O15" s="14" t="n">
-        <v>51025818982.3669</v>
-      </c>
-      <c r="P15" s="14" t="n">
-        <v>31871614799.3289</v>
-      </c>
-      <c r="Q15" s="14" t="n">
-        <v>18342934576.8084</v>
-      </c>
-      <c r="R15" s="14" t="n">
-        <v>15570162851.9346</v>
-      </c>
-      <c r="S15" s="14" t="n">
-        <v>11724223835.7693</v>
-      </c>
-      <c r="T15" s="14" t="n">
-        <v>10282103280.7543</v>
-      </c>
-      <c r="U15" s="14" t="n">
-        <v>11978672172.6364</v>
-      </c>
-      <c r="V15" s="14" t="n">
-        <v>11639281238.4459</v>
-      </c>
-      <c r="W15" s="14" t="n">
-        <v>10488589097.8683</v>
-      </c>
-      <c r="X15" s="14" t="n">
-        <v>12205328030.7975</v>
-      </c>
-      <c r="Y15" s="14" t="n">
-        <v>11935398072.6335</v>
-      </c>
-      <c r="Z15" s="14" t="n">
-        <v>11322813008.8678</v>
-      </c>
-      <c r="AA15" s="14" t="n">
-        <v>26136114722.1225</v>
-      </c>
-      <c r="AB15" s="14" t="n">
+        <v>40</v>
+      </c>
+      <c r="O15" s="17" t="n">
+        <v>3896127951.6105</v>
+      </c>
+      <c r="P15" s="17" t="n">
+        <v>3937348672.9191</v>
+      </c>
+      <c r="Q15" s="17" t="n">
+        <v>3210731356.1299</v>
+      </c>
+      <c r="R15" s="17" t="n">
+        <v>3590686087.5641</v>
+      </c>
+      <c r="S15" s="17" t="n">
+        <v>3249832070.0508</v>
+      </c>
+      <c r="T15" s="17" t="n">
+        <v>4204304430.8653</v>
+      </c>
+      <c r="U15" s="17" t="n">
+        <v>4997935832.7874</v>
+      </c>
+      <c r="V15" s="17" t="n">
+        <v>6189402426.5831</v>
+      </c>
+      <c r="W15" s="17" t="n">
+        <v>6493069677.0296</v>
+      </c>
+      <c r="X15" s="17" t="n">
+        <v>6496067863.2198</v>
+      </c>
+      <c r="Y15" s="17" t="n">
+        <v>6982552971.4019</v>
+      </c>
+      <c r="Z15" s="17" t="n">
+        <v>6862482873.9066</v>
+      </c>
+      <c r="AA15" s="17" t="n">
+        <v>8814402353.8</v>
+      </c>
+      <c r="AB15" s="17" t="n">
         <v>1751420090.4863</v>
       </c>
-      <c r="AC15" s="13" t="n">
+      <c r="AC15" s="15" t="n">
         <v>35988349058.3166</v>
       </c>
     </row>
@@ -7867,51 +7873,51 @@
         <v>53</v>
       </c>
       <c r="N16" t="s">
-        <v>40</v>
-      </c>
-      <c r="O16" s="14" t="n">
-        <v>4938072295.3959</v>
-      </c>
-      <c r="P16" s="14" t="n">
-        <v>4827351746.8783</v>
-      </c>
-      <c r="Q16" s="14" t="n">
-        <v>3555864463.6901</v>
-      </c>
-      <c r="R16" s="14" t="n">
-        <v>4021264457.9802</v>
-      </c>
-      <c r="S16" s="14" t="n">
-        <v>3644162020.2834</v>
-      </c>
-      <c r="T16" s="14" t="n">
-        <v>4529922466.4506</v>
-      </c>
-      <c r="U16" s="14" t="n">
-        <v>5463911101.9978</v>
-      </c>
-      <c r="V16" s="14" t="n">
-        <v>6604000036.1281</v>
-      </c>
-      <c r="W16" s="14" t="n">
-        <v>6973832250.8617</v>
-      </c>
-      <c r="X16" s="14" t="n">
-        <v>6959045290.4858</v>
-      </c>
-      <c r="Y16" s="14" t="n">
-        <v>7137378488.2274</v>
-      </c>
-      <c r="Z16" s="14" t="n">
-        <v>6767684566.4429</v>
-      </c>
-      <c r="AA16" s="14" t="n">
-        <v>8611322470.3826</v>
-      </c>
-      <c r="AB16" s="14" t="n">
+        <v>43</v>
+      </c>
+      <c r="O16" s="17" t="n">
+        <v>14924806667.1775</v>
+      </c>
+      <c r="P16" s="17" t="n">
+        <v>14121433442.5084</v>
+      </c>
+      <c r="Q16" s="17" t="n">
+        <v>12296900084.3472</v>
+      </c>
+      <c r="R16" s="17" t="n">
+        <v>12506026375.4866</v>
+      </c>
+      <c r="S16" s="17" t="n">
+        <v>12358426373.7167</v>
+      </c>
+      <c r="T16" s="17" t="n">
+        <v>12568867321.0656</v>
+      </c>
+      <c r="U16" s="17" t="n">
+        <v>13033903711.0301</v>
+      </c>
+      <c r="V16" s="17" t="n">
+        <v>16297241164.2412</v>
+      </c>
+      <c r="W16" s="17" t="n">
+        <v>16411545919.0185</v>
+      </c>
+      <c r="X16" s="17" t="n">
+        <v>15953388795.9187</v>
+      </c>
+      <c r="Y16" s="17" t="n">
+        <v>14292710488.8398</v>
+      </c>
+      <c r="Z16" s="17" t="n">
+        <v>14983349579.5726</v>
+      </c>
+      <c r="AA16" s="17" t="n">
+        <v>11139398950.3839</v>
+      </c>
+      <c r="AB16" s="17" t="n">
         <v>4583984512.0708</v>
       </c>
-      <c r="AC16" s="13" t="n">
+      <c r="AC16" s="15" t="n">
         <v>2179255687.4008</v>
       </c>
     </row>
@@ -7926,54 +7932,54 @@
         <f>P17</f>
       </c>
       <c r="M17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N17" t="s">
-        <v>43</v>
-      </c>
-      <c r="O17" s="14" t="n">
-        <v>13962135476.4921</v>
-      </c>
-      <c r="P17" s="14" t="n">
-        <v>13223323719.1346</v>
-      </c>
-      <c r="Q17" s="14" t="n">
-        <v>11982732390.167</v>
-      </c>
-      <c r="R17" s="14" t="n">
-        <v>12114628991.1955</v>
-      </c>
-      <c r="S17" s="14" t="n">
-        <v>11977715880.2141</v>
-      </c>
-      <c r="T17" s="14" t="n">
-        <v>12243098979.518</v>
-      </c>
-      <c r="U17" s="14" t="n">
-        <v>12600972640.3082</v>
-      </c>
-      <c r="V17" s="14" t="n">
-        <v>15936721040.4715</v>
-      </c>
-      <c r="W17" s="14" t="n">
-        <v>16008560472.8886</v>
-      </c>
-      <c r="X17" s="14" t="n">
-        <v>15465173942.1724</v>
-      </c>
-      <c r="Y17" s="14" t="n">
-        <v>14040430300.0082</v>
-      </c>
-      <c r="Z17" s="14" t="n">
-        <v>14738116561.5618</v>
-      </c>
-      <c r="AA17" s="14" t="n">
-        <v>11028697994.0188</v>
-      </c>
-      <c r="AB17" s="14" t="n">
+        <v>40</v>
+      </c>
+      <c r="O17" s="17" t="n">
+        <v>922465548.9992</v>
+      </c>
+      <c r="P17" s="17" t="n">
+        <v>549700703.6313</v>
+      </c>
+      <c r="Q17" s="17" t="n">
+        <v>364659592.3708</v>
+      </c>
+      <c r="R17" s="17" t="n">
+        <v>352289458.2254</v>
+      </c>
+      <c r="S17" s="17" t="n">
+        <v>348608488.1532</v>
+      </c>
+      <c r="T17" s="17" t="n">
+        <v>443966250.4258</v>
+      </c>
+      <c r="U17" s="17" t="n">
+        <v>233627398.4194</v>
+      </c>
+      <c r="V17" s="17" t="n">
+        <v>285689730.8393</v>
+      </c>
+      <c r="W17" s="17" t="n">
+        <v>424132939.4359</v>
+      </c>
+      <c r="X17" s="17" t="n">
+        <v>274457825.1727</v>
+      </c>
+      <c r="Y17" s="17" t="n">
+        <v>233738346.652</v>
+      </c>
+      <c r="Z17" s="17" t="n">
+        <v>254689686.9587</v>
+      </c>
+      <c r="AA17" s="17" t="n">
+        <v>1589998587.9479</v>
+      </c>
+      <c r="AB17" s="17" t="n">
         <v>202940788822.312</v>
       </c>
-      <c r="AC17" s="13" t="n">
+      <c r="AC17" s="15" t="n">
         <v>217761964892.162</v>
       </c>
     </row>
@@ -7991,51 +7997,51 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>40</v>
-      </c>
-      <c r="O18" s="14" t="n">
-        <v>1104815880.2662</v>
-      </c>
-      <c r="P18" s="14" t="n">
-        <v>567772243.9955</v>
-      </c>
-      <c r="Q18" s="14" t="n">
-        <v>399938347.5108</v>
-      </c>
-      <c r="R18" s="14" t="n">
-        <v>355739285.8054</v>
-      </c>
-      <c r="S18" s="14" t="n">
-        <v>353003610.9832</v>
-      </c>
-      <c r="T18" s="14" t="n">
-        <v>471117220.9799</v>
-      </c>
-      <c r="U18" s="14" t="n">
-        <v>235979828.7612</v>
-      </c>
-      <c r="V18" s="14" t="n">
-        <v>279460783.4001</v>
-      </c>
-      <c r="W18" s="14" t="n">
-        <v>417457428.0022</v>
-      </c>
-      <c r="X18" s="14" t="n">
-        <v>283289326.9169</v>
-      </c>
-      <c r="Y18" s="14" t="n">
-        <v>263570893.212</v>
-      </c>
-      <c r="Z18" s="14" t="n">
-        <v>249258643.1787</v>
-      </c>
-      <c r="AA18" s="14" t="n">
-        <v>1719360865.2598</v>
-      </c>
-      <c r="AB18" s="14" t="n">
+        <v>43</v>
+      </c>
+      <c r="O18" s="17" t="n">
+        <v>2415098066.7008</v>
+      </c>
+      <c r="P18" s="17" t="n">
+        <v>1884981201.3818</v>
+      </c>
+      <c r="Q18" s="17" t="n">
+        <v>1116524442.8424</v>
+      </c>
+      <c r="R18" s="17" t="n">
+        <v>970390145.3863</v>
+      </c>
+      <c r="S18" s="17" t="n">
+        <v>688829745.6869</v>
+      </c>
+      <c r="T18" s="17" t="n">
+        <v>678087526.4504</v>
+      </c>
+      <c r="U18" s="17" t="n">
+        <v>753399556.0265</v>
+      </c>
+      <c r="V18" s="17" t="n">
+        <v>723658793.4366</v>
+      </c>
+      <c r="W18" s="17" t="n">
+        <v>888249480.0033</v>
+      </c>
+      <c r="X18" s="17" t="n">
+        <v>810717582.5063</v>
+      </c>
+      <c r="Y18" s="17" t="n">
+        <v>416181790.5783</v>
+      </c>
+      <c r="Z18" s="17" t="n">
+        <v>454227577.6369</v>
+      </c>
+      <c r="AA18" s="17" t="n">
+        <v>1912728130.1274</v>
+      </c>
+      <c r="AB18" s="17" t="n">
         <v>6404705</v>
       </c>
-      <c r="AC18" s="13" t="n">
+      <c r="AC18" s="15" t="n">
         <v>2401108</v>
       </c>
     </row>
@@ -8050,52 +8056,52 @@
         <f>P19</f>
       </c>
       <c r="M19" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="N19" t="s">
-        <v>43</v>
-      </c>
-      <c r="O19" s="14" t="n">
-        <v>2232747735.4338</v>
-      </c>
-      <c r="P19" s="14" t="n">
-        <v>1866909661.0176</v>
-      </c>
-      <c r="Q19" s="14" t="n">
-        <v>1081245687.7024</v>
-      </c>
-      <c r="R19" s="14" t="n">
-        <v>966940317.8063</v>
-      </c>
-      <c r="S19" s="14" t="n">
-        <v>684434622.8569</v>
-      </c>
-      <c r="T19" s="14" t="n">
-        <v>650936555.8963</v>
-      </c>
-      <c r="U19" s="14" t="n">
-        <v>751047125.6847</v>
-      </c>
-      <c r="V19" s="14" t="n">
-        <v>729887740.8758</v>
-      </c>
-      <c r="W19" s="14" t="n">
-        <v>894924991.437</v>
-      </c>
-      <c r="X19" s="14" t="n">
-        <v>801886080.7621</v>
-      </c>
-      <c r="Y19" s="14" t="n">
-        <v>386349244.0183</v>
-      </c>
-      <c r="Z19" s="14" t="n">
-        <v>459658621.4169</v>
-      </c>
-      <c r="AA19" s="14" t="n">
-        <v>1783365852.8155</v>
-      </c>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="O19" s="17" t="str">
+        <f>Sum(O2:O18)</f>
+      </c>
+      <c r="P19" s="17" t="str">
+        <f>Sum(P2:P18)</f>
+      </c>
+      <c r="Q19" s="17" t="str">
+        <f>Sum(Q2:Q18)</f>
+      </c>
+      <c r="R19" s="17" t="str">
+        <f>Sum(R2:R18)</f>
+      </c>
+      <c r="S19" s="17" t="str">
+        <f>Sum(S2:S18)</f>
+      </c>
+      <c r="T19" s="17" t="str">
+        <f>Sum(T2:T18)</f>
+      </c>
+      <c r="U19" s="17" t="str">
+        <f>Sum(U2:U18)</f>
+      </c>
+      <c r="V19" s="17" t="str">
+        <f>Sum(V2:V18)</f>
+      </c>
+      <c r="W19" s="17" t="str">
+        <f>Sum(W2:W18)</f>
+      </c>
+      <c r="X19" s="17" t="str">
+        <f>Sum(X2:X18)</f>
+      </c>
+      <c r="Y19" s="17" t="str">
+        <f>Sum(Y2:Y18)</f>
+      </c>
+      <c r="Z19" s="17" t="str">
+        <f>Sum(Z2:Z18)</f>
+      </c>
+      <c r="AA19" s="17" t="str">
+        <f>Sum(AA2:AA18)</f>
+      </c>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="15" t="n">
         <v>608168.3125</v>
       </c>
     </row>
@@ -8115,49 +8121,49 @@
       <c r="N20" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="14" t="str">
+      <c r="O20" s="16" t="str">
         <f>Sum(O2:O19)</f>
       </c>
-      <c r="P20" s="14" t="str">
+      <c r="P20" s="16" t="str">
         <f>Sum(P2:P19)</f>
       </c>
-      <c r="Q20" s="14" t="str">
+      <c r="Q20" s="16" t="str">
         <f>Sum(Q2:Q19)</f>
       </c>
-      <c r="R20" s="14" t="str">
+      <c r="R20" s="16" t="str">
         <f>Sum(R2:R19)</f>
       </c>
-      <c r="S20" s="14" t="str">
+      <c r="S20" s="16" t="str">
         <f>Sum(S2:S19)</f>
       </c>
-      <c r="T20" s="14" t="str">
+      <c r="T20" s="16" t="str">
         <f>Sum(T2:T19)</f>
       </c>
-      <c r="U20" s="14" t="str">
+      <c r="U20" s="16" t="str">
         <f>Sum(U2:U19)</f>
       </c>
-      <c r="V20" s="14" t="str">
+      <c r="V20" s="16" t="str">
         <f>Sum(V2:V19)</f>
       </c>
-      <c r="W20" s="14" t="str">
+      <c r="W20" s="16" t="str">
         <f>Sum(W2:W19)</f>
       </c>
-      <c r="X20" s="14" t="str">
+      <c r="X20" s="16" t="str">
         <f>Sum(X2:X19)</f>
       </c>
-      <c r="Y20" s="14" t="str">
+      <c r="Y20" s="16" t="str">
         <f>Sum(Y2:Y19)</f>
       </c>
-      <c r="Z20" s="14" t="str">
+      <c r="Z20" s="16" t="str">
         <f>Sum(Z2:Z19)</f>
       </c>
-      <c r="AA20" s="14" t="str">
+      <c r="AA20" s="16" t="str">
         <f>Sum(AA2:AA19)</f>
       </c>
-      <c r="AB20" s="14" t="n">
+      <c r="AB20" s="16" t="n">
         <v>340466689.9108</v>
       </c>
-      <c r="AC20" s="13" t="n">
+      <c r="AC20" s="15" t="n">
         <v>643485539.1533</v>
       </c>
     </row>
@@ -8180,43 +8186,43 @@
       <c r="P21" t="s">
         <v>40</v>
       </c>
-      <c r="Q21" s="13" t="n">
+      <c r="Q21" s="15" t="n">
         <v>192264708.408</v>
       </c>
-      <c r="R21" s="13" t="n">
+      <c r="R21" s="15" t="n">
         <v>432461933.6948</v>
       </c>
-      <c r="S21" s="13" t="n">
+      <c r="S21" s="15" t="n">
         <v>22668382.75</v>
       </c>
-      <c r="T21" s="13" t="n">
+      <c r="T21" s="15" t="n">
         <v>236804941.49</v>
       </c>
-      <c r="U21" s="13" t="n">
+      <c r="U21" s="15" t="n">
         <v>542385918.79</v>
       </c>
-      <c r="V21" s="13" t="n">
+      <c r="V21" s="15" t="n">
         <v>-1934296.3824</v>
       </c>
-      <c r="W21" s="13" t="n">
+      <c r="W21" s="15" t="n">
         <v>292218906.3977</v>
       </c>
-      <c r="X21" s="13" t="n">
+      <c r="X21" s="15" t="n">
         <v>131234185.4373</v>
       </c>
-      <c r="Y21" s="13" t="n">
+      <c r="Y21" s="15" t="n">
         <v>138060396.4841</v>
       </c>
-      <c r="Z21" s="13" t="n">
+      <c r="Z21" s="15" t="n">
         <v>12037010.1016</v>
       </c>
-      <c r="AA21" s="13" t="n">
+      <c r="AA21" s="15" t="n">
         <v>20156454.8457</v>
       </c>
-      <c r="AB21" s="13" t="n">
+      <c r="AB21" s="15" t="n">
         <v>29953228.92</v>
       </c>
-      <c r="AC21" s="13" t="n">
+      <c r="AC21" s="15" t="n">
         <v>77461924.1406</v>
       </c>
     </row>
@@ -8239,39 +8245,39 @@
       <c r="P22" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="13" t="n">
+      <c r="Q22" s="15" t="n">
         <v>6718873.5595</v>
       </c>
-      <c r="R22" s="13" t="n">
+      <c r="R22" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="S22" s="13" t="n">
+      <c r="S22" s="15" t="n">
         <v>-958989.58</v>
       </c>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13" t="n">
+      <c r="T22" s="15"/>
+      <c r="U22" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="V22" s="13" t="n">
+      <c r="V22" s="15" t="n">
         <v>-32606.1309</v>
       </c>
-      <c r="W22" s="13" t="n">
+      <c r="W22" s="15" t="n">
         <v>3144852</v>
       </c>
-      <c r="X22" s="13" t="n">
+      <c r="X22" s="15" t="n">
         <v>248186905.5469</v>
       </c>
-      <c r="Y22" s="13" t="n">
+      <c r="Y22" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13" t="n">
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AB22" s="13" t="n">
+      <c r="AB22" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AC22" s="13" t="n">
+      <c r="AC22" s="15" t="n">
         <v>895606920.8759</v>
       </c>
     </row>
@@ -8294,43 +8300,43 @@
       <c r="P23" t="s">
         <v>40</v>
       </c>
-      <c r="Q23" s="13" t="n">
+      <c r="Q23" s="15" t="n">
         <v>3757906313.2917</v>
       </c>
-      <c r="R23" s="13" t="n">
+      <c r="R23" s="15" t="n">
         <v>2636339228.5612</v>
       </c>
-      <c r="S23" s="13" t="n">
+      <c r="S23" s="15" t="n">
         <v>2406536339.1238</v>
       </c>
-      <c r="T23" s="13" t="n">
+      <c r="T23" s="15" t="n">
         <v>1545107607.9249</v>
       </c>
-      <c r="U23" s="13" t="n">
+      <c r="U23" s="15" t="n">
         <v>2410360406.7891</v>
       </c>
-      <c r="V23" s="13" t="n">
+      <c r="V23" s="15" t="n">
         <v>1883751673.2956</v>
       </c>
-      <c r="W23" s="13" t="n">
+      <c r="W23" s="15" t="n">
         <v>1337804888.0692</v>
       </c>
-      <c r="X23" s="13" t="n">
+      <c r="X23" s="15" t="n">
         <v>1427553170.573</v>
       </c>
-      <c r="Y23" s="13" t="n">
+      <c r="Y23" s="15" t="n">
         <v>1612935761.7717</v>
       </c>
-      <c r="Z23" s="13" t="n">
+      <c r="Z23" s="15" t="n">
         <v>2055156640.7001</v>
       </c>
-      <c r="AA23" s="13" t="n">
+      <c r="AA23" s="15" t="n">
         <v>1646914171.7771</v>
       </c>
-      <c r="AB23" s="13" t="n">
+      <c r="AB23" s="15" t="n">
         <v>1925714022.7309</v>
       </c>
-      <c r="AC23" s="13" t="n">
+      <c r="AC23" s="15" t="n">
         <v>4271670114.9724</v>
       </c>
     </row>
@@ -8353,43 +8359,43 @@
       <c r="P24" t="s">
         <v>43</v>
       </c>
-      <c r="Q24" s="13" t="n">
+      <c r="Q24" s="15" t="n">
         <v>51019100108.8074</v>
       </c>
-      <c r="R24" s="13" t="n">
+      <c r="R24" s="15" t="n">
         <v>31871614799.3289</v>
       </c>
-      <c r="S24" s="13" t="n">
+      <c r="S24" s="15" t="n">
         <v>18343893566.3884</v>
       </c>
-      <c r="T24" s="13" t="n">
+      <c r="T24" s="15" t="n">
         <v>15570162851.9346</v>
       </c>
-      <c r="U24" s="13" t="n">
+      <c r="U24" s="15" t="n">
         <v>11724223835.7693</v>
       </c>
-      <c r="V24" s="13" t="n">
+      <c r="V24" s="15" t="n">
         <v>10282135886.8852</v>
       </c>
-      <c r="W24" s="13" t="n">
+      <c r="W24" s="15" t="n">
         <v>11975527320.6364</v>
       </c>
-      <c r="X24" s="13" t="n">
+      <c r="X24" s="15" t="n">
         <v>11391094332.899</v>
       </c>
-      <c r="Y24" s="13" t="n">
+      <c r="Y24" s="15" t="n">
         <v>10488589097.8683</v>
       </c>
-      <c r="Z24" s="13" t="n">
+      <c r="Z24" s="15" t="n">
         <v>12205328030.7975</v>
       </c>
-      <c r="AA24" s="13" t="n">
+      <c r="AA24" s="15" t="n">
         <v>11935398072.6335</v>
       </c>
-      <c r="AB24" s="13" t="n">
+      <c r="AB24" s="15" t="n">
         <v>11322813008.8678</v>
       </c>
-      <c r="AC24" s="13" t="n">
+      <c r="AC24" s="15" t="n">
         <v>25240507801.2466</v>
       </c>
     </row>
@@ -8412,43 +8418,43 @@
       <c r="P25" t="s">
         <v>40</v>
       </c>
-      <c r="Q25" s="13" t="n">
+      <c r="Q25" s="15" t="n">
         <v>4155345142.6165</v>
       </c>
-      <c r="R25" s="13" t="n">
+      <c r="R25" s="15" t="n">
         <v>3780309904.407</v>
       </c>
-      <c r="S25" s="13" t="n">
+      <c r="S25" s="15" t="n">
         <v>3134498156.5773</v>
       </c>
-      <c r="T25" s="13" t="n">
+      <c r="T25" s="15" t="n">
         <v>3434135993.742</v>
       </c>
-      <c r="U25" s="13" t="n">
+      <c r="U25" s="15" t="n">
         <v>3221896364.8284</v>
       </c>
-      <c r="V25" s="13" t="n">
+      <c r="V25" s="15" t="n">
         <v>3904947813.0973</v>
       </c>
-      <c r="W25" s="13" t="n">
+      <c r="W25" s="15" t="n">
         <v>4859255381.0139</v>
       </c>
-      <c r="X25" s="13" t="n">
+      <c r="X25" s="15" t="n">
         <v>5357660292.0929</v>
       </c>
-      <c r="Y25" s="13" t="n">
+      <c r="Y25" s="15" t="n">
         <v>5880923664.0743</v>
       </c>
-      <c r="Z25" s="13" t="n">
+      <c r="Z25" s="15" t="n">
         <v>5956682767.94</v>
       </c>
-      <c r="AA25" s="13" t="n">
+      <c r="AA25" s="15" t="n">
         <v>6502683225.7105</v>
       </c>
-      <c r="AB25" s="13" t="n">
+      <c r="AB25" s="15" t="n">
         <v>6037968318.0092</v>
       </c>
-      <c r="AC25" s="13" t="n">
+      <c r="AC25" s="15" t="n">
         <v>7892312416.3985</v>
       </c>
     </row>
@@ -8471,43 +8477,43 @@
       <c r="P26" t="s">
         <v>43</v>
       </c>
-      <c r="Q26" s="13" t="n">
+      <c r="Q26" s="15" t="n">
         <v>2336264428.3299</v>
       </c>
-      <c r="R26" s="13" t="n">
+      <c r="R26" s="15" t="n">
         <v>2518158419.0719</v>
       </c>
-      <c r="S26" s="13" t="n">
+      <c r="S26" s="15" t="n">
         <v>2667841782.2859</v>
       </c>
-      <c r="T26" s="13" t="n">
+      <c r="T26" s="15" t="n">
         <v>3065056373.78</v>
       </c>
-      <c r="U26" s="13" t="n">
+      <c r="U26" s="15" t="n">
         <v>3581946759.9662</v>
       </c>
-      <c r="V26" s="13" t="n">
+      <c r="V26" s="15" t="n">
         <v>3543175256.3549</v>
       </c>
-      <c r="W26" s="13" t="n">
+      <c r="W26" s="15" t="n">
         <v>3267773533.1762</v>
       </c>
-      <c r="X26" s="13" t="n">
+      <c r="X26" s="15" t="n">
         <v>5240083219.9484</v>
       </c>
-      <c r="Y26" s="13" t="n">
+      <c r="Y26" s="15" t="n">
         <v>5048601648.6943</v>
       </c>
-      <c r="Z26" s="13" t="n">
+      <c r="Z26" s="15" t="n">
         <v>5274474508.0714</v>
       </c>
-      <c r="AA26" s="13" t="n">
+      <c r="AA26" s="15" t="n">
         <v>4355524090.5315</v>
       </c>
-      <c r="AB26" s="13" t="n">
+      <c r="AB26" s="15" t="n">
         <v>4714377177.6137</v>
       </c>
-      <c r="AC26" s="13" t="n">
+      <c r="AC26" s="15" t="n">
         <v>4480358111.3698</v>
       </c>
     </row>
@@ -8530,43 +8536,43 @@
       <c r="P27" t="s">
         <v>40</v>
       </c>
-      <c r="Q27" s="13" t="n">
+      <c r="Q27" s="15" t="n">
         <v>782727152.7794</v>
       </c>
-      <c r="R27" s="13" t="n">
+      <c r="R27" s="15" t="n">
         <v>1047041842.4713</v>
       </c>
-      <c r="S27" s="13" t="n">
+      <c r="S27" s="15" t="n">
         <v>421366307.1128</v>
       </c>
-      <c r="T27" s="13" t="n">
+      <c r="T27" s="15" t="n">
         <v>587128464.2382</v>
       </c>
-      <c r="U27" s="13" t="n">
+      <c r="U27" s="15" t="n">
         <v>422265655.455</v>
       </c>
-      <c r="V27" s="13" t="n">
+      <c r="V27" s="15" t="n">
         <v>624974653.3533</v>
       </c>
-      <c r="W27" s="13" t="n">
+      <c r="W27" s="15" t="n">
         <v>604655720.9839</v>
       </c>
-      <c r="X27" s="13" t="n">
+      <c r="X27" s="15" t="n">
         <v>1246339744.0352</v>
       </c>
-      <c r="Y27" s="13" t="n">
+      <c r="Y27" s="15" t="n">
         <v>1092908586.7874</v>
       </c>
-      <c r="Z27" s="13" t="n">
+      <c r="Z27" s="15" t="n">
         <v>1002362522.5458</v>
       </c>
-      <c r="AA27" s="13" t="n">
+      <c r="AA27" s="15" t="n">
         <v>634695262.5169</v>
       </c>
-      <c r="AB27" s="13" t="n">
+      <c r="AB27" s="15" t="n">
         <v>729716248.4337</v>
       </c>
-      <c r="AC27" s="13" t="n">
+      <c r="AC27" s="15" t="n">
         <v>719010053.9841</v>
       </c>
     </row>
@@ -8589,43 +8595,43 @@
       <c r="P28" t="s">
         <v>43</v>
       </c>
-      <c r="Q28" s="13" t="n">
+      <c r="Q28" s="15" t="n">
         <v>11625871048.1622</v>
       </c>
-      <c r="R28" s="13" t="n">
+      <c r="R28" s="15" t="n">
         <v>10705165300.0627</v>
       </c>
-      <c r="S28" s="13" t="n">
+      <c r="S28" s="15" t="n">
         <v>9314890607.8811</v>
       </c>
-      <c r="T28" s="13" t="n">
+      <c r="T28" s="15" t="n">
         <v>9049572617.4155</v>
       </c>
-      <c r="U28" s="13" t="n">
+      <c r="U28" s="15" t="n">
         <v>8395769120.2479</v>
       </c>
-      <c r="V28" s="13" t="n">
+      <c r="V28" s="15" t="n">
         <v>8699923723.1631</v>
       </c>
-      <c r="W28" s="13" t="n">
+      <c r="W28" s="15" t="n">
         <v>9333199107.132</v>
       </c>
-      <c r="X28" s="13" t="n">
+      <c r="X28" s="15" t="n">
         <v>10696637820.5231</v>
       </c>
-      <c r="Y28" s="13" t="n">
+      <c r="Y28" s="15" t="n">
         <v>10959958824.1943</v>
       </c>
-      <c r="Z28" s="13" t="n">
+      <c r="Z28" s="15" t="n">
         <v>10190699434.101</v>
       </c>
-      <c r="AA28" s="13" t="n">
+      <c r="AA28" s="15" t="n">
         <v>9684906209.4767</v>
       </c>
-      <c r="AB28" s="13" t="n">
+      <c r="AB28" s="15" t="n">
         <v>10023739383.9481</v>
       </c>
-      <c r="AC28" s="13" t="n">
+      <c r="AC28" s="15" t="n">
         <v>6548339882.649</v>
       </c>
     </row>
@@ -8648,43 +8654,43 @@
       <c r="P29" t="s">
         <v>40</v>
       </c>
-      <c r="Q29" s="13" t="n">
+      <c r="Q29" s="15" t="n">
         <v>566142555.4208</v>
       </c>
-      <c r="R29" s="13" t="n">
+      <c r="R29" s="15" t="n">
         <v>435766872.5077</v>
       </c>
-      <c r="S29" s="13" t="n">
+      <c r="S29" s="15" t="n">
         <v>209284093.4445</v>
       </c>
-      <c r="T29" s="13" t="n">
+      <c r="T29" s="15" t="n">
         <v>251278211.2131</v>
       </c>
-      <c r="U29" s="13" t="n">
+      <c r="U29" s="15" t="n">
         <v>235751099.2538</v>
       </c>
-      <c r="V29" s="13" t="n">
+      <c r="V29" s="15" t="n">
         <v>194402020.6435</v>
       </c>
-      <c r="W29" s="13" t="n">
+      <c r="W29" s="15" t="n">
         <v>152884836.0763</v>
       </c>
-      <c r="X29" s="13" t="n">
+      <c r="X29" s="15" t="n">
         <v>183624001.902</v>
       </c>
-      <c r="Y29" s="13" t="n">
+      <c r="Y29" s="15" t="n">
         <v>252852819.0971</v>
       </c>
-      <c r="Z29" s="13" t="n">
+      <c r="Z29" s="15" t="n">
         <v>143103158.0568</v>
       </c>
-      <c r="AA29" s="13" t="n">
+      <c r="AA29" s="15" t="n">
         <v>92272452.9757</v>
       </c>
-      <c r="AB29" s="13" t="n">
+      <c r="AB29" s="15" t="n">
         <v>91164822.42</v>
       </c>
-      <c r="AC29" s="13" t="n">
+      <c r="AC29" s="15" t="n">
         <v>539862023.8513</v>
       </c>
     </row>
@@ -8707,43 +8713,43 @@
       <c r="P30" t="s">
         <v>43</v>
       </c>
-      <c r="Q30" s="13" t="n">
+      <c r="Q30" s="15" t="n">
         <v>155294748.9876</v>
       </c>
-      <c r="R30" s="13" t="n">
+      <c r="R30" s="15" t="n">
         <v>128542215.1719</v>
       </c>
-      <c r="S30" s="13" t="n">
+      <c r="S30" s="15" t="n">
         <v>63176245.83</v>
       </c>
-      <c r="T30" s="13" t="n">
+      <c r="T30" s="15" t="n">
         <v>91340616.04</v>
       </c>
-      <c r="U30" s="13" t="n">
+      <c r="U30" s="15" t="n">
         <v>63196411.41</v>
       </c>
-      <c r="V30" s="13" t="n">
+      <c r="V30" s="15" t="n">
         <v>70051809.5925</v>
       </c>
-      <c r="W30" s="13" t="n">
+      <c r="W30" s="15" t="n">
         <v>44974804.3729</v>
       </c>
-      <c r="X30" s="13" t="n">
+      <c r="X30" s="15" t="n">
         <v>78638020.943</v>
       </c>
-      <c r="Y30" s="13" t="n">
+      <c r="Y30" s="15" t="n">
         <v>61863226.6998</v>
       </c>
-      <c r="Z30" s="13" t="n">
+      <c r="Z30" s="15" t="n">
         <v>90495702.3871</v>
       </c>
-      <c r="AA30" s="13" t="n">
+      <c r="AA30" s="15" t="n">
         <v>74385576.5232</v>
       </c>
-      <c r="AB30" s="13" t="n">
+      <c r="AB30" s="15" t="n">
         <v>72102200.76</v>
       </c>
-      <c r="AC30" s="13" t="n">
+      <c r="AC30" s="15" t="n">
         <v>129346041.3345</v>
       </c>
     </row>
@@ -8766,43 +8772,43 @@
       <c r="P31" t="s">
         <v>40</v>
       </c>
-      <c r="Q31" s="13" t="n">
+      <c r="Q31" s="15" t="n">
         <v>538673324.8454</v>
       </c>
-      <c r="R31" s="13" t="n">
+      <c r="R31" s="15" t="n">
         <v>132005371.4878</v>
       </c>
-      <c r="S31" s="13" t="n">
+      <c r="S31" s="15" t="n">
         <v>190654254.0663</v>
       </c>
-      <c r="T31" s="13" t="n">
+      <c r="T31" s="15" t="n">
         <v>104461074.5923</v>
       </c>
-      <c r="U31" s="13" t="n">
+      <c r="U31" s="15" t="n">
         <v>117252511.7294</v>
       </c>
-      <c r="V31" s="13" t="n">
+      <c r="V31" s="15" t="n">
         <v>276715200.3364</v>
       </c>
-      <c r="W31" s="13" t="n">
+      <c r="W31" s="15" t="n">
         <v>83094992.6849</v>
       </c>
-      <c r="X31" s="13" t="n">
+      <c r="X31" s="15" t="n">
         <v>95836781.4981</v>
       </c>
-      <c r="Y31" s="13" t="n">
+      <c r="Y31" s="15" t="n">
         <v>164604608.9051</v>
       </c>
-      <c r="Z31" s="13" t="n">
+      <c r="Z31" s="15" t="n">
         <v>140186168.8601</v>
       </c>
-      <c r="AA31" s="13" t="n">
+      <c r="AA31" s="15" t="n">
         <v>171298440.2363</v>
       </c>
-      <c r="AB31" s="13" t="n">
+      <c r="AB31" s="15" t="n">
         <v>158093820.7587</v>
       </c>
-      <c r="AC31" s="13" t="n">
+      <c r="AC31" s="15" t="n">
         <v>1179498841.4085</v>
       </c>
     </row>
@@ -8825,43 +8831,43 @@
       <c r="P32" t="s">
         <v>43</v>
       </c>
-      <c r="Q32" s="13" t="n">
+      <c r="Q32" s="15" t="n">
         <v>2077452986.4462</v>
       </c>
-      <c r="R32" s="13" t="n">
+      <c r="R32" s="15" t="n">
         <v>1738367445.8457</v>
       </c>
-      <c r="S32" s="13" t="n">
+      <c r="S32" s="15" t="n">
         <v>1018069441.8724</v>
       </c>
-      <c r="T32" s="13" t="n">
+      <c r="T32" s="15" t="n">
         <v>875599701.7663</v>
       </c>
-      <c r="U32" s="13" t="n">
+      <c r="U32" s="15" t="n">
         <v>621238211.4469</v>
       </c>
-      <c r="V32" s="13" t="n">
+      <c r="V32" s="15" t="n">
         <v>580884746.3038</v>
       </c>
-      <c r="W32" s="13" t="n">
+      <c r="W32" s="15" t="n">
         <v>706072321.3118</v>
       </c>
-      <c r="X32" s="13" t="n">
+      <c r="X32" s="15" t="n">
         <v>651249719.9328</v>
       </c>
-      <c r="Y32" s="13" t="n">
+      <c r="Y32" s="15" t="n">
         <v>833061764.7372</v>
       </c>
-      <c r="Z32" s="13" t="n">
+      <c r="Z32" s="15" t="n">
         <v>711390378.375</v>
       </c>
-      <c r="AA32" s="13" t="n">
+      <c r="AA32" s="15" t="n">
         <v>311963667.4951</v>
       </c>
-      <c r="AB32" s="13" t="n">
+      <c r="AB32" s="15" t="n">
         <v>387556420.6569</v>
       </c>
-      <c r="AC32" s="13" t="n">
+      <c r="AC32" s="15" t="n">
         <v>1654019811.481</v>
       </c>
     </row>
@@ -8884,43 +8890,43 @@
       <c r="P33" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="13" t="str">
+      <c r="Q33" s="15" t="str">
         <f>Sum(Q2:Q32)</f>
       </c>
-      <c r="R33" s="13" t="str">
+      <c r="R33" s="15" t="str">
         <f>Sum(R2:R32)</f>
       </c>
-      <c r="S33" s="13" t="str">
+      <c r="S33" s="15" t="str">
         <f>Sum(S2:S32)</f>
       </c>
-      <c r="T33" s="13" t="str">
+      <c r="T33" s="15" t="str">
         <f>Sum(T2:T32)</f>
       </c>
-      <c r="U33" s="13" t="str">
+      <c r="U33" s="15" t="str">
         <f>Sum(U2:U32)</f>
       </c>
-      <c r="V33" s="13" t="str">
+      <c r="V33" s="15" t="str">
         <f>Sum(V2:V32)</f>
       </c>
-      <c r="W33" s="13" t="str">
+      <c r="W33" s="15" t="str">
         <f>Sum(W2:W32)</f>
       </c>
-      <c r="X33" s="13" t="str">
+      <c r="X33" s="15" t="str">
         <f>Sum(X2:X32)</f>
       </c>
-      <c r="Y33" s="13" t="str">
+      <c r="Y33" s="15" t="str">
         <f>Sum(Y2:Y32)</f>
       </c>
-      <c r="Z33" s="13" t="str">
+      <c r="Z33" s="15" t="str">
         <f>Sum(Z2:Z32)</f>
       </c>
-      <c r="AA33" s="13" t="str">
+      <c r="AA33" s="15" t="str">
         <f>Sum(AA2:AA32)</f>
       </c>
-      <c r="AB33" s="13" t="str">
+      <c r="AB33" s="15" t="str">
         <f>Sum(AB2:AB32)</f>
       </c>
-      <c r="AC33" s="13" t="n">
+      <c r="AC33" s="15" t="n">
         <v>57206260748.585</v>
       </c>
     </row>
@@ -8943,43 +8949,43 @@
       <c r="P34" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="12" t="str">
+      <c r="Q34" s="14" t="str">
         <f>Sum(Q2:Q33)</f>
       </c>
-      <c r="R34" s="12" t="str">
+      <c r="R34" s="14" t="str">
         <f>Sum(R2:R33)</f>
       </c>
-      <c r="S34" s="12" t="str">
+      <c r="S34" s="14" t="str">
         <f>Sum(S2:S33)</f>
       </c>
-      <c r="T34" s="12" t="str">
+      <c r="T34" s="14" t="str">
         <f>Sum(T2:T33)</f>
       </c>
-      <c r="U34" s="12" t="str">
+      <c r="U34" s="14" t="str">
         <f>Sum(U2:U33)</f>
       </c>
-      <c r="V34" s="12" t="str">
+      <c r="V34" s="14" t="str">
         <f>Sum(V2:V33)</f>
       </c>
-      <c r="W34" s="12" t="str">
+      <c r="W34" s="14" t="str">
         <f>Sum(W2:W33)</f>
       </c>
-      <c r="X34" s="12" t="str">
+      <c r="X34" s="14" t="str">
         <f>Sum(X2:X33)</f>
       </c>
-      <c r="Y34" s="12" t="str">
+      <c r="Y34" s="14" t="str">
         <f>Sum(Y2:Y33)</f>
       </c>
-      <c r="Z34" s="12" t="str">
+      <c r="Z34" s="14" t="str">
         <f>Sum(Z2:Z33)</f>
       </c>
-      <c r="AA34" s="12" t="str">
+      <c r="AA34" s="14" t="str">
         <f>Sum(AA2:AA33)</f>
       </c>
-      <c r="AB34" s="12" t="str">
+      <c r="AB34" s="14" t="str">
         <f>Sum(AB2:AB33)</f>
       </c>
-      <c r="AC34" s="12"/>
+      <c r="AC34" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/CSIS_DoD_DIB_Trends.xlsx
+++ b/Output/AcqTrends/CSIS_DoD_DIB_Trends.xlsx
@@ -217,20 +217,20 @@
     <numFmt numFmtId="169" formatCode="0.00,&quot;K&quot;"/>
     <numFmt numFmtId="279" formatCode="0.00,&quot;K&quot;"/>
     <numFmt numFmtId="201" formatCode="0.00,&quot;K&quot;"/>
-    <numFmt numFmtId="266" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="280" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="206" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="247" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="277" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="274" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="244" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="276" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="247" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="213" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="242" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="273" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="275" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="280" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="281" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -272,20 +272,20 @@
     <xf numFmtId="279" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="266" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="280" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="247" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="277" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="274" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="244" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="276" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="247" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="213" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="242" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="273" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="275" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="280" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="281" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1886,58 +1886,58 @@
       <c r="N2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="18" t="n">
+      <c r="O2" s="5" t="n">
         <v>1606999011.4684</v>
       </c>
-      <c r="P2" s="18" t="n">
+      <c r="P2" s="5" t="n">
         <v>1749563743.6022</v>
       </c>
-      <c r="Q2" s="18" t="n">
+      <c r="Q2" s="5" t="n">
         <v>1506678493.28</v>
       </c>
-      <c r="R2" s="18" t="n">
+      <c r="R2" s="5" t="n">
         <v>1396525998.1383</v>
       </c>
-      <c r="S2" s="18" t="n">
+      <c r="S2" s="5" t="n">
         <v>1395033685.2127</v>
       </c>
-      <c r="T2" s="18" t="n">
+      <c r="T2" s="5" t="n">
         <v>1278108791.4847</v>
       </c>
-      <c r="U2" s="18" t="n">
+      <c r="U2" s="5" t="n">
         <v>1045675708.7394</v>
       </c>
-      <c r="V2" s="18" t="n">
+      <c r="V2" s="5" t="n">
         <v>1073170724.9555</v>
       </c>
-      <c r="W2" s="18" t="n">
+      <c r="W2" s="5" t="n">
         <v>1046138763.7492</v>
       </c>
-      <c r="X2" s="18" t="n">
+      <c r="X2" s="5" t="n">
         <v>1087591201.6851</v>
       </c>
-      <c r="Y2" s="18" t="n">
+      <c r="Y2" s="5" t="n">
         <v>1071647549.5105</v>
       </c>
-      <c r="Z2" s="18" t="n">
+      <c r="Z2" s="5" t="n">
         <v>1096403839.4295</v>
       </c>
-      <c r="AA2" s="18" t="n">
+      <c r="AA2" s="5" t="n">
         <v>1188366930.4747</v>
       </c>
-      <c r="AB2" s="18" t="n">
+      <c r="AB2" s="5" t="n">
         <v>923178410.2966</v>
       </c>
-      <c r="AC2" s="18" t="n">
+      <c r="AC2" s="5" t="n">
         <v>974979273.3563</v>
       </c>
-      <c r="AD2" s="18" t="n">
+      <c r="AD2" s="5" t="n">
         <v>981569971.77</v>
       </c>
-      <c r="AE2" s="18" t="n">
+      <c r="AE2" s="5" t="n">
         <v>921560067.2682</v>
       </c>
-      <c r="AF2" s="18" t="n">
+      <c r="AF2" s="5" t="n">
         <v>1096865763.5188</v>
       </c>
       <c r="AG2" s="7" t="n">
@@ -2000,58 +2000,58 @@
       <c r="N3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="18" t="n">
+      <c r="O3" s="5" t="n">
         <v>1180032109.8978</v>
       </c>
-      <c r="P3" s="18" t="n">
+      <c r="P3" s="5" t="n">
         <v>1200300207.2744</v>
       </c>
-      <c r="Q3" s="18" t="n">
+      <c r="Q3" s="5" t="n">
         <v>1137300771.12</v>
       </c>
-      <c r="R3" s="18" t="n">
+      <c r="R3" s="5" t="n">
         <v>1017293172.5488</v>
       </c>
-      <c r="S3" s="18" t="n">
+      <c r="S3" s="5" t="n">
         <v>871092120.5143</v>
       </c>
-      <c r="T3" s="18" t="n">
+      <c r="T3" s="5" t="n">
         <v>945790789.0135</v>
       </c>
-      <c r="U3" s="18" t="n">
+      <c r="U3" s="5" t="n">
         <v>867767355.9902</v>
       </c>
-      <c r="V3" s="18" t="n">
+      <c r="V3" s="5" t="n">
         <v>737853409.4731</v>
       </c>
-      <c r="W3" s="18" t="n">
+      <c r="W3" s="5" t="n">
         <v>803169465.5023</v>
       </c>
-      <c r="X3" s="18" t="n">
+      <c r="X3" s="5" t="n">
         <v>827231755.278</v>
       </c>
-      <c r="Y3" s="18" t="n">
+      <c r="Y3" s="5" t="n">
         <v>761292441.2189</v>
       </c>
-      <c r="Z3" s="18" t="n">
+      <c r="Z3" s="5" t="n">
         <v>802828716.5615</v>
       </c>
-      <c r="AA3" s="18" t="n">
+      <c r="AA3" s="5" t="n">
         <v>661170222.7363</v>
       </c>
-      <c r="AB3" s="18" t="n">
+      <c r="AB3" s="5" t="n">
         <v>537586909.9105</v>
       </c>
-      <c r="AC3" s="18" t="n">
+      <c r="AC3" s="5" t="n">
         <v>549566656.8368</v>
       </c>
-      <c r="AD3" s="18" t="n">
+      <c r="AD3" s="5" t="n">
         <v>721184811.9114</v>
       </c>
-      <c r="AE3" s="18" t="n">
+      <c r="AE3" s="5" t="n">
         <v>642045191.7792</v>
       </c>
-      <c r="AF3" s="18" t="n">
+      <c r="AF3" s="5" t="n">
         <v>820630788.2635</v>
       </c>
       <c r="AG3" s="7" t="n">
@@ -2114,58 +2114,58 @@
       <c r="N4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="18" t="n">
+      <c r="O4" s="5" t="n">
         <v>6050023649.082</v>
       </c>
-      <c r="P4" s="18" t="n">
+      <c r="P4" s="5" t="n">
         <v>6070175903.4709</v>
       </c>
-      <c r="Q4" s="18" t="n">
+      <c r="Q4" s="5" t="n">
         <v>6770894674.5474</v>
       </c>
-      <c r="R4" s="18" t="n">
+      <c r="R4" s="5" t="n">
         <v>6092366415.7604</v>
       </c>
-      <c r="S4" s="18" t="n">
+      <c r="S4" s="5" t="n">
         <v>5252582243.8437</v>
       </c>
-      <c r="T4" s="18" t="n">
+      <c r="T4" s="5" t="n">
         <v>5038443268.6773</v>
       </c>
-      <c r="U4" s="18" t="n">
+      <c r="U4" s="5" t="n">
         <v>3547997827.294</v>
       </c>
-      <c r="V4" s="18" t="n">
+      <c r="V4" s="5" t="n">
         <v>4125630746.9504</v>
       </c>
-      <c r="W4" s="18" t="n">
+      <c r="W4" s="5" t="n">
         <v>3545302422.732</v>
       </c>
-      <c r="X4" s="18" t="n">
+      <c r="X4" s="5" t="n">
         <v>3473913127.1993</v>
       </c>
-      <c r="Y4" s="18" t="n">
+      <c r="Y4" s="5" t="n">
         <v>3648187251.7777</v>
       </c>
-      <c r="Z4" s="18" t="n">
+      <c r="Z4" s="5" t="n">
         <v>3889482569.1032</v>
       </c>
-      <c r="AA4" s="18" t="n">
+      <c r="AA4" s="5" t="n">
         <v>3821057978.1805</v>
       </c>
-      <c r="AB4" s="18" t="n">
+      <c r="AB4" s="5" t="n">
         <v>4006400842.8603</v>
       </c>
-      <c r="AC4" s="18" t="n">
+      <c r="AC4" s="5" t="n">
         <v>3504419663.599</v>
       </c>
-      <c r="AD4" s="18" t="n">
+      <c r="AD4" s="5" t="n">
         <v>3673370759.7506</v>
       </c>
-      <c r="AE4" s="18" t="n">
+      <c r="AE4" s="5" t="n">
         <v>3920322861.3483</v>
       </c>
-      <c r="AF4" s="18" t="n">
+      <c r="AF4" s="5" t="n">
         <v>3901328619.9928</v>
       </c>
       <c r="AG4" s="7" t="n">
@@ -2228,58 +2228,58 @@
       <c r="N5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="18" t="n">
+      <c r="O5" s="5" t="n">
         <v>5595441997.0237</v>
       </c>
-      <c r="P5" s="18" t="n">
+      <c r="P5" s="5" t="n">
         <v>5518184831.8184</v>
       </c>
-      <c r="Q5" s="18" t="n">
+      <c r="Q5" s="5" t="n">
         <v>5159957917.8546</v>
       </c>
-      <c r="R5" s="18" t="n">
+      <c r="R5" s="5" t="n">
         <v>4849080063.0633</v>
       </c>
-      <c r="S5" s="18" t="n">
+      <c r="S5" s="5" t="n">
         <v>4158086087.5422</v>
       </c>
-      <c r="T5" s="18" t="n">
+      <c r="T5" s="5" t="n">
         <v>3804942400.1719</v>
       </c>
-      <c r="U5" s="18" t="n">
+      <c r="U5" s="5" t="n">
         <v>3049336153.0105</v>
       </c>
-      <c r="V5" s="18" t="n">
+      <c r="V5" s="5" t="n">
         <v>2556317287.9163</v>
       </c>
-      <c r="W5" s="18" t="n">
+      <c r="W5" s="5" t="n">
         <v>3013397844.471</v>
       </c>
-      <c r="X5" s="18" t="n">
+      <c r="X5" s="5" t="n">
         <v>3005441246.348</v>
       </c>
-      <c r="Y5" s="18" t="n">
+      <c r="Y5" s="5" t="n">
         <v>2936729606.1192</v>
       </c>
-      <c r="Z5" s="18" t="n">
+      <c r="Z5" s="5" t="n">
         <v>3277427006.0098</v>
       </c>
-      <c r="AA5" s="18" t="n">
+      <c r="AA5" s="5" t="n">
         <v>3233033152.6388</v>
       </c>
-      <c r="AB5" s="18" t="n">
+      <c r="AB5" s="5" t="n">
         <v>2853860434.8449</v>
       </c>
-      <c r="AC5" s="18" t="n">
+      <c r="AC5" s="5" t="n">
         <v>2954651964.3766</v>
       </c>
-      <c r="AD5" s="18" t="n">
+      <c r="AD5" s="5" t="n">
         <v>3186380786.6511</v>
       </c>
-      <c r="AE5" s="18" t="n">
+      <c r="AE5" s="5" t="n">
         <v>3572419683.0045</v>
       </c>
-      <c r="AF5" s="18" t="n">
+      <c r="AF5" s="5" t="n">
         <v>3446915761.444</v>
       </c>
       <c r="AG5" s="7" t="n">
@@ -2342,58 +2342,58 @@
       <c r="N6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="18" t="n">
+      <c r="O6" s="5" t="n">
         <v>3741269922.5523</v>
       </c>
-      <c r="P6" s="18" t="n">
+      <c r="P6" s="5" t="n">
         <v>3622128787.5613</v>
       </c>
-      <c r="Q6" s="18" t="n">
+      <c r="Q6" s="5" t="n">
         <v>3149211141.6402</v>
       </c>
-      <c r="R6" s="18" t="n">
+      <c r="R6" s="5" t="n">
         <v>2984843202.6572</v>
       </c>
-      <c r="S6" s="18" t="n">
+      <c r="S6" s="5" t="n">
         <v>3031312104.232</v>
       </c>
-      <c r="T6" s="18" t="n">
+      <c r="T6" s="5" t="n">
         <v>2470390926.3246</v>
       </c>
-      <c r="U6" s="18" t="n">
+      <c r="U6" s="5" t="n">
         <v>1955986275.0361</v>
       </c>
-      <c r="V6" s="18" t="n">
+      <c r="V6" s="5" t="n">
         <v>2085455537.1937</v>
       </c>
-      <c r="W6" s="18" t="n">
+      <c r="W6" s="5" t="n">
         <v>1923228474.9702</v>
       </c>
-      <c r="X6" s="18" t="n">
+      <c r="X6" s="5" t="n">
         <v>1899525257.0915</v>
       </c>
-      <c r="Y6" s="18" t="n">
+      <c r="Y6" s="5" t="n">
         <v>1866848093.3988</v>
       </c>
-      <c r="Z6" s="18" t="n">
+      <c r="Z6" s="5" t="n">
         <v>2189000492.7013</v>
       </c>
-      <c r="AA6" s="18" t="n">
+      <c r="AA6" s="5" t="n">
         <v>2192690450.214</v>
       </c>
-      <c r="AB6" s="18" t="n">
+      <c r="AB6" s="5" t="n">
         <v>2405039205.3145</v>
       </c>
-      <c r="AC6" s="18" t="n">
+      <c r="AC6" s="5" t="n">
         <v>2141867112.9322</v>
       </c>
-      <c r="AD6" s="18" t="n">
+      <c r="AD6" s="5" t="n">
         <v>2734458797.2757</v>
       </c>
-      <c r="AE6" s="18" t="n">
+      <c r="AE6" s="5" t="n">
         <v>2634220642.9637</v>
       </c>
-      <c r="AF6" s="18" t="n">
+      <c r="AF6" s="5" t="n">
         <v>2192470949.6515</v>
       </c>
       <c r="AG6" s="7" t="n">
@@ -2456,58 +2456,58 @@
       <c r="N7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="18" t="n">
+      <c r="O7" s="5" t="n">
         <v>3249380740.783</v>
       </c>
-      <c r="P7" s="18" t="n">
+      <c r="P7" s="5" t="n">
         <v>3084981384.3341</v>
       </c>
-      <c r="Q7" s="18" t="n">
+      <c r="Q7" s="5" t="n">
         <v>3190261160.6787</v>
       </c>
-      <c r="R7" s="18" t="n">
+      <c r="R7" s="5" t="n">
         <v>2690328606.9026</v>
       </c>
-      <c r="S7" s="18" t="n">
+      <c r="S7" s="5" t="n">
         <v>2508857713.3762</v>
       </c>
-      <c r="T7" s="18" t="n">
+      <c r="T7" s="5" t="n">
         <v>2270361764.2159</v>
       </c>
-      <c r="U7" s="18" t="n">
+      <c r="U7" s="5" t="n">
         <v>2021688585.0463</v>
       </c>
-      <c r="V7" s="18" t="n">
+      <c r="V7" s="5" t="n">
         <v>1789436075.7185</v>
       </c>
-      <c r="W7" s="18" t="n">
+      <c r="W7" s="5" t="n">
         <v>2011031787.7327</v>
       </c>
-      <c r="X7" s="18" t="n">
+      <c r="X7" s="5" t="n">
         <v>2072289588.9674</v>
       </c>
-      <c r="Y7" s="18" t="n">
+      <c r="Y7" s="5" t="n">
         <v>1967740104.8238</v>
       </c>
-      <c r="Z7" s="18" t="n">
+      <c r="Z7" s="5" t="n">
         <v>2817798585.5702</v>
       </c>
-      <c r="AA7" s="18" t="n">
+      <c r="AA7" s="5" t="n">
         <v>2439154123.3418</v>
       </c>
-      <c r="AB7" s="18" t="n">
+      <c r="AB7" s="5" t="n">
         <v>1703457370.3381</v>
       </c>
-      <c r="AC7" s="18" t="n">
+      <c r="AC7" s="5" t="n">
         <v>1664387612.4869</v>
       </c>
-      <c r="AD7" s="18" t="n">
+      <c r="AD7" s="5" t="n">
         <v>2176682401.2673</v>
       </c>
-      <c r="AE7" s="18" t="n">
+      <c r="AE7" s="5" t="n">
         <v>2034572957.7023</v>
       </c>
-      <c r="AF7" s="18" t="n">
+      <c r="AF7" s="5" t="n">
         <v>2954288727.5505</v>
       </c>
       <c r="AG7" s="7" t="n">
@@ -2570,58 +2570,58 @@
       <c r="N8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="18" t="n">
+      <c r="O8" s="5" t="n">
         <v>16159661649.8167</v>
       </c>
-      <c r="P8" s="18" t="n">
+      <c r="P8" s="5" t="n">
         <v>17979199742.6965</v>
       </c>
-      <c r="Q8" s="18" t="n">
+      <c r="Q8" s="5" t="n">
         <v>21331751662.4911</v>
       </c>
-      <c r="R8" s="18" t="n">
+      <c r="R8" s="5" t="n">
         <v>22477802418.1141</v>
       </c>
-      <c r="S8" s="18" t="n">
+      <c r="S8" s="5" t="n">
         <v>21549064390.6851</v>
       </c>
-      <c r="T8" s="18" t="n">
+      <c r="T8" s="5" t="n">
         <v>24194367047.0875</v>
       </c>
-      <c r="U8" s="18" t="n">
+      <c r="U8" s="5" t="n">
         <v>20708999747.7082</v>
       </c>
-      <c r="V8" s="18" t="n">
+      <c r="V8" s="5" t="n">
         <v>24871816515.7085</v>
       </c>
-      <c r="W8" s="18" t="n">
+      <c r="W8" s="5" t="n">
         <v>22632994047.0494</v>
       </c>
-      <c r="X8" s="18" t="n">
+      <c r="X8" s="5" t="n">
         <v>24151966974.125</v>
       </c>
-      <c r="Y8" s="18" t="n">
+      <c r="Y8" s="5" t="n">
         <v>24436734929.7391</v>
       </c>
-      <c r="Z8" s="18" t="n">
+      <c r="Z8" s="5" t="n">
         <v>30351232461.5596</v>
       </c>
-      <c r="AA8" s="18" t="n">
+      <c r="AA8" s="5" t="n">
         <v>29846329468.9436</v>
       </c>
-      <c r="AB8" s="18" t="n">
+      <c r="AB8" s="5" t="n">
         <v>33862196323.9016</v>
       </c>
-      <c r="AC8" s="18" t="n">
+      <c r="AC8" s="5" t="n">
         <v>39677992119.0782</v>
       </c>
-      <c r="AD8" s="18" t="n">
+      <c r="AD8" s="5" t="n">
         <v>37414227367.7028</v>
       </c>
-      <c r="AE8" s="18" t="n">
+      <c r="AE8" s="5" t="n">
         <v>41147938991.3702</v>
       </c>
-      <c r="AF8" s="18" t="n">
+      <c r="AF8" s="5" t="n">
         <v>30621886485.4193</v>
       </c>
       <c r="AG8" s="7" t="n">
@@ -2684,58 +2684,58 @@
       <c r="N9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O9" s="18" t="n">
+      <c r="O9" s="5" t="n">
         <v>296038131510.98</v>
       </c>
-      <c r="P9" s="18" t="n">
+      <c r="P9" s="5" t="n">
         <v>344491104060.101</v>
       </c>
-      <c r="Q9" s="18" t="n">
+      <c r="Q9" s="5" t="n">
         <v>331169572366.182</v>
       </c>
-      <c r="R9" s="18" t="n">
+      <c r="R9" s="5" t="n">
         <v>327094365533.991</v>
       </c>
-      <c r="S9" s="18" t="n">
+      <c r="S9" s="5" t="n">
         <v>335559047341.415</v>
       </c>
-      <c r="T9" s="18" t="n">
+      <c r="T9" s="5" t="n">
         <v>323458021200.643</v>
       </c>
-      <c r="U9" s="18" t="n">
+      <c r="U9" s="5" t="n">
         <v>276052625028.75</v>
       </c>
-      <c r="V9" s="18" t="n">
+      <c r="V9" s="5" t="n">
         <v>247225514886.716</v>
       </c>
-      <c r="W9" s="18" t="n">
+      <c r="W9" s="5" t="n">
         <v>239189394528.319</v>
       </c>
-      <c r="X9" s="18" t="n">
+      <c r="X9" s="5" t="n">
         <v>262007767146.56</v>
       </c>
-      <c r="Y9" s="18" t="n">
+      <c r="Y9" s="5" t="n">
         <v>285221378606.772</v>
       </c>
-      <c r="Z9" s="18" t="n">
+      <c r="Z9" s="5" t="n">
         <v>314311328838.948</v>
       </c>
-      <c r="AA9" s="18" t="n">
+      <c r="AA9" s="5" t="n">
         <v>340236626450.119</v>
       </c>
-      <c r="AB9" s="18" t="n">
+      <c r="AB9" s="5" t="n">
         <v>376361648182.621</v>
       </c>
-      <c r="AC9" s="18" t="n">
+      <c r="AC9" s="5" t="n">
         <v>336217401813.088</v>
       </c>
-      <c r="AD9" s="18" t="n">
+      <c r="AD9" s="5" t="n">
         <v>363680327268.169</v>
       </c>
-      <c r="AE9" s="18" t="n">
+      <c r="AE9" s="5" t="n">
         <v>401411877551.436</v>
       </c>
-      <c r="AF9" s="18" t="n">
+      <c r="AF9" s="5" t="n">
         <v>313701272526.863</v>
       </c>
       <c r="AG9" s="7" t="n">
@@ -2798,58 +2798,58 @@
       <c r="N10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="18" t="str">
+      <c r="O10" s="5" t="str">
         <f>Sum(O2:O9)</f>
       </c>
-      <c r="P10" s="18" t="str">
+      <c r="P10" s="5" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="18" t="str">
+      <c r="Q10" s="5" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="18" t="str">
+      <c r="R10" s="5" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="18" t="str">
+      <c r="S10" s="5" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="18" t="str">
+      <c r="T10" s="5" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="18" t="str">
+      <c r="U10" s="5" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="18" t="str">
+      <c r="V10" s="5" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="18" t="str">
+      <c r="W10" s="5" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="18" t="str">
+      <c r="X10" s="5" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="18" t="str">
+      <c r="Y10" s="5" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="18" t="str">
+      <c r="Z10" s="5" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="18" t="str">
+      <c r="AA10" s="5" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="18" t="str">
+      <c r="AB10" s="5" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="18" t="str">
+      <c r="AC10" s="5" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="18" t="str">
+      <c r="AD10" s="5" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="18" t="str">
+      <c r="AE10" s="5" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="18" t="str">
+      <c r="AF10" s="5" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
       <c r="AG10" s="7" t="str">
@@ -3374,64 +3374,64 @@
       <c r="L2" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="10" t="n">
+      <c r="O2" s="9" t="n">
         <v>32062481478.7404</v>
       </c>
-      <c r="P2" s="10" t="n">
+      <c r="P2" s="9" t="n">
         <v>33502648539.9927</v>
       </c>
-      <c r="Q2" s="10" t="n">
+      <c r="Q2" s="9" t="n">
         <v>34512520349.3714</v>
       </c>
-      <c r="R2" s="10" t="n">
+      <c r="R2" s="9" t="n">
         <v>32022857314.7994</v>
       </c>
-      <c r="S2" s="10" t="n">
+      <c r="S2" s="9" t="n">
         <v>30300787160.0451</v>
       </c>
-      <c r="T2" s="10" t="n">
+      <c r="T2" s="9" t="n">
         <v>29428722759.8101</v>
       </c>
-      <c r="U2" s="10" t="n">
+      <c r="U2" s="9" t="n">
         <v>23567998960.1735</v>
       </c>
-      <c r="V2" s="10" t="n">
+      <c r="V2" s="9" t="n">
         <v>25665670386.3993</v>
       </c>
-      <c r="W2" s="10" t="n">
+      <c r="W2" s="9" t="n">
         <v>23532569650.9686</v>
       </c>
-      <c r="X2" s="10" t="n">
+      <c r="X2" s="9" t="n">
         <v>25303450099.2467</v>
       </c>
-      <c r="Y2" s="10" t="n">
+      <c r="Y2" s="9" t="n">
         <v>26328462830.1631</v>
       </c>
-      <c r="Z2" s="10" t="n">
+      <c r="Z2" s="9" t="n">
         <v>31111718317.1093</v>
       </c>
-      <c r="AA2" s="10" t="n">
+      <c r="AA2" s="9" t="n">
         <v>31301311116.0465</v>
       </c>
-      <c r="AB2" s="10" t="n">
+      <c r="AB2" s="9" t="n">
         <v>32049209483.981</v>
       </c>
-      <c r="AC2" s="10" t="n">
+      <c r="AC2" s="9" t="n">
         <v>32709739587.2145</v>
       </c>
-      <c r="AD2" s="10" t="n">
+      <c r="AD2" s="9" t="n">
         <v>37104641630.7511</v>
       </c>
-      <c r="AE2" s="10" t="n">
+      <c r="AE2" s="9" t="n">
         <v>40964495755.7069</v>
       </c>
-      <c r="AF2" s="10"/>
+      <c r="AF2" s="9"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3443,64 +3443,64 @@
       <c r="L3" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="10" t="n">
+      <c r="O3" s="9" t="n">
         <v>64276778789.785</v>
       </c>
-      <c r="P3" s="10" t="n">
+      <c r="P3" s="9" t="n">
         <v>72755575500.1827</v>
       </c>
-      <c r="Q3" s="10" t="n">
+      <c r="Q3" s="9" t="n">
         <v>64677034371.2067</v>
       </c>
-      <c r="R3" s="10" t="n">
+      <c r="R3" s="9" t="n">
         <v>53879307908.9168</v>
       </c>
-      <c r="S3" s="10" t="n">
+      <c r="S3" s="9" t="n">
         <v>48096817335.8693</v>
       </c>
-      <c r="T3" s="10" t="n">
+      <c r="T3" s="9" t="n">
         <v>54303150309.7976</v>
       </c>
-      <c r="U3" s="10" t="n">
+      <c r="U3" s="9" t="n">
         <v>39063293717.5311</v>
       </c>
-      <c r="V3" s="10" t="n">
+      <c r="V3" s="9" t="n">
         <v>38119164769.1497</v>
       </c>
-      <c r="W3" s="10" t="n">
+      <c r="W3" s="9" t="n">
         <v>33991695353.2542</v>
       </c>
-      <c r="X3" s="10" t="n">
+      <c r="X3" s="9" t="n">
         <v>32084583927.436</v>
       </c>
-      <c r="Y3" s="10" t="n">
+      <c r="Y3" s="9" t="n">
         <v>35694396958.7202</v>
       </c>
-      <c r="Z3" s="10" t="n">
+      <c r="Z3" s="9" t="n">
         <v>37743226432.3817</v>
       </c>
-      <c r="AA3" s="10" t="n">
+      <c r="AA3" s="9" t="n">
         <v>42449471496.6964</v>
       </c>
-      <c r="AB3" s="10" t="n">
+      <c r="AB3" s="9" t="n">
         <v>42839349110.909</v>
       </c>
-      <c r="AC3" s="10" t="n">
+      <c r="AC3" s="9" t="n">
         <v>59882546801.0766</v>
       </c>
-      <c r="AD3" s="10" t="n">
+      <c r="AD3" s="9" t="n">
         <v>75235439279.4155</v>
       </c>
-      <c r="AE3" s="10" t="n">
+      <c r="AE3" s="9" t="n">
         <v>56016118359.9772</v>
       </c>
-      <c r="AF3" s="10"/>
+      <c r="AF3" s="9"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3512,64 +3512,64 @@
       <c r="L4" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="10" t="n">
+      <c r="O4" s="9" t="n">
         <v>5823883910.4641</v>
       </c>
-      <c r="P4" s="10" t="n">
+      <c r="P4" s="9" t="n">
         <v>6062527172.7157</v>
       </c>
-      <c r="Q4" s="10" t="n">
+      <c r="Q4" s="9" t="n">
         <v>7958542406.8054</v>
       </c>
-      <c r="R4" s="10" t="n">
+      <c r="R4" s="9" t="n">
         <v>11173540317.9748</v>
       </c>
-      <c r="S4" s="10" t="n">
+      <c r="S4" s="9" t="n">
         <v>10709272137.3971</v>
       </c>
-      <c r="T4" s="10" t="n">
+      <c r="T4" s="9" t="n">
         <v>10913255211.2322</v>
       </c>
-      <c r="U4" s="10" t="n">
+      <c r="U4" s="9" t="n">
         <v>10012514970.4474</v>
       </c>
-      <c r="V4" s="10" t="n">
+      <c r="V4" s="9" t="n">
         <v>11885624399.7085</v>
       </c>
-      <c r="W4" s="10" t="n">
+      <c r="W4" s="9" t="n">
         <v>11954899827.2819</v>
       </c>
-      <c r="X4" s="10" t="n">
+      <c r="X4" s="9" t="n">
         <v>11905991840.9567</v>
       </c>
-      <c r="Y4" s="10" t="n">
+      <c r="Y4" s="9" t="n">
         <v>10744235953.1555</v>
       </c>
-      <c r="Z4" s="10" t="n">
+      <c r="Z4" s="9" t="n">
         <v>13964474476.428</v>
       </c>
-      <c r="AA4" s="10" t="n">
+      <c r="AA4" s="9" t="n">
         <v>12887221540.14</v>
       </c>
-      <c r="AB4" s="10" t="n">
+      <c r="AB4" s="9" t="n">
         <v>14696802949.5136</v>
       </c>
-      <c r="AC4" s="10" t="n">
+      <c r="AC4" s="9" t="n">
         <v>19547069897.6294</v>
       </c>
-      <c r="AD4" s="10" t="n">
+      <c r="AD4" s="9" t="n">
         <v>14680201640.9544</v>
       </c>
-      <c r="AE4" s="10" t="n">
+      <c r="AE4" s="9" t="n">
         <v>14367712887.112</v>
       </c>
-      <c r="AF4" s="10"/>
+      <c r="AF4" s="9"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3581,64 +3581,64 @@
       <c r="L5" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="10" t="n">
+      <c r="O5" s="9" t="n">
         <v>231537450083.22</v>
       </c>
-      <c r="P5" s="10" t="n">
+      <c r="P5" s="9" t="n">
         <v>271472884650.076</v>
       </c>
-      <c r="Q5" s="10" t="n">
+      <c r="Q5" s="9" t="n">
         <v>266329081561.247</v>
       </c>
-      <c r="R5" s="10" t="n">
+      <c r="R5" s="9" t="n">
         <v>271587640047.603</v>
       </c>
-      <c r="S5" s="10" t="n">
+      <c r="S5" s="9" t="n">
         <v>285273627236.321</v>
       </c>
-      <c r="T5" s="10" t="n">
+      <c r="T5" s="9" t="n">
         <v>268865885090.226</v>
       </c>
-      <c r="U5" s="10" t="n">
+      <c r="U5" s="9" t="n">
         <v>236644531145.313</v>
       </c>
-      <c r="V5" s="10" t="n">
+      <c r="V5" s="9" t="n">
         <v>208834055035.34</v>
       </c>
-      <c r="W5" s="10" t="n">
+      <c r="W5" s="9" t="n">
         <v>204739219046.347</v>
       </c>
-      <c r="X5" s="10" t="n">
+      <c r="X5" s="9" t="n">
         <v>229288855612.899</v>
       </c>
-      <c r="Y5" s="10" t="n">
+      <c r="Y5" s="9" t="n">
         <v>249184020033.45</v>
       </c>
-      <c r="Z5" s="10" t="n">
+      <c r="Z5" s="9" t="n">
         <v>275958046094.482</v>
       </c>
-      <c r="AA5" s="10" t="n">
+      <c r="AA5" s="9" t="n">
         <v>297007214837.362</v>
       </c>
-      <c r="AB5" s="10" t="n">
+      <c r="AB5" s="9" t="n">
         <v>333079832988.6</v>
       </c>
-      <c r="AC5" s="10" t="n">
+      <c r="AC5" s="9" t="n">
         <v>275583768946.915</v>
       </c>
-      <c r="AD5" s="10" t="n">
+      <c r="AD5" s="9" t="n">
         <v>287582895856.276</v>
       </c>
-      <c r="AE5" s="10" t="n">
+      <c r="AE5" s="9" t="n">
         <v>344970443277.674</v>
       </c>
-      <c r="AF5" s="10"/>
+      <c r="AF5" s="9"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3650,64 +3650,64 @@
       <c r="L6" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="10" t="str">
+      <c r="O6" s="9" t="str">
         <f>Sum(O2:O5)</f>
       </c>
-      <c r="P6" s="10" t="str">
+      <c r="P6" s="9" t="str">
         <f>Sum(P2:P5)</f>
       </c>
-      <c r="Q6" s="10" t="str">
+      <c r="Q6" s="9" t="str">
         <f>Sum(Q2:Q5)</f>
       </c>
-      <c r="R6" s="10" t="str">
+      <c r="R6" s="9" t="str">
         <f>Sum(R2:R5)</f>
       </c>
-      <c r="S6" s="10" t="str">
+      <c r="S6" s="9" t="str">
         <f>Sum(S2:S5)</f>
       </c>
-      <c r="T6" s="10" t="str">
+      <c r="T6" s="9" t="str">
         <f>Sum(T2:T5)</f>
       </c>
-      <c r="U6" s="10" t="str">
+      <c r="U6" s="9" t="str">
         <f>Sum(U2:U5)</f>
       </c>
-      <c r="V6" s="10" t="str">
+      <c r="V6" s="9" t="str">
         <f>Sum(V2:V5)</f>
       </c>
-      <c r="W6" s="10" t="str">
+      <c r="W6" s="9" t="str">
         <f>Sum(W2:W5)</f>
       </c>
-      <c r="X6" s="10" t="str">
+      <c r="X6" s="9" t="str">
         <f>Sum(X2:X5)</f>
       </c>
-      <c r="Y6" s="10" t="str">
+      <c r="Y6" s="9" t="str">
         <f>Sum(Y2:Y5)</f>
       </c>
-      <c r="Z6" s="10" t="str">
+      <c r="Z6" s="9" t="str">
         <f>Sum(Z2:Z5)</f>
       </c>
-      <c r="AA6" s="10" t="str">
+      <c r="AA6" s="9" t="str">
         <f>Sum(AA2:AA5)</f>
       </c>
-      <c r="AB6" s="10" t="str">
+      <c r="AB6" s="9" t="str">
         <f>Sum(AB2:AB5)</f>
       </c>
-      <c r="AC6" s="10" t="str">
+      <c r="AC6" s="9" t="str">
         <f>Sum(AC2:AC5)</f>
       </c>
-      <c r="AD6" s="10" t="str">
+      <c r="AD6" s="9" t="str">
         <f>Sum(AD2:AD5)</f>
       </c>
-      <c r="AE6" s="10" t="str">
+      <c r="AE6" s="9" t="str">
         <f>Sum(AE2:AE5)</f>
       </c>
-      <c r="AF6" s="10"/>
+      <c r="AF6" s="9"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -3719,64 +3719,64 @@
       <c r="L7" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="13" t="n">
+      <c r="O7" s="12" t="n">
         <v>11739616747.5457</v>
       </c>
-      <c r="P7" s="13" t="n">
+      <c r="P7" s="12" t="n">
         <v>11254176927.7347</v>
       </c>
-      <c r="Q7" s="13" t="n">
+      <c r="Q7" s="12" t="n">
         <v>11538670944.4646</v>
       </c>
-      <c r="R7" s="13" t="n">
+      <c r="R7" s="12" t="n">
         <v>10859267828.0744</v>
       </c>
-      <c r="S7" s="13" t="n">
+      <c r="S7" s="12" t="n">
         <v>14373844897.8047</v>
       </c>
-      <c r="T7" s="13" t="n">
+      <c r="T7" s="12" t="n">
         <v>13206561065.8076</v>
       </c>
-      <c r="U7" s="13" t="n">
+      <c r="U7" s="12" t="n">
         <v>10802080997.6787</v>
       </c>
-      <c r="V7" s="13" t="n">
+      <c r="V7" s="12" t="n">
         <v>11076872960.9722</v>
       </c>
-      <c r="W7" s="13" t="n">
+      <c r="W7" s="12" t="n">
         <v>10900773054.4309</v>
       </c>
-      <c r="X7" s="13" t="n">
+      <c r="X7" s="12" t="n">
         <v>10123617101.8184</v>
       </c>
-      <c r="Y7" s="13" t="n">
+      <c r="Y7" s="12" t="n">
         <v>11241962025.9267</v>
       </c>
-      <c r="Z7" s="13" t="n">
+      <c r="Z7" s="12" t="n">
         <v>13823686787.1314</v>
       </c>
-      <c r="AA7" s="13" t="n">
+      <c r="AA7" s="12" t="n">
         <v>13826616163.1342</v>
       </c>
-      <c r="AB7" s="13" t="n">
+      <c r="AB7" s="12" t="n">
         <v>13209947102.2783</v>
       </c>
-      <c r="AC7" s="13" t="n">
+      <c r="AC7" s="12" t="n">
         <v>11141661764.5212</v>
       </c>
-      <c r="AD7" s="13" t="n">
+      <c r="AD7" s="12" t="n">
         <v>11793409233.3338</v>
       </c>
-      <c r="AE7" s="13" t="n">
+      <c r="AE7" s="12" t="n">
         <v>8499159403.4485</v>
       </c>
-      <c r="AF7" s="13"/>
+      <c r="AF7" s="12"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -3788,64 +3788,64 @@
       <c r="L8" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="13" t="n">
+      <c r="O8" s="12" t="n">
         <v>374232.125</v>
       </c>
-      <c r="P8" s="13" t="n">
+      <c r="P8" s="12" t="n">
         <v>10010929.3706</v>
       </c>
-      <c r="Q8" s="13" t="n">
+      <c r="Q8" s="12" t="n">
         <v>16756903.2031</v>
       </c>
-      <c r="R8" s="13" t="n">
+      <c r="R8" s="12" t="n">
         <v>347910181.3778</v>
       </c>
-      <c r="S8" s="13" t="n">
+      <c r="S8" s="12" t="n">
         <v>631989460.7783</v>
       </c>
-      <c r="T8" s="13" t="n">
+      <c r="T8" s="12" t="n">
         <v>730784460.4217</v>
       </c>
-      <c r="U8" s="13" t="n">
+      <c r="U8" s="12" t="n">
         <v>583582108.4095</v>
       </c>
-      <c r="V8" s="13" t="n">
+      <c r="V8" s="12" t="n">
         <v>431813065.252</v>
       </c>
-      <c r="W8" s="13" t="n">
+      <c r="W8" s="12" t="n">
         <v>479057229.6744</v>
       </c>
-      <c r="X8" s="13" t="n">
+      <c r="X8" s="12" t="n">
         <v>754133470.2281</v>
       </c>
-      <c r="Y8" s="13" t="n">
+      <c r="Y8" s="12" t="n">
         <v>1212870362.8558</v>
       </c>
-      <c r="Z8" s="13" t="n">
+      <c r="Z8" s="12" t="n">
         <v>2174381343.2315</v>
       </c>
-      <c r="AA8" s="13" t="n">
+      <c r="AA8" s="12" t="n">
         <v>1789233579.0072</v>
       </c>
-      <c r="AB8" s="13" t="n">
+      <c r="AB8" s="12" t="n">
         <v>1655131561.9466</v>
       </c>
-      <c r="AC8" s="13" t="n">
+      <c r="AC8" s="12" t="n">
         <v>1788618124.0356</v>
       </c>
-      <c r="AD8" s="13" t="n">
+      <c r="AD8" s="12" t="n">
         <v>3460701067.8914</v>
       </c>
-      <c r="AE8" s="13" t="n">
+      <c r="AE8" s="12" t="n">
         <v>1942123630.1997</v>
       </c>
-      <c r="AF8" s="13"/>
+      <c r="AF8" s="12"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -3857,64 +3857,64 @@
       <c r="L9" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="13" t="n">
+      <c r="O9" s="12" t="n">
         <v>127174783.5722</v>
       </c>
-      <c r="P9" s="13" t="n">
+      <c r="P9" s="12" t="n">
         <v>54479568.8939</v>
       </c>
-      <c r="Q9" s="13" t="n">
+      <c r="Q9" s="12" t="n">
         <v>391366344.5801</v>
       </c>
-      <c r="R9" s="13" t="n">
+      <c r="R9" s="12" t="n">
         <v>10479214146.3606</v>
       </c>
-      <c r="S9" s="13" t="n">
+      <c r="S9" s="12" t="n">
         <v>42891078006.4274</v>
       </c>
-      <c r="T9" s="13" t="n">
+      <c r="T9" s="12" t="n">
         <v>55916245614.7845</v>
       </c>
-      <c r="U9" s="13" t="n">
+      <c r="U9" s="12" t="n">
         <v>47353316662.8298</v>
       </c>
-      <c r="V9" s="13" t="n">
+      <c r="V9" s="12" t="n">
         <v>44606935375.0183</v>
       </c>
-      <c r="W9" s="13" t="n">
+      <c r="W9" s="12" t="n">
         <v>44673219755.351</v>
       </c>
-      <c r="X9" s="13" t="n">
+      <c r="X9" s="12" t="n">
         <v>51673073465.2889</v>
       </c>
-      <c r="Y9" s="13" t="n">
+      <c r="Y9" s="12" t="n">
         <v>59166462252.3838</v>
       </c>
-      <c r="Z9" s="13" t="n">
+      <c r="Z9" s="12" t="n">
         <v>77026872601.0672</v>
       </c>
-      <c r="AA9" s="13" t="n">
+      <c r="AA9" s="12" t="n">
         <v>81941621433.2727</v>
       </c>
-      <c r="AB9" s="13" t="n">
+      <c r="AB9" s="12" t="n">
         <v>88618976870.7865</v>
       </c>
-      <c r="AC9" s="13" t="n">
+      <c r="AC9" s="12" t="n">
         <v>85796546316.5326</v>
       </c>
-      <c r="AD9" s="13" t="n">
+      <c r="AD9" s="12" t="n">
         <v>87347814520.8399</v>
       </c>
-      <c r="AE9" s="13" t="n">
+      <c r="AE9" s="12" t="n">
         <v>59389185605.2414</v>
       </c>
-      <c r="AF9" s="13"/>
+      <c r="AF9" s="12"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -3926,64 +3926,64 @@
       <c r="L10" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="13" t="n">
+      <c r="O10" s="12" t="n">
         <v>78463417796.7355</v>
       </c>
-      <c r="P10" s="13" t="n">
+      <c r="P10" s="12" t="n">
         <v>88780237303.9053</v>
       </c>
-      <c r="Q10" s="13" t="n">
+      <c r="Q10" s="12" t="n">
         <v>105251059912.334</v>
       </c>
-      <c r="R10" s="13" t="n">
+      <c r="R10" s="12" t="n">
         <v>130120398442.109</v>
       </c>
-      <c r="S10" s="13" t="n">
+      <c r="S10" s="12" t="n">
         <v>117265672000.507</v>
       </c>
-      <c r="T10" s="13" t="n">
+      <c r="T10" s="12" t="n">
         <v>114684159598.629</v>
       </c>
-      <c r="U10" s="13" t="n">
+      <c r="U10" s="12" t="n">
         <v>115092313841.753</v>
       </c>
-      <c r="V10" s="13" t="n">
+      <c r="V10" s="12" t="n">
         <v>96339079586.2505</v>
       </c>
-      <c r="W10" s="13" t="n">
+      <c r="W10" s="12" t="n">
         <v>96692994812.3194</v>
       </c>
-      <c r="X10" s="13" t="n">
+      <c r="X10" s="12" t="n">
         <v>115400111619.82</v>
       </c>
-      <c r="Y10" s="13" t="n">
+      <c r="Y10" s="12" t="n">
         <v>121585389860.149</v>
       </c>
-      <c r="Z10" s="13" t="n">
+      <c r="Z10" s="12" t="n">
         <v>121695096501.822</v>
       </c>
-      <c r="AA10" s="13" t="n">
+      <c r="AA10" s="12" t="n">
         <v>133999767682.578</v>
       </c>
-      <c r="AB10" s="13" t="n">
+      <c r="AB10" s="12" t="n">
         <v>155871330399.17</v>
       </c>
-      <c r="AC10" s="13" t="n">
+      <c r="AC10" s="12" t="n">
         <v>107353167337.779</v>
       </c>
-      <c r="AD10" s="13" t="n">
+      <c r="AD10" s="12" t="n">
         <v>119312855677.303</v>
       </c>
-      <c r="AE10" s="13" t="n">
+      <c r="AE10" s="12" t="n">
         <v>194731326724.396</v>
       </c>
-      <c r="AF10" s="13"/>
+      <c r="AF10" s="12"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -3998,58 +3998,58 @@
       <c r="N11" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="13" t="n">
+      <c r="O11" s="12" t="n">
         <v>3480708</v>
       </c>
-      <c r="P11" s="13" t="n">
+      <c r="P11" s="12" t="n">
         <v>7309532</v>
       </c>
-      <c r="Q11" s="13" t="n">
+      <c r="Q11" s="12" t="n">
         <v>4777682.7812</v>
       </c>
-      <c r="R11" s="13" t="n">
+      <c r="R11" s="12" t="n">
         <v>-389371.9688</v>
       </c>
-      <c r="S11" s="13" t="n">
+      <c r="S11" s="12" t="n">
         <v>566868.625</v>
       </c>
-      <c r="T11" s="13" t="n">
+      <c r="T11" s="12" t="n">
         <v>2744757.5625</v>
       </c>
-      <c r="U11" s="13" t="n">
+      <c r="U11" s="12" t="n">
         <v>740760.72</v>
       </c>
-      <c r="V11" s="13" t="n">
+      <c r="V11" s="12" t="n">
         <v>1661330.44</v>
       </c>
-      <c r="W11" s="13" t="n">
+      <c r="W11" s="12" t="n">
         <v>688122.1</v>
       </c>
-      <c r="X11" s="13" t="n">
+      <c r="X11" s="12" t="n">
         <v>7466648.5097</v>
       </c>
-      <c r="Y11" s="13" t="n">
+      <c r="Y11" s="12" t="n">
         <v>15539948.7242</v>
       </c>
-      <c r="Z11" s="13" t="n">
+      <c r="Z11" s="12" t="n">
         <v>10103095.4844</v>
       </c>
-      <c r="AA11" s="13" t="n">
+      <c r="AA11" s="12" t="n">
         <v>50250051.3516</v>
       </c>
-      <c r="AB11" s="13" t="n">
+      <c r="AB11" s="12" t="n">
         <v>4606692.4265</v>
       </c>
-      <c r="AC11" s="13" t="n">
+      <c r="AC11" s="12" t="n">
         <v>18838219.6031</v>
       </c>
-      <c r="AD11" s="13" t="n">
+      <c r="AD11" s="12" t="n">
         <v>6404705</v>
       </c>
-      <c r="AE11" s="13" t="n">
+      <c r="AE11" s="12" t="n">
         <v>3009276.3125</v>
       </c>
-      <c r="AF11" s="13"/>
+      <c r="AF11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -4064,58 +4064,58 @@
       <c r="N12" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="13" t="n">
+      <c r="O12" s="12" t="n">
         <v>91464160.72</v>
       </c>
-      <c r="P12" s="13" t="n">
+      <c r="P12" s="12" t="n">
         <v>271822116.5216</v>
       </c>
-      <c r="Q12" s="13" t="n">
+      <c r="Q12" s="12" t="n">
         <v>119963396.6512</v>
       </c>
-      <c r="R12" s="13" t="n">
+      <c r="R12" s="12" t="n">
         <v>2242431224.5039</v>
       </c>
-      <c r="S12" s="13" t="n">
+      <c r="S12" s="12" t="n">
         <v>465110922.9134</v>
       </c>
-      <c r="T12" s="13" t="n">
+      <c r="T12" s="12" t="n">
         <v>326628729.6539</v>
       </c>
-      <c r="U12" s="13" t="n">
+      <c r="U12" s="12" t="n">
         <v>205092408.93</v>
       </c>
-      <c r="V12" s="13" t="n">
+      <c r="V12" s="12" t="n">
         <v>253019515.28</v>
       </c>
-      <c r="W12" s="13" t="n">
+      <c r="W12" s="12" t="n">
         <v>124594107.6519</v>
       </c>
-      <c r="X12" s="13" t="n">
+      <c r="X12" s="12" t="n">
         <v>187804273.1566</v>
       </c>
-      <c r="Y12" s="13" t="n">
+      <c r="Y12" s="12" t="n">
         <v>125983398.2189</v>
       </c>
-      <c r="Z12" s="13" t="n">
+      <c r="Z12" s="12" t="n">
         <v>141268312.7166</v>
       </c>
-      <c r="AA12" s="13" t="n">
+      <c r="AA12" s="12" t="n">
         <v>313186482.6124</v>
       </c>
-      <c r="AB12" s="13" t="n">
+      <c r="AB12" s="12" t="n">
         <v>328444010.3259</v>
       </c>
-      <c r="AC12" s="13" t="n">
+      <c r="AC12" s="12" t="n">
         <v>298326767.0599</v>
       </c>
-      <c r="AD12" s="13" t="n">
+      <c r="AD12" s="12" t="n">
         <v>340466689.9108</v>
       </c>
-      <c r="AE12" s="13" t="n">
+      <c r="AE12" s="12" t="n">
         <v>643485539.1533</v>
       </c>
-      <c r="AF12" s="13"/>
+      <c r="AF12" s="12"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4157,73 +4157,73 @@
       <c r="N13" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="13" t="n">
+      <c r="O13" s="12" t="n">
         <v>11612991054.1444</v>
       </c>
-      <c r="P13" s="13" t="n">
+      <c r="P13" s="12" t="n">
         <v>10001892953.1492</v>
       </c>
-      <c r="Q13" s="13" t="n">
+      <c r="Q13" s="12" t="n">
         <v>6838390454.4904</v>
       </c>
-      <c r="R13" s="13" t="n">
+      <c r="R13" s="12" t="n">
         <v>4740528625.6843</v>
       </c>
-      <c r="S13" s="13" t="n">
+      <c r="S13" s="12" t="n">
         <v>3129237146.0253</v>
       </c>
-      <c r="T13" s="13" t="n">
+      <c r="T13" s="12" t="n">
         <v>2341188503.9723</v>
       </c>
-      <c r="U13" s="13" t="n">
+      <c r="U13" s="12" t="n">
         <v>2173872599.4936</v>
       </c>
-      <c r="V13" s="13" t="n">
+      <c r="V13" s="12" t="n">
         <v>1301505898.753</v>
       </c>
-      <c r="W13" s="13" t="n">
+      <c r="W13" s="12" t="n">
         <v>1906728681.9117</v>
       </c>
-      <c r="X13" s="13" t="n">
+      <c r="X13" s="12" t="n">
         <v>1097699723.7379</v>
       </c>
-      <c r="Y13" s="13" t="n">
+      <c r="Y13" s="12" t="n">
         <v>1222055072.9644</v>
       </c>
-      <c r="Z13" s="13" t="n">
+      <c r="Z13" s="12" t="n">
         <v>1459271935.9586</v>
       </c>
-      <c r="AA13" s="13" t="n">
+      <c r="AA13" s="12" t="n">
         <v>1679311982.6552</v>
       </c>
-      <c r="AB13" s="13" t="n">
+      <c r="AB13" s="12" t="n">
         <v>1669119486.985</v>
       </c>
-      <c r="AC13" s="13" t="n">
+      <c r="AC13" s="12" t="n">
         <v>1590213362.9423</v>
       </c>
-      <c r="AD13" s="13" t="n">
+      <c r="AD13" s="12" t="n">
         <v>2027550576.5423</v>
       </c>
-      <c r="AE13" s="13" t="n">
+      <c r="AE13" s="12" t="n">
         <v>4477169390.5106</v>
       </c>
-      <c r="AF13" s="13"/>
+      <c r="AF13" s="12"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
         <f>M14</f>
       </c>
-      <c r="B14" s="12" t="str">
+      <c r="B14" s="11" t="str">
         <f>N14</f>
       </c>
-      <c r="C14" s="12" t="str">
+      <c r="C14" s="11" t="str">
         <f>AB14</f>
       </c>
-      <c r="D14" s="12" t="str">
+      <c r="D14" s="11" t="str">
         <f>AC14</f>
       </c>
-      <c r="E14" s="12" t="str">
+      <c r="E14" s="11" t="str">
         <f>AD14</f>
       </c>
       <c r="F14" s="3" t="str">
@@ -4244,79 +4244,79 @@
       <c r="L14" t="s">
         <v>47</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="N14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="O14" s="13" t="n">
+      <c r="O14" s="12" t="n">
         <v>103936958078.786</v>
       </c>
-      <c r="P14" s="13" t="n">
+      <c r="P14" s="12" t="n">
         <v>118543644893.155</v>
       </c>
-      <c r="Q14" s="13" t="n">
+      <c r="Q14" s="12" t="n">
         <v>111507540379.235</v>
       </c>
-      <c r="R14" s="13" t="n">
+      <c r="R14" s="12" t="n">
         <v>72829799688.0759</v>
       </c>
-      <c r="S14" s="13" t="n">
+      <c r="S14" s="12" t="n">
         <v>51888821575.225</v>
       </c>
-      <c r="T14" s="13" t="n">
+      <c r="T14" s="12" t="n">
         <v>32603689771.8533</v>
       </c>
-      <c r="U14" s="13" t="n">
+      <c r="U14" s="12" t="n">
         <v>18624525552.7286</v>
       </c>
-      <c r="V14" s="13" t="n">
+      <c r="V14" s="12" t="n">
         <v>16068995341.1965</v>
       </c>
-      <c r="W14" s="13" t="n">
+      <c r="W14" s="12" t="n">
         <v>12779545694.5867</v>
       </c>
-      <c r="X14" s="13" t="n">
+      <c r="X14" s="12" t="n">
         <v>11073302129.1996</v>
       </c>
-      <c r="Y14" s="13" t="n">
+      <c r="Y14" s="12" t="n">
         <v>12383549493.0202</v>
       </c>
-      <c r="Z14" s="13" t="n">
+      <c r="Z14" s="12" t="n">
         <v>11717587215.061</v>
       </c>
-      <c r="AA14" s="13" t="n">
+      <c r="AA14" s="12" t="n">
         <v>10577083876.2989</v>
       </c>
-      <c r="AB14" s="13" t="n">
+      <c r="AB14" s="12" t="n">
         <v>12603360450.2236</v>
       </c>
-      <c r="AC14" s="13" t="n">
+      <c r="AC14" s="12" t="n">
         <v>12024794470.6126</v>
       </c>
-      <c r="AD14" s="13" t="n">
+      <c r="AD14" s="12" t="n">
         <v>11159041230.4726</v>
       </c>
-      <c r="AE14" s="13" t="n">
+      <c r="AE14" s="12" t="n">
         <v>25833604840.0789</v>
       </c>
-      <c r="AF14" s="13"/>
+      <c r="AF14" s="12"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
         <f>M15</f>
       </c>
-      <c r="B15" s="12" t="str">
+      <c r="B15" s="11" t="str">
         <f>N15</f>
       </c>
-      <c r="C15" s="12" t="str">
+      <c r="C15" s="11" t="str">
         <f>AB15</f>
       </c>
-      <c r="D15" s="12" t="str">
+      <c r="D15" s="11" t="str">
         <f>AC15</f>
       </c>
-      <c r="E15" s="12" t="str">
+      <c r="E15" s="11" t="str">
         <f>AD15</f>
       </c>
       <c r="F15" s="3" t="str">
@@ -4337,79 +4337,79 @@
       <c r="L15" t="s">
         <v>49</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="N15" s="12" t="s">
+      <c r="N15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O15" s="13" t="n">
+      <c r="O15" s="12" t="n">
         <v>7126968730.2023</v>
       </c>
-      <c r="P15" s="13" t="n">
+      <c r="P15" s="12" t="n">
         <v>6851707004.3725</v>
       </c>
-      <c r="Q15" s="13" t="n">
+      <c r="Q15" s="12" t="n">
         <v>6002947849.4749</v>
       </c>
-      <c r="R15" s="13" t="n">
+      <c r="R15" s="12" t="n">
         <v>4904616141.9226</v>
       </c>
-      <c r="S15" s="13" t="n">
+      <c r="S15" s="12" t="n">
         <v>3896127951.6105</v>
       </c>
-      <c r="T15" s="13" t="n">
+      <c r="T15" s="12" t="n">
         <v>3937348672.9191</v>
       </c>
-      <c r="U15" s="13" t="n">
+      <c r="U15" s="12" t="n">
         <v>3210731356.1299</v>
       </c>
-      <c r="V15" s="13" t="n">
+      <c r="V15" s="12" t="n">
         <v>3590686087.5641</v>
       </c>
-      <c r="W15" s="13" t="n">
+      <c r="W15" s="12" t="n">
         <v>3249832070.0508</v>
       </c>
-      <c r="X15" s="13" t="n">
+      <c r="X15" s="12" t="n">
         <v>4204304430.8653</v>
       </c>
-      <c r="Y15" s="13" t="n">
+      <c r="Y15" s="12" t="n">
         <v>4997935832.7874</v>
       </c>
-      <c r="Z15" s="13" t="n">
+      <c r="Z15" s="12" t="n">
         <v>6189402426.5831</v>
       </c>
-      <c r="AA15" s="13" t="n">
+      <c r="AA15" s="12" t="n">
         <v>6493069677.0296</v>
       </c>
-      <c r="AB15" s="13" t="n">
+      <c r="AB15" s="12" t="n">
         <v>6496067863.2198</v>
       </c>
-      <c r="AC15" s="13" t="n">
+      <c r="AC15" s="12" t="n">
         <v>6982552971.4019</v>
       </c>
-      <c r="AD15" s="13" t="n">
+      <c r="AD15" s="12" t="n">
         <v>6862482873.9066</v>
       </c>
-      <c r="AE15" s="13" t="n">
+      <c r="AE15" s="12" t="n">
         <v>8814402353.8</v>
       </c>
-      <c r="AF15" s="13"/>
+      <c r="AF15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>M16</f>
       </c>
-      <c r="B16" s="12" t="str">
+      <c r="B16" s="11" t="str">
         <f>N16</f>
       </c>
-      <c r="C16" s="12" t="str">
+      <c r="C16" s="11" t="str">
         <f>AB16</f>
       </c>
-      <c r="D16" s="12" t="str">
+      <c r="D16" s="11" t="str">
         <f>AC16</f>
       </c>
-      <c r="E16" s="12" t="str">
+      <c r="E16" s="11" t="str">
         <f>AD16</f>
       </c>
       <c r="F16" s="3" t="str">
@@ -4430,79 +4430,79 @@
       <c r="L16" t="s">
         <v>50</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="M16" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="N16" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="O16" s="13" t="n">
+      <c r="O16" s="12" t="n">
         <v>13182232488.2912</v>
       </c>
-      <c r="P16" s="13" t="n">
+      <c r="P16" s="12" t="n">
         <v>13074641557.822</v>
       </c>
-      <c r="Q16" s="13" t="n">
+      <c r="Q16" s="12" t="n">
         <v>13956177530.8165</v>
       </c>
-      <c r="R16" s="13" t="n">
+      <c r="R16" s="12" t="n">
         <v>11048267730.6147</v>
       </c>
-      <c r="S16" s="13" t="n">
+      <c r="S16" s="12" t="n">
         <v>14924806667.1775</v>
       </c>
-      <c r="T16" s="13" t="n">
+      <c r="T16" s="12" t="n">
         <v>14121433442.5084</v>
       </c>
-      <c r="U16" s="13" t="n">
+      <c r="U16" s="12" t="n">
         <v>12296900084.3472</v>
       </c>
-      <c r="V16" s="13" t="n">
+      <c r="V16" s="12" t="n">
         <v>12506026375.4866</v>
       </c>
-      <c r="W16" s="13" t="n">
+      <c r="W16" s="12" t="n">
         <v>12358426373.7167</v>
       </c>
-      <c r="X16" s="13" t="n">
+      <c r="X16" s="12" t="n">
         <v>12568867321.0656</v>
       </c>
-      <c r="Y16" s="13" t="n">
+      <c r="Y16" s="12" t="n">
         <v>13033903711.0301</v>
       </c>
-      <c r="Z16" s="13" t="n">
+      <c r="Z16" s="12" t="n">
         <v>16297241164.2412</v>
       </c>
-      <c r="AA16" s="13" t="n">
+      <c r="AA16" s="12" t="n">
         <v>16411545919.0185</v>
       </c>
-      <c r="AB16" s="13" t="n">
+      <c r="AB16" s="12" t="n">
         <v>15953388795.9187</v>
       </c>
-      <c r="AC16" s="13" t="n">
+      <c r="AC16" s="12" t="n">
         <v>14292710488.8398</v>
       </c>
-      <c r="AD16" s="13" t="n">
+      <c r="AD16" s="12" t="n">
         <v>14983349579.5726</v>
       </c>
-      <c r="AE16" s="13" t="n">
+      <c r="AE16" s="12" t="n">
         <v>11139398950.3839</v>
       </c>
-      <c r="AF16" s="13"/>
+      <c r="AF16" s="12"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
         <f>M17</f>
       </c>
-      <c r="B17" s="12" t="str">
+      <c r="B17" s="11" t="str">
         <f>N17</f>
       </c>
-      <c r="C17" s="12" t="str">
+      <c r="C17" s="11" t="str">
         <f>AB17</f>
       </c>
-      <c r="D17" s="12" t="str">
+      <c r="D17" s="11" t="str">
         <f>AC17</f>
       </c>
-      <c r="E17" s="12" t="str">
+      <c r="E17" s="11" t="str">
         <f>AD17</f>
       </c>
       <c r="F17" s="3" t="str">
@@ -4523,79 +4523,79 @@
       <c r="L17" t="s">
         <v>56</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="M17" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="N17" s="12" t="s">
+      <c r="N17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O17" s="13" t="n">
+      <c r="O17" s="12" t="n">
         <v>80590302.4495</v>
       </c>
-      <c r="P17" s="13" t="n">
+      <c r="P17" s="12" t="n">
         <v>1612701038.6749</v>
       </c>
-      <c r="Q17" s="13" t="n">
+      <c r="Q17" s="12" t="n">
         <v>1501943419.0369</v>
       </c>
-      <c r="R17" s="13" t="n">
+      <c r="R17" s="12" t="n">
         <v>1302640884.6994</v>
       </c>
-      <c r="S17" s="13" t="n">
+      <c r="S17" s="12" t="n">
         <v>922465548.9992</v>
       </c>
-      <c r="T17" s="13" t="n">
+      <c r="T17" s="12" t="n">
         <v>549700703.6313</v>
       </c>
-      <c r="U17" s="13" t="n">
+      <c r="U17" s="12" t="n">
         <v>364659592.3708</v>
       </c>
-      <c r="V17" s="13" t="n">
+      <c r="V17" s="12" t="n">
         <v>352289458.2254</v>
       </c>
-      <c r="W17" s="13" t="n">
+      <c r="W17" s="12" t="n">
         <v>348608488.1532</v>
       </c>
-      <c r="X17" s="13" t="n">
+      <c r="X17" s="12" t="n">
         <v>443966250.4258</v>
       </c>
-      <c r="Y17" s="13" t="n">
+      <c r="Y17" s="12" t="n">
         <v>233627398.4194</v>
       </c>
-      <c r="Z17" s="13" t="n">
+      <c r="Z17" s="12" t="n">
         <v>285689730.8393</v>
       </c>
-      <c r="AA17" s="13" t="n">
+      <c r="AA17" s="12" t="n">
         <v>424132939.4359</v>
       </c>
-      <c r="AB17" s="13" t="n">
+      <c r="AB17" s="12" t="n">
         <v>274457825.1727</v>
       </c>
-      <c r="AC17" s="13" t="n">
+      <c r="AC17" s="12" t="n">
         <v>233738346.652</v>
       </c>
-      <c r="AD17" s="13" t="n">
+      <c r="AD17" s="12" t="n">
         <v>254689686.9587</v>
       </c>
-      <c r="AE17" s="13" t="n">
+      <c r="AE17" s="12" t="n">
         <v>1589998587.9479</v>
       </c>
-      <c r="AF17" s="13"/>
+      <c r="AF17" s="12"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
         <f>M18</f>
       </c>
-      <c r="B18" s="12" t="str">
+      <c r="B18" s="11" t="str">
         <f>N18</f>
       </c>
-      <c r="C18" s="12" t="str">
+      <c r="C18" s="11" t="str">
         <f>AB18</f>
       </c>
-      <c r="D18" s="12" t="str">
+      <c r="D18" s="11" t="str">
         <f>AC18</f>
       </c>
-      <c r="E18" s="12" t="str">
+      <c r="E18" s="11" t="str">
         <f>AD18</f>
       </c>
       <c r="F18" s="3" t="str">
@@ -4616,79 +4616,79 @@
       <c r="L18" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="M18" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N18" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="O18" s="13" t="n">
+      <c r="O18" s="12" t="n">
         <v>803607590.5797</v>
       </c>
-      <c r="P18" s="13" t="n">
+      <c r="P18" s="12" t="n">
         <v>6604036628.6697</v>
       </c>
-      <c r="Q18" s="13" t="n">
+      <c r="Q18" s="12" t="n">
         <v>9214304794.5268</v>
       </c>
-      <c r="R18" s="13" t="n">
+      <c r="R18" s="12" t="n">
         <v>3079227327.2041</v>
       </c>
-      <c r="S18" s="13" t="n">
+      <c r="S18" s="12" t="n">
         <v>2415098066.7008</v>
       </c>
-      <c r="T18" s="13" t="n">
+      <c r="T18" s="12" t="n">
         <v>1884981201.3818</v>
       </c>
-      <c r="U18" s="13" t="n">
+      <c r="U18" s="12" t="n">
         <v>1116524442.8424</v>
       </c>
-      <c r="V18" s="13" t="n">
+      <c r="V18" s="12" t="n">
         <v>970390145.3863</v>
       </c>
-      <c r="W18" s="13" t="n">
+      <c r="W18" s="12" t="n">
         <v>688829745.6869</v>
       </c>
-      <c r="X18" s="13" t="n">
+      <c r="X18" s="12" t="n">
         <v>678087526.4504</v>
       </c>
-      <c r="Y18" s="13" t="n">
+      <c r="Y18" s="12" t="n">
         <v>753399556.0265</v>
       </c>
-      <c r="Z18" s="13" t="n">
+      <c r="Z18" s="12" t="n">
         <v>723658793.4366</v>
       </c>
-      <c r="AA18" s="13" t="n">
+      <c r="AA18" s="12" t="n">
         <v>888249480.0033</v>
       </c>
-      <c r="AB18" s="13" t="n">
+      <c r="AB18" s="12" t="n">
         <v>810717582.5063</v>
       </c>
-      <c r="AC18" s="13" t="n">
+      <c r="AC18" s="12" t="n">
         <v>416181790.5783</v>
       </c>
-      <c r="AD18" s="13" t="n">
+      <c r="AD18" s="12" t="n">
         <v>454227577.6369</v>
       </c>
-      <c r="AE18" s="13" t="n">
+      <c r="AE18" s="12" t="n">
         <v>1912728130.1274</v>
       </c>
-      <c r="AF18" s="13"/>
+      <c r="AF18" s="12"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
         <f>M19</f>
       </c>
-      <c r="B19" s="12" t="str">
+      <c r="B19" s="11" t="str">
         <f>N19</f>
       </c>
-      <c r="C19" s="12" t="str">
+      <c r="C19" s="11" t="str">
         <f>AB19</f>
       </c>
-      <c r="D19" s="12" t="str">
+      <c r="D19" s="11" t="str">
         <f>AC19</f>
       </c>
-      <c r="E19" s="12" t="str">
+      <c r="E19" s="11" t="str">
         <f>AD19</f>
       </c>
       <c r="F19" s="3" t="str">
@@ -4709,79 +4709,79 @@
       <c r="L19" t="s">
         <v>52</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="M19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="N19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O19" s="13" t="str">
+      <c r="O19" s="12" t="str">
         <f>Sum(O2:O18)</f>
       </c>
-      <c r="P19" s="13" t="str">
+      <c r="P19" s="12" t="str">
         <f>Sum(P2:P18)</f>
       </c>
-      <c r="Q19" s="13" t="str">
+      <c r="Q19" s="12" t="str">
         <f>Sum(Q2:Q18)</f>
       </c>
-      <c r="R19" s="13" t="str">
+      <c r="R19" s="12" t="str">
         <f>Sum(R2:R18)</f>
       </c>
-      <c r="S19" s="13" t="str">
+      <c r="S19" s="12" t="str">
         <f>Sum(S2:S18)</f>
       </c>
-      <c r="T19" s="13" t="str">
+      <c r="T19" s="12" t="str">
         <f>Sum(T2:T18)</f>
       </c>
-      <c r="U19" s="13" t="str">
+      <c r="U19" s="12" t="str">
         <f>Sum(U2:U18)</f>
       </c>
-      <c r="V19" s="13" t="str">
+      <c r="V19" s="12" t="str">
         <f>Sum(V2:V18)</f>
       </c>
-      <c r="W19" s="13" t="str">
+      <c r="W19" s="12" t="str">
         <f>Sum(W2:W18)</f>
       </c>
-      <c r="X19" s="13" t="str">
+      <c r="X19" s="12" t="str">
         <f>Sum(X2:X18)</f>
       </c>
-      <c r="Y19" s="13" t="str">
+      <c r="Y19" s="12" t="str">
         <f>Sum(Y2:Y18)</f>
       </c>
-      <c r="Z19" s="13" t="str">
+      <c r="Z19" s="12" t="str">
         <f>Sum(Z2:Z18)</f>
       </c>
-      <c r="AA19" s="13" t="str">
+      <c r="AA19" s="12" t="str">
         <f>Sum(AA2:AA18)</f>
       </c>
-      <c r="AB19" s="13" t="str">
+      <c r="AB19" s="12" t="str">
         <f>Sum(AB2:AB18)</f>
       </c>
-      <c r="AC19" s="13" t="str">
+      <c r="AC19" s="12" t="str">
         <f>Sum(AC2:AC18)</f>
       </c>
-      <c r="AD19" s="13" t="str">
+      <c r="AD19" s="12" t="str">
         <f>Sum(AD2:AD18)</f>
       </c>
-      <c r="AE19" s="13" t="str">
+      <c r="AE19" s="12" t="str">
         <f>Sum(AE2:AE18)</f>
       </c>
-      <c r="AF19" s="13"/>
+      <c r="AF19" s="12"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
         <f>M20</f>
       </c>
-      <c r="B20" s="12" t="str">
+      <c r="B20" s="11" t="str">
         <f>N20</f>
       </c>
-      <c r="C20" s="12" t="str">
+      <c r="C20" s="11" t="str">
         <f>AB20</f>
       </c>
-      <c r="D20" s="12" t="str">
+      <c r="D20" s="11" t="str">
         <f>AC20</f>
       </c>
-      <c r="E20" s="12" t="str">
+      <c r="E20" s="11" t="str">
         <f>AD20</f>
       </c>
       <c r="F20" s="3" t="str">
@@ -4802,79 +4802,79 @@
       <c r="L20" t="s">
         <v>53</v>
       </c>
-      <c r="M20" s="12" t="s">
+      <c r="M20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="N20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="11" t="str">
+      <c r="O20" s="10" t="str">
         <f>Sum(O2:O19)</f>
       </c>
-      <c r="P20" s="11" t="str">
+      <c r="P20" s="10" t="str">
         <f>Sum(P2:P19)</f>
       </c>
-      <c r="Q20" s="11" t="str">
+      <c r="Q20" s="10" t="str">
         <f>Sum(Q2:Q19)</f>
       </c>
-      <c r="R20" s="11" t="str">
+      <c r="R20" s="10" t="str">
         <f>Sum(R2:R19)</f>
       </c>
-      <c r="S20" s="11" t="str">
+      <c r="S20" s="10" t="str">
         <f>Sum(S2:S19)</f>
       </c>
-      <c r="T20" s="11" t="str">
+      <c r="T20" s="10" t="str">
         <f>Sum(T2:T19)</f>
       </c>
-      <c r="U20" s="11" t="str">
+      <c r="U20" s="10" t="str">
         <f>Sum(U2:U19)</f>
       </c>
-      <c r="V20" s="11" t="str">
+      <c r="V20" s="10" t="str">
         <f>Sum(V2:V19)</f>
       </c>
-      <c r="W20" s="11" t="str">
+      <c r="W20" s="10" t="str">
         <f>Sum(W2:W19)</f>
       </c>
-      <c r="X20" s="11" t="str">
+      <c r="X20" s="10" t="str">
         <f>Sum(X2:X19)</f>
       </c>
-      <c r="Y20" s="11" t="str">
+      <c r="Y20" s="10" t="str">
         <f>Sum(Y2:Y19)</f>
       </c>
-      <c r="Z20" s="11" t="str">
+      <c r="Z20" s="10" t="str">
         <f>Sum(Z2:Z19)</f>
       </c>
-      <c r="AA20" s="11" t="str">
+      <c r="AA20" s="10" t="str">
         <f>Sum(AA2:AA19)</f>
       </c>
-      <c r="AB20" s="11" t="str">
+      <c r="AB20" s="10" t="str">
         <f>Sum(AB2:AB19)</f>
       </c>
-      <c r="AC20" s="11" t="str">
+      <c r="AC20" s="10" t="str">
         <f>Sum(AC2:AC19)</f>
       </c>
-      <c r="AD20" s="11" t="str">
+      <c r="AD20" s="10" t="str">
         <f>Sum(AD2:AD19)</f>
       </c>
-      <c r="AE20" s="11" t="str">
+      <c r="AE20" s="10" t="str">
         <f>Sum(AE2:AE19)</f>
       </c>
-      <c r="AF20" s="11"/>
+      <c r="AF20" s="10"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
         <f>M21</f>
       </c>
-      <c r="B21" s="12" t="str">
+      <c r="B21" s="11" t="str">
         <f>N21</f>
       </c>
-      <c r="C21" s="12" t="str">
+      <c r="C21" s="11" t="str">
         <f>AB21</f>
       </c>
-      <c r="D21" s="12" t="str">
+      <c r="D21" s="11" t="str">
         <f>AD21</f>
       </c>
-      <c r="E21" s="12" t="str">
+      <c r="E21" s="11" t="str">
         <f>AE21</f>
       </c>
       <c r="F21" s="3" t="str">
@@ -4898,61 +4898,61 @@
       <c r="L21" t="s">
         <v>54</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="M21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="N21" s="12" t="s">
+      <c r="N21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O21" s="12" t="s">
+      <c r="O21" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="P21" s="12" t="s">
+      <c r="P21" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Q21" s="12" t="s">
+      <c r="Q21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="R21" s="12" t="s">
+      <c r="R21" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="S21" s="12" t="s">
+      <c r="S21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="T21" s="12" t="s">
+      <c r="T21" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="U21" s="12" t="s">
+      <c r="U21" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="V21" s="12" t="s">
+      <c r="V21" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="W21" s="12" t="s">
+      <c r="W21" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="X21" s="12" t="s">
+      <c r="X21" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="Y21" s="12" t="s">
+      <c r="Y21" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Z21" s="12" t="s">
+      <c r="Z21" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AA21" s="12" t="s">
+      <c r="AA21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AB21" s="12" t="s">
+      <c r="AB21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AC21" s="12" t="s">
+      <c r="AC21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AD21" s="12" t="s">
+      <c r="AD21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AE21" s="12" t="s">
+      <c r="AE21" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4960,19 +4960,19 @@
       <c r="A22" t="str">
         <f>M22</f>
       </c>
-      <c r="B22" s="12" t="str">
+      <c r="B22" s="11" t="str">
         <f>N22</f>
       </c>
-      <c r="C22" s="9" t="str">
+      <c r="C22" s="13" t="str">
         <f>AB22</f>
       </c>
-      <c r="D22" s="9" t="str">
+      <c r="D22" s="13" t="str">
         <f>AD22</f>
       </c>
-      <c r="E22" s="9" t="str">
+      <c r="E22" s="13" t="str">
         <f>AE22</f>
       </c>
-      <c r="F22" s="9" t="str">
+      <c r="F22" s="13" t="str">
         <f>AF22</f>
       </c>
       <c r="G22" s="3" t="str">
@@ -4993,64 +4993,64 @@
       <c r="L22" t="s">
         <v>18</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="M22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="N22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O22" s="9" t="s">
+      <c r="O22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P22" s="9" t="s">
+      <c r="P22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="Q22" s="9" t="s">
+      <c r="Q22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="R22" s="9" t="s">
+      <c r="R22" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="S22" s="9" t="s">
+      <c r="S22" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="T22" s="9" t="s">
+      <c r="T22" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="U22" s="9" t="s">
+      <c r="U22" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="V22" s="9" t="s">
+      <c r="V22" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="W22" s="9" t="s">
+      <c r="W22" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="X22" s="9" t="s">
+      <c r="X22" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="Y22" s="9" t="s">
+      <c r="Y22" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Z22" s="9" t="s">
+      <c r="Z22" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AA22" s="9" t="s">
+      <c r="AA22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AB22" s="9" t="s">
+      <c r="AB22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AC22" s="9" t="s">
+      <c r="AC22" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AD22" s="9" t="s">
+      <c r="AD22" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AE22" s="9" t="s">
+      <c r="AE22" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AF22" s="9"/>
+      <c r="AF22" s="13"/>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -5059,16 +5059,16 @@
       <c r="B23" t="str">
         <f>N23</f>
       </c>
-      <c r="C23" s="13" t="str">
+      <c r="C23" s="12" t="str">
         <f>AB23</f>
       </c>
-      <c r="D23" s="13" t="str">
+      <c r="D23" s="12" t="str">
         <f>AD23</f>
       </c>
-      <c r="E23" s="13" t="str">
+      <c r="E23" s="12" t="str">
         <f>AE23</f>
       </c>
-      <c r="F23" s="13" t="str">
+      <c r="F23" s="12" t="str">
         <f>AF23</f>
       </c>
       <c r="G23" s="3" t="str">
@@ -5092,58 +5092,58 @@
       <c r="N23" t="s">
         <v>40</v>
       </c>
-      <c r="O23" s="13" t="n">
+      <c r="O23" s="12" t="n">
         <v>54433198289.7936</v>
       </c>
-      <c r="P23" s="13" t="n">
+      <c r="P23" s="12" t="n">
         <v>63206462422.4098</v>
       </c>
-      <c r="Q23" s="13" t="n">
+      <c r="Q23" s="12" t="n">
         <v>63384087395.8274</v>
       </c>
-      <c r="R23" s="13" t="n">
+      <c r="R23" s="12" t="n">
         <v>56539727512.8033</v>
       </c>
-      <c r="S23" s="13" t="n">
+      <c r="S23" s="12" t="n">
         <v>58631226450.0673</v>
       </c>
-      <c r="T23" s="13" t="n">
+      <c r="T23" s="12" t="n">
         <v>65669474203.5038</v>
       </c>
-      <c r="U23" s="13" t="n">
+      <c r="U23" s="12" t="n">
         <v>45566006836.0098</v>
       </c>
-      <c r="V23" s="13" t="n">
+      <c r="V23" s="12" t="n">
         <v>43108517936.8348</v>
       </c>
-      <c r="W23" s="13" t="n">
+      <c r="W23" s="12" t="n">
         <v>36080692775.8811</v>
       </c>
-      <c r="X23" s="13" t="n">
+      <c r="X23" s="12" t="n">
         <v>33445434706.098</v>
       </c>
-      <c r="Y23" s="13" t="n">
+      <c r="Y23" s="12" t="n">
         <v>35891480629.9563</v>
       </c>
-      <c r="Z23" s="13" t="n">
+      <c r="Z23" s="12" t="n">
         <v>41613539560.8972</v>
       </c>
-      <c r="AA23" s="13" t="n">
+      <c r="AA23" s="12" t="n">
         <v>41312399823.8862</v>
       </c>
-      <c r="AB23" s="13" t="n">
+      <c r="AB23" s="12" t="n">
         <v>41521680696.2626</v>
       </c>
-      <c r="AC23" s="13" t="n">
+      <c r="AC23" s="12" t="n">
         <v>62403976804.3759</v>
       </c>
-      <c r="AD23" s="13" t="n">
+      <c r="AD23" s="12" t="n">
         <v>56116718208.8265</v>
       </c>
-      <c r="AE23" s="13" t="n">
+      <c r="AE23" s="12" t="n">
         <v>45884808636.1964</v>
       </c>
-      <c r="AF23" s="13"/>
+      <c r="AF23" s="12"/>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -5152,16 +5152,16 @@
       <c r="B24" t="str">
         <f>N24</f>
       </c>
-      <c r="C24" s="13" t="str">
+      <c r="C24" s="12" t="str">
         <f>AB24</f>
       </c>
-      <c r="D24" s="13" t="str">
+      <c r="D24" s="12" t="str">
         <f>AD24</f>
       </c>
-      <c r="E24" s="13" t="str">
+      <c r="E24" s="12" t="str">
         <f>AE24</f>
       </c>
-      <c r="F24" s="13" t="str">
+      <c r="F24" s="12" t="str">
         <f>AF24</f>
       </c>
       <c r="G24" s="3" t="str">
@@ -5185,58 +5185,58 @@
       <c r="N24" t="s">
         <v>43</v>
       </c>
-      <c r="O24" s="13" t="n">
+      <c r="O24" s="12" t="n">
         <v>38080315538.7227</v>
       </c>
-      <c r="P24" s="13" t="n">
+      <c r="P24" s="12" t="n">
         <v>43727065605.568</v>
       </c>
-      <c r="Q24" s="13" t="n">
+      <c r="Q24" s="12" t="n">
         <v>36679340336.2192</v>
       </c>
-      <c r="R24" s="13" t="n">
+      <c r="R24" s="12" t="n">
         <v>36801832575.8184</v>
       </c>
-      <c r="S24" s="13" t="n">
+      <c r="S24" s="12" t="n">
         <v>34546481154.1104</v>
       </c>
-      <c r="T24" s="13" t="n">
+      <c r="T24" s="12" t="n">
         <v>29145337046.3448</v>
       </c>
-      <c r="U24" s="13" t="n">
+      <c r="U24" s="12" t="n">
         <v>25366971773.2031</v>
       </c>
-      <c r="V24" s="13" t="n">
+      <c r="V24" s="12" t="n">
         <v>22865198426.1537</v>
       </c>
-      <c r="W24" s="13" t="n">
+      <c r="W24" s="12" t="n">
         <v>25132367037.1745</v>
       </c>
-      <c r="X24" s="13" t="n">
+      <c r="X24" s="12" t="n">
         <v>24870706247.0736</v>
       </c>
-      <c r="Y24" s="13" t="n">
+      <c r="Y24" s="12" t="n">
         <v>27850211435.9087</v>
       </c>
-      <c r="Z24" s="13" t="n">
+      <c r="Z24" s="12" t="n">
         <v>31829965619.0525</v>
       </c>
-      <c r="AA24" s="13" t="n">
+      <c r="AA24" s="12" t="n">
         <v>34740283044.7393</v>
       </c>
-      <c r="AB24" s="13" t="n">
+      <c r="AB24" s="12" t="n">
         <v>41230411824.8802</v>
       </c>
-      <c r="AC24" s="13" t="n">
+      <c r="AC24" s="12" t="n">
         <v>49443568893.6507</v>
       </c>
-      <c r="AD24" s="13" t="n">
+      <c r="AD24" s="12" t="n">
         <v>55054622714.8063</v>
       </c>
-      <c r="AE24" s="13" t="n">
+      <c r="AE24" s="12" t="n">
         <v>38084619243.8335</v>
       </c>
-      <c r="AF24" s="13"/>
+      <c r="AF24" s="12"/>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -5245,16 +5245,16 @@
       <c r="B25" t="str">
         <f>N25</f>
       </c>
-      <c r="C25" s="13" t="str">
+      <c r="C25" s="12" t="str">
         <f>AB25</f>
       </c>
-      <c r="D25" s="13" t="str">
+      <c r="D25" s="12" t="str">
         <f>AD25</f>
       </c>
-      <c r="E25" s="13" t="str">
+      <c r="E25" s="12" t="str">
         <f>AE25</f>
       </c>
-      <c r="F25" s="13" t="str">
+      <c r="F25" s="12" t="str">
         <f>AF25</f>
       </c>
       <c r="G25" s="3" t="str">
@@ -5278,58 +5278,58 @@
       <c r="N25" t="s">
         <v>40</v>
       </c>
-      <c r="O25" s="13" t="n">
+      <c r="O25" s="12" t="n">
         <v>23076937832.0004</v>
       </c>
-      <c r="P25" s="13" t="n">
+      <c r="P25" s="12" t="n">
         <v>25706141275.4959</v>
       </c>
-      <c r="Q25" s="13" t="n">
+      <c r="Q25" s="12" t="n">
         <v>23919672635.14</v>
       </c>
-      <c r="R25" s="13" t="n">
+      <c r="R25" s="12" t="n">
         <v>24136792283.2457</v>
       </c>
-      <c r="S25" s="13" t="n">
+      <c r="S25" s="12" t="n">
         <v>20757263554.6947</v>
       </c>
-      <c r="T25" s="13" t="n">
+      <c r="T25" s="12" t="n">
         <v>20524381249.9992</v>
       </c>
-      <c r="U25" s="13" t="n">
+      <c r="U25" s="12" t="n">
         <v>16814746087.9398</v>
       </c>
-      <c r="V25" s="13" t="n">
+      <c r="V25" s="12" t="n">
         <v>18409277821.6143</v>
       </c>
-      <c r="W25" s="13" t="n">
+      <c r="W25" s="12" t="n">
         <v>16961263473.4901</v>
       </c>
-      <c r="X25" s="13" t="n">
+      <c r="X25" s="12" t="n">
         <v>19036342153.6144</v>
       </c>
-      <c r="Y25" s="13" t="n">
+      <c r="Y25" s="12" t="n">
         <v>21261335725.7641</v>
       </c>
-      <c r="Z25" s="13" t="n">
+      <c r="Z25" s="12" t="n">
         <v>15546420509.9782</v>
       </c>
-      <c r="AA25" s="13" t="n">
+      <c r="AA25" s="12" t="n">
         <v>18828756579.1899</v>
       </c>
-      <c r="AB25" s="13" t="n">
+      <c r="AB25" s="12" t="n">
         <v>19656907388.4898</v>
       </c>
-      <c r="AC25" s="13" t="n">
+      <c r="AC25" s="12" t="n">
         <v>17222629063.7971</v>
       </c>
-      <c r="AD25" s="13" t="n">
+      <c r="AD25" s="12" t="n">
         <v>18151566559.4917</v>
       </c>
-      <c r="AE25" s="13" t="n">
+      <c r="AE25" s="12" t="n">
         <v>19305043010.3455</v>
       </c>
-      <c r="AF25" s="13"/>
+      <c r="AF25" s="12"/>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -5338,16 +5338,16 @@
       <c r="B26" t="str">
         <f>N26</f>
       </c>
-      <c r="C26" s="13" t="str">
+      <c r="C26" s="12" t="str">
         <f>AB26</f>
       </c>
-      <c r="D26" s="13" t="str">
+      <c r="D26" s="12" t="str">
         <f>AD26</f>
       </c>
-      <c r="E26" s="13" t="str">
+      <c r="E26" s="12" t="str">
         <f>AE26</f>
       </c>
-      <c r="F26" s="13" t="str">
+      <c r="F26" s="12" t="str">
         <f>AF26</f>
       </c>
       <c r="G26" s="3" t="str">
@@ -5371,58 +5371,58 @@
       <c r="N26" t="s">
         <v>43</v>
       </c>
-      <c r="O26" s="13" t="n">
+      <c r="O26" s="12" t="n">
         <v>22335569820.3483</v>
       </c>
-      <c r="P26" s="13" t="n">
+      <c r="P26" s="12" t="n">
         <v>29923037990.1248</v>
       </c>
-      <c r="Q26" s="13" t="n">
+      <c r="Q26" s="12" t="n">
         <v>11691491864.6459</v>
       </c>
-      <c r="R26" s="13" t="n">
+      <c r="R26" s="12" t="n">
         <v>31604718227.9688</v>
       </c>
-      <c r="S26" s="13" t="n">
+      <c r="S26" s="12" t="n">
         <v>39818606664.7779</v>
       </c>
-      <c r="T26" s="13" t="n">
+      <c r="T26" s="12" t="n">
         <v>38210460938.5481</v>
       </c>
-      <c r="U26" s="13" t="n">
+      <c r="U26" s="12" t="n">
         <v>30699546230.451</v>
       </c>
-      <c r="V26" s="13" t="n">
+      <c r="V26" s="12" t="n">
         <v>29471853898.7883</v>
       </c>
-      <c r="W26" s="13" t="n">
+      <c r="W26" s="12" t="n">
         <v>25162408132.2103</v>
       </c>
-      <c r="X26" s="13" t="n">
+      <c r="X26" s="12" t="n">
         <v>25512876989.3574</v>
       </c>
-      <c r="Y26" s="13" t="n">
+      <c r="Y26" s="12" t="n">
         <v>23878561071.4906</v>
       </c>
-      <c r="Z26" s="13" t="n">
+      <c r="Z26" s="12" t="n">
         <v>23916623735.0204</v>
       </c>
-      <c r="AA26" s="13" t="n">
+      <c r="AA26" s="12" t="n">
         <v>25389047255.8293</v>
       </c>
-      <c r="AB26" s="13" t="n">
+      <c r="AB26" s="12" t="n">
         <v>28674762141.7718</v>
       </c>
-      <c r="AC26" s="13" t="n">
+      <c r="AC26" s="12" t="n">
         <v>21376319909.2767</v>
       </c>
-      <c r="AD26" s="13" t="n">
+      <c r="AD26" s="12" t="n">
         <v>21863916490.813</v>
       </c>
-      <c r="AE26" s="13" t="n">
+      <c r="AE26" s="12" t="n">
         <v>21344984676.5069</v>
       </c>
-      <c r="AF26" s="13"/>
+      <c r="AF26" s="12"/>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -5431,16 +5431,16 @@
       <c r="B27" t="str">
         <f>N27</f>
       </c>
-      <c r="C27" s="13" t="str">
+      <c r="C27" s="12" t="str">
         <f>AB27</f>
       </c>
-      <c r="D27" s="13" t="str">
+      <c r="D27" s="12" t="str">
         <f>AD27</f>
       </c>
-      <c r="E27" s="13" t="str">
+      <c r="E27" s="12" t="str">
         <f>AE27</f>
       </c>
-      <c r="F27" s="13" t="str">
+      <c r="F27" s="12" t="str">
         <f>AF27</f>
       </c>
       <c r="G27" s="3" t="str">
@@ -5464,58 +5464,58 @@
       <c r="N27" t="s">
         <v>40</v>
       </c>
-      <c r="O27" s="13" t="n">
+      <c r="O27" s="12" t="n">
         <v>12934421221.5324</v>
       </c>
-      <c r="P27" s="13" t="n">
+      <c r="P27" s="12" t="n">
         <v>13207794716.1582</v>
       </c>
-      <c r="Q27" s="13" t="n">
+      <c r="Q27" s="12" t="n">
         <v>11415266832.834</v>
       </c>
-      <c r="R27" s="13" t="n">
+      <c r="R27" s="12" t="n">
         <v>9782202334.76978</v>
       </c>
-      <c r="S27" s="13" t="n">
+      <c r="S27" s="12" t="n">
         <v>8478409019.86079</v>
       </c>
-      <c r="T27" s="13" t="n">
+      <c r="T27" s="12" t="n">
         <v>8009553465.21114</v>
       </c>
-      <c r="U27" s="13" t="n">
+      <c r="U27" s="12" t="n">
         <v>7022402836.67149</v>
       </c>
-      <c r="V27" s="13" t="n">
+      <c r="V27" s="12" t="n">
         <v>8785404691.92467</v>
       </c>
-      <c r="W27" s="13" t="n">
+      <c r="W27" s="12" t="n">
         <v>9297394237.13699</v>
       </c>
-      <c r="X27" s="13" t="n">
+      <c r="X27" s="12" t="n">
         <v>9311951239.62718</v>
       </c>
-      <c r="Y27" s="13" t="n">
+      <c r="Y27" s="12" t="n">
         <v>8280774462.87702</v>
       </c>
-      <c r="Z27" s="13" t="n">
+      <c r="Z27" s="12" t="n">
         <v>15189159108.3498</v>
       </c>
-      <c r="AA27" s="13" t="n">
+      <c r="AA27" s="12" t="n">
         <v>15182681461.849</v>
       </c>
-      <c r="AB27" s="13" t="n">
+      <c r="AB27" s="12" t="n">
         <v>13786425412.1019</v>
       </c>
-      <c r="AC27" s="13" t="n">
+      <c r="AC27" s="12" t="n">
         <v>12670550126.8905</v>
       </c>
-      <c r="AD27" s="13" t="n">
+      <c r="AD27" s="12" t="n">
         <v>12577286209.6011</v>
       </c>
-      <c r="AE27" s="13" t="n">
+      <c r="AE27" s="12" t="n">
         <v>12723722281.9879</v>
       </c>
-      <c r="AF27" s="13"/>
+      <c r="AF27" s="12"/>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -5524,16 +5524,16 @@
       <c r="B28" t="str">
         <f>N28</f>
       </c>
-      <c r="C28" s="13" t="str">
+      <c r="C28" s="12" t="str">
         <f>AB28</f>
       </c>
-      <c r="D28" s="13" t="str">
+      <c r="D28" s="12" t="str">
         <f>AD28</f>
       </c>
-      <c r="E28" s="13" t="str">
+      <c r="E28" s="12" t="str">
         <f>AE28</f>
       </c>
-      <c r="F28" s="13" t="str">
+      <c r="F28" s="12" t="str">
         <f>AF28</f>
       </c>
       <c r="G28" s="3" t="str">
@@ -5557,58 +5557,58 @@
       <c r="N28" t="s">
         <v>43</v>
       </c>
-      <c r="O28" s="13" t="n">
+      <c r="O28" s="12" t="n">
         <v>16620911815.3092</v>
       </c>
-      <c r="P28" s="13" t="n">
+      <c r="P28" s="12" t="n">
         <v>15609560016.05</v>
       </c>
-      <c r="Q28" s="13" t="n">
+      <c r="Q28" s="12" t="n">
         <v>15842150054.9279</v>
       </c>
-      <c r="R28" s="13" t="n">
+      <c r="R28" s="12" t="n">
         <v>14781342810.9632</v>
       </c>
-      <c r="S28" s="13" t="n">
+      <c r="S28" s="12" t="n">
         <v>19180315345.407</v>
       </c>
-      <c r="T28" s="13" t="n">
+      <c r="T28" s="12" t="n">
         <v>17308620462.9684</v>
       </c>
-      <c r="U28" s="13" t="n">
+      <c r="U28" s="12" t="n">
         <v>13904988157.0779</v>
       </c>
-      <c r="V28" s="13" t="n">
+      <c r="V28" s="12" t="n">
         <v>14003250645.9381</v>
       </c>
-      <c r="W28" s="13" t="n">
+      <c r="W28" s="12" t="n">
         <v>13639374402.7499</v>
       </c>
-      <c r="X28" s="13" t="n">
+      <c r="X28" s="12" t="n">
         <v>12566503357.2048</v>
       </c>
-      <c r="Y28" s="13" t="n">
+      <c r="Y28" s="12" t="n">
         <v>13723063047.6849</v>
       </c>
-      <c r="Z28" s="13" t="n">
+      <c r="Z28" s="12" t="n">
         <v>16508094751.8032</v>
       </c>
-      <c r="AA28" s="13" t="n">
+      <c r="AA28" s="12" t="n">
         <v>16211843585.8947</v>
       </c>
-      <c r="AB28" s="13" t="n">
+      <c r="AB28" s="12" t="n">
         <v>15289070280.9898</v>
       </c>
-      <c r="AC28" s="13" t="n">
+      <c r="AC28" s="12" t="n">
         <v>12466202122.7599</v>
       </c>
-      <c r="AD28" s="13" t="n">
+      <c r="AD28" s="12" t="n">
         <v>12332917545.8821</v>
       </c>
-      <c r="AE28" s="13" t="n">
+      <c r="AE28" s="12" t="n">
         <v>8499159403.4485</v>
       </c>
-      <c r="AF28" s="13"/>
+      <c r="AF28" s="12"/>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -5617,16 +5617,16 @@
       <c r="B29" t="str">
         <f>N29</f>
       </c>
-      <c r="C29" s="13" t="str">
+      <c r="C29" s="12" t="str">
         <f>AB29</f>
       </c>
-      <c r="D29" s="13" t="str">
+      <c r="D29" s="12" t="str">
         <f>AD29</f>
       </c>
-      <c r="E29" s="13" t="str">
+      <c r="E29" s="12" t="str">
         <f>AE29</f>
       </c>
-      <c r="F29" s="13" t="str">
+      <c r="F29" s="12" t="str">
         <f>AF29</f>
       </c>
       <c r="G29" s="3" t="str">
@@ -5650,58 +5650,58 @@
       <c r="N29" t="s">
         <v>40</v>
       </c>
-      <c r="O29" s="13" t="n">
+      <c r="O29" s="12" t="n">
         <v>529836.644742355</v>
       </c>
-      <c r="P29" s="13" t="n">
+      <c r="P29" s="12" t="n">
         <v>13885173.8185951</v>
       </c>
-      <c r="Q29" s="13" t="n">
+      <c r="Q29" s="12" t="n">
         <v>23006581.6312027</v>
       </c>
-      <c r="R29" s="13" t="n">
+      <c r="R29" s="12" t="n">
         <v>473565965.936908</v>
       </c>
-      <c r="S29" s="13" t="n">
+      <c r="S29" s="12" t="n">
         <v>843320436.451411</v>
       </c>
-      <c r="T29" s="13" t="n">
+      <c r="T29" s="12" t="n">
         <v>957771731.993341</v>
       </c>
-      <c r="U29" s="13" t="n">
+      <c r="U29" s="12" t="n">
         <v>751216576.496738</v>
       </c>
-      <c r="V29" s="13" t="n">
+      <c r="V29" s="12" t="n">
         <v>545892925.396868</v>
       </c>
-      <c r="W29" s="13" t="n">
+      <c r="W29" s="12" t="n">
         <v>599410783.368009</v>
       </c>
-      <c r="X29" s="13" t="n">
+      <c r="X29" s="12" t="n">
         <v>936110156.092302</v>
       </c>
-      <c r="Y29" s="13" t="n">
+      <c r="Y29" s="12" t="n">
         <v>1480550852.22249</v>
       </c>
-      <c r="Z29" s="13" t="n">
+      <c r="Z29" s="12" t="n">
         <v>2596622289.94031</v>
       </c>
-      <c r="AA29" s="13" t="n">
+      <c r="AA29" s="12" t="n">
         <v>2097893987.88952</v>
       </c>
-      <c r="AB29" s="13" t="n">
+      <c r="AB29" s="12" t="n">
         <v>1915633921.84376</v>
       </c>
-      <c r="AC29" s="13" t="n">
+      <c r="AC29" s="12" t="n">
         <v>2001252194.32361</v>
       </c>
-      <c r="AD29" s="13" t="n">
+      <c r="AD29" s="12" t="n">
         <v>3619016357.08656</v>
       </c>
-      <c r="AE29" s="13" t="n">
+      <c r="AE29" s="12" t="n">
         <v>1942123630.1997</v>
       </c>
-      <c r="AF29" s="13"/>
+      <c r="AF29" s="12"/>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -5710,16 +5710,16 @@
       <c r="B30" t="str">
         <f>N30</f>
       </c>
-      <c r="C30" s="13" t="str">
+      <c r="C30" s="12" t="str">
         <f>AB30</f>
       </c>
-      <c r="D30" s="13" t="str">
+      <c r="D30" s="12" t="str">
         <f>AD30</f>
       </c>
-      <c r="E30" s="13" t="str">
+      <c r="E30" s="12" t="str">
         <f>AE30</f>
       </c>
-      <c r="F30" s="13" t="str">
+      <c r="F30" s="12" t="str">
         <f>AF30</f>
       </c>
       <c r="G30" s="3" t="str">
@@ -5743,58 +5743,58 @@
       <c r="N30" t="s">
         <v>43</v>
       </c>
-      <c r="O30" s="13" t="n">
+      <c r="O30" s="12" t="n">
         <v>180053651.523716</v>
       </c>
-      <c r="P30" s="13" t="n">
+      <c r="P30" s="12" t="n">
         <v>75563242.4972936</v>
       </c>
-      <c r="Q30" s="13" t="n">
+      <c r="Q30" s="12" t="n">
         <v>537330892.537575</v>
       </c>
-      <c r="R30" s="13" t="n">
+      <c r="R30" s="12" t="n">
         <v>14264023978.3383</v>
       </c>
-      <c r="S30" s="13" t="n">
+      <c r="S30" s="12" t="n">
         <v>57233426930.4224</v>
       </c>
-      <c r="T30" s="13" t="n">
+      <c r="T30" s="12" t="n">
         <v>73284261378.7015</v>
       </c>
-      <c r="U30" s="13" t="n">
+      <c r="U30" s="12" t="n">
         <v>60955598049.7189</v>
       </c>
-      <c r="V30" s="13" t="n">
+      <c r="V30" s="12" t="n">
         <v>56391555523.3307</v>
       </c>
-      <c r="W30" s="13" t="n">
+      <c r="W30" s="12" t="n">
         <v>55896473303.0458</v>
       </c>
-      <c r="X30" s="13" t="n">
+      <c r="X30" s="12" t="n">
         <v>64142079322.815</v>
       </c>
-      <c r="Y30" s="13" t="n">
+      <c r="Y30" s="12" t="n">
         <v>72224500485.3592</v>
       </c>
-      <c r="Z30" s="13" t="n">
+      <c r="Z30" s="12" t="n">
         <v>91984644249.6953</v>
       </c>
-      <c r="AA30" s="13" t="n">
+      <c r="AA30" s="12" t="n">
         <v>96077357914.4246</v>
       </c>
-      <c r="AB30" s="13" t="n">
+      <c r="AB30" s="12" t="n">
         <v>102566782070.852</v>
       </c>
-      <c r="AC30" s="13" t="n">
+      <c r="AC30" s="12" t="n">
         <v>95996190731.8403</v>
       </c>
-      <c r="AD30" s="13" t="n">
+      <c r="AD30" s="12" t="n">
         <v>91343679591.283</v>
       </c>
-      <c r="AE30" s="13" t="n">
+      <c r="AE30" s="12" t="n">
         <v>59389185605.2414</v>
       </c>
-      <c r="AF30" s="13"/>
+      <c r="AF30" s="12"/>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -5803,16 +5803,16 @@
       <c r="B31" t="str">
         <f>N31</f>
       </c>
-      <c r="C31" s="13" t="str">
+      <c r="C31" s="12" t="str">
         <f>AB31</f>
       </c>
-      <c r="D31" s="13" t="str">
+      <c r="D31" s="12" t="str">
         <f>AD31</f>
       </c>
-      <c r="E31" s="13" t="str">
+      <c r="E31" s="12" t="str">
         <f>AE31</f>
       </c>
-      <c r="F31" s="13" t="str">
+      <c r="F31" s="12" t="str">
         <f>AF31</f>
       </c>
       <c r="G31" s="3" t="str">
@@ -5836,58 +5836,58 @@
       <c r="N31" t="s">
         <v>43</v>
       </c>
-      <c r="O31" s="13" t="n">
+      <c r="O31" s="12" t="n">
         <v>111088255772.911</v>
       </c>
-      <c r="P31" s="13" t="n">
+      <c r="P31" s="12" t="n">
         <v>123138320228.401</v>
       </c>
-      <c r="Q31" s="13" t="n">
+      <c r="Q31" s="12" t="n">
         <v>144505644765.899</v>
       </c>
-      <c r="R31" s="13" t="n">
+      <c r="R31" s="12" t="n">
         <v>177116380820.767</v>
       </c>
-      <c r="S31" s="13" t="n">
+      <c r="S31" s="12" t="n">
         <v>156478143750.133</v>
       </c>
-      <c r="T31" s="13" t="n">
+      <c r="T31" s="12" t="n">
         <v>150305941245.104</v>
       </c>
-      <c r="U31" s="13" t="n">
+      <c r="U31" s="12" t="n">
         <v>148152681069.895</v>
       </c>
-      <c r="V31" s="13" t="n">
+      <c r="V31" s="12" t="n">
         <v>121790715050.942</v>
       </c>
-      <c r="W31" s="13" t="n">
+      <c r="W31" s="12" t="n">
         <v>120985177086.345</v>
       </c>
-      <c r="X31" s="13" t="n">
+      <c r="X31" s="12" t="n">
         <v>143246813417.291</v>
       </c>
-      <c r="Y31" s="13" t="n">
+      <c r="Y31" s="12" t="n">
         <v>148419285430.795</v>
       </c>
-      <c r="Z31" s="13" t="n">
+      <c r="Z31" s="12" t="n">
         <v>145326946046.844</v>
       </c>
-      <c r="AA31" s="13" t="n">
+      <c r="AA31" s="12" t="n">
         <v>157116046947.798</v>
       </c>
-      <c r="AB31" s="13" t="n">
+      <c r="AB31" s="12" t="n">
         <v>180404032416.85</v>
       </c>
-      <c r="AC31" s="13" t="n">
+      <c r="AC31" s="12" t="n">
         <v>120115500796.549</v>
       </c>
-      <c r="AD31" s="13" t="n">
+      <c r="AD31" s="12" t="n">
         <v>124771012530.695</v>
       </c>
-      <c r="AE31" s="13" t="n">
+      <c r="AE31" s="12" t="n">
         <v>194731326724.396</v>
       </c>
-      <c r="AF31" s="13"/>
+      <c r="AF31" s="12"/>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -5896,16 +5896,16 @@
       <c r="B32" t="str">
         <f>N32</f>
       </c>
-      <c r="C32" s="13" t="str">
+      <c r="C32" s="12" t="str">
         <f>AB32</f>
       </c>
-      <c r="D32" s="13" t="str">
+      <c r="D32" s="12" t="str">
         <f>AD32</f>
       </c>
-      <c r="E32" s="13" t="str">
+      <c r="E32" s="12" t="str">
         <f>AE32</f>
       </c>
-      <c r="F32" s="13" t="str">
+      <c r="F32" s="12" t="str">
         <f>AF32</f>
       </c>
       <c r="G32" s="3" t="str">
@@ -5929,58 +5929,58 @@
       <c r="N32" t="s">
         <v>40</v>
       </c>
-      <c r="O32" s="13" t="n">
+      <c r="O32" s="12" t="n">
         <v>4927975.24543857</v>
       </c>
-      <c r="P32" s="13" t="n">
+      <c r="P32" s="12" t="n">
         <v>10138331.6768421</v>
       </c>
-      <c r="Q32" s="13" t="n">
+      <c r="Q32" s="12" t="n">
         <v>6559574.13976913</v>
       </c>
-      <c r="R32" s="13" t="n">
+      <c r="R32" s="12" t="n">
         <v>-530002.633965152</v>
       </c>
-      <c r="S32" s="13" t="n">
+      <c r="S32" s="12" t="n">
         <v>756423.842348394</v>
       </c>
-      <c r="T32" s="13" t="n">
+      <c r="T32" s="12" t="n">
         <v>3597300.3627095</v>
       </c>
-      <c r="U32" s="13" t="n">
+      <c r="U32" s="12" t="n">
         <v>953544.880939329</v>
       </c>
-      <c r="V32" s="13" t="n">
+      <c r="V32" s="12" t="n">
         <v>2100234.12194165</v>
       </c>
-      <c r="W32" s="13" t="n">
+      <c r="W32" s="12" t="n">
         <v>860999.023632689</v>
       </c>
-      <c r="X32" s="13" t="n">
+      <c r="X32" s="12" t="n">
         <v>9268393.16624881</v>
       </c>
-      <c r="Y32" s="13" t="n">
+      <c r="Y32" s="12" t="n">
         <v>18969615.411275</v>
       </c>
-      <c r="Z32" s="13" t="n">
+      <c r="Z32" s="12" t="n">
         <v>12065005.5308147</v>
       </c>
-      <c r="AA32" s="13" t="n">
+      <c r="AA32" s="12" t="n">
         <v>58918679.9636052</v>
       </c>
-      <c r="AB32" s="13" t="n">
+      <c r="AB32" s="12" t="n">
         <v>5331743.09679972</v>
       </c>
-      <c r="AC32" s="13" t="n">
+      <c r="AC32" s="12" t="n">
         <v>21077740.3019894</v>
       </c>
-      <c r="AD32" s="13" t="n">
+      <c r="AD32" s="12" t="n">
         <v>6697698.44392739</v>
       </c>
-      <c r="AE32" s="13" t="n">
+      <c r="AE32" s="12" t="n">
         <v>3009276.3125</v>
       </c>
-      <c r="AF32" s="13"/>
+      <c r="AF32" s="12"/>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -5989,16 +5989,16 @@
       <c r="B33" t="str">
         <f>N33</f>
       </c>
-      <c r="C33" s="13" t="str">
+      <c r="C33" s="12" t="str">
         <f>AB33</f>
       </c>
-      <c r="D33" s="13" t="str">
+      <c r="D33" s="12" t="str">
         <f>AD33</f>
       </c>
-      <c r="E33" s="13" t="str">
+      <c r="E33" s="12" t="str">
         <f>AE33</f>
       </c>
-      <c r="F33" s="13" t="str">
+      <c r="F33" s="12" t="str">
         <f>AF33</f>
       </c>
       <c r="G33" s="3" t="str">
@@ -6022,58 +6022,58 @@
       <c r="N33" t="s">
         <v>43</v>
       </c>
-      <c r="O33" s="13" t="n">
+      <c r="O33" s="12" t="n">
         <v>129494665.991222</v>
       </c>
-      <c r="P33" s="13" t="n">
+      <c r="P33" s="12" t="n">
         <v>377017676.972643</v>
       </c>
-      <c r="Q33" s="13" t="n">
+      <c r="Q33" s="12" t="n">
         <v>164705115.519292</v>
       </c>
-      <c r="R33" s="13" t="n">
+      <c r="R33" s="12" t="n">
         <v>3052336970.05866</v>
       </c>
-      <c r="S33" s="13" t="n">
+      <c r="S33" s="12" t="n">
         <v>620639379.059586</v>
       </c>
-      <c r="T33" s="13" t="n">
+      <c r="T33" s="12" t="n">
         <v>428082124.158577</v>
       </c>
-      <c r="U33" s="13" t="n">
+      <c r="U33" s="12" t="n">
         <v>264005381.730712</v>
       </c>
-      <c r="V33" s="13" t="n">
+      <c r="V33" s="12" t="n">
         <v>319864252.59757</v>
       </c>
-      <c r="W33" s="13" t="n">
+      <c r="W33" s="12" t="n">
         <v>155895886.847221</v>
       </c>
-      <c r="X33" s="13" t="n">
+      <c r="X33" s="12" t="n">
         <v>233122510.00642</v>
       </c>
-      <c r="Y33" s="13" t="n">
+      <c r="Y33" s="12" t="n">
         <v>153787934.235354</v>
       </c>
-      <c r="Z33" s="13" t="n">
+      <c r="Z33" s="12" t="n">
         <v>168701065.6176</v>
       </c>
-      <c r="AA33" s="13" t="n">
+      <c r="AA33" s="12" t="n">
         <v>367214234.446343</v>
       </c>
-      <c r="AB33" s="13" t="n">
+      <c r="AB33" s="12" t="n">
         <v>380138051.906108</v>
       </c>
-      <c r="AC33" s="13" t="n">
+      <c r="AC33" s="12" t="n">
         <v>333792378.138851</v>
       </c>
-      <c r="AD33" s="13" t="n">
+      <c r="AD33" s="12" t="n">
         <v>356041881.589343</v>
       </c>
-      <c r="AE33" s="13" t="n">
+      <c r="AE33" s="12" t="n">
         <v>643485539.1533</v>
       </c>
-      <c r="AF33" s="13"/>
+      <c r="AF33" s="12"/>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -6082,16 +6082,16 @@
       <c r="B34" t="str">
         <f>N34</f>
       </c>
-      <c r="C34" s="13" t="str">
+      <c r="C34" s="12" t="str">
         <f>AB34</f>
       </c>
-      <c r="D34" s="13" t="str">
+      <c r="D34" s="12" t="str">
         <f>AD34</f>
       </c>
-      <c r="E34" s="13" t="str">
+      <c r="E34" s="12" t="str">
         <f>AE34</f>
       </c>
-      <c r="F34" s="13" t="str">
+      <c r="F34" s="12" t="str">
         <f>AF34</f>
       </c>
       <c r="G34" s="3" t="str">
@@ -6115,58 +6115,58 @@
       <c r="N34" t="s">
         <v>40</v>
       </c>
-      <c r="O34" s="13" t="n">
+      <c r="O34" s="12" t="n">
         <v>16441635563.8919</v>
       </c>
-      <c r="P34" s="13" t="n">
+      <c r="P34" s="12" t="n">
         <v>13872640294.2481</v>
       </c>
-      <c r="Q34" s="13" t="n">
+      <c r="Q34" s="12" t="n">
         <v>9388846274.89913</v>
       </c>
-      <c r="R34" s="13" t="n">
+      <c r="R34" s="12" t="n">
         <v>6452679851.97572</v>
       </c>
-      <c r="S34" s="13" t="n">
+      <c r="S34" s="12" t="n">
         <v>4175622853.73578</v>
       </c>
-      <c r="T34" s="13" t="n">
+      <c r="T34" s="12" t="n">
         <v>3068379652.02286</v>
       </c>
-      <c r="U34" s="13" t="n">
+      <c r="U34" s="12" t="n">
         <v>2798319393.96219</v>
       </c>
-      <c r="V34" s="13" t="n">
+      <c r="V34" s="12" t="n">
         <v>1645348229.74133</v>
       </c>
-      <c r="W34" s="13" t="n">
+      <c r="W34" s="12" t="n">
         <v>2385756152.08176</v>
       </c>
-      <c r="X34" s="13" t="n">
+      <c r="X34" s="12" t="n">
         <v>1362580896.21716</v>
       </c>
-      <c r="Y34" s="13" t="n">
+      <c r="Y34" s="12" t="n">
         <v>1491762627.85421</v>
       </c>
-      <c r="Z34" s="13" t="n">
+      <c r="Z34" s="12" t="n">
         <v>1742646499.33167</v>
       </c>
-      <c r="AA34" s="13" t="n">
+      <c r="AA34" s="12" t="n">
         <v>1969009833.89659</v>
       </c>
-      <c r="AB34" s="13" t="n">
+      <c r="AB34" s="12" t="n">
         <v>1931823416.57386</v>
       </c>
-      <c r="AC34" s="13" t="n">
+      <c r="AC34" s="12" t="n">
         <v>1779260726.06858</v>
       </c>
-      <c r="AD34" s="13" t="n">
+      <c r="AD34" s="12" t="n">
         <v>2120304111.03891</v>
       </c>
-      <c r="AE34" s="13" t="n">
+      <c r="AE34" s="12" t="n">
         <v>4477169390.5106</v>
       </c>
-      <c r="AF34" s="13"/>
+      <c r="AF34" s="12"/>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -6175,16 +6175,16 @@
       <c r="B35" t="str">
         <f>N35</f>
       </c>
-      <c r="C35" s="13" t="str">
+      <c r="C35" s="12" t="str">
         <f>AB35</f>
       </c>
-      <c r="D35" s="13" t="str">
+      <c r="D35" s="12" t="str">
         <f>AD35</f>
       </c>
-      <c r="E35" s="13" t="str">
+      <c r="E35" s="12" t="str">
         <f>AE35</f>
       </c>
-      <c r="F35" s="13" t="str">
+      <c r="F35" s="12" t="str">
         <f>AF35</f>
       </c>
       <c r="G35" s="3" t="str">
@@ -6208,58 +6208,58 @@
       <c r="N35" t="s">
         <v>43</v>
       </c>
-      <c r="O35" s="13" t="n">
+      <c r="O35" s="12" t="n">
         <v>147153612569.179</v>
       </c>
-      <c r="P35" s="13" t="n">
+      <c r="P35" s="12" t="n">
         <v>164420210501.657</v>
       </c>
-      <c r="Q35" s="13" t="n">
+      <c r="Q35" s="12" t="n">
         <v>153095551077.416</v>
       </c>
-      <c r="R35" s="13" t="n">
+      <c r="R35" s="12" t="n">
         <v>99133961247.3784</v>
       </c>
-      <c r="S35" s="13" t="n">
+      <c r="S35" s="12" t="n">
         <v>69239926254.2744</v>
       </c>
-      <c r="T35" s="13" t="n">
+      <c r="T35" s="12" t="n">
         <v>42730646467.4167</v>
       </c>
-      <c r="U35" s="13" t="n">
+      <c r="U35" s="12" t="n">
         <v>23974436712.4759</v>
       </c>
-      <c r="V35" s="13" t="n">
+      <c r="V35" s="12" t="n">
         <v>20314232201.0919</v>
       </c>
-      <c r="W35" s="13" t="n">
+      <c r="W35" s="12" t="n">
         <v>15990151116.3622</v>
       </c>
-      <c r="X35" s="13" t="n">
+      <c r="X35" s="12" t="n">
         <v>13745352770.8921</v>
       </c>
-      <c r="Y35" s="13" t="n">
+      <c r="Y35" s="12" t="n">
         <v>15116598869.0337</v>
       </c>
-      <c r="Z35" s="13" t="n">
+      <c r="Z35" s="12" t="n">
         <v>13993013802.1368</v>
       </c>
-      <c r="AA35" s="13" t="n">
+      <c r="AA35" s="12" t="n">
         <v>12401734985.2125</v>
       </c>
-      <c r="AB35" s="13" t="n">
+      <c r="AB35" s="12" t="n">
         <v>14587012514.7497</v>
       </c>
-      <c r="AC35" s="13" t="n">
+      <c r="AC35" s="12" t="n">
         <v>13454323199.1341</v>
       </c>
-      <c r="AD35" s="13" t="n">
+      <c r="AD35" s="12" t="n">
         <v>11669529367.0915</v>
       </c>
-      <c r="AE35" s="13" t="n">
+      <c r="AE35" s="12" t="n">
         <v>25833604840.0789</v>
       </c>
-      <c r="AF35" s="13"/>
+      <c r="AF35" s="12"/>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -6268,16 +6268,16 @@
       <c r="B36" t="str">
         <f>N36</f>
       </c>
-      <c r="C36" s="13" t="str">
+      <c r="C36" s="12" t="str">
         <f>AB36</f>
       </c>
-      <c r="D36" s="13" t="str">
+      <c r="D36" s="12" t="str">
         <f>AD36</f>
       </c>
-      <c r="E36" s="13" t="str">
+      <c r="E36" s="12" t="str">
         <f>AE36</f>
       </c>
-      <c r="F36" s="13" t="str">
+      <c r="F36" s="12" t="str">
         <f>AF36</f>
       </c>
       <c r="G36" s="3" t="str">
@@ -6301,58 +6301,58 @@
       <c r="N36" t="s">
         <v>40</v>
       </c>
-      <c r="O36" s="13" t="n">
+      <c r="O36" s="12" t="n">
         <v>10090339516.4006</v>
       </c>
-      <c r="P36" s="13" t="n">
+      <c r="P36" s="12" t="n">
         <v>9503327731.90822</v>
       </c>
-      <c r="Q36" s="13" t="n">
+      <c r="Q36" s="12" t="n">
         <v>8241815808.85705</v>
       </c>
-      <c r="R36" s="13" t="n">
+      <c r="R36" s="12" t="n">
         <v>6676031358.44169</v>
       </c>
-      <c r="S36" s="13" t="n">
+      <c r="S36" s="12" t="n">
         <v>5198954299.9283</v>
       </c>
-      <c r="T36" s="13" t="n">
+      <c r="T36" s="12" t="n">
         <v>5160319440.4918</v>
       </c>
-      <c r="U36" s="13" t="n">
+      <c r="U36" s="12" t="n">
         <v>4133016730.02998</v>
       </c>
-      <c r="V36" s="13" t="n">
+      <c r="V36" s="12" t="n">
         <v>4539302513.64279</v>
       </c>
-      <c r="W36" s="13" t="n">
+      <c r="W36" s="12" t="n">
         <v>4066287420.91547</v>
       </c>
-      <c r="X36" s="13" t="n">
+      <c r="X36" s="12" t="n">
         <v>5218826948.29399</v>
       </c>
-      <c r="Y36" s="13" t="n">
+      <c r="Y36" s="12" t="n">
         <v>6100980272.25558</v>
       </c>
-      <c r="Z36" s="13" t="n">
+      <c r="Z36" s="12" t="n">
         <v>7391316317.30767</v>
       </c>
-      <c r="AA36" s="13" t="n">
+      <c r="AA36" s="12" t="n">
         <v>7613188126.02797</v>
       </c>
-      <c r="AB36" s="13" t="n">
+      <c r="AB36" s="12" t="n">
         <v>7518488707.1741</v>
       </c>
-      <c r="AC36" s="13" t="n">
+      <c r="AC36" s="12" t="n">
         <v>7812651156.89991</v>
       </c>
-      <c r="AD36" s="13" t="n">
+      <c r="AD36" s="12" t="n">
         <v>7176418096.70276</v>
       </c>
-      <c r="AE36" s="13" t="n">
+      <c r="AE36" s="12" t="n">
         <v>8814402353.8</v>
       </c>
-      <c r="AF36" s="13"/>
+      <c r="AF36" s="12"/>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -6361,16 +6361,16 @@
       <c r="B37" t="str">
         <f>N37</f>
       </c>
-      <c r="C37" s="13" t="str">
+      <c r="C37" s="12" t="str">
         <f>AB37</f>
       </c>
-      <c r="D37" s="13" t="str">
+      <c r="D37" s="12" t="str">
         <f>AD37</f>
       </c>
-      <c r="E37" s="13" t="str">
+      <c r="E37" s="12" t="str">
         <f>AE37</f>
       </c>
-      <c r="F37" s="13" t="str">
+      <c r="F37" s="12" t="str">
         <f>AF37</f>
       </c>
       <c r="G37" s="3" t="str">
@@ -6394,58 +6394,58 @@
       <c r="N37" t="s">
         <v>43</v>
       </c>
-      <c r="O37" s="13" t="n">
+      <c r="O37" s="12" t="n">
         <v>18663362563.569</v>
       </c>
-      <c r="P37" s="13" t="n">
+      <c r="P37" s="12" t="n">
         <v>18134547145.9764</v>
       </c>
-      <c r="Q37" s="13" t="n">
+      <c r="Q37" s="12" t="n">
         <v>19161293332.7016</v>
       </c>
-      <c r="R37" s="13" t="n">
+      <c r="R37" s="12" t="n">
         <v>15038604386.5055</v>
       </c>
-      <c r="S37" s="13" t="n">
+      <c r="S37" s="12" t="n">
         <v>19915513238.1746</v>
       </c>
-      <c r="T37" s="13" t="n">
+      <c r="T37" s="12" t="n">
         <v>18507659233.2783</v>
       </c>
-      <c r="U37" s="13" t="n">
+      <c r="U37" s="12" t="n">
         <v>15829195326.1934</v>
       </c>
-      <c r="V37" s="13" t="n">
+      <c r="V37" s="12" t="n">
         <v>15809969342.2214</v>
       </c>
-      <c r="W37" s="13" t="n">
+      <c r="W37" s="12" t="n">
         <v>15463233983.3389</v>
       </c>
-      <c r="X37" s="13" t="n">
+      <c r="X37" s="12" t="n">
         <v>15601806330.4727</v>
       </c>
-      <c r="Y37" s="13" t="n">
+      <c r="Y37" s="12" t="n">
         <v>15910486263.1108</v>
       </c>
-      <c r="Z37" s="13" t="n">
+      <c r="Z37" s="12" t="n">
         <v>19461986189.005</v>
       </c>
-      <c r="AA37" s="13" t="n">
+      <c r="AA37" s="12" t="n">
         <v>19242699175.4681</v>
       </c>
-      <c r="AB37" s="13" t="n">
+      <c r="AB37" s="12" t="n">
         <v>18464304257.4098</v>
       </c>
-      <c r="AC37" s="13" t="n">
+      <c r="AC37" s="12" t="n">
         <v>15991853064.804</v>
       </c>
-      <c r="AD37" s="13" t="n">
+      <c r="AD37" s="12" t="n">
         <v>15668786800.3169</v>
       </c>
-      <c r="AE37" s="13" t="n">
+      <c r="AE37" s="12" t="n">
         <v>11139398950.3839</v>
       </c>
-      <c r="AF37" s="13"/>
+      <c r="AF37" s="12"/>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -6454,16 +6454,16 @@
       <c r="B38" t="str">
         <f>N38</f>
       </c>
-      <c r="C38" s="13" t="str">
+      <c r="C38" s="12" t="str">
         <f>AB38</f>
       </c>
-      <c r="D38" s="13" t="str">
+      <c r="D38" s="12" t="str">
         <f>AD38</f>
       </c>
-      <c r="E38" s="13" t="str">
+      <c r="E38" s="12" t="str">
         <f>AE38</f>
       </c>
-      <c r="F38" s="13" t="str">
+      <c r="F38" s="12" t="str">
         <f>AF38</f>
       </c>
       <c r="G38" s="3" t="str">
@@ -6487,58 +6487,58 @@
       <c r="N38" t="s">
         <v>40</v>
       </c>
-      <c r="O38" s="13" t="n">
+      <c r="O38" s="12" t="n">
         <v>114099492.256617</v>
       </c>
-      <c r="P38" s="13" t="n">
+      <c r="P38" s="12" t="n">
         <v>2236818721.86535</v>
       </c>
-      <c r="Q38" s="13" t="n">
+      <c r="Q38" s="12" t="n">
         <v>2062110370.67563</v>
       </c>
-      <c r="R38" s="13" t="n">
+      <c r="R38" s="12" t="n">
         <v>1773119678.15537</v>
       </c>
-      <c r="S38" s="13" t="n">
+      <c r="S38" s="12" t="n">
         <v>1230928832.95137</v>
       </c>
-      <c r="T38" s="13" t="n">
+      <c r="T38" s="12" t="n">
         <v>720441968.198254</v>
       </c>
-      <c r="U38" s="13" t="n">
+      <c r="U38" s="12" t="n">
         <v>469408377.364554</v>
       </c>
-      <c r="V38" s="13" t="n">
+      <c r="V38" s="12" t="n">
         <v>445360130.14083</v>
       </c>
-      <c r="W38" s="13" t="n">
+      <c r="W38" s="12" t="n">
         <v>436189402.912613</v>
       </c>
-      <c r="X38" s="13" t="n">
+      <c r="X38" s="12" t="n">
         <v>551097826.03881</v>
       </c>
-      <c r="Y38" s="13" t="n">
+      <c r="Y38" s="12" t="n">
         <v>285188965.305346</v>
       </c>
-      <c r="Z38" s="13" t="n">
+      <c r="Z38" s="12" t="n">
         <v>341167535.038676</v>
       </c>
-      <c r="AA38" s="13" t="n">
+      <c r="AA38" s="12" t="n">
         <v>497300047.432713</v>
       </c>
-      <c r="AB38" s="13" t="n">
+      <c r="AB38" s="12" t="n">
         <v>317654941.821024</v>
       </c>
-      <c r="AC38" s="13" t="n">
+      <c r="AC38" s="12" t="n">
         <v>261525572.646818</v>
       </c>
-      <c r="AD38" s="13" t="n">
+      <c r="AD38" s="12" t="n">
         <v>266340872.847015</v>
       </c>
-      <c r="AE38" s="13" t="n">
+      <c r="AE38" s="12" t="n">
         <v>1589998587.9479</v>
       </c>
-      <c r="AF38" s="13"/>
+      <c r="AF38" s="12"/>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -6547,16 +6547,16 @@
       <c r="B39" t="str">
         <f>N39</f>
       </c>
-      <c r="C39" s="13" t="str">
+      <c r="C39" s="12" t="str">
         <f>AB39</f>
       </c>
-      <c r="D39" s="13" t="str">
+      <c r="D39" s="12" t="str">
         <f>AD39</f>
       </c>
-      <c r="E39" s="13" t="str">
+      <c r="E39" s="12" t="str">
         <f>AE39</f>
       </c>
-      <c r="F39" s="13" t="str">
+      <c r="F39" s="12" t="str">
         <f>AF39</f>
       </c>
       <c r="G39" s="3" t="str">
@@ -6580,58 +6580,58 @@
       <c r="N39" t="s">
         <v>43</v>
       </c>
-      <c r="O39" s="13" t="n">
+      <c r="O39" s="12" t="n">
         <v>1137745054.57605</v>
       </c>
-      <c r="P39" s="13" t="n">
+      <c r="P39" s="12" t="n">
         <v>9159808555.11235</v>
       </c>
-      <c r="Q39" s="13" t="n">
+      <c r="Q39" s="12" t="n">
         <v>12650885003.0742</v>
       </c>
-      <c r="R39" s="13" t="n">
+      <c r="R39" s="12" t="n">
         <v>4191361281.1556</v>
       </c>
-      <c r="S39" s="13" t="n">
+      <c r="S39" s="12" t="n">
         <v>3222682785.20794</v>
       </c>
-      <c r="T39" s="13" t="n">
+      <c r="T39" s="12" t="n">
         <v>2470470853.99235</v>
       </c>
-      <c r="U39" s="13" t="n">
+      <c r="U39" s="12" t="n">
         <v>1437247059.90891</v>
       </c>
-      <c r="V39" s="13" t="n">
+      <c r="V39" s="12" t="n">
         <v>1226755644.67248</v>
       </c>
-      <c r="W39" s="13" t="n">
+      <c r="W39" s="12" t="n">
         <v>861884451.154199</v>
       </c>
-      <c r="X39" s="13" t="n">
+      <c r="X39" s="12" t="n">
         <v>841713894.541416</v>
       </c>
-      <c r="Y39" s="13" t="n">
+      <c r="Y39" s="12" t="n">
         <v>919674838.218218</v>
       </c>
-      <c r="Z39" s="13" t="n">
+      <c r="Z39" s="12" t="n">
         <v>864185373.553737</v>
       </c>
-      <c r="AA39" s="13" t="n">
+      <c r="AA39" s="12" t="n">
         <v>1041481260.86416</v>
       </c>
-      <c r="AB39" s="13" t="n">
+      <c r="AB39" s="12" t="n">
         <v>938317012.248685</v>
       </c>
-      <c r="AC39" s="13" t="n">
+      <c r="AC39" s="12" t="n">
         <v>465658214.260482</v>
       </c>
-      <c r="AD39" s="13" t="n">
+      <c r="AD39" s="12" t="n">
         <v>475006942.541081</v>
       </c>
-      <c r="AE39" s="13" t="n">
+      <c r="AE39" s="12" t="n">
         <v>1912728130.1274</v>
       </c>
-      <c r="AF39" s="13"/>
+      <c r="AF39" s="12"/>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -6640,16 +6640,16 @@
       <c r="B40" t="str">
         <f>N40</f>
       </c>
-      <c r="C40" s="13" t="str">
+      <c r="C40" s="12" t="str">
         <f>AB40</f>
       </c>
-      <c r="D40" s="13" t="str">
+      <c r="D40" s="12" t="str">
         <f>AD40</f>
       </c>
-      <c r="E40" s="13" t="str">
+      <c r="E40" s="12" t="str">
         <f>AE40</f>
       </c>
-      <c r="F40" s="13" t="str">
+      <c r="F40" s="12" t="str">
         <f>AF40</f>
       </c>
       <c r="G40" s="3" t="str">
@@ -6673,58 +6673,58 @@
       <c r="N40" t="s">
         <v>19</v>
       </c>
-      <c r="O40" s="13" t="str">
+      <c r="O40" s="12" t="str">
         <f>Sum(O23:O39)</f>
       </c>
-      <c r="P40" s="13" t="str">
+      <c r="P40" s="12" t="str">
         <f>Sum(P23:P39)</f>
       </c>
-      <c r="Q40" s="13" t="str">
+      <c r="Q40" s="12" t="str">
         <f>Sum(Q23:Q39)</f>
       </c>
-      <c r="R40" s="13" t="str">
+      <c r="R40" s="12" t="str">
         <f>Sum(R23:R39)</f>
       </c>
-      <c r="S40" s="13" t="str">
+      <c r="S40" s="12" t="str">
         <f>Sum(S23:S39)</f>
       </c>
-      <c r="T40" s="13" t="str">
+      <c r="T40" s="12" t="str">
         <f>Sum(T23:T39)</f>
       </c>
-      <c r="U40" s="13" t="str">
+      <c r="U40" s="12" t="str">
         <f>Sum(U23:U39)</f>
       </c>
-      <c r="V40" s="13" t="str">
+      <c r="V40" s="12" t="str">
         <f>Sum(V23:V39)</f>
       </c>
-      <c r="W40" s="13" t="str">
+      <c r="W40" s="12" t="str">
         <f>Sum(W23:W39)</f>
       </c>
-      <c r="X40" s="13" t="str">
+      <c r="X40" s="12" t="str">
         <f>Sum(X23:X39)</f>
       </c>
-      <c r="Y40" s="13" t="str">
+      <c r="Y40" s="12" t="str">
         <f>Sum(Y23:Y39)</f>
       </c>
-      <c r="Z40" s="13" t="str">
+      <c r="Z40" s="12" t="str">
         <f>Sum(Z23:Z39)</f>
       </c>
-      <c r="AA40" s="13" t="str">
+      <c r="AA40" s="12" t="str">
         <f>Sum(AA23:AA39)</f>
       </c>
-      <c r="AB40" s="13" t="str">
+      <c r="AB40" s="12" t="str">
         <f>Sum(AB23:AB39)</f>
       </c>
-      <c r="AC40" s="13" t="str">
+      <c r="AC40" s="12" t="str">
         <f>Sum(AC23:AC39)</f>
       </c>
-      <c r="AD40" s="13" t="str">
+      <c r="AD40" s="12" t="str">
         <f>Sum(AD23:AD39)</f>
       </c>
-      <c r="AE40" s="13" t="str">
+      <c r="AE40" s="12" t="str">
         <f>Sum(AE23:AE39)</f>
       </c>
-      <c r="AF40" s="13"/>
+      <c r="AF40" s="12"/>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -6733,16 +6733,16 @@
       <c r="B41" t="str">
         <f>N41</f>
       </c>
-      <c r="C41" s="11" t="str">
+      <c r="C41" s="10" t="str">
         <f>AB41</f>
       </c>
-      <c r="D41" s="11" t="str">
+      <c r="D41" s="10" t="str">
         <f>AD41</f>
       </c>
-      <c r="E41" s="11" t="str">
+      <c r="E41" s="10" t="str">
         <f>AE41</f>
       </c>
-      <c r="F41" s="11" t="str">
+      <c r="F41" s="10" t="str">
         <f>AF41</f>
       </c>
       <c r="G41" s="3" t="str">
@@ -6766,58 +6766,58 @@
       <c r="N41" t="s">
         <v>43</v>
       </c>
-      <c r="O41" s="11" t="n">
+      <c r="O41" s="10" t="n">
         <v>1137737421.78898</v>
       </c>
-      <c r="P41" s="11" t="n">
+      <c r="P41" s="10" t="n">
         <v>9133322337.84977</v>
       </c>
-      <c r="Q41" s="11" t="n">
+      <c r="Q41" s="10" t="n">
         <v>12624670004.5885</v>
       </c>
-      <c r="R41" s="11" t="n">
+      <c r="R41" s="10" t="n">
         <v>4187545994.40614</v>
       </c>
-      <c r="S41" s="11" t="n">
+      <c r="S41" s="10" t="n">
         <v>2991209357.47081</v>
       </c>
-      <c r="T41" s="11" t="n">
+      <c r="T41" s="10" t="n">
         <v>2457808530.50219</v>
       </c>
-      <c r="U41" s="11" t="n">
+      <c r="U41" s="10" t="n">
         <v>1414061387.99815</v>
       </c>
-      <c r="V41" s="11" t="n">
+      <c r="V41" s="10" t="n">
         <v>1226807041.1866</v>
       </c>
-      <c r="W41" s="11" t="n">
+      <c r="W41" s="10" t="n">
         <v>856977420.934944</v>
       </c>
-      <c r="X41" s="11" t="n">
+      <c r="X41" s="10" t="n">
         <v>818967808.174386</v>
       </c>
-      <c r="Y41" s="11" t="n">
+      <c r="Y41" s="10" t="n">
         <v>925465127.296421</v>
       </c>
-      <c r="Z41" s="11" t="n">
+      <c r="Z41" s="10" t="n">
         <v>874497880.297441</v>
       </c>
-      <c r="AA41" s="11" t="n">
+      <c r="AA41" s="10" t="n">
         <v>1055531664.94218</v>
       </c>
-      <c r="AB41" s="11" t="n">
+      <c r="AB41" s="10" t="n">
         <v>935277594.319671</v>
       </c>
-      <c r="AC41" s="11" t="n">
+      <c r="AC41" s="10" t="n">
         <v>435012565.845856</v>
       </c>
-      <c r="AD41" s="11" t="n">
+      <c r="AD41" s="10" t="n">
         <v>483317854.419061</v>
       </c>
-      <c r="AE41" s="11" t="n">
+      <c r="AE41" s="10" t="n">
         <v>1783365852.8155</v>
       </c>
-      <c r="AF41" s="11"/>
+      <c r="AF41" s="10"/>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -6826,16 +6826,16 @@
       <c r="B42" t="str">
         <f>N42</f>
       </c>
-      <c r="C42" s="11" t="str">
+      <c r="C42" s="10" t="str">
         <f>AB42</f>
       </c>
-      <c r="D42" s="11" t="str">
+      <c r="D42" s="10" t="str">
         <f>AD42</f>
       </c>
-      <c r="E42" s="11" t="str">
+      <c r="E42" s="10" t="str">
         <f>AE42</f>
       </c>
-      <c r="F42" s="11" t="str">
+      <c r="F42" s="10" t="str">
         <f>AF42</f>
       </c>
       <c r="G42" s="3" t="str">
@@ -6859,58 +6859,58 @@
       <c r="N42" t="s">
         <v>19</v>
       </c>
-      <c r="O42" s="11" t="str">
+      <c r="O42" s="10" t="str">
         <f>Sum(O24:O41)</f>
       </c>
-      <c r="P42" s="11" t="str">
+      <c r="P42" s="10" t="str">
         <f>Sum(P24:P41)</f>
       </c>
-      <c r="Q42" s="11" t="str">
+      <c r="Q42" s="10" t="str">
         <f>Sum(Q24:Q41)</f>
       </c>
-      <c r="R42" s="11" t="str">
+      <c r="R42" s="10" t="str">
         <f>Sum(R24:R41)</f>
       </c>
-      <c r="S42" s="11" t="str">
+      <c r="S42" s="10" t="str">
         <f>Sum(S24:S41)</f>
       </c>
-      <c r="T42" s="11" t="str">
+      <c r="T42" s="10" t="str">
         <f>Sum(T24:T41)</f>
       </c>
-      <c r="U42" s="11" t="str">
+      <c r="U42" s="10" t="str">
         <f>Sum(U24:U41)</f>
       </c>
-      <c r="V42" s="11" t="str">
+      <c r="V42" s="10" t="str">
         <f>Sum(V24:V41)</f>
       </c>
-      <c r="W42" s="11" t="str">
+      <c r="W42" s="10" t="str">
         <f>Sum(W24:W41)</f>
       </c>
-      <c r="X42" s="11" t="str">
+      <c r="X42" s="10" t="str">
         <f>Sum(X24:X41)</f>
       </c>
-      <c r="Y42" s="11" t="str">
+      <c r="Y42" s="10" t="str">
         <f>Sum(Y24:Y41)</f>
       </c>
-      <c r="Z42" s="11" t="str">
+      <c r="Z42" s="10" t="str">
         <f>Sum(Z24:Z41)</f>
       </c>
-      <c r="AA42" s="11" t="str">
+      <c r="AA42" s="10" t="str">
         <f>Sum(AA24:AA41)</f>
       </c>
-      <c r="AB42" s="11" t="str">
+      <c r="AB42" s="10" t="str">
         <f>Sum(AB24:AB41)</f>
       </c>
-      <c r="AC42" s="11" t="str">
+      <c r="AC42" s="10" t="str">
         <f>Sum(AC24:AC41)</f>
       </c>
-      <c r="AD42" s="11" t="str">
+      <c r="AD42" s="10" t="str">
         <f>Sum(AD24:AD41)</f>
       </c>
-      <c r="AE42" s="11" t="str">
+      <c r="AE42" s="10" t="str">
         <f>Sum(AE24:AE41)</f>
       </c>
-      <c r="AF42" s="11"/>
+      <c r="AF42" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7007,46 +7007,46 @@
       <c r="N2" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="17" t="n">
+      <c r="O2" s="18" t="n">
         <v>43938597462.2748</v>
       </c>
-      <c r="P2" s="17" t="n">
+      <c r="P2" s="18" t="n">
         <v>50106126197.8422</v>
       </c>
-      <c r="Q2" s="17" t="n">
+      <c r="Q2" s="18" t="n">
         <v>35397922747.0838</v>
       </c>
-      <c r="R2" s="17" t="n">
+      <c r="R2" s="18" t="n">
         <v>34099766461.0553</v>
       </c>
-      <c r="S2" s="17" t="n">
+      <c r="S2" s="18" t="n">
         <v>28836179137.1624</v>
       </c>
-      <c r="T2" s="17" t="n">
+      <c r="T2" s="18" t="n">
         <v>26943753973.8753</v>
       </c>
-      <c r="U2" s="17" t="n">
+      <c r="U2" s="18" t="n">
         <v>29402376196.4951</v>
       </c>
-      <c r="V2" s="17" t="n">
+      <c r="V2" s="18" t="n">
         <v>34846694645.4198</v>
       </c>
-      <c r="W2" s="17" t="n">
+      <c r="W2" s="18" t="n">
         <v>35234160267.8548</v>
       </c>
-      <c r="X2" s="17" t="n">
+      <c r="X2" s="18" t="n">
         <v>35875249149.5389</v>
       </c>
-      <c r="Y2" s="17" t="n">
+      <c r="Y2" s="18" t="n">
         <v>55773522318.0748</v>
       </c>
-      <c r="Z2" s="17" t="n">
+      <c r="Z2" s="18" t="n">
         <v>53661870373.0278</v>
       </c>
-      <c r="AA2" s="17" t="n">
+      <c r="AA2" s="18" t="n">
         <v>45884808636.1964</v>
       </c>
-      <c r="AB2" s="17" t="n">
+      <c r="AB2" s="18" t="n">
         <v>12416343380.5858</v>
       </c>
       <c r="AC2" s="15" t="n">
@@ -7069,46 +7069,46 @@
       <c r="N3" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="17" t="n">
+      <c r="O3" s="18" t="n">
         <v>25889342950.4028</v>
       </c>
-      <c r="P3" s="17" t="n">
+      <c r="P3" s="18" t="n">
         <v>22238033025.775</v>
       </c>
-      <c r="Q3" s="17" t="n">
+      <c r="Q3" s="18" t="n">
         <v>19706315508.1142</v>
       </c>
-      <c r="R3" s="17" t="n">
+      <c r="R3" s="18" t="n">
         <v>18086864585.7877</v>
       </c>
-      <c r="S3" s="17" t="n">
+      <c r="S3" s="18" t="n">
         <v>20086128681.8011</v>
       </c>
-      <c r="T3" s="17" t="n">
+      <c r="T3" s="18" t="n">
         <v>20035924070.5428</v>
       </c>
-      <c r="U3" s="17" t="n">
+      <c r="U3" s="18" t="n">
         <v>22814951610.1898</v>
       </c>
-      <c r="V3" s="17" t="n">
+      <c r="V3" s="18" t="n">
         <v>26654043472.5139</v>
       </c>
-      <c r="W3" s="17" t="n">
+      <c r="W3" s="18" t="n">
         <v>29628990466.9556</v>
       </c>
-      <c r="X3" s="17" t="n">
+      <c r="X3" s="18" t="n">
         <v>35623589217.7845</v>
       </c>
-      <c r="Y3" s="17" t="n">
+      <c r="Y3" s="18" t="n">
         <v>44190164383.593</v>
       </c>
-      <c r="Z3" s="17" t="n">
+      <c r="Z3" s="18" t="n">
         <v>52646236662.735</v>
       </c>
-      <c r="AA3" s="17" t="n">
+      <c r="AA3" s="18" t="n">
         <v>38084619243.8335</v>
       </c>
-      <c r="AB3" s="17" t="n">
+      <c r="AB3" s="18" t="n">
         <v>1801912872.7955</v>
       </c>
       <c r="AC3" s="15" t="n">
@@ -7131,46 +7131,46 @@
       <c r="N4" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="17" t="n">
+      <c r="O4" s="18" t="n">
         <v>15555619470.5361</v>
       </c>
-      <c r="P4" s="17" t="n">
+      <c r="P4" s="18" t="n">
         <v>15660202088.084</v>
       </c>
-      <c r="Q4" s="17" t="n">
+      <c r="Q4" s="18" t="n">
         <v>13062524552.0163</v>
       </c>
-      <c r="R4" s="17" t="n">
+      <c r="R4" s="18" t="n">
         <v>14562135384.7876</v>
       </c>
-      <c r="S4" s="17" t="n">
+      <c r="S4" s="18" t="n">
         <v>13555671864.5136</v>
       </c>
-      <c r="T4" s="17" t="n">
+      <c r="T4" s="18" t="n">
         <v>15335740858.4072</v>
       </c>
-      <c r="U4" s="17" t="n">
+      <c r="U4" s="18" t="n">
         <v>17417330811.567</v>
       </c>
-      <c r="V4" s="17" t="n">
+      <c r="V4" s="18" t="n">
         <v>13018391947.8351</v>
       </c>
-      <c r="W4" s="17" t="n">
+      <c r="W4" s="18" t="n">
         <v>16058506157.5635</v>
       </c>
-      <c r="X4" s="17" t="n">
+      <c r="X4" s="18" t="n">
         <v>16983812751.466</v>
       </c>
-      <c r="Y4" s="17" t="n">
+      <c r="Y4" s="18" t="n">
         <v>15392715907.7826</v>
       </c>
-      <c r="Z4" s="17" t="n">
+      <c r="Z4" s="18" t="n">
         <v>17357519164.9326</v>
       </c>
-      <c r="AA4" s="17" t="n">
+      <c r="AA4" s="18" t="n">
         <v>19305043010.3455</v>
       </c>
-      <c r="AB4" s="17" t="n">
+      <c r="AB4" s="18" t="n">
         <v>33248009994.7973</v>
       </c>
       <c r="AC4" s="15" t="n">
@@ -7193,46 +7193,46 @@
       <c r="N5" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="17" t="n">
+      <c r="O5" s="18" t="n">
         <v>29840305852.0759</v>
       </c>
-      <c r="P5" s="17" t="n">
+      <c r="P5" s="18" t="n">
         <v>29154766367.2699</v>
       </c>
-      <c r="Q5" s="17" t="n">
+      <c r="Q5" s="18" t="n">
         <v>23848922503.7213</v>
       </c>
-      <c r="R5" s="17" t="n">
+      <c r="R5" s="18" t="n">
         <v>23312871405.0338</v>
       </c>
-      <c r="S5" s="17" t="n">
+      <c r="S5" s="18" t="n">
         <v>20110137932.4912</v>
       </c>
-      <c r="T5" s="17" t="n">
+      <c r="T5" s="18" t="n">
         <v>20553258966.6612</v>
       </c>
-      <c r="U5" s="17" t="n">
+      <c r="U5" s="18" t="n">
         <v>19561367303.1077</v>
       </c>
-      <c r="V5" s="17" t="n">
+      <c r="V5" s="18" t="n">
         <v>20027502900.2048</v>
       </c>
-      <c r="W5" s="17" t="n">
+      <c r="W5" s="18" t="n">
         <v>21653589815.0077</v>
       </c>
-      <c r="X5" s="17" t="n">
+      <c r="X5" s="18" t="n">
         <v>24775351548.629</v>
       </c>
-      <c r="Y5" s="17" t="n">
+      <c r="Y5" s="18" t="n">
         <v>19105074974.2403</v>
       </c>
-      <c r="Z5" s="17" t="n">
+      <c r="Z5" s="18" t="n">
         <v>20907470893.2671</v>
       </c>
-      <c r="AA5" s="17" t="n">
+      <c r="AA5" s="18" t="n">
         <v>21344984676.5069</v>
       </c>
-      <c r="AB5" s="17" t="n">
+      <c r="AB5" s="18" t="n">
         <v>27338650511.5935</v>
       </c>
       <c r="AC5" s="15" t="n">
@@ -7255,46 +7255,46 @@
       <c r="N6" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="17" t="n">
+      <c r="O6" s="18" t="n">
         <v>6353771251.2537</v>
       </c>
-      <c r="P6" s="17" t="n">
+      <c r="P6" s="18" t="n">
         <v>6111328004.128</v>
       </c>
-      <c r="Q6" s="17" t="n">
+      <c r="Q6" s="18" t="n">
         <v>5455349072.084</v>
       </c>
-      <c r="R6" s="17" t="n">
+      <c r="R6" s="18" t="n">
         <v>6949444392.8565</v>
       </c>
-      <c r="S6" s="17" t="n">
+      <c r="S6" s="18" t="n">
         <v>7430603602.7701</v>
       </c>
-      <c r="T6" s="17" t="n">
+      <c r="T6" s="18" t="n">
         <v>7501739039.1847</v>
       </c>
-      <c r="U6" s="17" t="n">
+      <c r="U6" s="18" t="n">
         <v>6783627804.7729</v>
       </c>
-      <c r="V6" s="17" t="n">
+      <c r="V6" s="18" t="n">
         <v>12719225400.0599</v>
       </c>
-      <c r="W6" s="17" t="n">
+      <c r="W6" s="18" t="n">
         <v>12948873321.4011</v>
       </c>
-      <c r="X6" s="17" t="n">
+      <c r="X6" s="18" t="n">
         <v>11911643224.6253</v>
       </c>
-      <c r="Y6" s="17" t="n">
+      <c r="Y6" s="18" t="n">
         <v>11324297688.5867</v>
       </c>
-      <c r="Z6" s="17" t="n">
+      <c r="Z6" s="18" t="n">
         <v>12027087894.0659</v>
       </c>
-      <c r="AA6" s="17" t="n">
+      <c r="AA6" s="18" t="n">
         <v>12723722281.9879</v>
       </c>
-      <c r="AB6" s="17" t="n">
+      <c r="AB6" s="18" t="n">
         <v>13543587221.5167</v>
       </c>
       <c r="AC6" s="15" t="n">
@@ -7317,46 +7317,46 @@
       <c r="N7" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="17" t="n">
+      <c r="O7" s="18" t="n">
         <v>14373844897.8047</v>
       </c>
-      <c r="P7" s="17" t="n">
+      <c r="P7" s="18" t="n">
         <v>13206561065.8076</v>
       </c>
-      <c r="Q7" s="17" t="n">
+      <c r="Q7" s="18" t="n">
         <v>10802080997.6787</v>
       </c>
-      <c r="R7" s="17" t="n">
+      <c r="R7" s="18" t="n">
         <v>11076872960.9722</v>
       </c>
-      <c r="S7" s="17" t="n">
+      <c r="S7" s="18" t="n">
         <v>10900773054.4309</v>
       </c>
-      <c r="T7" s="17" t="n">
+      <c r="T7" s="18" t="n">
         <v>10123617101.8184</v>
       </c>
-      <c r="U7" s="17" t="n">
+      <c r="U7" s="18" t="n">
         <v>11241962025.9267</v>
       </c>
-      <c r="V7" s="17" t="n">
+      <c r="V7" s="18" t="n">
         <v>13823686787.1314</v>
       </c>
-      <c r="W7" s="17" t="n">
+      <c r="W7" s="18" t="n">
         <v>13826616163.1342</v>
       </c>
-      <c r="X7" s="17" t="n">
+      <c r="X7" s="18" t="n">
         <v>13209947102.2783</v>
       </c>
-      <c r="Y7" s="17" t="n">
+      <c r="Y7" s="18" t="n">
         <v>11141661764.5212</v>
       </c>
-      <c r="Z7" s="17" t="n">
+      <c r="Z7" s="18" t="n">
         <v>11793409233.3338</v>
       </c>
-      <c r="AA7" s="17" t="n">
+      <c r="AA7" s="18" t="n">
         <v>8499159403.4485</v>
       </c>
-      <c r="AB7" s="17" t="n">
+      <c r="AB7" s="18" t="n">
         <v>3251608936.6306</v>
       </c>
       <c r="AC7" s="15" t="n">
@@ -7379,46 +7379,46 @@
       <c r="N8" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="17" t="n">
+      <c r="O8" s="18" t="n">
         <v>631989460.7783</v>
       </c>
-      <c r="P8" s="17" t="n">
+      <c r="P8" s="18" t="n">
         <v>730784460.4217</v>
       </c>
-      <c r="Q8" s="17" t="n">
+      <c r="Q8" s="18" t="n">
         <v>583582108.4095</v>
       </c>
-      <c r="R8" s="17" t="n">
+      <c r="R8" s="18" t="n">
         <v>431813065.252</v>
       </c>
-      <c r="S8" s="17" t="n">
+      <c r="S8" s="18" t="n">
         <v>479057229.6744</v>
       </c>
-      <c r="T8" s="17" t="n">
+      <c r="T8" s="18" t="n">
         <v>754133470.2281</v>
       </c>
-      <c r="U8" s="17" t="n">
+      <c r="U8" s="18" t="n">
         <v>1212870362.8558</v>
       </c>
-      <c r="V8" s="17" t="n">
+      <c r="V8" s="18" t="n">
         <v>2174381343.2315</v>
       </c>
-      <c r="W8" s="17" t="n">
+      <c r="W8" s="18" t="n">
         <v>1789233579.0072</v>
       </c>
-      <c r="X8" s="17" t="n">
+      <c r="X8" s="18" t="n">
         <v>1655131561.9466</v>
       </c>
-      <c r="Y8" s="17" t="n">
+      <c r="Y8" s="18" t="n">
         <v>1788618124.0356</v>
       </c>
-      <c r="Z8" s="17" t="n">
+      <c r="Z8" s="18" t="n">
         <v>3460701067.8914</v>
       </c>
-      <c r="AA8" s="17" t="n">
+      <c r="AA8" s="18" t="n">
         <v>1942123630.1997</v>
       </c>
-      <c r="AB8" s="17" t="n">
+      <c r="AB8" s="18" t="n">
         <v>26534732732.502</v>
       </c>
       <c r="AC8" s="15" t="n">
@@ -7441,46 +7441,46 @@
       <c r="N9" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="17" t="n">
+      <c r="O9" s="18" t="n">
         <v>42891078006.4274</v>
       </c>
-      <c r="P9" s="17" t="n">
+      <c r="P9" s="18" t="n">
         <v>55916245614.7845</v>
       </c>
-      <c r="Q9" s="17" t="n">
+      <c r="Q9" s="18" t="n">
         <v>47353316662.8298</v>
       </c>
-      <c r="R9" s="17" t="n">
+      <c r="R9" s="18" t="n">
         <v>44606935375.0183</v>
       </c>
-      <c r="S9" s="17" t="n">
+      <c r="S9" s="18" t="n">
         <v>44673219755.351</v>
       </c>
-      <c r="T9" s="17" t="n">
+      <c r="T9" s="18" t="n">
         <v>51673073465.2889</v>
       </c>
-      <c r="U9" s="17" t="n">
+      <c r="U9" s="18" t="n">
         <v>59166462252.3838</v>
       </c>
-      <c r="V9" s="17" t="n">
+      <c r="V9" s="18" t="n">
         <v>77026872601.0672</v>
       </c>
-      <c r="W9" s="17" t="n">
+      <c r="W9" s="18" t="n">
         <v>81941621433.2727</v>
       </c>
-      <c r="X9" s="17" t="n">
+      <c r="X9" s="18" t="n">
         <v>88618976870.7865</v>
       </c>
-      <c r="Y9" s="17" t="n">
+      <c r="Y9" s="18" t="n">
         <v>85796546316.5326</v>
       </c>
-      <c r="Z9" s="17" t="n">
+      <c r="Z9" s="18" t="n">
         <v>87347814520.8399</v>
       </c>
-      <c r="AA9" s="17" t="n">
+      <c r="AA9" s="18" t="n">
         <v>59389185605.2414</v>
       </c>
-      <c r="AB9" s="17" t="n">
+      <c r="AB9" s="18" t="n">
         <v>26438251443.5411</v>
       </c>
       <c r="AC9" s="15" t="n">
@@ -7503,46 +7503,46 @@
       <c r="N10" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="17" t="n">
+      <c r="O10" s="18" t="n">
         <v>117265672000.507</v>
       </c>
-      <c r="P10" s="17" t="n">
+      <c r="P10" s="18" t="n">
         <v>114684159598.629</v>
       </c>
-      <c r="Q10" s="17" t="n">
+      <c r="Q10" s="18" t="n">
         <v>115092313841.753</v>
       </c>
-      <c r="R10" s="17" t="n">
+      <c r="R10" s="18" t="n">
         <v>96339079586.2505</v>
       </c>
-      <c r="S10" s="17" t="n">
+      <c r="S10" s="18" t="n">
         <v>96692994812.3194</v>
       </c>
-      <c r="T10" s="17" t="n">
+      <c r="T10" s="18" t="n">
         <v>115400111619.82</v>
       </c>
-      <c r="U10" s="17" t="n">
+      <c r="U10" s="18" t="n">
         <v>121585389860.149</v>
       </c>
-      <c r="V10" s="17" t="n">
+      <c r="V10" s="18" t="n">
         <v>121695096501.822</v>
       </c>
-      <c r="W10" s="17" t="n">
+      <c r="W10" s="18" t="n">
         <v>133999767682.578</v>
       </c>
-      <c r="X10" s="17" t="n">
+      <c r="X10" s="18" t="n">
         <v>155871330399.17</v>
       </c>
-      <c r="Y10" s="17" t="n">
+      <c r="Y10" s="18" t="n">
         <v>107353167337.779</v>
       </c>
-      <c r="Z10" s="17" t="n">
+      <c r="Z10" s="18" t="n">
         <v>119312855677.303</v>
       </c>
-      <c r="AA10" s="17" t="n">
+      <c r="AA10" s="18" t="n">
         <v>194731326724.396</v>
       </c>
-      <c r="AB10" s="17" t="n">
+      <c r="AB10" s="18" t="n">
         <v>6668117532.2948</v>
       </c>
       <c r="AC10" s="15" t="n">
@@ -7565,46 +7565,46 @@
       <c r="N11" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="17" t="n">
+      <c r="O11" s="18" t="n">
         <v>566868.625</v>
       </c>
-      <c r="P11" s="17" t="n">
+      <c r="P11" s="18" t="n">
         <v>2744757.5625</v>
       </c>
-      <c r="Q11" s="17" t="n">
+      <c r="Q11" s="18" t="n">
         <v>740760.72</v>
       </c>
-      <c r="R11" s="17" t="n">
+      <c r="R11" s="18" t="n">
         <v>1661330.44</v>
       </c>
-      <c r="S11" s="17" t="n">
+      <c r="S11" s="18" t="n">
         <v>688122.1</v>
       </c>
-      <c r="T11" s="17" t="n">
+      <c r="T11" s="18" t="n">
         <v>7466648.5097</v>
       </c>
-      <c r="U11" s="17" t="n">
+      <c r="U11" s="18" t="n">
         <v>15539948.7242</v>
       </c>
-      <c r="V11" s="17" t="n">
+      <c r="V11" s="18" t="n">
         <v>10103095.4844</v>
       </c>
-      <c r="W11" s="17" t="n">
+      <c r="W11" s="18" t="n">
         <v>50250051.3516</v>
       </c>
-      <c r="X11" s="17" t="n">
+      <c r="X11" s="18" t="n">
         <v>4606692.4265</v>
       </c>
-      <c r="Y11" s="17" t="n">
+      <c r="Y11" s="18" t="n">
         <v>18838219.6031</v>
       </c>
-      <c r="Z11" s="17" t="n">
+      <c r="Z11" s="18" t="n">
         <v>6404705</v>
       </c>
-      <c r="AA11" s="17" t="n">
+      <c r="AA11" s="18" t="n">
         <v>3009276.3125</v>
       </c>
-      <c r="AB11" s="17" t="n">
+      <c r="AB11" s="18" t="n">
         <v>2423410056.2773</v>
       </c>
       <c r="AC11" s="15" t="n">
@@ -7627,46 +7627,46 @@
       <c r="N12" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="17" t="n">
+      <c r="O12" s="18" t="n">
         <v>465110922.9134</v>
       </c>
-      <c r="P12" s="17" t="n">
+      <c r="P12" s="18" t="n">
         <v>326628729.6539</v>
       </c>
-      <c r="Q12" s="17" t="n">
+      <c r="Q12" s="18" t="n">
         <v>205092408.93</v>
       </c>
-      <c r="R12" s="17" t="n">
+      <c r="R12" s="18" t="n">
         <v>253019515.28</v>
       </c>
-      <c r="S12" s="17" t="n">
+      <c r="S12" s="18" t="n">
         <v>124594107.6519</v>
       </c>
-      <c r="T12" s="17" t="n">
+      <c r="T12" s="18" t="n">
         <v>187804273.1566</v>
       </c>
-      <c r="U12" s="17" t="n">
+      <c r="U12" s="18" t="n">
         <v>125983398.2189</v>
       </c>
-      <c r="V12" s="17" t="n">
+      <c r="V12" s="18" t="n">
         <v>141268312.7166</v>
       </c>
-      <c r="W12" s="17" t="n">
+      <c r="W12" s="18" t="n">
         <v>313186482.6124</v>
       </c>
-      <c r="X12" s="17" t="n">
+      <c r="X12" s="18" t="n">
         <v>328444010.3259</v>
       </c>
-      <c r="Y12" s="17" t="n">
+      <c r="Y12" s="18" t="n">
         <v>298326767.0599</v>
       </c>
-      <c r="Z12" s="17" t="n">
+      <c r="Z12" s="18" t="n">
         <v>340466689.9108</v>
       </c>
-      <c r="AA12" s="17" t="n">
+      <c r="AA12" s="18" t="n">
         <v>643485539.1533</v>
       </c>
-      <c r="AB12" s="17" t="n">
+      <c r="AB12" s="18" t="n">
         <v>4972475726.5488</v>
       </c>
       <c r="AC12" s="15" t="n">
@@ -7689,46 +7689,46 @@
       <c r="N13" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="17" t="n">
+      <c r="O13" s="18" t="n">
         <v>3129237146.0253</v>
       </c>
-      <c r="P13" s="17" t="n">
+      <c r="P13" s="18" t="n">
         <v>2341188503.9723</v>
       </c>
-      <c r="Q13" s="17" t="n">
+      <c r="Q13" s="18" t="n">
         <v>2173872599.4936</v>
       </c>
-      <c r="R13" s="17" t="n">
+      <c r="R13" s="18" t="n">
         <v>1301505898.753</v>
       </c>
-      <c r="S13" s="17" t="n">
+      <c r="S13" s="18" t="n">
         <v>1906728681.9117</v>
       </c>
-      <c r="T13" s="17" t="n">
+      <c r="T13" s="18" t="n">
         <v>1097699723.7379</v>
       </c>
-      <c r="U13" s="17" t="n">
+      <c r="U13" s="18" t="n">
         <v>1222055072.9644</v>
       </c>
-      <c r="V13" s="17" t="n">
+      <c r="V13" s="18" t="n">
         <v>1459271935.9586</v>
       </c>
-      <c r="W13" s="17" t="n">
+      <c r="W13" s="18" t="n">
         <v>1679311982.6552</v>
       </c>
-      <c r="X13" s="17" t="n">
+      <c r="X13" s="18" t="n">
         <v>1669119486.985</v>
       </c>
-      <c r="Y13" s="17" t="n">
+      <c r="Y13" s="18" t="n">
         <v>1590213362.9423</v>
       </c>
-      <c r="Z13" s="17" t="n">
+      <c r="Z13" s="18" t="n">
         <v>2027550576.5423</v>
       </c>
-      <c r="AA13" s="17" t="n">
+      <c r="AA13" s="18" t="n">
         <v>4477169390.5106</v>
       </c>
-      <c r="AB13" s="17" t="n">
+      <c r="AB13" s="18" t="n">
         <v>9756460100.1788</v>
       </c>
       <c r="AC13" s="15" t="n">
@@ -7751,46 +7751,46 @@
       <c r="N14" t="s">
         <v>43</v>
       </c>
-      <c r="O14" s="17" t="n">
+      <c r="O14" s="18" t="n">
         <v>51888821575.225</v>
       </c>
-      <c r="P14" s="17" t="n">
+      <c r="P14" s="18" t="n">
         <v>32603689771.8533</v>
       </c>
-      <c r="Q14" s="17" t="n">
+      <c r="Q14" s="18" t="n">
         <v>18624525552.7286</v>
       </c>
-      <c r="R14" s="17" t="n">
+      <c r="R14" s="18" t="n">
         <v>16068995341.1965</v>
       </c>
-      <c r="S14" s="17" t="n">
+      <c r="S14" s="18" t="n">
         <v>12779545694.5867</v>
       </c>
-      <c r="T14" s="17" t="n">
+      <c r="T14" s="18" t="n">
         <v>11073302129.1996</v>
       </c>
-      <c r="U14" s="17" t="n">
+      <c r="U14" s="18" t="n">
         <v>12383549493.0202</v>
       </c>
-      <c r="V14" s="17" t="n">
+      <c r="V14" s="18" t="n">
         <v>11717587215.061</v>
       </c>
-      <c r="W14" s="17" t="n">
+      <c r="W14" s="18" t="n">
         <v>10577083876.2989</v>
       </c>
-      <c r="X14" s="17" t="n">
+      <c r="X14" s="18" t="n">
         <v>12603360450.2236</v>
       </c>
-      <c r="Y14" s="17" t="n">
+      <c r="Y14" s="18" t="n">
         <v>12024794470.6126</v>
       </c>
-      <c r="Z14" s="17" t="n">
+      <c r="Z14" s="18" t="n">
         <v>11159041230.4726</v>
       </c>
-      <c r="AA14" s="17" t="n">
+      <c r="AA14" s="18" t="n">
         <v>25833604840.0789</v>
       </c>
-      <c r="AB14" s="17" t="n">
+      <c r="AB14" s="18" t="n">
         <v>1093354425.2363</v>
       </c>
       <c r="AC14" s="15" t="n">
@@ -7813,46 +7813,46 @@
       <c r="N15" t="s">
         <v>40</v>
       </c>
-      <c r="O15" s="17" t="n">
+      <c r="O15" s="18" t="n">
         <v>3896127951.6105</v>
       </c>
-      <c r="P15" s="17" t="n">
+      <c r="P15" s="18" t="n">
         <v>3937348672.9191</v>
       </c>
-      <c r="Q15" s="17" t="n">
+      <c r="Q15" s="18" t="n">
         <v>3210731356.1299</v>
       </c>
-      <c r="R15" s="17" t="n">
+      <c r="R15" s="18" t="n">
         <v>3590686087.5641</v>
       </c>
-      <c r="S15" s="17" t="n">
+      <c r="S15" s="18" t="n">
         <v>3249832070.0508</v>
       </c>
-      <c r="T15" s="17" t="n">
+      <c r="T15" s="18" t="n">
         <v>4204304430.8653</v>
       </c>
-      <c r="U15" s="17" t="n">
+      <c r="U15" s="18" t="n">
         <v>4997935832.7874</v>
       </c>
-      <c r="V15" s="17" t="n">
+      <c r="V15" s="18" t="n">
         <v>6189402426.5831</v>
       </c>
-      <c r="W15" s="17" t="n">
+      <c r="W15" s="18" t="n">
         <v>6493069677.0296</v>
       </c>
-      <c r="X15" s="17" t="n">
+      <c r="X15" s="18" t="n">
         <v>6496067863.2198</v>
       </c>
-      <c r="Y15" s="17" t="n">
+      <c r="Y15" s="18" t="n">
         <v>6982552971.4019</v>
       </c>
-      <c r="Z15" s="17" t="n">
+      <c r="Z15" s="18" t="n">
         <v>6862482873.9066</v>
       </c>
-      <c r="AA15" s="17" t="n">
+      <c r="AA15" s="18" t="n">
         <v>8814402353.8</v>
       </c>
-      <c r="AB15" s="17" t="n">
+      <c r="AB15" s="18" t="n">
         <v>1751420090.4863</v>
       </c>
       <c r="AC15" s="15" t="n">
@@ -7875,46 +7875,46 @@
       <c r="N16" t="s">
         <v>43</v>
       </c>
-      <c r="O16" s="17" t="n">
+      <c r="O16" s="18" t="n">
         <v>14924806667.1775</v>
       </c>
-      <c r="P16" s="17" t="n">
+      <c r="P16" s="18" t="n">
         <v>14121433442.5084</v>
       </c>
-      <c r="Q16" s="17" t="n">
+      <c r="Q16" s="18" t="n">
         <v>12296900084.3472</v>
       </c>
-      <c r="R16" s="17" t="n">
+      <c r="R16" s="18" t="n">
         <v>12506026375.4866</v>
       </c>
-      <c r="S16" s="17" t="n">
+      <c r="S16" s="18" t="n">
         <v>12358426373.7167</v>
       </c>
-      <c r="T16" s="17" t="n">
+      <c r="T16" s="18" t="n">
         <v>12568867321.0656</v>
       </c>
-      <c r="U16" s="17" t="n">
+      <c r="U16" s="18" t="n">
         <v>13033903711.0301</v>
       </c>
-      <c r="V16" s="17" t="n">
+      <c r="V16" s="18" t="n">
         <v>16297241164.2412</v>
       </c>
-      <c r="W16" s="17" t="n">
+      <c r="W16" s="18" t="n">
         <v>16411545919.0185</v>
       </c>
-      <c r="X16" s="17" t="n">
+      <c r="X16" s="18" t="n">
         <v>15953388795.9187</v>
       </c>
-      <c r="Y16" s="17" t="n">
+      <c r="Y16" s="18" t="n">
         <v>14292710488.8398</v>
       </c>
-      <c r="Z16" s="17" t="n">
+      <c r="Z16" s="18" t="n">
         <v>14983349579.5726</v>
       </c>
-      <c r="AA16" s="17" t="n">
+      <c r="AA16" s="18" t="n">
         <v>11139398950.3839</v>
       </c>
-      <c r="AB16" s="17" t="n">
+      <c r="AB16" s="18" t="n">
         <v>4583984512.0708</v>
       </c>
       <c r="AC16" s="15" t="n">
@@ -7937,46 +7937,46 @@
       <c r="N17" t="s">
         <v>40</v>
       </c>
-      <c r="O17" s="17" t="n">
+      <c r="O17" s="18" t="n">
         <v>922465548.9992</v>
       </c>
-      <c r="P17" s="17" t="n">
+      <c r="P17" s="18" t="n">
         <v>549700703.6313</v>
       </c>
-      <c r="Q17" s="17" t="n">
+      <c r="Q17" s="18" t="n">
         <v>364659592.3708</v>
       </c>
-      <c r="R17" s="17" t="n">
+      <c r="R17" s="18" t="n">
         <v>352289458.2254</v>
       </c>
-      <c r="S17" s="17" t="n">
+      <c r="S17" s="18" t="n">
         <v>348608488.1532</v>
       </c>
-      <c r="T17" s="17" t="n">
+      <c r="T17" s="18" t="n">
         <v>443966250.4258</v>
       </c>
-      <c r="U17" s="17" t="n">
+      <c r="U17" s="18" t="n">
         <v>233627398.4194</v>
       </c>
-      <c r="V17" s="17" t="n">
+      <c r="V17" s="18" t="n">
         <v>285689730.8393</v>
       </c>
-      <c r="W17" s="17" t="n">
+      <c r="W17" s="18" t="n">
         <v>424132939.4359</v>
       </c>
-      <c r="X17" s="17" t="n">
+      <c r="X17" s="18" t="n">
         <v>274457825.1727</v>
       </c>
-      <c r="Y17" s="17" t="n">
+      <c r="Y17" s="18" t="n">
         <v>233738346.652</v>
       </c>
-      <c r="Z17" s="17" t="n">
+      <c r="Z17" s="18" t="n">
         <v>254689686.9587</v>
       </c>
-      <c r="AA17" s="17" t="n">
+      <c r="AA17" s="18" t="n">
         <v>1589998587.9479</v>
       </c>
-      <c r="AB17" s="17" t="n">
+      <c r="AB17" s="18" t="n">
         <v>202940788822.312</v>
       </c>
       <c r="AC17" s="15" t="n">
@@ -7999,46 +7999,46 @@
       <c r="N18" t="s">
         <v>43</v>
       </c>
-      <c r="O18" s="17" t="n">
+      <c r="O18" s="18" t="n">
         <v>2415098066.7008</v>
       </c>
-      <c r="P18" s="17" t="n">
+      <c r="P18" s="18" t="n">
         <v>1884981201.3818</v>
       </c>
-      <c r="Q18" s="17" t="n">
+      <c r="Q18" s="18" t="n">
         <v>1116524442.8424</v>
       </c>
-      <c r="R18" s="17" t="n">
+      <c r="R18" s="18" t="n">
         <v>970390145.3863</v>
       </c>
-      <c r="S18" s="17" t="n">
+      <c r="S18" s="18" t="n">
         <v>688829745.6869</v>
       </c>
-      <c r="T18" s="17" t="n">
+      <c r="T18" s="18" t="n">
         <v>678087526.4504</v>
       </c>
-      <c r="U18" s="17" t="n">
+      <c r="U18" s="18" t="n">
         <v>753399556.0265</v>
       </c>
-      <c r="V18" s="17" t="n">
+      <c r="V18" s="18" t="n">
         <v>723658793.4366</v>
       </c>
-      <c r="W18" s="17" t="n">
+      <c r="W18" s="18" t="n">
         <v>888249480.0033</v>
       </c>
-      <c r="X18" s="17" t="n">
+      <c r="X18" s="18" t="n">
         <v>810717582.5063</v>
       </c>
-      <c r="Y18" s="17" t="n">
+      <c r="Y18" s="18" t="n">
         <v>416181790.5783</v>
       </c>
-      <c r="Z18" s="17" t="n">
+      <c r="Z18" s="18" t="n">
         <v>454227577.6369</v>
       </c>
-      <c r="AA18" s="17" t="n">
+      <c r="AA18" s="18" t="n">
         <v>1912728130.1274</v>
       </c>
-      <c r="AB18" s="17" t="n">
+      <c r="AB18" s="18" t="n">
         <v>6404705</v>
       </c>
       <c r="AC18" s="15" t="n">
@@ -8061,46 +8061,46 @@
       <c r="N19" t="s">
         <v>19</v>
       </c>
-      <c r="O19" s="17" t="str">
+      <c r="O19" s="18" t="str">
         <f>Sum(O2:O18)</f>
       </c>
-      <c r="P19" s="17" t="str">
+      <c r="P19" s="18" t="str">
         <f>Sum(P2:P18)</f>
       </c>
-      <c r="Q19" s="17" t="str">
+      <c r="Q19" s="18" t="str">
         <f>Sum(Q2:Q18)</f>
       </c>
-      <c r="R19" s="17" t="str">
+      <c r="R19" s="18" t="str">
         <f>Sum(R2:R18)</f>
       </c>
-      <c r="S19" s="17" t="str">
+      <c r="S19" s="18" t="str">
         <f>Sum(S2:S18)</f>
       </c>
-      <c r="T19" s="17" t="str">
+      <c r="T19" s="18" t="str">
         <f>Sum(T2:T18)</f>
       </c>
-      <c r="U19" s="17" t="str">
+      <c r="U19" s="18" t="str">
         <f>Sum(U2:U18)</f>
       </c>
-      <c r="V19" s="17" t="str">
+      <c r="V19" s="18" t="str">
         <f>Sum(V2:V18)</f>
       </c>
-      <c r="W19" s="17" t="str">
+      <c r="W19" s="18" t="str">
         <f>Sum(W2:W18)</f>
       </c>
-      <c r="X19" s="17" t="str">
+      <c r="X19" s="18" t="str">
         <f>Sum(X2:X18)</f>
       </c>
-      <c r="Y19" s="17" t="str">
+      <c r="Y19" s="18" t="str">
         <f>Sum(Y2:Y18)</f>
       </c>
-      <c r="Z19" s="17" t="str">
+      <c r="Z19" s="18" t="str">
         <f>Sum(Z2:Z18)</f>
       </c>
-      <c r="AA19" s="17" t="str">
+      <c r="AA19" s="18" t="str">
         <f>Sum(AA2:AA18)</f>
       </c>
-      <c r="AB19" s="17"/>
+      <c r="AB19" s="18"/>
       <c r="AC19" s="15" t="n">
         <v>608168.3125</v>
       </c>

--- a/Output/AcqTrends/CSIS_DoD_DIB_Trends.xlsx
+++ b/Output/AcqTrends/CSIS_DoD_DIB_Trends.xlsx
@@ -11,6 +11,7 @@
     <sheet name="NTDC dollars" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="8 NTDC" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="8A NTDC" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="11 NTDC" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -215,22 +216,22 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="17">
     <numFmt numFmtId="169" formatCode="0.00,&quot;K&quot;"/>
-    <numFmt numFmtId="279" formatCode="0.00,&quot;K&quot;"/>
+    <numFmt numFmtId="282" formatCode="0.00,&quot;K&quot;"/>
     <numFmt numFmtId="201" formatCode="0.00,&quot;K&quot;"/>
-    <numFmt numFmtId="280" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="283" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="206" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="276" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="247" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="277" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="274" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="244" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="276" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="247" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="213" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="242" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="273" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="275" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="281" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="284" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -269,23 +270,23 @@
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="279" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="282" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="280" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="283" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="276" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="247" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="277" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="274" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="244" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="276" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="247" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="213" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="242" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="273" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="275" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="281" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="284" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3374,64 +3375,64 @@
       <c r="L2" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="9" t="n">
+      <c r="O2" s="11" t="n">
         <v>32062481478.7404</v>
       </c>
-      <c r="P2" s="9" t="n">
+      <c r="P2" s="11" t="n">
         <v>33502648539.9927</v>
       </c>
-      <c r="Q2" s="9" t="n">
+      <c r="Q2" s="11" t="n">
         <v>34512520349.3714</v>
       </c>
-      <c r="R2" s="9" t="n">
+      <c r="R2" s="11" t="n">
         <v>32022857314.7994</v>
       </c>
-      <c r="S2" s="9" t="n">
+      <c r="S2" s="11" t="n">
         <v>30300787160.0451</v>
       </c>
-      <c r="T2" s="9" t="n">
+      <c r="T2" s="11" t="n">
         <v>29428722759.8101</v>
       </c>
-      <c r="U2" s="9" t="n">
+      <c r="U2" s="11" t="n">
         <v>23567998960.1735</v>
       </c>
-      <c r="V2" s="9" t="n">
+      <c r="V2" s="11" t="n">
         <v>25665670386.3993</v>
       </c>
-      <c r="W2" s="9" t="n">
+      <c r="W2" s="11" t="n">
         <v>23532569650.9686</v>
       </c>
-      <c r="X2" s="9" t="n">
+      <c r="X2" s="11" t="n">
         <v>25303450099.2467</v>
       </c>
-      <c r="Y2" s="9" t="n">
+      <c r="Y2" s="11" t="n">
         <v>26328462830.1631</v>
       </c>
-      <c r="Z2" s="9" t="n">
+      <c r="Z2" s="11" t="n">
         <v>31111718317.1093</v>
       </c>
-      <c r="AA2" s="9" t="n">
+      <c r="AA2" s="11" t="n">
         <v>31301311116.0465</v>
       </c>
-      <c r="AB2" s="9" t="n">
+      <c r="AB2" s="11" t="n">
         <v>32049209483.981</v>
       </c>
-      <c r="AC2" s="9" t="n">
+      <c r="AC2" s="11" t="n">
         <v>32709739587.2145</v>
       </c>
-      <c r="AD2" s="9" t="n">
+      <c r="AD2" s="11" t="n">
         <v>37104641630.7511</v>
       </c>
-      <c r="AE2" s="9" t="n">
+      <c r="AE2" s="11" t="n">
         <v>40964495755.7069</v>
       </c>
-      <c r="AF2" s="9"/>
+      <c r="AF2" s="11"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3443,64 +3444,64 @@
       <c r="L3" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="9" t="n">
+      <c r="O3" s="11" t="n">
         <v>64276778789.785</v>
       </c>
-      <c r="P3" s="9" t="n">
+      <c r="P3" s="11" t="n">
         <v>72755575500.1827</v>
       </c>
-      <c r="Q3" s="9" t="n">
+      <c r="Q3" s="11" t="n">
         <v>64677034371.2067</v>
       </c>
-      <c r="R3" s="9" t="n">
+      <c r="R3" s="11" t="n">
         <v>53879307908.9168</v>
       </c>
-      <c r="S3" s="9" t="n">
+      <c r="S3" s="11" t="n">
         <v>48096817335.8693</v>
       </c>
-      <c r="T3" s="9" t="n">
+      <c r="T3" s="11" t="n">
         <v>54303150309.7976</v>
       </c>
-      <c r="U3" s="9" t="n">
+      <c r="U3" s="11" t="n">
         <v>39063293717.5311</v>
       </c>
-      <c r="V3" s="9" t="n">
+      <c r="V3" s="11" t="n">
         <v>38119164769.1497</v>
       </c>
-      <c r="W3" s="9" t="n">
+      <c r="W3" s="11" t="n">
         <v>33991695353.2542</v>
       </c>
-      <c r="X3" s="9" t="n">
+      <c r="X3" s="11" t="n">
         <v>32084583927.436</v>
       </c>
-      <c r="Y3" s="9" t="n">
+      <c r="Y3" s="11" t="n">
         <v>35694396958.7202</v>
       </c>
-      <c r="Z3" s="9" t="n">
+      <c r="Z3" s="11" t="n">
         <v>37743226432.3817</v>
       </c>
-      <c r="AA3" s="9" t="n">
+      <c r="AA3" s="11" t="n">
         <v>42449471496.6964</v>
       </c>
-      <c r="AB3" s="9" t="n">
+      <c r="AB3" s="11" t="n">
         <v>42839349110.909</v>
       </c>
-      <c r="AC3" s="9" t="n">
+      <c r="AC3" s="11" t="n">
         <v>59882546801.0766</v>
       </c>
-      <c r="AD3" s="9" t="n">
+      <c r="AD3" s="11" t="n">
         <v>75235439279.4155</v>
       </c>
-      <c r="AE3" s="9" t="n">
+      <c r="AE3" s="11" t="n">
         <v>56016118359.9772</v>
       </c>
-      <c r="AF3" s="9"/>
+      <c r="AF3" s="11"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3512,64 +3513,64 @@
       <c r="L4" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="9" t="n">
+      <c r="O4" s="11" t="n">
         <v>5823883910.4641</v>
       </c>
-      <c r="P4" s="9" t="n">
+      <c r="P4" s="11" t="n">
         <v>6062527172.7157</v>
       </c>
-      <c r="Q4" s="9" t="n">
+      <c r="Q4" s="11" t="n">
         <v>7958542406.8054</v>
       </c>
-      <c r="R4" s="9" t="n">
+      <c r="R4" s="11" t="n">
         <v>11173540317.9748</v>
       </c>
-      <c r="S4" s="9" t="n">
+      <c r="S4" s="11" t="n">
         <v>10709272137.3971</v>
       </c>
-      <c r="T4" s="9" t="n">
+      <c r="T4" s="11" t="n">
         <v>10913255211.2322</v>
       </c>
-      <c r="U4" s="9" t="n">
+      <c r="U4" s="11" t="n">
         <v>10012514970.4474</v>
       </c>
-      <c r="V4" s="9" t="n">
+      <c r="V4" s="11" t="n">
         <v>11885624399.7085</v>
       </c>
-      <c r="W4" s="9" t="n">
+      <c r="W4" s="11" t="n">
         <v>11954899827.2819</v>
       </c>
-      <c r="X4" s="9" t="n">
+      <c r="X4" s="11" t="n">
         <v>11905991840.9567</v>
       </c>
-      <c r="Y4" s="9" t="n">
+      <c r="Y4" s="11" t="n">
         <v>10744235953.1555</v>
       </c>
-      <c r="Z4" s="9" t="n">
+      <c r="Z4" s="11" t="n">
         <v>13964474476.428</v>
       </c>
-      <c r="AA4" s="9" t="n">
+      <c r="AA4" s="11" t="n">
         <v>12887221540.14</v>
       </c>
-      <c r="AB4" s="9" t="n">
+      <c r="AB4" s="11" t="n">
         <v>14696802949.5136</v>
       </c>
-      <c r="AC4" s="9" t="n">
+      <c r="AC4" s="11" t="n">
         <v>19547069897.6294</v>
       </c>
-      <c r="AD4" s="9" t="n">
+      <c r="AD4" s="11" t="n">
         <v>14680201640.9544</v>
       </c>
-      <c r="AE4" s="9" t="n">
+      <c r="AE4" s="11" t="n">
         <v>14367712887.112</v>
       </c>
-      <c r="AF4" s="9"/>
+      <c r="AF4" s="11"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3581,64 +3582,64 @@
       <c r="L5" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="9" t="n">
+      <c r="O5" s="11" t="n">
         <v>231537450083.22</v>
       </c>
-      <c r="P5" s="9" t="n">
+      <c r="P5" s="11" t="n">
         <v>271472884650.076</v>
       </c>
-      <c r="Q5" s="9" t="n">
+      <c r="Q5" s="11" t="n">
         <v>266329081561.247</v>
       </c>
-      <c r="R5" s="9" t="n">
+      <c r="R5" s="11" t="n">
         <v>271587640047.603</v>
       </c>
-      <c r="S5" s="9" t="n">
+      <c r="S5" s="11" t="n">
         <v>285273627236.321</v>
       </c>
-      <c r="T5" s="9" t="n">
+      <c r="T5" s="11" t="n">
         <v>268865885090.226</v>
       </c>
-      <c r="U5" s="9" t="n">
+      <c r="U5" s="11" t="n">
         <v>236644531145.313</v>
       </c>
-      <c r="V5" s="9" t="n">
+      <c r="V5" s="11" t="n">
         <v>208834055035.34</v>
       </c>
-      <c r="W5" s="9" t="n">
+      <c r="W5" s="11" t="n">
         <v>204739219046.347</v>
       </c>
-      <c r="X5" s="9" t="n">
+      <c r="X5" s="11" t="n">
         <v>229288855612.899</v>
       </c>
-      <c r="Y5" s="9" t="n">
+      <c r="Y5" s="11" t="n">
         <v>249184020033.45</v>
       </c>
-      <c r="Z5" s="9" t="n">
+      <c r="Z5" s="11" t="n">
         <v>275958046094.482</v>
       </c>
-      <c r="AA5" s="9" t="n">
+      <c r="AA5" s="11" t="n">
         <v>297007214837.362</v>
       </c>
-      <c r="AB5" s="9" t="n">
+      <c r="AB5" s="11" t="n">
         <v>333079832988.6</v>
       </c>
-      <c r="AC5" s="9" t="n">
+      <c r="AC5" s="11" t="n">
         <v>275583768946.915</v>
       </c>
-      <c r="AD5" s="9" t="n">
+      <c r="AD5" s="11" t="n">
         <v>287582895856.276</v>
       </c>
-      <c r="AE5" s="9" t="n">
+      <c r="AE5" s="11" t="n">
         <v>344970443277.674</v>
       </c>
-      <c r="AF5" s="9"/>
+      <c r="AF5" s="11"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3650,64 +3651,64 @@
       <c r="L6" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="9" t="str">
+      <c r="O6" s="11" t="str">
         <f>Sum(O2:O5)</f>
       </c>
-      <c r="P6" s="9" t="str">
+      <c r="P6" s="11" t="str">
         <f>Sum(P2:P5)</f>
       </c>
-      <c r="Q6" s="9" t="str">
+      <c r="Q6" s="11" t="str">
         <f>Sum(Q2:Q5)</f>
       </c>
-      <c r="R6" s="9" t="str">
+      <c r="R6" s="11" t="str">
         <f>Sum(R2:R5)</f>
       </c>
-      <c r="S6" s="9" t="str">
+      <c r="S6" s="11" t="str">
         <f>Sum(S2:S5)</f>
       </c>
-      <c r="T6" s="9" t="str">
+      <c r="T6" s="11" t="str">
         <f>Sum(T2:T5)</f>
       </c>
-      <c r="U6" s="9" t="str">
+      <c r="U6" s="11" t="str">
         <f>Sum(U2:U5)</f>
       </c>
-      <c r="V6" s="9" t="str">
+      <c r="V6" s="11" t="str">
         <f>Sum(V2:V5)</f>
       </c>
-      <c r="W6" s="9" t="str">
+      <c r="W6" s="11" t="str">
         <f>Sum(W2:W5)</f>
       </c>
-      <c r="X6" s="9" t="str">
+      <c r="X6" s="11" t="str">
         <f>Sum(X2:X5)</f>
       </c>
-      <c r="Y6" s="9" t="str">
+      <c r="Y6" s="11" t="str">
         <f>Sum(Y2:Y5)</f>
       </c>
-      <c r="Z6" s="9" t="str">
+      <c r="Z6" s="11" t="str">
         <f>Sum(Z2:Z5)</f>
       </c>
-      <c r="AA6" s="9" t="str">
+      <c r="AA6" s="11" t="str">
         <f>Sum(AA2:AA5)</f>
       </c>
-      <c r="AB6" s="9" t="str">
+      <c r="AB6" s="11" t="str">
         <f>Sum(AB2:AB5)</f>
       </c>
-      <c r="AC6" s="9" t="str">
+      <c r="AC6" s="11" t="str">
         <f>Sum(AC2:AC5)</f>
       </c>
-      <c r="AD6" s="9" t="str">
+      <c r="AD6" s="11" t="str">
         <f>Sum(AD2:AD5)</f>
       </c>
-      <c r="AE6" s="9" t="str">
+      <c r="AE6" s="11" t="str">
         <f>Sum(AE2:AE5)</f>
       </c>
-      <c r="AF6" s="9"/>
+      <c r="AF6" s="11"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -3719,64 +3720,64 @@
       <c r="L7" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="12" t="n">
+      <c r="O7" s="9" t="n">
         <v>11739616747.5457</v>
       </c>
-      <c r="P7" s="12" t="n">
+      <c r="P7" s="9" t="n">
         <v>11254176927.7347</v>
       </c>
-      <c r="Q7" s="12" t="n">
+      <c r="Q7" s="9" t="n">
         <v>11538670944.4646</v>
       </c>
-      <c r="R7" s="12" t="n">
+      <c r="R7" s="9" t="n">
         <v>10859267828.0744</v>
       </c>
-      <c r="S7" s="12" t="n">
+      <c r="S7" s="9" t="n">
         <v>14373844897.8047</v>
       </c>
-      <c r="T7" s="12" t="n">
+      <c r="T7" s="9" t="n">
         <v>13206561065.8076</v>
       </c>
-      <c r="U7" s="12" t="n">
+      <c r="U7" s="9" t="n">
         <v>10802080997.6787</v>
       </c>
-      <c r="V7" s="12" t="n">
+      <c r="V7" s="9" t="n">
         <v>11076872960.9722</v>
       </c>
-      <c r="W7" s="12" t="n">
+      <c r="W7" s="9" t="n">
         <v>10900773054.4309</v>
       </c>
-      <c r="X7" s="12" t="n">
+      <c r="X7" s="9" t="n">
         <v>10123617101.8184</v>
       </c>
-      <c r="Y7" s="12" t="n">
+      <c r="Y7" s="9" t="n">
         <v>11241962025.9267</v>
       </c>
-      <c r="Z7" s="12" t="n">
+      <c r="Z7" s="9" t="n">
         <v>13823686787.1314</v>
       </c>
-      <c r="AA7" s="12" t="n">
+      <c r="AA7" s="9" t="n">
         <v>13826616163.1342</v>
       </c>
-      <c r="AB7" s="12" t="n">
+      <c r="AB7" s="9" t="n">
         <v>13209947102.2783</v>
       </c>
-      <c r="AC7" s="12" t="n">
+      <c r="AC7" s="9" t="n">
         <v>11141661764.5212</v>
       </c>
-      <c r="AD7" s="12" t="n">
+      <c r="AD7" s="9" t="n">
         <v>11793409233.3338</v>
       </c>
-      <c r="AE7" s="12" t="n">
+      <c r="AE7" s="9" t="n">
         <v>8499159403.4485</v>
       </c>
-      <c r="AF7" s="12"/>
+      <c r="AF7" s="9"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -3788,64 +3789,64 @@
       <c r="L8" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="12" t="n">
+      <c r="O8" s="9" t="n">
         <v>374232.125</v>
       </c>
-      <c r="P8" s="12" t="n">
+      <c r="P8" s="9" t="n">
         <v>10010929.3706</v>
       </c>
-      <c r="Q8" s="12" t="n">
+      <c r="Q8" s="9" t="n">
         <v>16756903.2031</v>
       </c>
-      <c r="R8" s="12" t="n">
+      <c r="R8" s="9" t="n">
         <v>347910181.3778</v>
       </c>
-      <c r="S8" s="12" t="n">
+      <c r="S8" s="9" t="n">
         <v>631989460.7783</v>
       </c>
-      <c r="T8" s="12" t="n">
+      <c r="T8" s="9" t="n">
         <v>730784460.4217</v>
       </c>
-      <c r="U8" s="12" t="n">
+      <c r="U8" s="9" t="n">
         <v>583582108.4095</v>
       </c>
-      <c r="V8" s="12" t="n">
+      <c r="V8" s="9" t="n">
         <v>431813065.252</v>
       </c>
-      <c r="W8" s="12" t="n">
+      <c r="W8" s="9" t="n">
         <v>479057229.6744</v>
       </c>
-      <c r="X8" s="12" t="n">
+      <c r="X8" s="9" t="n">
         <v>754133470.2281</v>
       </c>
-      <c r="Y8" s="12" t="n">
+      <c r="Y8" s="9" t="n">
         <v>1212870362.8558</v>
       </c>
-      <c r="Z8" s="12" t="n">
+      <c r="Z8" s="9" t="n">
         <v>2174381343.2315</v>
       </c>
-      <c r="AA8" s="12" t="n">
+      <c r="AA8" s="9" t="n">
         <v>1789233579.0072</v>
       </c>
-      <c r="AB8" s="12" t="n">
+      <c r="AB8" s="9" t="n">
         <v>1655131561.9466</v>
       </c>
-      <c r="AC8" s="12" t="n">
+      <c r="AC8" s="9" t="n">
         <v>1788618124.0356</v>
       </c>
-      <c r="AD8" s="12" t="n">
+      <c r="AD8" s="9" t="n">
         <v>3460701067.8914</v>
       </c>
-      <c r="AE8" s="12" t="n">
+      <c r="AE8" s="9" t="n">
         <v>1942123630.1997</v>
       </c>
-      <c r="AF8" s="12"/>
+      <c r="AF8" s="9"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -3857,64 +3858,64 @@
       <c r="L9" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="12" t="n">
+      <c r="O9" s="9" t="n">
         <v>127174783.5722</v>
       </c>
-      <c r="P9" s="12" t="n">
+      <c r="P9" s="9" t="n">
         <v>54479568.8939</v>
       </c>
-      <c r="Q9" s="12" t="n">
+      <c r="Q9" s="9" t="n">
         <v>391366344.5801</v>
       </c>
-      <c r="R9" s="12" t="n">
+      <c r="R9" s="9" t="n">
         <v>10479214146.3606</v>
       </c>
-      <c r="S9" s="12" t="n">
+      <c r="S9" s="9" t="n">
         <v>42891078006.4274</v>
       </c>
-      <c r="T9" s="12" t="n">
+      <c r="T9" s="9" t="n">
         <v>55916245614.7845</v>
       </c>
-      <c r="U9" s="12" t="n">
+      <c r="U9" s="9" t="n">
         <v>47353316662.8298</v>
       </c>
-      <c r="V9" s="12" t="n">
+      <c r="V9" s="9" t="n">
         <v>44606935375.0183</v>
       </c>
-      <c r="W9" s="12" t="n">
+      <c r="W9" s="9" t="n">
         <v>44673219755.351</v>
       </c>
-      <c r="X9" s="12" t="n">
+      <c r="X9" s="9" t="n">
         <v>51673073465.2889</v>
       </c>
-      <c r="Y9" s="12" t="n">
+      <c r="Y9" s="9" t="n">
         <v>59166462252.3838</v>
       </c>
-      <c r="Z9" s="12" t="n">
+      <c r="Z9" s="9" t="n">
         <v>77026872601.0672</v>
       </c>
-      <c r="AA9" s="12" t="n">
+      <c r="AA9" s="9" t="n">
         <v>81941621433.2727</v>
       </c>
-      <c r="AB9" s="12" t="n">
+      <c r="AB9" s="9" t="n">
         <v>88618976870.7865</v>
       </c>
-      <c r="AC9" s="12" t="n">
+      <c r="AC9" s="9" t="n">
         <v>85796546316.5326</v>
       </c>
-      <c r="AD9" s="12" t="n">
+      <c r="AD9" s="9" t="n">
         <v>87347814520.8399</v>
       </c>
-      <c r="AE9" s="12" t="n">
+      <c r="AE9" s="9" t="n">
         <v>59389185605.2414</v>
       </c>
-      <c r="AF9" s="12"/>
+      <c r="AF9" s="9"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -3926,64 +3927,64 @@
       <c r="L10" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="12" t="n">
+      <c r="O10" s="9" t="n">
         <v>78463417796.7355</v>
       </c>
-      <c r="P10" s="12" t="n">
+      <c r="P10" s="9" t="n">
         <v>88780237303.9053</v>
       </c>
-      <c r="Q10" s="12" t="n">
+      <c r="Q10" s="9" t="n">
         <v>105251059912.334</v>
       </c>
-      <c r="R10" s="12" t="n">
+      <c r="R10" s="9" t="n">
         <v>130120398442.109</v>
       </c>
-      <c r="S10" s="12" t="n">
+      <c r="S10" s="9" t="n">
         <v>117265672000.507</v>
       </c>
-      <c r="T10" s="12" t="n">
+      <c r="T10" s="9" t="n">
         <v>114684159598.629</v>
       </c>
-      <c r="U10" s="12" t="n">
+      <c r="U10" s="9" t="n">
         <v>115092313841.753</v>
       </c>
-      <c r="V10" s="12" t="n">
+      <c r="V10" s="9" t="n">
         <v>96339079586.2505</v>
       </c>
-      <c r="W10" s="12" t="n">
+      <c r="W10" s="9" t="n">
         <v>96692994812.3194</v>
       </c>
-      <c r="X10" s="12" t="n">
+      <c r="X10" s="9" t="n">
         <v>115400111619.82</v>
       </c>
-      <c r="Y10" s="12" t="n">
+      <c r="Y10" s="9" t="n">
         <v>121585389860.149</v>
       </c>
-      <c r="Z10" s="12" t="n">
+      <c r="Z10" s="9" t="n">
         <v>121695096501.822</v>
       </c>
-      <c r="AA10" s="12" t="n">
+      <c r="AA10" s="9" t="n">
         <v>133999767682.578</v>
       </c>
-      <c r="AB10" s="12" t="n">
+      <c r="AB10" s="9" t="n">
         <v>155871330399.17</v>
       </c>
-      <c r="AC10" s="12" t="n">
+      <c r="AC10" s="9" t="n">
         <v>107353167337.779</v>
       </c>
-      <c r="AD10" s="12" t="n">
+      <c r="AD10" s="9" t="n">
         <v>119312855677.303</v>
       </c>
-      <c r="AE10" s="12" t="n">
+      <c r="AE10" s="9" t="n">
         <v>194731326724.396</v>
       </c>
-      <c r="AF10" s="12"/>
+      <c r="AF10" s="9"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -3998,58 +3999,58 @@
       <c r="N11" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="12" t="n">
+      <c r="O11" s="9" t="n">
         <v>3480708</v>
       </c>
-      <c r="P11" s="12" t="n">
+      <c r="P11" s="9" t="n">
         <v>7309532</v>
       </c>
-      <c r="Q11" s="12" t="n">
+      <c r="Q11" s="9" t="n">
         <v>4777682.7812</v>
       </c>
-      <c r="R11" s="12" t="n">
+      <c r="R11" s="9" t="n">
         <v>-389371.9688</v>
       </c>
-      <c r="S11" s="12" t="n">
+      <c r="S11" s="9" t="n">
         <v>566868.625</v>
       </c>
-      <c r="T11" s="12" t="n">
+      <c r="T11" s="9" t="n">
         <v>2744757.5625</v>
       </c>
-      <c r="U11" s="12" t="n">
+      <c r="U11" s="9" t="n">
         <v>740760.72</v>
       </c>
-      <c r="V11" s="12" t="n">
+      <c r="V11" s="9" t="n">
         <v>1661330.44</v>
       </c>
-      <c r="W11" s="12" t="n">
+      <c r="W11" s="9" t="n">
         <v>688122.1</v>
       </c>
-      <c r="X11" s="12" t="n">
+      <c r="X11" s="9" t="n">
         <v>7466648.5097</v>
       </c>
-      <c r="Y11" s="12" t="n">
+      <c r="Y11" s="9" t="n">
         <v>15539948.7242</v>
       </c>
-      <c r="Z11" s="12" t="n">
+      <c r="Z11" s="9" t="n">
         <v>10103095.4844</v>
       </c>
-      <c r="AA11" s="12" t="n">
+      <c r="AA11" s="9" t="n">
         <v>50250051.3516</v>
       </c>
-      <c r="AB11" s="12" t="n">
+      <c r="AB11" s="9" t="n">
         <v>4606692.4265</v>
       </c>
-      <c r="AC11" s="12" t="n">
+      <c r="AC11" s="9" t="n">
         <v>18838219.6031</v>
       </c>
-      <c r="AD11" s="12" t="n">
+      <c r="AD11" s="9" t="n">
         <v>6404705</v>
       </c>
-      <c r="AE11" s="12" t="n">
+      <c r="AE11" s="9" t="n">
         <v>3009276.3125</v>
       </c>
-      <c r="AF11" s="12"/>
+      <c r="AF11" s="9"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -4064,58 +4065,58 @@
       <c r="N12" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="12" t="n">
+      <c r="O12" s="9" t="n">
         <v>91464160.72</v>
       </c>
-      <c r="P12" s="12" t="n">
+      <c r="P12" s="9" t="n">
         <v>271822116.5216</v>
       </c>
-      <c r="Q12" s="12" t="n">
+      <c r="Q12" s="9" t="n">
         <v>119963396.6512</v>
       </c>
-      <c r="R12" s="12" t="n">
+      <c r="R12" s="9" t="n">
         <v>2242431224.5039</v>
       </c>
-      <c r="S12" s="12" t="n">
+      <c r="S12" s="9" t="n">
         <v>465110922.9134</v>
       </c>
-      <c r="T12" s="12" t="n">
+      <c r="T12" s="9" t="n">
         <v>326628729.6539</v>
       </c>
-      <c r="U12" s="12" t="n">
+      <c r="U12" s="9" t="n">
         <v>205092408.93</v>
       </c>
-      <c r="V12" s="12" t="n">
+      <c r="V12" s="9" t="n">
         <v>253019515.28</v>
       </c>
-      <c r="W12" s="12" t="n">
+      <c r="W12" s="9" t="n">
         <v>124594107.6519</v>
       </c>
-      <c r="X12" s="12" t="n">
+      <c r="X12" s="9" t="n">
         <v>187804273.1566</v>
       </c>
-      <c r="Y12" s="12" t="n">
+      <c r="Y12" s="9" t="n">
         <v>125983398.2189</v>
       </c>
-      <c r="Z12" s="12" t="n">
+      <c r="Z12" s="9" t="n">
         <v>141268312.7166</v>
       </c>
-      <c r="AA12" s="12" t="n">
+      <c r="AA12" s="9" t="n">
         <v>313186482.6124</v>
       </c>
-      <c r="AB12" s="12" t="n">
+      <c r="AB12" s="9" t="n">
         <v>328444010.3259</v>
       </c>
-      <c r="AC12" s="12" t="n">
+      <c r="AC12" s="9" t="n">
         <v>298326767.0599</v>
       </c>
-      <c r="AD12" s="12" t="n">
+      <c r="AD12" s="9" t="n">
         <v>340466689.9108</v>
       </c>
-      <c r="AE12" s="12" t="n">
+      <c r="AE12" s="9" t="n">
         <v>643485539.1533</v>
       </c>
-      <c r="AF12" s="12"/>
+      <c r="AF12" s="9"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4157,73 +4158,73 @@
       <c r="N13" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="12" t="n">
+      <c r="O13" s="9" t="n">
         <v>11612991054.1444</v>
       </c>
-      <c r="P13" s="12" t="n">
+      <c r="P13" s="9" t="n">
         <v>10001892953.1492</v>
       </c>
-      <c r="Q13" s="12" t="n">
+      <c r="Q13" s="9" t="n">
         <v>6838390454.4904</v>
       </c>
-      <c r="R13" s="12" t="n">
+      <c r="R13" s="9" t="n">
         <v>4740528625.6843</v>
       </c>
-      <c r="S13" s="12" t="n">
+      <c r="S13" s="9" t="n">
         <v>3129237146.0253</v>
       </c>
-      <c r="T13" s="12" t="n">
+      <c r="T13" s="9" t="n">
         <v>2341188503.9723</v>
       </c>
-      <c r="U13" s="12" t="n">
+      <c r="U13" s="9" t="n">
         <v>2173872599.4936</v>
       </c>
-      <c r="V13" s="12" t="n">
+      <c r="V13" s="9" t="n">
         <v>1301505898.753</v>
       </c>
-      <c r="W13" s="12" t="n">
+      <c r="W13" s="9" t="n">
         <v>1906728681.9117</v>
       </c>
-      <c r="X13" s="12" t="n">
+      <c r="X13" s="9" t="n">
         <v>1097699723.7379</v>
       </c>
-      <c r="Y13" s="12" t="n">
+      <c r="Y13" s="9" t="n">
         <v>1222055072.9644</v>
       </c>
-      <c r="Z13" s="12" t="n">
+      <c r="Z13" s="9" t="n">
         <v>1459271935.9586</v>
       </c>
-      <c r="AA13" s="12" t="n">
+      <c r="AA13" s="9" t="n">
         <v>1679311982.6552</v>
       </c>
-      <c r="AB13" s="12" t="n">
+      <c r="AB13" s="9" t="n">
         <v>1669119486.985</v>
       </c>
-      <c r="AC13" s="12" t="n">
+      <c r="AC13" s="9" t="n">
         <v>1590213362.9423</v>
       </c>
-      <c r="AD13" s="12" t="n">
+      <c r="AD13" s="9" t="n">
         <v>2027550576.5423</v>
       </c>
-      <c r="AE13" s="12" t="n">
+      <c r="AE13" s="9" t="n">
         <v>4477169390.5106</v>
       </c>
-      <c r="AF13" s="12"/>
+      <c r="AF13" s="9"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
         <f>M14</f>
       </c>
-      <c r="B14" s="11" t="str">
+      <c r="B14" s="13" t="str">
         <f>N14</f>
       </c>
-      <c r="C14" s="11" t="str">
+      <c r="C14" s="13" t="str">
         <f>AB14</f>
       </c>
-      <c r="D14" s="11" t="str">
+      <c r="D14" s="13" t="str">
         <f>AC14</f>
       </c>
-      <c r="E14" s="11" t="str">
+      <c r="E14" s="13" t="str">
         <f>AD14</f>
       </c>
       <c r="F14" s="3" t="str">
@@ -4244,79 +4245,79 @@
       <c r="L14" t="s">
         <v>47</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O14" s="12" t="n">
+      <c r="O14" s="9" t="n">
         <v>103936958078.786</v>
       </c>
-      <c r="P14" s="12" t="n">
+      <c r="P14" s="9" t="n">
         <v>118543644893.155</v>
       </c>
-      <c r="Q14" s="12" t="n">
+      <c r="Q14" s="9" t="n">
         <v>111507540379.235</v>
       </c>
-      <c r="R14" s="12" t="n">
+      <c r="R14" s="9" t="n">
         <v>72829799688.0759</v>
       </c>
-      <c r="S14" s="12" t="n">
+      <c r="S14" s="9" t="n">
         <v>51888821575.225</v>
       </c>
-      <c r="T14" s="12" t="n">
+      <c r="T14" s="9" t="n">
         <v>32603689771.8533</v>
       </c>
-      <c r="U14" s="12" t="n">
+      <c r="U14" s="9" t="n">
         <v>18624525552.7286</v>
       </c>
-      <c r="V14" s="12" t="n">
+      <c r="V14" s="9" t="n">
         <v>16068995341.1965</v>
       </c>
-      <c r="W14" s="12" t="n">
+      <c r="W14" s="9" t="n">
         <v>12779545694.5867</v>
       </c>
-      <c r="X14" s="12" t="n">
+      <c r="X14" s="9" t="n">
         <v>11073302129.1996</v>
       </c>
-      <c r="Y14" s="12" t="n">
+      <c r="Y14" s="9" t="n">
         <v>12383549493.0202</v>
       </c>
-      <c r="Z14" s="12" t="n">
+      <c r="Z14" s="9" t="n">
         <v>11717587215.061</v>
       </c>
-      <c r="AA14" s="12" t="n">
+      <c r="AA14" s="9" t="n">
         <v>10577083876.2989</v>
       </c>
-      <c r="AB14" s="12" t="n">
+      <c r="AB14" s="9" t="n">
         <v>12603360450.2236</v>
       </c>
-      <c r="AC14" s="12" t="n">
+      <c r="AC14" s="9" t="n">
         <v>12024794470.6126</v>
       </c>
-      <c r="AD14" s="12" t="n">
+      <c r="AD14" s="9" t="n">
         <v>11159041230.4726</v>
       </c>
-      <c r="AE14" s="12" t="n">
+      <c r="AE14" s="9" t="n">
         <v>25833604840.0789</v>
       </c>
-      <c r="AF14" s="12"/>
+      <c r="AF14" s="9"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
         <f>M15</f>
       </c>
-      <c r="B15" s="11" t="str">
+      <c r="B15" s="13" t="str">
         <f>N15</f>
       </c>
-      <c r="C15" s="11" t="str">
+      <c r="C15" s="13" t="str">
         <f>AB15</f>
       </c>
-      <c r="D15" s="11" t="str">
+      <c r="D15" s="13" t="str">
         <f>AC15</f>
       </c>
-      <c r="E15" s="11" t="str">
+      <c r="E15" s="13" t="str">
         <f>AD15</f>
       </c>
       <c r="F15" s="3" t="str">
@@ -4337,79 +4338,79 @@
       <c r="L15" t="s">
         <v>49</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O15" s="12" t="n">
+      <c r="O15" s="9" t="n">
         <v>7126968730.2023</v>
       </c>
-      <c r="P15" s="12" t="n">
+      <c r="P15" s="9" t="n">
         <v>6851707004.3725</v>
       </c>
-      <c r="Q15" s="12" t="n">
+      <c r="Q15" s="9" t="n">
         <v>6002947849.4749</v>
       </c>
-      <c r="R15" s="12" t="n">
+      <c r="R15" s="9" t="n">
         <v>4904616141.9226</v>
       </c>
-      <c r="S15" s="12" t="n">
+      <c r="S15" s="9" t="n">
         <v>3896127951.6105</v>
       </c>
-      <c r="T15" s="12" t="n">
+      <c r="T15" s="9" t="n">
         <v>3937348672.9191</v>
       </c>
-      <c r="U15" s="12" t="n">
+      <c r="U15" s="9" t="n">
         <v>3210731356.1299</v>
       </c>
-      <c r="V15" s="12" t="n">
+      <c r="V15" s="9" t="n">
         <v>3590686087.5641</v>
       </c>
-      <c r="W15" s="12" t="n">
+      <c r="W15" s="9" t="n">
         <v>3249832070.0508</v>
       </c>
-      <c r="X15" s="12" t="n">
+      <c r="X15" s="9" t="n">
         <v>4204304430.8653</v>
       </c>
-      <c r="Y15" s="12" t="n">
+      <c r="Y15" s="9" t="n">
         <v>4997935832.7874</v>
       </c>
-      <c r="Z15" s="12" t="n">
+      <c r="Z15" s="9" t="n">
         <v>6189402426.5831</v>
       </c>
-      <c r="AA15" s="12" t="n">
+      <c r="AA15" s="9" t="n">
         <v>6493069677.0296</v>
       </c>
-      <c r="AB15" s="12" t="n">
+      <c r="AB15" s="9" t="n">
         <v>6496067863.2198</v>
       </c>
-      <c r="AC15" s="12" t="n">
+      <c r="AC15" s="9" t="n">
         <v>6982552971.4019</v>
       </c>
-      <c r="AD15" s="12" t="n">
+      <c r="AD15" s="9" t="n">
         <v>6862482873.9066</v>
       </c>
-      <c r="AE15" s="12" t="n">
+      <c r="AE15" s="9" t="n">
         <v>8814402353.8</v>
       </c>
-      <c r="AF15" s="12"/>
+      <c r="AF15" s="9"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>M16</f>
       </c>
-      <c r="B16" s="11" t="str">
+      <c r="B16" s="13" t="str">
         <f>N16</f>
       </c>
-      <c r="C16" s="11" t="str">
+      <c r="C16" s="13" t="str">
         <f>AB16</f>
       </c>
-      <c r="D16" s="11" t="str">
+      <c r="D16" s="13" t="str">
         <f>AC16</f>
       </c>
-      <c r="E16" s="11" t="str">
+      <c r="E16" s="13" t="str">
         <f>AD16</f>
       </c>
       <c r="F16" s="3" t="str">
@@ -4430,79 +4431,79 @@
       <c r="L16" t="s">
         <v>50</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O16" s="12" t="n">
+      <c r="O16" s="9" t="n">
         <v>13182232488.2912</v>
       </c>
-      <c r="P16" s="12" t="n">
+      <c r="P16" s="9" t="n">
         <v>13074641557.822</v>
       </c>
-      <c r="Q16" s="12" t="n">
+      <c r="Q16" s="9" t="n">
         <v>13956177530.8165</v>
       </c>
-      <c r="R16" s="12" t="n">
+      <c r="R16" s="9" t="n">
         <v>11048267730.6147</v>
       </c>
-      <c r="S16" s="12" t="n">
+      <c r="S16" s="9" t="n">
         <v>14924806667.1775</v>
       </c>
-      <c r="T16" s="12" t="n">
+      <c r="T16" s="9" t="n">
         <v>14121433442.5084</v>
       </c>
-      <c r="U16" s="12" t="n">
+      <c r="U16" s="9" t="n">
         <v>12296900084.3472</v>
       </c>
-      <c r="V16" s="12" t="n">
+      <c r="V16" s="9" t="n">
         <v>12506026375.4866</v>
       </c>
-      <c r="W16" s="12" t="n">
+      <c r="W16" s="9" t="n">
         <v>12358426373.7167</v>
       </c>
-      <c r="X16" s="12" t="n">
+      <c r="X16" s="9" t="n">
         <v>12568867321.0656</v>
       </c>
-      <c r="Y16" s="12" t="n">
+      <c r="Y16" s="9" t="n">
         <v>13033903711.0301</v>
       </c>
-      <c r="Z16" s="12" t="n">
+      <c r="Z16" s="9" t="n">
         <v>16297241164.2412</v>
       </c>
-      <c r="AA16" s="12" t="n">
+      <c r="AA16" s="9" t="n">
         <v>16411545919.0185</v>
       </c>
-      <c r="AB16" s="12" t="n">
+      <c r="AB16" s="9" t="n">
         <v>15953388795.9187</v>
       </c>
-      <c r="AC16" s="12" t="n">
+      <c r="AC16" s="9" t="n">
         <v>14292710488.8398</v>
       </c>
-      <c r="AD16" s="12" t="n">
+      <c r="AD16" s="9" t="n">
         <v>14983349579.5726</v>
       </c>
-      <c r="AE16" s="12" t="n">
+      <c r="AE16" s="9" t="n">
         <v>11139398950.3839</v>
       </c>
-      <c r="AF16" s="12"/>
+      <c r="AF16" s="9"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
         <f>M17</f>
       </c>
-      <c r="B17" s="11" t="str">
+      <c r="B17" s="13" t="str">
         <f>N17</f>
       </c>
-      <c r="C17" s="11" t="str">
+      <c r="C17" s="13" t="str">
         <f>AB17</f>
       </c>
-      <c r="D17" s="11" t="str">
+      <c r="D17" s="13" t="str">
         <f>AC17</f>
       </c>
-      <c r="E17" s="11" t="str">
+      <c r="E17" s="13" t="str">
         <f>AD17</f>
       </c>
       <c r="F17" s="3" t="str">
@@ -4523,79 +4524,79 @@
       <c r="L17" t="s">
         <v>56</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="N17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O17" s="12" t="n">
+      <c r="O17" s="9" t="n">
         <v>80590302.4495</v>
       </c>
-      <c r="P17" s="12" t="n">
+      <c r="P17" s="9" t="n">
         <v>1612701038.6749</v>
       </c>
-      <c r="Q17" s="12" t="n">
+      <c r="Q17" s="9" t="n">
         <v>1501943419.0369</v>
       </c>
-      <c r="R17" s="12" t="n">
+      <c r="R17" s="9" t="n">
         <v>1302640884.6994</v>
       </c>
-      <c r="S17" s="12" t="n">
+      <c r="S17" s="9" t="n">
         <v>922465548.9992</v>
       </c>
-      <c r="T17" s="12" t="n">
+      <c r="T17" s="9" t="n">
         <v>549700703.6313</v>
       </c>
-      <c r="U17" s="12" t="n">
+      <c r="U17" s="9" t="n">
         <v>364659592.3708</v>
       </c>
-      <c r="V17" s="12" t="n">
+      <c r="V17" s="9" t="n">
         <v>352289458.2254</v>
       </c>
-      <c r="W17" s="12" t="n">
+      <c r="W17" s="9" t="n">
         <v>348608488.1532</v>
       </c>
-      <c r="X17" s="12" t="n">
+      <c r="X17" s="9" t="n">
         <v>443966250.4258</v>
       </c>
-      <c r="Y17" s="12" t="n">
+      <c r="Y17" s="9" t="n">
         <v>233627398.4194</v>
       </c>
-      <c r="Z17" s="12" t="n">
+      <c r="Z17" s="9" t="n">
         <v>285689730.8393</v>
       </c>
-      <c r="AA17" s="12" t="n">
+      <c r="AA17" s="9" t="n">
         <v>424132939.4359</v>
       </c>
-      <c r="AB17" s="12" t="n">
+      <c r="AB17" s="9" t="n">
         <v>274457825.1727</v>
       </c>
-      <c r="AC17" s="12" t="n">
+      <c r="AC17" s="9" t="n">
         <v>233738346.652</v>
       </c>
-      <c r="AD17" s="12" t="n">
+      <c r="AD17" s="9" t="n">
         <v>254689686.9587</v>
       </c>
-      <c r="AE17" s="12" t="n">
+      <c r="AE17" s="9" t="n">
         <v>1589998587.9479</v>
       </c>
-      <c r="AF17" s="12"/>
+      <c r="AF17" s="9"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
         <f>M18</f>
       </c>
-      <c r="B18" s="11" t="str">
+      <c r="B18" s="13" t="str">
         <f>N18</f>
       </c>
-      <c r="C18" s="11" t="str">
+      <c r="C18" s="13" t="str">
         <f>AB18</f>
       </c>
-      <c r="D18" s="11" t="str">
+      <c r="D18" s="13" t="str">
         <f>AC18</f>
       </c>
-      <c r="E18" s="11" t="str">
+      <c r="E18" s="13" t="str">
         <f>AD18</f>
       </c>
       <c r="F18" s="3" t="str">
@@ -4616,79 +4617,79 @@
       <c r="L18" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="N18" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O18" s="12" t="n">
+      <c r="O18" s="9" t="n">
         <v>803607590.5797</v>
       </c>
-      <c r="P18" s="12" t="n">
+      <c r="P18" s="9" t="n">
         <v>6604036628.6697</v>
       </c>
-      <c r="Q18" s="12" t="n">
+      <c r="Q18" s="9" t="n">
         <v>9214304794.5268</v>
       </c>
-      <c r="R18" s="12" t="n">
+      <c r="R18" s="9" t="n">
         <v>3079227327.2041</v>
       </c>
-      <c r="S18" s="12" t="n">
+      <c r="S18" s="9" t="n">
         <v>2415098066.7008</v>
       </c>
-      <c r="T18" s="12" t="n">
+      <c r="T18" s="9" t="n">
         <v>1884981201.3818</v>
       </c>
-      <c r="U18" s="12" t="n">
+      <c r="U18" s="9" t="n">
         <v>1116524442.8424</v>
       </c>
-      <c r="V18" s="12" t="n">
+      <c r="V18" s="9" t="n">
         <v>970390145.3863</v>
       </c>
-      <c r="W18" s="12" t="n">
+      <c r="W18" s="9" t="n">
         <v>688829745.6869</v>
       </c>
-      <c r="X18" s="12" t="n">
+      <c r="X18" s="9" t="n">
         <v>678087526.4504</v>
       </c>
-      <c r="Y18" s="12" t="n">
+      <c r="Y18" s="9" t="n">
         <v>753399556.0265</v>
       </c>
-      <c r="Z18" s="12" t="n">
+      <c r="Z18" s="9" t="n">
         <v>723658793.4366</v>
       </c>
-      <c r="AA18" s="12" t="n">
+      <c r="AA18" s="9" t="n">
         <v>888249480.0033</v>
       </c>
-      <c r="AB18" s="12" t="n">
+      <c r="AB18" s="9" t="n">
         <v>810717582.5063</v>
       </c>
-      <c r="AC18" s="12" t="n">
+      <c r="AC18" s="9" t="n">
         <v>416181790.5783</v>
       </c>
-      <c r="AD18" s="12" t="n">
+      <c r="AD18" s="9" t="n">
         <v>454227577.6369</v>
       </c>
-      <c r="AE18" s="12" t="n">
+      <c r="AE18" s="9" t="n">
         <v>1912728130.1274</v>
       </c>
-      <c r="AF18" s="12"/>
+      <c r="AF18" s="9"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
         <f>M19</f>
       </c>
-      <c r="B19" s="11" t="str">
+      <c r="B19" s="13" t="str">
         <f>N19</f>
       </c>
-      <c r="C19" s="11" t="str">
+      <c r="C19" s="13" t="str">
         <f>AB19</f>
       </c>
-      <c r="D19" s="11" t="str">
+      <c r="D19" s="13" t="str">
         <f>AC19</f>
       </c>
-      <c r="E19" s="11" t="str">
+      <c r="E19" s="13" t="str">
         <f>AD19</f>
       </c>
       <c r="F19" s="3" t="str">
@@ -4709,79 +4710,79 @@
       <c r="L19" t="s">
         <v>52</v>
       </c>
-      <c r="M19" s="11" t="s">
+      <c r="M19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N19" s="11" t="s">
+      <c r="N19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="O19" s="12" t="str">
+      <c r="O19" s="9" t="str">
         <f>Sum(O2:O18)</f>
       </c>
-      <c r="P19" s="12" t="str">
+      <c r="P19" s="9" t="str">
         <f>Sum(P2:P18)</f>
       </c>
-      <c r="Q19" s="12" t="str">
+      <c r="Q19" s="9" t="str">
         <f>Sum(Q2:Q18)</f>
       </c>
-      <c r="R19" s="12" t="str">
+      <c r="R19" s="9" t="str">
         <f>Sum(R2:R18)</f>
       </c>
-      <c r="S19" s="12" t="str">
+      <c r="S19" s="9" t="str">
         <f>Sum(S2:S18)</f>
       </c>
-      <c r="T19" s="12" t="str">
+      <c r="T19" s="9" t="str">
         <f>Sum(T2:T18)</f>
       </c>
-      <c r="U19" s="12" t="str">
+      <c r="U19" s="9" t="str">
         <f>Sum(U2:U18)</f>
       </c>
-      <c r="V19" s="12" t="str">
+      <c r="V19" s="9" t="str">
         <f>Sum(V2:V18)</f>
       </c>
-      <c r="W19" s="12" t="str">
+      <c r="W19" s="9" t="str">
         <f>Sum(W2:W18)</f>
       </c>
-      <c r="X19" s="12" t="str">
+      <c r="X19" s="9" t="str">
         <f>Sum(X2:X18)</f>
       </c>
-      <c r="Y19" s="12" t="str">
+      <c r="Y19" s="9" t="str">
         <f>Sum(Y2:Y18)</f>
       </c>
-      <c r="Z19" s="12" t="str">
+      <c r="Z19" s="9" t="str">
         <f>Sum(Z2:Z18)</f>
       </c>
-      <c r="AA19" s="12" t="str">
+      <c r="AA19" s="9" t="str">
         <f>Sum(AA2:AA18)</f>
       </c>
-      <c r="AB19" s="12" t="str">
+      <c r="AB19" s="9" t="str">
         <f>Sum(AB2:AB18)</f>
       </c>
-      <c r="AC19" s="12" t="str">
+      <c r="AC19" s="9" t="str">
         <f>Sum(AC2:AC18)</f>
       </c>
-      <c r="AD19" s="12" t="str">
+      <c r="AD19" s="9" t="str">
         <f>Sum(AD2:AD18)</f>
       </c>
-      <c r="AE19" s="12" t="str">
+      <c r="AE19" s="9" t="str">
         <f>Sum(AE2:AE18)</f>
       </c>
-      <c r="AF19" s="12"/>
+      <c r="AF19" s="9"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
         <f>M20</f>
       </c>
-      <c r="B20" s="11" t="str">
+      <c r="B20" s="13" t="str">
         <f>N20</f>
       </c>
-      <c r="C20" s="11" t="str">
+      <c r="C20" s="13" t="str">
         <f>AB20</f>
       </c>
-      <c r="D20" s="11" t="str">
+      <c r="D20" s="13" t="str">
         <f>AC20</f>
       </c>
-      <c r="E20" s="11" t="str">
+      <c r="E20" s="13" t="str">
         <f>AD20</f>
       </c>
       <c r="F20" s="3" t="str">
@@ -4802,79 +4803,79 @@
       <c r="L20" t="s">
         <v>53</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="N20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="10" t="str">
+      <c r="O20" s="12" t="str">
         <f>Sum(O2:O19)</f>
       </c>
-      <c r="P20" s="10" t="str">
+      <c r="P20" s="12" t="str">
         <f>Sum(P2:P19)</f>
       </c>
-      <c r="Q20" s="10" t="str">
+      <c r="Q20" s="12" t="str">
         <f>Sum(Q2:Q19)</f>
       </c>
-      <c r="R20" s="10" t="str">
+      <c r="R20" s="12" t="str">
         <f>Sum(R2:R19)</f>
       </c>
-      <c r="S20" s="10" t="str">
+      <c r="S20" s="12" t="str">
         <f>Sum(S2:S19)</f>
       </c>
-      <c r="T20" s="10" t="str">
+      <c r="T20" s="12" t="str">
         <f>Sum(T2:T19)</f>
       </c>
-      <c r="U20" s="10" t="str">
+      <c r="U20" s="12" t="str">
         <f>Sum(U2:U19)</f>
       </c>
-      <c r="V20" s="10" t="str">
+      <c r="V20" s="12" t="str">
         <f>Sum(V2:V19)</f>
       </c>
-      <c r="W20" s="10" t="str">
+      <c r="W20" s="12" t="str">
         <f>Sum(W2:W19)</f>
       </c>
-      <c r="X20" s="10" t="str">
+      <c r="X20" s="12" t="str">
         <f>Sum(X2:X19)</f>
       </c>
-      <c r="Y20" s="10" t="str">
+      <c r="Y20" s="12" t="str">
         <f>Sum(Y2:Y19)</f>
       </c>
-      <c r="Z20" s="10" t="str">
+      <c r="Z20" s="12" t="str">
         <f>Sum(Z2:Z19)</f>
       </c>
-      <c r="AA20" s="10" t="str">
+      <c r="AA20" s="12" t="str">
         <f>Sum(AA2:AA19)</f>
       </c>
-      <c r="AB20" s="10" t="str">
+      <c r="AB20" s="12" t="str">
         <f>Sum(AB2:AB19)</f>
       </c>
-      <c r="AC20" s="10" t="str">
+      <c r="AC20" s="12" t="str">
         <f>Sum(AC2:AC19)</f>
       </c>
-      <c r="AD20" s="10" t="str">
+      <c r="AD20" s="12" t="str">
         <f>Sum(AD2:AD19)</f>
       </c>
-      <c r="AE20" s="10" t="str">
+      <c r="AE20" s="12" t="str">
         <f>Sum(AE2:AE19)</f>
       </c>
-      <c r="AF20" s="10"/>
+      <c r="AF20" s="12"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
         <f>M21</f>
       </c>
-      <c r="B21" s="11" t="str">
+      <c r="B21" s="13" t="str">
         <f>N21</f>
       </c>
-      <c r="C21" s="11" t="str">
+      <c r="C21" s="13" t="str">
         <f>AB21</f>
       </c>
-      <c r="D21" s="11" t="str">
+      <c r="D21" s="13" t="str">
         <f>AD21</f>
       </c>
-      <c r="E21" s="11" t="str">
+      <c r="E21" s="13" t="str">
         <f>AE21</f>
       </c>
       <c r="F21" s="3" t="str">
@@ -4898,61 +4899,61 @@
       <c r="L21" t="s">
         <v>54</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="N21" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O21" s="11" t="s">
+      <c r="O21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="P21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="Q21" s="11" t="s">
+      <c r="Q21" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="R21" s="11" t="s">
+      <c r="R21" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="S21" s="11" t="s">
+      <c r="S21" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="T21" s="11" t="s">
+      <c r="T21" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="U21" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="V21" s="11" t="s">
+      <c r="V21" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="W21" s="11" t="s">
+      <c r="W21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="X21" s="11" t="s">
+      <c r="X21" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="Y21" s="11" t="s">
+      <c r="Y21" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Z21" s="11" t="s">
+      <c r="Z21" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AA21" s="11" t="s">
+      <c r="AA21" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AB21" s="11" t="s">
+      <c r="AB21" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AC21" s="11" t="s">
+      <c r="AC21" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AD21" s="11" t="s">
+      <c r="AD21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AE21" s="11" t="s">
+      <c r="AE21" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4960,19 +4961,19 @@
       <c r="A22" t="str">
         <f>M22</f>
       </c>
-      <c r="B22" s="11" t="str">
+      <c r="B22" s="13" t="str">
         <f>N22</f>
       </c>
-      <c r="C22" s="13" t="str">
+      <c r="C22" s="10" t="str">
         <f>AB22</f>
       </c>
-      <c r="D22" s="13" t="str">
+      <c r="D22" s="10" t="str">
         <f>AD22</f>
       </c>
-      <c r="E22" s="13" t="str">
+      <c r="E22" s="10" t="str">
         <f>AE22</f>
       </c>
-      <c r="F22" s="13" t="str">
+      <c r="F22" s="10" t="str">
         <f>AF22</f>
       </c>
       <c r="G22" s="3" t="str">
@@ -4993,64 +4994,64 @@
       <c r="L22" t="s">
         <v>18</v>
       </c>
-      <c r="M22" s="11" t="s">
+      <c r="M22" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="N22" s="11" t="s">
+      <c r="N22" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O22" s="13" t="s">
+      <c r="O22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="P22" s="13" t="s">
+      <c r="P22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q22" s="13" t="s">
+      <c r="Q22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="R22" s="13" t="s">
+      <c r="R22" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="S22" s="13" t="s">
+      <c r="S22" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="T22" s="13" t="s">
+      <c r="T22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="U22" s="13" t="s">
+      <c r="U22" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="V22" s="13" t="s">
+      <c r="V22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="W22" s="13" t="s">
+      <c r="W22" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="X22" s="13" t="s">
+      <c r="X22" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="Y22" s="13" t="s">
+      <c r="Y22" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Z22" s="13" t="s">
+      <c r="Z22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AA22" s="13" t="s">
+      <c r="AA22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AB22" s="13" t="s">
+      <c r="AB22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AC22" s="13" t="s">
+      <c r="AC22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AD22" s="13" t="s">
+      <c r="AD22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AE22" s="13" t="s">
+      <c r="AE22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AF22" s="13"/>
+      <c r="AF22" s="10"/>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -5059,16 +5060,16 @@
       <c r="B23" t="str">
         <f>N23</f>
       </c>
-      <c r="C23" s="12" t="str">
+      <c r="C23" s="9" t="str">
         <f>AB23</f>
       </c>
-      <c r="D23" s="12" t="str">
+      <c r="D23" s="9" t="str">
         <f>AD23</f>
       </c>
-      <c r="E23" s="12" t="str">
+      <c r="E23" s="9" t="str">
         <f>AE23</f>
       </c>
-      <c r="F23" s="12" t="str">
+      <c r="F23" s="9" t="str">
         <f>AF23</f>
       </c>
       <c r="G23" s="3" t="str">
@@ -5092,58 +5093,58 @@
       <c r="N23" t="s">
         <v>40</v>
       </c>
-      <c r="O23" s="12" t="n">
+      <c r="O23" s="9" t="n">
         <v>54433198289.7936</v>
       </c>
-      <c r="P23" s="12" t="n">
+      <c r="P23" s="9" t="n">
         <v>63206462422.4098</v>
       </c>
-      <c r="Q23" s="12" t="n">
+      <c r="Q23" s="9" t="n">
         <v>63384087395.8274</v>
       </c>
-      <c r="R23" s="12" t="n">
+      <c r="R23" s="9" t="n">
         <v>56539727512.8033</v>
       </c>
-      <c r="S23" s="12" t="n">
+      <c r="S23" s="9" t="n">
         <v>58631226450.0673</v>
       </c>
-      <c r="T23" s="12" t="n">
+      <c r="T23" s="9" t="n">
         <v>65669474203.5038</v>
       </c>
-      <c r="U23" s="12" t="n">
+      <c r="U23" s="9" t="n">
         <v>45566006836.0098</v>
       </c>
-      <c r="V23" s="12" t="n">
+      <c r="V23" s="9" t="n">
         <v>43108517936.8348</v>
       </c>
-      <c r="W23" s="12" t="n">
+      <c r="W23" s="9" t="n">
         <v>36080692775.8811</v>
       </c>
-      <c r="X23" s="12" t="n">
+      <c r="X23" s="9" t="n">
         <v>33445434706.098</v>
       </c>
-      <c r="Y23" s="12" t="n">
+      <c r="Y23" s="9" t="n">
         <v>35891480629.9563</v>
       </c>
-      <c r="Z23" s="12" t="n">
+      <c r="Z23" s="9" t="n">
         <v>41613539560.8972</v>
       </c>
-      <c r="AA23" s="12" t="n">
+      <c r="AA23" s="9" t="n">
         <v>41312399823.8862</v>
       </c>
-      <c r="AB23" s="12" t="n">
+      <c r="AB23" s="9" t="n">
         <v>41521680696.2626</v>
       </c>
-      <c r="AC23" s="12" t="n">
+      <c r="AC23" s="9" t="n">
         <v>62403976804.3759</v>
       </c>
-      <c r="AD23" s="12" t="n">
+      <c r="AD23" s="9" t="n">
         <v>56116718208.8265</v>
       </c>
-      <c r="AE23" s="12" t="n">
+      <c r="AE23" s="9" t="n">
         <v>45884808636.1964</v>
       </c>
-      <c r="AF23" s="12"/>
+      <c r="AF23" s="9"/>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -5152,16 +5153,16 @@
       <c r="B24" t="str">
         <f>N24</f>
       </c>
-      <c r="C24" s="12" t="str">
+      <c r="C24" s="9" t="str">
         <f>AB24</f>
       </c>
-      <c r="D24" s="12" t="str">
+      <c r="D24" s="9" t="str">
         <f>AD24</f>
       </c>
-      <c r="E24" s="12" t="str">
+      <c r="E24" s="9" t="str">
         <f>AE24</f>
       </c>
-      <c r="F24" s="12" t="str">
+      <c r="F24" s="9" t="str">
         <f>AF24</f>
       </c>
       <c r="G24" s="3" t="str">
@@ -5185,58 +5186,58 @@
       <c r="N24" t="s">
         <v>43</v>
       </c>
-      <c r="O24" s="12" t="n">
+      <c r="O24" s="9" t="n">
         <v>38080315538.7227</v>
       </c>
-      <c r="P24" s="12" t="n">
+      <c r="P24" s="9" t="n">
         <v>43727065605.568</v>
       </c>
-      <c r="Q24" s="12" t="n">
+      <c r="Q24" s="9" t="n">
         <v>36679340336.2192</v>
       </c>
-      <c r="R24" s="12" t="n">
+      <c r="R24" s="9" t="n">
         <v>36801832575.8184</v>
       </c>
-      <c r="S24" s="12" t="n">
+      <c r="S24" s="9" t="n">
         <v>34546481154.1104</v>
       </c>
-      <c r="T24" s="12" t="n">
+      <c r="T24" s="9" t="n">
         <v>29145337046.3448</v>
       </c>
-      <c r="U24" s="12" t="n">
+      <c r="U24" s="9" t="n">
         <v>25366971773.2031</v>
       </c>
-      <c r="V24" s="12" t="n">
+      <c r="V24" s="9" t="n">
         <v>22865198426.1537</v>
       </c>
-      <c r="W24" s="12" t="n">
+      <c r="W24" s="9" t="n">
         <v>25132367037.1745</v>
       </c>
-      <c r="X24" s="12" t="n">
+      <c r="X24" s="9" t="n">
         <v>24870706247.0736</v>
       </c>
-      <c r="Y24" s="12" t="n">
+      <c r="Y24" s="9" t="n">
         <v>27850211435.9087</v>
       </c>
-      <c r="Z24" s="12" t="n">
+      <c r="Z24" s="9" t="n">
         <v>31829965619.0525</v>
       </c>
-      <c r="AA24" s="12" t="n">
+      <c r="AA24" s="9" t="n">
         <v>34740283044.7393</v>
       </c>
-      <c r="AB24" s="12" t="n">
+      <c r="AB24" s="9" t="n">
         <v>41230411824.8802</v>
       </c>
-      <c r="AC24" s="12" t="n">
+      <c r="AC24" s="9" t="n">
         <v>49443568893.6507</v>
       </c>
-      <c r="AD24" s="12" t="n">
+      <c r="AD24" s="9" t="n">
         <v>55054622714.8063</v>
       </c>
-      <c r="AE24" s="12" t="n">
+      <c r="AE24" s="9" t="n">
         <v>38084619243.8335</v>
       </c>
-      <c r="AF24" s="12"/>
+      <c r="AF24" s="9"/>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -5245,16 +5246,16 @@
       <c r="B25" t="str">
         <f>N25</f>
       </c>
-      <c r="C25" s="12" t="str">
+      <c r="C25" s="9" t="str">
         <f>AB25</f>
       </c>
-      <c r="D25" s="12" t="str">
+      <c r="D25" s="9" t="str">
         <f>AD25</f>
       </c>
-      <c r="E25" s="12" t="str">
+      <c r="E25" s="9" t="str">
         <f>AE25</f>
       </c>
-      <c r="F25" s="12" t="str">
+      <c r="F25" s="9" t="str">
         <f>AF25</f>
       </c>
       <c r="G25" s="3" t="str">
@@ -5278,58 +5279,58 @@
       <c r="N25" t="s">
         <v>40</v>
       </c>
-      <c r="O25" s="12" t="n">
+      <c r="O25" s="9" t="n">
         <v>23076937832.0004</v>
       </c>
-      <c r="P25" s="12" t="n">
+      <c r="P25" s="9" t="n">
         <v>25706141275.4959</v>
       </c>
-      <c r="Q25" s="12" t="n">
+      <c r="Q25" s="9" t="n">
         <v>23919672635.14</v>
       </c>
-      <c r="R25" s="12" t="n">
+      <c r="R25" s="9" t="n">
         <v>24136792283.2457</v>
       </c>
-      <c r="S25" s="12" t="n">
+      <c r="S25" s="9" t="n">
         <v>20757263554.6947</v>
       </c>
-      <c r="T25" s="12" t="n">
+      <c r="T25" s="9" t="n">
         <v>20524381249.9992</v>
       </c>
-      <c r="U25" s="12" t="n">
+      <c r="U25" s="9" t="n">
         <v>16814746087.9398</v>
       </c>
-      <c r="V25" s="12" t="n">
+      <c r="V25" s="9" t="n">
         <v>18409277821.6143</v>
       </c>
-      <c r="W25" s="12" t="n">
+      <c r="W25" s="9" t="n">
         <v>16961263473.4901</v>
       </c>
-      <c r="X25" s="12" t="n">
+      <c r="X25" s="9" t="n">
         <v>19036342153.6144</v>
       </c>
-      <c r="Y25" s="12" t="n">
+      <c r="Y25" s="9" t="n">
         <v>21261335725.7641</v>
       </c>
-      <c r="Z25" s="12" t="n">
+      <c r="Z25" s="9" t="n">
         <v>15546420509.9782</v>
       </c>
-      <c r="AA25" s="12" t="n">
+      <c r="AA25" s="9" t="n">
         <v>18828756579.1899</v>
       </c>
-      <c r="AB25" s="12" t="n">
+      <c r="AB25" s="9" t="n">
         <v>19656907388.4898</v>
       </c>
-      <c r="AC25" s="12" t="n">
+      <c r="AC25" s="9" t="n">
         <v>17222629063.7971</v>
       </c>
-      <c r="AD25" s="12" t="n">
+      <c r="AD25" s="9" t="n">
         <v>18151566559.4917</v>
       </c>
-      <c r="AE25" s="12" t="n">
+      <c r="AE25" s="9" t="n">
         <v>19305043010.3455</v>
       </c>
-      <c r="AF25" s="12"/>
+      <c r="AF25" s="9"/>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -5338,16 +5339,16 @@
       <c r="B26" t="str">
         <f>N26</f>
       </c>
-      <c r="C26" s="12" t="str">
+      <c r="C26" s="9" t="str">
         <f>AB26</f>
       </c>
-      <c r="D26" s="12" t="str">
+      <c r="D26" s="9" t="str">
         <f>AD26</f>
       </c>
-      <c r="E26" s="12" t="str">
+      <c r="E26" s="9" t="str">
         <f>AE26</f>
       </c>
-      <c r="F26" s="12" t="str">
+      <c r="F26" s="9" t="str">
         <f>AF26</f>
       </c>
       <c r="G26" s="3" t="str">
@@ -5371,58 +5372,58 @@
       <c r="N26" t="s">
         <v>43</v>
       </c>
-      <c r="O26" s="12" t="n">
+      <c r="O26" s="9" t="n">
         <v>22335569820.3483</v>
       </c>
-      <c r="P26" s="12" t="n">
+      <c r="P26" s="9" t="n">
         <v>29923037990.1248</v>
       </c>
-      <c r="Q26" s="12" t="n">
+      <c r="Q26" s="9" t="n">
         <v>11691491864.6459</v>
       </c>
-      <c r="R26" s="12" t="n">
+      <c r="R26" s="9" t="n">
         <v>31604718227.9688</v>
       </c>
-      <c r="S26" s="12" t="n">
+      <c r="S26" s="9" t="n">
         <v>39818606664.7779</v>
       </c>
-      <c r="T26" s="12" t="n">
+      <c r="T26" s="9" t="n">
         <v>38210460938.5481</v>
       </c>
-      <c r="U26" s="12" t="n">
+      <c r="U26" s="9" t="n">
         <v>30699546230.451</v>
       </c>
-      <c r="V26" s="12" t="n">
+      <c r="V26" s="9" t="n">
         <v>29471853898.7883</v>
       </c>
-      <c r="W26" s="12" t="n">
+      <c r="W26" s="9" t="n">
         <v>25162408132.2103</v>
       </c>
-      <c r="X26" s="12" t="n">
+      <c r="X26" s="9" t="n">
         <v>25512876989.3574</v>
       </c>
-      <c r="Y26" s="12" t="n">
+      <c r="Y26" s="9" t="n">
         <v>23878561071.4906</v>
       </c>
-      <c r="Z26" s="12" t="n">
+      <c r="Z26" s="9" t="n">
         <v>23916623735.0204</v>
       </c>
-      <c r="AA26" s="12" t="n">
+      <c r="AA26" s="9" t="n">
         <v>25389047255.8293</v>
       </c>
-      <c r="AB26" s="12" t="n">
+      <c r="AB26" s="9" t="n">
         <v>28674762141.7718</v>
       </c>
-      <c r="AC26" s="12" t="n">
+      <c r="AC26" s="9" t="n">
         <v>21376319909.2767</v>
       </c>
-      <c r="AD26" s="12" t="n">
+      <c r="AD26" s="9" t="n">
         <v>21863916490.813</v>
       </c>
-      <c r="AE26" s="12" t="n">
+      <c r="AE26" s="9" t="n">
         <v>21344984676.5069</v>
       </c>
-      <c r="AF26" s="12"/>
+      <c r="AF26" s="9"/>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -5431,16 +5432,16 @@
       <c r="B27" t="str">
         <f>N27</f>
       </c>
-      <c r="C27" s="12" t="str">
+      <c r="C27" s="9" t="str">
         <f>AB27</f>
       </c>
-      <c r="D27" s="12" t="str">
+      <c r="D27" s="9" t="str">
         <f>AD27</f>
       </c>
-      <c r="E27" s="12" t="str">
+      <c r="E27" s="9" t="str">
         <f>AE27</f>
       </c>
-      <c r="F27" s="12" t="str">
+      <c r="F27" s="9" t="str">
         <f>AF27</f>
       </c>
       <c r="G27" s="3" t="str">
@@ -5464,58 +5465,58 @@
       <c r="N27" t="s">
         <v>40</v>
       </c>
-      <c r="O27" s="12" t="n">
+      <c r="O27" s="9" t="n">
         <v>12934421221.5324</v>
       </c>
-      <c r="P27" s="12" t="n">
+      <c r="P27" s="9" t="n">
         <v>13207794716.1582</v>
       </c>
-      <c r="Q27" s="12" t="n">
+      <c r="Q27" s="9" t="n">
         <v>11415266832.834</v>
       </c>
-      <c r="R27" s="12" t="n">
+      <c r="R27" s="9" t="n">
         <v>9782202334.76978</v>
       </c>
-      <c r="S27" s="12" t="n">
+      <c r="S27" s="9" t="n">
         <v>8478409019.86079</v>
       </c>
-      <c r="T27" s="12" t="n">
+      <c r="T27" s="9" t="n">
         <v>8009553465.21114</v>
       </c>
-      <c r="U27" s="12" t="n">
+      <c r="U27" s="9" t="n">
         <v>7022402836.67149</v>
       </c>
-      <c r="V27" s="12" t="n">
+      <c r="V27" s="9" t="n">
         <v>8785404691.92467</v>
       </c>
-      <c r="W27" s="12" t="n">
+      <c r="W27" s="9" t="n">
         <v>9297394237.13699</v>
       </c>
-      <c r="X27" s="12" t="n">
+      <c r="X27" s="9" t="n">
         <v>9311951239.62718</v>
       </c>
-      <c r="Y27" s="12" t="n">
+      <c r="Y27" s="9" t="n">
         <v>8280774462.87702</v>
       </c>
-      <c r="Z27" s="12" t="n">
+      <c r="Z27" s="9" t="n">
         <v>15189159108.3498</v>
       </c>
-      <c r="AA27" s="12" t="n">
+      <c r="AA27" s="9" t="n">
         <v>15182681461.849</v>
       </c>
-      <c r="AB27" s="12" t="n">
+      <c r="AB27" s="9" t="n">
         <v>13786425412.1019</v>
       </c>
-      <c r="AC27" s="12" t="n">
+      <c r="AC27" s="9" t="n">
         <v>12670550126.8905</v>
       </c>
-      <c r="AD27" s="12" t="n">
+      <c r="AD27" s="9" t="n">
         <v>12577286209.6011</v>
       </c>
-      <c r="AE27" s="12" t="n">
+      <c r="AE27" s="9" t="n">
         <v>12723722281.9879</v>
       </c>
-      <c r="AF27" s="12"/>
+      <c r="AF27" s="9"/>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -5524,16 +5525,16 @@
       <c r="B28" t="str">
         <f>N28</f>
       </c>
-      <c r="C28" s="12" t="str">
+      <c r="C28" s="9" t="str">
         <f>AB28</f>
       </c>
-      <c r="D28" s="12" t="str">
+      <c r="D28" s="9" t="str">
         <f>AD28</f>
       </c>
-      <c r="E28" s="12" t="str">
+      <c r="E28" s="9" t="str">
         <f>AE28</f>
       </c>
-      <c r="F28" s="12" t="str">
+      <c r="F28" s="9" t="str">
         <f>AF28</f>
       </c>
       <c r="G28" s="3" t="str">
@@ -5557,58 +5558,58 @@
       <c r="N28" t="s">
         <v>43</v>
       </c>
-      <c r="O28" s="12" t="n">
+      <c r="O28" s="9" t="n">
         <v>16620911815.3092</v>
       </c>
-      <c r="P28" s="12" t="n">
+      <c r="P28" s="9" t="n">
         <v>15609560016.05</v>
       </c>
-      <c r="Q28" s="12" t="n">
+      <c r="Q28" s="9" t="n">
         <v>15842150054.9279</v>
       </c>
-      <c r="R28" s="12" t="n">
+      <c r="R28" s="9" t="n">
         <v>14781342810.9632</v>
       </c>
-      <c r="S28" s="12" t="n">
+      <c r="S28" s="9" t="n">
         <v>19180315345.407</v>
       </c>
-      <c r="T28" s="12" t="n">
+      <c r="T28" s="9" t="n">
         <v>17308620462.9684</v>
       </c>
-      <c r="U28" s="12" t="n">
+      <c r="U28" s="9" t="n">
         <v>13904988157.0779</v>
       </c>
-      <c r="V28" s="12" t="n">
+      <c r="V28" s="9" t="n">
         <v>14003250645.9381</v>
       </c>
-      <c r="W28" s="12" t="n">
+      <c r="W28" s="9" t="n">
         <v>13639374402.7499</v>
       </c>
-      <c r="X28" s="12" t="n">
+      <c r="X28" s="9" t="n">
         <v>12566503357.2048</v>
       </c>
-      <c r="Y28" s="12" t="n">
+      <c r="Y28" s="9" t="n">
         <v>13723063047.6849</v>
       </c>
-      <c r="Z28" s="12" t="n">
+      <c r="Z28" s="9" t="n">
         <v>16508094751.8032</v>
       </c>
-      <c r="AA28" s="12" t="n">
+      <c r="AA28" s="9" t="n">
         <v>16211843585.8947</v>
       </c>
-      <c r="AB28" s="12" t="n">
+      <c r="AB28" s="9" t="n">
         <v>15289070280.9898</v>
       </c>
-      <c r="AC28" s="12" t="n">
+      <c r="AC28" s="9" t="n">
         <v>12466202122.7599</v>
       </c>
-      <c r="AD28" s="12" t="n">
+      <c r="AD28" s="9" t="n">
         <v>12332917545.8821</v>
       </c>
-      <c r="AE28" s="12" t="n">
+      <c r="AE28" s="9" t="n">
         <v>8499159403.4485</v>
       </c>
-      <c r="AF28" s="12"/>
+      <c r="AF28" s="9"/>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -5617,16 +5618,16 @@
       <c r="B29" t="str">
         <f>N29</f>
       </c>
-      <c r="C29" s="12" t="str">
+      <c r="C29" s="9" t="str">
         <f>AB29</f>
       </c>
-      <c r="D29" s="12" t="str">
+      <c r="D29" s="9" t="str">
         <f>AD29</f>
       </c>
-      <c r="E29" s="12" t="str">
+      <c r="E29" s="9" t="str">
         <f>AE29</f>
       </c>
-      <c r="F29" s="12" t="str">
+      <c r="F29" s="9" t="str">
         <f>AF29</f>
       </c>
       <c r="G29" s="3" t="str">
@@ -5650,58 +5651,58 @@
       <c r="N29" t="s">
         <v>40</v>
       </c>
-      <c r="O29" s="12" t="n">
+      <c r="O29" s="9" t="n">
         <v>529836.644742355</v>
       </c>
-      <c r="P29" s="12" t="n">
+      <c r="P29" s="9" t="n">
         <v>13885173.8185951</v>
       </c>
-      <c r="Q29" s="12" t="n">
+      <c r="Q29" s="9" t="n">
         <v>23006581.6312027</v>
       </c>
-      <c r="R29" s="12" t="n">
+      <c r="R29" s="9" t="n">
         <v>473565965.936908</v>
       </c>
-      <c r="S29" s="12" t="n">
+      <c r="S29" s="9" t="n">
         <v>843320436.451411</v>
       </c>
-      <c r="T29" s="12" t="n">
+      <c r="T29" s="9" t="n">
         <v>957771731.993341</v>
       </c>
-      <c r="U29" s="12" t="n">
+      <c r="U29" s="9" t="n">
         <v>751216576.496738</v>
       </c>
-      <c r="V29" s="12" t="n">
+      <c r="V29" s="9" t="n">
         <v>545892925.396868</v>
       </c>
-      <c r="W29" s="12" t="n">
+      <c r="W29" s="9" t="n">
         <v>599410783.368009</v>
       </c>
-      <c r="X29" s="12" t="n">
+      <c r="X29" s="9" t="n">
         <v>936110156.092302</v>
       </c>
-      <c r="Y29" s="12" t="n">
+      <c r="Y29" s="9" t="n">
         <v>1480550852.22249</v>
       </c>
-      <c r="Z29" s="12" t="n">
+      <c r="Z29" s="9" t="n">
         <v>2596622289.94031</v>
       </c>
-      <c r="AA29" s="12" t="n">
+      <c r="AA29" s="9" t="n">
         <v>2097893987.88952</v>
       </c>
-      <c r="AB29" s="12" t="n">
+      <c r="AB29" s="9" t="n">
         <v>1915633921.84376</v>
       </c>
-      <c r="AC29" s="12" t="n">
+      <c r="AC29" s="9" t="n">
         <v>2001252194.32361</v>
       </c>
-      <c r="AD29" s="12" t="n">
+      <c r="AD29" s="9" t="n">
         <v>3619016357.08656</v>
       </c>
-      <c r="AE29" s="12" t="n">
+      <c r="AE29" s="9" t="n">
         <v>1942123630.1997</v>
       </c>
-      <c r="AF29" s="12"/>
+      <c r="AF29" s="9"/>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -5710,16 +5711,16 @@
       <c r="B30" t="str">
         <f>N30</f>
       </c>
-      <c r="C30" s="12" t="str">
+      <c r="C30" s="9" t="str">
         <f>AB30</f>
       </c>
-      <c r="D30" s="12" t="str">
+      <c r="D30" s="9" t="str">
         <f>AD30</f>
       </c>
-      <c r="E30" s="12" t="str">
+      <c r="E30" s="9" t="str">
         <f>AE30</f>
       </c>
-      <c r="F30" s="12" t="str">
+      <c r="F30" s="9" t="str">
         <f>AF30</f>
       </c>
       <c r="G30" s="3" t="str">
@@ -5743,58 +5744,58 @@
       <c r="N30" t="s">
         <v>43</v>
       </c>
-      <c r="O30" s="12" t="n">
+      <c r="O30" s="9" t="n">
         <v>180053651.523716</v>
       </c>
-      <c r="P30" s="12" t="n">
+      <c r="P30" s="9" t="n">
         <v>75563242.4972936</v>
       </c>
-      <c r="Q30" s="12" t="n">
+      <c r="Q30" s="9" t="n">
         <v>537330892.537575</v>
       </c>
-      <c r="R30" s="12" t="n">
+      <c r="R30" s="9" t="n">
         <v>14264023978.3383</v>
       </c>
-      <c r="S30" s="12" t="n">
+      <c r="S30" s="9" t="n">
         <v>57233426930.4224</v>
       </c>
-      <c r="T30" s="12" t="n">
+      <c r="T30" s="9" t="n">
         <v>73284261378.7015</v>
       </c>
-      <c r="U30" s="12" t="n">
+      <c r="U30" s="9" t="n">
         <v>60955598049.7189</v>
       </c>
-      <c r="V30" s="12" t="n">
+      <c r="V30" s="9" t="n">
         <v>56391555523.3307</v>
       </c>
-      <c r="W30" s="12" t="n">
+      <c r="W30" s="9" t="n">
         <v>55896473303.0458</v>
       </c>
-      <c r="X30" s="12" t="n">
+      <c r="X30" s="9" t="n">
         <v>64142079322.815</v>
       </c>
-      <c r="Y30" s="12" t="n">
+      <c r="Y30" s="9" t="n">
         <v>72224500485.3592</v>
       </c>
-      <c r="Z30" s="12" t="n">
+      <c r="Z30" s="9" t="n">
         <v>91984644249.6953</v>
       </c>
-      <c r="AA30" s="12" t="n">
+      <c r="AA30" s="9" t="n">
         <v>96077357914.4246</v>
       </c>
-      <c r="AB30" s="12" t="n">
+      <c r="AB30" s="9" t="n">
         <v>102566782070.852</v>
       </c>
-      <c r="AC30" s="12" t="n">
+      <c r="AC30" s="9" t="n">
         <v>95996190731.8403</v>
       </c>
-      <c r="AD30" s="12" t="n">
+      <c r="AD30" s="9" t="n">
         <v>91343679591.283</v>
       </c>
-      <c r="AE30" s="12" t="n">
+      <c r="AE30" s="9" t="n">
         <v>59389185605.2414</v>
       </c>
-      <c r="AF30" s="12"/>
+      <c r="AF30" s="9"/>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -5803,16 +5804,16 @@
       <c r="B31" t="str">
         <f>N31</f>
       </c>
-      <c r="C31" s="12" t="str">
+      <c r="C31" s="9" t="str">
         <f>AB31</f>
       </c>
-      <c r="D31" s="12" t="str">
+      <c r="D31" s="9" t="str">
         <f>AD31</f>
       </c>
-      <c r="E31" s="12" t="str">
+      <c r="E31" s="9" t="str">
         <f>AE31</f>
       </c>
-      <c r="F31" s="12" t="str">
+      <c r="F31" s="9" t="str">
         <f>AF31</f>
       </c>
       <c r="G31" s="3" t="str">
@@ -5836,58 +5837,58 @@
       <c r="N31" t="s">
         <v>43</v>
       </c>
-      <c r="O31" s="12" t="n">
+      <c r="O31" s="9" t="n">
         <v>111088255772.911</v>
       </c>
-      <c r="P31" s="12" t="n">
+      <c r="P31" s="9" t="n">
         <v>123138320228.401</v>
       </c>
-      <c r="Q31" s="12" t="n">
+      <c r="Q31" s="9" t="n">
         <v>144505644765.899</v>
       </c>
-      <c r="R31" s="12" t="n">
+      <c r="R31" s="9" t="n">
         <v>177116380820.767</v>
       </c>
-      <c r="S31" s="12" t="n">
+      <c r="S31" s="9" t="n">
         <v>156478143750.133</v>
       </c>
-      <c r="T31" s="12" t="n">
+      <c r="T31" s="9" t="n">
         <v>150305941245.104</v>
       </c>
-      <c r="U31" s="12" t="n">
+      <c r="U31" s="9" t="n">
         <v>148152681069.895</v>
       </c>
-      <c r="V31" s="12" t="n">
+      <c r="V31" s="9" t="n">
         <v>121790715050.942</v>
       </c>
-      <c r="W31" s="12" t="n">
+      <c r="W31" s="9" t="n">
         <v>120985177086.345</v>
       </c>
-      <c r="X31" s="12" t="n">
+      <c r="X31" s="9" t="n">
         <v>143246813417.291</v>
       </c>
-      <c r="Y31" s="12" t="n">
+      <c r="Y31" s="9" t="n">
         <v>148419285430.795</v>
       </c>
-      <c r="Z31" s="12" t="n">
+      <c r="Z31" s="9" t="n">
         <v>145326946046.844</v>
       </c>
-      <c r="AA31" s="12" t="n">
+      <c r="AA31" s="9" t="n">
         <v>157116046947.798</v>
       </c>
-      <c r="AB31" s="12" t="n">
+      <c r="AB31" s="9" t="n">
         <v>180404032416.85</v>
       </c>
-      <c r="AC31" s="12" t="n">
+      <c r="AC31" s="9" t="n">
         <v>120115500796.549</v>
       </c>
-      <c r="AD31" s="12" t="n">
+      <c r="AD31" s="9" t="n">
         <v>124771012530.695</v>
       </c>
-      <c r="AE31" s="12" t="n">
+      <c r="AE31" s="9" t="n">
         <v>194731326724.396</v>
       </c>
-      <c r="AF31" s="12"/>
+      <c r="AF31" s="9"/>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -5896,16 +5897,16 @@
       <c r="B32" t="str">
         <f>N32</f>
       </c>
-      <c r="C32" s="12" t="str">
+      <c r="C32" s="9" t="str">
         <f>AB32</f>
       </c>
-      <c r="D32" s="12" t="str">
+      <c r="D32" s="9" t="str">
         <f>AD32</f>
       </c>
-      <c r="E32" s="12" t="str">
+      <c r="E32" s="9" t="str">
         <f>AE32</f>
       </c>
-      <c r="F32" s="12" t="str">
+      <c r="F32" s="9" t="str">
         <f>AF32</f>
       </c>
       <c r="G32" s="3" t="str">
@@ -5929,58 +5930,58 @@
       <c r="N32" t="s">
         <v>40</v>
       </c>
-      <c r="O32" s="12" t="n">
+      <c r="O32" s="9" t="n">
         <v>4927975.24543857</v>
       </c>
-      <c r="P32" s="12" t="n">
+      <c r="P32" s="9" t="n">
         <v>10138331.6768421</v>
       </c>
-      <c r="Q32" s="12" t="n">
+      <c r="Q32" s="9" t="n">
         <v>6559574.13976913</v>
       </c>
-      <c r="R32" s="12" t="n">
+      <c r="R32" s="9" t="n">
         <v>-530002.633965152</v>
       </c>
-      <c r="S32" s="12" t="n">
+      <c r="S32" s="9" t="n">
         <v>756423.842348394</v>
       </c>
-      <c r="T32" s="12" t="n">
+      <c r="T32" s="9" t="n">
         <v>3597300.3627095</v>
       </c>
-      <c r="U32" s="12" t="n">
+      <c r="U32" s="9" t="n">
         <v>953544.880939329</v>
       </c>
-      <c r="V32" s="12" t="n">
+      <c r="V32" s="9" t="n">
         <v>2100234.12194165</v>
       </c>
-      <c r="W32" s="12" t="n">
+      <c r="W32" s="9" t="n">
         <v>860999.023632689</v>
       </c>
-      <c r="X32" s="12" t="n">
+      <c r="X32" s="9" t="n">
         <v>9268393.16624881</v>
       </c>
-      <c r="Y32" s="12" t="n">
+      <c r="Y32" s="9" t="n">
         <v>18969615.411275</v>
       </c>
-      <c r="Z32" s="12" t="n">
+      <c r="Z32" s="9" t="n">
         <v>12065005.5308147</v>
       </c>
-      <c r="AA32" s="12" t="n">
+      <c r="AA32" s="9" t="n">
         <v>58918679.9636052</v>
       </c>
-      <c r="AB32" s="12" t="n">
+      <c r="AB32" s="9" t="n">
         <v>5331743.09679972</v>
       </c>
-      <c r="AC32" s="12" t="n">
+      <c r="AC32" s="9" t="n">
         <v>21077740.3019894</v>
       </c>
-      <c r="AD32" s="12" t="n">
+      <c r="AD32" s="9" t="n">
         <v>6697698.44392739</v>
       </c>
-      <c r="AE32" s="12" t="n">
+      <c r="AE32" s="9" t="n">
         <v>3009276.3125</v>
       </c>
-      <c r="AF32" s="12"/>
+      <c r="AF32" s="9"/>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -5989,16 +5990,16 @@
       <c r="B33" t="str">
         <f>N33</f>
       </c>
-      <c r="C33" s="12" t="str">
+      <c r="C33" s="9" t="str">
         <f>AB33</f>
       </c>
-      <c r="D33" s="12" t="str">
+      <c r="D33" s="9" t="str">
         <f>AD33</f>
       </c>
-      <c r="E33" s="12" t="str">
+      <c r="E33" s="9" t="str">
         <f>AE33</f>
       </c>
-      <c r="F33" s="12" t="str">
+      <c r="F33" s="9" t="str">
         <f>AF33</f>
       </c>
       <c r="G33" s="3" t="str">
@@ -6022,58 +6023,58 @@
       <c r="N33" t="s">
         <v>43</v>
       </c>
-      <c r="O33" s="12" t="n">
+      <c r="O33" s="9" t="n">
         <v>129494665.991222</v>
       </c>
-      <c r="P33" s="12" t="n">
+      <c r="P33" s="9" t="n">
         <v>377017676.972643</v>
       </c>
-      <c r="Q33" s="12" t="n">
+      <c r="Q33" s="9" t="n">
         <v>164705115.519292</v>
       </c>
-      <c r="R33" s="12" t="n">
+      <c r="R33" s="9" t="n">
         <v>3052336970.05866</v>
       </c>
-      <c r="S33" s="12" t="n">
+      <c r="S33" s="9" t="n">
         <v>620639379.059586</v>
       </c>
-      <c r="T33" s="12" t="n">
+      <c r="T33" s="9" t="n">
         <v>428082124.158577</v>
       </c>
-      <c r="U33" s="12" t="n">
+      <c r="U33" s="9" t="n">
         <v>264005381.730712</v>
       </c>
-      <c r="V33" s="12" t="n">
+      <c r="V33" s="9" t="n">
         <v>319864252.59757</v>
       </c>
-      <c r="W33" s="12" t="n">
+      <c r="W33" s="9" t="n">
         <v>155895886.847221</v>
       </c>
-      <c r="X33" s="12" t="n">
+      <c r="X33" s="9" t="n">
         <v>233122510.00642</v>
       </c>
-      <c r="Y33" s="12" t="n">
+      <c r="Y33" s="9" t="n">
         <v>153787934.235354</v>
       </c>
-      <c r="Z33" s="12" t="n">
+      <c r="Z33" s="9" t="n">
         <v>168701065.6176</v>
       </c>
-      <c r="AA33" s="12" t="n">
+      <c r="AA33" s="9" t="n">
         <v>367214234.446343</v>
       </c>
-      <c r="AB33" s="12" t="n">
+      <c r="AB33" s="9" t="n">
         <v>380138051.906108</v>
       </c>
-      <c r="AC33" s="12" t="n">
+      <c r="AC33" s="9" t="n">
         <v>333792378.138851</v>
       </c>
-      <c r="AD33" s="12" t="n">
+      <c r="AD33" s="9" t="n">
         <v>356041881.589343</v>
       </c>
-      <c r="AE33" s="12" t="n">
+      <c r="AE33" s="9" t="n">
         <v>643485539.1533</v>
       </c>
-      <c r="AF33" s="12"/>
+      <c r="AF33" s="9"/>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -6082,16 +6083,16 @@
       <c r="B34" t="str">
         <f>N34</f>
       </c>
-      <c r="C34" s="12" t="str">
+      <c r="C34" s="9" t="str">
         <f>AB34</f>
       </c>
-      <c r="D34" s="12" t="str">
+      <c r="D34" s="9" t="str">
         <f>AD34</f>
       </c>
-      <c r="E34" s="12" t="str">
+      <c r="E34" s="9" t="str">
         <f>AE34</f>
       </c>
-      <c r="F34" s="12" t="str">
+      <c r="F34" s="9" t="str">
         <f>AF34</f>
       </c>
       <c r="G34" s="3" t="str">
@@ -6115,58 +6116,58 @@
       <c r="N34" t="s">
         <v>40</v>
       </c>
-      <c r="O34" s="12" t="n">
+      <c r="O34" s="9" t="n">
         <v>16441635563.8919</v>
       </c>
-      <c r="P34" s="12" t="n">
+      <c r="P34" s="9" t="n">
         <v>13872640294.2481</v>
       </c>
-      <c r="Q34" s="12" t="n">
+      <c r="Q34" s="9" t="n">
         <v>9388846274.89913</v>
       </c>
-      <c r="R34" s="12" t="n">
+      <c r="R34" s="9" t="n">
         <v>6452679851.97572</v>
       </c>
-      <c r="S34" s="12" t="n">
+      <c r="S34" s="9" t="n">
         <v>4175622853.73578</v>
       </c>
-      <c r="T34" s="12" t="n">
+      <c r="T34" s="9" t="n">
         <v>3068379652.02286</v>
       </c>
-      <c r="U34" s="12" t="n">
+      <c r="U34" s="9" t="n">
         <v>2798319393.96219</v>
       </c>
-      <c r="V34" s="12" t="n">
+      <c r="V34" s="9" t="n">
         <v>1645348229.74133</v>
       </c>
-      <c r="W34" s="12" t="n">
+      <c r="W34" s="9" t="n">
         <v>2385756152.08176</v>
       </c>
-      <c r="X34" s="12" t="n">
+      <c r="X34" s="9" t="n">
         <v>1362580896.21716</v>
       </c>
-      <c r="Y34" s="12" t="n">
+      <c r="Y34" s="9" t="n">
         <v>1491762627.85421</v>
       </c>
-      <c r="Z34" s="12" t="n">
+      <c r="Z34" s="9" t="n">
         <v>1742646499.33167</v>
       </c>
-      <c r="AA34" s="12" t="n">
+      <c r="AA34" s="9" t="n">
         <v>1969009833.89659</v>
       </c>
-      <c r="AB34" s="12" t="n">
+      <c r="AB34" s="9" t="n">
         <v>1931823416.57386</v>
       </c>
-      <c r="AC34" s="12" t="n">
+      <c r="AC34" s="9" t="n">
         <v>1779260726.06858</v>
       </c>
-      <c r="AD34" s="12" t="n">
+      <c r="AD34" s="9" t="n">
         <v>2120304111.03891</v>
       </c>
-      <c r="AE34" s="12" t="n">
+      <c r="AE34" s="9" t="n">
         <v>4477169390.5106</v>
       </c>
-      <c r="AF34" s="12"/>
+      <c r="AF34" s="9"/>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -6175,16 +6176,16 @@
       <c r="B35" t="str">
         <f>N35</f>
       </c>
-      <c r="C35" s="12" t="str">
+      <c r="C35" s="9" t="str">
         <f>AB35</f>
       </c>
-      <c r="D35" s="12" t="str">
+      <c r="D35" s="9" t="str">
         <f>AD35</f>
       </c>
-      <c r="E35" s="12" t="str">
+      <c r="E35" s="9" t="str">
         <f>AE35</f>
       </c>
-      <c r="F35" s="12" t="str">
+      <c r="F35" s="9" t="str">
         <f>AF35</f>
       </c>
       <c r="G35" s="3" t="str">
@@ -6208,58 +6209,58 @@
       <c r="N35" t="s">
         <v>43</v>
       </c>
-      <c r="O35" s="12" t="n">
+      <c r="O35" s="9" t="n">
         <v>147153612569.179</v>
       </c>
-      <c r="P35" s="12" t="n">
+      <c r="P35" s="9" t="n">
         <v>164420210501.657</v>
       </c>
-      <c r="Q35" s="12" t="n">
+      <c r="Q35" s="9" t="n">
         <v>153095551077.416</v>
       </c>
-      <c r="R35" s="12" t="n">
+      <c r="R35" s="9" t="n">
         <v>99133961247.3784</v>
       </c>
-      <c r="S35" s="12" t="n">
+      <c r="S35" s="9" t="n">
         <v>69239926254.2744</v>
       </c>
-      <c r="T35" s="12" t="n">
+      <c r="T35" s="9" t="n">
         <v>42730646467.4167</v>
       </c>
-      <c r="U35" s="12" t="n">
+      <c r="U35" s="9" t="n">
         <v>23974436712.4759</v>
       </c>
-      <c r="V35" s="12" t="n">
+      <c r="V35" s="9" t="n">
         <v>20314232201.0919</v>
       </c>
-      <c r="W35" s="12" t="n">
+      <c r="W35" s="9" t="n">
         <v>15990151116.3622</v>
       </c>
-      <c r="X35" s="12" t="n">
+      <c r="X35" s="9" t="n">
         <v>13745352770.8921</v>
       </c>
-      <c r="Y35" s="12" t="n">
+      <c r="Y35" s="9" t="n">
         <v>15116598869.0337</v>
       </c>
-      <c r="Z35" s="12" t="n">
+      <c r="Z35" s="9" t="n">
         <v>13993013802.1368</v>
       </c>
-      <c r="AA35" s="12" t="n">
+      <c r="AA35" s="9" t="n">
         <v>12401734985.2125</v>
       </c>
-      <c r="AB35" s="12" t="n">
+      <c r="AB35" s="9" t="n">
         <v>14587012514.7497</v>
       </c>
-      <c r="AC35" s="12" t="n">
+      <c r="AC35" s="9" t="n">
         <v>13454323199.1341</v>
       </c>
-      <c r="AD35" s="12" t="n">
+      <c r="AD35" s="9" t="n">
         <v>11669529367.0915</v>
       </c>
-      <c r="AE35" s="12" t="n">
+      <c r="AE35" s="9" t="n">
         <v>25833604840.0789</v>
       </c>
-      <c r="AF35" s="12"/>
+      <c r="AF35" s="9"/>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -6268,16 +6269,16 @@
       <c r="B36" t="str">
         <f>N36</f>
       </c>
-      <c r="C36" s="12" t="str">
+      <c r="C36" s="9" t="str">
         <f>AB36</f>
       </c>
-      <c r="D36" s="12" t="str">
+      <c r="D36" s="9" t="str">
         <f>AD36</f>
       </c>
-      <c r="E36" s="12" t="str">
+      <c r="E36" s="9" t="str">
         <f>AE36</f>
       </c>
-      <c r="F36" s="12" t="str">
+      <c r="F36" s="9" t="str">
         <f>AF36</f>
       </c>
       <c r="G36" s="3" t="str">
@@ -6301,58 +6302,58 @@
       <c r="N36" t="s">
         <v>40</v>
       </c>
-      <c r="O36" s="12" t="n">
+      <c r="O36" s="9" t="n">
         <v>10090339516.4006</v>
       </c>
-      <c r="P36" s="12" t="n">
+      <c r="P36" s="9" t="n">
         <v>9503327731.90822</v>
       </c>
-      <c r="Q36" s="12" t="n">
+      <c r="Q36" s="9" t="n">
         <v>8241815808.85705</v>
       </c>
-      <c r="R36" s="12" t="n">
+      <c r="R36" s="9" t="n">
         <v>6676031358.44169</v>
       </c>
-      <c r="S36" s="12" t="n">
+      <c r="S36" s="9" t="n">
         <v>5198954299.9283</v>
       </c>
-      <c r="T36" s="12" t="n">
+      <c r="T36" s="9" t="n">
         <v>5160319440.4918</v>
       </c>
-      <c r="U36" s="12" t="n">
+      <c r="U36" s="9" t="n">
         <v>4133016730.02998</v>
       </c>
-      <c r="V36" s="12" t="n">
+      <c r="V36" s="9" t="n">
         <v>4539302513.64279</v>
       </c>
-      <c r="W36" s="12" t="n">
+      <c r="W36" s="9" t="n">
         <v>4066287420.91547</v>
       </c>
-      <c r="X36" s="12" t="n">
+      <c r="X36" s="9" t="n">
         <v>5218826948.29399</v>
       </c>
-      <c r="Y36" s="12" t="n">
+      <c r="Y36" s="9" t="n">
         <v>6100980272.25558</v>
       </c>
-      <c r="Z36" s="12" t="n">
+      <c r="Z36" s="9" t="n">
         <v>7391316317.30767</v>
       </c>
-      <c r="AA36" s="12" t="n">
+      <c r="AA36" s="9" t="n">
         <v>7613188126.02797</v>
       </c>
-      <c r="AB36" s="12" t="n">
+      <c r="AB36" s="9" t="n">
         <v>7518488707.1741</v>
       </c>
-      <c r="AC36" s="12" t="n">
+      <c r="AC36" s="9" t="n">
         <v>7812651156.89991</v>
       </c>
-      <c r="AD36" s="12" t="n">
+      <c r="AD36" s="9" t="n">
         <v>7176418096.70276</v>
       </c>
-      <c r="AE36" s="12" t="n">
+      <c r="AE36" s="9" t="n">
         <v>8814402353.8</v>
       </c>
-      <c r="AF36" s="12"/>
+      <c r="AF36" s="9"/>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -6361,16 +6362,16 @@
       <c r="B37" t="str">
         <f>N37</f>
       </c>
-      <c r="C37" s="12" t="str">
+      <c r="C37" s="9" t="str">
         <f>AB37</f>
       </c>
-      <c r="D37" s="12" t="str">
+      <c r="D37" s="9" t="str">
         <f>AD37</f>
       </c>
-      <c r="E37" s="12" t="str">
+      <c r="E37" s="9" t="str">
         <f>AE37</f>
       </c>
-      <c r="F37" s="12" t="str">
+      <c r="F37" s="9" t="str">
         <f>AF37</f>
       </c>
       <c r="G37" s="3" t="str">
@@ -6394,58 +6395,58 @@
       <c r="N37" t="s">
         <v>43</v>
       </c>
-      <c r="O37" s="12" t="n">
+      <c r="O37" s="9" t="n">
         <v>18663362563.569</v>
       </c>
-      <c r="P37" s="12" t="n">
+      <c r="P37" s="9" t="n">
         <v>18134547145.9764</v>
       </c>
-      <c r="Q37" s="12" t="n">
+      <c r="Q37" s="9" t="n">
         <v>19161293332.7016</v>
       </c>
-      <c r="R37" s="12" t="n">
+      <c r="R37" s="9" t="n">
         <v>15038604386.5055</v>
       </c>
-      <c r="S37" s="12" t="n">
+      <c r="S37" s="9" t="n">
         <v>19915513238.1746</v>
       </c>
-      <c r="T37" s="12" t="n">
+      <c r="T37" s="9" t="n">
         <v>18507659233.2783</v>
       </c>
-      <c r="U37" s="12" t="n">
+      <c r="U37" s="9" t="n">
         <v>15829195326.1934</v>
       </c>
-      <c r="V37" s="12" t="n">
+      <c r="V37" s="9" t="n">
         <v>15809969342.2214</v>
       </c>
-      <c r="W37" s="12" t="n">
+      <c r="W37" s="9" t="n">
         <v>15463233983.3389</v>
       </c>
-      <c r="X37" s="12" t="n">
+      <c r="X37" s="9" t="n">
         <v>15601806330.4727</v>
       </c>
-      <c r="Y37" s="12" t="n">
+      <c r="Y37" s="9" t="n">
         <v>15910486263.1108</v>
       </c>
-      <c r="Z37" s="12" t="n">
+      <c r="Z37" s="9" t="n">
         <v>19461986189.005</v>
       </c>
-      <c r="AA37" s="12" t="n">
+      <c r="AA37" s="9" t="n">
         <v>19242699175.4681</v>
       </c>
-      <c r="AB37" s="12" t="n">
+      <c r="AB37" s="9" t="n">
         <v>18464304257.4098</v>
       </c>
-      <c r="AC37" s="12" t="n">
+      <c r="AC37" s="9" t="n">
         <v>15991853064.804</v>
       </c>
-      <c r="AD37" s="12" t="n">
+      <c r="AD37" s="9" t="n">
         <v>15668786800.3169</v>
       </c>
-      <c r="AE37" s="12" t="n">
+      <c r="AE37" s="9" t="n">
         <v>11139398950.3839</v>
       </c>
-      <c r="AF37" s="12"/>
+      <c r="AF37" s="9"/>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -6454,16 +6455,16 @@
       <c r="B38" t="str">
         <f>N38</f>
       </c>
-      <c r="C38" s="12" t="str">
+      <c r="C38" s="9" t="str">
         <f>AB38</f>
       </c>
-      <c r="D38" s="12" t="str">
+      <c r="D38" s="9" t="str">
         <f>AD38</f>
       </c>
-      <c r="E38" s="12" t="str">
+      <c r="E38" s="9" t="str">
         <f>AE38</f>
       </c>
-      <c r="F38" s="12" t="str">
+      <c r="F38" s="9" t="str">
         <f>AF38</f>
       </c>
       <c r="G38" s="3" t="str">
@@ -6487,58 +6488,58 @@
       <c r="N38" t="s">
         <v>40</v>
       </c>
-      <c r="O38" s="12" t="n">
+      <c r="O38" s="9" t="n">
         <v>114099492.256617</v>
       </c>
-      <c r="P38" s="12" t="n">
+      <c r="P38" s="9" t="n">
         <v>2236818721.86535</v>
       </c>
-      <c r="Q38" s="12" t="n">
+      <c r="Q38" s="9" t="n">
         <v>2062110370.67563</v>
       </c>
-      <c r="R38" s="12" t="n">
+      <c r="R38" s="9" t="n">
         <v>1773119678.15537</v>
       </c>
-      <c r="S38" s="12" t="n">
+      <c r="S38" s="9" t="n">
         <v>1230928832.95137</v>
       </c>
-      <c r="T38" s="12" t="n">
+      <c r="T38" s="9" t="n">
         <v>720441968.198254</v>
       </c>
-      <c r="U38" s="12" t="n">
+      <c r="U38" s="9" t="n">
         <v>469408377.364554</v>
       </c>
-      <c r="V38" s="12" t="n">
+      <c r="V38" s="9" t="n">
         <v>445360130.14083</v>
       </c>
-      <c r="W38" s="12" t="n">
+      <c r="W38" s="9" t="n">
         <v>436189402.912613</v>
       </c>
-      <c r="X38" s="12" t="n">
+      <c r="X38" s="9" t="n">
         <v>551097826.03881</v>
       </c>
-      <c r="Y38" s="12" t="n">
+      <c r="Y38" s="9" t="n">
         <v>285188965.305346</v>
       </c>
-      <c r="Z38" s="12" t="n">
+      <c r="Z38" s="9" t="n">
         <v>341167535.038676</v>
       </c>
-      <c r="AA38" s="12" t="n">
+      <c r="AA38" s="9" t="n">
         <v>497300047.432713</v>
       </c>
-      <c r="AB38" s="12" t="n">
+      <c r="AB38" s="9" t="n">
         <v>317654941.821024</v>
       </c>
-      <c r="AC38" s="12" t="n">
+      <c r="AC38" s="9" t="n">
         <v>261525572.646818</v>
       </c>
-      <c r="AD38" s="12" t="n">
+      <c r="AD38" s="9" t="n">
         <v>266340872.847015</v>
       </c>
-      <c r="AE38" s="12" t="n">
+      <c r="AE38" s="9" t="n">
         <v>1589998587.9479</v>
       </c>
-      <c r="AF38" s="12"/>
+      <c r="AF38" s="9"/>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -6547,16 +6548,16 @@
       <c r="B39" t="str">
         <f>N39</f>
       </c>
-      <c r="C39" s="12" t="str">
+      <c r="C39" s="9" t="str">
         <f>AB39</f>
       </c>
-      <c r="D39" s="12" t="str">
+      <c r="D39" s="9" t="str">
         <f>AD39</f>
       </c>
-      <c r="E39" s="12" t="str">
+      <c r="E39" s="9" t="str">
         <f>AE39</f>
       </c>
-      <c r="F39" s="12" t="str">
+      <c r="F39" s="9" t="str">
         <f>AF39</f>
       </c>
       <c r="G39" s="3" t="str">
@@ -6580,58 +6581,58 @@
       <c r="N39" t="s">
         <v>43</v>
       </c>
-      <c r="O39" s="12" t="n">
+      <c r="O39" s="9" t="n">
         <v>1137745054.57605</v>
       </c>
-      <c r="P39" s="12" t="n">
+      <c r="P39" s="9" t="n">
         <v>9159808555.11235</v>
       </c>
-      <c r="Q39" s="12" t="n">
+      <c r="Q39" s="9" t="n">
         <v>12650885003.0742</v>
       </c>
-      <c r="R39" s="12" t="n">
+      <c r="R39" s="9" t="n">
         <v>4191361281.1556</v>
       </c>
-      <c r="S39" s="12" t="n">
+      <c r="S39" s="9" t="n">
         <v>3222682785.20794</v>
       </c>
-      <c r="T39" s="12" t="n">
+      <c r="T39" s="9" t="n">
         <v>2470470853.99235</v>
       </c>
-      <c r="U39" s="12" t="n">
+      <c r="U39" s="9" t="n">
         <v>1437247059.90891</v>
       </c>
-      <c r="V39" s="12" t="n">
+      <c r="V39" s="9" t="n">
         <v>1226755644.67248</v>
       </c>
-      <c r="W39" s="12" t="n">
+      <c r="W39" s="9" t="n">
         <v>861884451.154199</v>
       </c>
-      <c r="X39" s="12" t="n">
+      <c r="X39" s="9" t="n">
         <v>841713894.541416</v>
       </c>
-      <c r="Y39" s="12" t="n">
+      <c r="Y39" s="9" t="n">
         <v>919674838.218218</v>
       </c>
-      <c r="Z39" s="12" t="n">
+      <c r="Z39" s="9" t="n">
         <v>864185373.553737</v>
       </c>
-      <c r="AA39" s="12" t="n">
+      <c r="AA39" s="9" t="n">
         <v>1041481260.86416</v>
       </c>
-      <c r="AB39" s="12" t="n">
+      <c r="AB39" s="9" t="n">
         <v>938317012.248685</v>
       </c>
-      <c r="AC39" s="12" t="n">
+      <c r="AC39" s="9" t="n">
         <v>465658214.260482</v>
       </c>
-      <c r="AD39" s="12" t="n">
+      <c r="AD39" s="9" t="n">
         <v>475006942.541081</v>
       </c>
-      <c r="AE39" s="12" t="n">
+      <c r="AE39" s="9" t="n">
         <v>1912728130.1274</v>
       </c>
-      <c r="AF39" s="12"/>
+      <c r="AF39" s="9"/>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -6640,16 +6641,16 @@
       <c r="B40" t="str">
         <f>N40</f>
       </c>
-      <c r="C40" s="12" t="str">
+      <c r="C40" s="9" t="str">
         <f>AB40</f>
       </c>
-      <c r="D40" s="12" t="str">
+      <c r="D40" s="9" t="str">
         <f>AD40</f>
       </c>
-      <c r="E40" s="12" t="str">
+      <c r="E40" s="9" t="str">
         <f>AE40</f>
       </c>
-      <c r="F40" s="12" t="str">
+      <c r="F40" s="9" t="str">
         <f>AF40</f>
       </c>
       <c r="G40" s="3" t="str">
@@ -6673,58 +6674,58 @@
       <c r="N40" t="s">
         <v>19</v>
       </c>
-      <c r="O40" s="12" t="str">
+      <c r="O40" s="9" t="str">
         <f>Sum(O23:O39)</f>
       </c>
-      <c r="P40" s="12" t="str">
+      <c r="P40" s="9" t="str">
         <f>Sum(P23:P39)</f>
       </c>
-      <c r="Q40" s="12" t="str">
+      <c r="Q40" s="9" t="str">
         <f>Sum(Q23:Q39)</f>
       </c>
-      <c r="R40" s="12" t="str">
+      <c r="R40" s="9" t="str">
         <f>Sum(R23:R39)</f>
       </c>
-      <c r="S40" s="12" t="str">
+      <c r="S40" s="9" t="str">
         <f>Sum(S23:S39)</f>
       </c>
-      <c r="T40" s="12" t="str">
+      <c r="T40" s="9" t="str">
         <f>Sum(T23:T39)</f>
       </c>
-      <c r="U40" s="12" t="str">
+      <c r="U40" s="9" t="str">
         <f>Sum(U23:U39)</f>
       </c>
-      <c r="V40" s="12" t="str">
+      <c r="V40" s="9" t="str">
         <f>Sum(V23:V39)</f>
       </c>
-      <c r="W40" s="12" t="str">
+      <c r="W40" s="9" t="str">
         <f>Sum(W23:W39)</f>
       </c>
-      <c r="X40" s="12" t="str">
+      <c r="X40" s="9" t="str">
         <f>Sum(X23:X39)</f>
       </c>
-      <c r="Y40" s="12" t="str">
+      <c r="Y40" s="9" t="str">
         <f>Sum(Y23:Y39)</f>
       </c>
-      <c r="Z40" s="12" t="str">
+      <c r="Z40" s="9" t="str">
         <f>Sum(Z23:Z39)</f>
       </c>
-      <c r="AA40" s="12" t="str">
+      <c r="AA40" s="9" t="str">
         <f>Sum(AA23:AA39)</f>
       </c>
-      <c r="AB40" s="12" t="str">
+      <c r="AB40" s="9" t="str">
         <f>Sum(AB23:AB39)</f>
       </c>
-      <c r="AC40" s="12" t="str">
+      <c r="AC40" s="9" t="str">
         <f>Sum(AC23:AC39)</f>
       </c>
-      <c r="AD40" s="12" t="str">
+      <c r="AD40" s="9" t="str">
         <f>Sum(AD23:AD39)</f>
       </c>
-      <c r="AE40" s="12" t="str">
+      <c r="AE40" s="9" t="str">
         <f>Sum(AE23:AE39)</f>
       </c>
-      <c r="AF40" s="12"/>
+      <c r="AF40" s="9"/>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -6733,16 +6734,16 @@
       <c r="B41" t="str">
         <f>N41</f>
       </c>
-      <c r="C41" s="10" t="str">
+      <c r="C41" s="12" t="str">
         <f>AB41</f>
       </c>
-      <c r="D41" s="10" t="str">
+      <c r="D41" s="12" t="str">
         <f>AD41</f>
       </c>
-      <c r="E41" s="10" t="str">
+      <c r="E41" s="12" t="str">
         <f>AE41</f>
       </c>
-      <c r="F41" s="10" t="str">
+      <c r="F41" s="12" t="str">
         <f>AF41</f>
       </c>
       <c r="G41" s="3" t="str">
@@ -6766,58 +6767,58 @@
       <c r="N41" t="s">
         <v>43</v>
       </c>
-      <c r="O41" s="10" t="n">
+      <c r="O41" s="12" t="n">
         <v>1137737421.78898</v>
       </c>
-      <c r="P41" s="10" t="n">
+      <c r="P41" s="12" t="n">
         <v>9133322337.84977</v>
       </c>
-      <c r="Q41" s="10" t="n">
+      <c r="Q41" s="12" t="n">
         <v>12624670004.5885</v>
       </c>
-      <c r="R41" s="10" t="n">
+      <c r="R41" s="12" t="n">
         <v>4187545994.40614</v>
       </c>
-      <c r="S41" s="10" t="n">
+      <c r="S41" s="12" t="n">
         <v>2991209357.47081</v>
       </c>
-      <c r="T41" s="10" t="n">
+      <c r="T41" s="12" t="n">
         <v>2457808530.50219</v>
       </c>
-      <c r="U41" s="10" t="n">
+      <c r="U41" s="12" t="n">
         <v>1414061387.99815</v>
       </c>
-      <c r="V41" s="10" t="n">
+      <c r="V41" s="12" t="n">
         <v>1226807041.1866</v>
       </c>
-      <c r="W41" s="10" t="n">
+      <c r="W41" s="12" t="n">
         <v>856977420.934944</v>
       </c>
-      <c r="X41" s="10" t="n">
+      <c r="X41" s="12" t="n">
         <v>818967808.174386</v>
       </c>
-      <c r="Y41" s="10" t="n">
+      <c r="Y41" s="12" t="n">
         <v>925465127.296421</v>
       </c>
-      <c r="Z41" s="10" t="n">
+      <c r="Z41" s="12" t="n">
         <v>874497880.297441</v>
       </c>
-      <c r="AA41" s="10" t="n">
+      <c r="AA41" s="12" t="n">
         <v>1055531664.94218</v>
       </c>
-      <c r="AB41" s="10" t="n">
+      <c r="AB41" s="12" t="n">
         <v>935277594.319671</v>
       </c>
-      <c r="AC41" s="10" t="n">
+      <c r="AC41" s="12" t="n">
         <v>435012565.845856</v>
       </c>
-      <c r="AD41" s="10" t="n">
+      <c r="AD41" s="12" t="n">
         <v>483317854.419061</v>
       </c>
-      <c r="AE41" s="10" t="n">
+      <c r="AE41" s="12" t="n">
         <v>1783365852.8155</v>
       </c>
-      <c r="AF41" s="10"/>
+      <c r="AF41" s="12"/>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -6826,16 +6827,16 @@
       <c r="B42" t="str">
         <f>N42</f>
       </c>
-      <c r="C42" s="10" t="str">
+      <c r="C42" s="12" t="str">
         <f>AB42</f>
       </c>
-      <c r="D42" s="10" t="str">
+      <c r="D42" s="12" t="str">
         <f>AD42</f>
       </c>
-      <c r="E42" s="10" t="str">
+      <c r="E42" s="12" t="str">
         <f>AE42</f>
       </c>
-      <c r="F42" s="10" t="str">
+      <c r="F42" s="12" t="str">
         <f>AF42</f>
       </c>
       <c r="G42" s="3" t="str">
@@ -6859,58 +6860,58 @@
       <c r="N42" t="s">
         <v>19</v>
       </c>
-      <c r="O42" s="10" t="str">
+      <c r="O42" s="12" t="str">
         <f>Sum(O24:O41)</f>
       </c>
-      <c r="P42" s="10" t="str">
+      <c r="P42" s="12" t="str">
         <f>Sum(P24:P41)</f>
       </c>
-      <c r="Q42" s="10" t="str">
+      <c r="Q42" s="12" t="str">
         <f>Sum(Q24:Q41)</f>
       </c>
-      <c r="R42" s="10" t="str">
+      <c r="R42" s="12" t="str">
         <f>Sum(R24:R41)</f>
       </c>
-      <c r="S42" s="10" t="str">
+      <c r="S42" s="12" t="str">
         <f>Sum(S24:S41)</f>
       </c>
-      <c r="T42" s="10" t="str">
+      <c r="T42" s="12" t="str">
         <f>Sum(T24:T41)</f>
       </c>
-      <c r="U42" s="10" t="str">
+      <c r="U42" s="12" t="str">
         <f>Sum(U24:U41)</f>
       </c>
-      <c r="V42" s="10" t="str">
+      <c r="V42" s="12" t="str">
         <f>Sum(V24:V41)</f>
       </c>
-      <c r="W42" s="10" t="str">
+      <c r="W42" s="12" t="str">
         <f>Sum(W24:W41)</f>
       </c>
-      <c r="X42" s="10" t="str">
+      <c r="X42" s="12" t="str">
         <f>Sum(X24:X41)</f>
       </c>
-      <c r="Y42" s="10" t="str">
+      <c r="Y42" s="12" t="str">
         <f>Sum(Y24:Y41)</f>
       </c>
-      <c r="Z42" s="10" t="str">
+      <c r="Z42" s="12" t="str">
         <f>Sum(Z24:Z41)</f>
       </c>
-      <c r="AA42" s="10" t="str">
+      <c r="AA42" s="12" t="str">
         <f>Sum(AA24:AA41)</f>
       </c>
-      <c r="AB42" s="10" t="str">
+      <c r="AB42" s="12" t="str">
         <f>Sum(AB24:AB41)</f>
       </c>
-      <c r="AC42" s="10" t="str">
+      <c r="AC42" s="12" t="str">
         <f>Sum(AC24:AC41)</f>
       </c>
-      <c r="AD42" s="10" t="str">
+      <c r="AD42" s="12" t="str">
         <f>Sum(AD24:AD41)</f>
       </c>
-      <c r="AE42" s="10" t="str">
+      <c r="AE42" s="12" t="str">
         <f>Sum(AE24:AE41)</f>
       </c>
-      <c r="AF42" s="10"/>
+      <c r="AF42" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7007,46 +7008,46 @@
       <c r="N2" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="18" t="n">
+      <c r="O2" s="17" t="n">
         <v>43938597462.2748</v>
       </c>
-      <c r="P2" s="18" t="n">
+      <c r="P2" s="17" t="n">
         <v>50106126197.8422</v>
       </c>
-      <c r="Q2" s="18" t="n">
+      <c r="Q2" s="17" t="n">
         <v>35397922747.0838</v>
       </c>
-      <c r="R2" s="18" t="n">
+      <c r="R2" s="17" t="n">
         <v>34099766461.0553</v>
       </c>
-      <c r="S2" s="18" t="n">
+      <c r="S2" s="17" t="n">
         <v>28836179137.1624</v>
       </c>
-      <c r="T2" s="18" t="n">
+      <c r="T2" s="17" t="n">
         <v>26943753973.8753</v>
       </c>
-      <c r="U2" s="18" t="n">
+      <c r="U2" s="17" t="n">
         <v>29402376196.4951</v>
       </c>
-      <c r="V2" s="18" t="n">
+      <c r="V2" s="17" t="n">
         <v>34846694645.4198</v>
       </c>
-      <c r="W2" s="18" t="n">
+      <c r="W2" s="17" t="n">
         <v>35234160267.8548</v>
       </c>
-      <c r="X2" s="18" t="n">
+      <c r="X2" s="17" t="n">
         <v>35875249149.5389</v>
       </c>
-      <c r="Y2" s="18" t="n">
+      <c r="Y2" s="17" t="n">
         <v>55773522318.0748</v>
       </c>
-      <c r="Z2" s="18" t="n">
+      <c r="Z2" s="17" t="n">
         <v>53661870373.0278</v>
       </c>
-      <c r="AA2" s="18" t="n">
+      <c r="AA2" s="17" t="n">
         <v>45884808636.1964</v>
       </c>
-      <c r="AB2" s="18" t="n">
+      <c r="AB2" s="17" t="n">
         <v>12416343380.5858</v>
       </c>
       <c r="AC2" s="15" t="n">
@@ -7069,46 +7070,46 @@
       <c r="N3" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="18" t="n">
+      <c r="O3" s="17" t="n">
         <v>25889342950.4028</v>
       </c>
-      <c r="P3" s="18" t="n">
+      <c r="P3" s="17" t="n">
         <v>22238033025.775</v>
       </c>
-      <c r="Q3" s="18" t="n">
+      <c r="Q3" s="17" t="n">
         <v>19706315508.1142</v>
       </c>
-      <c r="R3" s="18" t="n">
+      <c r="R3" s="17" t="n">
         <v>18086864585.7877</v>
       </c>
-      <c r="S3" s="18" t="n">
+      <c r="S3" s="17" t="n">
         <v>20086128681.8011</v>
       </c>
-      <c r="T3" s="18" t="n">
+      <c r="T3" s="17" t="n">
         <v>20035924070.5428</v>
       </c>
-      <c r="U3" s="18" t="n">
+      <c r="U3" s="17" t="n">
         <v>22814951610.1898</v>
       </c>
-      <c r="V3" s="18" t="n">
+      <c r="V3" s="17" t="n">
         <v>26654043472.5139</v>
       </c>
-      <c r="W3" s="18" t="n">
+      <c r="W3" s="17" t="n">
         <v>29628990466.9556</v>
       </c>
-      <c r="X3" s="18" t="n">
+      <c r="X3" s="17" t="n">
         <v>35623589217.7845</v>
       </c>
-      <c r="Y3" s="18" t="n">
+      <c r="Y3" s="17" t="n">
         <v>44190164383.593</v>
       </c>
-      <c r="Z3" s="18" t="n">
+      <c r="Z3" s="17" t="n">
         <v>52646236662.735</v>
       </c>
-      <c r="AA3" s="18" t="n">
+      <c r="AA3" s="17" t="n">
         <v>38084619243.8335</v>
       </c>
-      <c r="AB3" s="18" t="n">
+      <c r="AB3" s="17" t="n">
         <v>1801912872.7955</v>
       </c>
       <c r="AC3" s="15" t="n">
@@ -7131,46 +7132,46 @@
       <c r="N4" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="18" t="n">
+      <c r="O4" s="17" t="n">
         <v>15555619470.5361</v>
       </c>
-      <c r="P4" s="18" t="n">
+      <c r="P4" s="17" t="n">
         <v>15660202088.084</v>
       </c>
-      <c r="Q4" s="18" t="n">
+      <c r="Q4" s="17" t="n">
         <v>13062524552.0163</v>
       </c>
-      <c r="R4" s="18" t="n">
+      <c r="R4" s="17" t="n">
         <v>14562135384.7876</v>
       </c>
-      <c r="S4" s="18" t="n">
+      <c r="S4" s="17" t="n">
         <v>13555671864.5136</v>
       </c>
-      <c r="T4" s="18" t="n">
+      <c r="T4" s="17" t="n">
         <v>15335740858.4072</v>
       </c>
-      <c r="U4" s="18" t="n">
+      <c r="U4" s="17" t="n">
         <v>17417330811.567</v>
       </c>
-      <c r="V4" s="18" t="n">
+      <c r="V4" s="17" t="n">
         <v>13018391947.8351</v>
       </c>
-      <c r="W4" s="18" t="n">
+      <c r="W4" s="17" t="n">
         <v>16058506157.5635</v>
       </c>
-      <c r="X4" s="18" t="n">
+      <c r="X4" s="17" t="n">
         <v>16983812751.466</v>
       </c>
-      <c r="Y4" s="18" t="n">
+      <c r="Y4" s="17" t="n">
         <v>15392715907.7826</v>
       </c>
-      <c r="Z4" s="18" t="n">
+      <c r="Z4" s="17" t="n">
         <v>17357519164.9326</v>
       </c>
-      <c r="AA4" s="18" t="n">
+      <c r="AA4" s="17" t="n">
         <v>19305043010.3455</v>
       </c>
-      <c r="AB4" s="18" t="n">
+      <c r="AB4" s="17" t="n">
         <v>33248009994.7973</v>
       </c>
       <c r="AC4" s="15" t="n">
@@ -7193,46 +7194,46 @@
       <c r="N5" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="18" t="n">
+      <c r="O5" s="17" t="n">
         <v>29840305852.0759</v>
       </c>
-      <c r="P5" s="18" t="n">
+      <c r="P5" s="17" t="n">
         <v>29154766367.2699</v>
       </c>
-      <c r="Q5" s="18" t="n">
+      <c r="Q5" s="17" t="n">
         <v>23848922503.7213</v>
       </c>
-      <c r="R5" s="18" t="n">
+      <c r="R5" s="17" t="n">
         <v>23312871405.0338</v>
       </c>
-      <c r="S5" s="18" t="n">
+      <c r="S5" s="17" t="n">
         <v>20110137932.4912</v>
       </c>
-      <c r="T5" s="18" t="n">
+      <c r="T5" s="17" t="n">
         <v>20553258966.6612</v>
       </c>
-      <c r="U5" s="18" t="n">
+      <c r="U5" s="17" t="n">
         <v>19561367303.1077</v>
       </c>
-      <c r="V5" s="18" t="n">
+      <c r="V5" s="17" t="n">
         <v>20027502900.2048</v>
       </c>
-      <c r="W5" s="18" t="n">
+      <c r="W5" s="17" t="n">
         <v>21653589815.0077</v>
       </c>
-      <c r="X5" s="18" t="n">
+      <c r="X5" s="17" t="n">
         <v>24775351548.629</v>
       </c>
-      <c r="Y5" s="18" t="n">
+      <c r="Y5" s="17" t="n">
         <v>19105074974.2403</v>
       </c>
-      <c r="Z5" s="18" t="n">
+      <c r="Z5" s="17" t="n">
         <v>20907470893.2671</v>
       </c>
-      <c r="AA5" s="18" t="n">
+      <c r="AA5" s="17" t="n">
         <v>21344984676.5069</v>
       </c>
-      <c r="AB5" s="18" t="n">
+      <c r="AB5" s="17" t="n">
         <v>27338650511.5935</v>
       </c>
       <c r="AC5" s="15" t="n">
@@ -7255,46 +7256,46 @@
       <c r="N6" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="18" t="n">
+      <c r="O6" s="17" t="n">
         <v>6353771251.2537</v>
       </c>
-      <c r="P6" s="18" t="n">
+      <c r="P6" s="17" t="n">
         <v>6111328004.128</v>
       </c>
-      <c r="Q6" s="18" t="n">
+      <c r="Q6" s="17" t="n">
         <v>5455349072.084</v>
       </c>
-      <c r="R6" s="18" t="n">
+      <c r="R6" s="17" t="n">
         <v>6949444392.8565</v>
       </c>
-      <c r="S6" s="18" t="n">
+      <c r="S6" s="17" t="n">
         <v>7430603602.7701</v>
       </c>
-      <c r="T6" s="18" t="n">
+      <c r="T6" s="17" t="n">
         <v>7501739039.1847</v>
       </c>
-      <c r="U6" s="18" t="n">
+      <c r="U6" s="17" t="n">
         <v>6783627804.7729</v>
       </c>
-      <c r="V6" s="18" t="n">
+      <c r="V6" s="17" t="n">
         <v>12719225400.0599</v>
       </c>
-      <c r="W6" s="18" t="n">
+      <c r="W6" s="17" t="n">
         <v>12948873321.4011</v>
       </c>
-      <c r="X6" s="18" t="n">
+      <c r="X6" s="17" t="n">
         <v>11911643224.6253</v>
       </c>
-      <c r="Y6" s="18" t="n">
+      <c r="Y6" s="17" t="n">
         <v>11324297688.5867</v>
       </c>
-      <c r="Z6" s="18" t="n">
+      <c r="Z6" s="17" t="n">
         <v>12027087894.0659</v>
       </c>
-      <c r="AA6" s="18" t="n">
+      <c r="AA6" s="17" t="n">
         <v>12723722281.9879</v>
       </c>
-      <c r="AB6" s="18" t="n">
+      <c r="AB6" s="17" t="n">
         <v>13543587221.5167</v>
       </c>
       <c r="AC6" s="15" t="n">
@@ -7317,46 +7318,46 @@
       <c r="N7" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="18" t="n">
+      <c r="O7" s="17" t="n">
         <v>14373844897.8047</v>
       </c>
-      <c r="P7" s="18" t="n">
+      <c r="P7" s="17" t="n">
         <v>13206561065.8076</v>
       </c>
-      <c r="Q7" s="18" t="n">
+      <c r="Q7" s="17" t="n">
         <v>10802080997.6787</v>
       </c>
-      <c r="R7" s="18" t="n">
+      <c r="R7" s="17" t="n">
         <v>11076872960.9722</v>
       </c>
-      <c r="S7" s="18" t="n">
+      <c r="S7" s="17" t="n">
         <v>10900773054.4309</v>
       </c>
-      <c r="T7" s="18" t="n">
+      <c r="T7" s="17" t="n">
         <v>10123617101.8184</v>
       </c>
-      <c r="U7" s="18" t="n">
+      <c r="U7" s="17" t="n">
         <v>11241962025.9267</v>
       </c>
-      <c r="V7" s="18" t="n">
+      <c r="V7" s="17" t="n">
         <v>13823686787.1314</v>
       </c>
-      <c r="W7" s="18" t="n">
+      <c r="W7" s="17" t="n">
         <v>13826616163.1342</v>
       </c>
-      <c r="X7" s="18" t="n">
+      <c r="X7" s="17" t="n">
         <v>13209947102.2783</v>
       </c>
-      <c r="Y7" s="18" t="n">
+      <c r="Y7" s="17" t="n">
         <v>11141661764.5212</v>
       </c>
-      <c r="Z7" s="18" t="n">
+      <c r="Z7" s="17" t="n">
         <v>11793409233.3338</v>
       </c>
-      <c r="AA7" s="18" t="n">
+      <c r="AA7" s="17" t="n">
         <v>8499159403.4485</v>
       </c>
-      <c r="AB7" s="18" t="n">
+      <c r="AB7" s="17" t="n">
         <v>3251608936.6306</v>
       </c>
       <c r="AC7" s="15" t="n">
@@ -7379,46 +7380,46 @@
       <c r="N8" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="18" t="n">
+      <c r="O8" s="17" t="n">
         <v>631989460.7783</v>
       </c>
-      <c r="P8" s="18" t="n">
+      <c r="P8" s="17" t="n">
         <v>730784460.4217</v>
       </c>
-      <c r="Q8" s="18" t="n">
+      <c r="Q8" s="17" t="n">
         <v>583582108.4095</v>
       </c>
-      <c r="R8" s="18" t="n">
+      <c r="R8" s="17" t="n">
         <v>431813065.252</v>
       </c>
-      <c r="S8" s="18" t="n">
+      <c r="S8" s="17" t="n">
         <v>479057229.6744</v>
       </c>
-      <c r="T8" s="18" t="n">
+      <c r="T8" s="17" t="n">
         <v>754133470.2281</v>
       </c>
-      <c r="U8" s="18" t="n">
+      <c r="U8" s="17" t="n">
         <v>1212870362.8558</v>
       </c>
-      <c r="V8" s="18" t="n">
+      <c r="V8" s="17" t="n">
         <v>2174381343.2315</v>
       </c>
-      <c r="W8" s="18" t="n">
+      <c r="W8" s="17" t="n">
         <v>1789233579.0072</v>
       </c>
-      <c r="X8" s="18" t="n">
+      <c r="X8" s="17" t="n">
         <v>1655131561.9466</v>
       </c>
-      <c r="Y8" s="18" t="n">
+      <c r="Y8" s="17" t="n">
         <v>1788618124.0356</v>
       </c>
-      <c r="Z8" s="18" t="n">
+      <c r="Z8" s="17" t="n">
         <v>3460701067.8914</v>
       </c>
-      <c r="AA8" s="18" t="n">
+      <c r="AA8" s="17" t="n">
         <v>1942123630.1997</v>
       </c>
-      <c r="AB8" s="18" t="n">
+      <c r="AB8" s="17" t="n">
         <v>26534732732.502</v>
       </c>
       <c r="AC8" s="15" t="n">
@@ -7441,46 +7442,46 @@
       <c r="N9" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="18" t="n">
+      <c r="O9" s="17" t="n">
         <v>42891078006.4274</v>
       </c>
-      <c r="P9" s="18" t="n">
+      <c r="P9" s="17" t="n">
         <v>55916245614.7845</v>
       </c>
-      <c r="Q9" s="18" t="n">
+      <c r="Q9" s="17" t="n">
         <v>47353316662.8298</v>
       </c>
-      <c r="R9" s="18" t="n">
+      <c r="R9" s="17" t="n">
         <v>44606935375.0183</v>
       </c>
-      <c r="S9" s="18" t="n">
+      <c r="S9" s="17" t="n">
         <v>44673219755.351</v>
       </c>
-      <c r="T9" s="18" t="n">
+      <c r="T9" s="17" t="n">
         <v>51673073465.2889</v>
       </c>
-      <c r="U9" s="18" t="n">
+      <c r="U9" s="17" t="n">
         <v>59166462252.3838</v>
       </c>
-      <c r="V9" s="18" t="n">
+      <c r="V9" s="17" t="n">
         <v>77026872601.0672</v>
       </c>
-      <c r="W9" s="18" t="n">
+      <c r="W9" s="17" t="n">
         <v>81941621433.2727</v>
       </c>
-      <c r="X9" s="18" t="n">
+      <c r="X9" s="17" t="n">
         <v>88618976870.7865</v>
       </c>
-      <c r="Y9" s="18" t="n">
+      <c r="Y9" s="17" t="n">
         <v>85796546316.5326</v>
       </c>
-      <c r="Z9" s="18" t="n">
+      <c r="Z9" s="17" t="n">
         <v>87347814520.8399</v>
       </c>
-      <c r="AA9" s="18" t="n">
+      <c r="AA9" s="17" t="n">
         <v>59389185605.2414</v>
       </c>
-      <c r="AB9" s="18" t="n">
+      <c r="AB9" s="17" t="n">
         <v>26438251443.5411</v>
       </c>
       <c r="AC9" s="15" t="n">
@@ -7503,46 +7504,46 @@
       <c r="N10" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="18" t="n">
+      <c r="O10" s="17" t="n">
         <v>117265672000.507</v>
       </c>
-      <c r="P10" s="18" t="n">
+      <c r="P10" s="17" t="n">
         <v>114684159598.629</v>
       </c>
-      <c r="Q10" s="18" t="n">
+      <c r="Q10" s="17" t="n">
         <v>115092313841.753</v>
       </c>
-      <c r="R10" s="18" t="n">
+      <c r="R10" s="17" t="n">
         <v>96339079586.2505</v>
       </c>
-      <c r="S10" s="18" t="n">
+      <c r="S10" s="17" t="n">
         <v>96692994812.3194</v>
       </c>
-      <c r="T10" s="18" t="n">
+      <c r="T10" s="17" t="n">
         <v>115400111619.82</v>
       </c>
-      <c r="U10" s="18" t="n">
+      <c r="U10" s="17" t="n">
         <v>121585389860.149</v>
       </c>
-      <c r="V10" s="18" t="n">
+      <c r="V10" s="17" t="n">
         <v>121695096501.822</v>
       </c>
-      <c r="W10" s="18" t="n">
+      <c r="W10" s="17" t="n">
         <v>133999767682.578</v>
       </c>
-      <c r="X10" s="18" t="n">
+      <c r="X10" s="17" t="n">
         <v>155871330399.17</v>
       </c>
-      <c r="Y10" s="18" t="n">
+      <c r="Y10" s="17" t="n">
         <v>107353167337.779</v>
       </c>
-      <c r="Z10" s="18" t="n">
+      <c r="Z10" s="17" t="n">
         <v>119312855677.303</v>
       </c>
-      <c r="AA10" s="18" t="n">
+      <c r="AA10" s="17" t="n">
         <v>194731326724.396</v>
       </c>
-      <c r="AB10" s="18" t="n">
+      <c r="AB10" s="17" t="n">
         <v>6668117532.2948</v>
       </c>
       <c r="AC10" s="15" t="n">
@@ -7565,46 +7566,46 @@
       <c r="N11" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="18" t="n">
+      <c r="O11" s="17" t="n">
         <v>566868.625</v>
       </c>
-      <c r="P11" s="18" t="n">
+      <c r="P11" s="17" t="n">
         <v>2744757.5625</v>
       </c>
-      <c r="Q11" s="18" t="n">
+      <c r="Q11" s="17" t="n">
         <v>740760.72</v>
       </c>
-      <c r="R11" s="18" t="n">
+      <c r="R11" s="17" t="n">
         <v>1661330.44</v>
       </c>
-      <c r="S11" s="18" t="n">
+      <c r="S11" s="17" t="n">
         <v>688122.1</v>
       </c>
-      <c r="T11" s="18" t="n">
+      <c r="T11" s="17" t="n">
         <v>7466648.5097</v>
       </c>
-      <c r="U11" s="18" t="n">
+      <c r="U11" s="17" t="n">
         <v>15539948.7242</v>
       </c>
-      <c r="V11" s="18" t="n">
+      <c r="V11" s="17" t="n">
         <v>10103095.4844</v>
       </c>
-      <c r="W11" s="18" t="n">
+      <c r="W11" s="17" t="n">
         <v>50250051.3516</v>
       </c>
-      <c r="X11" s="18" t="n">
+      <c r="X11" s="17" t="n">
         <v>4606692.4265</v>
       </c>
-      <c r="Y11" s="18" t="n">
+      <c r="Y11" s="17" t="n">
         <v>18838219.6031</v>
       </c>
-      <c r="Z11" s="18" t="n">
+      <c r="Z11" s="17" t="n">
         <v>6404705</v>
       </c>
-      <c r="AA11" s="18" t="n">
+      <c r="AA11" s="17" t="n">
         <v>3009276.3125</v>
       </c>
-      <c r="AB11" s="18" t="n">
+      <c r="AB11" s="17" t="n">
         <v>2423410056.2773</v>
       </c>
       <c r="AC11" s="15" t="n">
@@ -7627,46 +7628,46 @@
       <c r="N12" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="18" t="n">
+      <c r="O12" s="17" t="n">
         <v>465110922.9134</v>
       </c>
-      <c r="P12" s="18" t="n">
+      <c r="P12" s="17" t="n">
         <v>326628729.6539</v>
       </c>
-      <c r="Q12" s="18" t="n">
+      <c r="Q12" s="17" t="n">
         <v>205092408.93</v>
       </c>
-      <c r="R12" s="18" t="n">
+      <c r="R12" s="17" t="n">
         <v>253019515.28</v>
       </c>
-      <c r="S12" s="18" t="n">
+      <c r="S12" s="17" t="n">
         <v>124594107.6519</v>
       </c>
-      <c r="T12" s="18" t="n">
+      <c r="T12" s="17" t="n">
         <v>187804273.1566</v>
       </c>
-      <c r="U12" s="18" t="n">
+      <c r="U12" s="17" t="n">
         <v>125983398.2189</v>
       </c>
-      <c r="V12" s="18" t="n">
+      <c r="V12" s="17" t="n">
         <v>141268312.7166</v>
       </c>
-      <c r="W12" s="18" t="n">
+      <c r="W12" s="17" t="n">
         <v>313186482.6124</v>
       </c>
-      <c r="X12" s="18" t="n">
+      <c r="X12" s="17" t="n">
         <v>328444010.3259</v>
       </c>
-      <c r="Y12" s="18" t="n">
+      <c r="Y12" s="17" t="n">
         <v>298326767.0599</v>
       </c>
-      <c r="Z12" s="18" t="n">
+      <c r="Z12" s="17" t="n">
         <v>340466689.9108</v>
       </c>
-      <c r="AA12" s="18" t="n">
+      <c r="AA12" s="17" t="n">
         <v>643485539.1533</v>
       </c>
-      <c r="AB12" s="18" t="n">
+      <c r="AB12" s="17" t="n">
         <v>4972475726.5488</v>
       </c>
       <c r="AC12" s="15" t="n">
@@ -7689,46 +7690,46 @@
       <c r="N13" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="18" t="n">
+      <c r="O13" s="17" t="n">
         <v>3129237146.0253</v>
       </c>
-      <c r="P13" s="18" t="n">
+      <c r="P13" s="17" t="n">
         <v>2341188503.9723</v>
       </c>
-      <c r="Q13" s="18" t="n">
+      <c r="Q13" s="17" t="n">
         <v>2173872599.4936</v>
       </c>
-      <c r="R13" s="18" t="n">
+      <c r="R13" s="17" t="n">
         <v>1301505898.753</v>
       </c>
-      <c r="S13" s="18" t="n">
+      <c r="S13" s="17" t="n">
         <v>1906728681.9117</v>
       </c>
-      <c r="T13" s="18" t="n">
+      <c r="T13" s="17" t="n">
         <v>1097699723.7379</v>
       </c>
-      <c r="U13" s="18" t="n">
+      <c r="U13" s="17" t="n">
         <v>1222055072.9644</v>
       </c>
-      <c r="V13" s="18" t="n">
+      <c r="V13" s="17" t="n">
         <v>1459271935.9586</v>
       </c>
-      <c r="W13" s="18" t="n">
+      <c r="W13" s="17" t="n">
         <v>1679311982.6552</v>
       </c>
-      <c r="X13" s="18" t="n">
+      <c r="X13" s="17" t="n">
         <v>1669119486.985</v>
       </c>
-      <c r="Y13" s="18" t="n">
+      <c r="Y13" s="17" t="n">
         <v>1590213362.9423</v>
       </c>
-      <c r="Z13" s="18" t="n">
+      <c r="Z13" s="17" t="n">
         <v>2027550576.5423</v>
       </c>
-      <c r="AA13" s="18" t="n">
+      <c r="AA13" s="17" t="n">
         <v>4477169390.5106</v>
       </c>
-      <c r="AB13" s="18" t="n">
+      <c r="AB13" s="17" t="n">
         <v>9756460100.1788</v>
       </c>
       <c r="AC13" s="15" t="n">
@@ -7751,46 +7752,46 @@
       <c r="N14" t="s">
         <v>43</v>
       </c>
-      <c r="O14" s="18" t="n">
+      <c r="O14" s="17" t="n">
         <v>51888821575.225</v>
       </c>
-      <c r="P14" s="18" t="n">
+      <c r="P14" s="17" t="n">
         <v>32603689771.8533</v>
       </c>
-      <c r="Q14" s="18" t="n">
+      <c r="Q14" s="17" t="n">
         <v>18624525552.7286</v>
       </c>
-      <c r="R14" s="18" t="n">
+      <c r="R14" s="17" t="n">
         <v>16068995341.1965</v>
       </c>
-      <c r="S14" s="18" t="n">
+      <c r="S14" s="17" t="n">
         <v>12779545694.5867</v>
       </c>
-      <c r="T14" s="18" t="n">
+      <c r="T14" s="17" t="n">
         <v>11073302129.1996</v>
       </c>
-      <c r="U14" s="18" t="n">
+      <c r="U14" s="17" t="n">
         <v>12383549493.0202</v>
       </c>
-      <c r="V14" s="18" t="n">
+      <c r="V14" s="17" t="n">
         <v>11717587215.061</v>
       </c>
-      <c r="W14" s="18" t="n">
+      <c r="W14" s="17" t="n">
         <v>10577083876.2989</v>
       </c>
-      <c r="X14" s="18" t="n">
+      <c r="X14" s="17" t="n">
         <v>12603360450.2236</v>
       </c>
-      <c r="Y14" s="18" t="n">
+      <c r="Y14" s="17" t="n">
         <v>12024794470.6126</v>
       </c>
-      <c r="Z14" s="18" t="n">
+      <c r="Z14" s="17" t="n">
         <v>11159041230.4726</v>
       </c>
-      <c r="AA14" s="18" t="n">
+      <c r="AA14" s="17" t="n">
         <v>25833604840.0789</v>
       </c>
-      <c r="AB14" s="18" t="n">
+      <c r="AB14" s="17" t="n">
         <v>1093354425.2363</v>
       </c>
       <c r="AC14" s="15" t="n">
@@ -7813,46 +7814,46 @@
       <c r="N15" t="s">
         <v>40</v>
       </c>
-      <c r="O15" s="18" t="n">
+      <c r="O15" s="17" t="n">
         <v>3896127951.6105</v>
       </c>
-      <c r="P15" s="18" t="n">
+      <c r="P15" s="17" t="n">
         <v>3937348672.9191</v>
       </c>
-      <c r="Q15" s="18" t="n">
+      <c r="Q15" s="17" t="n">
         <v>3210731356.1299</v>
       </c>
-      <c r="R15" s="18" t="n">
+      <c r="R15" s="17" t="n">
         <v>3590686087.5641</v>
       </c>
-      <c r="S15" s="18" t="n">
+      <c r="S15" s="17" t="n">
         <v>3249832070.0508</v>
       </c>
-      <c r="T15" s="18" t="n">
+      <c r="T15" s="17" t="n">
         <v>4204304430.8653</v>
       </c>
-      <c r="U15" s="18" t="n">
+      <c r="U15" s="17" t="n">
         <v>4997935832.7874</v>
       </c>
-      <c r="V15" s="18" t="n">
+      <c r="V15" s="17" t="n">
         <v>6189402426.5831</v>
       </c>
-      <c r="W15" s="18" t="n">
+      <c r="W15" s="17" t="n">
         <v>6493069677.0296</v>
       </c>
-      <c r="X15" s="18" t="n">
+      <c r="X15" s="17" t="n">
         <v>6496067863.2198</v>
       </c>
-      <c r="Y15" s="18" t="n">
+      <c r="Y15" s="17" t="n">
         <v>6982552971.4019</v>
       </c>
-      <c r="Z15" s="18" t="n">
+      <c r="Z15" s="17" t="n">
         <v>6862482873.9066</v>
       </c>
-      <c r="AA15" s="18" t="n">
+      <c r="AA15" s="17" t="n">
         <v>8814402353.8</v>
       </c>
-      <c r="AB15" s="18" t="n">
+      <c r="AB15" s="17" t="n">
         <v>1751420090.4863</v>
       </c>
       <c r="AC15" s="15" t="n">
@@ -7875,46 +7876,46 @@
       <c r="N16" t="s">
         <v>43</v>
       </c>
-      <c r="O16" s="18" t="n">
+      <c r="O16" s="17" t="n">
         <v>14924806667.1775</v>
       </c>
-      <c r="P16" s="18" t="n">
+      <c r="P16" s="17" t="n">
         <v>14121433442.5084</v>
       </c>
-      <c r="Q16" s="18" t="n">
+      <c r="Q16" s="17" t="n">
         <v>12296900084.3472</v>
       </c>
-      <c r="R16" s="18" t="n">
+      <c r="R16" s="17" t="n">
         <v>12506026375.4866</v>
       </c>
-      <c r="S16" s="18" t="n">
+      <c r="S16" s="17" t="n">
         <v>12358426373.7167</v>
       </c>
-      <c r="T16" s="18" t="n">
+      <c r="T16" s="17" t="n">
         <v>12568867321.0656</v>
       </c>
-      <c r="U16" s="18" t="n">
+      <c r="U16" s="17" t="n">
         <v>13033903711.0301</v>
       </c>
-      <c r="V16" s="18" t="n">
+      <c r="V16" s="17" t="n">
         <v>16297241164.2412</v>
       </c>
-      <c r="W16" s="18" t="n">
+      <c r="W16" s="17" t="n">
         <v>16411545919.0185</v>
       </c>
-      <c r="X16" s="18" t="n">
+      <c r="X16" s="17" t="n">
         <v>15953388795.9187</v>
       </c>
-      <c r="Y16" s="18" t="n">
+      <c r="Y16" s="17" t="n">
         <v>14292710488.8398</v>
       </c>
-      <c r="Z16" s="18" t="n">
+      <c r="Z16" s="17" t="n">
         <v>14983349579.5726</v>
       </c>
-      <c r="AA16" s="18" t="n">
+      <c r="AA16" s="17" t="n">
         <v>11139398950.3839</v>
       </c>
-      <c r="AB16" s="18" t="n">
+      <c r="AB16" s="17" t="n">
         <v>4583984512.0708</v>
       </c>
       <c r="AC16" s="15" t="n">
@@ -7937,46 +7938,46 @@
       <c r="N17" t="s">
         <v>40</v>
       </c>
-      <c r="O17" s="18" t="n">
+      <c r="O17" s="17" t="n">
         <v>922465548.9992</v>
       </c>
-      <c r="P17" s="18" t="n">
+      <c r="P17" s="17" t="n">
         <v>549700703.6313</v>
       </c>
-      <c r="Q17" s="18" t="n">
+      <c r="Q17" s="17" t="n">
         <v>364659592.3708</v>
       </c>
-      <c r="R17" s="18" t="n">
+      <c r="R17" s="17" t="n">
         <v>352289458.2254</v>
       </c>
-      <c r="S17" s="18" t="n">
+      <c r="S17" s="17" t="n">
         <v>348608488.1532</v>
       </c>
-      <c r="T17" s="18" t="n">
+      <c r="T17" s="17" t="n">
         <v>443966250.4258</v>
       </c>
-      <c r="U17" s="18" t="n">
+      <c r="U17" s="17" t="n">
         <v>233627398.4194</v>
       </c>
-      <c r="V17" s="18" t="n">
+      <c r="V17" s="17" t="n">
         <v>285689730.8393</v>
       </c>
-      <c r="W17" s="18" t="n">
+      <c r="W17" s="17" t="n">
         <v>424132939.4359</v>
       </c>
-      <c r="X17" s="18" t="n">
+      <c r="X17" s="17" t="n">
         <v>274457825.1727</v>
       </c>
-      <c r="Y17" s="18" t="n">
+      <c r="Y17" s="17" t="n">
         <v>233738346.652</v>
       </c>
-      <c r="Z17" s="18" t="n">
+      <c r="Z17" s="17" t="n">
         <v>254689686.9587</v>
       </c>
-      <c r="AA17" s="18" t="n">
+      <c r="AA17" s="17" t="n">
         <v>1589998587.9479</v>
       </c>
-      <c r="AB17" s="18" t="n">
+      <c r="AB17" s="17" t="n">
         <v>202940788822.312</v>
       </c>
       <c r="AC17" s="15" t="n">
@@ -7999,46 +8000,46 @@
       <c r="N18" t="s">
         <v>43</v>
       </c>
-      <c r="O18" s="18" t="n">
+      <c r="O18" s="17" t="n">
         <v>2415098066.7008</v>
       </c>
-      <c r="P18" s="18" t="n">
+      <c r="P18" s="17" t="n">
         <v>1884981201.3818</v>
       </c>
-      <c r="Q18" s="18" t="n">
+      <c r="Q18" s="17" t="n">
         <v>1116524442.8424</v>
       </c>
-      <c r="R18" s="18" t="n">
+      <c r="R18" s="17" t="n">
         <v>970390145.3863</v>
       </c>
-      <c r="S18" s="18" t="n">
+      <c r="S18" s="17" t="n">
         <v>688829745.6869</v>
       </c>
-      <c r="T18" s="18" t="n">
+      <c r="T18" s="17" t="n">
         <v>678087526.4504</v>
       </c>
-      <c r="U18" s="18" t="n">
+      <c r="U18" s="17" t="n">
         <v>753399556.0265</v>
       </c>
-      <c r="V18" s="18" t="n">
+      <c r="V18" s="17" t="n">
         <v>723658793.4366</v>
       </c>
-      <c r="W18" s="18" t="n">
+      <c r="W18" s="17" t="n">
         <v>888249480.0033</v>
       </c>
-      <c r="X18" s="18" t="n">
+      <c r="X18" s="17" t="n">
         <v>810717582.5063</v>
       </c>
-      <c r="Y18" s="18" t="n">
+      <c r="Y18" s="17" t="n">
         <v>416181790.5783</v>
       </c>
-      <c r="Z18" s="18" t="n">
+      <c r="Z18" s="17" t="n">
         <v>454227577.6369</v>
       </c>
-      <c r="AA18" s="18" t="n">
+      <c r="AA18" s="17" t="n">
         <v>1912728130.1274</v>
       </c>
-      <c r="AB18" s="18" t="n">
+      <c r="AB18" s="17" t="n">
         <v>6404705</v>
       </c>
       <c r="AC18" s="15" t="n">
@@ -8061,46 +8062,46 @@
       <c r="N19" t="s">
         <v>19</v>
       </c>
-      <c r="O19" s="18" t="str">
+      <c r="O19" s="17" t="str">
         <f>Sum(O2:O18)</f>
       </c>
-      <c r="P19" s="18" t="str">
+      <c r="P19" s="17" t="str">
         <f>Sum(P2:P18)</f>
       </c>
-      <c r="Q19" s="18" t="str">
+      <c r="Q19" s="17" t="str">
         <f>Sum(Q2:Q18)</f>
       </c>
-      <c r="R19" s="18" t="str">
+      <c r="R19" s="17" t="str">
         <f>Sum(R2:R18)</f>
       </c>
-      <c r="S19" s="18" t="str">
+      <c r="S19" s="17" t="str">
         <f>Sum(S2:S18)</f>
       </c>
-      <c r="T19" s="18" t="str">
+      <c r="T19" s="17" t="str">
         <f>Sum(T2:T18)</f>
       </c>
-      <c r="U19" s="18" t="str">
+      <c r="U19" s="17" t="str">
         <f>Sum(U2:U18)</f>
       </c>
-      <c r="V19" s="18" t="str">
+      <c r="V19" s="17" t="str">
         <f>Sum(V2:V18)</f>
       </c>
-      <c r="W19" s="18" t="str">
+      <c r="W19" s="17" t="str">
         <f>Sum(W2:W18)</f>
       </c>
-      <c r="X19" s="18" t="str">
+      <c r="X19" s="17" t="str">
         <f>Sum(X2:X18)</f>
       </c>
-      <c r="Y19" s="18" t="str">
+      <c r="Y19" s="17" t="str">
         <f>Sum(Y2:Y18)</f>
       </c>
-      <c r="Z19" s="18" t="str">
+      <c r="Z19" s="17" t="str">
         <f>Sum(Z2:Z18)</f>
       </c>
-      <c r="AA19" s="18" t="str">
+      <c r="AA19" s="17" t="str">
         <f>Sum(AA2:AA18)</f>
       </c>
-      <c r="AB19" s="18"/>
+      <c r="AB19" s="17"/>
       <c r="AC19" s="15" t="n">
         <v>608168.3125</v>
       </c>
@@ -8986,6 +8987,3042 @@
         <f>Sum(AB2:AB33)</f>
       </c>
       <c r="AC34" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="18" t="n">
+        <v>38447041496.0474</v>
+      </c>
+      <c r="P2" s="18" t="n">
+        <v>45570580486.9968</v>
+      </c>
+      <c r="Q2" s="18" t="n">
+        <v>46165963902.6168</v>
+      </c>
+      <c r="R2" s="18" t="n">
+        <v>41537501148.5759</v>
+      </c>
+      <c r="S2" s="18" t="n">
+        <v>43938597462.2748</v>
+      </c>
+      <c r="T2" s="18" t="n">
+        <v>50106126197.8422</v>
+      </c>
+      <c r="U2" s="18" t="n">
+        <v>35397922747.0838</v>
+      </c>
+      <c r="V2" s="18" t="n">
+        <v>34099766461.0553</v>
+      </c>
+      <c r="W2" s="18" t="n">
+        <v>28836179137.1624</v>
+      </c>
+      <c r="X2" s="18" t="n">
+        <v>26943753973.8753</v>
+      </c>
+      <c r="Y2" s="18" t="n">
+        <v>29402376196.4951</v>
+      </c>
+      <c r="Z2" s="18" t="n">
+        <v>34846694645.4198</v>
+      </c>
+      <c r="AA2" s="18" t="n">
+        <v>35234160267.8548</v>
+      </c>
+      <c r="AB2" s="18" t="n">
+        <v>35875249149.5389</v>
+      </c>
+      <c r="AC2" s="18" t="n">
+        <v>55773522318.0748</v>
+      </c>
+      <c r="AD2" s="18" t="n">
+        <v>53661870373.0278</v>
+      </c>
+      <c r="AE2" s="18" t="n">
+        <v>45884808636.1964</v>
+      </c>
+      <c r="AF2" s="18"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="18" t="n">
+        <v>26896737977.9036</v>
+      </c>
+      <c r="P3" s="18" t="n">
+        <v>31526329528.1691</v>
+      </c>
+      <c r="Q3" s="18" t="n">
+        <v>26715492349.98</v>
+      </c>
+      <c r="R3" s="18" t="n">
+        <v>27036850549.7589</v>
+      </c>
+      <c r="S3" s="18" t="n">
+        <v>25889342950.4028</v>
+      </c>
+      <c r="T3" s="18" t="n">
+        <v>22238033025.775</v>
+      </c>
+      <c r="U3" s="18" t="n">
+        <v>19706315508.1142</v>
+      </c>
+      <c r="V3" s="18" t="n">
+        <v>18086864585.7877</v>
+      </c>
+      <c r="W3" s="18" t="n">
+        <v>20086128681.8011</v>
+      </c>
+      <c r="X3" s="18" t="n">
+        <v>20035924070.5428</v>
+      </c>
+      <c r="Y3" s="18" t="n">
+        <v>22814951610.1898</v>
+      </c>
+      <c r="Z3" s="18" t="n">
+        <v>26654043472.5139</v>
+      </c>
+      <c r="AA3" s="18" t="n">
+        <v>29628990466.9556</v>
+      </c>
+      <c r="AB3" s="18" t="n">
+        <v>35623589217.7845</v>
+      </c>
+      <c r="AC3" s="18" t="n">
+        <v>44190164383.593</v>
+      </c>
+      <c r="AD3" s="18" t="n">
+        <v>52646236662.735</v>
+      </c>
+      <c r="AE3" s="18" t="n">
+        <v>38084619243.8335</v>
+      </c>
+      <c r="AF3" s="18"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="18" t="n">
+        <v>16299611529.4402</v>
+      </c>
+      <c r="P4" s="18" t="n">
+        <v>18533607721.57</v>
+      </c>
+      <c r="Q4" s="18" t="n">
+        <v>17421955396.158</v>
+      </c>
+      <c r="R4" s="18" t="n">
+        <v>17732346463.1347</v>
+      </c>
+      <c r="S4" s="18" t="n">
+        <v>15555619470.5361</v>
+      </c>
+      <c r="T4" s="18" t="n">
+        <v>15660202088.084</v>
+      </c>
+      <c r="U4" s="18" t="n">
+        <v>13062524552.0163</v>
+      </c>
+      <c r="V4" s="18" t="n">
+        <v>14562135384.7876</v>
+      </c>
+      <c r="W4" s="18" t="n">
+        <v>13555671864.5136</v>
+      </c>
+      <c r="X4" s="18" t="n">
+        <v>15335740858.4072</v>
+      </c>
+      <c r="Y4" s="18" t="n">
+        <v>17417330811.567</v>
+      </c>
+      <c r="Z4" s="18" t="n">
+        <v>13018391947.8351</v>
+      </c>
+      <c r="AA4" s="18" t="n">
+        <v>16058506157.5635</v>
+      </c>
+      <c r="AB4" s="18" t="n">
+        <v>16983812751.466</v>
+      </c>
+      <c r="AC4" s="18" t="n">
+        <v>15392715907.7826</v>
+      </c>
+      <c r="AD4" s="18" t="n">
+        <v>17357519164.9326</v>
+      </c>
+      <c r="AE4" s="18" t="n">
+        <v>19305043010.3455</v>
+      </c>
+      <c r="AF4" s="18"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="18" t="n">
+        <v>15775971405.3365</v>
+      </c>
+      <c r="P5" s="18" t="n">
+        <v>21573904928.1293</v>
+      </c>
+      <c r="Q5" s="18" t="n">
+        <v>8515528322.1213</v>
+      </c>
+      <c r="R5" s="18" t="n">
+        <v>23218736231.0403</v>
+      </c>
+      <c r="S5" s="18" t="n">
+        <v>29840305852.0759</v>
+      </c>
+      <c r="T5" s="18" t="n">
+        <v>29154766367.2699</v>
+      </c>
+      <c r="U5" s="18" t="n">
+        <v>23848922503.7213</v>
+      </c>
+      <c r="V5" s="18" t="n">
+        <v>23312871405.0338</v>
+      </c>
+      <c r="W5" s="18" t="n">
+        <v>20110137932.4912</v>
+      </c>
+      <c r="X5" s="18" t="n">
+        <v>20553258966.6612</v>
+      </c>
+      <c r="Y5" s="18" t="n">
+        <v>19561367303.1077</v>
+      </c>
+      <c r="Z5" s="18" t="n">
+        <v>20027502900.2048</v>
+      </c>
+      <c r="AA5" s="18" t="n">
+        <v>21653589815.0077</v>
+      </c>
+      <c r="AB5" s="18" t="n">
+        <v>24775351548.629</v>
+      </c>
+      <c r="AC5" s="18" t="n">
+        <v>19105074974.2403</v>
+      </c>
+      <c r="AD5" s="18" t="n">
+        <v>20907470893.2671</v>
+      </c>
+      <c r="AE5" s="18" t="n">
+        <v>21344984676.5069</v>
+      </c>
+      <c r="AF5" s="18"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="18" t="n">
+        <v>9135789280.3601</v>
+      </c>
+      <c r="P6" s="18" t="n">
+        <v>9522552743.8318</v>
+      </c>
+      <c r="Q6" s="18" t="n">
+        <v>8314339106.1594</v>
+      </c>
+      <c r="R6" s="18" t="n">
+        <v>7186597081.2132</v>
+      </c>
+      <c r="S6" s="18" t="n">
+        <v>6353771251.2537</v>
+      </c>
+      <c r="T6" s="18" t="n">
+        <v>6111328004.128</v>
+      </c>
+      <c r="U6" s="18" t="n">
+        <v>5455349072.084</v>
+      </c>
+      <c r="V6" s="18" t="n">
+        <v>6949444392.8565</v>
+      </c>
+      <c r="W6" s="18" t="n">
+        <v>7430603602.7701</v>
+      </c>
+      <c r="X6" s="18" t="n">
+        <v>7501739039.1847</v>
+      </c>
+      <c r="Y6" s="18" t="n">
+        <v>6783627804.7729</v>
+      </c>
+      <c r="Z6" s="18" t="n">
+        <v>12719225400.0599</v>
+      </c>
+      <c r="AA6" s="18" t="n">
+        <v>12948873321.4011</v>
+      </c>
+      <c r="AB6" s="18" t="n">
+        <v>11911643224.6253</v>
+      </c>
+      <c r="AC6" s="18" t="n">
+        <v>11324297688.5867</v>
+      </c>
+      <c r="AD6" s="18" t="n">
+        <v>12027087894.0659</v>
+      </c>
+      <c r="AE6" s="18" t="n">
+        <v>12723722281.9879</v>
+      </c>
+      <c r="AF6" s="18"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="18" t="n">
+        <v>11739616747.5457</v>
+      </c>
+      <c r="P7" s="18" t="n">
+        <v>11254176927.7347</v>
+      </c>
+      <c r="Q7" s="18" t="n">
+        <v>11538670944.4646</v>
+      </c>
+      <c r="R7" s="18" t="n">
+        <v>10859267828.0744</v>
+      </c>
+      <c r="S7" s="18" t="n">
+        <v>14373844897.8047</v>
+      </c>
+      <c r="T7" s="18" t="n">
+        <v>13206561065.8076</v>
+      </c>
+      <c r="U7" s="18" t="n">
+        <v>10802080997.6787</v>
+      </c>
+      <c r="V7" s="18" t="n">
+        <v>11076872960.9722</v>
+      </c>
+      <c r="W7" s="18" t="n">
+        <v>10900773054.4309</v>
+      </c>
+      <c r="X7" s="18" t="n">
+        <v>10123617101.8184</v>
+      </c>
+      <c r="Y7" s="18" t="n">
+        <v>11241962025.9267</v>
+      </c>
+      <c r="Z7" s="18" t="n">
+        <v>13823686787.1314</v>
+      </c>
+      <c r="AA7" s="18" t="n">
+        <v>13826616163.1342</v>
+      </c>
+      <c r="AB7" s="18" t="n">
+        <v>13209947102.2783</v>
+      </c>
+      <c r="AC7" s="18" t="n">
+        <v>11141661764.5212</v>
+      </c>
+      <c r="AD7" s="18" t="n">
+        <v>11793409233.3338</v>
+      </c>
+      <c r="AE7" s="18" t="n">
+        <v>8499159403.4485</v>
+      </c>
+      <c r="AF7" s="18"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="18" t="n">
+        <v>374232.125</v>
+      </c>
+      <c r="P8" s="18" t="n">
+        <v>10010929.3706</v>
+      </c>
+      <c r="Q8" s="18" t="n">
+        <v>16756903.2031</v>
+      </c>
+      <c r="R8" s="18" t="n">
+        <v>347910181.3778</v>
+      </c>
+      <c r="S8" s="18" t="n">
+        <v>631989460.7783</v>
+      </c>
+      <c r="T8" s="18" t="n">
+        <v>730784460.4217</v>
+      </c>
+      <c r="U8" s="18" t="n">
+        <v>583582108.4095</v>
+      </c>
+      <c r="V8" s="18" t="n">
+        <v>431813065.252</v>
+      </c>
+      <c r="W8" s="18" t="n">
+        <v>479057229.6744</v>
+      </c>
+      <c r="X8" s="18" t="n">
+        <v>754133470.2281</v>
+      </c>
+      <c r="Y8" s="18" t="n">
+        <v>1212870362.8558</v>
+      </c>
+      <c r="Z8" s="18" t="n">
+        <v>2174381343.2315</v>
+      </c>
+      <c r="AA8" s="18" t="n">
+        <v>1789233579.0072</v>
+      </c>
+      <c r="AB8" s="18" t="n">
+        <v>1655131561.9466</v>
+      </c>
+      <c r="AC8" s="18" t="n">
+        <v>1788618124.0356</v>
+      </c>
+      <c r="AD8" s="18" t="n">
+        <v>3460701067.8914</v>
+      </c>
+      <c r="AE8" s="18" t="n">
+        <v>1942123630.1997</v>
+      </c>
+      <c r="AF8" s="18"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="18" t="n">
+        <v>127174783.5722</v>
+      </c>
+      <c r="P9" s="18" t="n">
+        <v>54479568.8939</v>
+      </c>
+      <c r="Q9" s="18" t="n">
+        <v>391366344.5801</v>
+      </c>
+      <c r="R9" s="18" t="n">
+        <v>10479214146.3606</v>
+      </c>
+      <c r="S9" s="18" t="n">
+        <v>42891078006.4274</v>
+      </c>
+      <c r="T9" s="18" t="n">
+        <v>55916245614.7845</v>
+      </c>
+      <c r="U9" s="18" t="n">
+        <v>47353316662.8298</v>
+      </c>
+      <c r="V9" s="18" t="n">
+        <v>44606935375.0183</v>
+      </c>
+      <c r="W9" s="18" t="n">
+        <v>44673219755.351</v>
+      </c>
+      <c r="X9" s="18" t="n">
+        <v>51673073465.2889</v>
+      </c>
+      <c r="Y9" s="18" t="n">
+        <v>59166462252.3838</v>
+      </c>
+      <c r="Z9" s="18" t="n">
+        <v>77026872601.0672</v>
+      </c>
+      <c r="AA9" s="18" t="n">
+        <v>81941621433.2727</v>
+      </c>
+      <c r="AB9" s="18" t="n">
+        <v>88618976870.7865</v>
+      </c>
+      <c r="AC9" s="18" t="n">
+        <v>85796546316.5326</v>
+      </c>
+      <c r="AD9" s="18" t="n">
+        <v>87347814520.8399</v>
+      </c>
+      <c r="AE9" s="18" t="n">
+        <v>59389185605.2414</v>
+      </c>
+      <c r="AF9" s="18"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="18" t="n">
+        <v>78463417796.7355</v>
+      </c>
+      <c r="P10" s="18" t="n">
+        <v>88780237303.9053</v>
+      </c>
+      <c r="Q10" s="18" t="n">
+        <v>105251059912.334</v>
+      </c>
+      <c r="R10" s="18" t="n">
+        <v>130120398442.109</v>
+      </c>
+      <c r="S10" s="18" t="n">
+        <v>117265672000.507</v>
+      </c>
+      <c r="T10" s="18" t="n">
+        <v>114684159598.629</v>
+      </c>
+      <c r="U10" s="18" t="n">
+        <v>115092313841.753</v>
+      </c>
+      <c r="V10" s="18" t="n">
+        <v>96339079586.2505</v>
+      </c>
+      <c r="W10" s="18" t="n">
+        <v>96692994812.3194</v>
+      </c>
+      <c r="X10" s="18" t="n">
+        <v>115400111619.82</v>
+      </c>
+      <c r="Y10" s="18" t="n">
+        <v>121585389860.149</v>
+      </c>
+      <c r="Z10" s="18" t="n">
+        <v>121695096501.822</v>
+      </c>
+      <c r="AA10" s="18" t="n">
+        <v>133999767682.578</v>
+      </c>
+      <c r="AB10" s="18" t="n">
+        <v>155871330399.17</v>
+      </c>
+      <c r="AC10" s="18" t="n">
+        <v>107353167337.779</v>
+      </c>
+      <c r="AD10" s="18" t="n">
+        <v>119312855677.303</v>
+      </c>
+      <c r="AE10" s="18" t="n">
+        <v>194731326724.396</v>
+      </c>
+      <c r="AF10" s="18"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="18" t="n">
+        <v>3480708</v>
+      </c>
+      <c r="P11" s="18" t="n">
+        <v>7309532</v>
+      </c>
+      <c r="Q11" s="18" t="n">
+        <v>4777682.7812</v>
+      </c>
+      <c r="R11" s="18" t="n">
+        <v>-389371.9688</v>
+      </c>
+      <c r="S11" s="18" t="n">
+        <v>566868.625</v>
+      </c>
+      <c r="T11" s="18" t="n">
+        <v>2744757.5625</v>
+      </c>
+      <c r="U11" s="18" t="n">
+        <v>740760.72</v>
+      </c>
+      <c r="V11" s="18" t="n">
+        <v>1661330.44</v>
+      </c>
+      <c r="W11" s="18" t="n">
+        <v>688122.1</v>
+      </c>
+      <c r="X11" s="18" t="n">
+        <v>7466648.5097</v>
+      </c>
+      <c r="Y11" s="18" t="n">
+        <v>15539948.7242</v>
+      </c>
+      <c r="Z11" s="18" t="n">
+        <v>10103095.4844</v>
+      </c>
+      <c r="AA11" s="18" t="n">
+        <v>50250051.3516</v>
+      </c>
+      <c r="AB11" s="18" t="n">
+        <v>4606692.4265</v>
+      </c>
+      <c r="AC11" s="18" t="n">
+        <v>18838219.6031</v>
+      </c>
+      <c r="AD11" s="18" t="n">
+        <v>6404705</v>
+      </c>
+      <c r="AE11" s="18" t="n">
+        <v>3009276.3125</v>
+      </c>
+      <c r="AF11" s="18"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
+      <c r="M12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="18" t="n">
+        <v>91464160.72</v>
+      </c>
+      <c r="P12" s="18" t="n">
+        <v>271822116.5216</v>
+      </c>
+      <c r="Q12" s="18" t="n">
+        <v>119963396.6512</v>
+      </c>
+      <c r="R12" s="18" t="n">
+        <v>2242431224.5039</v>
+      </c>
+      <c r="S12" s="18" t="n">
+        <v>465110922.9134</v>
+      </c>
+      <c r="T12" s="18" t="n">
+        <v>326628729.6539</v>
+      </c>
+      <c r="U12" s="18" t="n">
+        <v>205092408.93</v>
+      </c>
+      <c r="V12" s="18" t="n">
+        <v>253019515.28</v>
+      </c>
+      <c r="W12" s="18" t="n">
+        <v>124594107.6519</v>
+      </c>
+      <c r="X12" s="18" t="n">
+        <v>187804273.1566</v>
+      </c>
+      <c r="Y12" s="18" t="n">
+        <v>125983398.2189</v>
+      </c>
+      <c r="Z12" s="18" t="n">
+        <v>141268312.7166</v>
+      </c>
+      <c r="AA12" s="18" t="n">
+        <v>313186482.6124</v>
+      </c>
+      <c r="AB12" s="18" t="n">
+        <v>328444010.3259</v>
+      </c>
+      <c r="AC12" s="18" t="n">
+        <v>298326767.0599</v>
+      </c>
+      <c r="AD12" s="18" t="n">
+        <v>340466689.9108</v>
+      </c>
+      <c r="AE12" s="18" t="n">
+        <v>643485539.1533</v>
+      </c>
+      <c r="AF12" s="18"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="M13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="18" t="n">
+        <v>11612991054.1444</v>
+      </c>
+      <c r="P13" s="18" t="n">
+        <v>10001892953.1492</v>
+      </c>
+      <c r="Q13" s="18" t="n">
+        <v>6838390454.4904</v>
+      </c>
+      <c r="R13" s="18" t="n">
+        <v>4740528625.6843</v>
+      </c>
+      <c r="S13" s="18" t="n">
+        <v>3129237146.0253</v>
+      </c>
+      <c r="T13" s="18" t="n">
+        <v>2341188503.9723</v>
+      </c>
+      <c r="U13" s="18" t="n">
+        <v>2173872599.4936</v>
+      </c>
+      <c r="V13" s="18" t="n">
+        <v>1301505898.753</v>
+      </c>
+      <c r="W13" s="18" t="n">
+        <v>1906728681.9117</v>
+      </c>
+      <c r="X13" s="18" t="n">
+        <v>1097699723.7379</v>
+      </c>
+      <c r="Y13" s="18" t="n">
+        <v>1222055072.9644</v>
+      </c>
+      <c r="Z13" s="18" t="n">
+        <v>1459271935.9586</v>
+      </c>
+      <c r="AA13" s="18" t="n">
+        <v>1679311982.6552</v>
+      </c>
+      <c r="AB13" s="18" t="n">
+        <v>1669119486.985</v>
+      </c>
+      <c r="AC13" s="18" t="n">
+        <v>1590213362.9423</v>
+      </c>
+      <c r="AD13" s="18" t="n">
+        <v>2027550576.5423</v>
+      </c>
+      <c r="AE13" s="18" t="n">
+        <v>4477169390.5106</v>
+      </c>
+      <c r="AF13" s="18"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="M14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="18" t="n">
+        <v>103936958078.786</v>
+      </c>
+      <c r="P14" s="18" t="n">
+        <v>118543644893.155</v>
+      </c>
+      <c r="Q14" s="18" t="n">
+        <v>111507540379.235</v>
+      </c>
+      <c r="R14" s="18" t="n">
+        <v>72829799688.0759</v>
+      </c>
+      <c r="S14" s="18" t="n">
+        <v>51888821575.225</v>
+      </c>
+      <c r="T14" s="18" t="n">
+        <v>32603689771.8533</v>
+      </c>
+      <c r="U14" s="18" t="n">
+        <v>18624525552.7286</v>
+      </c>
+      <c r="V14" s="18" t="n">
+        <v>16068995341.1965</v>
+      </c>
+      <c r="W14" s="18" t="n">
+        <v>12779545694.5867</v>
+      </c>
+      <c r="X14" s="18" t="n">
+        <v>11073302129.1996</v>
+      </c>
+      <c r="Y14" s="18" t="n">
+        <v>12383549493.0202</v>
+      </c>
+      <c r="Z14" s="18" t="n">
+        <v>11717587215.061</v>
+      </c>
+      <c r="AA14" s="18" t="n">
+        <v>10577083876.2989</v>
+      </c>
+      <c r="AB14" s="18" t="n">
+        <v>12603360450.2236</v>
+      </c>
+      <c r="AC14" s="18" t="n">
+        <v>12024794470.6126</v>
+      </c>
+      <c r="AD14" s="18" t="n">
+        <v>11159041230.4726</v>
+      </c>
+      <c r="AE14" s="18" t="n">
+        <v>25833604840.0789</v>
+      </c>
+      <c r="AF14" s="18"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="M15" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="18" t="n">
+        <v>7126968730.2023</v>
+      </c>
+      <c r="P15" s="18" t="n">
+        <v>6851707004.3725</v>
+      </c>
+      <c r="Q15" s="18" t="n">
+        <v>6002947849.4749</v>
+      </c>
+      <c r="R15" s="18" t="n">
+        <v>4904616141.9226</v>
+      </c>
+      <c r="S15" s="18" t="n">
+        <v>3896127951.6105</v>
+      </c>
+      <c r="T15" s="18" t="n">
+        <v>3937348672.9191</v>
+      </c>
+      <c r="U15" s="18" t="n">
+        <v>3210731356.1299</v>
+      </c>
+      <c r="V15" s="18" t="n">
+        <v>3590686087.5641</v>
+      </c>
+      <c r="W15" s="18" t="n">
+        <v>3249832070.0508</v>
+      </c>
+      <c r="X15" s="18" t="n">
+        <v>4204304430.8653</v>
+      </c>
+      <c r="Y15" s="18" t="n">
+        <v>4997935832.7874</v>
+      </c>
+      <c r="Z15" s="18" t="n">
+        <v>6189402426.5831</v>
+      </c>
+      <c r="AA15" s="18" t="n">
+        <v>6493069677.0296</v>
+      </c>
+      <c r="AB15" s="18" t="n">
+        <v>6496067863.2198</v>
+      </c>
+      <c r="AC15" s="18" t="n">
+        <v>6982552971.4019</v>
+      </c>
+      <c r="AD15" s="18" t="n">
+        <v>6862482873.9066</v>
+      </c>
+      <c r="AE15" s="18" t="n">
+        <v>8814402353.8</v>
+      </c>
+      <c r="AF15" s="18"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="M16" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16" s="18" t="n">
+        <v>13182232488.2912</v>
+      </c>
+      <c r="P16" s="18" t="n">
+        <v>13074641557.822</v>
+      </c>
+      <c r="Q16" s="18" t="n">
+        <v>13956177530.8165</v>
+      </c>
+      <c r="R16" s="18" t="n">
+        <v>11048267730.6147</v>
+      </c>
+      <c r="S16" s="18" t="n">
+        <v>14924806667.1775</v>
+      </c>
+      <c r="T16" s="18" t="n">
+        <v>14121433442.5084</v>
+      </c>
+      <c r="U16" s="18" t="n">
+        <v>12296900084.3472</v>
+      </c>
+      <c r="V16" s="18" t="n">
+        <v>12506026375.4866</v>
+      </c>
+      <c r="W16" s="18" t="n">
+        <v>12358426373.7167</v>
+      </c>
+      <c r="X16" s="18" t="n">
+        <v>12568867321.0656</v>
+      </c>
+      <c r="Y16" s="18" t="n">
+        <v>13033903711.0301</v>
+      </c>
+      <c r="Z16" s="18" t="n">
+        <v>16297241164.2412</v>
+      </c>
+      <c r="AA16" s="18" t="n">
+        <v>16411545919.0185</v>
+      </c>
+      <c r="AB16" s="18" t="n">
+        <v>15953388795.9187</v>
+      </c>
+      <c r="AC16" s="18" t="n">
+        <v>14292710488.8398</v>
+      </c>
+      <c r="AD16" s="18" t="n">
+        <v>14983349579.5726</v>
+      </c>
+      <c r="AE16" s="18" t="n">
+        <v>11139398950.3839</v>
+      </c>
+      <c r="AF16" s="18"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <f>M17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>N17</f>
+      </c>
+      <c r="M17" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" s="18" t="n">
+        <v>80590302.4495</v>
+      </c>
+      <c r="P17" s="18" t="n">
+        <v>1612701038.6749</v>
+      </c>
+      <c r="Q17" s="18" t="n">
+        <v>1501943419.0369</v>
+      </c>
+      <c r="R17" s="18" t="n">
+        <v>1302640884.6994</v>
+      </c>
+      <c r="S17" s="18" t="n">
+        <v>922465548.9992</v>
+      </c>
+      <c r="T17" s="18" t="n">
+        <v>549700703.6313</v>
+      </c>
+      <c r="U17" s="18" t="n">
+        <v>364659592.3708</v>
+      </c>
+      <c r="V17" s="18" t="n">
+        <v>352289458.2254</v>
+      </c>
+      <c r="W17" s="18" t="n">
+        <v>348608488.1532</v>
+      </c>
+      <c r="X17" s="18" t="n">
+        <v>443966250.4258</v>
+      </c>
+      <c r="Y17" s="18" t="n">
+        <v>233627398.4194</v>
+      </c>
+      <c r="Z17" s="18" t="n">
+        <v>285689730.8393</v>
+      </c>
+      <c r="AA17" s="18" t="n">
+        <v>424132939.4359</v>
+      </c>
+      <c r="AB17" s="18" t="n">
+        <v>274457825.1727</v>
+      </c>
+      <c r="AC17" s="18" t="n">
+        <v>233738346.652</v>
+      </c>
+      <c r="AD17" s="18" t="n">
+        <v>254689686.9587</v>
+      </c>
+      <c r="AE17" s="18" t="n">
+        <v>1589998587.9479</v>
+      </c>
+      <c r="AF17" s="18"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <f>M18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="M18" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O18" s="18" t="n">
+        <v>803607590.5797</v>
+      </c>
+      <c r="P18" s="18" t="n">
+        <v>6604036628.6697</v>
+      </c>
+      <c r="Q18" s="18" t="n">
+        <v>9214304794.5268</v>
+      </c>
+      <c r="R18" s="18" t="n">
+        <v>3079227327.2041</v>
+      </c>
+      <c r="S18" s="18" t="n">
+        <v>2415098066.7008</v>
+      </c>
+      <c r="T18" s="18" t="n">
+        <v>1884981201.3818</v>
+      </c>
+      <c r="U18" s="18" t="n">
+        <v>1116524442.8424</v>
+      </c>
+      <c r="V18" s="18" t="n">
+        <v>970390145.3863</v>
+      </c>
+      <c r="W18" s="18" t="n">
+        <v>688829745.6869</v>
+      </c>
+      <c r="X18" s="18" t="n">
+        <v>678087526.4504</v>
+      </c>
+      <c r="Y18" s="18" t="n">
+        <v>753399556.0265</v>
+      </c>
+      <c r="Z18" s="18" t="n">
+        <v>723658793.4366</v>
+      </c>
+      <c r="AA18" s="18" t="n">
+        <v>888249480.0033</v>
+      </c>
+      <c r="AB18" s="18" t="n">
+        <v>810717582.5063</v>
+      </c>
+      <c r="AC18" s="18" t="n">
+        <v>416181790.5783</v>
+      </c>
+      <c r="AD18" s="18" t="n">
+        <v>454227577.6369</v>
+      </c>
+      <c r="AE18" s="18" t="n">
+        <v>1912728130.1274</v>
+      </c>
+      <c r="AF18" s="18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <f>M19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>N19</f>
+      </c>
+      <c r="M19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="18" t="str">
+        <f>Sum(O2:O18)</f>
+      </c>
+      <c r="P19" s="18" t="str">
+        <f>Sum(P2:P18)</f>
+      </c>
+      <c r="Q19" s="18" t="str">
+        <f>Sum(Q2:Q18)</f>
+      </c>
+      <c r="R19" s="18" t="str">
+        <f>Sum(R2:R18)</f>
+      </c>
+      <c r="S19" s="18" t="str">
+        <f>Sum(S2:S18)</f>
+      </c>
+      <c r="T19" s="18" t="str">
+        <f>Sum(T2:T18)</f>
+      </c>
+      <c r="U19" s="18" t="str">
+        <f>Sum(U2:U18)</f>
+      </c>
+      <c r="V19" s="18" t="str">
+        <f>Sum(V2:V18)</f>
+      </c>
+      <c r="W19" s="18" t="str">
+        <f>Sum(W2:W18)</f>
+      </c>
+      <c r="X19" s="18" t="str">
+        <f>Sum(X2:X18)</f>
+      </c>
+      <c r="Y19" s="18" t="str">
+        <f>Sum(Y2:Y18)</f>
+      </c>
+      <c r="Z19" s="18" t="str">
+        <f>Sum(Z2:Z18)</f>
+      </c>
+      <c r="AA19" s="18" t="str">
+        <f>Sum(AA2:AA18)</f>
+      </c>
+      <c r="AB19" s="18" t="str">
+        <f>Sum(AB2:AB18)</f>
+      </c>
+      <c r="AC19" s="18" t="str">
+        <f>Sum(AC2:AC18)</f>
+      </c>
+      <c r="AD19" s="18" t="str">
+        <f>Sum(AD2:AD18)</f>
+      </c>
+      <c r="AE19" s="18" t="str">
+        <f>Sum(AE2:AE18)</f>
+      </c>
+      <c r="AF19" s="18"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>M22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="C22" t="str">
+        <f>AB22</f>
+      </c>
+      <c r="D22" t="str">
+        <f>AD22</f>
+      </c>
+      <c r="E22" t="str">
+        <f>AE22</f>
+      </c>
+      <c r="F22" t="str">
+        <f>AF22</f>
+      </c>
+      <c r="G22" t="str">
+        <f>AD22&amp;"-"&amp;AE22</f>
+      </c>
+      <c r="H22" t="str">
+        <f>AB22&amp;"-"&amp;AE22</f>
+      </c>
+      <c r="I22" t="str">
+        <f>AF22&amp;"/"&amp;AE22</f>
+      </c>
+      <c r="J22" t="str">
+        <f>"Share "&amp;AE22</f>
+      </c>
+      <c r="K22" t="str">
+        <f>"Share "&amp;AF22</f>
+      </c>
+      <c r="M22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>33</v>
+      </c>
+      <c r="R22" t="s">
+        <v>34</v>
+      </c>
+      <c r="S22" t="s">
+        <v>35</v>
+      </c>
+      <c r="T22" t="s">
+        <v>36</v>
+      </c>
+      <c r="U22" t="s">
+        <v>37</v>
+      </c>
+      <c r="V22" t="s">
+        <v>2</v>
+      </c>
+      <c r="W22" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <f>M23</f>
+      </c>
+      <c r="B23" t="str">
+        <f>N23</f>
+      </c>
+      <c r="C23" s="18" t="str">
+        <f>AB23</f>
+      </c>
+      <c r="D23" s="18" t="str">
+        <f>AD23</f>
+      </c>
+      <c r="E23" s="18" t="str">
+        <f>AE23</f>
+      </c>
+      <c r="F23" s="18" t="str">
+        <f>AF23</f>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f>AE23/AD23-1</f>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f>AE23/AB23-1</f>
+      </c>
+      <c r="I23" s="3" t="str">
+        <f>AF23/AE23</f>
+      </c>
+      <c r="J23" s="3" t="str">
+        <f>AE23/Sum(AE$22:AE$39)</f>
+      </c>
+      <c r="K23" s="3" t="str">
+        <f>AF23/Sum(AF22:AF$39)</f>
+      </c>
+      <c r="M23" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O23" s="18" t="n">
+        <v>54433198289.7936</v>
+      </c>
+      <c r="P23" s="18" t="n">
+        <v>63206462422.4098</v>
+      </c>
+      <c r="Q23" s="18" t="n">
+        <v>63384087395.8274</v>
+      </c>
+      <c r="R23" s="18" t="n">
+        <v>56539727512.8033</v>
+      </c>
+      <c r="S23" s="18" t="n">
+        <v>58631226450.0673</v>
+      </c>
+      <c r="T23" s="18" t="n">
+        <v>65669474203.5038</v>
+      </c>
+      <c r="U23" s="18" t="n">
+        <v>45566006836.0098</v>
+      </c>
+      <c r="V23" s="18" t="n">
+        <v>43108517936.8348</v>
+      </c>
+      <c r="W23" s="18" t="n">
+        <v>36080692775.8811</v>
+      </c>
+      <c r="X23" s="18" t="n">
+        <v>33445434706.098</v>
+      </c>
+      <c r="Y23" s="18" t="n">
+        <v>35891480629.9563</v>
+      </c>
+      <c r="Z23" s="18" t="n">
+        <v>41613539560.8972</v>
+      </c>
+      <c r="AA23" s="18" t="n">
+        <v>41312399823.8862</v>
+      </c>
+      <c r="AB23" s="18" t="n">
+        <v>41521680696.2626</v>
+      </c>
+      <c r="AC23" s="18" t="n">
+        <v>62403976804.3759</v>
+      </c>
+      <c r="AD23" s="18" t="n">
+        <v>56116718208.8265</v>
+      </c>
+      <c r="AE23" s="18" t="n">
+        <v>45884808636.1964</v>
+      </c>
+      <c r="AF23" s="18"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <f>M24</f>
+      </c>
+      <c r="B24" t="str">
+        <f>N24</f>
+      </c>
+      <c r="C24" s="18" t="str">
+        <f>AB24</f>
+      </c>
+      <c r="D24" s="18" t="str">
+        <f>AD24</f>
+      </c>
+      <c r="E24" s="18" t="str">
+        <f>AE24</f>
+      </c>
+      <c r="F24" s="18" t="str">
+        <f>AF24</f>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f>AE24/AD24-1</f>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f>AE24/AB24-1</f>
+      </c>
+      <c r="I24" s="3" t="str">
+        <f>AF24/AE24</f>
+      </c>
+      <c r="J24" s="3" t="str">
+        <f>AE24/Sum(AE$22:AE$39)</f>
+      </c>
+      <c r="K24" s="3" t="str">
+        <f>AF24/Sum(AF22:AF$39)</f>
+      </c>
+      <c r="M24" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" t="s">
+        <v>43</v>
+      </c>
+      <c r="O24" s="18" t="n">
+        <v>38080315538.7227</v>
+      </c>
+      <c r="P24" s="18" t="n">
+        <v>43727065605.568</v>
+      </c>
+      <c r="Q24" s="18" t="n">
+        <v>36679340336.2192</v>
+      </c>
+      <c r="R24" s="18" t="n">
+        <v>36801832575.8184</v>
+      </c>
+      <c r="S24" s="18" t="n">
+        <v>34546481154.1104</v>
+      </c>
+      <c r="T24" s="18" t="n">
+        <v>29145337046.3448</v>
+      </c>
+      <c r="U24" s="18" t="n">
+        <v>25366971773.2031</v>
+      </c>
+      <c r="V24" s="18" t="n">
+        <v>22865198426.1537</v>
+      </c>
+      <c r="W24" s="18" t="n">
+        <v>25132367037.1745</v>
+      </c>
+      <c r="X24" s="18" t="n">
+        <v>24870706247.0736</v>
+      </c>
+      <c r="Y24" s="18" t="n">
+        <v>27850211435.9087</v>
+      </c>
+      <c r="Z24" s="18" t="n">
+        <v>31829965619.0525</v>
+      </c>
+      <c r="AA24" s="18" t="n">
+        <v>34740283044.7393</v>
+      </c>
+      <c r="AB24" s="18" t="n">
+        <v>41230411824.8802</v>
+      </c>
+      <c r="AC24" s="18" t="n">
+        <v>49443568893.6507</v>
+      </c>
+      <c r="AD24" s="18" t="n">
+        <v>55054622714.8063</v>
+      </c>
+      <c r="AE24" s="18" t="n">
+        <v>38084619243.8335</v>
+      </c>
+      <c r="AF24" s="18"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <f>M25</f>
+      </c>
+      <c r="B25" t="str">
+        <f>N25</f>
+      </c>
+      <c r="C25" s="18" t="str">
+        <f>AB25</f>
+      </c>
+      <c r="D25" s="18" t="str">
+        <f>AD25</f>
+      </c>
+      <c r="E25" s="18" t="str">
+        <f>AE25</f>
+      </c>
+      <c r="F25" s="18" t="str">
+        <f>AF25</f>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f>AE25/AD25-1</f>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f>AE25/AB25-1</f>
+      </c>
+      <c r="I25" s="3" t="str">
+        <f>AF25/AE25</f>
+      </c>
+      <c r="J25" s="3" t="str">
+        <f>AE25/Sum(AE$22:AE$39)</f>
+      </c>
+      <c r="K25" s="3" t="str">
+        <f>AF25/Sum(AF22:AF$39)</f>
+      </c>
+      <c r="M25" t="s">
+        <v>49</v>
+      </c>
+      <c r="N25" t="s">
+        <v>40</v>
+      </c>
+      <c r="O25" s="18" t="n">
+        <v>23076937832.0004</v>
+      </c>
+      <c r="P25" s="18" t="n">
+        <v>25706141275.4959</v>
+      </c>
+      <c r="Q25" s="18" t="n">
+        <v>23919672635.14</v>
+      </c>
+      <c r="R25" s="18" t="n">
+        <v>24136792283.2457</v>
+      </c>
+      <c r="S25" s="18" t="n">
+        <v>20757263554.6947</v>
+      </c>
+      <c r="T25" s="18" t="n">
+        <v>20524381249.9992</v>
+      </c>
+      <c r="U25" s="18" t="n">
+        <v>16814746087.9398</v>
+      </c>
+      <c r="V25" s="18" t="n">
+        <v>18409277821.6143</v>
+      </c>
+      <c r="W25" s="18" t="n">
+        <v>16961263473.4901</v>
+      </c>
+      <c r="X25" s="18" t="n">
+        <v>19036342153.6144</v>
+      </c>
+      <c r="Y25" s="18" t="n">
+        <v>21261335725.7641</v>
+      </c>
+      <c r="Z25" s="18" t="n">
+        <v>15546420509.9782</v>
+      </c>
+      <c r="AA25" s="18" t="n">
+        <v>18828756579.1899</v>
+      </c>
+      <c r="AB25" s="18" t="n">
+        <v>19656907388.4898</v>
+      </c>
+      <c r="AC25" s="18" t="n">
+        <v>17222629063.7971</v>
+      </c>
+      <c r="AD25" s="18" t="n">
+        <v>18151566559.4917</v>
+      </c>
+      <c r="AE25" s="18" t="n">
+        <v>19305043010.3455</v>
+      </c>
+      <c r="AF25" s="18"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <f>M26</f>
+      </c>
+      <c r="B26" t="str">
+        <f>N26</f>
+      </c>
+      <c r="C26" s="18" t="str">
+        <f>AB26</f>
+      </c>
+      <c r="D26" s="18" t="str">
+        <f>AD26</f>
+      </c>
+      <c r="E26" s="18" t="str">
+        <f>AE26</f>
+      </c>
+      <c r="F26" s="18" t="str">
+        <f>AF26</f>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f>AE26/AD26-1</f>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f>AE26/AB26-1</f>
+      </c>
+      <c r="I26" s="3" t="str">
+        <f>AF26/AE26</f>
+      </c>
+      <c r="J26" s="3" t="str">
+        <f>AE26/Sum(AE$22:AE$39)</f>
+      </c>
+      <c r="K26" s="3" t="str">
+        <f>AF26/Sum(AF22:AF$39)</f>
+      </c>
+      <c r="M26" t="s">
+        <v>49</v>
+      </c>
+      <c r="N26" t="s">
+        <v>43</v>
+      </c>
+      <c r="O26" s="18" t="n">
+        <v>22335569820.3483</v>
+      </c>
+      <c r="P26" s="18" t="n">
+        <v>29923037990.1248</v>
+      </c>
+      <c r="Q26" s="18" t="n">
+        <v>11691491864.6459</v>
+      </c>
+      <c r="R26" s="18" t="n">
+        <v>31604718227.9688</v>
+      </c>
+      <c r="S26" s="18" t="n">
+        <v>39818606664.7779</v>
+      </c>
+      <c r="T26" s="18" t="n">
+        <v>38210460938.5481</v>
+      </c>
+      <c r="U26" s="18" t="n">
+        <v>30699546230.451</v>
+      </c>
+      <c r="V26" s="18" t="n">
+        <v>29471853898.7883</v>
+      </c>
+      <c r="W26" s="18" t="n">
+        <v>25162408132.2103</v>
+      </c>
+      <c r="X26" s="18" t="n">
+        <v>25512876989.3574</v>
+      </c>
+      <c r="Y26" s="18" t="n">
+        <v>23878561071.4906</v>
+      </c>
+      <c r="Z26" s="18" t="n">
+        <v>23916623735.0204</v>
+      </c>
+      <c r="AA26" s="18" t="n">
+        <v>25389047255.8293</v>
+      </c>
+      <c r="AB26" s="18" t="n">
+        <v>28674762141.7718</v>
+      </c>
+      <c r="AC26" s="18" t="n">
+        <v>21376319909.2767</v>
+      </c>
+      <c r="AD26" s="18" t="n">
+        <v>21863916490.813</v>
+      </c>
+      <c r="AE26" s="18" t="n">
+        <v>21344984676.5069</v>
+      </c>
+      <c r="AF26" s="18"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <f>M27</f>
+      </c>
+      <c r="B27" t="str">
+        <f>N27</f>
+      </c>
+      <c r="C27" s="18" t="str">
+        <f>AB27</f>
+      </c>
+      <c r="D27" s="18" t="str">
+        <f>AD27</f>
+      </c>
+      <c r="E27" s="18" t="str">
+        <f>AE27</f>
+      </c>
+      <c r="F27" s="18" t="str">
+        <f>AF27</f>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f>AE27/AD27-1</f>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f>AE27/AB27-1</f>
+      </c>
+      <c r="I27" s="3" t="str">
+        <f>AF27/AE27</f>
+      </c>
+      <c r="J27" s="3" t="str">
+        <f>AE27/Sum(AE$22:AE$39)</f>
+      </c>
+      <c r="K27" s="3" t="str">
+        <f>AF27/Sum(AF22:AF$39)</f>
+      </c>
+      <c r="M27" t="s">
+        <v>50</v>
+      </c>
+      <c r="N27" t="s">
+        <v>40</v>
+      </c>
+      <c r="O27" s="18" t="n">
+        <v>12934421221.5324</v>
+      </c>
+      <c r="P27" s="18" t="n">
+        <v>13207794716.1582</v>
+      </c>
+      <c r="Q27" s="18" t="n">
+        <v>11415266832.834</v>
+      </c>
+      <c r="R27" s="18" t="n">
+        <v>9782202334.76978</v>
+      </c>
+      <c r="S27" s="18" t="n">
+        <v>8478409019.86079</v>
+      </c>
+      <c r="T27" s="18" t="n">
+        <v>8009553465.21114</v>
+      </c>
+      <c r="U27" s="18" t="n">
+        <v>7022402836.67149</v>
+      </c>
+      <c r="V27" s="18" t="n">
+        <v>8785404691.92467</v>
+      </c>
+      <c r="W27" s="18" t="n">
+        <v>9297394237.13699</v>
+      </c>
+      <c r="X27" s="18" t="n">
+        <v>9311951239.62718</v>
+      </c>
+      <c r="Y27" s="18" t="n">
+        <v>8280774462.87702</v>
+      </c>
+      <c r="Z27" s="18" t="n">
+        <v>15189159108.3498</v>
+      </c>
+      <c r="AA27" s="18" t="n">
+        <v>15182681461.849</v>
+      </c>
+      <c r="AB27" s="18" t="n">
+        <v>13786425412.1019</v>
+      </c>
+      <c r="AC27" s="18" t="n">
+        <v>12670550126.8905</v>
+      </c>
+      <c r="AD27" s="18" t="n">
+        <v>12577286209.6011</v>
+      </c>
+      <c r="AE27" s="18" t="n">
+        <v>12723722281.9879</v>
+      </c>
+      <c r="AF27" s="18"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <f>M28</f>
+      </c>
+      <c r="B28" t="str">
+        <f>N28</f>
+      </c>
+      <c r="C28" s="18" t="str">
+        <f>AB28</f>
+      </c>
+      <c r="D28" s="18" t="str">
+        <f>AD28</f>
+      </c>
+      <c r="E28" s="18" t="str">
+        <f>AE28</f>
+      </c>
+      <c r="F28" s="18" t="str">
+        <f>AF28</f>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f>AE28/AD28-1</f>
+      </c>
+      <c r="H28" s="3" t="str">
+        <f>AE28/AB28-1</f>
+      </c>
+      <c r="I28" s="3" t="str">
+        <f>AF28/AE28</f>
+      </c>
+      <c r="J28" s="3" t="str">
+        <f>AE28/Sum(AE$22:AE$39)</f>
+      </c>
+      <c r="K28" s="3" t="str">
+        <f>AF28/Sum(AF22:AF$39)</f>
+      </c>
+      <c r="M28" t="s">
+        <v>50</v>
+      </c>
+      <c r="N28" t="s">
+        <v>43</v>
+      </c>
+      <c r="O28" s="18" t="n">
+        <v>16620911815.3092</v>
+      </c>
+      <c r="P28" s="18" t="n">
+        <v>15609560016.05</v>
+      </c>
+      <c r="Q28" s="18" t="n">
+        <v>15842150054.9279</v>
+      </c>
+      <c r="R28" s="18" t="n">
+        <v>14781342810.9632</v>
+      </c>
+      <c r="S28" s="18" t="n">
+        <v>19180315345.407</v>
+      </c>
+      <c r="T28" s="18" t="n">
+        <v>17308620462.9684</v>
+      </c>
+      <c r="U28" s="18" t="n">
+        <v>13904988157.0779</v>
+      </c>
+      <c r="V28" s="18" t="n">
+        <v>14003250645.9381</v>
+      </c>
+      <c r="W28" s="18" t="n">
+        <v>13639374402.7499</v>
+      </c>
+      <c r="X28" s="18" t="n">
+        <v>12566503357.2048</v>
+      </c>
+      <c r="Y28" s="18" t="n">
+        <v>13723063047.6849</v>
+      </c>
+      <c r="Z28" s="18" t="n">
+        <v>16508094751.8032</v>
+      </c>
+      <c r="AA28" s="18" t="n">
+        <v>16211843585.8947</v>
+      </c>
+      <c r="AB28" s="18" t="n">
+        <v>15289070280.9898</v>
+      </c>
+      <c r="AC28" s="18" t="n">
+        <v>12466202122.7599</v>
+      </c>
+      <c r="AD28" s="18" t="n">
+        <v>12332917545.8821</v>
+      </c>
+      <c r="AE28" s="18" t="n">
+        <v>8499159403.4485</v>
+      </c>
+      <c r="AF28" s="18"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <f>M29</f>
+      </c>
+      <c r="B29" t="str">
+        <f>N29</f>
+      </c>
+      <c r="C29" s="18" t="str">
+        <f>AB29</f>
+      </c>
+      <c r="D29" s="18" t="str">
+        <f>AD29</f>
+      </c>
+      <c r="E29" s="18" t="str">
+        <f>AE29</f>
+      </c>
+      <c r="F29" s="18" t="str">
+        <f>AF29</f>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f>AE29/AD29-1</f>
+      </c>
+      <c r="H29" s="3" t="str">
+        <f>AE29/AB29-1</f>
+      </c>
+      <c r="I29" s="3" t="str">
+        <f>AF29/AE29</f>
+      </c>
+      <c r="J29" s="3" t="str">
+        <f>AE29/Sum(AE$22:AE$39)</f>
+      </c>
+      <c r="K29" s="3" t="str">
+        <f>AF29/Sum(AF22:AF$39)</f>
+      </c>
+      <c r="M29" t="s">
+        <v>58</v>
+      </c>
+      <c r="N29" t="s">
+        <v>40</v>
+      </c>
+      <c r="O29" s="18" t="n">
+        <v>529836.644742355</v>
+      </c>
+      <c r="P29" s="18" t="n">
+        <v>13885173.8185951</v>
+      </c>
+      <c r="Q29" s="18" t="n">
+        <v>23006581.6312027</v>
+      </c>
+      <c r="R29" s="18" t="n">
+        <v>473565965.936908</v>
+      </c>
+      <c r="S29" s="18" t="n">
+        <v>843320436.451411</v>
+      </c>
+      <c r="T29" s="18" t="n">
+        <v>957771731.993341</v>
+      </c>
+      <c r="U29" s="18" t="n">
+        <v>751216576.496738</v>
+      </c>
+      <c r="V29" s="18" t="n">
+        <v>545892925.396868</v>
+      </c>
+      <c r="W29" s="18" t="n">
+        <v>599410783.368009</v>
+      </c>
+      <c r="X29" s="18" t="n">
+        <v>936110156.092302</v>
+      </c>
+      <c r="Y29" s="18" t="n">
+        <v>1480550852.22249</v>
+      </c>
+      <c r="Z29" s="18" t="n">
+        <v>2596622289.94031</v>
+      </c>
+      <c r="AA29" s="18" t="n">
+        <v>2097893987.88952</v>
+      </c>
+      <c r="AB29" s="18" t="n">
+        <v>1915633921.84376</v>
+      </c>
+      <c r="AC29" s="18" t="n">
+        <v>2001252194.32361</v>
+      </c>
+      <c r="AD29" s="18" t="n">
+        <v>3619016357.08656</v>
+      </c>
+      <c r="AE29" s="18" t="n">
+        <v>1942123630.1997</v>
+      </c>
+      <c r="AF29" s="18"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <f>M30</f>
+      </c>
+      <c r="B30" t="str">
+        <f>N30</f>
+      </c>
+      <c r="C30" s="18" t="str">
+        <f>AB30</f>
+      </c>
+      <c r="D30" s="18" t="str">
+        <f>AD30</f>
+      </c>
+      <c r="E30" s="18" t="str">
+        <f>AE30</f>
+      </c>
+      <c r="F30" s="18" t="str">
+        <f>AF30</f>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f>AE30/AD30-1</f>
+      </c>
+      <c r="H30" s="3" t="str">
+        <f>AE30/AB30-1</f>
+      </c>
+      <c r="I30" s="3" t="str">
+        <f>AF30/AE30</f>
+      </c>
+      <c r="J30" s="3" t="str">
+        <f>AE30/Sum(AE$22:AE$39)</f>
+      </c>
+      <c r="K30" s="3" t="str">
+        <f>AF30/Sum(AF22:AF$39)</f>
+      </c>
+      <c r="M30" t="s">
+        <v>58</v>
+      </c>
+      <c r="N30" t="s">
+        <v>43</v>
+      </c>
+      <c r="O30" s="18" t="n">
+        <v>180053651.523716</v>
+      </c>
+      <c r="P30" s="18" t="n">
+        <v>75563242.4972936</v>
+      </c>
+      <c r="Q30" s="18" t="n">
+        <v>537330892.537575</v>
+      </c>
+      <c r="R30" s="18" t="n">
+        <v>14264023978.3383</v>
+      </c>
+      <c r="S30" s="18" t="n">
+        <v>57233426930.4224</v>
+      </c>
+      <c r="T30" s="18" t="n">
+        <v>73284261378.7015</v>
+      </c>
+      <c r="U30" s="18" t="n">
+        <v>60955598049.7189</v>
+      </c>
+      <c r="V30" s="18" t="n">
+        <v>56391555523.3307</v>
+      </c>
+      <c r="W30" s="18" t="n">
+        <v>55896473303.0458</v>
+      </c>
+      <c r="X30" s="18" t="n">
+        <v>64142079322.815</v>
+      </c>
+      <c r="Y30" s="18" t="n">
+        <v>72224500485.3592</v>
+      </c>
+      <c r="Z30" s="18" t="n">
+        <v>91984644249.6953</v>
+      </c>
+      <c r="AA30" s="18" t="n">
+        <v>96077357914.4246</v>
+      </c>
+      <c r="AB30" s="18" t="n">
+        <v>102566782070.852</v>
+      </c>
+      <c r="AC30" s="18" t="n">
+        <v>95996190731.8403</v>
+      </c>
+      <c r="AD30" s="18" t="n">
+        <v>91343679591.283</v>
+      </c>
+      <c r="AE30" s="18" t="n">
+        <v>59389185605.2414</v>
+      </c>
+      <c r="AF30" s="18"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <f>M31</f>
+      </c>
+      <c r="B31" t="str">
+        <f>N31</f>
+      </c>
+      <c r="C31" s="18" t="str">
+        <f>AB31</f>
+      </c>
+      <c r="D31" s="18" t="str">
+        <f>AD31</f>
+      </c>
+      <c r="E31" s="18" t="str">
+        <f>AE31</f>
+      </c>
+      <c r="F31" s="18" t="str">
+        <f>AF31</f>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f>AE31/AD31-1</f>
+      </c>
+      <c r="H31" s="3" t="str">
+        <f>AE31/AB31-1</f>
+      </c>
+      <c r="I31" s="3" t="str">
+        <f>AF31/AE31</f>
+      </c>
+      <c r="J31" s="3" t="str">
+        <f>AE31/Sum(AE$22:AE$39)</f>
+      </c>
+      <c r="K31" s="3" t="str">
+        <f>AF31/Sum(AF22:AF$39)</f>
+      </c>
+      <c r="M31" t="s">
+        <v>59</v>
+      </c>
+      <c r="N31" t="s">
+        <v>43</v>
+      </c>
+      <c r="O31" s="18" t="n">
+        <v>111088255772.911</v>
+      </c>
+      <c r="P31" s="18" t="n">
+        <v>123138320228.401</v>
+      </c>
+      <c r="Q31" s="18" t="n">
+        <v>144505644765.899</v>
+      </c>
+      <c r="R31" s="18" t="n">
+        <v>177116380820.767</v>
+      </c>
+      <c r="S31" s="18" t="n">
+        <v>156478143750.133</v>
+      </c>
+      <c r="T31" s="18" t="n">
+        <v>150305941245.104</v>
+      </c>
+      <c r="U31" s="18" t="n">
+        <v>148152681069.895</v>
+      </c>
+      <c r="V31" s="18" t="n">
+        <v>121790715050.942</v>
+      </c>
+      <c r="W31" s="18" t="n">
+        <v>120985177086.345</v>
+      </c>
+      <c r="X31" s="18" t="n">
+        <v>143246813417.291</v>
+      </c>
+      <c r="Y31" s="18" t="n">
+        <v>148419285430.795</v>
+      </c>
+      <c r="Z31" s="18" t="n">
+        <v>145326946046.844</v>
+      </c>
+      <c r="AA31" s="18" t="n">
+        <v>157116046947.798</v>
+      </c>
+      <c r="AB31" s="18" t="n">
+        <v>180404032416.85</v>
+      </c>
+      <c r="AC31" s="18" t="n">
+        <v>120115500796.549</v>
+      </c>
+      <c r="AD31" s="18" t="n">
+        <v>124771012530.695</v>
+      </c>
+      <c r="AE31" s="18" t="n">
+        <v>194731326724.396</v>
+      </c>
+      <c r="AF31" s="18"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <f>M32</f>
+      </c>
+      <c r="B32" t="str">
+        <f>N32</f>
+      </c>
+      <c r="C32" s="18" t="str">
+        <f>AB32</f>
+      </c>
+      <c r="D32" s="18" t="str">
+        <f>AD32</f>
+      </c>
+      <c r="E32" s="18" t="str">
+        <f>AE32</f>
+      </c>
+      <c r="F32" s="18" t="str">
+        <f>AF32</f>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f>AE32/AD32-1</f>
+      </c>
+      <c r="H32" s="3" t="str">
+        <f>AE32/AB32-1</f>
+      </c>
+      <c r="I32" s="3" t="str">
+        <f>AF32/AE32</f>
+      </c>
+      <c r="J32" s="3" t="str">
+        <f>AE32/Sum(AE$22:AE$39)</f>
+      </c>
+      <c r="K32" s="3" t="str">
+        <f>AF32/Sum(AF22:AF$39)</f>
+      </c>
+      <c r="M32" t="s">
+        <v>57</v>
+      </c>
+      <c r="N32" t="s">
+        <v>40</v>
+      </c>
+      <c r="O32" s="18" t="n">
+        <v>4927975.24543857</v>
+      </c>
+      <c r="P32" s="18" t="n">
+        <v>10138331.6768421</v>
+      </c>
+      <c r="Q32" s="18" t="n">
+        <v>6559574.13976913</v>
+      </c>
+      <c r="R32" s="18" t="n">
+        <v>-530002.633965152</v>
+      </c>
+      <c r="S32" s="18" t="n">
+        <v>756423.842348394</v>
+      </c>
+      <c r="T32" s="18" t="n">
+        <v>3597300.3627095</v>
+      </c>
+      <c r="U32" s="18" t="n">
+        <v>953544.880939329</v>
+      </c>
+      <c r="V32" s="18" t="n">
+        <v>2100234.12194165</v>
+      </c>
+      <c r="W32" s="18" t="n">
+        <v>860999.023632689</v>
+      </c>
+      <c r="X32" s="18" t="n">
+        <v>9268393.16624881</v>
+      </c>
+      <c r="Y32" s="18" t="n">
+        <v>18969615.411275</v>
+      </c>
+      <c r="Z32" s="18" t="n">
+        <v>12065005.5308147</v>
+      </c>
+      <c r="AA32" s="18" t="n">
+        <v>58918679.9636052</v>
+      </c>
+      <c r="AB32" s="18" t="n">
+        <v>5331743.09679972</v>
+      </c>
+      <c r="AC32" s="18" t="n">
+        <v>21077740.3019894</v>
+      </c>
+      <c r="AD32" s="18" t="n">
+        <v>6697698.44392739</v>
+      </c>
+      <c r="AE32" s="18" t="n">
+        <v>3009276.3125</v>
+      </c>
+      <c r="AF32" s="18"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <f>M33</f>
+      </c>
+      <c r="B33" t="str">
+        <f>N33</f>
+      </c>
+      <c r="C33" s="18" t="str">
+        <f>AB33</f>
+      </c>
+      <c r="D33" s="18" t="str">
+        <f>AD33</f>
+      </c>
+      <c r="E33" s="18" t="str">
+        <f>AE33</f>
+      </c>
+      <c r="F33" s="18" t="str">
+        <f>AF33</f>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f>AE33/AD33-1</f>
+      </c>
+      <c r="H33" s="3" t="str">
+        <f>AE33/AB33-1</f>
+      </c>
+      <c r="I33" s="3" t="str">
+        <f>AF33/AE33</f>
+      </c>
+      <c r="J33" s="3" t="str">
+        <f>AE33/Sum(AE$22:AE$39)</f>
+      </c>
+      <c r="K33" s="3" t="str">
+        <f>AF33/Sum(AF22:AF$39)</f>
+      </c>
+      <c r="M33" t="s">
+        <v>57</v>
+      </c>
+      <c r="N33" t="s">
+        <v>43</v>
+      </c>
+      <c r="O33" s="18" t="n">
+        <v>129494665.991222</v>
+      </c>
+      <c r="P33" s="18" t="n">
+        <v>377017676.972643</v>
+      </c>
+      <c r="Q33" s="18" t="n">
+        <v>164705115.519292</v>
+      </c>
+      <c r="R33" s="18" t="n">
+        <v>3052336970.05866</v>
+      </c>
+      <c r="S33" s="18" t="n">
+        <v>620639379.059586</v>
+      </c>
+      <c r="T33" s="18" t="n">
+        <v>428082124.158577</v>
+      </c>
+      <c r="U33" s="18" t="n">
+        <v>264005381.730712</v>
+      </c>
+      <c r="V33" s="18" t="n">
+        <v>319864252.59757</v>
+      </c>
+      <c r="W33" s="18" t="n">
+        <v>155895886.847221</v>
+      </c>
+      <c r="X33" s="18" t="n">
+        <v>233122510.00642</v>
+      </c>
+      <c r="Y33" s="18" t="n">
+        <v>153787934.235354</v>
+      </c>
+      <c r="Z33" s="18" t="n">
+        <v>168701065.6176</v>
+      </c>
+      <c r="AA33" s="18" t="n">
+        <v>367214234.446343</v>
+      </c>
+      <c r="AB33" s="18" t="n">
+        <v>380138051.906108</v>
+      </c>
+      <c r="AC33" s="18" t="n">
+        <v>333792378.138851</v>
+      </c>
+      <c r="AD33" s="18" t="n">
+        <v>356041881.589343</v>
+      </c>
+      <c r="AE33" s="18" t="n">
+        <v>643485539.1533</v>
+      </c>
+      <c r="AF33" s="18"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <f>M34</f>
+      </c>
+      <c r="B34" t="str">
+        <f>N34</f>
+      </c>
+      <c r="C34" s="18" t="str">
+        <f>AB34</f>
+      </c>
+      <c r="D34" s="18" t="str">
+        <f>AD34</f>
+      </c>
+      <c r="E34" s="18" t="str">
+        <f>AE34</f>
+      </c>
+      <c r="F34" s="18" t="str">
+        <f>AF34</f>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f>AE34/AD34-1</f>
+      </c>
+      <c r="H34" s="3" t="str">
+        <f>AE34/AB34-1</f>
+      </c>
+      <c r="I34" s="3" t="str">
+        <f>AF34/AE34</f>
+      </c>
+      <c r="J34" s="3" t="str">
+        <f>AE34/Sum(AE$22:AE$39)</f>
+      </c>
+      <c r="K34" s="3" t="str">
+        <f>AF34/Sum(AF22:AF$39)</f>
+      </c>
+      <c r="M34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N34" t="s">
+        <v>40</v>
+      </c>
+      <c r="O34" s="18" t="n">
+        <v>16441635563.8919</v>
+      </c>
+      <c r="P34" s="18" t="n">
+        <v>13872640294.2481</v>
+      </c>
+      <c r="Q34" s="18" t="n">
+        <v>9388846274.89913</v>
+      </c>
+      <c r="R34" s="18" t="n">
+        <v>6452679851.97572</v>
+      </c>
+      <c r="S34" s="18" t="n">
+        <v>4175622853.73578</v>
+      </c>
+      <c r="T34" s="18" t="n">
+        <v>3068379652.02286</v>
+      </c>
+      <c r="U34" s="18" t="n">
+        <v>2798319393.96219</v>
+      </c>
+      <c r="V34" s="18" t="n">
+        <v>1645348229.74133</v>
+      </c>
+      <c r="W34" s="18" t="n">
+        <v>2385756152.08176</v>
+      </c>
+      <c r="X34" s="18" t="n">
+        <v>1362580896.21716</v>
+      </c>
+      <c r="Y34" s="18" t="n">
+        <v>1491762627.85421</v>
+      </c>
+      <c r="Z34" s="18" t="n">
+        <v>1742646499.33167</v>
+      </c>
+      <c r="AA34" s="18" t="n">
+        <v>1969009833.89659</v>
+      </c>
+      <c r="AB34" s="18" t="n">
+        <v>1931823416.57386</v>
+      </c>
+      <c r="AC34" s="18" t="n">
+        <v>1779260726.06858</v>
+      </c>
+      <c r="AD34" s="18" t="n">
+        <v>2120304111.03891</v>
+      </c>
+      <c r="AE34" s="18" t="n">
+        <v>4477169390.5106</v>
+      </c>
+      <c r="AF34" s="18"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <f>M35</f>
+      </c>
+      <c r="B35" t="str">
+        <f>N35</f>
+      </c>
+      <c r="C35" s="18" t="str">
+        <f>AB35</f>
+      </c>
+      <c r="D35" s="18" t="str">
+        <f>AD35</f>
+      </c>
+      <c r="E35" s="18" t="str">
+        <f>AE35</f>
+      </c>
+      <c r="F35" s="18" t="str">
+        <f>AF35</f>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f>AE35/AD35-1</f>
+      </c>
+      <c r="H35" s="3" t="str">
+        <f>AE35/AB35-1</f>
+      </c>
+      <c r="I35" s="3" t="str">
+        <f>AF35/AE35</f>
+      </c>
+      <c r="J35" s="3" t="str">
+        <f>AE35/Sum(AE$22:AE$39)</f>
+      </c>
+      <c r="K35" s="3" t="str">
+        <f>AF35/Sum(AF22:AF$39)</f>
+      </c>
+      <c r="M35" t="s">
+        <v>52</v>
+      </c>
+      <c r="N35" t="s">
+        <v>43</v>
+      </c>
+      <c r="O35" s="18" t="n">
+        <v>147153612569.179</v>
+      </c>
+      <c r="P35" s="18" t="n">
+        <v>164420210501.657</v>
+      </c>
+      <c r="Q35" s="18" t="n">
+        <v>153095551077.416</v>
+      </c>
+      <c r="R35" s="18" t="n">
+        <v>99133961247.3784</v>
+      </c>
+      <c r="S35" s="18" t="n">
+        <v>69239926254.2744</v>
+      </c>
+      <c r="T35" s="18" t="n">
+        <v>42730646467.4167</v>
+      </c>
+      <c r="U35" s="18" t="n">
+        <v>23974436712.4759</v>
+      </c>
+      <c r="V35" s="18" t="n">
+        <v>20314232201.0919</v>
+      </c>
+      <c r="W35" s="18" t="n">
+        <v>15990151116.3622</v>
+      </c>
+      <c r="X35" s="18" t="n">
+        <v>13745352770.8921</v>
+      </c>
+      <c r="Y35" s="18" t="n">
+        <v>15116598869.0337</v>
+      </c>
+      <c r="Z35" s="18" t="n">
+        <v>13993013802.1368</v>
+      </c>
+      <c r="AA35" s="18" t="n">
+        <v>12401734985.2125</v>
+      </c>
+      <c r="AB35" s="18" t="n">
+        <v>14587012514.7497</v>
+      </c>
+      <c r="AC35" s="18" t="n">
+        <v>13454323199.1341</v>
+      </c>
+      <c r="AD35" s="18" t="n">
+        <v>11669529367.0915</v>
+      </c>
+      <c r="AE35" s="18" t="n">
+        <v>25833604840.0789</v>
+      </c>
+      <c r="AF35" s="18"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <f>M36</f>
+      </c>
+      <c r="B36" t="str">
+        <f>N36</f>
+      </c>
+      <c r="C36" s="18" t="str">
+        <f>AB36</f>
+      </c>
+      <c r="D36" s="18" t="str">
+        <f>AD36</f>
+      </c>
+      <c r="E36" s="18" t="str">
+        <f>AE36</f>
+      </c>
+      <c r="F36" s="18" t="str">
+        <f>AF36</f>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f>AE36/AD36-1</f>
+      </c>
+      <c r="H36" s="3" t="str">
+        <f>AE36/AB36-1</f>
+      </c>
+      <c r="I36" s="3" t="str">
+        <f>AF36/AE36</f>
+      </c>
+      <c r="J36" s="3" t="str">
+        <f>AE36/Sum(AE$22:AE$39)</f>
+      </c>
+      <c r="K36" s="3" t="str">
+        <f>AF36/Sum(AF22:AF$39)</f>
+      </c>
+      <c r="M36" t="s">
+        <v>53</v>
+      </c>
+      <c r="N36" t="s">
+        <v>40</v>
+      </c>
+      <c r="O36" s="18" t="n">
+        <v>10090339516.4006</v>
+      </c>
+      <c r="P36" s="18" t="n">
+        <v>9503327731.90822</v>
+      </c>
+      <c r="Q36" s="18" t="n">
+        <v>8241815808.85705</v>
+      </c>
+      <c r="R36" s="18" t="n">
+        <v>6676031358.44169</v>
+      </c>
+      <c r="S36" s="18" t="n">
+        <v>5198954299.9283</v>
+      </c>
+      <c r="T36" s="18" t="n">
+        <v>5160319440.4918</v>
+      </c>
+      <c r="U36" s="18" t="n">
+        <v>4133016730.02998</v>
+      </c>
+      <c r="V36" s="18" t="n">
+        <v>4539302513.64279</v>
+      </c>
+      <c r="W36" s="18" t="n">
+        <v>4066287420.91547</v>
+      </c>
+      <c r="X36" s="18" t="n">
+        <v>5218826948.29399</v>
+      </c>
+      <c r="Y36" s="18" t="n">
+        <v>6100980272.25558</v>
+      </c>
+      <c r="Z36" s="18" t="n">
+        <v>7391316317.30767</v>
+      </c>
+      <c r="AA36" s="18" t="n">
+        <v>7613188126.02797</v>
+      </c>
+      <c r="AB36" s="18" t="n">
+        <v>7518488707.1741</v>
+      </c>
+      <c r="AC36" s="18" t="n">
+        <v>7812651156.89991</v>
+      </c>
+      <c r="AD36" s="18" t="n">
+        <v>7176418096.70276</v>
+      </c>
+      <c r="AE36" s="18" t="n">
+        <v>8814402353.8</v>
+      </c>
+      <c r="AF36" s="18"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <f>M37</f>
+      </c>
+      <c r="B37" t="str">
+        <f>N37</f>
+      </c>
+      <c r="C37" s="18" t="str">
+        <f>AB37</f>
+      </c>
+      <c r="D37" s="18" t="str">
+        <f>AD37</f>
+      </c>
+      <c r="E37" s="18" t="str">
+        <f>AE37</f>
+      </c>
+      <c r="F37" s="18" t="str">
+        <f>AF37</f>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f>AE37/AD37-1</f>
+      </c>
+      <c r="H37" s="3" t="str">
+        <f>AE37/AB37-1</f>
+      </c>
+      <c r="I37" s="3" t="str">
+        <f>AF37/AE37</f>
+      </c>
+      <c r="J37" s="3" t="str">
+        <f>AE37/Sum(AE$22:AE$39)</f>
+      </c>
+      <c r="K37" s="3" t="str">
+        <f>AF37/Sum(AF22:AF$39)</f>
+      </c>
+      <c r="M37" t="s">
+        <v>53</v>
+      </c>
+      <c r="N37" t="s">
+        <v>43</v>
+      </c>
+      <c r="O37" s="18" t="n">
+        <v>18663362563.569</v>
+      </c>
+      <c r="P37" s="18" t="n">
+        <v>18134547145.9764</v>
+      </c>
+      <c r="Q37" s="18" t="n">
+        <v>19161293332.7016</v>
+      </c>
+      <c r="R37" s="18" t="n">
+        <v>15038604386.5055</v>
+      </c>
+      <c r="S37" s="18" t="n">
+        <v>19915513238.1746</v>
+      </c>
+      <c r="T37" s="18" t="n">
+        <v>18507659233.2783</v>
+      </c>
+      <c r="U37" s="18" t="n">
+        <v>15829195326.1934</v>
+      </c>
+      <c r="V37" s="18" t="n">
+        <v>15809969342.2214</v>
+      </c>
+      <c r="W37" s="18" t="n">
+        <v>15463233983.3389</v>
+      </c>
+      <c r="X37" s="18" t="n">
+        <v>15601806330.4727</v>
+      </c>
+      <c r="Y37" s="18" t="n">
+        <v>15910486263.1108</v>
+      </c>
+      <c r="Z37" s="18" t="n">
+        <v>19461986189.005</v>
+      </c>
+      <c r="AA37" s="18" t="n">
+        <v>19242699175.4681</v>
+      </c>
+      <c r="AB37" s="18" t="n">
+        <v>18464304257.4098</v>
+      </c>
+      <c r="AC37" s="18" t="n">
+        <v>15991853064.804</v>
+      </c>
+      <c r="AD37" s="18" t="n">
+        <v>15668786800.3169</v>
+      </c>
+      <c r="AE37" s="18" t="n">
+        <v>11139398950.3839</v>
+      </c>
+      <c r="AF37" s="18"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <f>M38</f>
+      </c>
+      <c r="B38" t="str">
+        <f>N38</f>
+      </c>
+      <c r="C38" s="18" t="str">
+        <f>AB38</f>
+      </c>
+      <c r="D38" s="18" t="str">
+        <f>AD38</f>
+      </c>
+      <c r="E38" s="18" t="str">
+        <f>AE38</f>
+      </c>
+      <c r="F38" s="18" t="str">
+        <f>AF38</f>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f>AE38/AD38-1</f>
+      </c>
+      <c r="H38" s="3" t="str">
+        <f>AE38/AB38-1</f>
+      </c>
+      <c r="I38" s="3" t="str">
+        <f>AF38/AE38</f>
+      </c>
+      <c r="J38" s="3" t="str">
+        <f>AE38/Sum(AE$22:AE$39)</f>
+      </c>
+      <c r="K38" s="3" t="str">
+        <f>AF38/Sum(AF22:AF$39)</f>
+      </c>
+      <c r="M38" t="s">
+        <v>54</v>
+      </c>
+      <c r="N38" t="s">
+        <v>40</v>
+      </c>
+      <c r="O38" s="18" t="n">
+        <v>114099492.256617</v>
+      </c>
+      <c r="P38" s="18" t="n">
+        <v>2236818721.86535</v>
+      </c>
+      <c r="Q38" s="18" t="n">
+        <v>2062110370.67563</v>
+      </c>
+      <c r="R38" s="18" t="n">
+        <v>1773119678.15537</v>
+      </c>
+      <c r="S38" s="18" t="n">
+        <v>1230928832.95137</v>
+      </c>
+      <c r="T38" s="18" t="n">
+        <v>720441968.198254</v>
+      </c>
+      <c r="U38" s="18" t="n">
+        <v>469408377.364554</v>
+      </c>
+      <c r="V38" s="18" t="n">
+        <v>445360130.14083</v>
+      </c>
+      <c r="W38" s="18" t="n">
+        <v>436189402.912613</v>
+      </c>
+      <c r="X38" s="18" t="n">
+        <v>551097826.03881</v>
+      </c>
+      <c r="Y38" s="18" t="n">
+        <v>285188965.305346</v>
+      </c>
+      <c r="Z38" s="18" t="n">
+        <v>341167535.038676</v>
+      </c>
+      <c r="AA38" s="18" t="n">
+        <v>497300047.432713</v>
+      </c>
+      <c r="AB38" s="18" t="n">
+        <v>317654941.821024</v>
+      </c>
+      <c r="AC38" s="18" t="n">
+        <v>261525572.646818</v>
+      </c>
+      <c r="AD38" s="18" t="n">
+        <v>266340872.847015</v>
+      </c>
+      <c r="AE38" s="18" t="n">
+        <v>1589998587.9479</v>
+      </c>
+      <c r="AF38" s="18"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <f>M39</f>
+      </c>
+      <c r="B39" t="str">
+        <f>N39</f>
+      </c>
+      <c r="C39" s="18" t="str">
+        <f>AB39</f>
+      </c>
+      <c r="D39" s="18" t="str">
+        <f>AD39</f>
+      </c>
+      <c r="E39" s="18" t="str">
+        <f>AE39</f>
+      </c>
+      <c r="F39" s="18" t="str">
+        <f>AF39</f>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f>AE39/AD39-1</f>
+      </c>
+      <c r="H39" s="3" t="str">
+        <f>AE39/AB39-1</f>
+      </c>
+      <c r="I39" s="3" t="str">
+        <f>AF39/AE39</f>
+      </c>
+      <c r="J39" s="3" t="str">
+        <f>AE39/Sum(AE$22:AE$39)</f>
+      </c>
+      <c r="K39" s="3" t="str">
+        <f>AF39/Sum(AF22:AF$39)</f>
+      </c>
+      <c r="M39" t="s">
+        <v>54</v>
+      </c>
+      <c r="N39" t="s">
+        <v>43</v>
+      </c>
+      <c r="O39" s="18" t="n">
+        <v>1137745054.57605</v>
+      </c>
+      <c r="P39" s="18" t="n">
+        <v>9159808555.11235</v>
+      </c>
+      <c r="Q39" s="18" t="n">
+        <v>12650885003.0742</v>
+      </c>
+      <c r="R39" s="18" t="n">
+        <v>4191361281.1556</v>
+      </c>
+      <c r="S39" s="18" t="n">
+        <v>3222682785.20794</v>
+      </c>
+      <c r="T39" s="18" t="n">
+        <v>2470470853.99235</v>
+      </c>
+      <c r="U39" s="18" t="n">
+        <v>1437247059.90891</v>
+      </c>
+      <c r="V39" s="18" t="n">
+        <v>1226755644.67248</v>
+      </c>
+      <c r="W39" s="18" t="n">
+        <v>861884451.154199</v>
+      </c>
+      <c r="X39" s="18" t="n">
+        <v>841713894.541416</v>
+      </c>
+      <c r="Y39" s="18" t="n">
+        <v>919674838.218218</v>
+      </c>
+      <c r="Z39" s="18" t="n">
+        <v>864185373.553737</v>
+      </c>
+      <c r="AA39" s="18" t="n">
+        <v>1041481260.86416</v>
+      </c>
+      <c r="AB39" s="18" t="n">
+        <v>938317012.248685</v>
+      </c>
+      <c r="AC39" s="18" t="n">
+        <v>465658214.260482</v>
+      </c>
+      <c r="AD39" s="18" t="n">
+        <v>475006942.541081</v>
+      </c>
+      <c r="AE39" s="18" t="n">
+        <v>1912728130.1274</v>
+      </c>
+      <c r="AF39" s="18"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <f>M40</f>
+      </c>
+      <c r="B40" t="str">
+        <f>N40</f>
+      </c>
+      <c r="C40" s="18" t="str">
+        <f>AB40</f>
+      </c>
+      <c r="D40" s="18" t="str">
+        <f>AD40</f>
+      </c>
+      <c r="E40" s="18" t="str">
+        <f>AE40</f>
+      </c>
+      <c r="F40" s="18" t="str">
+        <f>AF40</f>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f>AE40/AD40-1</f>
+      </c>
+      <c r="H40" s="3" t="str">
+        <f>AE40/AB40-1</f>
+      </c>
+      <c r="I40" s="3" t="str">
+        <f>AF40/AE40</f>
+      </c>
+      <c r="J40" s="3" t="str">
+        <f>Sum(J$22:J$39)</f>
+      </c>
+      <c r="K40" s="3" t="str">
+        <f>Sum(K$22:K$39)</f>
+      </c>
+      <c r="M40" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" t="s">
+        <v>19</v>
+      </c>
+      <c r="O40" s="18" t="str">
+        <f>Sum(O23:O39)</f>
+      </c>
+      <c r="P40" s="18" t="str">
+        <f>Sum(P23:P39)</f>
+      </c>
+      <c r="Q40" s="18" t="str">
+        <f>Sum(Q23:Q39)</f>
+      </c>
+      <c r="R40" s="18" t="str">
+        <f>Sum(R23:R39)</f>
+      </c>
+      <c r="S40" s="18" t="str">
+        <f>Sum(S23:S39)</f>
+      </c>
+      <c r="T40" s="18" t="str">
+        <f>Sum(T23:T39)</f>
+      </c>
+      <c r="U40" s="18" t="str">
+        <f>Sum(U23:U39)</f>
+      </c>
+      <c r="V40" s="18" t="str">
+        <f>Sum(V23:V39)</f>
+      </c>
+      <c r="W40" s="18" t="str">
+        <f>Sum(W23:W39)</f>
+      </c>
+      <c r="X40" s="18" t="str">
+        <f>Sum(X23:X39)</f>
+      </c>
+      <c r="Y40" s="18" t="str">
+        <f>Sum(Y23:Y39)</f>
+      </c>
+      <c r="Z40" s="18" t="str">
+        <f>Sum(Z23:Z39)</f>
+      </c>
+      <c r="AA40" s="18" t="str">
+        <f>Sum(AA23:AA39)</f>
+      </c>
+      <c r="AB40" s="18" t="str">
+        <f>Sum(AB23:AB39)</f>
+      </c>
+      <c r="AC40" s="18" t="str">
+        <f>Sum(AC23:AC39)</f>
+      </c>
+      <c r="AD40" s="18" t="str">
+        <f>Sum(AD23:AD39)</f>
+      </c>
+      <c r="AE40" s="18" t="str">
+        <f>Sum(AE23:AE39)</f>
+      </c>
+      <c r="AF40" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
